--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ECBB9875-9862-417F-9CDD-1C43BCCAABCC}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8757D8AB-8D1D-40BB-9BB6-A1F371559D39}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
@@ -710,7 +710,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection sqref="A1:Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -770,7 +770,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -788,34 +788,34 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>410.6776180698152</v>
+        <v>314.20972120777805</v>
       </c>
       <c r="H2">
-        <v>327.99084933092621</v>
+        <v>350.0406543279633</v>
       </c>
       <c r="I2">
-        <v>1.2521008403361344</v>
+        <v>0.89763779527559051</v>
       </c>
       <c r="J2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2">
-        <v>0.1044776119402985</v>
+        <v>0.11203319502074689</v>
       </c>
       <c r="L2">
-        <v>1711.6161128950016</v>
+        <v>1521.436544795557</v>
       </c>
       <c r="M2">
-        <v>1943.1390653638907</v>
+        <v>1744.6908203905571</v>
       </c>
       <c r="N2">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="O2">
         <v>5</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -841,28 +841,28 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>683.03730538624995</v>
+        <v>439.41765881519643</v>
       </c>
       <c r="H3">
-        <v>428.59011896759409</v>
+        <v>725.44516978935917</v>
       </c>
       <c r="I3">
-        <v>1.5936842105263158</v>
+        <v>0.60572139303482586</v>
       </c>
       <c r="J3">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="K3">
-        <v>0.12337662337662338</v>
+        <v>0.12238574748257165</v>
       </c>
       <c r="L3">
-        <v>1804.5899746003961</v>
+        <v>2055.4279810698508</v>
       </c>
       <c r="M3">
-        <v>2216.0364888092863</v>
+        <v>2483.1158050501449</v>
       </c>
       <c r="N3">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O3">
         <v>6</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -894,31 +894,31 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>80.815616063657828</v>
+        <v>130.54830287206266</v>
       </c>
       <c r="H4">
-        <v>68.382444361556637</v>
+        <v>99.465373616809643</v>
       </c>
       <c r="I4">
-        <v>1.1818181818181817</v>
+        <v>1.3125</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>0.16666666666666666</v>
+        <v>0.27027027027027029</v>
       </c>
       <c r="L4">
-        <v>1510.6303618052964</v>
+        <v>1585.2293920179038</v>
       </c>
       <c r="M4">
-        <v>1585.2293920179038</v>
+        <v>1771.7269675494217</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>6</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -947,34 +947,34 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>334.31484743670518</v>
+        <v>293.16840467526453</v>
       </c>
       <c r="H5">
-        <v>180.01568708130281</v>
+        <v>423.03686464106158</v>
       </c>
       <c r="I5">
-        <v>1.8571428571428568</v>
+        <v>0.69300911854103331</v>
       </c>
       <c r="J5">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="K5">
-        <v>0.17249999999999999</v>
+        <v>0.14721723518850988</v>
       </c>
       <c r="L5">
-        <v>1054.3775957619164</v>
+        <v>1098.0956911959472</v>
       </c>
       <c r="M5">
-        <v>1320.5436473749855</v>
+        <v>1414.4089699245219</v>
       </c>
       <c r="N5">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="O5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1000,31 +1000,31 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>432.69941598284913</v>
+        <v>464.34907961854066</v>
       </c>
       <c r="H6">
-        <v>352.07363051674429</v>
+        <v>542.43365121608633</v>
       </c>
       <c r="I6">
-        <v>1.2290026246719161</v>
+        <v>0.85604770017035769</v>
       </c>
       <c r="J6">
-        <v>483</v>
+        <v>700</v>
       </c>
       <c r="K6">
-        <v>0.142184280247277</v>
+        <v>0.16062413951353832</v>
       </c>
       <c r="L6">
-        <v>1808.1891772011534</v>
+        <v>1787.6284468100835</v>
       </c>
       <c r="M6">
-        <v>2142.936349523176</v>
+        <v>2272.7692762622905</v>
       </c>
       <c r="N6">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="O6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P6">
         <v>6</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1053,31 +1053,31 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>432.69941598284913</v>
+        <v>464.34907961854066</v>
       </c>
       <c r="H7">
-        <v>352.07363051674429</v>
+        <v>542.43365121608633</v>
       </c>
       <c r="I7">
-        <v>1.2290026246719161</v>
+        <v>0.85604770017035769</v>
       </c>
       <c r="J7">
-        <v>483</v>
+        <v>700</v>
       </c>
       <c r="K7">
-        <v>0.142184280247277</v>
+        <v>0.16062413951353832</v>
       </c>
       <c r="L7">
-        <v>1808.1891772011534</v>
+        <v>1787.6284468100835</v>
       </c>
       <c r="M7">
-        <v>2142.936349523176</v>
+        <v>2272.7692762622905</v>
       </c>
       <c r="N7">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="O7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P7">
         <v>6</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1106,31 +1106,31 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>432.69941598284913</v>
+        <v>464.34907961854066</v>
       </c>
       <c r="H8">
-        <v>352.07363051674429</v>
+        <v>542.43365121608633</v>
       </c>
       <c r="I8">
-        <v>1.2290026246719161</v>
+        <v>0.85604770017035769</v>
       </c>
       <c r="J8">
-        <v>483</v>
+        <v>700</v>
       </c>
       <c r="K8">
-        <v>0.142184280247277</v>
+        <v>0.16062413951353832</v>
       </c>
       <c r="L8">
-        <v>1808.1891772011534</v>
+        <v>1787.6284468100835</v>
       </c>
       <c r="M8">
-        <v>2142.936349523176</v>
+        <v>2272.7692762622905</v>
       </c>
       <c r="N8">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="O8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P8">
         <v>6</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1159,31 +1159,31 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>432.69941598284913</v>
+        <v>464.34907961854066</v>
       </c>
       <c r="H9">
-        <v>352.07363051674429</v>
+        <v>542.43365121608633</v>
       </c>
       <c r="I9">
-        <v>1.2290026246719161</v>
+        <v>0.85604770017035769</v>
       </c>
       <c r="J9">
-        <v>483</v>
+        <v>700</v>
       </c>
       <c r="K9">
-        <v>0.142184280247277</v>
+        <v>0.16062413951353832</v>
       </c>
       <c r="L9">
-        <v>1808.1891772011534</v>
+        <v>1787.6284468100835</v>
       </c>
       <c r="M9">
-        <v>2142.936349523176</v>
+        <v>2272.7692762622905</v>
       </c>
       <c r="N9">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P9">
         <v>6</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1212,31 +1212,31 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>432.69941598284913</v>
+        <v>464.34907961854066</v>
       </c>
       <c r="H10">
-        <v>352.07363051674429</v>
+        <v>542.43365121608633</v>
       </c>
       <c r="I10">
-        <v>1.2290026246719161</v>
+        <v>0.85604770017035769</v>
       </c>
       <c r="J10">
-        <v>483</v>
+        <v>700</v>
       </c>
       <c r="K10">
-        <v>0.142184280247277</v>
+        <v>0.16062413951353832</v>
       </c>
       <c r="L10">
-        <v>1808.1891772011534</v>
+        <v>1787.6284468100835</v>
       </c>
       <c r="M10">
-        <v>2142.936349523176</v>
+        <v>2272.7692762622905</v>
       </c>
       <c r="N10">
-        <v>170</v>
+        <v>202</v>
       </c>
       <c r="O10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P10">
         <v>6</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1265,34 +1265,34 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>206.67377277276464</v>
+        <v>149.71643381964051</v>
       </c>
       <c r="H11">
-        <v>209.92847785580031</v>
+        <v>229.45670835401427</v>
       </c>
       <c r="I11">
-        <v>0.98449612403100772</v>
+        <v>0.65248226950354604</v>
       </c>
       <c r="J11">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.109375</v>
+        <v>9.012875536480687E-2</v>
       </c>
       <c r="L11">
-        <v>1511.8105110700656</v>
+        <v>1298.6273281312297</v>
       </c>
       <c r="M11">
-        <v>1648.5081245575634</v>
+        <v>1401.1505382468531</v>
       </c>
       <c r="N11">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1318,34 +1318,34 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>433.41850761716853</v>
+        <v>281.39858330368406</v>
       </c>
       <c r="H12">
-        <v>297.57091567745897</v>
+        <v>621.01756315295791</v>
       </c>
       <c r="I12">
-        <v>1.4565217391304348</v>
+        <v>0.453125</v>
       </c>
       <c r="J12">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K12">
-        <v>0.15486725663716813</v>
+        <v>0.14336917562724014</v>
       </c>
       <c r="L12">
-        <v>2817.2202995115954</v>
+        <v>1979.4934825500532</v>
       </c>
       <c r="M12">
-        <v>3156.8392793608691</v>
+        <v>2367.6294595206518</v>
       </c>
       <c r="N12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1371,31 +1371,31 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>288.63232682060391</v>
+        <v>225.35523978685612</v>
       </c>
       <c r="H13">
-        <v>309.72468916518648</v>
+        <v>293.0728241563055</v>
       </c>
       <c r="I13">
-        <v>0.93189964157706096</v>
+        <v>0.76893939393939392</v>
       </c>
       <c r="J13">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>7.4211502782931357E-2</v>
+        <v>9.421841541755889E-2</v>
       </c>
       <c r="L13">
-        <v>1722.9129662522203</v>
+        <v>1596.3587921847245</v>
       </c>
       <c r="M13">
-        <v>1856.1278863232683</v>
+        <v>1742.8952042628773</v>
       </c>
       <c r="N13">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P13">
         <v>5</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1424,31 +1424,31 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>299.52263579919503</v>
+        <v>252.72222395557083</v>
       </c>
       <c r="H14">
-        <v>159.12140026832236</v>
+        <v>340.082992730336</v>
       </c>
       <c r="I14">
-        <v>1.8823529411764706</v>
+        <v>0.74311926605504597</v>
       </c>
       <c r="J14">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.14965986394557823</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="L14">
-        <v>1447.6927396961094</v>
+        <v>1503.8532339084584</v>
       </c>
       <c r="M14">
-        <v>1653.6145518080559</v>
+        <v>1737.8552931265795</v>
       </c>
       <c r="N14">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P14">
         <v>6</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1477,34 +1477,34 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>235.70260920253949</v>
+        <v>195.15162267307034</v>
       </c>
       <c r="H15">
-        <v>179.94500272451941</v>
+        <v>258.51253912536589</v>
       </c>
       <c r="I15">
-        <v>1.3098591549295773</v>
+        <v>0.75490196078431371</v>
       </c>
       <c r="J15">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.11585365853658537</v>
+        <v>0.15642458100558659</v>
       </c>
       <c r="L15">
-        <v>2017.411579841091</v>
+        <v>1295.0971322849214</v>
       </c>
       <c r="M15">
-        <v>2161.8744693523249</v>
+        <v>1507.9898115646345</v>
       </c>
       <c r="N15">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q15">
         <v>7</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1530,34 +1530,34 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>311.38135634776637</v>
+        <v>435.60698932640287</v>
       </c>
       <c r="H16">
-        <v>196.14573628205758</v>
+        <v>361.23506431945606</v>
       </c>
       <c r="I16">
-        <v>1.5874999999999997</v>
+        <v>1.2058823529411764</v>
       </c>
       <c r="J16">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="K16">
-        <v>0.13687600644122383</v>
+        <v>0.14461538461538462</v>
       </c>
       <c r="L16">
-        <v>1062.4560715278119</v>
+        <v>1558.5413295411824</v>
       </c>
       <c r="M16">
-        <v>1270.860916327498</v>
+        <v>1904.2481897383088</v>
       </c>
       <c r="N16">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O16">
         <v>5</v>
       </c>
       <c r="P16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1583,28 +1583,28 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>385.85824227220547</v>
+        <v>415.62141247502018</v>
       </c>
       <c r="H17">
-        <v>143.50099919214253</v>
+        <v>347.59130915430075</v>
       </c>
       <c r="I17">
-        <v>2.6888888888888891</v>
+        <v>1.1957186544342508</v>
       </c>
       <c r="J17">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="K17">
-        <v>0.20682730923694778</v>
+        <v>0.12952646239554316</v>
       </c>
       <c r="L17">
-        <v>1276.6274076278753</v>
+        <v>1929.2912113610273</v>
       </c>
       <c r="M17">
-        <v>1605.085250223224</v>
+        <v>2225.8599430247887</v>
       </c>
       <c r="N17">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="O17">
         <v>6</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1636,31 +1636,31 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>112.96598468683318</v>
+        <v>138.06953683946278</v>
       </c>
       <c r="H18">
-        <v>185.13869712564326</v>
+        <v>106.69009664867578</v>
       </c>
       <c r="I18">
-        <v>0.61016949152542377</v>
+        <v>1.2941176470588236</v>
       </c>
       <c r="J18">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K18">
-        <v>0.15789473684210525</v>
+        <v>0.14102564102564102</v>
       </c>
       <c r="L18">
-        <v>740.55478850257305</v>
+        <v>759.38245261704537</v>
       </c>
       <c r="M18">
-        <v>881.7622693611147</v>
+        <v>862.93460524664249</v>
       </c>
       <c r="N18">
         <v>8</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P18">
         <v>5</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1689,31 +1689,31 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>464.31546792557617</v>
+        <v>473.20188836434318</v>
       </c>
       <c r="H19">
-        <v>266.59261316301024</v>
+        <v>533.18522632602048</v>
       </c>
       <c r="I19">
-        <v>1.7416666666666667</v>
+        <v>0.88749999999999996</v>
       </c>
       <c r="J19">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.1337386018237082</v>
+        <v>0.11037527593818984</v>
       </c>
       <c r="L19">
-        <v>1357.4007220216606</v>
+        <v>2430.4359900027771</v>
       </c>
       <c r="M19">
-        <v>1650.6525965009719</v>
+        <v>2763.6767564565398</v>
       </c>
       <c r="N19">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P19">
         <v>6</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -1742,31 +1742,31 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>275.87096982358776</v>
+        <v>211.33974881222224</v>
       </c>
       <c r="H20">
-        <v>191.98038250881254</v>
+        <v>269.4178477224512</v>
       </c>
       <c r="I20">
-        <v>1.4369747899159664</v>
+        <v>0.78443113772455109</v>
       </c>
       <c r="J20">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K20">
-        <v>0.23448275862068965</v>
+        <v>0.21812080536912751</v>
       </c>
       <c r="L20">
-        <v>1584.2414758290245</v>
+        <v>1548.7493042727733</v>
       </c>
       <c r="M20">
-        <v>1913.3507029869888</v>
+        <v>1863.3390067031808</v>
       </c>
       <c r="N20">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P20">
         <v>6</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -1795,34 +1795,34 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>611.61562829989441</v>
+        <v>481.52059134107708</v>
       </c>
       <c r="H21">
-        <v>522.0696937697993</v>
+        <v>662.30200633579727</v>
       </c>
       <c r="I21">
-        <v>1.1715210355987056</v>
+        <v>0.72704081632653061</v>
       </c>
       <c r="J21">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K21">
-        <v>0.13263785394932937</v>
+        <v>0.14032496307237813</v>
       </c>
       <c r="L21">
-        <v>1856.8109820485745</v>
+        <v>1976.7687434002112</v>
       </c>
       <c r="M21">
-        <v>2307.9197465681095</v>
+        <v>2458.2893347412883</v>
       </c>
       <c r="N21">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q21">
         <v>7</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1848,34 +1848,34 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>198.04612215059478</v>
+        <v>212.66697680600785</v>
       </c>
       <c r="H22">
-        <v>136.90436631886755</v>
+        <v>216.65448262112048</v>
       </c>
       <c r="I22">
-        <v>1.4466019417475726</v>
+        <v>0.98159509202453998</v>
       </c>
       <c r="J22">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.17063492063492064</v>
+        <v>0.1609907120743034</v>
       </c>
       <c r="L22">
-        <v>1054.0307037947764</v>
+        <v>1666.7774307170864</v>
       </c>
       <c r="M22">
-        <v>1225.49345384462</v>
+        <v>1874.1277331029441</v>
       </c>
       <c r="N22">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="O22">
         <v>5</v>
       </c>
       <c r="P22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -1901,28 +1901,28 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>162.22354404369221</v>
+        <v>228.09613465537331</v>
       </c>
       <c r="H23">
-        <v>128.79566224074958</v>
+        <v>198.60094482924742</v>
       </c>
       <c r="I23">
-        <v>1.2595419847328244</v>
+        <v>1.1485148514851486</v>
       </c>
       <c r="J23">
+        <v>61</v>
+      </c>
+      <c r="K23">
+        <v>0.14055299539170507</v>
+      </c>
+      <c r="L23">
+        <v>1366.6104619438313</v>
+      </c>
+      <c r="M23">
+        <v>1546.5311198831989</v>
+      </c>
+      <c r="N23">
         <v>44</v>
-      </c>
-      <c r="K23">
-        <v>0.14864864864864866</v>
-      </c>
-      <c r="L23">
-        <v>879.93982981275474</v>
-      </c>
-      <c r="M23">
-        <v>1009.7186650477084</v>
-      </c>
-      <c r="N23">
-        <v>28</v>
       </c>
       <c r="O23">
         <v>5</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -1954,34 +1954,34 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>440.77030245587542</v>
+        <v>492.9131848166445</v>
       </c>
       <c r="H24">
-        <v>315.57306928757072</v>
+        <v>497.53000252567085</v>
       </c>
       <c r="I24">
-        <v>1.3967297762478486</v>
+        <v>0.99072052401746735</v>
       </c>
       <c r="J24">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="K24">
-        <v>9.5511669658886897E-2</v>
+        <v>9.1856320263230054E-2</v>
       </c>
       <c r="L24">
-        <v>1073.5459061047909</v>
+        <v>1333.4455853717488</v>
       </c>
       <c r="M24">
-        <v>1290.264760916737</v>
+        <v>1606.3809852288991</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2007,34 +2007,34 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>440.77030245587542</v>
+        <v>492.9131848166445</v>
       </c>
       <c r="H25">
-        <v>315.57306928757072</v>
+        <v>497.53000252567085</v>
       </c>
       <c r="I25">
-        <v>1.3967297762478486</v>
+        <v>0.99072052401746735</v>
       </c>
       <c r="J25">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="K25">
-        <v>9.5511669658886897E-2</v>
+        <v>9.1856320263230054E-2</v>
       </c>
       <c r="L25">
-        <v>1073.5459061047909</v>
+        <v>1333.4455853717488</v>
       </c>
       <c r="M25">
-        <v>1290.264760916737</v>
+        <v>1606.3809852288991</v>
       </c>
       <c r="N25">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q25">
         <v>7</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2060,34 +2060,34 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>440.77030245587542</v>
+        <v>492.9131848166445</v>
       </c>
       <c r="H26">
-        <v>315.57306928757072</v>
+        <v>497.53000252567085</v>
       </c>
       <c r="I26">
-        <v>1.3967297762478486</v>
+        <v>0.99072052401746735</v>
       </c>
       <c r="J26">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="K26">
-        <v>9.5511669658886897E-2</v>
+        <v>9.1856320263230054E-2</v>
       </c>
       <c r="L26">
-        <v>1073.5459061047909</v>
+        <v>1333.4455853717488</v>
       </c>
       <c r="M26">
-        <v>1290.264760916737</v>
+        <v>1606.3809852288991</v>
       </c>
       <c r="N26">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2113,34 +2113,34 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>440.77030245587542</v>
+        <v>492.9131848166445</v>
       </c>
       <c r="H27">
-        <v>315.57306928757072</v>
+        <v>497.53000252567085</v>
       </c>
       <c r="I27">
-        <v>1.3967297762478486</v>
+        <v>0.99072052401746735</v>
       </c>
       <c r="J27">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="K27">
-        <v>9.5511669658886897E-2</v>
+        <v>9.1856320263230054E-2</v>
       </c>
       <c r="L27">
-        <v>1073.5459061047909</v>
+        <v>1333.4455853717488</v>
       </c>
       <c r="M27">
-        <v>1290.264760916737</v>
+        <v>1606.3809852288991</v>
       </c>
       <c r="N27">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q27">
         <v>7</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2166,34 +2166,34 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>440.77030245587542</v>
+        <v>492.9131848166445</v>
       </c>
       <c r="H28">
-        <v>315.57306928757072</v>
+        <v>497.53000252567085</v>
       </c>
       <c r="I28">
-        <v>1.3967297762478486</v>
+        <v>0.99072052401746735</v>
       </c>
       <c r="J28">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="K28">
-        <v>9.5511669658886897E-2</v>
+        <v>9.1856320263230054E-2</v>
       </c>
       <c r="L28">
-        <v>1073.5459061047909</v>
+        <v>1333.4455853717488</v>
       </c>
       <c r="M28">
-        <v>1290.264760916737</v>
+        <v>1606.3809852288991</v>
       </c>
       <c r="N28">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="O28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2219,31 +2219,31 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>220.89982868992874</v>
+        <v>243.44062753583989</v>
       </c>
       <c r="H29">
-        <v>148.76927238301326</v>
+        <v>216.39166892074655</v>
       </c>
       <c r="I29">
-        <v>1.4848484848484846</v>
+        <v>1.125</v>
       </c>
       <c r="J29">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="K29">
-        <v>7.3170731707317069E-2</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="L29">
-        <v>464.34045622576861</v>
+        <v>739.338202145884</v>
       </c>
       <c r="M29">
-        <v>545.48733207104863</v>
+        <v>982.77882968172401</v>
       </c>
       <c r="N29">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P29">
         <v>6</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2272,34 +2272,34 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>285.59275688157015</v>
+        <v>246.09588624901258</v>
       </c>
       <c r="H30">
-        <v>346.35717323935103</v>
+        <v>364.5864981466853</v>
       </c>
       <c r="I30">
-        <v>0.82456140350877194</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="J30">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K30">
-        <v>6.25E-2</v>
+        <v>8.9552238805970144E-2</v>
       </c>
       <c r="L30">
-        <v>2357.6593546818981</v>
+        <v>1716.5947621073101</v>
       </c>
       <c r="M30">
-        <v>2476.1499665795709</v>
+        <v>1880.6586862733184</v>
       </c>
       <c r="N30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2325,34 +2325,34 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>244.53187035299214</v>
+        <v>425.90052696166896</v>
       </c>
       <c r="H31">
-        <v>172.34534035948892</v>
+        <v>267.09016097596191</v>
       </c>
       <c r="I31">
-        <v>1.418848167539267</v>
+        <v>1.5945945945945945</v>
       </c>
       <c r="J31">
-        <v>67</v>
+        <v>169</v>
       </c>
       <c r="K31">
-        <v>0.14502164502164502</v>
+        <v>0.22005208333333334</v>
       </c>
       <c r="L31">
-        <v>1758.644336966722</v>
+        <v>2753.9161192521474</v>
       </c>
       <c r="M31">
-        <v>1940.0129935753987</v>
+        <v>3211.3982530859744</v>
       </c>
       <c r="N31">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2378,34 +2378,34 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>344.19322295412735</v>
+        <v>172.09661147706368</v>
       </c>
       <c r="H32">
-        <v>264.07928312859769</v>
+        <v>314.52139338911638</v>
       </c>
       <c r="I32">
-        <v>1.303370786516854</v>
+        <v>0.54716981132075471</v>
       </c>
       <c r="J32">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K32">
-        <v>0.18536585365853658</v>
+        <v>0.16463414634146342</v>
       </c>
       <c r="L32">
-        <v>3462.7025102367816</v>
+        <v>1180.9388166874369</v>
       </c>
       <c r="M32">
-        <v>3800.9613672779064</v>
+        <v>1421.280636164026</v>
       </c>
       <c r="N32">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="O32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2431,31 +2431,31 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>391.63858539589404</v>
+        <v>390.25470346870003</v>
       </c>
       <c r="H33">
-        <v>358.42541914323868</v>
+        <v>446.99386248365283</v>
       </c>
       <c r="I33">
-        <v>1.0926640926640927</v>
+        <v>0.87306501547987625</v>
       </c>
       <c r="J33">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="K33">
-        <v>0.20848708487084872</v>
+        <v>0.13223140495867769</v>
       </c>
       <c r="L33">
-        <v>1555.4832861660243</v>
+        <v>2237.7370762726523</v>
       </c>
       <c r="M33">
-        <v>2024.6192594847805</v>
+        <v>2569.8687387992059</v>
       </c>
       <c r="N33">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="O33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P33">
         <v>6</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2484,34 +2484,34 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>277.67947077559688</v>
+        <v>179.6749516783274</v>
       </c>
       <c r="H34">
-        <v>247.73364549587566</v>
+        <v>287.20768791005361</v>
       </c>
       <c r="I34">
-        <v>1.1208791208791209</v>
+        <v>0.62559241706161151</v>
       </c>
       <c r="J34">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.16062176165803108</v>
+        <v>0.17201166180758018</v>
       </c>
       <c r="L34">
-        <v>1165.1648381564262</v>
+        <v>913.3476710314975</v>
       </c>
       <c r="M34">
-        <v>1418.3431791577054</v>
+        <v>1154.2754471456183</v>
       </c>
       <c r="N34">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q34">
         <v>7</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -2537,31 +2537,31 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>347.13345801434281</v>
+        <v>317.5329305867632</v>
       </c>
       <c r="H35">
-        <v>207.20369199305733</v>
+        <v>414.40738398611467</v>
       </c>
       <c r="I35">
-        <v>1.6753246753246753</v>
+        <v>0.76623376623376627</v>
       </c>
       <c r="J35">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K35">
-        <v>9.7087378640776698E-2</v>
+        <v>9.9264705882352935E-2</v>
       </c>
       <c r="L35">
-        <v>606.8108122653822</v>
+        <v>1411.4069668877737</v>
       </c>
       <c r="M35">
-        <v>768.26823459763466</v>
+        <v>1629.3744870363146</v>
       </c>
       <c r="N35">
         <v>29</v>
       </c>
       <c r="O35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P35">
         <v>5</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -2590,31 +2590,31 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>421.43287176399758</v>
+        <v>375.76034378957422</v>
       </c>
       <c r="H36">
-        <v>296.87143183375201</v>
+        <v>631.11129564657767</v>
       </c>
       <c r="I36">
-        <v>1.4195804195804196</v>
+        <v>0.59539473684210531</v>
       </c>
       <c r="J36">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="K36">
-        <v>0.13005780346820808</v>
+        <v>0.12164948453608247</v>
       </c>
       <c r="L36">
-        <v>1482.2811351699224</v>
+        <v>1905.7900309327576</v>
       </c>
       <c r="M36">
-        <v>1762.544375012975</v>
+        <v>2273.2462787269819</v>
       </c>
       <c r="N36">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="O36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P36">
         <v>6</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -2643,28 +2643,28 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>211.12190178609129</v>
+        <v>371.57454714352065</v>
       </c>
       <c r="H37">
         <v>261.79115821475324</v>
       </c>
       <c r="I37">
-        <v>0.80645161290322565</v>
+        <v>1.419354838709677</v>
       </c>
       <c r="J37">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K37">
-        <v>0.44642857142857145</v>
+        <v>0.36</v>
       </c>
       <c r="L37">
-        <v>1680.5303382172867</v>
+        <v>2364.5653000042225</v>
       </c>
       <c r="M37">
-        <v>2313.8960435755607</v>
+        <v>3048.6002617911581</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O37">
         <v>5</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -2696,31 +2696,31 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>228.53529650873946</v>
+        <v>170.72399620613342</v>
       </c>
       <c r="H38">
-        <v>184.2735197145567</v>
+        <v>241.18151844993449</v>
       </c>
       <c r="I38">
-        <v>1.2401960784313728</v>
+        <v>0.70786516853932591</v>
       </c>
       <c r="J38">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K38">
-        <v>0.18818380743982493</v>
+        <v>0.19736842105263158</v>
       </c>
       <c r="L38">
-        <v>1326.0467006910258</v>
+        <v>971.0491847703355</v>
       </c>
       <c r="M38">
-        <v>1559.0985050359063</v>
+        <v>1214.9406079219548</v>
       </c>
       <c r="N38">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P38">
         <v>6</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -2749,28 +2749,28 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>318.71300652602821</v>
+        <v>273.18257702230989</v>
       </c>
       <c r="H39">
-        <v>337.68401881924422</v>
+        <v>409.77386553346486</v>
       </c>
       <c r="I39">
-        <v>0.94382022471910099</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J39">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K39">
-        <v>0.12138728323699421</v>
+        <v>9.4444444444444442E-2</v>
       </c>
       <c r="L39">
-        <v>1081.3477007133099</v>
+        <v>1043.4056761268782</v>
       </c>
       <c r="M39">
-        <v>1320.3824556078314</v>
+        <v>1236.9100015176809</v>
       </c>
       <c r="N39">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O39">
         <v>5</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -2802,31 +2802,31 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>73.40796476417691</v>
+        <v>76.599615406097641</v>
       </c>
       <c r="H40">
-        <v>41.491458344969558</v>
+        <v>71.812139443216552</v>
       </c>
       <c r="I40">
-        <v>1.7692307692307692</v>
+        <v>1.0666666666666664</v>
       </c>
       <c r="J40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K40">
-        <v>8.3333333333333329E-2</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="L40">
-        <v>742.05877424657092</v>
+        <v>722.90887039504651</v>
       </c>
       <c r="M40">
-        <v>770.78363002385765</v>
+        <v>765.99615406097655</v>
       </c>
       <c r="N40">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P40">
         <v>6</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -2855,34 +2855,34 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>924.7338450111414</v>
+        <v>793.51324585293389</v>
       </c>
       <c r="H41">
-        <v>563.25823223570194</v>
+        <v>1028.1010151027483</v>
       </c>
       <c r="I41">
-        <v>1.6417582417582417</v>
+        <v>0.77182420228777837</v>
       </c>
       <c r="J41">
-        <v>256</v>
+        <v>347</v>
       </c>
       <c r="K41">
-        <v>0.1064891846921797</v>
+        <v>0.11790689772341148</v>
       </c>
       <c r="L41">
-        <v>2117.4795741520179</v>
+        <v>3219.2374350086657</v>
       </c>
       <c r="M41">
-        <v>2592.8447635553352</v>
+        <v>3863.5800940826934</v>
       </c>
       <c r="N41">
-        <v>55</v>
+        <v>173</v>
       </c>
       <c r="O41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -2908,28 +2908,28 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>522.75252383959332</v>
+        <v>474.79357669834621</v>
       </c>
       <c r="H42">
-        <v>463.60315569872188</v>
+        <v>460.40589255597212</v>
       </c>
       <c r="I42">
-        <v>1.1275862068965519</v>
+        <v>1.03125</v>
       </c>
       <c r="J42">
-        <v>112</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.18152350081037277</v>
+        <v>0.13162393162393163</v>
       </c>
       <c r="L42">
-        <v>1900.7729383647597</v>
+        <v>1782.474202083017</v>
       </c>
       <c r="M42">
-        <v>2437.9131463467274</v>
+        <v>2151.7580950706197</v>
       </c>
       <c r="N42">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O42">
         <v>6</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -2961,34 +2961,34 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>317.25591617537566</v>
+        <v>335.24094543701824</v>
       </c>
       <c r="H43">
-        <v>197.8353218780687</v>
+        <v>344.5931606530724</v>
       </c>
       <c r="I43">
-        <v>1.6036363636363637</v>
+        <v>0.97286012526096033</v>
       </c>
       <c r="J43">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="K43">
-        <v>0.14664804469273743</v>
+        <v>0.15238095238095239</v>
       </c>
       <c r="L43">
-        <v>1377.6532414418239</v>
+        <v>1458.2261725339827</v>
       </c>
       <c r="M43">
-        <v>1604.2646101385205</v>
+        <v>1769.0074781751671</v>
       </c>
       <c r="N43">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3017,31 +3017,31 @@
         <v>219.31507900825724</v>
       </c>
       <c r="H44">
-        <v>107.46438871404604</v>
+        <v>258.79179322974352</v>
       </c>
       <c r="I44">
-        <v>2.0408163265306123</v>
+        <v>0.84745762711864414</v>
       </c>
       <c r="J44">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="K44">
-        <v>0.18791946308724833</v>
+        <v>0.20183486238532111</v>
       </c>
       <c r="L44">
-        <v>1903.6548857916728</v>
+        <v>1969.4494094941499</v>
       </c>
       <c r="M44">
-        <v>2087.8795521586085</v>
+        <v>2258.9453137850492</v>
       </c>
       <c r="N44">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="O44">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3067,31 +3067,31 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>283.9818865607491</v>
+        <v>366.87389669199479</v>
       </c>
       <c r="H45">
-        <v>184.20446695832374</v>
+        <v>377.61915726456368</v>
       </c>
       <c r="I45">
-        <v>1.5416666666666667</v>
+        <v>0.97154471544715448</v>
       </c>
       <c r="J45">
+        <v>49</v>
+      </c>
+      <c r="K45">
+        <v>0.10103092783505155</v>
+      </c>
+      <c r="L45">
+        <v>1797.5285900683091</v>
+      </c>
+      <c r="M45">
+        <v>2023.1790620922557</v>
+      </c>
+      <c r="N45">
         <v>23</v>
       </c>
-      <c r="K45">
-        <v>7.5409836065573776E-2</v>
-      </c>
-      <c r="L45">
-        <v>1287.8962314836135</v>
-      </c>
-      <c r="M45">
-        <v>1393.8137999846497</v>
-      </c>
-      <c r="N45">
-        <v>16</v>
-      </c>
       <c r="O45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P45">
         <v>6</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3120,31 +3120,31 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>452.21129732096654</v>
+        <v>480.87257672863342</v>
       </c>
       <c r="H46">
-        <v>270.68986107240954</v>
+        <v>535.0105489431154</v>
       </c>
       <c r="I46">
-        <v>1.6705882352941177</v>
+        <v>0.89880952380952372</v>
       </c>
       <c r="J46">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>0.13876651982378854</v>
+        <v>0.12695924764890282</v>
       </c>
       <c r="L46">
-        <v>1191.035388718602</v>
+        <v>2276.979419609092</v>
       </c>
       <c r="M46">
-        <v>1491.9788224991044</v>
+        <v>2663.9066916125948</v>
       </c>
       <c r="N46">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P46">
         <v>6</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3173,34 +3173,34 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>214.24246658283263</v>
+        <v>200.27013180569142</v>
       </c>
       <c r="H47">
-        <v>130.4084579199851</v>
+        <v>246.84458106282895</v>
       </c>
       <c r="I47">
-        <v>1.6428571428571426</v>
+        <v>0.81132075471698117</v>
       </c>
       <c r="J47">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K47">
-        <v>0.14864864864864866</v>
+        <v>0.15625</v>
       </c>
       <c r="L47">
-        <v>544.92105630850915</v>
+        <v>777.7933025941968</v>
       </c>
       <c r="M47">
-        <v>698.61673885706307</v>
+        <v>987.3783242513158</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3226,31 +3226,31 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>311.68534078073844</v>
+        <v>248.77637291673616</v>
       </c>
       <c r="H48">
-        <v>244.96370819770573</v>
+        <v>351.71832033055802</v>
       </c>
       <c r="I48">
-        <v>1.2723735408560313</v>
+        <v>0.70731707317073178</v>
       </c>
       <c r="J48">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="K48">
-        <v>0.15068493150684931</v>
+        <v>0.1873015873015873</v>
       </c>
       <c r="L48">
-        <v>1438.3277652542333</v>
+        <v>2407.6977700677226</v>
       </c>
       <c r="M48">
-        <v>1689.9636367102423</v>
+        <v>2745.1185977019163</v>
       </c>
       <c r="N48">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="O48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P48">
         <v>6</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -3279,34 +3279,34 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>639.02880434347389</v>
+        <v>502.89484853095445</v>
       </c>
       <c r="H49">
-        <v>539.73109539787151</v>
+        <v>690.27923476701073</v>
       </c>
       <c r="I49">
-        <v>1.1839762611275964</v>
+        <v>0.72853828306264501</v>
       </c>
       <c r="J49">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="K49">
-        <v>0.14130434782608695</v>
+        <v>0.15436241610738255</v>
       </c>
       <c r="L49">
-        <v>2280.644153847386</v>
+        <v>2184.5495968032542</v>
       </c>
       <c r="M49">
-        <v>2780.3358504768694</v>
+        <v>2737.0932998070098</v>
       </c>
       <c r="N49">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3332,28 +3332,28 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>345.083836580595</v>
+        <v>321.73658031029072</v>
       </c>
       <c r="H50">
-        <v>285.86152799250613</v>
+        <v>336.54215745731295</v>
       </c>
       <c r="I50">
-        <v>1.2071713147410357</v>
+        <v>0.95600676818950925</v>
       </c>
       <c r="J50">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="K50">
-        <v>0.15794223826714801</v>
+        <v>0.14013840830449828</v>
       </c>
       <c r="L50">
-        <v>969.7653031299559</v>
+        <v>1157.1127985672758</v>
       </c>
       <c r="M50">
-        <v>1268.7240724448277</v>
+        <v>1433.8632021616143</v>
       </c>
       <c r="N50">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="O50">
         <v>5</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -3385,34 +3385,34 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>236.60336096193819</v>
+        <v>225.40761832966984</v>
       </c>
       <c r="H51">
-        <v>215.70464138170394</v>
+        <v>298.55313686048981</v>
       </c>
       <c r="I51">
-        <v>1.0968858131487889</v>
+        <v>0.75500000000000012</v>
       </c>
       <c r="J51">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="K51">
-        <v>0.19471947194719472</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="L51">
-        <v>1035.2330020637487</v>
+        <v>1032.2474706951436</v>
       </c>
       <c r="M51">
-        <v>1299.4525281852821</v>
+        <v>1374.8371952425557</v>
       </c>
       <c r="N51">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -3438,31 +3438,31 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>519.07604464053986</v>
+        <v>221.17153206423001</v>
       </c>
       <c r="H52">
-        <v>476.19584964849525</v>
+        <v>539.38771595256094</v>
       </c>
       <c r="I52">
-        <v>1.0900473933649288</v>
+        <v>0.41004184100418412</v>
       </c>
       <c r="J52">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K52">
-        <v>0.12018140589569161</v>
+        <v>0.14243323442136499</v>
       </c>
       <c r="L52">
-        <v>1453.4129249935115</v>
+        <v>1918.3245128019951</v>
       </c>
       <c r="M52">
-        <v>1812.2524515058847</v>
+        <v>2243.311253794333</v>
       </c>
       <c r="N52">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P52">
         <v>6</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -3491,31 +3491,31 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>146.32977180124379</v>
+        <v>204.35709510173706</v>
       </c>
       <c r="H53">
-        <v>239.67807450203725</v>
+        <v>138.76099050117946</v>
       </c>
       <c r="I53">
-        <v>0.61052631578947369</v>
+        <v>1.4727272727272729</v>
       </c>
       <c r="J53">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="K53">
-        <v>0.35294117647058826</v>
+        <v>0.10294117647058823</v>
       </c>
       <c r="L53">
-        <v>1077.2898717091571</v>
+        <v>1165.5923202099075</v>
       </c>
       <c r="M53">
-        <v>1486.004061912631</v>
+        <v>1271.5552584108084</v>
       </c>
       <c r="N53">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="O53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P53">
         <v>5</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -3544,31 +3544,31 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>222.19845768129375</v>
+        <v>215.06909540274958</v>
       </c>
       <c r="H54">
-        <v>278.04512886322323</v>
+        <v>242.39831747050229</v>
       </c>
       <c r="I54">
-        <v>0.79914529914529908</v>
+        <v>0.88725490196078427</v>
       </c>
       <c r="J54">
         <v>43</v>
       </c>
       <c r="K54">
-        <v>0.10213776722090261</v>
+        <v>0.11168831168831168</v>
       </c>
       <c r="L54">
-        <v>1045.6398008531469</v>
+        <v>977.91085920697731</v>
       </c>
       <c r="M54">
-        <v>1198.9210898418471</v>
+        <v>1131.1921481956772</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P54">
         <v>5</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -3597,34 +3597,34 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>160.74973677230605</v>
+        <v>109.30982100516809</v>
       </c>
       <c r="H55">
-        <v>147.88975783052157</v>
+        <v>162.35723414002911</v>
       </c>
       <c r="I55">
-        <v>1.0869565217391304</v>
+        <v>0.67326732673267309</v>
       </c>
       <c r="J55">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="K55">
-        <v>0.15625</v>
+        <v>0.13609467455621302</v>
       </c>
       <c r="L55">
-        <v>524.04414187771761</v>
+        <v>1054.5182732263277</v>
       </c>
       <c r="M55">
-        <v>668.7189049727931</v>
+        <v>1165.4355915992189</v>
       </c>
       <c r="N55">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="O55">
         <v>4</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -3650,31 +3650,31 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>407.39303728263559</v>
+        <v>283.94060174244294</v>
       </c>
       <c r="H56">
-        <v>387.99336884060523</v>
+        <v>430.31991816867134</v>
       </c>
       <c r="I56">
-        <v>1.0500000000000003</v>
+        <v>0.65983606557377039</v>
       </c>
       <c r="J56">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>0.13082039911308205</v>
+        <v>0.11358024691358025</v>
       </c>
       <c r="L56">
-        <v>902.96638566540867</v>
+        <v>3356.1426404712361</v>
       </c>
       <c r="M56">
-        <v>1215.1246869598956</v>
+        <v>3599.5202991076158</v>
       </c>
       <c r="N56">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P56">
         <v>6</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -3703,34 +3703,34 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>226.37705825491378</v>
+        <v>280.90583871047698</v>
       </c>
       <c r="H57">
-        <v>145.41008121483512</v>
+        <v>252.81525483942929</v>
       </c>
       <c r="I57">
-        <v>1.5568181818181819</v>
+        <v>1.1111111111111112</v>
       </c>
       <c r="J57">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>0.16444444444444445</v>
+        <v>0.15170278637770898</v>
       </c>
       <c r="L57">
-        <v>680.78356205127352</v>
+        <v>1376.4386096813371</v>
       </c>
       <c r="M57">
-        <v>864.1985508563497</v>
+        <v>1619.3395408015731</v>
       </c>
       <c r="N57">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="O57">
         <v>5</v>
       </c>
       <c r="P57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -3756,34 +3756,34 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>259.26284221727775</v>
+        <v>410.17703395569316</v>
       </c>
       <c r="H58">
-        <v>148.97939440843572</v>
+        <v>336.65473541646514</v>
       </c>
       <c r="I58">
-        <v>1.7402597402597402</v>
+        <v>1.2183908045977012</v>
       </c>
       <c r="J58">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="K58">
-        <v>0.11848341232227488</v>
+        <v>0.13212435233160622</v>
       </c>
       <c r="L58">
-        <v>675.24426816290998</v>
+        <v>1309.8577923962466</v>
       </c>
       <c r="M58">
-        <v>820.35406791138632</v>
+        <v>1605.8817838831383</v>
       </c>
       <c r="N58">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="O58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -3809,31 +3809,31 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>349.54136610561937</v>
+        <v>366.23920206607892</v>
       </c>
       <c r="H59">
-        <v>247.12797221480096</v>
+        <v>434.14373497194765</v>
       </c>
       <c r="I59">
-        <v>1.4144144144144144</v>
+        <v>0.84358974358974359</v>
       </c>
       <c r="J59">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K59">
-        <v>9.1417910447761194E-2</v>
+        <v>7.9276773296244787E-2</v>
       </c>
       <c r="L59">
-        <v>748.06305102858664</v>
+        <v>1336.9400659007927</v>
       </c>
       <c r="M59">
-        <v>911.70184344109009</v>
+        <v>1527.2953958500311</v>
       </c>
       <c r="N59">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P59">
         <v>5</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -3862,31 +3862,31 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>380.50491347649142</v>
+        <v>276.27965456771335</v>
       </c>
       <c r="H60">
-        <v>337.49131456175758</v>
+        <v>627.00592264169677</v>
       </c>
       <c r="I60">
-        <v>1.1274509803921571</v>
+        <v>0.44063324538258575</v>
       </c>
       <c r="J60">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="K60">
-        <v>8.755760368663594E-2</v>
+        <v>0.1043956043956044</v>
       </c>
       <c r="L60">
-        <v>1062.1050193561196</v>
+        <v>1306.9516593322965</v>
       </c>
       <c r="M60">
-        <v>1250.7031069053371</v>
+        <v>1589.8487906561229</v>
       </c>
       <c r="N60">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="O60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P60">
         <v>5</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -3915,31 +3915,31 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>445.817278603955</v>
+        <v>314.19503444469211</v>
       </c>
       <c r="H61">
-        <v>396.98967189971239</v>
+        <v>677.21767559362695</v>
       </c>
       <c r="I61">
-        <v>1.1229946524064169</v>
+        <v>0.46394984326018807</v>
       </c>
       <c r="J61">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="K61">
-        <v>0.11838790931989925</v>
+        <v>0.13490364025695931</v>
       </c>
       <c r="L61">
-        <v>1231.3048647156854</v>
+        <v>1335.3288963899415</v>
       </c>
       <c r="M61">
-        <v>1530.6393232069122</v>
+        <v>1736.5644471335008</v>
       </c>
       <c r="N61">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P61">
         <v>5</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -3968,31 +3968,31 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>168.31997351029926</v>
+        <v>173.83866116637464</v>
       </c>
       <c r="H62">
-        <v>93.817690153281546</v>
+        <v>193.15406796263849</v>
       </c>
       <c r="I62">
-        <v>1.7941176470588238</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="J62">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K62">
-        <v>0.2</v>
+        <v>0.13533834586466165</v>
       </c>
       <c r="L62">
-        <v>1324.4850374580924</v>
+        <v>1379.6719140188463</v>
       </c>
       <c r="M62">
-        <v>1481.7676356562411</v>
+        <v>1528.6764807328818</v>
       </c>
       <c r="N62">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P62">
         <v>6</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4021,34 +4021,34 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>179.67483237652834</v>
+        <v>52.587755817520488</v>
       </c>
       <c r="H63">
-        <v>113.94013760462772</v>
+        <v>201.58639730049518</v>
       </c>
       <c r="I63">
-        <v>1.5769230769230771</v>
+        <v>0.26086956521739135</v>
       </c>
       <c r="J63">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K63">
-        <v>0.13432835820895522</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="L63">
         <v>999.16736053288923</v>
       </c>
       <c r="M63">
-        <v>1117.4898111223104</v>
+        <v>1104.3428721679302</v>
       </c>
       <c r="N63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -4074,31 +4074,31 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>257.60537262567033</v>
+        <v>267.62892798075478</v>
       </c>
       <c r="H64">
-        <v>372.87625920914149</v>
+        <v>241.56768405753522</v>
       </c>
       <c r="I64">
-        <v>0.69086021505376338</v>
+        <v>1.107883817427386</v>
       </c>
       <c r="J64">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="K64">
-        <v>0.1192368839427663</v>
+        <v>0.1062992125984252</v>
       </c>
       <c r="L64">
-        <v>1075.5274896005615</v>
+        <v>1149.7017992281862</v>
       </c>
       <c r="M64">
-        <v>1301.0574850899613</v>
+        <v>1312.0833959805543</v>
       </c>
       <c r="N64">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P64">
         <v>5</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -4127,34 +4127,34 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>289.13786872028692</v>
+        <v>444.82749033890298</v>
       </c>
       <c r="H65">
-        <v>227.97408879868777</v>
+        <v>294.6982123495232</v>
       </c>
       <c r="I65">
-        <v>1.2682926829268293</v>
+        <v>1.5094339622641511</v>
       </c>
       <c r="J65">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="K65">
-        <v>0.11827956989247312</v>
+        <v>0.15538847117794485</v>
       </c>
       <c r="L65">
-        <v>1371.5514285449508</v>
+        <v>1603.2324130964628</v>
       </c>
       <c r="M65">
-        <v>1555.0427683097482</v>
+        <v>1947.9737181091125</v>
       </c>
       <c r="N65">
         <v>23</v>
       </c>
       <c r="O65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -4180,31 +4180,31 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>345.80167543346971</v>
+        <v>277.61542957334893</v>
       </c>
       <c r="H66">
-        <v>340.93122930060395</v>
+        <v>321.44944476914088</v>
       </c>
       <c r="I66">
-        <v>1.0142857142857142</v>
+        <v>0.86363636363636365</v>
       </c>
       <c r="J66">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="K66">
-        <v>0.21276595744680851</v>
+        <v>0.15447154471544716</v>
       </c>
       <c r="L66">
-        <v>1509.8383011883889</v>
+        <v>1578.0245470485097</v>
       </c>
       <c r="M66">
-        <v>1948.1784531463081</v>
+        <v>1855.6399766218585</v>
       </c>
       <c r="N66">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P66">
         <v>5</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -4233,28 +4233,28 @@
         <v>32564</v>
       </c>
       <c r="G67">
+        <v>291.73320230929863</v>
+      </c>
+      <c r="H67">
         <v>580.39552880481517</v>
       </c>
-      <c r="H67">
-        <v>654.09654833558534</v>
-      </c>
       <c r="I67">
-        <v>0.88732394366197187</v>
+        <v>0.50264550264550267</v>
       </c>
       <c r="J67">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="K67">
-        <v>0.18656716417910449</v>
+        <v>0.10915492957746478</v>
       </c>
       <c r="L67">
-        <v>2386.0705073086847</v>
+        <v>2223.3140891782336</v>
       </c>
       <c r="M67">
-        <v>3077.0175654096547</v>
+        <v>2508.905539859968</v>
       </c>
       <c r="N67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O67">
         <v>4</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -4286,31 +4286,31 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>383.56515973563944</v>
+        <v>394.97230203261017</v>
       </c>
       <c r="H68">
-        <v>125.47856526667759</v>
+        <v>434.89730007200757</v>
       </c>
       <c r="I68">
-        <v>3.0568181818181817</v>
+        <v>0.90819672131147544</v>
       </c>
       <c r="J68">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="K68">
-        <v>0.18487394957983194</v>
+        <v>0.14948453608247422</v>
       </c>
       <c r="L68">
-        <v>2371.2597049827823</v>
+        <v>3383.6435838389316</v>
       </c>
       <c r="M68">
-        <v>2653.586476832807</v>
+        <v>3755.8016012776002</v>
       </c>
       <c r="N68">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="O68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P68">
         <v>7</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -4339,31 +4339,31 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>269.56992207151194</v>
+        <v>286.65533966759369</v>
       </c>
       <c r="H69">
-        <v>336.96240258938997</v>
+        <v>274.31587140375689</v>
       </c>
       <c r="I69">
-        <v>0.79999999999999993</v>
+        <v>1.0449826989619377</v>
       </c>
       <c r="J69">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="K69">
-        <v>0.22222222222222221</v>
+        <v>0.10998307952622674</v>
       </c>
       <c r="L69">
-        <v>1125.7391816084971</v>
+        <v>1039.3629037616395</v>
       </c>
       <c r="M69">
-        <v>1530.0940647157652</v>
+        <v>1224.4549277191918</v>
       </c>
       <c r="N69">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P69">
         <v>5</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -4392,31 +4392,31 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>592.02081677916226</v>
+        <v>491.60430655850791</v>
       </c>
       <c r="H70">
-        <v>550.98102564550356</v>
+        <v>726.49162177029939</v>
       </c>
       <c r="I70">
-        <v>1.074484944532488</v>
+        <v>0.6766826923076924</v>
       </c>
       <c r="J70">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K70">
-        <v>0.13903743315508021</v>
+        <v>0.14265232974910394</v>
       </c>
       <c r="L70">
-        <v>2254.5689512150398</v>
+        <v>2068.5801105454798</v>
       </c>
       <c r="M70">
-        <v>2731.3290780017987</v>
+        <v>2589.8727766474854</v>
       </c>
       <c r="N70">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="O70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P70">
         <v>6</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -4445,31 +4445,31 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>472.61512443895828</v>
+        <v>478.65493433594173</v>
       </c>
       <c r="H71">
-        <v>276.32130278699475</v>
+        <v>481.67483928443352</v>
       </c>
       <c r="I71">
-        <v>1.7103825136612023</v>
+        <v>0.99373040752351094</v>
       </c>
       <c r="J71">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="K71">
-        <v>0.14717741935483872</v>
+        <v>0.13522012578616352</v>
       </c>
       <c r="L71">
-        <v>1414.0704921312602</v>
+        <v>1674.5372939386732</v>
       </c>
       <c r="M71">
-        <v>1744.7500839911065</v>
+        <v>2064.1050322941082</v>
       </c>
       <c r="N71">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="O71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P71">
         <v>6</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4498,31 +4498,31 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>239.23444976076553</v>
+        <v>321.07781415260638</v>
       </c>
       <c r="H72">
-        <v>107.0259380508688</v>
+        <v>409.21682195920425</v>
       </c>
       <c r="I72">
-        <v>2.2352941176470584</v>
+        <v>0.78461538461538449</v>
       </c>
       <c r="J72">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K72">
-        <v>0.12727272727272726</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="L72">
-        <v>1372.4502644170234</v>
+        <v>1391.3371946612942</v>
       </c>
       <c r="M72">
-        <v>1504.6587761269202</v>
+        <v>1693.5280785696298</v>
       </c>
       <c r="N72">
         <v>11</v>
       </c>
       <c r="O72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P72">
         <v>6</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -4551,31 +4551,31 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>168.60143725815368</v>
+        <v>127.14206744057491</v>
       </c>
       <c r="H73">
-        <v>129.9060254284135</v>
+        <v>118.85019347705915</v>
       </c>
       <c r="I73">
-        <v>1.2978723404255319</v>
+        <v>1.069767441860465</v>
       </c>
       <c r="J73">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K73">
-        <v>0.27777777777777779</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="L73">
-        <v>1393.0348258706467</v>
+        <v>1130.4588170259813</v>
       </c>
       <c r="M73">
-        <v>1641.7910447761194</v>
+        <v>1404.090657822001</v>
       </c>
       <c r="N73">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P73">
         <v>6</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -4607,28 +4607,28 @@
         <v>98.91196834817012</v>
       </c>
       <c r="H74">
-        <v>154.11864835645113</v>
+        <v>94.311411680813379</v>
       </c>
       <c r="I74">
-        <v>0.64179104477611937</v>
+        <v>1.0487804878048779</v>
       </c>
       <c r="J74">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K74">
-        <v>0.14545454545454545</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L74">
         <v>611.8740367584478</v>
       </c>
       <c r="M74">
-        <v>722.28739677500971</v>
+        <v>708.48572677293953</v>
       </c>
       <c r="N74">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P74">
         <v>5</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -4657,28 +4657,28 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>318.20123442268761</v>
+        <v>298.39104083995221</v>
       </c>
       <c r="H75">
-        <v>281.05712145505873</v>
+        <v>408.58524264391798</v>
       </c>
       <c r="I75">
-        <v>1.13215859030837</v>
+        <v>0.73030303030303023</v>
       </c>
       <c r="J75">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="K75">
-        <v>0.18595041322314049</v>
+        <v>0.20490367775831875</v>
       </c>
       <c r="L75">
-        <v>1186.135340766283</v>
+        <v>1225.7557279317539</v>
       </c>
       <c r="M75">
-        <v>1520.4323574749433</v>
+        <v>1660.3418496530121</v>
       </c>
       <c r="N75">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="O75">
         <v>5</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -4710,28 +4710,28 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>225.59984705095115</v>
+        <v>325.01672880221776</v>
       </c>
       <c r="H76">
-        <v>118.53551285727943</v>
+        <v>229.4235732721537</v>
       </c>
       <c r="I76">
-        <v>1.9032258064516128</v>
+        <v>1.4166666666666667</v>
       </c>
       <c r="J76">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K76">
-        <v>0.18888888888888888</v>
+        <v>0.16551724137931034</v>
       </c>
       <c r="L76">
-        <v>2508.3644011088804</v>
+        <v>1605.965012905076</v>
       </c>
       <c r="M76">
-        <v>2703.3744383902113</v>
+        <v>1881.2733008316607</v>
       </c>
       <c r="N76">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="O76">
         <v>6</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -4763,34 +4763,34 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>204.85899939182485</v>
+        <v>206.99294730215635</v>
       </c>
       <c r="H77">
-        <v>179.25162446784674</v>
+        <v>198.45715566083032</v>
       </c>
       <c r="I77">
-        <v>1.1428571428571428</v>
+        <v>1.043010752688172</v>
       </c>
       <c r="J77">
         <v>41</v>
       </c>
       <c r="K77">
-        <v>0.22777777777777777</v>
+        <v>0.21578947368421053</v>
       </c>
       <c r="L77">
-        <v>1143.7960799376885</v>
+        <v>1077.6436947174118</v>
       </c>
       <c r="M77">
-        <v>1406.2716729084643</v>
+        <v>1340.1192876881876</v>
       </c>
       <c r="N77">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="O77">
         <v>5</v>
       </c>
       <c r="P77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -4816,34 +4816,34 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>428.99717165581524</v>
+        <v>351.17025113418504</v>
       </c>
       <c r="H78">
-        <v>420.1388229785565</v>
+        <v>539.09379093031646</v>
       </c>
       <c r="I78">
-        <v>1.0210843373493976</v>
+        <v>0.65140845070422537</v>
       </c>
       <c r="J78">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="K78">
-        <v>0.13859910581222057</v>
+        <v>0.13859275053304904</v>
       </c>
       <c r="L78">
-        <v>1609.0557633049234</v>
+        <v>1750.7893421410629</v>
       </c>
       <c r="M78">
-        <v>1962.1242320128067</v>
+        <v>2120.9417690122309</v>
       </c>
       <c r="N78">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -4869,34 +4869,34 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>507.73307042947812</v>
+        <v>524.98613592950892</v>
       </c>
       <c r="H79">
-        <v>253.86653521473906</v>
+        <v>658.08121264403223</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0.79775280898876411</v>
       </c>
       <c r="J79">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="K79">
-        <v>9.3851132686084138E-2</v>
+        <v>0.10208333333333333</v>
       </c>
       <c r="L79">
-        <v>1385.1746872881877</v>
+        <v>2043.2558999322202</v>
       </c>
       <c r="M79">
-        <v>1599.6056442171423</v>
+        <v>2405.5702754328672</v>
       </c>
       <c r="N79">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="O79">
         <v>6</v>
       </c>
       <c r="P79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q79">
         <v>7</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44200</v>
+        <v>44211</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -4922,31 +4922,31 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>392.67872335783937</v>
+        <v>213.79174938371258</v>
       </c>
       <c r="H80">
-        <v>341.77592588552687</v>
+        <v>437.76405826188761</v>
       </c>
       <c r="I80">
-        <v>1.1489361702127658</v>
+        <v>0.4883720930232559</v>
       </c>
       <c r="J80">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K80">
-        <v>0.14455445544554454</v>
+        <v>0.15625</v>
       </c>
       <c r="L80">
-        <v>994.78609917319318</v>
+        <v>1166.4012449369898</v>
       </c>
       <c r="M80">
-        <v>1313.2921747856628</v>
+        <v>1471.8180297708648</v>
       </c>
       <c r="N80">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="O80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P80">
         <v>6</v>
@@ -4961,21 +4961,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -5186,24 +5171,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A17AE3-A467-46C2-B8E3-63736AD8DD9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5220,4 +5203,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8757D8AB-8D1D-40BB-9BB6-A1F371559D39}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{98AC4950-CD78-458C-B97A-A4ABDE272758}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
@@ -709,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
       <selection sqref="A1:Q80"/>
     </sheetView>
   </sheetViews>
@@ -770,7 +770,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -788,28 +788,28 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
+        <v>206.71692184722241</v>
+      </c>
+      <c r="H2">
         <v>314.20972120777805</v>
       </c>
-      <c r="H2">
-        <v>350.0406543279633</v>
-      </c>
       <c r="I2">
-        <v>0.89763779527559051</v>
+        <v>0.65789473684210531</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K2">
-        <v>0.11203319502074689</v>
+        <v>0.12698412698412698</v>
       </c>
       <c r="L2">
-        <v>1521.436544795557</v>
+        <v>1096.9777986025936</v>
       </c>
       <c r="M2">
-        <v>1744.6908203905571</v>
+        <v>1295.4260435759272</v>
       </c>
       <c r="N2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="O2">
         <v>5</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -841,31 +841,31 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
+        <v>289.63669092336357</v>
+      </c>
+      <c r="H3">
         <v>439.41765881519643</v>
       </c>
-      <c r="H3">
-        <v>725.44516978935917</v>
-      </c>
       <c r="I3">
-        <v>0.60572139303482586</v>
+        <v>0.65913757700205344</v>
       </c>
       <c r="J3">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="K3">
-        <v>0.12238574748257165</v>
+        <v>0.14232673267326731</v>
       </c>
       <c r="L3">
-        <v>2055.4279810698508</v>
+        <v>1352.5401859629969</v>
       </c>
       <c r="M3">
-        <v>2483.1158050501449</v>
+        <v>1663.8319565815652</v>
       </c>
       <c r="N3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P3">
         <v>6</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -894,31 +894,31 @@
         <v>16086</v>
       </c>
       <c r="G4">
+        <v>68.382444361556637</v>
+      </c>
+      <c r="H4">
         <v>130.54830287206266</v>
       </c>
-      <c r="H4">
-        <v>99.465373616809643</v>
-      </c>
       <c r="I4">
-        <v>1.3125</v>
+        <v>0.52380952380952384</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4">
-        <v>0.27027027027027029</v>
+        <v>0.28125</v>
       </c>
       <c r="L4">
-        <v>1585.2293920179038</v>
+        <v>1013.3034937212482</v>
       </c>
       <c r="M4">
-        <v>1771.7269675494217</v>
+        <v>1181.1513116996146</v>
       </c>
       <c r="N4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="O4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P4">
         <v>6</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -947,28 +947,28 @@
         <v>77771</v>
       </c>
       <c r="G5">
+        <v>221.16212984274341</v>
+      </c>
+      <c r="H5">
         <v>293.16840467526453</v>
       </c>
-      <c r="H5">
-        <v>423.03686464106158</v>
-      </c>
       <c r="I5">
-        <v>0.69300911854103331</v>
+        <v>0.75438596491228072</v>
       </c>
       <c r="J5">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>0.14721723518850988</v>
+        <v>0.12</v>
       </c>
       <c r="L5">
-        <v>1098.0956911959472</v>
+        <v>702.06117961708094</v>
       </c>
       <c r="M5">
-        <v>1414.4089699245219</v>
+        <v>887.22017204356382</v>
       </c>
       <c r="N5">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1000,28 +1000,28 @@
         <v>41095</v>
       </c>
       <c r="G6">
+        <v>334.05411399423377</v>
+      </c>
+      <c r="H6">
         <v>464.34907961854066</v>
       </c>
-      <c r="H6">
-        <v>542.43365121608633</v>
-      </c>
       <c r="I6">
-        <v>0.85604770017035769</v>
+        <v>0.71940298507462697</v>
       </c>
       <c r="J6">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="K6">
-        <v>0.16062413951353832</v>
+        <v>0.17939814814814814</v>
       </c>
       <c r="L6">
-        <v>1787.6284468100835</v>
+        <v>1520.5699711687737</v>
       </c>
       <c r="M6">
-        <v>2272.7692762622905</v>
+        <v>1950.2661343978707</v>
       </c>
       <c r="N6">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1053,28 +1053,28 @@
         <v>115653</v>
       </c>
       <c r="G7">
+        <v>334.05411399423377</v>
+      </c>
+      <c r="H7">
         <v>464.34907961854066</v>
       </c>
-      <c r="H7">
-        <v>542.43365121608633</v>
-      </c>
       <c r="I7">
-        <v>0.85604770017035769</v>
+        <v>0.71940298507462697</v>
       </c>
       <c r="J7">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="K7">
-        <v>0.16062413951353832</v>
+        <v>0.17939814814814814</v>
       </c>
       <c r="L7">
-        <v>1787.6284468100835</v>
+        <v>1520.5699711687737</v>
       </c>
       <c r="M7">
-        <v>2272.7692762622905</v>
+        <v>1950.2661343978707</v>
       </c>
       <c r="N7">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1106,28 +1106,28 @@
         <v>67913</v>
       </c>
       <c r="G8">
+        <v>334.05411399423377</v>
+      </c>
+      <c r="H8">
         <v>464.34907961854066</v>
       </c>
-      <c r="H8">
-        <v>542.43365121608633</v>
-      </c>
       <c r="I8">
-        <v>0.85604770017035769</v>
+        <v>0.71940298507462697</v>
       </c>
       <c r="J8">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="K8">
-        <v>0.16062413951353832</v>
+        <v>0.17939814814814814</v>
       </c>
       <c r="L8">
-        <v>1787.6284468100835</v>
+        <v>1520.5699711687737</v>
       </c>
       <c r="M8">
-        <v>2272.7692762622905</v>
+        <v>1950.2661343978707</v>
       </c>
       <c r="N8">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="O8">
         <v>5</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1159,28 +1159,28 @@
         <v>97261</v>
       </c>
       <c r="G9">
+        <v>334.05411399423377</v>
+      </c>
+      <c r="H9">
         <v>464.34907961854066</v>
       </c>
-      <c r="H9">
-        <v>542.43365121608633</v>
-      </c>
       <c r="I9">
-        <v>0.85604770017035769</v>
+        <v>0.71940298507462697</v>
       </c>
       <c r="J9">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="K9">
-        <v>0.16062413951353832</v>
+        <v>0.17939814814814814</v>
       </c>
       <c r="L9">
-        <v>1787.6284468100835</v>
+        <v>1520.5699711687737</v>
       </c>
       <c r="M9">
-        <v>2272.7692762622905</v>
+        <v>1950.2661343978707</v>
       </c>
       <c r="N9">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="O9">
         <v>5</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1212,28 +1212,28 @@
         <v>110942</v>
       </c>
       <c r="G10">
+        <v>334.05411399423377</v>
+      </c>
+      <c r="H10">
         <v>464.34907961854066</v>
       </c>
-      <c r="H10">
-        <v>542.43365121608633</v>
-      </c>
       <c r="I10">
-        <v>0.85604770017035769</v>
+        <v>0.71940298507462697</v>
       </c>
       <c r="J10">
-        <v>700</v>
+        <v>620</v>
       </c>
       <c r="K10">
-        <v>0.16062413951353832</v>
+        <v>0.17939814814814814</v>
       </c>
       <c r="L10">
-        <v>1787.6284468100835</v>
+        <v>1520.5699711687737</v>
       </c>
       <c r="M10">
-        <v>2272.7692762622905</v>
+        <v>1950.2661343978707</v>
       </c>
       <c r="N10">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="O10">
         <v>5</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1265,31 +1265,31 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
+        <v>86.249684700445073</v>
+      </c>
+      <c r="H11">
         <v>149.71643381964051</v>
       </c>
-      <c r="H11">
-        <v>229.45670835401427</v>
-      </c>
       <c r="I11">
-        <v>0.65248226950354604</v>
+        <v>0.57608695652173914</v>
       </c>
       <c r="J11">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>9.012875536480687E-2</v>
+        <v>0.1310344827586207</v>
       </c>
       <c r="L11">
-        <v>1298.6273281312297</v>
+        <v>1124.5006061888216</v>
       </c>
       <c r="M11">
-        <v>1401.1505382468531</v>
+        <v>1217.2597010553382</v>
       </c>
       <c r="N11">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P11">
         <v>6</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1318,31 +1318,31 @@
         <v>30917</v>
       </c>
       <c r="G12">
+        <v>161.72332373774947</v>
+      </c>
+      <c r="H12">
         <v>281.39858330368406</v>
       </c>
-      <c r="H12">
-        <v>621.01756315295791</v>
-      </c>
       <c r="I12">
-        <v>0.453125</v>
+        <v>0.57471264367816099</v>
       </c>
       <c r="J12">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="K12">
-        <v>0.14336917562724014</v>
+        <v>0.19708029197080293</v>
       </c>
       <c r="L12">
-        <v>1979.4934825500532</v>
+        <v>1190.2836627098359</v>
       </c>
       <c r="M12">
-        <v>2367.6294595206518</v>
+        <v>1452.2754471649903</v>
       </c>
       <c r="N12">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P12">
         <v>6</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1371,28 +1371,28 @@
         <v>90080</v>
       </c>
       <c r="G13">
+        <v>115.45293072824157</v>
+      </c>
+      <c r="H13">
         <v>225.35523978685612</v>
       </c>
-      <c r="H13">
-        <v>293.0728241563055</v>
-      </c>
       <c r="I13">
-        <v>0.76893939393939392</v>
+        <v>0.51231527093596063</v>
       </c>
       <c r="J13">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>9.421841541755889E-2</v>
+        <v>9.1205211726384364E-2</v>
       </c>
       <c r="L13">
-        <v>1596.3587921847245</v>
+        <v>845.91474245115455</v>
       </c>
       <c r="M13">
-        <v>1742.8952042628773</v>
+        <v>939.16518650088813</v>
       </c>
       <c r="N13">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O13">
         <v>4</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1424,28 +1424,28 @@
         <v>32051</v>
       </c>
       <c r="G14">
+        <v>171.60151009328882</v>
+      </c>
+      <c r="H14">
         <v>252.72222395557083</v>
       </c>
-      <c r="H14">
-        <v>340.082992730336</v>
-      </c>
       <c r="I14">
-        <v>0.74311926605504597</v>
+        <v>0.67901234567901236</v>
       </c>
       <c r="J14">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K14">
-        <v>0.13157894736842105</v>
+        <v>0.10294117647058823</v>
       </c>
       <c r="L14">
-        <v>1503.8532339084584</v>
+        <v>1004.6488409097999</v>
       </c>
       <c r="M14">
-        <v>1737.8552931265795</v>
+        <v>1135.6899940719479</v>
       </c>
       <c r="N14">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="O14">
         <v>5</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1477,31 +1477,31 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
+        <v>106.44633963985655</v>
+      </c>
+      <c r="H15">
         <v>195.15162267307034</v>
       </c>
-      <c r="H15">
-        <v>258.51253912536589</v>
-      </c>
       <c r="I15">
-        <v>0.75490196078431371</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="J15">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K15">
-        <v>0.15642458100558659</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L15">
-        <v>1295.0971322849214</v>
+        <v>887.05283033213789</v>
       </c>
       <c r="M15">
-        <v>1507.9898115646345</v>
+        <v>1016.3090998948209</v>
       </c>
       <c r="N15">
         <v>39</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P15">
         <v>6</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1530,34 +1530,34 @@
         <v>122358</v>
       </c>
       <c r="G16">
+        <v>394.74329426764081</v>
+      </c>
+      <c r="H16">
         <v>435.60698932640287</v>
       </c>
-      <c r="H16">
-        <v>361.23506431945606</v>
-      </c>
       <c r="I16">
-        <v>1.2058823529411764</v>
+        <v>0.90619136960600355</v>
       </c>
       <c r="J16">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="K16">
-        <v>0.14461538461538462</v>
+        <v>0.15846456692913385</v>
       </c>
       <c r="L16">
-        <v>1558.5413295411824</v>
+        <v>1605.9432158093464</v>
       </c>
       <c r="M16">
-        <v>1904.2481897383088</v>
+        <v>2000.6865100769871</v>
       </c>
       <c r="N16">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="O16">
         <v>5</v>
       </c>
       <c r="P16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q16">
         <v>7</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1583,31 +1583,31 @@
         <v>94076</v>
       </c>
       <c r="G17">
+        <v>378.41744972150178</v>
+      </c>
+      <c r="H17">
         <v>415.62141247502018</v>
       </c>
-      <c r="H17">
-        <v>347.59130915430075</v>
-      </c>
       <c r="I17">
-        <v>1.1957186544342508</v>
+        <v>0.91048593350383644</v>
       </c>
       <c r="J17">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K17">
-        <v>0.12952646239554316</v>
+        <v>0.11780455153949129</v>
       </c>
       <c r="L17">
-        <v>1929.2912113610273</v>
+        <v>1757.0900123304561</v>
       </c>
       <c r="M17">
-        <v>2225.8599430247887</v>
+        <v>2037.7141885284241</v>
       </c>
       <c r="N17">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="O17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P17">
         <v>6</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1636,28 +1636,28 @@
         <v>31868</v>
       </c>
       <c r="G18">
+        <v>144.34542487762016</v>
+      </c>
+      <c r="H18">
         <v>138.06953683946278</v>
       </c>
-      <c r="H18">
-        <v>106.69009664867578</v>
-      </c>
       <c r="I18">
-        <v>1.2941176470588236</v>
+        <v>1.0454545454545452</v>
       </c>
       <c r="J18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K18">
-        <v>0.14102564102564102</v>
+        <v>0.14444444444444443</v>
       </c>
       <c r="L18">
-        <v>759.38245261704537</v>
+        <v>577.38169951048064</v>
       </c>
       <c r="M18">
-        <v>862.93460524664249</v>
+        <v>699.76151625454997</v>
       </c>
       <c r="N18">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="O18">
         <v>5</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1689,31 +1689,31 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
+        <v>453.2074423771175</v>
+      </c>
+      <c r="H19">
         <v>473.20188836434318</v>
       </c>
-      <c r="H19">
-        <v>533.18522632602048</v>
-      </c>
       <c r="I19">
-        <v>0.88749999999999996</v>
+        <v>0.9577464788732396</v>
       </c>
       <c r="J19">
         <v>50</v>
       </c>
       <c r="K19">
-        <v>0.11037527593818984</v>
+        <v>0.11990407673860912</v>
       </c>
       <c r="L19">
-        <v>2430.4359900027771</v>
+        <v>1783.948903082477</v>
       </c>
       <c r="M19">
-        <v>2763.6767564565398</v>
+        <v>2117.1896695362398</v>
       </c>
       <c r="N19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P19">
         <v>6</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -1742,28 +1742,28 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
+        <v>129.06244202273112</v>
+      </c>
+      <c r="H20">
         <v>211.33974881222224</v>
       </c>
-      <c r="H20">
-        <v>269.4178477224512</v>
-      </c>
       <c r="I20">
-        <v>0.78443113772455109</v>
+        <v>0.61068702290076327</v>
       </c>
       <c r="J20">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.21812080536912751</v>
+        <v>0.18009478672985782</v>
       </c>
       <c r="L20">
-        <v>1548.7493042727733</v>
+        <v>1095.4174766679305</v>
       </c>
       <c r="M20">
-        <v>1863.3390067031808</v>
+        <v>1279.3314565503222</v>
       </c>
       <c r="N20">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O20">
         <v>5</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -1795,28 +1795,28 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
+        <v>317.63463569165788</v>
+      </c>
+      <c r="H21">
         <v>481.52059134107708</v>
       </c>
-      <c r="H21">
-        <v>662.30200633579727</v>
-      </c>
       <c r="I21">
-        <v>0.72704081632653061</v>
+        <v>0.6596491228070176</v>
       </c>
       <c r="J21">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="K21">
-        <v>0.14032496307237813</v>
+        <v>0.17336152219873149</v>
       </c>
       <c r="L21">
-        <v>1976.7687434002112</v>
+        <v>1196.1985216473074</v>
       </c>
       <c r="M21">
-        <v>2458.2893347412883</v>
+        <v>1611.8268215417106</v>
       </c>
       <c r="N21">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="O21">
         <v>5</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1848,28 +1848,28 @@
         <v>75235</v>
       </c>
       <c r="G22">
+        <v>122.28351166345452</v>
+      </c>
+      <c r="H22">
         <v>212.66697680600785</v>
       </c>
-      <c r="H22">
-        <v>216.65448262112048</v>
-      </c>
       <c r="I22">
-        <v>0.98159509202453998</v>
+        <v>0.57500000000000007</v>
       </c>
       <c r="J22">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>0.1609907120743034</v>
+        <v>0.18650793650793651</v>
       </c>
       <c r="L22">
-        <v>1666.7774307170864</v>
+        <v>1010.1681398285373</v>
       </c>
       <c r="M22">
-        <v>1874.1277331029441</v>
+        <v>1197.5809131388316</v>
       </c>
       <c r="N22">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="O22">
         <v>5</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -1901,34 +1901,34 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
+        <v>268.4062274177453</v>
+      </c>
+      <c r="H23">
         <v>228.09613465537331</v>
       </c>
-      <c r="H23">
-        <v>198.60094482924742</v>
-      </c>
       <c r="I23">
-        <v>1.1485148514851486</v>
+        <v>1.1767241379310345</v>
       </c>
       <c r="J23">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="K23">
-        <v>0.14055299539170507</v>
+        <v>0.18415841584158416</v>
       </c>
       <c r="L23">
-        <v>1366.6104619438313</v>
+        <v>1335.148926129297</v>
       </c>
       <c r="M23">
-        <v>1546.5311198831989</v>
+        <v>1609.4541915122677</v>
       </c>
       <c r="N23">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="O23">
         <v>5</v>
       </c>
       <c r="P23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q23">
         <v>7</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -1954,31 +1954,31 @@
         <v>67513</v>
       </c>
       <c r="G24">
+        <v>327.79405734087595</v>
+      </c>
+      <c r="H24">
         <v>492.9131848166445</v>
       </c>
-      <c r="H24">
-        <v>497.53000252567085</v>
-      </c>
       <c r="I24">
-        <v>0.99072052401746735</v>
+        <v>0.6650137741046831</v>
       </c>
       <c r="J24">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="K24">
-        <v>9.1856320263230054E-2</v>
+        <v>8.9675711449371281E-2</v>
       </c>
       <c r="L24">
-        <v>1333.4455853717488</v>
+        <v>1196.842096687026</v>
       </c>
       <c r="M24">
-        <v>1606.3809852288991</v>
+        <v>1417.6346141834072</v>
       </c>
       <c r="N24">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P24">
         <v>6</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2007,31 +2007,31 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
+        <v>327.79405734087595</v>
+      </c>
+      <c r="H25">
         <v>492.9131848166445</v>
       </c>
-      <c r="H25">
-        <v>497.53000252567085</v>
-      </c>
       <c r="I25">
-        <v>0.99072052401746735</v>
+        <v>0.6650137741046831</v>
       </c>
       <c r="J25">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="K25">
-        <v>9.1856320263230054E-2</v>
+        <v>8.9675711449371281E-2</v>
       </c>
       <c r="L25">
-        <v>1333.4455853717488</v>
+        <v>1196.842096687026</v>
       </c>
       <c r="M25">
-        <v>1606.3809852288991</v>
+        <v>1417.6346141834072</v>
       </c>
       <c r="N25">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P25">
         <v>6</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2060,31 +2060,31 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
+        <v>327.79405734087595</v>
+      </c>
+      <c r="H26">
         <v>492.9131848166445</v>
       </c>
-      <c r="H26">
-        <v>497.53000252567085</v>
-      </c>
       <c r="I26">
-        <v>0.99072052401746735</v>
+        <v>0.6650137741046831</v>
       </c>
       <c r="J26">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="K26">
-        <v>9.1856320263230054E-2</v>
+        <v>8.9675711449371281E-2</v>
       </c>
       <c r="L26">
-        <v>1333.4455853717488</v>
+        <v>1196.842096687026</v>
       </c>
       <c r="M26">
-        <v>1606.3809852288991</v>
+        <v>1417.6346141834072</v>
       </c>
       <c r="N26">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P26">
         <v>6</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2113,31 +2113,31 @@
         <v>60126</v>
       </c>
       <c r="G27">
+        <v>327.79405734087595</v>
+      </c>
+      <c r="H27">
         <v>492.9131848166445</v>
       </c>
-      <c r="H27">
-        <v>497.53000252567085</v>
-      </c>
       <c r="I27">
-        <v>0.99072052401746735</v>
+        <v>0.6650137741046831</v>
       </c>
       <c r="J27">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="K27">
-        <v>9.1856320263230054E-2</v>
+        <v>8.9675711449371281E-2</v>
       </c>
       <c r="L27">
-        <v>1333.4455853717488</v>
+        <v>1196.842096687026</v>
       </c>
       <c r="M27">
-        <v>1606.3809852288991</v>
+        <v>1417.6346141834072</v>
       </c>
       <c r="N27">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P27">
         <v>6</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2166,31 +2166,31 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
+        <v>327.79405734087595</v>
+      </c>
+      <c r="H28">
         <v>492.9131848166445</v>
       </c>
-      <c r="H28">
-        <v>497.53000252567085</v>
-      </c>
       <c r="I28">
-        <v>0.99072052401746735</v>
+        <v>0.6650137741046831</v>
       </c>
       <c r="J28">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="K28">
-        <v>9.1856320263230054E-2</v>
+        <v>8.9675711449371281E-2</v>
       </c>
       <c r="L28">
-        <v>1333.4455853717488</v>
+        <v>1196.842096687026</v>
       </c>
       <c r="M28">
-        <v>1606.3809852288991</v>
+        <v>1417.6346141834072</v>
       </c>
       <c r="N28">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P28">
         <v>6</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2219,31 +2219,31 @@
         <v>22182</v>
       </c>
       <c r="G29">
+        <v>112.70399422955551</v>
+      </c>
+      <c r="H29">
         <v>243.44062753583989</v>
       </c>
-      <c r="H29">
-        <v>216.39166892074655</v>
-      </c>
       <c r="I29">
-        <v>1.125</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="J29">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K29">
-        <v>0.17647058823529413</v>
+        <v>0.26582278481012656</v>
       </c>
       <c r="L29">
-        <v>739.338202145884</v>
+        <v>604.09340907041747</v>
       </c>
       <c r="M29">
-        <v>982.77882968172401</v>
+        <v>888.10747452889734</v>
       </c>
       <c r="N29">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="O29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P29">
         <v>6</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2272,28 +2272,28 @@
         <v>32914</v>
       </c>
       <c r="G30">
+        <v>91.146624536671325</v>
+      </c>
+      <c r="H30">
         <v>246.09588624901258</v>
       </c>
-      <c r="H30">
-        <v>364.5864981466853</v>
-      </c>
       <c r="I30">
-        <v>0.67500000000000004</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="J30">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K30">
-        <v>8.9552238805970144E-2</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="L30">
-        <v>1716.5947621073101</v>
+        <v>972.2306617244941</v>
       </c>
       <c r="M30">
-        <v>1880.6586862733184</v>
+        <v>1081.6066111684997</v>
       </c>
       <c r="N30">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O30">
         <v>4</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2325,34 +2325,34 @@
         <v>110824</v>
       </c>
       <c r="G31">
+        <v>267.09016097596191</v>
+      </c>
+      <c r="H31">
         <v>425.90052696166896</v>
       </c>
-      <c r="H31">
-        <v>267.09016097596191</v>
-      </c>
       <c r="I31">
-        <v>1.5945945945945945</v>
+        <v>0.6271186440677966</v>
       </c>
       <c r="J31">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="K31">
-        <v>0.22005208333333334</v>
+        <v>0.33145009416195859</v>
       </c>
       <c r="L31">
-        <v>2753.9161192521474</v>
+        <v>1223.5616833898796</v>
       </c>
       <c r="M31">
-        <v>3211.3982530859744</v>
+        <v>1699.9927813470008</v>
       </c>
       <c r="N31">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="O31">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q31">
         <v>7</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2378,28 +2378,28 @@
         <v>33702</v>
       </c>
       <c r="G32">
+        <v>151.32633078155598</v>
+      </c>
+      <c r="H32">
         <v>172.09661147706368</v>
       </c>
-      <c r="H32">
-        <v>314.52139338911638</v>
-      </c>
       <c r="I32">
-        <v>0.54716981132075471</v>
+        <v>0.87931034482758619</v>
       </c>
       <c r="J32">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="K32">
-        <v>0.16463414634146342</v>
+        <v>0.12844036697247707</v>
       </c>
       <c r="L32">
-        <v>1180.9388166874369</v>
+        <v>664.64898225624597</v>
       </c>
       <c r="M32">
-        <v>1421.280636164026</v>
+        <v>789.27066642929208</v>
       </c>
       <c r="N32">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="O32">
         <v>5</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2431,28 +2431,28 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
+        <v>244.94710111333302</v>
+      </c>
+      <c r="H33">
         <v>390.25470346870003</v>
       </c>
-      <c r="H33">
-        <v>446.99386248365283</v>
-      </c>
       <c r="I33">
-        <v>0.87306501547987625</v>
+        <v>0.62765957446808518</v>
       </c>
       <c r="J33">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.13223140495867769</v>
+        <v>0.18202247191011237</v>
       </c>
       <c r="L33">
-        <v>2237.7370762726523</v>
+        <v>1114.0249513911474</v>
       </c>
       <c r="M33">
-        <v>2569.8687387992059</v>
+        <v>1450.3082596992824</v>
       </c>
       <c r="N33">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O33">
         <v>4</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2484,28 +2484,28 @@
         <v>73466</v>
       </c>
       <c r="G34">
+        <v>133.3950398823946</v>
+      </c>
+      <c r="H34">
         <v>179.6749516783274</v>
       </c>
-      <c r="H34">
-        <v>287.20768791005361</v>
-      </c>
       <c r="I34">
-        <v>0.62559241706161151</v>
+        <v>0.74242424242424254</v>
       </c>
       <c r="J34">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>0.17201166180758018</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="L34">
-        <v>913.3476710314975</v>
+        <v>658.808156153867</v>
       </c>
       <c r="M34">
-        <v>1154.2754471456183</v>
+        <v>862.9842376065119</v>
       </c>
       <c r="N34">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O34">
         <v>4</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -2537,28 +2537,28 @@
         <v>74323</v>
       </c>
       <c r="G35">
+        <v>228.73134830402432</v>
+      </c>
+      <c r="H35">
         <v>317.5329305867632</v>
       </c>
-      <c r="H35">
-        <v>414.40738398611467</v>
-      </c>
       <c r="I35">
-        <v>0.76623376623376627</v>
+        <v>0.72033898305084743</v>
       </c>
       <c r="J35">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>9.9264705882352935E-2</v>
+        <v>0.12315270935960591</v>
       </c>
       <c r="L35">
-        <v>1411.4069668877737</v>
+        <v>1081.7647296260914</v>
       </c>
       <c r="M35">
-        <v>1629.3744870363146</v>
+        <v>1283.5865075414072</v>
       </c>
       <c r="N35">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O35">
         <v>4</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -2590,31 +2590,31 @@
         <v>96338</v>
       </c>
       <c r="G36">
+        <v>253.27492785816602</v>
+      </c>
+      <c r="H36">
         <v>375.76034378957422</v>
       </c>
-      <c r="H36">
-        <v>631.11129564657767</v>
-      </c>
       <c r="I36">
-        <v>0.59539473684210531</v>
+        <v>0.67403314917127066</v>
       </c>
       <c r="J36">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="K36">
-        <v>0.12164948453608247</v>
+        <v>0.15346534653465346</v>
       </c>
       <c r="L36">
-        <v>1905.7900309327576</v>
+        <v>1219.6640993169881</v>
       </c>
       <c r="M36">
-        <v>2273.2462787269819</v>
+        <v>1509.2694471548091</v>
       </c>
       <c r="N36">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P36">
         <v>6</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -2643,31 +2643,31 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
+        <v>101.33851285732381</v>
+      </c>
+      <c r="H37">
         <v>371.57454714352065</v>
       </c>
-      <c r="H37">
-        <v>261.79115821475324</v>
-      </c>
       <c r="I37">
-        <v>1.419354838709677</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="J37">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K37">
-        <v>0.36</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="L37">
-        <v>2364.5653000042225</v>
+        <v>1680.5303382172867</v>
       </c>
       <c r="M37">
-        <v>3048.6002617911581</v>
+        <v>2136.5536460752437</v>
       </c>
       <c r="N37">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P37">
         <v>6</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -2696,34 +2696,34 @@
         <v>110705</v>
       </c>
       <c r="G38">
+        <v>124.65561627749425</v>
+      </c>
+      <c r="H38">
         <v>170.72399620613342</v>
       </c>
-      <c r="H38">
-        <v>241.18151844993449</v>
-      </c>
       <c r="I38">
-        <v>0.70786516853932591</v>
+        <v>0.73015873015873012</v>
       </c>
       <c r="J38">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.19736842105263158</v>
+        <v>0.20183486238532111</v>
       </c>
       <c r="L38">
-        <v>971.0491847703355</v>
+        <v>673.86296915225148</v>
       </c>
       <c r="M38">
-        <v>1214.9406079219548</v>
+        <v>852.71667946343882</v>
       </c>
       <c r="N38">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -2749,28 +2749,28 @@
         <v>26356</v>
       </c>
       <c r="G39">
+        <v>140.38549096979813</v>
+      </c>
+      <c r="H39">
         <v>273.18257702230989</v>
       </c>
-      <c r="H39">
-        <v>409.77386553346486</v>
-      </c>
       <c r="I39">
-        <v>0.66666666666666663</v>
+        <v>0.51388888888888884</v>
       </c>
       <c r="J39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K39">
-        <v>9.4444444444444442E-2</v>
+        <v>0.14678899082568808</v>
       </c>
       <c r="L39">
-        <v>1043.4056761268782</v>
+        <v>1001.669449081803</v>
       </c>
       <c r="M39">
-        <v>1236.9100015176809</v>
+        <v>1183.7911670966762</v>
       </c>
       <c r="N39">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O39">
         <v>5</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -2802,31 +2802,31 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
+        <v>46.278934307850662</v>
+      </c>
+      <c r="H40">
         <v>76.599615406097641</v>
       </c>
-      <c r="H40">
-        <v>71.812139443216552</v>
-      </c>
       <c r="I40">
-        <v>1.0666666666666664</v>
+        <v>0.60416666666666674</v>
       </c>
       <c r="J40">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K40">
-        <v>9.6774193548387094E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L40">
-        <v>722.90887039504651</v>
+        <v>585.66789279245495</v>
       </c>
       <c r="M40">
-        <v>765.99615406097655</v>
+        <v>638.33012838414709</v>
       </c>
       <c r="N40">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P40">
         <v>6</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -2855,28 +2855,28 @@
         <v>161560</v>
       </c>
       <c r="G41">
+        <v>445.03589997524142</v>
+      </c>
+      <c r="H41">
         <v>793.51324585293389</v>
       </c>
-      <c r="H41">
-        <v>1028.1010151027483</v>
-      </c>
       <c r="I41">
-        <v>0.77182420228777837</v>
+        <v>0.56084243369734788</v>
       </c>
       <c r="J41">
-        <v>347</v>
+        <v>261</v>
       </c>
       <c r="K41">
-        <v>0.11790689772341148</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="L41">
-        <v>3219.2374350086657</v>
+        <v>2811.9584055459272</v>
       </c>
       <c r="M41">
-        <v>3863.5800940826934</v>
+        <v>3296.6080713047782</v>
       </c>
       <c r="N41">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="O41">
         <v>7</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -2908,34 +2908,34 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
+        <v>238.19610413486058</v>
+      </c>
+      <c r="H42">
         <v>474.79357669834621</v>
       </c>
-      <c r="H42">
-        <v>460.40589255597212</v>
-      </c>
       <c r="I42">
-        <v>1.03125</v>
+        <v>0.50168350168350173</v>
       </c>
       <c r="J42">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.13162393162393163</v>
+        <v>0.16591928251121077</v>
       </c>
       <c r="L42">
-        <v>1782.474202083017</v>
+        <v>1190.9805206743029</v>
       </c>
       <c r="M42">
-        <v>2151.7580950706197</v>
+        <v>1545.8767295195312</v>
       </c>
       <c r="N42">
         <v>55</v>
       </c>
       <c r="O42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q42">
         <v>7</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -2961,28 +2961,28 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
+        <v>322.29172436863553</v>
+      </c>
+      <c r="H43">
         <v>335.24094543701824</v>
       </c>
-      <c r="H43">
-        <v>344.5931606530724</v>
-      </c>
       <c r="I43">
-        <v>0.97286012526096033</v>
+        <v>0.9613733905579398</v>
       </c>
       <c r="J43">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K43">
-        <v>0.15238095238095239</v>
+        <v>0.15973741794310722</v>
       </c>
       <c r="L43">
-        <v>1458.2261725339827</v>
+        <v>1394.1994683625351</v>
       </c>
       <c r="M43">
-        <v>1769.0074781751671</v>
+        <v>1709.2971810265135</v>
       </c>
       <c r="N43">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O43">
         <v>4</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3014,31 +3014,31 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
+        <v>232.47398374875266</v>
+      </c>
+      <c r="H44">
         <v>219.31507900825724</v>
       </c>
-      <c r="H44">
-        <v>258.79179322974352</v>
-      </c>
       <c r="I44">
-        <v>0.84745762711864414</v>
+        <v>1.0599999999999998</v>
       </c>
       <c r="J44">
         <v>44</v>
       </c>
       <c r="K44">
-        <v>0.20183486238532111</v>
+        <v>0.21359223300970873</v>
       </c>
       <c r="L44">
-        <v>1969.4494094941499</v>
+        <v>1655.8288465123419</v>
       </c>
       <c r="M44">
-        <v>2258.9453137850492</v>
+        <v>1945.3247508032414</v>
       </c>
       <c r="N44">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P44">
         <v>6</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3067,31 +3067,31 @@
         <v>65145</v>
       </c>
       <c r="G45">
+        <v>233.32565814721008</v>
+      </c>
+      <c r="H45">
         <v>366.87389669199479</v>
       </c>
-      <c r="H45">
-        <v>377.61915726456368</v>
-      </c>
       <c r="I45">
-        <v>0.97154471544715448</v>
+        <v>0.63598326359832635</v>
       </c>
       <c r="J45">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K45">
-        <v>0.10103092783505155</v>
+        <v>0.13299232736572891</v>
       </c>
       <c r="L45">
-        <v>1797.5285900683091</v>
+        <v>1175.8385140839666</v>
       </c>
       <c r="M45">
-        <v>2023.1790620922557</v>
+        <v>1415.3043211297875</v>
       </c>
       <c r="N45">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P45">
         <v>6</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3120,31 +3120,31 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
+        <v>418.77313801202183</v>
+      </c>
+      <c r="H46">
         <v>480.87257672863342</v>
       </c>
-      <c r="H46">
-        <v>535.0105489431154</v>
-      </c>
       <c r="I46">
-        <v>0.89880952380952372</v>
+        <v>0.87086092715231789</v>
       </c>
       <c r="J46">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="K46">
-        <v>0.12695924764890282</v>
+        <v>0.17876106194690267</v>
       </c>
       <c r="L46">
-        <v>2276.979419609092</v>
+        <v>1456.9483698897336</v>
       </c>
       <c r="M46">
-        <v>2663.9066916125948</v>
+        <v>1939.4132399187931</v>
       </c>
       <c r="N46">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P46">
         <v>6</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3173,28 +3173,28 @@
         <v>21471</v>
       </c>
       <c r="G47">
+        <v>125.75101299427133</v>
+      </c>
+      <c r="H47">
         <v>200.27013180569142</v>
       </c>
-      <c r="H47">
-        <v>246.84458106282895</v>
-      </c>
       <c r="I47">
-        <v>0.81132075471698117</v>
+        <v>0.62790697674418594</v>
       </c>
       <c r="J47">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K47">
-        <v>0.15625</v>
+        <v>0.15714285714285714</v>
       </c>
       <c r="L47">
-        <v>777.7933025941968</v>
+        <v>535.6061664570816</v>
       </c>
       <c r="M47">
-        <v>987.3783242513158</v>
+        <v>689.30184900563552</v>
       </c>
       <c r="N47">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="O47">
         <v>4</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3226,28 +3226,28 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
+        <v>186.82057123249155</v>
+      </c>
+      <c r="H48">
         <v>248.77637291673616</v>
       </c>
-      <c r="H48">
-        <v>351.71832033055802</v>
-      </c>
       <c r="I48">
-        <v>0.70731707317073178</v>
+        <v>0.75095785440613039</v>
       </c>
       <c r="J48">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="K48">
-        <v>0.1873015873015873</v>
+        <v>0.23194748358862144</v>
       </c>
       <c r="L48">
-        <v>2407.6977700677226</v>
+        <v>908.36736930900213</v>
       </c>
       <c r="M48">
-        <v>2745.1185977019163</v>
+        <v>1211.4742144719221</v>
       </c>
       <c r="N48">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O48">
         <v>5</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -3279,28 +3279,28 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
+        <v>307.50258254122053</v>
+      </c>
+      <c r="H49">
         <v>502.89484853095445</v>
       </c>
-      <c r="H49">
-        <v>690.27923476701073</v>
-      </c>
       <c r="I49">
-        <v>0.72853828306264501</v>
+        <v>0.61146496815286622</v>
       </c>
       <c r="J49">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="K49">
-        <v>0.15436241610738255</v>
+        <v>0.21541501976284586</v>
       </c>
       <c r="L49">
-        <v>2184.5495968032542</v>
+        <v>1447.8246594649133</v>
       </c>
       <c r="M49">
-        <v>2737.0932998070098</v>
+        <v>1971.5399953554297</v>
       </c>
       <c r="N49">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O49">
         <v>5</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3332,31 +3332,31 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
+        <v>222.08365720533342</v>
+      </c>
+      <c r="H50">
         <v>321.73658031029072</v>
       </c>
-      <c r="H50">
-        <v>336.54215745731295</v>
-      </c>
       <c r="I50">
-        <v>0.95600676818950925</v>
+        <v>0.69026548672566379</v>
       </c>
       <c r="J50">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K50">
-        <v>0.14013840830449828</v>
+        <v>0.16753926701570682</v>
       </c>
       <c r="L50">
-        <v>1157.1127985672758</v>
+        <v>859.29291980217477</v>
       </c>
       <c r="M50">
-        <v>1433.8632021616143</v>
+        <v>1132.6266517472004</v>
       </c>
       <c r="N50">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P50">
         <v>5</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -3385,31 +3385,31 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
+        <v>197.79145317007453</v>
+      </c>
+      <c r="H51">
         <v>225.40761832966984</v>
       </c>
-      <c r="H51">
-        <v>298.55313686048981</v>
-      </c>
       <c r="I51">
-        <v>0.75500000000000012</v>
+        <v>0.87748344370860931</v>
       </c>
       <c r="J51">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="K51">
-        <v>0.21794871794871795</v>
+        <v>0.20634920634920634</v>
       </c>
       <c r="L51">
-        <v>1032.2474706951436</v>
+        <v>768.02794457361017</v>
       </c>
       <c r="M51">
-        <v>1374.8371952425557</v>
+        <v>1030.00832216869</v>
       </c>
       <c r="N51">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P51">
         <v>5</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -3438,28 +3438,28 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
+        <v>164.75022286417132</v>
+      </c>
+      <c r="H52">
         <v>221.17153206423001</v>
       </c>
-      <c r="H52">
-        <v>539.38771595256094</v>
-      </c>
       <c r="I52">
-        <v>0.41004184100418412</v>
+        <v>0.74489795918367341</v>
       </c>
       <c r="J52">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="K52">
-        <v>0.14243323442136499</v>
+        <v>0.16959064327485379</v>
       </c>
       <c r="L52">
-        <v>1918.3245128019951</v>
+        <v>965.93281350500456</v>
       </c>
       <c r="M52">
-        <v>2243.311253794333</v>
+        <v>1162.2789695212086</v>
       </c>
       <c r="N52">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O52">
         <v>5</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -3491,34 +3491,34 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
+        <v>199.31124090169413</v>
+      </c>
+      <c r="H53">
         <v>204.35709510173706</v>
       </c>
-      <c r="H53">
-        <v>138.76099050117946</v>
-      </c>
       <c r="I53">
-        <v>1.4727272727272729</v>
+        <v>0.97530864197530842</v>
       </c>
       <c r="J53">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K53">
-        <v>0.10294117647058823</v>
+        <v>0.1</v>
       </c>
       <c r="L53">
-        <v>1165.5923202099075</v>
+        <v>1286.692821010937</v>
       </c>
       <c r="M53">
-        <v>1271.5552584108084</v>
+        <v>1407.7933218119663</v>
       </c>
       <c r="N53">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="O53">
         <v>5</v>
       </c>
       <c r="P53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -3544,31 +3544,31 @@
         <v>84159</v>
       </c>
       <c r="G54">
+        <v>153.28128898869994</v>
+      </c>
+      <c r="H54">
         <v>215.06909540274958</v>
       </c>
-      <c r="H54">
-        <v>242.39831747050229</v>
-      </c>
       <c r="I54">
-        <v>0.88725490196078427</v>
+        <v>0.71270718232044183</v>
       </c>
       <c r="J54">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K54">
-        <v>0.11168831168831168</v>
+        <v>0.15483870967741936</v>
       </c>
       <c r="L54">
-        <v>977.91085920697731</v>
+        <v>569.16075523711072</v>
       </c>
       <c r="M54">
-        <v>1131.1921481956772</v>
+        <v>740.26544992217111</v>
       </c>
       <c r="N54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P54">
         <v>5</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -3597,34 +3597,34 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
+        <v>102.87983153427587</v>
+      </c>
+      <c r="H55">
         <v>109.30982100516809</v>
       </c>
-      <c r="H55">
-        <v>162.35723414002911</v>
-      </c>
       <c r="I55">
-        <v>0.67326732673267309</v>
+        <v>0.94117647058823539</v>
       </c>
       <c r="J55">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K55">
-        <v>0.13609467455621302</v>
+        <v>0.10606060606060606</v>
       </c>
       <c r="L55">
-        <v>1054.5182732263277</v>
+        <v>970.92841010472841</v>
       </c>
       <c r="M55">
-        <v>1165.4355915992189</v>
+        <v>1038.443299549097</v>
       </c>
       <c r="N55">
         <v>32</v>
       </c>
       <c r="O55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -3650,31 +3650,31 @@
         <v>56702</v>
       </c>
       <c r="G56">
+        <v>188.70586575429436</v>
+      </c>
+      <c r="H56">
         <v>283.94060174244294</v>
       </c>
-      <c r="H56">
-        <v>430.31991816867134</v>
-      </c>
       <c r="I56">
-        <v>0.65983606557377039</v>
+        <v>0.66459627329192539</v>
       </c>
       <c r="J56">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="K56">
-        <v>0.11358024691358025</v>
+        <v>0.15929203539823009</v>
       </c>
       <c r="L56">
-        <v>3356.1426404712361</v>
+        <v>1005.2555465415682</v>
       </c>
       <c r="M56">
-        <v>3599.5202991076158</v>
+        <v>1195.7250185178652</v>
       </c>
       <c r="N56">
         <v>45</v>
       </c>
       <c r="O56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P56">
         <v>6</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -3703,31 +3703,31 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
+        <v>148.71485578789955</v>
+      </c>
+      <c r="H57">
         <v>280.90583871047698</v>
       </c>
-      <c r="H57">
-        <v>252.81525483942929</v>
-      </c>
       <c r="I57">
-        <v>1.1111111111111112</v>
+        <v>0.52941176470588225</v>
       </c>
       <c r="J57">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="K57">
-        <v>0.15170278637770898</v>
+        <v>0.13461538461538461</v>
       </c>
       <c r="L57">
-        <v>1376.4386096813371</v>
+        <v>1077.3565108190057</v>
       </c>
       <c r="M57">
-        <v>1619.3395408015731</v>
+        <v>1250.8571759048887</v>
       </c>
       <c r="N57">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P57">
         <v>6</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -3756,28 +3756,28 @@
         <v>51685</v>
       </c>
       <c r="G58">
+        <v>365.6766953661604</v>
+      </c>
+      <c r="H58">
         <v>410.17703395569316</v>
       </c>
-      <c r="H58">
-        <v>336.65473541646514</v>
-      </c>
       <c r="I58">
-        <v>1.2183908045977012</v>
+        <v>0.89150943396226412</v>
       </c>
       <c r="J58">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="K58">
-        <v>0.13212435233160622</v>
+        <v>0.10473815461346633</v>
       </c>
       <c r="L58">
-        <v>1309.8577923962466</v>
+        <v>1276.9662377865918</v>
       </c>
       <c r="M58">
-        <v>1605.8817838831383</v>
+        <v>1520.7507013640322</v>
       </c>
       <c r="N58">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O58">
         <v>6</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -3809,28 +3809,28 @@
         <v>89832</v>
       </c>
       <c r="G59">
+        <v>253.80710659898475</v>
+      </c>
+      <c r="H59">
         <v>366.23920206607892</v>
       </c>
-      <c r="H59">
-        <v>434.14373497194765</v>
-      </c>
       <c r="I59">
-        <v>0.84358974358974359</v>
+        <v>0.69300911854103331</v>
       </c>
       <c r="J59">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K59">
-        <v>7.9276773296244787E-2</v>
+        <v>7.719928186714542E-2</v>
       </c>
       <c r="L59">
-        <v>1336.9400659007927</v>
+        <v>965.13491851456058</v>
       </c>
       <c r="M59">
-        <v>1527.2953958500311</v>
+        <v>1108.7363077745124</v>
       </c>
       <c r="N59">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="O59">
         <v>4</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -3862,28 +3862,28 @@
         <v>60446</v>
       </c>
       <c r="G60">
+        <v>211.75925619561264</v>
+      </c>
+      <c r="H60">
         <v>276.27965456771335</v>
       </c>
-      <c r="H60">
-        <v>627.00592264169677</v>
-      </c>
       <c r="I60">
-        <v>0.44063324538258575</v>
+        <v>0.76646706586826352</v>
       </c>
       <c r="J60">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="K60">
-        <v>0.1043956043956044</v>
+        <v>0.10508474576271186</v>
       </c>
       <c r="L60">
-        <v>1306.9516593322965</v>
+        <v>795.7515799225755</v>
       </c>
       <c r="M60">
-        <v>1589.8487906561229</v>
+        <v>949.60791450220029</v>
       </c>
       <c r="N60">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="O60">
         <v>4</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -3915,28 +3915,28 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
+        <v>184.6957297073528</v>
+      </c>
+      <c r="H61">
         <v>314.19503444469211</v>
       </c>
-      <c r="H61">
-        <v>677.21767559362695</v>
-      </c>
       <c r="I61">
-        <v>0.46394984326018807</v>
+        <v>0.58783783783783783</v>
       </c>
       <c r="J61">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="K61">
-        <v>0.13490364025695931</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="L61">
-        <v>1335.3288963899415</v>
+        <v>719.67646403209881</v>
       </c>
       <c r="M61">
-        <v>1736.5644471335008</v>
+        <v>974.42919466293029</v>
       </c>
       <c r="N61">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O61">
         <v>4</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -3968,31 +3968,31 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
+        <v>85.539658669168475</v>
+      </c>
+      <c r="H62">
         <v>173.83866116637464</v>
       </c>
-      <c r="H62">
-        <v>193.15406796263849</v>
-      </c>
       <c r="I62">
-        <v>0.89999999999999991</v>
+        <v>0.49206349206349209</v>
       </c>
       <c r="J62">
         <v>18</v>
       </c>
       <c r="K62">
-        <v>0.13533834586466165</v>
+        <v>0.19148936170212766</v>
       </c>
       <c r="L62">
-        <v>1379.6719140188463</v>
+        <v>772.61627185055397</v>
       </c>
       <c r="M62">
-        <v>1528.6764807328818</v>
+        <v>921.62083856458935</v>
       </c>
       <c r="N62">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P62">
         <v>6</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4021,31 +4021,31 @@
         <v>22819</v>
       </c>
       <c r="G63">
+        <v>148.9986414829747</v>
+      </c>
+      <c r="H63">
         <v>52.587755817520488</v>
       </c>
-      <c r="H63">
-        <v>201.58639730049518</v>
-      </c>
       <c r="I63">
-        <v>0.26086956521739135</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="J63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K63">
-        <v>0.13793103448275862</v>
+        <v>0.19565217391304349</v>
       </c>
       <c r="L63">
-        <v>999.16736053288923</v>
+        <v>714.31701652131994</v>
       </c>
       <c r="M63">
-        <v>1104.3428721679302</v>
+        <v>832.63946711074095</v>
       </c>
       <c r="N63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P63">
         <v>5</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -4074,31 +4074,31 @@
         <v>99765</v>
       </c>
       <c r="G64">
+        <v>232.54648423795919</v>
+      </c>
+      <c r="H64">
         <v>267.62892798075478</v>
       </c>
-      <c r="H64">
-        <v>241.56768405753522</v>
-      </c>
       <c r="I64">
-        <v>1.107883817427386</v>
+        <v>0.86891385767790252</v>
       </c>
       <c r="J64">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K64">
-        <v>0.1062992125984252</v>
+        <v>0.12625250501002003</v>
       </c>
       <c r="L64">
-        <v>1149.7017992281862</v>
+        <v>920.16238159675231</v>
       </c>
       <c r="M64">
-        <v>1312.0833959805543</v>
+        <v>1109.6075778078484</v>
       </c>
       <c r="N64">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P64">
         <v>5</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -4127,31 +4127,31 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
+        <v>174.22410038273699</v>
+      </c>
+      <c r="H65">
         <v>444.82749033890298</v>
       </c>
-      <c r="H65">
-        <v>294.6982123495232</v>
-      </c>
       <c r="I65">
-        <v>1.5094339622641511</v>
+        <v>0.39166666666666666</v>
       </c>
       <c r="J65">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K65">
-        <v>0.15538847117794485</v>
+        <v>0.17065868263473055</v>
       </c>
       <c r="L65">
-        <v>1603.2324130964628</v>
+        <v>1308.5342007469394</v>
       </c>
       <c r="M65">
-        <v>1947.9737181091125</v>
+        <v>1625.4737876134077</v>
       </c>
       <c r="N65">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P65">
         <v>6</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -4180,31 +4180,31 @@
         <v>20532</v>
       </c>
       <c r="G66">
+        <v>112.02026105591271</v>
+      </c>
+      <c r="H66">
         <v>277.61542957334893</v>
       </c>
-      <c r="H66">
-        <v>321.44944476914088</v>
-      </c>
       <c r="I66">
-        <v>0.86363636363636365</v>
+        <v>0.40350877192982448</v>
       </c>
       <c r="J66">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K66">
-        <v>0.15447154471544716</v>
+        <v>0.16250000000000001</v>
       </c>
       <c r="L66">
-        <v>1578.0245470485097</v>
+        <v>857.19851938437557</v>
       </c>
       <c r="M66">
-        <v>1855.6399766218585</v>
+        <v>1047.1459185661406</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P66">
         <v>5</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -4233,34 +4233,34 @@
         <v>32564</v>
       </c>
       <c r="G67">
+        <v>92.126274413462724</v>
+      </c>
+      <c r="H67">
         <v>291.73320230929863</v>
       </c>
-      <c r="H67">
-        <v>580.39552880481517</v>
-      </c>
       <c r="I67">
-        <v>0.50264550264550267</v>
+        <v>0.31578947368421051</v>
       </c>
       <c r="J67">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="K67">
-        <v>0.10915492957746478</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="L67">
-        <v>2223.3140891782336</v>
+        <v>743.15194693526598</v>
       </c>
       <c r="M67">
-        <v>2508.905539859968</v>
+        <v>853.70347623142129</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -4286,34 +4286,34 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
+        <v>366.45444629018345</v>
+      </c>
+      <c r="H68">
         <v>394.97230203261017</v>
       </c>
-      <c r="H68">
-        <v>434.89730007200757</v>
-      </c>
       <c r="I68">
-        <v>0.90819672131147544</v>
+        <v>0.92779783393501802</v>
       </c>
       <c r="J68">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.14948453608247422</v>
+        <v>0.14606741573033707</v>
       </c>
       <c r="L68">
-        <v>3383.6435838389316</v>
+        <v>2492.4605918880961</v>
       </c>
       <c r="M68">
-        <v>3755.8016012776002</v>
+        <v>2826.1195040744888</v>
       </c>
       <c r="N68">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="O68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q68">
         <v>7</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -4339,31 +4339,31 @@
         <v>105353</v>
       </c>
       <c r="G69">
+        <v>242.04341594449139</v>
+      </c>
+      <c r="H69">
         <v>286.65533966759369</v>
       </c>
-      <c r="H69">
-        <v>274.31587140375689</v>
-      </c>
       <c r="I69">
-        <v>1.0449826989619377</v>
+        <v>0.84437086092715241</v>
       </c>
       <c r="J69">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K69">
-        <v>0.10998307952622674</v>
+        <v>0.118491921005386</v>
       </c>
       <c r="L69">
-        <v>1039.3629037616395</v>
+        <v>942.54553738384277</v>
       </c>
       <c r="M69">
-        <v>1224.4549277191918</v>
+        <v>1130.485130940742</v>
       </c>
       <c r="N69">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="O69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P69">
         <v>5</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -4392,28 +4392,28 @@
         <v>114523</v>
       </c>
       <c r="G70">
+        <v>239.25325043877649</v>
+      </c>
+      <c r="H70">
         <v>491.60430655850791</v>
       </c>
-      <c r="H70">
-        <v>726.49162177029939</v>
-      </c>
       <c r="I70">
-        <v>0.6766826923076924</v>
+        <v>0.48667850799289519</v>
       </c>
       <c r="J70">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="K70">
-        <v>0.14265232974910394</v>
+        <v>0.16248506571087215</v>
       </c>
       <c r="L70">
-        <v>2068.5801105454798</v>
+        <v>1220.7154894649982</v>
       </c>
       <c r="M70">
-        <v>2589.8727766474854</v>
+        <v>1576.9758039869721</v>
       </c>
       <c r="N70">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="O70">
         <v>5</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -4445,31 +4445,31 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
+        <v>422.03171655172156</v>
+      </c>
+      <c r="H71">
         <v>478.65493433594173</v>
       </c>
-      <c r="H71">
-        <v>481.67483928443352</v>
-      </c>
       <c r="I71">
-        <v>0.99373040752351094</v>
+        <v>0.88170347003154592</v>
       </c>
       <c r="J71">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="K71">
-        <v>0.13522012578616352</v>
+        <v>0.12992455993294216</v>
       </c>
       <c r="L71">
-        <v>1674.5372939386732</v>
+        <v>1609.6093375461007</v>
       </c>
       <c r="M71">
-        <v>2064.1050322941082</v>
+        <v>1960.6732878082664</v>
       </c>
       <c r="N71">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P71">
         <v>6</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4498,31 +4498,31 @@
         <v>15884</v>
       </c>
       <c r="G72">
+        <v>176.27801561319569</v>
+      </c>
+      <c r="H72">
         <v>321.07781415260638</v>
       </c>
-      <c r="H72">
-        <v>409.21682195920425</v>
-      </c>
       <c r="I72">
-        <v>0.78461538461538449</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="J72">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K72">
-        <v>0.13793103448275862</v>
+        <v>0.12658227848101267</v>
       </c>
       <c r="L72">
-        <v>1391.3371946612942</v>
+        <v>837.32057416267946</v>
       </c>
       <c r="M72">
-        <v>1693.5280785696298</v>
+        <v>1026.1898766053891</v>
       </c>
       <c r="N72">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P72">
         <v>6</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -4551,31 +4551,31 @@
         <v>36180</v>
       </c>
       <c r="G73">
+        <v>60.807075732448865</v>
+      </c>
+      <c r="H73">
         <v>127.14206744057491</v>
       </c>
-      <c r="H73">
-        <v>118.85019347705915</v>
-      </c>
       <c r="I73">
-        <v>1.069767441860465</v>
+        <v>0.47826086956521735</v>
       </c>
       <c r="J73">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K73">
-        <v>0.3707865168539326</v>
+        <v>0.26470588235294118</v>
       </c>
       <c r="L73">
-        <v>1130.4588170259813</v>
+        <v>516.86014372581531</v>
       </c>
       <c r="M73">
-        <v>1404.090657822001</v>
+        <v>666.11387506909898</v>
       </c>
       <c r="N73">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P73">
         <v>6</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -4604,31 +4604,31 @@
         <v>43473</v>
       </c>
       <c r="G74">
+        <v>64.407793342994509</v>
+      </c>
+      <c r="H74">
         <v>98.91196834817012</v>
       </c>
-      <c r="H74">
-        <v>94.311411680813379</v>
-      </c>
       <c r="I74">
-        <v>1.0487804878048779</v>
+        <v>0.65116279069767458</v>
       </c>
       <c r="J74">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K74">
-        <v>0.16666666666666666</v>
+        <v>0.15492957746478872</v>
       </c>
       <c r="L74">
-        <v>611.8740367584478</v>
+        <v>386.44676005796703</v>
       </c>
       <c r="M74">
-        <v>708.48572677293953</v>
+        <v>462.35594506935337</v>
       </c>
       <c r="N74">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P74">
         <v>5</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -4657,28 +4657,28 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
+        <v>211.72144391548474</v>
+      </c>
+      <c r="H75">
         <v>298.39104083995221</v>
       </c>
-      <c r="H75">
-        <v>408.58524264391798</v>
-      </c>
       <c r="I75">
-        <v>0.73030303030303023</v>
+        <v>0.70954356846473021</v>
       </c>
       <c r="J75">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="K75">
-        <v>0.20490367775831875</v>
+        <v>0.21116504854368931</v>
       </c>
       <c r="L75">
-        <v>1225.7557279317539</v>
+        <v>809.74166269431009</v>
       </c>
       <c r="M75">
-        <v>1660.3418496530121</v>
+        <v>1132.8954455126816</v>
       </c>
       <c r="N75">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="O75">
         <v>5</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -4710,31 +4710,31 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
+        <v>221.77612082974861</v>
+      </c>
+      <c r="H76">
         <v>325.01672880221776</v>
       </c>
-      <c r="H76">
-        <v>229.4235732721537</v>
-      </c>
       <c r="I76">
-        <v>1.4166666666666667</v>
+        <v>0.68235294117647061</v>
       </c>
       <c r="J76">
+        <v>32</v>
+      </c>
+      <c r="K76">
+        <v>0.22377622377622378</v>
+      </c>
+      <c r="L76">
+        <v>1460.6634164993786</v>
+      </c>
+      <c r="M76">
+        <v>1827.7411337348246</v>
+      </c>
+      <c r="N76">
         <v>24</v>
       </c>
-      <c r="K76">
-        <v>0.16551724137931034</v>
-      </c>
-      <c r="L76">
-        <v>1605.965012905076</v>
-      </c>
-      <c r="M76">
-        <v>1881.2733008316607</v>
-      </c>
-      <c r="N76">
-        <v>20</v>
-      </c>
       <c r="O76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P76">
         <v>6</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -4763,31 +4763,31 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
+        <v>209.12689521248788</v>
+      </c>
+      <c r="H77">
         <v>206.99294730215635</v>
       </c>
-      <c r="H77">
-        <v>198.45715566083032</v>
-      </c>
       <c r="I77">
-        <v>1.043010752688172</v>
+        <v>1.0103092783505156</v>
       </c>
       <c r="J77">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="K77">
-        <v>0.21578947368421053</v>
+        <v>0.28717948717948716</v>
       </c>
       <c r="L77">
-        <v>1077.6436947174118</v>
+        <v>992.28577830415156</v>
       </c>
       <c r="M77">
-        <v>1340.1192876881876</v>
+        <v>1350.7890272398452</v>
       </c>
       <c r="N77">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P77">
         <v>6</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -4816,31 +4816,31 @@
         <v>158043</v>
       </c>
       <c r="G78">
+        <v>264.4849819352961</v>
+      </c>
+      <c r="H78">
         <v>351.17025113418504</v>
       </c>
-      <c r="H78">
-        <v>539.09379093031646</v>
-      </c>
       <c r="I78">
-        <v>0.65140845070422537</v>
+        <v>0.75315315315315312</v>
       </c>
       <c r="J78">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K78">
-        <v>0.13859275053304904</v>
+        <v>0.19630010277492291</v>
       </c>
       <c r="L78">
-        <v>1750.7893421410629</v>
+        <v>1142.726979366375</v>
       </c>
       <c r="M78">
-        <v>2120.9417690122309</v>
+        <v>1505.2865359427497</v>
       </c>
       <c r="N78">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="O78">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P78">
         <v>6</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -4869,28 +4869,28 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
+        <v>870.04744593012515</v>
+      </c>
+      <c r="H79">
         <v>524.98613592950892</v>
       </c>
-      <c r="H79">
-        <v>658.08121264403223</v>
-      </c>
       <c r="I79">
-        <v>0.79775280898876411</v>
+        <v>1.6572769953051645</v>
       </c>
       <c r="J79">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="K79">
-        <v>0.10208333333333333</v>
+        <v>0.22614840989399293</v>
       </c>
       <c r="L79">
-        <v>2043.2558999322202</v>
+        <v>1895.3724813605274</v>
       </c>
       <c r="M79">
-        <v>2405.5702754328672</v>
+        <v>2841.8263602193601</v>
       </c>
       <c r="N79">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="O79">
         <v>6</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44211</v>
+        <v>44218</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -4922,28 +4922,28 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
+        <v>162.88895191140003</v>
+      </c>
+      <c r="H80">
         <v>213.79174938371258</v>
       </c>
-      <c r="H80">
-        <v>437.76405826188761</v>
-      </c>
       <c r="I80">
-        <v>0.4883720930232559</v>
+        <v>0.76190476190476175</v>
       </c>
       <c r="J80">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="K80">
-        <v>0.15625</v>
+        <v>0.19305019305019305</v>
       </c>
       <c r="L80">
-        <v>1166.4012449369898</v>
+        <v>703.91297075997875</v>
       </c>
       <c r="M80">
-        <v>1471.8180297708648</v>
+        <v>922.06781706988954</v>
       </c>
       <c r="N80">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="O80">
         <v>5</v>
@@ -4961,6 +4961,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -5171,22 +5186,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A17AE3-A467-46C2-B8E3-63736AD8DD9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5203,21 +5220,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{98AC4950-CD78-458C-B97A-A4ABDE272758}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{93CC2C11-A0F0-4BC0-A8CB-411185F6A1C7}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
+    <workbookView xWindow="3270" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -709,7 +709,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:Q80"/>
     </sheetView>
   </sheetViews>
@@ -770,7 +770,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -788,34 +788,34 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>206.71692184722241</v>
+        <v>339</v>
       </c>
       <c r="H2">
-        <v>314.20972120777805</v>
+        <v>256</v>
       </c>
       <c r="I2">
-        <v>0.65789473684210531</v>
+        <v>1.32421875</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K2">
-        <v>0.12698412698412698</v>
+        <v>0.13425925925925927</v>
       </c>
       <c r="L2">
-        <v>1096.9777986025936</v>
+        <v>2345.5156827076785</v>
       </c>
       <c r="M2">
-        <v>1295.4260435759272</v>
+        <v>2585.3040074968303</v>
       </c>
       <c r="N2">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -841,31 +841,31 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>289.63669092336357</v>
+        <v>223</v>
       </c>
       <c r="H3">
-        <v>439.41765881519643</v>
+        <v>241</v>
       </c>
       <c r="I3">
-        <v>0.65913757700205344</v>
+        <v>0.92531120331950212</v>
       </c>
       <c r="J3">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>0.14232673267326731</v>
+        <v>0.20576131687242799</v>
       </c>
       <c r="L3">
-        <v>1352.5401859629969</v>
+        <v>925.75048046991321</v>
       </c>
       <c r="M3">
-        <v>1663.8319565815652</v>
+        <v>1196.4377554611158</v>
       </c>
       <c r="N3">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P3">
         <v>6</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -894,31 +894,31 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>68.382444361556637</v>
+        <v>93</v>
       </c>
       <c r="H4">
-        <v>130.54830287206266</v>
+        <v>37</v>
       </c>
       <c r="I4">
-        <v>0.52380952380952384</v>
+        <v>2.5135135135135136</v>
       </c>
       <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="L4">
+        <v>870.32201914708435</v>
+      </c>
+      <c r="M4">
+        <v>926.27129180653992</v>
+      </c>
+      <c r="N4">
         <v>9</v>
       </c>
-      <c r="K4">
-        <v>0.28125</v>
-      </c>
-      <c r="L4">
-        <v>1013.3034937212482</v>
-      </c>
-      <c r="M4">
-        <v>1181.1513116996146</v>
-      </c>
-      <c r="N4">
-        <v>15</v>
-      </c>
       <c r="O4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P4">
         <v>6</v>
@@ -929,7 +929,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -947,28 +947,28 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>221.16212984274341</v>
+        <v>111</v>
       </c>
       <c r="H5">
-        <v>293.16840467526453</v>
+        <v>121</v>
       </c>
       <c r="I5">
-        <v>0.75438596491228072</v>
+        <v>0.9173553719008265</v>
       </c>
       <c r="J5">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K5">
-        <v>0.12</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L5">
-        <v>702.06117961708094</v>
+        <v>457.75417572102714</v>
       </c>
       <c r="M5">
-        <v>887.22017204356382</v>
+        <v>550.33367193426852</v>
       </c>
       <c r="N5">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1000,28 +1000,28 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>334.05411399423377</v>
+        <v>292</v>
       </c>
       <c r="H6">
-        <v>464.34907961854066</v>
+        <v>342</v>
       </c>
       <c r="I6">
-        <v>0.71940298507462697</v>
+        <v>0.85380116959064323</v>
       </c>
       <c r="J6">
-        <v>620</v>
+        <v>472</v>
       </c>
       <c r="K6">
-        <v>0.17939814814814814</v>
+        <v>0.1717612809315866</v>
       </c>
       <c r="L6">
-        <v>1520.5699711687737</v>
+        <v>1261.8281954609299</v>
       </c>
       <c r="M6">
-        <v>1950.2661343978707</v>
+        <v>1588.9517261772751</v>
       </c>
       <c r="N6">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -1035,7 +1035,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1053,28 +1053,28 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>334.05411399423377</v>
+        <v>292</v>
       </c>
       <c r="H7">
-        <v>464.34907961854066</v>
+        <v>342</v>
       </c>
       <c r="I7">
-        <v>0.71940298507462697</v>
+        <v>0.85380116959064323</v>
       </c>
       <c r="J7">
-        <v>620</v>
+        <v>472</v>
       </c>
       <c r="K7">
-        <v>0.17939814814814814</v>
+        <v>0.1717612809315866</v>
       </c>
       <c r="L7">
-        <v>1520.5699711687737</v>
+        <v>1261.8281954609299</v>
       </c>
       <c r="M7">
-        <v>1950.2661343978707</v>
+        <v>1588.9517261772751</v>
       </c>
       <c r="N7">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1106,28 +1106,28 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>334.05411399423377</v>
+        <v>292</v>
       </c>
       <c r="H8">
-        <v>464.34907961854066</v>
+        <v>342</v>
       </c>
       <c r="I8">
-        <v>0.71940298507462697</v>
+        <v>0.85380116959064323</v>
       </c>
       <c r="J8">
-        <v>620</v>
+        <v>472</v>
       </c>
       <c r="K8">
-        <v>0.17939814814814814</v>
+        <v>0.1717612809315866</v>
       </c>
       <c r="L8">
-        <v>1520.5699711687737</v>
+        <v>1261.8281954609299</v>
       </c>
       <c r="M8">
-        <v>1950.2661343978707</v>
+        <v>1588.9517261772751</v>
       </c>
       <c r="N8">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="O8">
         <v>5</v>
@@ -1141,7 +1141,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1159,28 +1159,28 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>334.05411399423377</v>
+        <v>292</v>
       </c>
       <c r="H9">
-        <v>464.34907961854066</v>
+        <v>342</v>
       </c>
       <c r="I9">
-        <v>0.71940298507462697</v>
+        <v>0.85380116959064323</v>
       </c>
       <c r="J9">
-        <v>620</v>
+        <v>472</v>
       </c>
       <c r="K9">
-        <v>0.17939814814814814</v>
+        <v>0.1717612809315866</v>
       </c>
       <c r="L9">
-        <v>1520.5699711687737</v>
+        <v>1261.8281954609299</v>
       </c>
       <c r="M9">
-        <v>1950.2661343978707</v>
+        <v>1588.9517261772751</v>
       </c>
       <c r="N9">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="O9">
         <v>5</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1212,28 +1212,28 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>334.05411399423377</v>
+        <v>292</v>
       </c>
       <c r="H10">
-        <v>464.34907961854066</v>
+        <v>342</v>
       </c>
       <c r="I10">
-        <v>0.71940298507462697</v>
+        <v>0.85380116959064323</v>
       </c>
       <c r="J10">
-        <v>620</v>
+        <v>472</v>
       </c>
       <c r="K10">
-        <v>0.17939814814814814</v>
+        <v>0.1717612809315866</v>
       </c>
       <c r="L10">
-        <v>1520.5699711687737</v>
+        <v>1261.8281954609299</v>
       </c>
       <c r="M10">
-        <v>1950.2661343978707</v>
+        <v>1588.9517261772751</v>
       </c>
       <c r="N10">
-        <v>265</v>
+        <v>314</v>
       </c>
       <c r="O10">
         <v>5</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1265,31 +1265,31 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>86.249684700445073</v>
+        <v>99</v>
       </c>
       <c r="H11">
-        <v>149.71643381964051</v>
+        <v>96</v>
       </c>
       <c r="I11">
-        <v>0.57608695652173914</v>
+        <v>1.03125</v>
       </c>
       <c r="J11">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K11">
-        <v>0.1310344827586207</v>
+        <v>0.24528301886792453</v>
       </c>
       <c r="L11">
-        <v>1124.5006061888216</v>
+        <v>864.11716842961766</v>
       </c>
       <c r="M11">
-        <v>1217.2597010553382</v>
+        <v>991.04963384865755</v>
       </c>
       <c r="N11">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11">
         <v>6</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1318,31 +1318,31 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>161.72332373774947</v>
+        <v>213</v>
       </c>
       <c r="H12">
-        <v>281.39858330368406</v>
+        <v>152</v>
       </c>
       <c r="I12">
-        <v>0.57471264367816099</v>
+        <v>1.4013157894736843</v>
       </c>
       <c r="J12">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K12">
-        <v>0.19708029197080293</v>
+        <v>0.10619469026548672</v>
       </c>
       <c r="L12">
-        <v>1190.2836627098359</v>
+        <v>1329.3657211243005</v>
       </c>
       <c r="M12">
-        <v>1452.2754471649903</v>
+        <v>1445.8065142154801</v>
       </c>
       <c r="N12">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P12">
         <v>6</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1371,31 +1371,31 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>115.45293072824157</v>
+        <v>73</v>
       </c>
       <c r="H13">
-        <v>225.35523978685612</v>
+        <v>71</v>
       </c>
       <c r="I13">
-        <v>0.51231527093596063</v>
+        <v>1.028169014084507</v>
       </c>
       <c r="J13">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>9.1205211726384364E-2</v>
+        <v>6.9230769230769235E-2</v>
       </c>
       <c r="L13">
-        <v>845.91474245115455</v>
+        <v>498.44582593250448</v>
       </c>
       <c r="M13">
-        <v>939.16518650088813</v>
+        <v>528.41918294849029</v>
       </c>
       <c r="N13">
         <v>46</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P13">
         <v>5</v>
@@ -1406,7 +1406,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1424,28 +1424,28 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>171.60151009328882</v>
+        <v>75</v>
       </c>
       <c r="H14">
-        <v>252.72222395557083</v>
+        <v>156</v>
       </c>
       <c r="I14">
-        <v>0.67901234567901236</v>
+        <v>0.48076923076923078</v>
       </c>
       <c r="J14">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.10294117647058823</v>
+        <v>0.32432432432432434</v>
       </c>
       <c r="L14">
-        <v>1004.6488409097999</v>
+        <v>1092.0096096845652</v>
       </c>
       <c r="M14">
-        <v>1135.6899940719479</v>
+        <v>1316.6515865339613</v>
       </c>
       <c r="N14">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="O14">
         <v>5</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1477,28 +1477,28 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>106.44633963985655</v>
+        <v>117</v>
       </c>
       <c r="H15">
-        <v>195.15162267307034</v>
+        <v>117</v>
       </c>
       <c r="I15">
-        <v>0.54545454545454541</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K15">
-        <v>0.14285714285714285</v>
+        <v>0.11956521739130435</v>
       </c>
       <c r="L15">
-        <v>887.05283033213789</v>
+        <v>988.41777124464602</v>
       </c>
       <c r="M15">
-        <v>1016.3090998948209</v>
+        <v>1072.0531211191931</v>
       </c>
       <c r="N15">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="O15">
         <v>6</v>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1530,31 +1530,31 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>394.74329426764081</v>
+        <v>398</v>
       </c>
       <c r="H16">
-        <v>435.60698932640287</v>
+        <v>477</v>
       </c>
       <c r="I16">
-        <v>0.90619136960600355</v>
+        <v>0.83438155136268344</v>
       </c>
       <c r="J16">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="K16">
-        <v>0.15846456692913385</v>
+        <v>0.1157796451914099</v>
       </c>
       <c r="L16">
-        <v>1605.9432158093464</v>
+        <v>3924.549273443502</v>
       </c>
       <c r="M16">
-        <v>2000.6865100769871</v>
+        <v>4228.5751646806912</v>
       </c>
       <c r="N16">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P16">
         <v>6</v>
@@ -1565,7 +1565,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1583,28 +1583,28 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>378.41744972150178</v>
+        <v>378</v>
       </c>
       <c r="H17">
-        <v>415.62141247502018</v>
+        <v>375</v>
       </c>
       <c r="I17">
-        <v>0.91048593350383644</v>
+        <v>1.008</v>
       </c>
       <c r="J17">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="K17">
-        <v>0.11780455153949129</v>
+        <v>0.10437235543018336</v>
       </c>
       <c r="L17">
-        <v>1757.0900123304561</v>
+        <v>2500.1062970364387</v>
       </c>
       <c r="M17">
-        <v>2037.7141885284241</v>
+        <v>2736.0857179301838</v>
       </c>
       <c r="N17">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="O17">
         <v>5</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1636,34 +1636,34 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>144.34542487762016</v>
+        <v>122</v>
       </c>
       <c r="H18">
-        <v>138.06953683946278</v>
+        <v>85</v>
       </c>
       <c r="I18">
-        <v>1.0454545454545452</v>
+        <v>1.4352941176470588</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18">
-        <v>0.14444444444444443</v>
+        <v>0.22727272727272727</v>
       </c>
       <c r="L18">
-        <v>577.38169951048064</v>
+        <v>787.62394878875364</v>
       </c>
       <c r="M18">
-        <v>699.76151625454997</v>
+        <v>928.83142964729507</v>
       </c>
       <c r="N18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1689,34 +1689,34 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>453.2074423771175</v>
+        <v>415</v>
       </c>
       <c r="H19">
-        <v>473.20188836434318</v>
+        <v>531</v>
       </c>
       <c r="I19">
-        <v>0.9577464788732396</v>
+        <v>0.78154425612052736</v>
       </c>
       <c r="J19">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.11990407673860912</v>
+        <v>9.154929577464789E-2</v>
       </c>
       <c r="L19">
-        <v>1783.948903082477</v>
+        <v>2677.0044209450602</v>
       </c>
       <c r="M19">
-        <v>2117.1896695362398</v>
+        <v>2936.9293315264481</v>
       </c>
       <c r="N19">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="O19">
         <v>6</v>
       </c>
       <c r="P19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q19">
         <v>7</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -1742,31 +1742,31 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>129.06244202273112</v>
+        <v>137</v>
       </c>
       <c r="H20">
-        <v>211.33974881222224</v>
+        <v>184</v>
       </c>
       <c r="I20">
-        <v>0.61068702290076327</v>
+        <v>0.74456521739130432</v>
       </c>
       <c r="J20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.18009478672985782</v>
+        <v>0.19597989949748743</v>
       </c>
       <c r="L20">
-        <v>1095.4174766679305</v>
+        <v>1197.0444939179813</v>
       </c>
       <c r="M20">
-        <v>1279.3314565503222</v>
+        <v>1385.796792824186</v>
       </c>
       <c r="N20">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P20">
         <v>6</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -1795,31 +1795,31 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>317.63463569165788</v>
+        <v>204</v>
       </c>
       <c r="H21">
-        <v>481.52059134107708</v>
+        <v>188</v>
       </c>
       <c r="I21">
-        <v>0.6596491228070176</v>
+        <v>1.0851063829787233</v>
       </c>
       <c r="J21">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.17336152219873149</v>
+        <v>0.15517241379310345</v>
       </c>
       <c r="L21">
-        <v>1196.1985216473074</v>
+        <v>1050.8886936541189</v>
       </c>
       <c r="M21">
-        <v>1611.8268215417106</v>
+        <v>1233.3581131310402</v>
       </c>
       <c r="N21">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P21">
         <v>6</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1848,34 +1848,34 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>122.28351166345452</v>
+        <v>44</v>
       </c>
       <c r="H22">
-        <v>212.66697680600785</v>
+        <v>96</v>
       </c>
       <c r="I22">
-        <v>0.57500000000000007</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="J22">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="K22">
-        <v>0.18650793650793651</v>
+        <v>0.25882352941176473</v>
       </c>
       <c r="L22">
-        <v>1010.1681398285373</v>
+        <v>454.57566292284173</v>
       </c>
       <c r="M22">
-        <v>1197.5809131388316</v>
+        <v>542.30079085531997</v>
       </c>
       <c r="N22">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="O22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q22">
         <v>7</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -1901,31 +1901,31 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>268.4062274177453</v>
+        <v>243</v>
       </c>
       <c r="H23">
-        <v>228.09613465537331</v>
+        <v>190</v>
       </c>
       <c r="I23">
-        <v>1.1767241379310345</v>
+        <v>1.2789473684210526</v>
       </c>
       <c r="J23">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="K23">
-        <v>0.18415841584158416</v>
+        <v>0.18409090909090908</v>
       </c>
       <c r="L23">
-        <v>1335.148926129297</v>
+        <v>1960.4373131980494</v>
       </c>
       <c r="M23">
-        <v>1609.4541915122677</v>
+        <v>2199.3471763410416</v>
       </c>
       <c r="N23">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="O23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P23">
         <v>6</v>
@@ -1936,7 +1936,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -1954,31 +1954,31 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>327.79405734087595</v>
+        <v>391</v>
       </c>
       <c r="H24">
-        <v>492.9131848166445</v>
+        <v>343</v>
       </c>
       <c r="I24">
-        <v>0.6650137741046831</v>
+        <v>1.1399416909620992</v>
       </c>
       <c r="J24">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="K24">
-        <v>8.9675711449371281E-2</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="L24">
-        <v>1196.842096687026</v>
+        <v>1460.0007061015319</v>
       </c>
       <c r="M24">
-        <v>1417.6346141834072</v>
+        <v>1709.3088623889589</v>
       </c>
       <c r="N24">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P24">
         <v>6</v>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2007,31 +2007,31 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>327.79405734087595</v>
+        <v>391</v>
       </c>
       <c r="H25">
-        <v>492.9131848166445</v>
+        <v>343</v>
       </c>
       <c r="I25">
-        <v>0.6650137741046831</v>
+        <v>1.1399416909620992</v>
       </c>
       <c r="J25">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="K25">
-        <v>8.9675711449371281E-2</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="L25">
-        <v>1196.842096687026</v>
+        <v>1460.0007061015319</v>
       </c>
       <c r="M25">
-        <v>1417.6346141834072</v>
+        <v>1709.3088623889589</v>
       </c>
       <c r="N25">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P25">
         <v>6</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2060,31 +2060,31 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>327.79405734087595</v>
+        <v>391</v>
       </c>
       <c r="H26">
-        <v>492.9131848166445</v>
+        <v>343</v>
       </c>
       <c r="I26">
-        <v>0.6650137741046831</v>
+        <v>1.1399416909620992</v>
       </c>
       <c r="J26">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="K26">
-        <v>8.9675711449371281E-2</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="L26">
-        <v>1196.842096687026</v>
+        <v>1460.0007061015319</v>
       </c>
       <c r="M26">
-        <v>1417.6346141834072</v>
+        <v>1709.3088623889589</v>
       </c>
       <c r="N26">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P26">
         <v>6</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2113,31 +2113,31 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>327.79405734087595</v>
+        <v>391</v>
       </c>
       <c r="H27">
-        <v>492.9131848166445</v>
+        <v>343</v>
       </c>
       <c r="I27">
-        <v>0.6650137741046831</v>
+        <v>1.1399416909620992</v>
       </c>
       <c r="J27">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="K27">
-        <v>8.9675711449371281E-2</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="L27">
-        <v>1196.842096687026</v>
+        <v>1460.0007061015319</v>
       </c>
       <c r="M27">
-        <v>1417.6346141834072</v>
+        <v>1709.3088623889589</v>
       </c>
       <c r="N27">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P27">
         <v>6</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2166,31 +2166,31 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>327.79405734087595</v>
+        <v>391</v>
       </c>
       <c r="H28">
-        <v>492.9131848166445</v>
+        <v>343</v>
       </c>
       <c r="I28">
-        <v>0.6650137741046831</v>
+        <v>1.1399416909620992</v>
       </c>
       <c r="J28">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="K28">
-        <v>8.9675711449371281E-2</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="L28">
-        <v>1196.842096687026</v>
+        <v>1460.0007061015319</v>
       </c>
       <c r="M28">
-        <v>1417.6346141834072</v>
+        <v>1709.3088623889589</v>
       </c>
       <c r="N28">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P28">
         <v>6</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2219,31 +2219,31 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>112.70399422955551</v>
+        <v>126</v>
       </c>
       <c r="H29">
-        <v>243.44062753583989</v>
+        <v>99</v>
       </c>
       <c r="I29">
-        <v>0.46296296296296297</v>
+        <v>1.2727272727272727</v>
       </c>
       <c r="J29">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K29">
-        <v>0.26582278481012656</v>
+        <v>0.3</v>
       </c>
       <c r="L29">
-        <v>604.09340907041747</v>
+        <v>856.55035614462179</v>
       </c>
       <c r="M29">
-        <v>888.10747452889734</v>
+        <v>1059.4175457578215</v>
       </c>
       <c r="N29">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P29">
         <v>6</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2272,31 +2272,31 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>91.146624536671325</v>
+        <v>85</v>
       </c>
       <c r="H30">
-        <v>246.09588624901258</v>
+        <v>61</v>
       </c>
       <c r="I30">
-        <v>0.37037037037037035</v>
+        <v>1.3934426229508197</v>
       </c>
       <c r="J30">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>0.10810810810810811</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="L30">
-        <v>972.2306617244941</v>
+        <v>580.30017621680747</v>
       </c>
       <c r="M30">
-        <v>1081.6066111684997</v>
+        <v>598.52950112414169</v>
       </c>
       <c r="N30">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P30">
         <v>5</v>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2325,28 +2325,28 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>267.09016097596191</v>
+        <v>152</v>
       </c>
       <c r="H31">
-        <v>425.90052696166896</v>
+        <v>206</v>
       </c>
       <c r="I31">
-        <v>0.6271186440677966</v>
+        <v>0.73786407766990292</v>
       </c>
       <c r="J31">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="K31">
-        <v>0.33145009416195859</v>
+        <v>0.25633802816901408</v>
       </c>
       <c r="L31">
-        <v>1223.5616833898796</v>
+        <v>1653.0715368512235</v>
       </c>
       <c r="M31">
-        <v>1699.9927813470008</v>
+        <v>1899.4080704540534</v>
       </c>
       <c r="N31">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="O31">
         <v>5</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2378,28 +2378,28 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>151.32633078155598</v>
+        <v>92</v>
       </c>
       <c r="H32">
-        <v>172.09661147706368</v>
+        <v>107</v>
       </c>
       <c r="I32">
-        <v>0.87931034482758619</v>
+        <v>0.85981308411214952</v>
       </c>
       <c r="J32">
         <v>14</v>
       </c>
       <c r="K32">
-        <v>0.12844036697247707</v>
+        <v>0.2</v>
       </c>
       <c r="L32">
-        <v>664.64898225624597</v>
+        <v>599.37095721322169</v>
       </c>
       <c r="M32">
-        <v>789.27066642929208</v>
+        <v>723.99264138626791</v>
       </c>
       <c r="N32">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="O32">
         <v>5</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2431,34 +2431,34 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>244.94710111333302</v>
+        <v>220</v>
       </c>
       <c r="H33">
-        <v>390.25470346870003</v>
+        <v>188</v>
       </c>
       <c r="I33">
-        <v>0.62765957446808518</v>
+        <v>1.1702127659574468</v>
       </c>
       <c r="J33">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="K33">
-        <v>0.18202247191011237</v>
+        <v>0.11203319502074689</v>
       </c>
       <c r="L33">
-        <v>1114.0249513911474</v>
+        <v>845.54600683632941</v>
       </c>
       <c r="M33">
-        <v>1450.3082596992824</v>
+        <v>957.63966731708672</v>
       </c>
       <c r="N33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2484,28 +2484,28 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>133.3950398823946</v>
+        <v>83</v>
       </c>
       <c r="H34">
-        <v>179.6749516783274</v>
+        <v>140</v>
       </c>
       <c r="I34">
-        <v>0.74242424242424254</v>
+        <v>0.59285714285714286</v>
       </c>
       <c r="J34">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="K34">
-        <v>0.21739130434782608</v>
+        <v>0.18902439024390244</v>
       </c>
       <c r="L34">
-        <v>658.808156153867</v>
+        <v>513.16255138431382</v>
       </c>
       <c r="M34">
-        <v>862.9842376065119</v>
+        <v>639.75172188495355</v>
       </c>
       <c r="N34">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="O34">
         <v>4</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -2537,34 +2537,34 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>228.73134830402432</v>
+        <v>222</v>
       </c>
       <c r="H35">
-        <v>317.5329305867632</v>
+        <v>203</v>
       </c>
       <c r="I35">
-        <v>0.72033898305084743</v>
+        <v>1.0935960591133005</v>
       </c>
       <c r="J35">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.12315270935960591</v>
+        <v>0.17405063291139242</v>
       </c>
       <c r="L35">
-        <v>1081.7647296260914</v>
+        <v>1742.3946826688912</v>
       </c>
       <c r="M35">
-        <v>1283.5865075414072</v>
+        <v>1964.3986383757383</v>
       </c>
       <c r="N35">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O35">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q35">
         <v>7</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -2590,31 +2590,31 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>253.27492785816602</v>
+        <v>253</v>
       </c>
       <c r="H36">
-        <v>375.76034378957422</v>
+        <v>255</v>
       </c>
       <c r="I36">
-        <v>0.67403314917127066</v>
+        <v>0.99215686274509807</v>
       </c>
       <c r="J36">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="K36">
-        <v>0.15346534653465346</v>
+        <v>0.15189873417721519</v>
       </c>
       <c r="L36">
-        <v>1219.6640993169881</v>
+        <v>1003.7576034378958</v>
       </c>
       <c r="M36">
-        <v>1509.2694471548091</v>
+        <v>1227.9681953123377</v>
       </c>
       <c r="N36">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="O36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P36">
         <v>6</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -2643,31 +2643,31 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>101.33851285732381</v>
+        <v>228</v>
       </c>
       <c r="H37">
-        <v>371.57454714352065</v>
+        <v>110</v>
       </c>
       <c r="I37">
-        <v>0.27272727272727271</v>
+        <v>2.0727272727272728</v>
       </c>
       <c r="J37">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K37">
-        <v>0.32142857142857145</v>
+        <v>0.25</v>
       </c>
       <c r="L37">
-        <v>1680.5303382172867</v>
+        <v>1300.4560040533693</v>
       </c>
       <c r="M37">
-        <v>2136.5536460752437</v>
+        <v>1553.7915892585711</v>
       </c>
       <c r="N37">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P37">
         <v>6</v>
@@ -2678,7 +2678,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -2696,34 +2696,34 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>124.65561627749425</v>
+        <v>182</v>
       </c>
       <c r="H38">
-        <v>170.72399620613342</v>
+        <v>165</v>
       </c>
       <c r="I38">
-        <v>0.73015873015873012</v>
+        <v>1.103030303030303</v>
       </c>
       <c r="J38">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>0.20183486238532111</v>
+        <v>0.1171875</v>
       </c>
       <c r="L38">
-        <v>673.86296915225148</v>
+        <v>837.36055282055918</v>
       </c>
       <c r="M38">
-        <v>852.71667946343882</v>
+        <v>959.30626439636876</v>
       </c>
       <c r="N38">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q38">
         <v>7</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -2749,31 +2749,31 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>140.38549096979813</v>
+        <v>163</v>
       </c>
       <c r="H39">
-        <v>273.18257702230989</v>
+        <v>102</v>
       </c>
       <c r="I39">
-        <v>0.51388888888888884</v>
+        <v>1.5980392156862746</v>
       </c>
       <c r="J39">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K39">
-        <v>0.14678899082568808</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="L39">
-        <v>1001.669449081803</v>
+        <v>694.33904993170438</v>
       </c>
       <c r="M39">
-        <v>1183.7911670966762</v>
+        <v>830.93033844285935</v>
       </c>
       <c r="N39">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P39">
         <v>6</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -2802,34 +2802,34 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>46.278934307850662</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>76.599615406097641</v>
+        <v>30</v>
       </c>
       <c r="I40">
-        <v>0.60416666666666674</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="J40">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K40">
-        <v>0.14285714285714285</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="L40">
-        <v>585.66789279245495</v>
+        <v>585.66321971147715</v>
       </c>
       <c r="M40">
-        <v>638.33012838414709</v>
+        <v>604.81297076471333</v>
       </c>
       <c r="N40">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -2855,34 +2855,34 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>445.03589997524142</v>
+        <v>207</v>
       </c>
       <c r="H41">
-        <v>793.51324585293389</v>
+        <v>277</v>
       </c>
       <c r="I41">
-        <v>0.56084243369734788</v>
+        <v>0.74729241877256314</v>
       </c>
       <c r="J41">
-        <v>261</v>
+        <v>126</v>
       </c>
       <c r="K41">
-        <v>0.13043478260869565</v>
+        <v>0.16112531969309463</v>
       </c>
       <c r="L41">
-        <v>2811.9584055459272</v>
+        <v>1060.9061648923</v>
       </c>
       <c r="M41">
-        <v>3296.6080713047782</v>
+        <v>1294.8749690517454</v>
       </c>
       <c r="N41">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="O41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q41">
         <v>7</v>
@@ -2890,7 +2890,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -2908,31 +2908,31 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>238.19610413486058</v>
+        <v>269</v>
       </c>
       <c r="H42">
-        <v>474.79357669834621</v>
+        <v>224</v>
       </c>
       <c r="I42">
-        <v>0.50168350168350173</v>
+        <v>1.2008928571428572</v>
       </c>
       <c r="J42">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>0.16591928251121077</v>
+        <v>0.1461038961038961</v>
       </c>
       <c r="L42">
-        <v>1190.9805206743029</v>
+        <v>1326.853598490904</v>
       </c>
       <c r="M42">
-        <v>1545.8767295195312</v>
+        <v>1542.6671355948461</v>
       </c>
       <c r="N42">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P42">
         <v>6</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -2961,34 +2961,34 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>322.29172436863553</v>
+        <v>151</v>
       </c>
       <c r="H43">
-        <v>335.24094543701824</v>
+        <v>249</v>
       </c>
       <c r="I43">
-        <v>0.9613733905579398</v>
+        <v>0.60642570281124497</v>
       </c>
       <c r="J43">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K43">
-        <v>0.15973741794310722</v>
+        <v>0.22482014388489208</v>
       </c>
       <c r="L43">
-        <v>1394.1994683625351</v>
+        <v>1688.4284737959065</v>
       </c>
       <c r="M43">
-        <v>1709.2971810265135</v>
+        <v>1958.2029423402037</v>
       </c>
       <c r="N43">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="O43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q43">
         <v>7</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3014,34 +3014,34 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>232.47398374875266</v>
+        <v>274</v>
       </c>
       <c r="H44">
-        <v>219.31507900825724</v>
+        <v>169</v>
       </c>
       <c r="I44">
-        <v>1.0599999999999998</v>
+        <v>1.6213017751479291</v>
       </c>
       <c r="J44">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="K44">
-        <v>0.21359223300970873</v>
+        <v>0.24752475247524752</v>
       </c>
       <c r="L44">
-        <v>1655.8288465123419</v>
+        <v>2250.1480360550036</v>
       </c>
       <c r="M44">
-        <v>1945.3247508032414</v>
+        <v>2579.1170471741561</v>
       </c>
       <c r="N44">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="O44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3067,31 +3067,31 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>233.32565814721008</v>
+        <v>267</v>
       </c>
       <c r="H45">
-        <v>366.87389669199479</v>
+        <v>236</v>
       </c>
       <c r="I45">
-        <v>0.63598326359832635</v>
+        <v>1.1313559322033899</v>
       </c>
       <c r="J45">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K45">
-        <v>0.13299232736572891</v>
+        <v>0.10365853658536585</v>
       </c>
       <c r="L45">
-        <v>1175.8385140839666</v>
+        <v>1774.5030316985187</v>
       </c>
       <c r="M45">
-        <v>1415.3043211297875</v>
+        <v>1931.0768286130938</v>
       </c>
       <c r="N45">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P45">
         <v>6</v>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3120,28 +3120,28 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>418.77313801202183</v>
+        <v>253</v>
       </c>
       <c r="H46">
-        <v>480.87257672863342</v>
+        <v>298</v>
       </c>
       <c r="I46">
-        <v>0.87086092715231789</v>
+        <v>0.84899328859060408</v>
       </c>
       <c r="J46">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="K46">
-        <v>0.17876106194690267</v>
+        <v>0.14450867052023122</v>
       </c>
       <c r="L46">
-        <v>1456.9483698897336</v>
+        <v>1163.9571358056144</v>
       </c>
       <c r="M46">
-        <v>1939.4132399187931</v>
+        <v>1402.7992293361783</v>
       </c>
       <c r="N46">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O46">
         <v>6</v>
@@ -3155,7 +3155,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3173,34 +3173,34 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>125.75101299427133</v>
+        <v>112</v>
       </c>
       <c r="H47">
-        <v>200.27013180569142</v>
+        <v>172</v>
       </c>
       <c r="I47">
-        <v>0.62790697674418594</v>
+        <v>0.65116279069767447</v>
       </c>
       <c r="J47">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K47">
-        <v>0.15714285714285714</v>
+        <v>0.14754098360655737</v>
       </c>
       <c r="L47">
-        <v>535.6061664570816</v>
+        <v>675.3295142284943</v>
       </c>
       <c r="M47">
-        <v>689.30184900563552</v>
+        <v>801.08052722276568</v>
       </c>
       <c r="N47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O47">
         <v>4</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q47">
         <v>7</v>
@@ -3208,7 +3208,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3226,28 +3226,28 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>186.82057123249155</v>
+        <v>97</v>
       </c>
       <c r="H48">
-        <v>248.77637291673616</v>
+        <v>124</v>
       </c>
       <c r="I48">
-        <v>0.75095785440613039</v>
+        <v>0.782258064516129</v>
       </c>
       <c r="J48">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="K48">
-        <v>0.23194748358862144</v>
+        <v>0.19138755980861244</v>
       </c>
       <c r="L48">
-        <v>908.36736930900213</v>
+        <v>733.93446060582949</v>
       </c>
       <c r="M48">
-        <v>1211.4742144719221</v>
+        <v>848.31385706388085</v>
       </c>
       <c r="N48">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="O48">
         <v>5</v>
@@ -3261,7 +3261,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -3279,31 +3279,31 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>307.50258254122053</v>
+        <v>223</v>
       </c>
       <c r="H49">
-        <v>502.89484853095445</v>
+        <v>237</v>
       </c>
       <c r="I49">
-        <v>0.61146496815286622</v>
+        <v>0.94092827004219415</v>
       </c>
       <c r="J49">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="K49">
-        <v>0.21541501976284586</v>
+        <v>0.13588850174216027</v>
       </c>
       <c r="L49">
-        <v>1447.8246594649133</v>
+        <v>984.96132225051656</v>
       </c>
       <c r="M49">
-        <v>1971.5399953554297</v>
+        <v>1172.3442079469562</v>
       </c>
       <c r="N49">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="O49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P49">
         <v>6</v>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3332,31 +3332,31 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>222.08365720533342</v>
+        <v>230</v>
       </c>
       <c r="H50">
-        <v>321.73658031029072</v>
+        <v>228</v>
       </c>
       <c r="I50">
-        <v>0.69026548672566379</v>
+        <v>1.0087719298245614</v>
       </c>
       <c r="J50">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="K50">
-        <v>0.16753926701570682</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="L50">
-        <v>859.29291980217477</v>
+        <v>905.9848527988155</v>
       </c>
       <c r="M50">
-        <v>1132.6266517472004</v>
+        <v>1049.4846534935368</v>
       </c>
       <c r="N50">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P50">
         <v>5</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -3385,34 +3385,34 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>197.79145317007453</v>
+        <v>225</v>
       </c>
       <c r="H51">
-        <v>225.40761832966984</v>
+        <v>181</v>
       </c>
       <c r="I51">
-        <v>0.87748344370860931</v>
+        <v>1.2430939226519337</v>
       </c>
       <c r="J51">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="K51">
-        <v>0.20634920634920634</v>
+        <v>0.26654411764705882</v>
       </c>
       <c r="L51">
-        <v>768.02794457361017</v>
+        <v>647.11150918047474</v>
       </c>
       <c r="M51">
-        <v>1030.00832216869</v>
+        <v>971.78683385579939</v>
       </c>
       <c r="N51">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q51">
         <v>7</v>
@@ -3420,7 +3420,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -3438,31 +3438,31 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>164.75022286417132</v>
+        <v>176</v>
       </c>
       <c r="H52">
-        <v>221.17153206423001</v>
+        <v>160</v>
       </c>
       <c r="I52">
-        <v>0.74489795918367341</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J52">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K52">
-        <v>0.16959064327485379</v>
+        <v>0.20805369127516779</v>
       </c>
       <c r="L52">
-        <v>965.93281350500456</v>
+        <v>778.60528097494921</v>
       </c>
       <c r="M52">
-        <v>1162.2789695212086</v>
+        <v>988.49018280297901</v>
       </c>
       <c r="N52">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P52">
         <v>6</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -3491,34 +3491,34 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>199.31124090169413</v>
+        <v>404</v>
       </c>
       <c r="H53">
-        <v>204.35709510173706</v>
+        <v>401</v>
       </c>
       <c r="I53">
-        <v>0.97530864197530842</v>
+        <v>1.0074812967581048</v>
       </c>
       <c r="J53">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="K53">
-        <v>0.1</v>
+        <v>8.7774294670846395E-2</v>
       </c>
       <c r="L53">
-        <v>1286.692821010937</v>
+        <v>2805.4595453742713</v>
       </c>
       <c r="M53">
-        <v>1407.7933218119663</v>
+        <v>3017.3827484421122</v>
       </c>
       <c r="N53">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="O53">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P53">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q53">
         <v>7</v>
@@ -3526,7 +3526,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -3544,31 +3544,31 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>153.28128898869994</v>
+        <v>196</v>
       </c>
       <c r="H54">
-        <v>215.06909540274958</v>
+        <v>157</v>
       </c>
       <c r="I54">
-        <v>0.71270718232044183</v>
+        <v>1.2484076433121019</v>
       </c>
       <c r="J54">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K54">
-        <v>0.15483870967741936</v>
+        <v>0.12794612794612795</v>
       </c>
       <c r="L54">
-        <v>569.16075523711072</v>
+        <v>788.9827588255564</v>
       </c>
       <c r="M54">
-        <v>740.26544992217111</v>
+        <v>924.44064211789578</v>
       </c>
       <c r="N54">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P54">
         <v>5</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -3597,34 +3597,34 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>102.87983153427587</v>
+        <v>220</v>
       </c>
       <c r="H55">
-        <v>109.30982100516809</v>
+        <v>186</v>
       </c>
       <c r="I55">
-        <v>0.94117647058823539</v>
+        <v>1.1827956989247312</v>
       </c>
       <c r="J55">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>0.10606060606060606</v>
+        <v>0.1857707509881423</v>
       </c>
       <c r="L55">
-        <v>970.92841010472841</v>
+        <v>1538.362616341687</v>
       </c>
       <c r="M55">
-        <v>1038.443299549097</v>
+        <v>1765.0179234515906</v>
       </c>
       <c r="N55">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="O55">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q55">
         <v>7</v>
@@ -3632,7 +3632,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -3650,34 +3650,34 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>188.70586575429436</v>
+        <v>115</v>
       </c>
       <c r="H56">
-        <v>283.94060174244294</v>
+        <v>182</v>
       </c>
       <c r="I56">
-        <v>0.66459627329192539</v>
+        <v>0.63186813186813184</v>
       </c>
       <c r="J56">
         <v>36</v>
       </c>
       <c r="K56">
-        <v>0.15929203539823009</v>
+        <v>0.26865671641791045</v>
       </c>
       <c r="L56">
-        <v>1005.2555465415682</v>
+        <v>731.89658213114171</v>
       </c>
       <c r="M56">
-        <v>1195.7250185178652</v>
+        <v>922.3660541074388</v>
       </c>
       <c r="N56">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="O56">
         <v>4</v>
       </c>
       <c r="P56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -3685,7 +3685,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -3703,34 +3703,34 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>148.71485578789955</v>
+        <v>154</v>
       </c>
       <c r="H57">
-        <v>280.90583871047698</v>
+        <v>157</v>
       </c>
       <c r="I57">
-        <v>0.52941176470588225</v>
+        <v>0.98089171974522293</v>
       </c>
       <c r="J57">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="K57">
-        <v>0.13461538461538461</v>
+        <v>0.13829787234042554</v>
       </c>
       <c r="L57">
-        <v>1077.3565108190057</v>
+        <v>712.17303656702859</v>
       </c>
       <c r="M57">
-        <v>1250.8571759048887</v>
+        <v>841.05818007567871</v>
       </c>
       <c r="N57">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="O57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q57">
         <v>7</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -3756,34 +3756,34 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>365.6766953661604</v>
+        <v>317</v>
       </c>
       <c r="H58">
-        <v>410.17703395569316</v>
+        <v>263</v>
       </c>
       <c r="I58">
-        <v>0.89150943396226412</v>
+        <v>1.2053231939163498</v>
       </c>
       <c r="J58">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="K58">
-        <v>0.10473815461346633</v>
+        <v>0.11333333333333333</v>
       </c>
       <c r="L58">
-        <v>1276.9662377865918</v>
+        <v>2339.1699719454386</v>
       </c>
       <c r="M58">
-        <v>1520.7507013640322</v>
+        <v>2536.5192996033666</v>
       </c>
       <c r="N58">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P58">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q58">
         <v>7</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -3809,34 +3809,34 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>253.80710659898475</v>
+        <v>254</v>
       </c>
       <c r="H59">
-        <v>366.23920206607892</v>
+        <v>279</v>
       </c>
       <c r="I59">
-        <v>0.69300911854103331</v>
+        <v>0.91039426523297495</v>
       </c>
       <c r="J59">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>7.719928186714542E-2</v>
+        <v>9.6033402922755737E-2</v>
       </c>
       <c r="L59">
-        <v>965.13491851456058</v>
+        <v>1387.0335737821711</v>
       </c>
       <c r="M59">
-        <v>1108.7363077745124</v>
+        <v>1540.6536646183988</v>
       </c>
       <c r="N59">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q59">
         <v>7</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -3862,34 +3862,34 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>211.75925619561264</v>
+        <v>304</v>
       </c>
       <c r="H60">
-        <v>276.27965456771335</v>
+        <v>280</v>
       </c>
       <c r="I60">
-        <v>0.76646706586826352</v>
+        <v>1.0857142857142856</v>
       </c>
       <c r="J60">
         <v>31</v>
       </c>
       <c r="K60">
-        <v>0.10508474576271186</v>
+        <v>8.7818696883852687E-2</v>
       </c>
       <c r="L60">
-        <v>795.7515799225755</v>
+        <v>1459.1536247228933</v>
       </c>
       <c r="M60">
-        <v>949.60791450220029</v>
+        <v>1613.0099593025179</v>
       </c>
       <c r="N60">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q60">
         <v>7</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -3915,31 +3915,31 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>184.6957297073528</v>
+        <v>212</v>
       </c>
       <c r="H61">
-        <v>314.19503444469211</v>
+        <v>206</v>
       </c>
       <c r="I61">
-        <v>0.58783783783783783</v>
+        <v>1.029126213592233</v>
       </c>
       <c r="J61">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="K61">
-        <v>0.1702127659574468</v>
+        <v>0.116751269035533</v>
       </c>
       <c r="L61">
-        <v>719.67646403209881</v>
+        <v>1042.3521919116865</v>
       </c>
       <c r="M61">
-        <v>974.42919466293029</v>
+        <v>1188.8334571701519</v>
       </c>
       <c r="N61">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P61">
         <v>5</v>
@@ -3950,7 +3950,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -3968,31 +3968,31 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>85.539658669168475</v>
+        <v>55</v>
       </c>
       <c r="H62">
-        <v>173.83866116637464</v>
+        <v>69</v>
       </c>
       <c r="I62">
-        <v>0.49206349206349209</v>
+        <v>0.79710144927536231</v>
       </c>
       <c r="J62">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K62">
-        <v>0.19148936170212766</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L62">
-        <v>772.61627185055397</v>
+        <v>1117.5188322618028</v>
       </c>
       <c r="M62">
-        <v>921.62083856458935</v>
+        <v>1158.9084186418697</v>
       </c>
       <c r="N62">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P62">
         <v>6</v>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4021,34 +4021,34 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>148.9986414829747</v>
+        <v>188</v>
       </c>
       <c r="H63">
-        <v>52.587755817520488</v>
+        <v>223</v>
       </c>
       <c r="I63">
-        <v>2.833333333333333</v>
+        <v>0.84304932735426008</v>
       </c>
       <c r="J63">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K63">
-        <v>0.19565217391304349</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="L63">
-        <v>714.31701652131994</v>
+        <v>942.19729173057544</v>
       </c>
       <c r="M63">
-        <v>832.63946711074095</v>
+        <v>1099.9605591831369</v>
       </c>
       <c r="N63">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="O63">
         <v>5</v>
       </c>
       <c r="P63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q63">
         <v>7</v>
@@ -4056,7 +4056,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -4074,34 +4074,34 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>232.54648423795919</v>
+        <v>126</v>
       </c>
       <c r="H64">
-        <v>267.62892798075478</v>
+        <v>119</v>
       </c>
       <c r="I64">
-        <v>0.86891385767790252</v>
+        <v>1.0588235294117647</v>
       </c>
       <c r="J64">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="K64">
-        <v>0.12625250501002003</v>
+        <v>0.11836734693877551</v>
       </c>
       <c r="L64">
-        <v>920.16238159675231</v>
+        <v>828.94802786548394</v>
       </c>
       <c r="M64">
-        <v>1109.6075778078484</v>
+        <v>916.1529594547186</v>
       </c>
       <c r="N64">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="O64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q64">
         <v>7</v>
@@ -4109,7 +4109,7 @@
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -4127,34 +4127,34 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>174.22410038273699</v>
+        <v>172</v>
       </c>
       <c r="H65">
-        <v>444.82749033890298</v>
+        <v>180</v>
       </c>
       <c r="I65">
-        <v>0.39166666666666666</v>
+        <v>0.9555555555555556</v>
       </c>
       <c r="J65">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="K65">
-        <v>0.17065868263473055</v>
+        <v>8.203125E-2</v>
       </c>
       <c r="L65">
-        <v>1308.5342007469394</v>
+        <v>947.10308781554647</v>
       </c>
       <c r="M65">
-        <v>1625.4737876134077</v>
+        <v>1063.869221929792</v>
       </c>
       <c r="N65">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q65">
         <v>7</v>
@@ -4162,7 +4162,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -4180,31 +4180,31 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>112.02026105591271</v>
+        <v>205</v>
       </c>
       <c r="H66">
-        <v>277.61542957334893</v>
+        <v>180</v>
       </c>
       <c r="I66">
-        <v>0.40350877192982448</v>
+        <v>1.1388888888888888</v>
       </c>
       <c r="J66">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K66">
-        <v>0.16250000000000001</v>
+        <v>0.14754098360655737</v>
       </c>
       <c r="L66">
-        <v>857.19851938437557</v>
+        <v>647.76933567114747</v>
       </c>
       <c r="M66">
-        <v>1047.1459185661406</v>
+        <v>779.27138125852332</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="O66">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P66">
         <v>5</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -4233,31 +4233,31 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>92.126274413462724</v>
+        <v>144</v>
       </c>
       <c r="H67">
-        <v>291.73320230929863</v>
+        <v>135</v>
       </c>
       <c r="I67">
-        <v>0.31578947368421051</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="J67">
+        <v>20</v>
+      </c>
+      <c r="K67">
+        <v>0.28169014084507044</v>
+      </c>
+      <c r="L67">
+        <v>534.33239159808375</v>
+      </c>
+      <c r="M67">
+        <v>718.58494042500922</v>
+      </c>
+      <c r="N67">
         <v>12</v>
       </c>
-      <c r="K67">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="L67">
-        <v>743.15194693526598</v>
-      </c>
-      <c r="M67">
-        <v>853.70347623142129</v>
-      </c>
-      <c r="N67">
-        <v>4</v>
-      </c>
       <c r="O67">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P67">
         <v>5</v>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -4286,28 +4286,28 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>366.45444629018345</v>
+        <v>217</v>
       </c>
       <c r="H68">
-        <v>394.97230203261017</v>
+        <v>254</v>
       </c>
       <c r="I68">
-        <v>0.92779783393501802</v>
+        <v>0.85433070866141736</v>
       </c>
       <c r="J68">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="K68">
-        <v>0.14606741573033707</v>
+        <v>0.15151515151515152</v>
       </c>
       <c r="L68">
-        <v>2492.4605918880961</v>
+        <v>1832.2591684252552</v>
       </c>
       <c r="M68">
-        <v>2826.1195040744888</v>
+        <v>2046.1415616266468</v>
       </c>
       <c r="N68">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="O68">
         <v>5</v>
@@ -4321,7 +4321,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -4339,34 +4339,34 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>242.04341594449139</v>
+        <v>406</v>
       </c>
       <c r="H69">
-        <v>286.65533966759369</v>
+        <v>325</v>
       </c>
       <c r="I69">
-        <v>0.84437086092715241</v>
+        <v>1.2492307692307691</v>
       </c>
       <c r="J69">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="K69">
-        <v>0.118491921005386</v>
+        <v>0.12727272727272726</v>
       </c>
       <c r="L69">
-        <v>942.54553738384277</v>
+        <v>1862.31051797291</v>
       </c>
       <c r="M69">
-        <v>1130.485130940742</v>
+        <v>2141.3723387089121</v>
       </c>
       <c r="N69">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="O69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P69">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q69">
         <v>7</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -4392,34 +4392,34 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>239.25325043877649</v>
+        <v>170</v>
       </c>
       <c r="H70">
-        <v>491.60430655850791</v>
+        <v>247</v>
       </c>
       <c r="I70">
-        <v>0.48667850799289519</v>
+        <v>0.68825910931174084</v>
       </c>
       <c r="J70">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="K70">
-        <v>0.16248506571087215</v>
+        <v>0.18200836820083682</v>
       </c>
       <c r="L70">
-        <v>1220.7154894649982</v>
+        <v>962.25212402748798</v>
       </c>
       <c r="M70">
-        <v>1576.9758039869721</v>
+        <v>1190.1539428761034</v>
       </c>
       <c r="N70">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q70">
         <v>7</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -4445,34 +4445,34 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>422.03171655172156</v>
+        <v>401</v>
       </c>
       <c r="H71">
-        <v>478.65493433594173</v>
+        <v>483</v>
       </c>
       <c r="I71">
-        <v>0.88170347003154592</v>
+        <v>0.83022774327122151</v>
       </c>
       <c r="J71">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K71">
-        <v>0.12992455993294216</v>
+        <v>0.12382578992314261</v>
       </c>
       <c r="L71">
-        <v>1609.6093375461007</v>
+        <v>2138.8396059038919</v>
       </c>
       <c r="M71">
-        <v>1960.6732878082664</v>
+        <v>2467.2530293307163</v>
       </c>
       <c r="N71">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="O71">
         <v>6</v>
       </c>
       <c r="P71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4498,34 +4498,34 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>176.27801561319569</v>
+        <v>302</v>
       </c>
       <c r="H72">
-        <v>321.07781415260638</v>
+        <v>227</v>
       </c>
       <c r="I72">
-        <v>0.5490196078431373</v>
+        <v>1.330396475770925</v>
       </c>
       <c r="J72">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K72">
-        <v>0.12658227848101267</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L72">
-        <v>837.32057416267946</v>
+        <v>1240.2417527071268</v>
       </c>
       <c r="M72">
-        <v>1026.1898766053891</v>
+        <v>1485.7718458826491</v>
       </c>
       <c r="N72">
         <v>5</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q72">
         <v>7</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -4551,34 +4551,34 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>60.807075732448865</v>
+        <v>33</v>
       </c>
       <c r="H73">
-        <v>127.14206744057491</v>
+        <v>33</v>
       </c>
       <c r="I73">
-        <v>0.47826086956521735</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="K73">
-        <v>0.26470588235294118</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="L73">
-        <v>516.86014372581531</v>
+        <v>290.21558872305138</v>
       </c>
       <c r="M73">
-        <v>666.11387506909898</v>
+        <v>348.25870646766168</v>
       </c>
       <c r="N73">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -4604,34 +4604,34 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>64.407793342994509</v>
+        <v>35</v>
       </c>
       <c r="H74">
-        <v>98.91196834817012</v>
+        <v>81</v>
       </c>
       <c r="I74">
-        <v>0.65116279069767458</v>
+        <v>0.43209876543209874</v>
       </c>
       <c r="J74">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K74">
-        <v>0.15492957746478872</v>
+        <v>0.04</v>
       </c>
       <c r="L74">
-        <v>386.44676005796703</v>
+        <v>420.95093506314259</v>
       </c>
       <c r="M74">
-        <v>462.35594506935337</v>
+        <v>434.75260506521295</v>
       </c>
       <c r="N74">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="O74">
         <v>4</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q74">
         <v>7</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -4657,31 +4657,31 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>211.72144391548474</v>
+        <v>176</v>
       </c>
       <c r="H75">
-        <v>298.39104083995221</v>
+        <v>147</v>
       </c>
       <c r="I75">
-        <v>0.70954356846473021</v>
+        <v>1.1972789115646258</v>
       </c>
       <c r="J75">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="K75">
-        <v>0.21116504854368931</v>
+        <v>0.1417624521072797</v>
       </c>
       <c r="L75">
-        <v>809.74166269431009</v>
+        <v>692.11435363452892</v>
       </c>
       <c r="M75">
-        <v>1132.8954455126816</v>
+        <v>829.5467208141938</v>
       </c>
       <c r="N75">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P75">
         <v>6</v>
@@ -4692,7 +4692,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -4710,31 +4710,31 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>221.77612082974861</v>
+        <v>111</v>
       </c>
       <c r="H76">
-        <v>325.01672880221776</v>
+        <v>176</v>
       </c>
       <c r="I76">
-        <v>0.68235294117647061</v>
+        <v>0.63068181818181823</v>
       </c>
       <c r="J76">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K76">
-        <v>0.22377622377622378</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="L76">
-        <v>1460.6634164993786</v>
+        <v>1300.0420601843002</v>
       </c>
       <c r="M76">
-        <v>1827.7411337348246</v>
+        <v>1483.5774098573777</v>
       </c>
       <c r="N76">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P76">
         <v>6</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -4763,34 +4763,34 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>209.12689521248788</v>
+        <v>220</v>
       </c>
       <c r="H77">
-        <v>206.99294730215635</v>
+        <v>158</v>
       </c>
       <c r="I77">
-        <v>1.0103092783505156</v>
+        <v>1.3924050632911393</v>
       </c>
       <c r="J77">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="K77">
-        <v>0.28717948717948716</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="L77">
-        <v>992.28577830415156</v>
+        <v>1399.8548930903503</v>
       </c>
       <c r="M77">
-        <v>1350.7890272398452</v>
+        <v>1611.1134821390465</v>
       </c>
       <c r="N77">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="O77">
         <v>6</v>
       </c>
       <c r="P77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q77">
         <v>7</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -4816,34 +4816,34 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>264.4849819352961</v>
+        <v>190</v>
       </c>
       <c r="H78">
-        <v>351.17025113418504</v>
+        <v>192</v>
       </c>
       <c r="I78">
-        <v>0.75315315315315312</v>
+        <v>0.98958333333333337</v>
       </c>
       <c r="J78">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="K78">
-        <v>0.19630010277492291</v>
+        <v>0.13598673300165837</v>
       </c>
       <c r="L78">
-        <v>1142.726979366375</v>
+        <v>792.82220661465556</v>
       </c>
       <c r="M78">
-        <v>1505.2865359427497</v>
+        <v>948.47604765791584</v>
       </c>
       <c r="N78">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="O78">
         <v>5</v>
       </c>
       <c r="P78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q78">
         <v>7</v>
@@ -4851,7 +4851,7 @@
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -4869,31 +4869,31 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>870.04744593012515</v>
+        <v>177</v>
       </c>
       <c r="H79">
-        <v>524.98613592950892</v>
+        <v>187</v>
       </c>
       <c r="I79">
-        <v>1.6572769953051645</v>
+        <v>0.946524064171123</v>
       </c>
       <c r="J79">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="K79">
-        <v>0.22614840989399293</v>
+        <v>0.18243243243243243</v>
       </c>
       <c r="L79">
-        <v>1895.3724813605274</v>
+        <v>1464.0278017400735</v>
       </c>
       <c r="M79">
-        <v>2841.8263602193601</v>
+        <v>1663.667956522811</v>
       </c>
       <c r="N79">
-        <v>107</v>
+        <v>35</v>
       </c>
       <c r="O79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P79">
         <v>7</v>
@@ -4904,7 +4904,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44218</v>
+        <v>44231</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -4922,31 +4922,31 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>162.88895191140003</v>
+        <v>227</v>
       </c>
       <c r="H80">
-        <v>213.79174938371258</v>
+        <v>160</v>
       </c>
       <c r="I80">
-        <v>0.76190476190476175</v>
+        <v>1.41875</v>
       </c>
       <c r="J80">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K80">
-        <v>0.19305019305019305</v>
+        <v>0.18045112781954886</v>
       </c>
       <c r="L80">
-        <v>703.91297075997875</v>
+        <v>1276.9237481638768</v>
       </c>
       <c r="M80">
-        <v>922.06781706988954</v>
+        <v>1486.3508777032825</v>
       </c>
       <c r="N80">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="O80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P80">
         <v>6</v>
@@ -4961,18 +4961,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5187,18 +5187,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{93CC2C11-A0F0-4BC0-A8CB-411185F6A1C7}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{32F71104-8397-47CB-AE55-B00DAF119442}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="110">
   <si>
     <t>Code</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Pripady_nad_65r</t>
   </si>
   <si>
-    <t>%_nad_65r</t>
-  </si>
-  <si>
     <t>Vazena_Incidencia</t>
   </si>
   <si>
@@ -355,6 +352,18 @@
   </si>
   <si>
     <t>RUVZ_Hodnotenie</t>
+  </si>
+  <si>
+    <t>Trend</t>
+  </si>
+  <si>
+    <t>Neg</t>
+  </si>
+  <si>
+    <t>Stab</t>
+  </si>
+  <si>
+    <t>Poz</t>
   </si>
 </sst>
 </file>
@@ -710,7 +719,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q80"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -747,30 +756,30 @@
         <v>102</v>
       </c>
       <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>103</v>
       </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
       <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s">
         <v>104</v>
       </c>
-      <c r="N1" t="s">
-        <v>6</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>106</v>
-      </c>
-      <c r="P1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -791,25 +800,25 @@
         <v>339</v>
       </c>
       <c r="H2">
-        <v>256</v>
+        <v>334</v>
       </c>
       <c r="I2">
-        <v>1.32421875</v>
+        <v>1.0149700598802396</v>
       </c>
       <c r="J2">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K2">
-        <v>0.13425925925925927</v>
+        <v>2075.4378953461128</v>
       </c>
       <c r="L2">
-        <v>2345.5156827076785</v>
+        <v>2381.3789396800021</v>
       </c>
       <c r="M2">
-        <v>2585.3040074968303</v>
+        <v>50</v>
       </c>
       <c r="N2">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="O2">
         <v>7</v>
@@ -817,13 +826,13 @@
       <c r="P2">
         <v>7</v>
       </c>
-      <c r="Q2">
-        <v>7</v>
+      <c r="Q2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -841,42 +850,42 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>223</v>
+        <v>322</v>
       </c>
       <c r="H3">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="I3">
-        <v>0.92531120331950212</v>
+        <v>1.2677165354330708</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K3">
-        <v>0.20576131687242799</v>
+        <v>1027.7139905349254</v>
       </c>
       <c r="L3">
-        <v>925.75048046991321</v>
+        <v>1257.7992122964761</v>
       </c>
       <c r="M3">
-        <v>1196.4377554611158</v>
+        <v>58</v>
       </c>
       <c r="N3">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P3">
-        <v>6</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -894,42 +903,42 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="H4">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="I4">
-        <v>2.5135135135135136</v>
+        <v>2.306451612903226</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>0.14285714285714285</v>
+        <v>1013.3034937212482</v>
       </c>
       <c r="L4">
-        <v>870.32201914708435</v>
+        <v>1106.5522814870073</v>
       </c>
       <c r="M4">
-        <v>926.27129180653992</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P4">
-        <v>6</v>
-      </c>
-      <c r="Q4">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -947,42 +956,42 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="H5">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="I5">
-        <v>0.9173553719008265</v>
+        <v>1.4326923076923077</v>
       </c>
       <c r="J5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5">
-        <v>0.13333333333333333</v>
+        <v>473.1840917565674</v>
       </c>
       <c r="L5">
-        <v>457.75417572102714</v>
+        <v>561.90610896092369</v>
       </c>
       <c r="M5">
-        <v>550.33367193426852</v>
+        <v>31</v>
       </c>
       <c r="N5">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>5</v>
-      </c>
-      <c r="Q5">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1000,42 +1009,42 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="H6">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="I6">
-        <v>0.85380116959064323</v>
+        <v>1.1178451178451179</v>
       </c>
       <c r="J6">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="K6">
-        <v>0.1717612809315866</v>
+        <v>1204.5353736970503</v>
       </c>
       <c r="L6">
-        <v>1261.8281954609299</v>
+        <v>1520.5699711687737</v>
       </c>
       <c r="M6">
-        <v>1588.9517261772751</v>
+        <v>144</v>
       </c>
       <c r="N6">
-        <v>314</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P6">
-        <v>6</v>
-      </c>
-      <c r="Q6">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1053,42 +1062,42 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="H7">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="I7">
-        <v>0.85380116959064323</v>
+        <v>1.1178451178451179</v>
       </c>
       <c r="J7">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="K7">
-        <v>0.1717612809315866</v>
+        <v>1204.5353736970503</v>
       </c>
       <c r="L7">
-        <v>1261.8281954609299</v>
+        <v>1520.5699711687737</v>
       </c>
       <c r="M7">
-        <v>1588.9517261772751</v>
+        <v>144</v>
       </c>
       <c r="N7">
-        <v>314</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P7">
-        <v>6</v>
-      </c>
-      <c r="Q7">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1106,42 +1115,42 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="H8">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="I8">
-        <v>0.85380116959064323</v>
+        <v>1.1178451178451179</v>
       </c>
       <c r="J8">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="K8">
-        <v>0.1717612809315866</v>
+        <v>1204.5353736970503</v>
       </c>
       <c r="L8">
-        <v>1261.8281954609299</v>
+        <v>1520.5699711687737</v>
       </c>
       <c r="M8">
-        <v>1588.9517261772751</v>
+        <v>144</v>
       </c>
       <c r="N8">
-        <v>314</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8">
-        <v>6</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1159,42 +1168,42 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="H9">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="I9">
-        <v>0.85380116959064323</v>
+        <v>1.1178451178451179</v>
       </c>
       <c r="J9">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="K9">
-        <v>0.1717612809315866</v>
+        <v>1204.5353736970503</v>
       </c>
       <c r="L9">
-        <v>1261.8281954609299</v>
+        <v>1520.5699711687737</v>
       </c>
       <c r="M9">
-        <v>1588.9517261772751</v>
+        <v>144</v>
       </c>
       <c r="N9">
-        <v>314</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>6</v>
-      </c>
-      <c r="Q9">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1212,42 +1221,42 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="H10">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="I10">
-        <v>0.85380116959064323</v>
+        <v>1.1178451178451179</v>
       </c>
       <c r="J10">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="K10">
-        <v>0.1717612809315866</v>
+        <v>1204.5353736970503</v>
       </c>
       <c r="L10">
-        <v>1261.8281954609299</v>
+        <v>1520.5699711687737</v>
       </c>
       <c r="M10">
-        <v>1588.9517261772751</v>
+        <v>144</v>
       </c>
       <c r="N10">
-        <v>314</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P10">
-        <v>6</v>
-      </c>
-      <c r="Q10">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1265,42 +1274,42 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="H11">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="I11">
-        <v>1.03125</v>
+        <v>1.073394495412844</v>
       </c>
       <c r="J11">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K11">
-        <v>0.24528301886792453</v>
+        <v>1025.232101156234</v>
       </c>
       <c r="L11">
-        <v>864.11716842961766</v>
+        <v>1108.2270807736434</v>
       </c>
       <c r="M11">
-        <v>991.04963384865755</v>
+        <v>28</v>
       </c>
       <c r="N11">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P11">
-        <v>6</v>
-      </c>
-      <c r="Q11">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1318,42 +1327,42 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="H12">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="I12">
-        <v>1.4013157894736843</v>
+        <v>1.7962962962962963</v>
       </c>
       <c r="J12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K12">
-        <v>0.10619469026548672</v>
+        <v>1164.407930911796</v>
       </c>
       <c r="L12">
-        <v>1329.3657211243005</v>
+        <v>1319.6623217000356</v>
       </c>
       <c r="M12">
-        <v>1445.8065142154801</v>
+        <v>20</v>
       </c>
       <c r="N12">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O12">
         <v>6</v>
       </c>
       <c r="P12">
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1371,42 +1380,42 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="H13">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I13">
-        <v>1.028169014084507</v>
+        <v>1.1538461538461537</v>
       </c>
       <c r="J13">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K13">
-        <v>6.9230769230769235E-2</v>
+        <v>466.25222024866781</v>
       </c>
       <c r="L13">
-        <v>498.44582593250448</v>
+        <v>512.87744227353471</v>
       </c>
       <c r="M13">
-        <v>528.41918294849029</v>
+        <v>46</v>
       </c>
       <c r="N13">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="O13">
         <v>5</v>
       </c>
       <c r="P13">
-        <v>5</v>
-      </c>
-      <c r="Q13">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1424,42 +1433,42 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H14">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="I14">
-        <v>0.48076923076923078</v>
+        <v>0.72</v>
       </c>
       <c r="J14">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K14">
-        <v>0.32432432432432434</v>
+        <v>1141.9300489844311</v>
       </c>
       <c r="L14">
-        <v>1092.0096096845652</v>
+        <v>1357.2119434651026</v>
       </c>
       <c r="M14">
-        <v>1316.6515865339613</v>
+        <v>26</v>
       </c>
       <c r="N14">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14">
-        <v>6</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1477,42 +1486,42 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="H15">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>1.6483516483516483</v>
       </c>
       <c r="J15">
         <v>11</v>
       </c>
       <c r="K15">
-        <v>0.11956521739130435</v>
+        <v>1039.1190298176473</v>
       </c>
       <c r="L15">
-        <v>988.41777124464602</v>
+        <v>1122.7554395346774</v>
       </c>
       <c r="M15">
-        <v>1072.0531211191931</v>
+        <v>27</v>
       </c>
       <c r="N15">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="O15">
         <v>6</v>
       </c>
       <c r="P15">
-        <v>6</v>
-      </c>
-      <c r="Q15">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1530,42 +1539,42 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>398</v>
+        <v>523</v>
       </c>
       <c r="H16">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="I16">
-        <v>0.83438155136268344</v>
+        <v>1.1596452328159645</v>
       </c>
       <c r="J16">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="K16">
-        <v>0.1157796451914099</v>
+        <v>3251.9328527762791</v>
       </c>
       <c r="L16">
-        <v>3924.549273443502</v>
+        <v>3612.3506431945602</v>
       </c>
       <c r="M16">
-        <v>4228.5751646806912</v>
+        <v>81</v>
       </c>
       <c r="N16">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="O16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P16">
-        <v>6</v>
-      </c>
-      <c r="Q16">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1583,42 +1592,42 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>378</v>
+        <v>551</v>
       </c>
       <c r="H17">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="I17">
-        <v>1.008</v>
+        <v>1.4311688311688311</v>
       </c>
       <c r="J17">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>0.10437235543018336</v>
+        <v>2742.4635401165019</v>
       </c>
       <c r="L17">
-        <v>2500.1062970364387</v>
+        <v>2991.1986053828819</v>
       </c>
       <c r="M17">
-        <v>2736.0857179301838</v>
+        <v>95</v>
       </c>
       <c r="N17">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P17">
-        <v>6</v>
-      </c>
-      <c r="Q17">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1636,42 +1645,42 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="H18">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="I18">
-        <v>1.4352941176470588</v>
+        <v>1.32</v>
       </c>
       <c r="J18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K18">
-        <v>0.22727272727272727</v>
+        <v>483.24337893811975</v>
       </c>
       <c r="L18">
-        <v>787.62394878875364</v>
+        <v>643.27852391113345</v>
       </c>
       <c r="M18">
-        <v>928.83142964729507</v>
+        <v>16</v>
       </c>
       <c r="N18">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="O18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P18">
-        <v>6</v>
-      </c>
-      <c r="Q18">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1689,42 +1698,42 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="H19">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="I19">
-        <v>0.78154425612052736</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="J19">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K19">
-        <v>9.154929577464789E-2</v>
+        <v>2405.9983337961676</v>
       </c>
       <c r="L19">
-        <v>2677.0044209450602</v>
+        <v>2645.9316856428768</v>
       </c>
       <c r="M19">
-        <v>2936.9293315264481</v>
+        <v>36</v>
       </c>
       <c r="N19">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="O19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P19">
         <v>7</v>
       </c>
-      <c r="Q19">
-        <v>7</v>
+      <c r="Q19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -1742,42 +1751,42 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="H20">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="I20">
-        <v>0.74456521739130432</v>
+        <v>1.4318181818181819</v>
       </c>
       <c r="J20">
         <v>39</v>
       </c>
       <c r="K20">
-        <v>0.19597989949748743</v>
+        <v>1113.1635624460559</v>
       </c>
       <c r="L20">
-        <v>1197.0444939179813</v>
+        <v>1301.9173839043001</v>
       </c>
       <c r="M20">
-        <v>1385.796792824186</v>
+        <v>45</v>
       </c>
       <c r="N20">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="O20">
         <v>6</v>
       </c>
       <c r="P20">
-        <v>6</v>
-      </c>
-      <c r="Q20">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -1795,42 +1804,42 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="H21">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="I21">
-        <v>1.0851063829787233</v>
+        <v>1.1094527363184079</v>
       </c>
       <c r="J21">
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.15517241379310345</v>
+        <v>1260.401267159451</v>
       </c>
       <c r="L21">
-        <v>1050.8886936541189</v>
+        <v>1442.8722280887011</v>
       </c>
       <c r="M21">
-        <v>1233.3581131310402</v>
+        <v>64</v>
       </c>
       <c r="N21">
-        <v>67</v>
+        <v>6</v>
       </c>
       <c r="O21">
         <v>6</v>
       </c>
       <c r="P21">
-        <v>6</v>
-      </c>
-      <c r="Q21">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1848,42 +1857,42 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H22">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="I22">
-        <v>0.45833333333333331</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="J22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22">
-        <v>0.25882352941176473</v>
+        <v>354.8880175450256</v>
       </c>
       <c r="L22">
-        <v>454.57566292284173</v>
+        <v>438.62563966239117</v>
       </c>
       <c r="M22">
-        <v>542.30079085531997</v>
+        <v>95</v>
       </c>
       <c r="N22">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="O22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P22">
-        <v>5</v>
-      </c>
-      <c r="Q22">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -1904,39 +1913,39 @@
         <v>243</v>
       </c>
       <c r="H23">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="I23">
-        <v>1.2789473684210526</v>
+        <v>1.0565217391304347</v>
       </c>
       <c r="J23">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="K23">
-        <v>0.18409090909090908</v>
+        <v>1761.8460056139179</v>
       </c>
       <c r="L23">
-        <v>1960.4373131980494</v>
+        <v>2027.3027140490503</v>
       </c>
       <c r="M23">
-        <v>2199.3471763410416</v>
+        <v>53</v>
       </c>
       <c r="N23">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="O23">
         <v>6</v>
       </c>
       <c r="P23">
-        <v>6</v>
-      </c>
-      <c r="Q23">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -1954,42 +1963,42 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H24">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="I24">
-        <v>1.1399416909620992</v>
+        <v>1.0875706214689265</v>
       </c>
       <c r="J24">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K24">
-        <v>0.11320754716981132</v>
+        <v>1626.206143626483</v>
       </c>
       <c r="L24">
-        <v>1460.0007061015319</v>
+        <v>1876.3290324507971</v>
       </c>
       <c r="M24">
-        <v>1709.3088623889589</v>
+        <v>119</v>
       </c>
       <c r="N24">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="O24">
         <v>6</v>
       </c>
       <c r="P24">
-        <v>6</v>
-      </c>
-      <c r="Q24">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2007,42 +2016,42 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H25">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="I25">
-        <v>1.1399416909620992</v>
+        <v>1.0875706214689265</v>
       </c>
       <c r="J25">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K25">
-        <v>0.11320754716981132</v>
+        <v>1626.206143626483</v>
       </c>
       <c r="L25">
-        <v>1460.0007061015319</v>
+        <v>1876.3290324507971</v>
       </c>
       <c r="M25">
-        <v>1709.3088623889589</v>
+        <v>119</v>
       </c>
       <c r="N25">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="O25">
         <v>6</v>
       </c>
       <c r="P25">
-        <v>6</v>
-      </c>
-      <c r="Q25">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2060,42 +2069,42 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H26">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="I26">
-        <v>1.1399416909620992</v>
+        <v>1.0875706214689265</v>
       </c>
       <c r="J26">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K26">
-        <v>0.11320754716981132</v>
+        <v>1626.206143626483</v>
       </c>
       <c r="L26">
-        <v>1460.0007061015319</v>
+        <v>1876.3290324507971</v>
       </c>
       <c r="M26">
-        <v>1709.3088623889589</v>
+        <v>119</v>
       </c>
       <c r="N26">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="O26">
         <v>6</v>
       </c>
       <c r="P26">
-        <v>6</v>
-      </c>
-      <c r="Q26">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2113,42 +2122,42 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H27">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="I27">
-        <v>1.1399416909620992</v>
+        <v>1.0875706214689265</v>
       </c>
       <c r="J27">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K27">
-        <v>0.11320754716981132</v>
+        <v>1626.206143626483</v>
       </c>
       <c r="L27">
-        <v>1460.0007061015319</v>
+        <v>1876.3290324507971</v>
       </c>
       <c r="M27">
-        <v>1709.3088623889589</v>
+        <v>119</v>
       </c>
       <c r="N27">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="O27">
         <v>6</v>
       </c>
       <c r="P27">
-        <v>6</v>
-      </c>
-      <c r="Q27">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2166,42 +2175,42 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="H28">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="I28">
-        <v>1.1399416909620992</v>
+        <v>1.0875706214689265</v>
       </c>
       <c r="J28">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K28">
-        <v>0.11320754716981132</v>
+        <v>1626.206143626483</v>
       </c>
       <c r="L28">
-        <v>1460.0007061015319</v>
+        <v>1876.3290324507971</v>
       </c>
       <c r="M28">
-        <v>1709.3088623889589</v>
+        <v>119</v>
       </c>
       <c r="N28">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="O28">
         <v>6</v>
       </c>
       <c r="P28">
-        <v>6</v>
-      </c>
-      <c r="Q28">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2219,42 +2228,42 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="H29">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="I29">
-        <v>1.2727272727272727</v>
+        <v>0.77037037037037037</v>
       </c>
       <c r="J29">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K29">
-        <v>0.3</v>
+        <v>1041.3849066810928</v>
       </c>
       <c r="L29">
-        <v>856.55035614462179</v>
+        <v>1284.8255342169327</v>
       </c>
       <c r="M29">
-        <v>1059.4175457578215</v>
+        <v>27</v>
       </c>
       <c r="N29">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="O29">
         <v>6</v>
       </c>
       <c r="P29">
-        <v>6</v>
-      </c>
-      <c r="Q29">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2272,42 +2281,42 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H30">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="I30">
-        <v>1.3934426229508197</v>
+        <v>0.95890410958904104</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K30">
-        <v>4.1666666666666664E-2</v>
+        <v>501.30643495169227</v>
       </c>
       <c r="L30">
-        <v>580.30017621680747</v>
+        <v>537.76508476636081</v>
       </c>
       <c r="M30">
-        <v>598.52950112414169</v>
+        <v>8</v>
       </c>
       <c r="N30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O30">
         <v>5</v>
       </c>
       <c r="P30">
-        <v>5</v>
-      </c>
-      <c r="Q30">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2325,42 +2334,42 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="H31">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="I31">
-        <v>0.73786407766990292</v>
+        <v>1.1045751633986929</v>
       </c>
       <c r="J31">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K31">
-        <v>0.25633802816901408</v>
+        <v>1009.7090882841261</v>
       </c>
       <c r="L31">
-        <v>1653.0715368512235</v>
+        <v>1247.9246372626867</v>
       </c>
       <c r="M31">
-        <v>1899.4080704540534</v>
+        <v>193</v>
       </c>
       <c r="N31">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P31">
-        <v>6</v>
-      </c>
-      <c r="Q31">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2378,42 +2387,42 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="H32">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I32">
-        <v>0.85981308411214952</v>
+        <v>1.1188118811881189</v>
       </c>
       <c r="J32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K32">
-        <v>0.2</v>
+        <v>542.99448103970087</v>
       </c>
       <c r="L32">
-        <v>599.37095721322169</v>
+        <v>658.71461634324373</v>
       </c>
       <c r="M32">
-        <v>723.99264138626791</v>
+        <v>32</v>
       </c>
       <c r="N32">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P32">
-        <v>6</v>
-      </c>
-      <c r="Q32">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2431,42 +2440,42 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="H33">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="I33">
-        <v>1.1702127659574468</v>
+        <v>1.1153846153846154</v>
       </c>
       <c r="J33">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="K33">
-        <v>0.11203319502074689</v>
+        <v>1089.1150767016559</v>
       </c>
       <c r="L33">
-        <v>845.54600683632941</v>
+        <v>1226.119387493859</v>
       </c>
       <c r="M33">
-        <v>957.63966731708672</v>
+        <v>22</v>
       </c>
       <c r="N33">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O33">
         <v>5</v>
       </c>
       <c r="P33">
-        <v>5</v>
-      </c>
-      <c r="Q33">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2484,42 +2493,42 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="H34">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="I34">
-        <v>0.59285714285714286</v>
+        <v>1.4936708860759493</v>
       </c>
       <c r="J34">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K34">
-        <v>0.18902439024390244</v>
+        <v>536.3025072822802</v>
       </c>
       <c r="L34">
-        <v>513.16255138431382</v>
+        <v>642.47406963765559</v>
       </c>
       <c r="M34">
-        <v>639.75172188495355</v>
+        <v>24</v>
       </c>
       <c r="N34">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="O34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P34">
-        <v>5</v>
-      </c>
-      <c r="Q34">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -2537,42 +2546,42 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="H35">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I35">
-        <v>1.0935960591133005</v>
+        <v>0.9854368932038835</v>
       </c>
       <c r="J35">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="K35">
-        <v>0.17405063291139242</v>
+        <v>1459.8441935874494</v>
       </c>
       <c r="L35">
-        <v>1742.3946826688912</v>
+        <v>1621.3016159197016</v>
       </c>
       <c r="M35">
-        <v>1964.3986383757383</v>
+        <v>31</v>
       </c>
       <c r="N35">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="O35">
         <v>6</v>
       </c>
       <c r="P35">
-        <v>6</v>
-      </c>
-      <c r="Q35">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -2590,42 +2599,42 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>253</v>
+        <v>300</v>
       </c>
       <c r="H36">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="I36">
-        <v>0.99215686274509807</v>
+        <v>1.2295081967213115</v>
       </c>
       <c r="J36">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K36">
-        <v>0.15189873417721519</v>
+        <v>1153.2313313541904</v>
       </c>
       <c r="L36">
-        <v>1003.7576034378958</v>
+        <v>1380.5559592268887</v>
       </c>
       <c r="M36">
-        <v>1227.9681953123377</v>
+        <v>67</v>
       </c>
       <c r="N36">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P36">
-        <v>6</v>
-      </c>
-      <c r="Q36">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -2643,25 +2652,25 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>228</v>
+        <v>42</v>
       </c>
       <c r="H37">
-        <v>110</v>
+        <v>245</v>
       </c>
       <c r="I37">
-        <v>2.0727272727272728</v>
+        <v>0.17142857142857143</v>
       </c>
       <c r="J37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K37">
-        <v>0.25</v>
+        <v>1097.8338892876748</v>
       </c>
       <c r="L37">
-        <v>1300.4560040533693</v>
+        <v>1325.8455432166531</v>
       </c>
       <c r="M37">
-        <v>1553.7915892585711</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>5</v>
@@ -2670,15 +2679,15 @@
         <v>6</v>
       </c>
       <c r="P37">
-        <v>6</v>
-      </c>
-      <c r="Q37">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -2696,42 +2705,42 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="H38">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="I38">
-        <v>1.103030303030303</v>
+        <v>0.91443850267379678</v>
       </c>
       <c r="J38">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>0.1171875</v>
+        <v>723.54455534980355</v>
       </c>
       <c r="L38">
         <v>837.36055282055918</v>
       </c>
       <c r="M38">
-        <v>959.30626439636876</v>
+        <v>52</v>
       </c>
       <c r="N38">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="O38">
         <v>6</v>
       </c>
       <c r="P38">
-        <v>6</v>
-      </c>
-      <c r="Q38">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -2749,42 +2758,42 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="H39">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="I39">
-        <v>1.5980392156862746</v>
+        <v>1.0254237288135593</v>
       </c>
       <c r="J39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K39">
-        <v>0.17142857142857143</v>
+        <v>641.22021551069963</v>
       </c>
       <c r="L39">
-        <v>694.33904993170438</v>
+        <v>766.42889664592508</v>
       </c>
       <c r="M39">
-        <v>830.93033844285935</v>
+        <v>28</v>
       </c>
       <c r="N39">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="O39">
         <v>6</v>
       </c>
       <c r="P39">
-        <v>6</v>
-      </c>
-      <c r="Q39">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -2802,42 +2811,42 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H40">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I40">
-        <v>1.2666666666666666</v>
+        <v>1.125</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K40">
-        <v>9.3023255813953487E-2</v>
+        <v>368.63564914184491</v>
       </c>
       <c r="L40">
-        <v>585.66321971147715</v>
+        <v>406.93545684489379</v>
       </c>
       <c r="M40">
-        <v>604.81297076471333</v>
+        <v>44</v>
       </c>
       <c r="N40">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P40">
-        <v>5</v>
-      </c>
-      <c r="Q40">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -2858,39 +2867,39 @@
         <v>207</v>
       </c>
       <c r="H41">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="I41">
-        <v>0.74729241877256314</v>
+        <v>0.9282511210762332</v>
       </c>
       <c r="J41">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K41">
-        <v>0.16112531969309463</v>
+        <v>1078.2371874226294</v>
       </c>
       <c r="L41">
-        <v>1060.9061648923</v>
+        <v>1315.9197821242883</v>
       </c>
       <c r="M41">
-        <v>1294.8749690517454</v>
+        <v>144</v>
       </c>
       <c r="N41">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="O41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P41">
-        <v>6</v>
-      </c>
-      <c r="Q41">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -2908,42 +2917,42 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>269</v>
+        <v>334</v>
       </c>
       <c r="H42">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="I42">
-        <v>1.2008928571428572</v>
+        <v>1.403361344537815</v>
       </c>
       <c r="J42">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K42">
-        <v>0.1461038961038961</v>
+        <v>1432.3738879519133</v>
       </c>
       <c r="L42">
-        <v>1326.853598490904</v>
+        <v>1633.8014659451508</v>
       </c>
       <c r="M42">
-        <v>1542.6671355948461</v>
+        <v>66</v>
       </c>
       <c r="N42">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="O42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P42">
-        <v>6</v>
-      </c>
-      <c r="Q42">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -2961,42 +2970,42 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="H43">
-        <v>249</v>
+        <v>153</v>
       </c>
       <c r="I43">
-        <v>0.60642570281124497</v>
+        <v>1.1633986928104576</v>
       </c>
       <c r="J43">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="K43">
-        <v>0.22482014388489208</v>
+        <v>1345.9995899413329</v>
       </c>
       <c r="L43">
-        <v>1688.4284737959065</v>
+        <v>1551.0289235240587</v>
       </c>
       <c r="M43">
-        <v>1958.2029423402037</v>
+        <v>98</v>
       </c>
       <c r="N43">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="O43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P43">
-        <v>6</v>
-      </c>
-      <c r="Q43">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3014,28 +3023,28 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="H44">
-        <v>169</v>
+        <v>204</v>
       </c>
       <c r="I44">
-        <v>1.6213017751479291</v>
+        <v>1.2892156862745099</v>
       </c>
       <c r="J44">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K44">
-        <v>0.24752475247524752</v>
+        <v>2497.9987499040494</v>
       </c>
       <c r="L44">
-        <v>2250.1480360550036</v>
+        <v>2787.4946541949494</v>
       </c>
       <c r="M44">
-        <v>2579.1170471741561</v>
+        <v>68</v>
       </c>
       <c r="N44">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="O44">
         <v>7</v>
@@ -3043,13 +3052,13 @@
       <c r="P44">
         <v>7</v>
       </c>
-      <c r="Q44">
-        <v>7</v>
+      <c r="Q44" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3067,42 +3076,42 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H45">
-        <v>236</v>
+        <v>281</v>
       </c>
       <c r="I45">
-        <v>1.1313559322033899</v>
+        <v>0.93950177935943058</v>
       </c>
       <c r="J45">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K45">
-        <v>0.10365853658536585</v>
+        <v>1516.6167779568655</v>
       </c>
       <c r="L45">
-        <v>1774.5030316985187</v>
+        <v>1691.6110215672732</v>
       </c>
       <c r="M45">
-        <v>1931.0768286130938</v>
+        <v>18</v>
       </c>
       <c r="N45">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="O45">
         <v>6</v>
       </c>
       <c r="P45">
-        <v>6</v>
-      </c>
-      <c r="Q45">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3120,42 +3129,42 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="H46">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="I46">
-        <v>0.84899328859060408</v>
+        <v>0.97241379310344822</v>
       </c>
       <c r="J46">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>0.14450867052023122</v>
+        <v>1519.0478086063454</v>
       </c>
       <c r="L46">
-        <v>1163.9571358056144</v>
+        <v>1748.3380438676802</v>
       </c>
       <c r="M46">
-        <v>1402.7992293361783</v>
+        <v>47</v>
       </c>
       <c r="N46">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="O46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P46">
-        <v>6</v>
-      </c>
-      <c r="Q46">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3173,42 +3182,42 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H47">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="I47">
-        <v>0.65116279069767447</v>
+        <v>1</v>
       </c>
       <c r="J47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K47">
-        <v>0.14754098360655737</v>
+        <v>526.29127660565416</v>
       </c>
       <c r="L47">
-        <v>675.3295142284943</v>
+        <v>596.15295049136046</v>
       </c>
       <c r="M47">
-        <v>801.08052722276568</v>
+        <v>7</v>
       </c>
       <c r="N47">
         <v>5</v>
       </c>
       <c r="O47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P47">
-        <v>5</v>
-      </c>
-      <c r="Q47">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3226,42 +3235,42 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H48">
         <v>124</v>
       </c>
       <c r="I48">
-        <v>0.782258064516129</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="J48">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K48">
-        <v>0.19138755980861244</v>
+        <v>579.52503729262685</v>
       </c>
       <c r="L48">
-        <v>733.93446060582949</v>
+        <v>699.62397594208562</v>
       </c>
       <c r="M48">
-        <v>848.31385706388085</v>
+        <v>53</v>
       </c>
       <c r="N48">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P48">
-        <v>6</v>
-      </c>
-      <c r="Q48">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -3279,42 +3288,42 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H49">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="I49">
-        <v>0.94092827004219415</v>
+        <v>1</v>
       </c>
       <c r="J49">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="K49">
-        <v>0.13588850174216027</v>
+        <v>943.32823498322352</v>
       </c>
       <c r="L49">
-        <v>984.96132225051656</v>
+        <v>1183.5646275935521</v>
       </c>
       <c r="M49">
-        <v>1172.3442079469562</v>
+        <v>102</v>
       </c>
       <c r="N49">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="O49">
         <v>6</v>
       </c>
       <c r="P49">
-        <v>6</v>
-      </c>
-      <c r="Q49">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3332,42 +3341,42 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="H50">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I50">
-        <v>1.0087719298245614</v>
+        <v>1.0524017467248907</v>
       </c>
       <c r="J50">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="K50">
-        <v>0.1044776119402985</v>
+        <v>760.77888724698835</v>
       </c>
       <c r="L50">
-        <v>905.9848527988155</v>
+        <v>924.77912641400383</v>
       </c>
       <c r="M50">
-        <v>1049.4846534935368</v>
+        <v>92</v>
       </c>
       <c r="N50">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P50">
-        <v>5</v>
-      </c>
-      <c r="Q50">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -3385,42 +3394,42 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H51">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I51">
-        <v>1.2430939226519337</v>
+        <v>1.3529411764705883</v>
       </c>
       <c r="J51">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K51">
-        <v>0.26654411764705882</v>
+        <v>765.78879604715644</v>
       </c>
       <c r="L51">
-        <v>647.11150918047474</v>
+        <v>1085.9870353300319</v>
       </c>
       <c r="M51">
-        <v>971.78683385579939</v>
+        <v>186</v>
       </c>
       <c r="N51">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="O51">
         <v>6</v>
       </c>
       <c r="P51">
-        <v>6</v>
-      </c>
-      <c r="Q51">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -3438,42 +3447,42 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="H52">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="I52">
-        <v>1.1000000000000001</v>
+        <v>0.92265193370165743</v>
       </c>
       <c r="J52">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K52">
-        <v>0.20805369127516779</v>
+        <v>706.39479118473469</v>
       </c>
       <c r="L52">
-        <v>778.60528097494921</v>
+        <v>875.65871878491077</v>
       </c>
       <c r="M52">
-        <v>988.49018280297901</v>
+        <v>68</v>
       </c>
       <c r="N52">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="O52">
         <v>6</v>
       </c>
       <c r="P52">
-        <v>6</v>
-      </c>
-      <c r="Q52">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -3491,28 +3500,28 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>404</v>
+        <v>510</v>
       </c>
       <c r="H53">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="I53">
-        <v>1.0074812967581048</v>
+        <v>1.4956011730205279</v>
       </c>
       <c r="J53">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K53">
-        <v>8.7774294670846395E-2</v>
+        <v>2820.6324978239754</v>
       </c>
       <c r="L53">
-        <v>2805.4595453742713</v>
+        <v>3070.4022807260985</v>
       </c>
       <c r="M53">
-        <v>3017.3827484421122</v>
+        <v>20</v>
       </c>
       <c r="N53">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="O53">
         <v>7</v>
@@ -3520,13 +3529,13 @@
       <c r="P53">
         <v>7</v>
       </c>
-      <c r="Q53">
-        <v>7</v>
+      <c r="Q53" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -3544,42 +3553,42 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>196</v>
+        <v>299</v>
       </c>
       <c r="H54">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="I54">
-        <v>1.2484076433121019</v>
+        <v>1.7485380116959064</v>
       </c>
       <c r="J54">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="K54">
-        <v>0.12794612794612795</v>
+        <v>901.86432823583937</v>
       </c>
       <c r="L54">
-        <v>788.9827588255564</v>
+        <v>1083.6630663387159</v>
       </c>
       <c r="M54">
-        <v>924.44064211789578</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P54">
-        <v>5</v>
-      </c>
-      <c r="Q54">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -3597,28 +3606,28 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>220</v>
+        <v>341</v>
       </c>
       <c r="H55">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I55">
-        <v>1.1827956989247312</v>
+        <v>1.8432432432432433</v>
       </c>
       <c r="J55">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K55">
-        <v>0.1857707509881423</v>
+        <v>1758.6021202890281</v>
       </c>
       <c r="L55">
-        <v>1538.362616341687</v>
+        <v>2004.5492175506563</v>
       </c>
       <c r="M55">
-        <v>1765.0179234515906</v>
+        <v>38</v>
       </c>
       <c r="N55">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="O55">
         <v>7</v>
@@ -3626,13 +3635,13 @@
       <c r="P55">
         <v>7</v>
       </c>
-      <c r="Q55">
-        <v>7</v>
+      <c r="Q55" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -3650,42 +3659,42 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="H56">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="I56">
-        <v>0.63186813186813184</v>
+        <v>0.96875</v>
       </c>
       <c r="J56">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K56">
-        <v>0.26865671641791045</v>
+        <v>837.71295545130681</v>
       </c>
       <c r="L56">
-        <v>731.89658213114171</v>
+        <v>991.14669676554615</v>
       </c>
       <c r="M56">
-        <v>922.3660541074388</v>
+        <v>38</v>
       </c>
       <c r="N56">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P56">
-        <v>5</v>
-      </c>
-      <c r="Q56">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -3703,42 +3712,42 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="H57">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="I57">
-        <v>0.98089171974522293</v>
+        <v>0.97810218978102192</v>
       </c>
       <c r="J57">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K57">
-        <v>0.13829787234042554</v>
+        <v>599.81658501119489</v>
       </c>
       <c r="L57">
-        <v>712.17303656702859</v>
+        <v>713.83130778191799</v>
       </c>
       <c r="M57">
-        <v>841.05818007567871</v>
+        <v>25</v>
       </c>
       <c r="N57">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="O57">
         <v>5</v>
       </c>
       <c r="P57">
-        <v>5</v>
-      </c>
-      <c r="Q57">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -3756,28 +3765,28 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>317</v>
+        <v>370</v>
       </c>
       <c r="H58">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="I58">
-        <v>1.2053231939163498</v>
+        <v>1.3028169014084507</v>
       </c>
       <c r="J58">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K58">
-        <v>0.11333333333333333</v>
+        <v>2184.3861855470636</v>
       </c>
       <c r="L58">
-        <v>2339.1699719454386</v>
+        <v>2370.1267292251136</v>
       </c>
       <c r="M58">
-        <v>2536.5192996033666</v>
+        <v>60</v>
       </c>
       <c r="N58">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="O58">
         <v>7</v>
@@ -3785,13 +3794,13 @@
       <c r="P58">
         <v>7</v>
       </c>
-      <c r="Q58">
-        <v>7</v>
+      <c r="Q58" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -3809,42 +3818,42 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="H59">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I59">
-        <v>0.91039426523297495</v>
+        <v>1.062043795620438</v>
       </c>
       <c r="J59">
         <v>46</v>
       </c>
       <c r="K59">
-        <v>9.6033402922755737E-2</v>
+        <v>1275.7146673791078</v>
       </c>
       <c r="L59">
-        <v>1387.0335737821711</v>
+        <v>1429.3347582153353</v>
       </c>
       <c r="M59">
-        <v>1540.6536646183988</v>
+        <v>25</v>
       </c>
       <c r="N59">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="O59">
         <v>5</v>
       </c>
       <c r="P59">
-        <v>6</v>
-      </c>
-      <c r="Q59">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -3862,42 +3871,42 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="H60">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="I60">
-        <v>1.0857142857142856</v>
+        <v>0.99317406143344711</v>
       </c>
       <c r="J60">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K60">
-        <v>8.7818696883852687E-2</v>
+        <v>1376.435165271482</v>
       </c>
       <c r="L60">
-        <v>1459.1536247228933</v>
+        <v>1540.2177149852762</v>
       </c>
       <c r="M60">
-        <v>1613.0099593025179</v>
+        <v>30</v>
       </c>
       <c r="N60">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="O60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P60">
-        <v>6</v>
-      </c>
-      <c r="Q60">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -3915,42 +3924,42 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H61">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="I61">
-        <v>1.029126213592233</v>
+        <v>1.0904761904761904</v>
       </c>
       <c r="J61">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K61">
-        <v>0.116751269035533</v>
+        <v>766.38113131441798</v>
       </c>
       <c r="L61">
-        <v>1042.3521919116865</v>
+        <v>951.0768610217707</v>
       </c>
       <c r="M61">
-        <v>1188.8334571701519</v>
+        <v>14</v>
       </c>
       <c r="N61">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="O61">
         <v>5</v>
       </c>
       <c r="P61">
-        <v>5</v>
-      </c>
-      <c r="Q61">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -3968,42 +3977,42 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
+        <v>113</v>
+      </c>
+      <c r="H62">
         <v>55</v>
       </c>
-      <c r="H62">
-        <v>69</v>
-      </c>
       <c r="I62">
-        <v>0.79710144927536231</v>
+        <v>2.0545454545454547</v>
       </c>
       <c r="J62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K62">
-        <v>0.1111111111111111</v>
+        <v>844.35921137953392</v>
       </c>
       <c r="L62">
-        <v>1117.5188322618028</v>
+        <v>902.30543176832555</v>
       </c>
       <c r="M62">
-        <v>1158.9084186418697</v>
+        <v>48</v>
       </c>
       <c r="N62">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="O62">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P62">
-        <v>6</v>
-      </c>
-      <c r="Q62">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4021,42 +4030,42 @@
         <v>22819</v>
       </c>
       <c r="G63">
+        <v>215</v>
+      </c>
+      <c r="H63">
         <v>188</v>
       </c>
-      <c r="H63">
-        <v>223</v>
-      </c>
       <c r="I63">
-        <v>0.84304932735426008</v>
+        <v>1.1436170212765957</v>
       </c>
       <c r="J63">
         <v>12</v>
       </c>
       <c r="K63">
-        <v>0.1276595744680851</v>
+        <v>907.13878785222846</v>
       </c>
       <c r="L63">
-        <v>942.19729173057544</v>
+        <v>1064.9020553047899</v>
       </c>
       <c r="M63">
-        <v>1099.9605591831369</v>
+        <v>15</v>
       </c>
       <c r="N63">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="O63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P63">
-        <v>6</v>
-      </c>
-      <c r="Q63">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -4074,42 +4083,42 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="H64">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="I64">
-        <v>1.0588235294117647</v>
+        <v>1.2121212121212122</v>
       </c>
       <c r="J64">
         <v>29</v>
       </c>
       <c r="K64">
-        <v>0.11836734693877551</v>
+        <v>1438.3801934546184</v>
       </c>
       <c r="L64">
-        <v>828.94802786548394</v>
+        <v>1525.5851250438529</v>
       </c>
       <c r="M64">
-        <v>916.1529594547186</v>
+        <v>44</v>
       </c>
       <c r="N64">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P64">
-        <v>6</v>
-      </c>
-      <c r="Q64">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -4127,42 +4136,42 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H65">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="I65">
-        <v>0.9555555555555556</v>
+        <v>1.3412698412698412</v>
       </c>
       <c r="J65">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K65">
-        <v>8.203125E-2</v>
+        <v>611.63779921599155</v>
       </c>
       <c r="L65">
-        <v>947.10308781554647</v>
+        <v>678.36192276682698</v>
       </c>
       <c r="M65">
-        <v>1063.869221929792</v>
+        <v>19</v>
       </c>
       <c r="N65">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="O65">
         <v>5</v>
       </c>
       <c r="P65">
-        <v>5</v>
-      </c>
-      <c r="Q65">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -4180,42 +4189,42 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="H66">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I66">
-        <v>1.1388888888888888</v>
+        <v>1.0571428571428572</v>
       </c>
       <c r="J66">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K66">
-        <v>0.14754098360655737</v>
+        <v>594.19442820962399</v>
       </c>
       <c r="L66">
-        <v>647.76933567114747</v>
+        <v>754.91915059419443</v>
       </c>
       <c r="M66">
-        <v>779.27138125852332</v>
+        <v>5</v>
       </c>
       <c r="N66">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O66">
         <v>5</v>
       </c>
       <c r="P66">
-        <v>5</v>
-      </c>
-      <c r="Q66">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -4233,42 +4242,42 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H67">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I67">
-        <v>1.0666666666666667</v>
+        <v>1.0652173913043479</v>
       </c>
       <c r="J67">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K67">
-        <v>0.28169014084507044</v>
+        <v>577.32465299103296</v>
       </c>
       <c r="L67">
-        <v>534.33239159808375</v>
+        <v>733.93931949391958</v>
       </c>
       <c r="M67">
-        <v>718.58494042500922</v>
+        <v>7</v>
       </c>
       <c r="N67">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O67">
         <v>5</v>
       </c>
       <c r="P67">
-        <v>5</v>
-      </c>
-      <c r="Q67">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -4286,42 +4295,42 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="H68">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="I68">
-        <v>0.85433070866141736</v>
+        <v>1.1205357142857142</v>
       </c>
       <c r="J68">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K68">
-        <v>0.15151515151515152</v>
+        <v>1631.2213484668089</v>
       </c>
       <c r="L68">
-        <v>1832.2591684252552</v>
+        <v>1862.2159799804651</v>
       </c>
       <c r="M68">
-        <v>2046.1415616266468</v>
+        <v>134</v>
       </c>
       <c r="N68">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="O68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P68">
-        <v>6</v>
-      </c>
-      <c r="Q68">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -4339,42 +4348,42 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="H69">
-        <v>325</v>
+        <v>426</v>
       </c>
       <c r="I69">
-        <v>1.2492307692307691</v>
+        <v>0.92488262910798125</v>
       </c>
       <c r="J69">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="K69">
-        <v>0.12727272727272726</v>
+        <v>1877.4975558360941</v>
       </c>
       <c r="L69">
-        <v>1862.31051797291</v>
+        <v>2190.7302117642594</v>
       </c>
       <c r="M69">
-        <v>2141.3723387089121</v>
+        <v>37</v>
       </c>
       <c r="N69">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="O69">
         <v>6</v>
       </c>
       <c r="P69">
-        <v>6</v>
-      </c>
-      <c r="Q69">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -4392,42 +4401,42 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="H70">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="I70">
-        <v>0.68825910931174084</v>
+        <v>0.85135135135135132</v>
       </c>
       <c r="J70">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="K70">
-        <v>0.18200836820083682</v>
+        <v>1036.4730228862325</v>
       </c>
       <c r="L70">
-        <v>962.25212402748798</v>
+        <v>1243.4183526453203</v>
       </c>
       <c r="M70">
-        <v>1190.1539428761034</v>
+        <v>62</v>
       </c>
       <c r="N70">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P70">
-        <v>5</v>
-      </c>
-      <c r="Q70">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -4445,42 +4454,42 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>401</v>
+        <v>477</v>
       </c>
       <c r="H71">
-        <v>483</v>
+        <v>406</v>
       </c>
       <c r="I71">
-        <v>0.83022774327122151</v>
+        <v>1.1748768472906403</v>
       </c>
       <c r="J71">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="K71">
-        <v>0.12382578992314261</v>
+        <v>1864.7913056936534</v>
       </c>
       <c r="L71">
-        <v>2138.8396059038919</v>
+        <v>2177.3514678625488</v>
       </c>
       <c r="M71">
-        <v>2467.2530293307163</v>
+        <v>98</v>
       </c>
       <c r="N71">
-        <v>90</v>
+        <v>6</v>
       </c>
       <c r="O71">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P71">
         <v>7</v>
       </c>
-      <c r="Q71">
-        <v>7</v>
+      <c r="Q71" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4498,42 +4507,42 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>302</v>
+        <v>441</v>
       </c>
       <c r="H72">
-        <v>227</v>
+        <v>334</v>
       </c>
       <c r="I72">
-        <v>1.330396475770925</v>
+        <v>1.3203592814371257</v>
       </c>
       <c r="J72">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="K72">
-        <v>0.16666666666666666</v>
+        <v>1246.5373961218838</v>
       </c>
       <c r="L72">
-        <v>1240.2417527071268</v>
+        <v>1869.8060941828253</v>
       </c>
       <c r="M72">
-        <v>1485.7718458826491</v>
+        <v>5</v>
       </c>
       <c r="N72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P72">
-        <v>5</v>
-      </c>
-      <c r="Q72">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -4551,42 +4560,42 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>1.8947368421052631</v>
       </c>
       <c r="J73">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K73">
-        <v>0.29166666666666669</v>
+        <v>229.40851299060256</v>
       </c>
       <c r="L73">
-        <v>290.21558872305138</v>
+        <v>262.57600884466558</v>
       </c>
       <c r="M73">
-        <v>348.25870646766168</v>
+        <v>15</v>
       </c>
       <c r="N73">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P73">
-        <v>5</v>
-      </c>
-      <c r="Q73">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -4604,42 +4613,42 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="H74">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I74">
-        <v>0.43209876543209874</v>
+        <v>2.5681818181818183</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K74">
-        <v>0.04</v>
+        <v>453.15483173463991</v>
       </c>
       <c r="L74">
-        <v>420.95093506314259</v>
+        <v>487.65900673981548</v>
       </c>
       <c r="M74">
-        <v>434.75260506521295</v>
+        <v>8</v>
       </c>
       <c r="N74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P74">
-        <v>4</v>
-      </c>
-      <c r="Q74">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -4657,42 +4666,42 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H75">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="I75">
-        <v>1.1972789115646258</v>
+        <v>0.99401197604790414</v>
       </c>
       <c r="J75">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>0.1417624521072797</v>
+        <v>652.49825113134784</v>
       </c>
       <c r="L75">
-        <v>692.11435363452892</v>
+        <v>830.78999337596656</v>
       </c>
       <c r="M75">
-        <v>829.5467208141938</v>
+        <v>51</v>
       </c>
       <c r="N75">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="O75">
         <v>6</v>
       </c>
       <c r="P75">
-        <v>6</v>
-      </c>
-      <c r="Q75">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -4710,42 +4719,42 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
+        <v>119</v>
+      </c>
+      <c r="H76">
         <v>111</v>
       </c>
-      <c r="H76">
-        <v>176</v>
-      </c>
       <c r="I76">
-        <v>0.63068181818181823</v>
+        <v>1.072072072072072</v>
       </c>
       <c r="J76">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K76">
-        <v>0.21333333333333335</v>
+        <v>1288.5957365452634</v>
       </c>
       <c r="L76">
-        <v>1300.0420601843002</v>
+        <v>1426.2498805085556</v>
       </c>
       <c r="M76">
-        <v>1483.5774098573777</v>
+        <v>14</v>
       </c>
       <c r="N76">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O76">
         <v>6</v>
       </c>
       <c r="P76">
-        <v>6</v>
-      </c>
-      <c r="Q76">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -4763,42 +4772,42 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="H77">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="I77">
-        <v>1.3924050632911393</v>
+        <v>1.3990147783251232</v>
       </c>
       <c r="J77">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K77">
-        <v>0.1864406779661017</v>
+        <v>1655.9435784172508</v>
       </c>
       <c r="L77">
-        <v>1399.8548930903503</v>
+        <v>1918.4191713880264</v>
       </c>
       <c r="M77">
-        <v>1611.1134821390465</v>
+        <v>71</v>
       </c>
       <c r="N77">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="O77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P77">
         <v>7</v>
       </c>
-      <c r="Q77">
-        <v>7</v>
+      <c r="Q77" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -4816,42 +4825,42 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H78">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="I78">
-        <v>0.98958333333333337</v>
+        <v>1.0611111111111111</v>
       </c>
       <c r="J78">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K78">
-        <v>0.13598673300165837</v>
+        <v>895.32595559436345</v>
       </c>
       <c r="L78">
-        <v>792.82220661465556</v>
+        <v>1045.285143916529</v>
       </c>
       <c r="M78">
-        <v>948.47604765791584</v>
+        <v>101</v>
       </c>
       <c r="N78">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P78">
-        <v>5</v>
-      </c>
-      <c r="Q78">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -4869,28 +4878,28 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="H79">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="I79">
-        <v>0.946524064171123</v>
+        <v>0.85889570552147243</v>
       </c>
       <c r="J79">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="K79">
-        <v>0.18243243243243243</v>
+        <v>1136.2375993591718</v>
       </c>
       <c r="L79">
-        <v>1464.0278017400735</v>
+        <v>1276.7268470022798</v>
       </c>
       <c r="M79">
-        <v>1663.667956522811</v>
+        <v>50</v>
       </c>
       <c r="N79">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O79">
         <v>7</v>
@@ -4898,13 +4907,13 @@
       <c r="P79">
         <v>7</v>
       </c>
-      <c r="Q79">
-        <v>7</v>
+      <c r="Q79" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44231</v>
+        <v>44238</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -4922,37 +4931,37 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="H80">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="I80">
-        <v>1.41875</v>
+        <v>1.5274725274725274</v>
       </c>
       <c r="J80">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K80">
-        <v>0.18045112781954886</v>
+        <v>1205.6691172727735</v>
       </c>
       <c r="L80">
-        <v>1276.9237481638768</v>
+        <v>1436.9132543612791</v>
       </c>
       <c r="M80">
-        <v>1486.3508777032825</v>
+        <v>90</v>
       </c>
       <c r="N80">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="O80">
         <v>6</v>
       </c>
       <c r="P80">
-        <v>6</v>
-      </c>
-      <c r="Q80">
-        <v>7</v>
+        <v>7</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4961,21 +4970,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -5186,24 +5180,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A17AE3-A467-46C2-B8E3-63736AD8DD9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5220,4 +5212,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{32F71104-8397-47CB-AE55-B00DAF119442}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{474FD103-6799-49B0-8DF0-D77D7F5EDBDC}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
@@ -719,7 +719,7 @@
   <dimension ref="A1:Q80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:Q80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -779,7 +779,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -797,28 +797,28 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>339</v>
+        <v>336.25952620481513</v>
       </c>
       <c r="H2">
-        <v>334</v>
+        <v>435.4836486914819</v>
       </c>
       <c r="I2">
-        <v>1.0149700598802396</v>
+        <v>0.77215189873417722</v>
       </c>
       <c r="J2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K2">
-        <v>2075.4378953461128</v>
+        <v>2014.800931604261</v>
       </c>
       <c r="L2">
-        <v>2381.3789396800021</v>
+        <v>2312.4732990642615</v>
       </c>
       <c r="M2">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O2">
         <v>7</v>
@@ -827,12 +827,12 @@
         <v>7</v>
       </c>
       <c r="Q2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -850,28 +850,28 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="H3">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="I3">
-        <v>1.2677165354330708</v>
+        <v>0.9322493224932249</v>
       </c>
       <c r="J3">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="K3">
-        <v>1027.7139905349254</v>
+        <v>1380</v>
       </c>
       <c r="L3">
-        <v>1257.7992122964761</v>
+        <v>1775</v>
       </c>
       <c r="M3">
         <v>58</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O3">
         <v>6</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -903,25 +903,25 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>143</v>
+        <v>211.36391893572048</v>
       </c>
       <c r="H4">
-        <v>62</v>
+        <v>124.33171702101205</v>
       </c>
       <c r="I4">
-        <v>2.306451612903226</v>
+        <v>1.7</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>1013.3034937212482</v>
+        <v>1230.8839985080194</v>
       </c>
       <c r="L4">
-        <v>1106.5522814870073</v>
+        <v>1417.3815740395376</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N4">
         <v>6</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -956,42 +956,42 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>149</v>
+        <v>196.73142945313805</v>
       </c>
       <c r="H5">
-        <v>104</v>
+        <v>181.30151341759782</v>
       </c>
       <c r="I5">
-        <v>1.4326923076923077</v>
+        <v>1.0851063829787233</v>
       </c>
       <c r="J5">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>473.1840917565674</v>
+        <v>829.35798691028788</v>
       </c>
       <c r="L5">
-        <v>561.90610896092369</v>
+        <v>1014.5169793367708</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="N5">
         <v>5</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P5">
         <v>7</v>
       </c>
       <c r="Q5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1009,25 +1009,25 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>332</v>
+        <v>278.84046721372067</v>
       </c>
       <c r="H6">
-        <v>297</v>
+        <v>326.66149183115249</v>
       </c>
       <c r="I6">
-        <v>1.1178451178451179</v>
+        <v>0.8536067892503536</v>
       </c>
       <c r="J6">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K6">
-        <v>1204.5353736970503</v>
+        <v>1390.506024987063</v>
       </c>
       <c r="L6">
-        <v>1520.5699711687737</v>
+        <v>1707.9267391143637</v>
       </c>
       <c r="M6">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -1039,12 +1039,12 @@
         <v>7</v>
       </c>
       <c r="Q6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1062,25 +1062,25 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>332</v>
+        <v>278.84046721372067</v>
       </c>
       <c r="H7">
-        <v>297</v>
+        <v>326.66149183115249</v>
       </c>
       <c r="I7">
-        <v>1.1178451178451179</v>
+        <v>0.8536067892503536</v>
       </c>
       <c r="J7">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K7">
-        <v>1204.5353736970503</v>
+        <v>1390.506024987063</v>
       </c>
       <c r="L7">
-        <v>1520.5699711687737</v>
+        <v>1707.9267391143637</v>
       </c>
       <c r="M7">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="N7">
         <v>5</v>
@@ -1092,12 +1092,12 @@
         <v>7</v>
       </c>
       <c r="Q7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1115,25 +1115,25 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>332</v>
+        <v>278.84046721372067</v>
       </c>
       <c r="H8">
-        <v>297</v>
+        <v>326.66149183115249</v>
       </c>
       <c r="I8">
-        <v>1.1178451178451179</v>
+        <v>0.8536067892503536</v>
       </c>
       <c r="J8">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K8">
-        <v>1204.5353736970503</v>
+        <v>1390.506024987063</v>
       </c>
       <c r="L8">
-        <v>1520.5699711687737</v>
+        <v>1707.9267391143637</v>
       </c>
       <c r="M8">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="N8">
         <v>5</v>
@@ -1145,12 +1145,12 @@
         <v>7</v>
       </c>
       <c r="Q8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1168,25 +1168,25 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>332</v>
+        <v>278.84046721372067</v>
       </c>
       <c r="H9">
-        <v>297</v>
+        <v>326.66149183115249</v>
       </c>
       <c r="I9">
-        <v>1.1178451178451179</v>
+        <v>0.8536067892503536</v>
       </c>
       <c r="J9">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K9">
-        <v>1204.5353736970503</v>
+        <v>1390.506024987063</v>
       </c>
       <c r="L9">
-        <v>1520.5699711687737</v>
+        <v>1707.9267391143637</v>
       </c>
       <c r="M9">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="N9">
         <v>5</v>
@@ -1198,12 +1198,12 @@
         <v>7</v>
       </c>
       <c r="Q9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1221,25 +1221,25 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>332</v>
+        <v>278.84046721372067</v>
       </c>
       <c r="H10">
-        <v>297</v>
+        <v>326.66149183115249</v>
       </c>
       <c r="I10">
-        <v>1.1178451178451179</v>
+        <v>0.8536067892503536</v>
       </c>
       <c r="J10">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="K10">
-        <v>1204.5353736970503</v>
+        <v>1390.506024987063</v>
       </c>
       <c r="L10">
-        <v>1520.5699711687737</v>
+        <v>1707.9267391143637</v>
       </c>
       <c r="M10">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -1251,12 +1251,12 @@
         <v>7</v>
       </c>
       <c r="Q10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1274,28 +1274,28 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="H11">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="I11">
-        <v>1.073394495412844</v>
+        <v>1.5083333333333333</v>
       </c>
       <c r="J11">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K11">
-        <v>1025.232101156234</v>
+        <v>1063</v>
       </c>
       <c r="L11">
-        <v>1108.2270807736434</v>
+        <v>1235.1605790120343</v>
       </c>
       <c r="M11">
         <v>28</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O11">
         <v>6</v>
@@ -1309,7 +1309,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1327,25 +1327,25 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>291</v>
+        <v>271.69518387941906</v>
       </c>
       <c r="H12">
-        <v>162</v>
+        <v>168.19225668725943</v>
       </c>
       <c r="I12">
-        <v>1.7962962962962963</v>
+        <v>1.6153846153846152</v>
       </c>
       <c r="J12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K12">
-        <v>1164.407930911796</v>
+        <v>1138.5321991137562</v>
       </c>
       <c r="L12">
-        <v>1319.6623217000356</v>
+        <v>1264.6763916292007</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N12">
         <v>6</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1380,42 +1380,42 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>90</v>
+        <v>186.50088809946715</v>
       </c>
       <c r="H13">
-        <v>78</v>
+        <v>95.47069271758437</v>
       </c>
       <c r="I13">
-        <v>1.1538461538461537</v>
+        <v>1.9534883720930234</v>
       </c>
       <c r="J13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K13">
-        <v>466.25222024866781</v>
+        <v>964.69804618117234</v>
       </c>
       <c r="L13">
-        <v>512.87744227353471</v>
+        <v>1031.3055062166961</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="N13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P13">
         <v>7</v>
       </c>
       <c r="Q13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1433,31 +1433,31 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>90</v>
+        <v>168.48148263704721</v>
       </c>
       <c r="H14">
-        <v>125</v>
+        <v>152.88134535583913</v>
       </c>
       <c r="I14">
-        <v>0.72</v>
+        <v>1.1020408163265307</v>
       </c>
       <c r="J14">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K14">
-        <v>1141.9300489844311</v>
+        <v>1756.5754578640292</v>
       </c>
       <c r="L14">
-        <v>1357.2119434651026</v>
+        <v>1943.7771052385262</v>
       </c>
       <c r="M14">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P14">
         <v>7</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1486,25 +1486,25 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>150</v>
+        <v>177.41056606642758</v>
       </c>
       <c r="H15">
-        <v>91</v>
+        <v>172.34169275024394</v>
       </c>
       <c r="I15">
-        <v>1.6483516483516483</v>
+        <v>1.0294117647058822</v>
       </c>
       <c r="J15">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K15">
-        <v>1039.1190298176473</v>
+        <v>1328.0448088401151</v>
       </c>
       <c r="L15">
-        <v>1122.7554395346774</v>
+        <v>1487.7143182998998</v>
       </c>
       <c r="M15">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>6</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1539,25 +1539,25 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>523</v>
+        <v>360.41779041828079</v>
       </c>
       <c r="H16">
-        <v>451</v>
+        <v>518.15165334510209</v>
       </c>
       <c r="I16">
-        <v>1.1596452328159645</v>
+        <v>0.69558359621451105</v>
       </c>
       <c r="J16">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K16">
-        <v>3251.9328527762791</v>
+        <v>2187.0249595449422</v>
       </c>
       <c r="L16">
-        <v>3612.3506431945602</v>
+        <v>2562.1536801843768</v>
       </c>
       <c r="M16">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>6</v>
@@ -1569,12 +1569,12 @@
         <v>7</v>
       </c>
       <c r="Q16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1592,25 +1592,25 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>551</v>
+        <v>407.11764955993033</v>
       </c>
       <c r="H17">
-        <v>385</v>
+        <v>443.25864194906239</v>
       </c>
       <c r="I17">
-        <v>1.4311688311688311</v>
+        <v>0.91846522781774609</v>
       </c>
       <c r="J17">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="K17">
-        <v>2742.4635401165019</v>
+        <v>2004.7621072324503</v>
       </c>
       <c r="L17">
-        <v>2991.1986053828819</v>
+        <v>2323.6532165483227</v>
       </c>
       <c r="M17">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="N17">
         <v>6</v>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1645,31 +1645,31 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>132</v>
+        <v>163.1730889920924</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>160.0351449730137</v>
       </c>
       <c r="I18">
-        <v>1.32</v>
+        <v>1.0196078431372548</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K18">
-        <v>483.24337893811975</v>
+        <v>1129.6598468683319</v>
       </c>
       <c r="L18">
-        <v>643.27852391113345</v>
+        <v>1252.039663612401</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P18">
         <v>7</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1698,25 +1698,25 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>413</v>
+        <v>339.90558178283811</v>
       </c>
       <c r="H19">
-        <v>500</v>
+        <v>419.88336573174121</v>
       </c>
       <c r="I19">
-        <v>0.82599999999999996</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="J19">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>2405.9983337961676</v>
+        <v>2059.4279366842543</v>
       </c>
       <c r="L19">
-        <v>2645.9316856428768</v>
+        <v>2286.031657872813</v>
       </c>
       <c r="M19">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>6</v>
@@ -1728,12 +1728,12 @@
         <v>7</v>
       </c>
       <c r="Q19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -1751,25 +1751,25 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>189</v>
+        <v>230.69911511563188</v>
       </c>
       <c r="H20">
-        <v>132</v>
+        <v>219.40615143864289</v>
       </c>
       <c r="I20">
-        <v>1.4318181818181819</v>
+        <v>1.0514705882352942</v>
       </c>
       <c r="J20">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>1113.1635624460559</v>
+        <v>1295.4642618031637</v>
       </c>
       <c r="L20">
-        <v>1301.9173839043001</v>
+        <v>1581.0149147784562</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="N20">
         <v>6</v>
@@ -1786,7 +1786,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -1804,31 +1804,31 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>223</v>
+        <v>388.59556494192185</v>
       </c>
       <c r="H21">
-        <v>201</v>
+        <v>310.87645195353747</v>
       </c>
       <c r="I21">
-        <v>1.1094527363184079</v>
+        <v>1.25</v>
       </c>
       <c r="J21">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>1260.401267159451</v>
+        <v>2245.4065469904963</v>
       </c>
       <c r="L21">
-        <v>1442.8722280887011</v>
+        <v>2483.6325237592396</v>
       </c>
       <c r="M21">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N21">
         <v>6</v>
       </c>
       <c r="O21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P21">
         <v>7</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1857,31 +1857,31 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>48</v>
+        <v>67.787598856914997</v>
       </c>
       <c r="H22">
-        <v>52</v>
+        <v>69.116767461952549</v>
       </c>
       <c r="I22">
-        <v>0.92307692307692313</v>
+        <v>0.98076923076923073</v>
       </c>
       <c r="J22">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="K22">
-        <v>354.8880175450256</v>
+        <v>600.78420947697214</v>
       </c>
       <c r="L22">
-        <v>438.62563966239117</v>
+        <v>628.69675018276064</v>
       </c>
       <c r="M22">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>5</v>
       </c>
       <c r="O22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P22">
         <v>7</v>
@@ -1892,7 +1892,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -1910,25 +1910,25 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>243</v>
+        <v>214.33171273651453</v>
       </c>
       <c r="H23">
-        <v>230</v>
+        <v>171.07210099152996</v>
       </c>
       <c r="I23">
-        <v>1.0565217391304347</v>
+        <v>1.2528735632183907</v>
       </c>
       <c r="J23">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="K23">
-        <v>1761.8460056139179</v>
+        <v>1928.0022416344268</v>
       </c>
       <c r="L23">
-        <v>2027.3027140490503</v>
+        <v>2078.4277097476688</v>
       </c>
       <c r="M23">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="N23">
         <v>6</v>
@@ -1940,12 +1940,12 @@
         <v>7</v>
       </c>
       <c r="Q23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -1963,25 +1963,25 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>385</v>
+        <v>354.13707603355613</v>
       </c>
       <c r="H24">
-        <v>354</v>
+        <v>382.10955980001029</v>
       </c>
       <c r="I24">
-        <v>1.0875706214689265</v>
+        <v>0.92679459843638956</v>
       </c>
       <c r="J24">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="K24">
-        <v>1626.206143626483</v>
+        <v>1594.4315746878897</v>
       </c>
       <c r="L24">
-        <v>1876.3290324507971</v>
+        <v>1811.1504294998356</v>
       </c>
       <c r="M24">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="N24">
         <v>5</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2016,25 +2016,25 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>385</v>
+        <v>354.13707603355613</v>
       </c>
       <c r="H25">
-        <v>354</v>
+        <v>382.10955980001029</v>
       </c>
       <c r="I25">
-        <v>1.0875706214689265</v>
+        <v>0.92679459843638956</v>
       </c>
       <c r="J25">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="K25">
-        <v>1626.206143626483</v>
+        <v>1594.4315746878897</v>
       </c>
       <c r="L25">
-        <v>1876.3290324507971</v>
+        <v>1811.1504294998356</v>
       </c>
       <c r="M25">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="N25">
         <v>5</v>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2069,25 +2069,25 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>385</v>
+        <v>354.13707603355613</v>
       </c>
       <c r="H26">
-        <v>354</v>
+        <v>382.10955980001029</v>
       </c>
       <c r="I26">
-        <v>1.0875706214689265</v>
+        <v>0.92679459843638956</v>
       </c>
       <c r="J26">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="K26">
-        <v>1626.206143626483</v>
+        <v>1594.4315746878897</v>
       </c>
       <c r="L26">
-        <v>1876.3290324507971</v>
+        <v>1811.1504294998356</v>
       </c>
       <c r="M26">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="N26">
         <v>5</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2122,25 +2122,25 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>385</v>
+        <v>354.13707603355613</v>
       </c>
       <c r="H27">
-        <v>354</v>
+        <v>382.10955980001029</v>
       </c>
       <c r="I27">
-        <v>1.0875706214689265</v>
+        <v>0.92679459843638956</v>
       </c>
       <c r="J27">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="K27">
-        <v>1626.206143626483</v>
+        <v>1594.4315746878897</v>
       </c>
       <c r="L27">
-        <v>1876.3290324507971</v>
+        <v>1811.1504294998356</v>
       </c>
       <c r="M27">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="N27">
         <v>5</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2175,25 +2175,25 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>385</v>
+        <v>354.13707603355613</v>
       </c>
       <c r="H28">
-        <v>354</v>
+        <v>382.10955980001029</v>
       </c>
       <c r="I28">
-        <v>1.0875706214689265</v>
+        <v>0.92679459843638956</v>
       </c>
       <c r="J28">
-        <v>307</v>
+        <v>266</v>
       </c>
       <c r="K28">
-        <v>1626.206143626483</v>
+        <v>1594.4315746878897</v>
       </c>
       <c r="L28">
-        <v>1876.3290324507971</v>
+        <v>1811.1504294998356</v>
       </c>
       <c r="M28">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="N28">
         <v>5</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2228,28 +2228,28 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>104</v>
+        <v>94.671355152826621</v>
       </c>
       <c r="H29">
-        <v>135</v>
+        <v>85.655035614462179</v>
       </c>
       <c r="I29">
-        <v>0.77037037037037037</v>
+        <v>1.1052631578947369</v>
       </c>
       <c r="J29">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K29">
-        <v>1041.3849066810928</v>
+        <v>766.38716076097728</v>
       </c>
       <c r="L29">
-        <v>1284.8255342169327</v>
+        <v>834.00955729871066</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O29">
         <v>6</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2281,42 +2281,42 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>70</v>
+        <v>118.49061189767272</v>
       </c>
       <c r="H30">
-        <v>73</v>
+        <v>115.45239107978368</v>
       </c>
       <c r="I30">
-        <v>0.95890410958904104</v>
+        <v>1.0263157894736843</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K30">
-        <v>501.30643495169227</v>
+        <v>865.89293309837763</v>
       </c>
       <c r="L30">
-        <v>537.76508476636081</v>
+        <v>975.26888254238327</v>
       </c>
       <c r="M30">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>5</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P30">
         <v>7</v>
       </c>
       <c r="Q30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2334,25 +2334,25 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>169</v>
+        <v>110.0844582400924</v>
       </c>
       <c r="H31">
-        <v>153</v>
+        <v>147.08005486176279</v>
       </c>
       <c r="I31">
-        <v>1.1045751633986929</v>
+        <v>0.74846625766871167</v>
       </c>
       <c r="J31">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="K31">
-        <v>1009.7090882841261</v>
+        <v>875.26167617122644</v>
       </c>
       <c r="L31">
-        <v>1247.9246372626867</v>
+        <v>1056.6303327799033</v>
       </c>
       <c r="M31">
-        <v>193</v>
+        <v>107</v>
       </c>
       <c r="N31">
         <v>6</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2387,28 +2387,28 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>113</v>
+        <v>139.45759895555159</v>
       </c>
       <c r="H32">
-        <v>101</v>
+        <v>77.14675686902855</v>
       </c>
       <c r="I32">
-        <v>1.1188118811881189</v>
+        <v>1.8076923076923075</v>
       </c>
       <c r="J32">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K32">
-        <v>542.99448103970087</v>
+        <v>540.02729808319987</v>
       </c>
       <c r="L32">
-        <v>658.71461634324373</v>
+        <v>593.43659130021956</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="N32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O32">
         <v>6</v>
@@ -2422,7 +2422,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2440,42 +2440,42 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>232</v>
+        <v>339.0510721625231</v>
       </c>
       <c r="H33">
-        <v>208</v>
+        <v>312.75731554583763</v>
       </c>
       <c r="I33">
-        <v>1.1153846153846154</v>
+        <v>1.084070796460177</v>
       </c>
       <c r="J33">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>1089.1150767016559</v>
+        <v>1551.3316403844424</v>
       </c>
       <c r="L33">
-        <v>1226.119387493859</v>
+        <v>1767.217221026702</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="N33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P33">
         <v>7</v>
       </c>
       <c r="Q33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2493,42 +2493,42 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>118</v>
+        <v>201.45373369994283</v>
       </c>
       <c r="H34">
-        <v>79</v>
+        <v>130.67269212969265</v>
       </c>
       <c r="I34">
-        <v>1.4936708860759493</v>
+        <v>1.5416666666666667</v>
       </c>
       <c r="J34">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>536.3025072822802</v>
+        <v>1456.4560476955326</v>
       </c>
       <c r="L34">
-        <v>642.47406963765559</v>
+        <v>1644.2980426319659</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="N34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P34">
         <v>7</v>
       </c>
       <c r="Q34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -2546,25 +2546,25 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>203</v>
+        <v>187.02151420152578</v>
       </c>
       <c r="H35">
-        <v>206</v>
+        <v>226.04039126515343</v>
       </c>
       <c r="I35">
-        <v>0.9854368932038835</v>
+        <v>0.82738095238095244</v>
       </c>
       <c r="J35">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K35">
-        <v>1459.8441935874494</v>
+        <v>1097.9104718593167</v>
       </c>
       <c r="L35">
-        <v>1621.3016159197016</v>
+        <v>1223.0399741668125</v>
       </c>
       <c r="M35">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="N35">
         <v>5</v>
@@ -2576,12 +2576,12 @@
         <v>7</v>
       </c>
       <c r="Q35" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -2599,31 +2599,31 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>300</v>
+        <v>446.34515975004666</v>
       </c>
       <c r="H36">
-        <v>244</v>
+        <v>411.05275176981047</v>
       </c>
       <c r="I36">
-        <v>1.2295081967213115</v>
+        <v>1.0858585858585856</v>
       </c>
       <c r="J36">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="K36">
-        <v>1153.2313313541904</v>
+        <v>1833.1291909734475</v>
       </c>
       <c r="L36">
-        <v>1380.5559592268887</v>
+        <v>2116.5064668147561</v>
       </c>
       <c r="M36">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="N36">
         <v>6</v>
       </c>
       <c r="O36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P36">
         <v>7</v>
@@ -2634,7 +2634,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -2652,25 +2652,25 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>42</v>
+        <v>16.889752142887303</v>
       </c>
       <c r="H37">
-        <v>245</v>
+        <v>84.448760714436517</v>
       </c>
       <c r="I37">
-        <v>0.17142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="J37">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K37">
-        <v>1097.8338892876748</v>
+        <v>574.25157285816829</v>
       </c>
       <c r="L37">
-        <v>1325.8455432166531</v>
+        <v>675.59008571549214</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N37">
         <v>5</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -2705,28 +2705,28 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>171</v>
+        <v>193.3065353868389</v>
       </c>
       <c r="H38">
-        <v>187</v>
+        <v>197.82304322297998</v>
       </c>
       <c r="I38">
-        <v>0.91443850267379678</v>
+        <v>0.97716894977168955</v>
       </c>
       <c r="J38">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>723.54455534980355</v>
+        <v>958.40296282914062</v>
       </c>
       <c r="L38">
-        <v>837.36055282055918</v>
+        <v>1110.1576261234814</v>
       </c>
       <c r="M38">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="N38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O38">
         <v>6</v>
@@ -2735,12 +2735,12 @@
         <v>7</v>
       </c>
       <c r="Q38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -2758,28 +2758,28 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>121</v>
+        <v>254.21156472909394</v>
       </c>
       <c r="H39">
-        <v>118</v>
+        <v>163.15070572165729</v>
       </c>
       <c r="I39">
-        <v>1.0254237288135593</v>
+        <v>1.558139534883721</v>
       </c>
       <c r="J39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>641.22021551069963</v>
+        <v>906.81438761572326</v>
       </c>
       <c r="L39">
-        <v>766.42889664592508</v>
+        <v>1020.640461375019</v>
       </c>
       <c r="M39">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O39">
         <v>6</v>
@@ -2788,12 +2788,12 @@
         <v>7</v>
       </c>
       <c r="Q39" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -2811,42 +2811,42 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>45</v>
+        <v>46.278934307850662</v>
       </c>
       <c r="H40">
-        <v>40</v>
+        <v>38.29980770304882</v>
       </c>
       <c r="I40">
-        <v>1.125</v>
+        <v>1.2083333333333335</v>
       </c>
       <c r="J40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K40">
-        <v>368.63564914184491</v>
+        <v>493.11002417675365</v>
       </c>
       <c r="L40">
-        <v>406.93545684489379</v>
+        <v>521.83487995404016</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="N40">
         <v>5</v>
       </c>
       <c r="O40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P40">
         <v>7</v>
       </c>
       <c r="Q40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -2864,31 +2864,31 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>207</v>
+        <v>152.88437732111908</v>
       </c>
       <c r="H41">
-        <v>223</v>
+        <v>163.40678385739045</v>
       </c>
       <c r="I41">
-        <v>0.9282511210762332</v>
+        <v>0.93560606060606044</v>
       </c>
       <c r="J41">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="K41">
-        <v>1078.2371874226294</v>
+        <v>769.37360732854665</v>
       </c>
       <c r="L41">
-        <v>1315.9197821242883</v>
+        <v>895.64248576380294</v>
       </c>
       <c r="M41">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="N41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P41">
         <v>7</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -2917,25 +2917,25 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>334</v>
+        <v>410.84831384335013</v>
       </c>
       <c r="H42">
-        <v>238</v>
+        <v>436.4264189853485</v>
       </c>
       <c r="I42">
-        <v>1.403361344537815</v>
+        <v>0.9413919413919416</v>
       </c>
       <c r="J42">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>1432.3738879519133</v>
+        <v>2186.9279896408675</v>
       </c>
       <c r="L42">
-        <v>1633.8014659451508</v>
+        <v>2460.2939883459758</v>
       </c>
       <c r="M42">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="N42">
         <v>6</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -2970,25 +2970,25 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>178</v>
+        <v>123.73700132010114</v>
       </c>
       <c r="H43">
-        <v>153</v>
+        <v>151.07424579779791</v>
       </c>
       <c r="I43">
-        <v>1.1633986928104576</v>
+        <v>0.81904761904761902</v>
       </c>
       <c r="J43">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="K43">
-        <v>1345.9995899413329</v>
+        <v>1098.5255873011306</v>
       </c>
       <c r="L43">
-        <v>1551.0289235240587</v>
+        <v>1279.8146822584881</v>
       </c>
       <c r="M43">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="N43">
         <v>6</v>
@@ -3005,7 +3005,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3023,25 +3023,25 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>263</v>
+        <v>254.40549164957838</v>
       </c>
       <c r="H44">
-        <v>204</v>
+        <v>199.57672189751409</v>
       </c>
       <c r="I44">
-        <v>1.2892156862745099</v>
+        <v>1.2747252747252746</v>
       </c>
       <c r="J44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>2497.9987499040494</v>
+        <v>1938.7452984329936</v>
       </c>
       <c r="L44">
-        <v>2787.4946541949494</v>
+        <v>2221.6617503536459</v>
       </c>
       <c r="M44">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="N44">
         <v>6</v>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3076,25 +3076,25 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>264</v>
+        <v>222.58039757464118</v>
       </c>
       <c r="H45">
-        <v>281</v>
+        <v>305.47240770588689</v>
       </c>
       <c r="I45">
-        <v>0.93950177935943058</v>
+        <v>0.72864321608040195</v>
       </c>
       <c r="J45">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K45">
-        <v>1516.6167779568655</v>
+        <v>1030.0099777419603</v>
       </c>
       <c r="L45">
-        <v>1691.6110215672732</v>
+        <v>1200.3991096784096</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>5</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3129,25 +3129,25 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>282</v>
+        <v>391.70415190478087</v>
       </c>
       <c r="H46">
-        <v>290</v>
+        <v>399.6656184069106</v>
       </c>
       <c r="I46">
-        <v>0.97241379310344822</v>
+        <v>0.98007968127490031</v>
       </c>
       <c r="J46">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K46">
-        <v>1519.0478086063454</v>
+        <v>1592.2933004259385</v>
       </c>
       <c r="L46">
-        <v>1748.3380438676802</v>
+        <v>1926.6748935153853</v>
       </c>
       <c r="M46">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N46">
         <v>6</v>
@@ -3159,12 +3159,12 @@
         <v>7</v>
       </c>
       <c r="Q46" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3182,31 +3182,31 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>107</v>
+        <v>260.81691583997019</v>
       </c>
       <c r="H47">
-        <v>107</v>
+        <v>190.95524195426387</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>1.3658536585365855</v>
       </c>
       <c r="J47">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K47">
-        <v>526.29127660565416</v>
+        <v>898.8868706627544</v>
       </c>
       <c r="L47">
-        <v>596.15295049136046</v>
+        <v>1052.5825532113083</v>
       </c>
       <c r="M47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P47">
         <v>7</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3235,28 +3235,28 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>96</v>
+        <v>212.55605808594697</v>
       </c>
       <c r="H48">
-        <v>124</v>
+        <v>168.71041381709693</v>
       </c>
       <c r="I48">
-        <v>0.77419354838709675</v>
+        <v>1.2598870056497173</v>
       </c>
       <c r="J48">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K48">
-        <v>579.52503729262685</v>
+        <v>1030.3726403179762</v>
       </c>
       <c r="L48">
-        <v>699.62397594208562</v>
+        <v>1184.785561438709</v>
       </c>
       <c r="M48">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="N48">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O48">
         <v>6</v>
@@ -3265,12 +3265,12 @@
         <v>7</v>
       </c>
       <c r="Q48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -3288,42 +3288,42 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>232</v>
+        <v>401.99556363461647</v>
       </c>
       <c r="H49">
-        <v>232</v>
+        <v>360.35458891549285</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>1.1155555555555556</v>
       </c>
       <c r="J49">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K49">
-        <v>943.32823498322352</v>
+        <v>1673.6468685186226</v>
       </c>
       <c r="L49">
-        <v>1183.5646275935521</v>
+        <v>1971.5399953554297</v>
       </c>
       <c r="M49">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="N49">
         <v>6</v>
       </c>
       <c r="O49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P49">
         <v>7</v>
       </c>
       <c r="Q49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3341,25 +3341,25 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>241</v>
+        <v>251.69481149937789</v>
       </c>
       <c r="H50">
-        <v>229</v>
+        <v>242.01424182632488</v>
       </c>
       <c r="I50">
-        <v>1.0524017467248907</v>
+        <v>1.04</v>
       </c>
       <c r="J50">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="K50">
-        <v>760.77888724698835</v>
+        <v>890.04296464599008</v>
       </c>
       <c r="L50">
-        <v>924.77912641400383</v>
+        <v>1084.7932486568211</v>
       </c>
       <c r="M50">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="N50">
         <v>5</v>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -3394,28 +3394,28 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>253</v>
+        <v>265.712291805836</v>
       </c>
       <c r="H51">
-        <v>187</v>
+        <v>269.44420601659209</v>
       </c>
       <c r="I51">
-        <v>1.3529411764705883</v>
+        <v>0.98614958448753476</v>
       </c>
       <c r="J51">
         <v>143</v>
       </c>
       <c r="K51">
-        <v>765.78879604715644</v>
+        <v>1144.9512798599785</v>
       </c>
       <c r="L51">
-        <v>1085.9870353300319</v>
+        <v>1465.1495191428539</v>
       </c>
       <c r="M51">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="N51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O51">
         <v>6</v>
@@ -3424,12 +3424,12 @@
         <v>7</v>
       </c>
       <c r="Q51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -3447,28 +3447,28 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>167</v>
+        <v>293.39080784030511</v>
       </c>
       <c r="H52">
-        <v>181</v>
+        <v>255.02431758426522</v>
       </c>
       <c r="I52">
-        <v>0.92265193370165743</v>
+        <v>1.1504424778761062</v>
       </c>
       <c r="J52">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K52">
-        <v>706.39479118473469</v>
+        <v>1306.717521073359</v>
       </c>
       <c r="L52">
-        <v>875.65871878491077</v>
+        <v>1462.4403344655209</v>
       </c>
       <c r="M52">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O52">
         <v>6</v>
@@ -3482,7 +3482,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -3500,28 +3500,28 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>510</v>
+        <v>507.10834710431044</v>
       </c>
       <c r="H53">
-        <v>341</v>
+        <v>557.56688910473929</v>
       </c>
       <c r="I53">
-        <v>1.4956011730205279</v>
+        <v>0.90950226244343901</v>
       </c>
       <c r="J53">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="K53">
-        <v>2820.6324978239754</v>
+        <v>3279.8052300278782</v>
       </c>
       <c r="L53">
-        <v>3070.4022807260985</v>
+        <v>3650.6755137310311</v>
       </c>
       <c r="M53">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="N53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O53">
         <v>7</v>
@@ -3530,12 +3530,12 @@
         <v>7</v>
       </c>
       <c r="Q53" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -3553,28 +3553,28 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>299</v>
+        <v>306.56257797739988</v>
       </c>
       <c r="H54">
-        <v>171</v>
+        <v>253.09236088831852</v>
       </c>
       <c r="I54">
-        <v>1.7485380116959064</v>
+        <v>1.2112676056338028</v>
       </c>
       <c r="J54">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K54">
-        <v>901.86432823583937</v>
+        <v>1370.0257845269075</v>
       </c>
       <c r="L54">
-        <v>1083.6630663387159</v>
+        <v>1576.7772906046887</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="N54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O54">
         <v>6</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -3606,25 +3606,25 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>341</v>
+        <v>298.9945103964892</v>
       </c>
       <c r="H55">
-        <v>185</v>
+        <v>308.6394946028276</v>
       </c>
       <c r="I55">
-        <v>1.8432432432432433</v>
+        <v>0.96874999999999989</v>
       </c>
       <c r="J55">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K55">
-        <v>1758.6021202890281</v>
+        <v>1904.8843807518267</v>
       </c>
       <c r="L55">
-        <v>2004.5492175506563</v>
+        <v>2131.5415096007778</v>
       </c>
       <c r="M55">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="N55">
         <v>7</v>
@@ -3636,12 +3636,12 @@
         <v>7</v>
       </c>
       <c r="Q55" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -3659,25 +3659,25 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>155</v>
+        <v>218.68717152834114</v>
       </c>
       <c r="H56">
-        <v>160</v>
+        <v>222.21438397234667</v>
       </c>
       <c r="I56">
-        <v>0.96875</v>
+        <v>0.98412698412698396</v>
       </c>
       <c r="J56">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="K56">
-        <v>837.71295545130681</v>
+        <v>1276.8509047299917</v>
       </c>
       <c r="L56">
-        <v>991.14669676554615</v>
+        <v>1504.3561073683468</v>
       </c>
       <c r="M56">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="N56">
         <v>5</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -3712,42 +3712,42 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>134</v>
+        <v>132.1909829225774</v>
       </c>
       <c r="H57">
-        <v>137</v>
+        <v>90.881300759271966</v>
       </c>
       <c r="I57">
-        <v>0.97810218978102192</v>
+        <v>1.4545454545454546</v>
       </c>
       <c r="J57">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K57">
-        <v>599.81658501119489</v>
+        <v>786.53634838933544</v>
       </c>
       <c r="L57">
-        <v>713.83130778191799</v>
+        <v>836.10796698530203</v>
       </c>
       <c r="M57">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P57">
         <v>7</v>
       </c>
       <c r="Q57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -3765,25 +3765,25 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>370</v>
+        <v>288.28480216697301</v>
       </c>
       <c r="H58">
-        <v>284</v>
+        <v>278.61081551707457</v>
       </c>
       <c r="I58">
-        <v>1.3028169014084507</v>
+        <v>1.0347222222222223</v>
       </c>
       <c r="J58">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="K58">
-        <v>2184.3861855470636</v>
+        <v>1414.3368482151493</v>
       </c>
       <c r="L58">
-        <v>2370.1267292251136</v>
+        <v>1768.4047596014318</v>
       </c>
       <c r="M58">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="N58">
         <v>7</v>
@@ -3795,12 +3795,12 @@
         <v>7</v>
       </c>
       <c r="Q58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -3818,31 +3818,31 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>291</v>
+        <v>228.20375812628015</v>
       </c>
       <c r="H59">
-        <v>274</v>
+        <v>277.1840769436281</v>
       </c>
       <c r="I59">
-        <v>1.062043795620438</v>
+        <v>0.82329317269076296</v>
       </c>
       <c r="J59">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="K59">
-        <v>1275.7146673791078</v>
+        <v>968.47448570665244</v>
       </c>
       <c r="L59">
-        <v>1429.3347582153353</v>
+        <v>1165.5089500400748</v>
       </c>
       <c r="M59">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="N59">
         <v>5</v>
       </c>
       <c r="O59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P59">
         <v>7</v>
@@ -3853,7 +3853,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -3871,25 +3871,25 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>291</v>
+        <v>175.36313403699171</v>
       </c>
       <c r="H60">
-        <v>293</v>
+        <v>234.92042484200775</v>
       </c>
       <c r="I60">
-        <v>0.99317406143344711</v>
+        <v>0.74647887323943662</v>
       </c>
       <c r="J60">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="K60">
-        <v>1376.435165271482</v>
+        <v>1300.3341825761838</v>
       </c>
       <c r="L60">
-        <v>1540.2177149852762</v>
+        <v>1419.4487641862158</v>
       </c>
       <c r="M60">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N60">
         <v>5</v>
@@ -3901,12 +3901,12 @@
         <v>7</v>
       </c>
       <c r="Q60" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -3924,31 +3924,31 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>229</v>
+        <v>286.59682195968537</v>
       </c>
       <c r="H61">
-        <v>210</v>
+        <v>186.8186691292764</v>
       </c>
       <c r="I61">
-        <v>1.0904761904761904</v>
+        <v>1.5340909090909089</v>
       </c>
       <c r="J61">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K61">
-        <v>766.38113131441798</v>
+        <v>876.77398125444483</v>
       </c>
       <c r="L61">
-        <v>951.0768610217707</v>
+        <v>1048.7320744302563</v>
       </c>
       <c r="M61">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O61">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P61">
         <v>7</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -3977,42 +3977,42 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>113</v>
+        <v>179.35734882245004</v>
       </c>
       <c r="H62">
-        <v>55</v>
+        <v>115.89244077758309</v>
       </c>
       <c r="I62">
-        <v>2.0545454545454547</v>
+        <v>1.5476190476190477</v>
       </c>
       <c r="J62">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K62">
-        <v>844.35921137953392</v>
+        <v>1081.6627805907756</v>
       </c>
       <c r="L62">
-        <v>902.30543176832555</v>
+        <v>1172.7211269160193</v>
       </c>
       <c r="M62">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P62">
         <v>7</v>
       </c>
       <c r="Q62" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4030,25 +4030,25 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>215</v>
+        <v>346.20272579867657</v>
       </c>
       <c r="H63">
-        <v>188</v>
+        <v>219.1156492396687</v>
       </c>
       <c r="I63">
-        <v>1.1436170212765957</v>
+        <v>1.58</v>
       </c>
       <c r="J63">
+        <v>20</v>
+      </c>
+      <c r="K63">
+        <v>1371.6639642403261</v>
+      </c>
+      <c r="L63">
+        <v>1634.6027433279287</v>
+      </c>
+      <c r="M63">
         <v>12</v>
-      </c>
-      <c r="K63">
-        <v>907.13878785222846</v>
-      </c>
-      <c r="L63">
-        <v>1064.9020553047899</v>
-      </c>
-      <c r="M63">
-        <v>15</v>
       </c>
       <c r="N63">
         <v>6</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -4083,25 +4083,25 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>160</v>
+        <v>159.37453014584273</v>
       </c>
       <c r="H64">
-        <v>132</v>
+        <v>201.4734626371974</v>
       </c>
       <c r="I64">
-        <v>1.2121212121212122</v>
+        <v>0.79104477611940305</v>
       </c>
       <c r="J64">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="K64">
-        <v>1438.3801934546184</v>
+        <v>991.32962461785189</v>
       </c>
       <c r="L64">
-        <v>1525.5851250438529</v>
+        <v>1138.6758883375933</v>
       </c>
       <c r="M64">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="N64">
         <v>6</v>
@@ -4113,12 +4113,12 @@
         <v>7</v>
       </c>
       <c r="Q64" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -4136,25 +4136,25 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>169</v>
+        <v>185.34478764120954</v>
       </c>
       <c r="H65">
-        <v>126</v>
+        <v>139.00859073090717</v>
       </c>
       <c r="I65">
-        <v>1.3412698412698412</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="J65">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="K65">
-        <v>611.63779921599155</v>
+        <v>606.07745558675526</v>
       </c>
       <c r="L65">
-        <v>678.36192276682698</v>
+        <v>795.12913898078898</v>
       </c>
       <c r="M65">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N65">
         <v>5</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -4189,25 +4189,25 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>185</v>
+        <v>282.4858757062147</v>
       </c>
       <c r="H66">
-        <v>175</v>
+        <v>209.42918371322813</v>
       </c>
       <c r="I66">
-        <v>1.0571428571428572</v>
+        <v>1.3488372093023258</v>
       </c>
       <c r="J66">
         <v>11</v>
       </c>
       <c r="K66">
-        <v>594.19442820962399</v>
+        <v>852.32807325150986</v>
       </c>
       <c r="L66">
-        <v>754.91915059419443</v>
+        <v>1013.0527956360803</v>
       </c>
       <c r="M66">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N66">
         <v>5</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -4242,25 +4242,25 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>147</v>
+        <v>116.69328092371944</v>
       </c>
       <c r="H67">
-        <v>138</v>
+        <v>113.62240510993736</v>
       </c>
       <c r="I67">
-        <v>1.0652173913043479</v>
+        <v>1.027027027027027</v>
       </c>
       <c r="J67">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K67">
-        <v>577.32465299103296</v>
+        <v>565.0411497359047</v>
       </c>
       <c r="L67">
-        <v>733.93931949391958</v>
+        <v>740.08107112148389</v>
       </c>
       <c r="M67">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N67">
         <v>5</v>
@@ -4272,12 +4272,12 @@
         <v>7</v>
       </c>
       <c r="Q67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -4295,25 +4295,25 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>251</v>
+        <v>259.5124872560832</v>
       </c>
       <c r="H68">
-        <v>224</v>
+        <v>196.7732046227444</v>
       </c>
       <c r="I68">
-        <v>1.1205357142857142</v>
+        <v>1.318840579710145</v>
       </c>
       <c r="J68">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K68">
-        <v>1631.2213484668089</v>
+        <v>1264.7669021766253</v>
       </c>
       <c r="L68">
-        <v>1862.2159799804651</v>
+        <v>1431.5963582698216</v>
       </c>
       <c r="M68">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="N68">
         <v>5</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -4348,25 +4348,25 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>394</v>
+        <v>475.54412309094192</v>
       </c>
       <c r="H69">
-        <v>426</v>
+        <v>334.114832990043</v>
       </c>
       <c r="I69">
-        <v>0.92488262910798125</v>
+        <v>1.4232954545454546</v>
       </c>
       <c r="J69">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="K69">
-        <v>1877.4975558360941</v>
+        <v>1917.3635302269513</v>
       </c>
       <c r="L69">
-        <v>2190.7302117642594</v>
+        <v>2196.4253509629534</v>
       </c>
       <c r="M69">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N69">
         <v>6</v>
@@ -4378,12 +4378,12 @@
         <v>7</v>
       </c>
       <c r="Q69" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -4401,42 +4401,42 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>189</v>
+        <v>382.45592588388359</v>
       </c>
       <c r="H70">
-        <v>222</v>
+        <v>344.90888293181285</v>
       </c>
       <c r="I70">
-        <v>0.85135135135135132</v>
+        <v>1.1088607594936708</v>
       </c>
       <c r="J70">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="K70">
-        <v>1036.4730228862325</v>
+        <v>1603.1714153488817</v>
       </c>
       <c r="L70">
-        <v>1243.4183526453203</v>
+        <v>1875.605773512744</v>
       </c>
       <c r="M70">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="N70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P70">
         <v>7</v>
       </c>
       <c r="Q70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -4454,25 +4454,25 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>477</v>
+        <v>399.38242943803345</v>
       </c>
       <c r="H71">
-        <v>406</v>
+        <v>411.46204923200042</v>
       </c>
       <c r="I71">
-        <v>1.1748768472906403</v>
+        <v>0.97064220183486238</v>
       </c>
       <c r="J71">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="K71">
-        <v>1864.7913056936534</v>
+        <v>1588.4700029066585</v>
       </c>
       <c r="L71">
-        <v>2177.3514678625488</v>
+        <v>1953.123525437037</v>
       </c>
       <c r="M71">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="N71">
         <v>6</v>
@@ -4484,12 +4484,12 @@
         <v>7</v>
       </c>
       <c r="Q71" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4507,42 +4507,42 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>441</v>
+        <v>339.96474439687734</v>
       </c>
       <c r="H72">
-        <v>334</v>
+        <v>352.55603122639138</v>
       </c>
       <c r="I72">
-        <v>1.3203592814371257</v>
+        <v>0.96428571428571408</v>
       </c>
       <c r="J72">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="K72">
-        <v>1246.5373961218838</v>
+        <v>1529.8413497859481</v>
       </c>
       <c r="L72">
-        <v>1869.8060941828253</v>
+        <v>1718.7106522286579</v>
       </c>
       <c r="M72">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="N72">
         <v>6</v>
       </c>
       <c r="O72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P72">
         <v>7</v>
       </c>
       <c r="Q72" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -4560,31 +4560,31 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>36</v>
+        <v>44.223327805417362</v>
       </c>
       <c r="H73">
-        <v>19</v>
+        <v>49.751243781094523</v>
       </c>
       <c r="I73">
-        <v>1.8947368421052631</v>
+        <v>0.88888888888888906</v>
       </c>
       <c r="J73">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K73">
-        <v>229.40851299060256</v>
+        <v>381.4262023217247</v>
       </c>
       <c r="L73">
-        <v>262.57600884466558</v>
+        <v>464.34494195688222</v>
       </c>
       <c r="M73">
         <v>15</v>
       </c>
       <c r="N73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P73">
         <v>7</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -4613,28 +4613,28 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>113</v>
+        <v>204.72477169737536</v>
       </c>
       <c r="H74">
-        <v>44</v>
+        <v>89.710855013456623</v>
       </c>
       <c r="I74">
-        <v>2.5681818181818183</v>
+        <v>2.2820512820512819</v>
       </c>
       <c r="J74">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K74">
-        <v>453.15483173463991</v>
+        <v>878.70632346513935</v>
       </c>
       <c r="L74">
-        <v>487.65900673981548</v>
+        <v>989.11968348170126</v>
       </c>
       <c r="M74">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="N74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O74">
         <v>6</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -4666,28 +4666,28 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>166</v>
+        <v>455.63445240291458</v>
       </c>
       <c r="H75">
-        <v>167</v>
+        <v>241.43673428958789</v>
       </c>
       <c r="I75">
-        <v>0.99401197604790414</v>
+        <v>1.8871794871794871</v>
       </c>
       <c r="J75">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K75">
-        <v>652.49825113134784</v>
+        <v>1524.1467687717061</v>
       </c>
       <c r="L75">
-        <v>830.78999337596656</v>
+        <v>1769.2979143580569</v>
       </c>
       <c r="M75">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N75">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O75">
         <v>6</v>
@@ -4696,12 +4696,12 @@
         <v>7</v>
       </c>
       <c r="Q75" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -4719,42 +4719,42 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>119</v>
+        <v>260.0133830417742</v>
       </c>
       <c r="H76">
-        <v>111</v>
+        <v>168.2439537329127</v>
       </c>
       <c r="I76">
-        <v>1.072072072072072</v>
+        <v>1.5454545454545456</v>
       </c>
       <c r="J76">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K76">
-        <v>1288.5957365452634</v>
+        <v>1537.1379409234298</v>
       </c>
       <c r="L76">
-        <v>1426.2498805085556</v>
+        <v>1800.9750501864066</v>
       </c>
       <c r="M76">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O76">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P76">
         <v>7</v>
       </c>
       <c r="Q76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -4772,25 +4772,25 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>284</v>
+        <v>375.57483221834553</v>
       </c>
       <c r="H77">
-        <v>203</v>
+        <v>268.87743670177008</v>
       </c>
       <c r="I77">
-        <v>1.3990147783251232</v>
+        <v>1.396825396825397</v>
       </c>
       <c r="J77">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="K77">
-        <v>1655.9435784172508</v>
+        <v>2078.4652646628897</v>
       </c>
       <c r="L77">
-        <v>1918.4191713880264</v>
+        <v>2404.9592949436105</v>
       </c>
       <c r="M77">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="N77">
         <v>6</v>
@@ -4802,12 +4802,12 @@
         <v>7</v>
       </c>
       <c r="Q77" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -4825,25 +4825,25 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>191</v>
+        <v>220.82597774023526</v>
       </c>
       <c r="H78">
-        <v>180</v>
+        <v>187.92353979613142</v>
       </c>
       <c r="I78">
-        <v>1.0611111111111111</v>
+        <v>1.1750841750841752</v>
       </c>
       <c r="J78">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K78">
-        <v>895.32595559436345</v>
+        <v>916.83908809627746</v>
       </c>
       <c r="L78">
-        <v>1045.285143916529</v>
+        <v>1064.9000588447448</v>
       </c>
       <c r="M78">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="N78">
         <v>5</v>
@@ -4855,12 +4855,12 @@
         <v>7</v>
       </c>
       <c r="Q78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -4878,31 +4878,31 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>140</v>
+        <v>96.124222071600215</v>
       </c>
       <c r="H79">
-        <v>163</v>
+        <v>54.223920142953972</v>
       </c>
       <c r="I79">
-        <v>0.85889570552147243</v>
+        <v>1.7727272727272725</v>
       </c>
       <c r="J79">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K79">
-        <v>1136.2375993591718</v>
+        <v>532.38030685809349</v>
       </c>
       <c r="L79">
-        <v>1276.7268470022798</v>
+        <v>621.11035800110915</v>
       </c>
       <c r="M79">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="N79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P79">
         <v>7</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44238</v>
+        <v>44250</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -4931,31 +4931,31 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>278</v>
+        <v>305.41678483387506</v>
       </c>
       <c r="H80">
-        <v>182</v>
+        <v>314.14297868627148</v>
       </c>
       <c r="I80">
-        <v>1.5274725274725274</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="J80">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K80">
-        <v>1205.6691172727735</v>
+        <v>1807.7764930881274</v>
       </c>
       <c r="L80">
-        <v>1436.9132543612791</v>
+        <v>2052.1099209552272</v>
       </c>
       <c r="M80">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="N80">
         <v>6</v>
       </c>
       <c r="O80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P80">
         <v>7</v>
@@ -4970,6 +4970,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -5180,22 +5195,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A17AE3-A467-46C2-B8E3-63736AD8DD9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5212,21 +5229,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{474FD103-6799-49B0-8DF0-D77D7F5EDBDC}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{48427C1C-3920-4FA0-B4D2-689FC1B553FA}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="115">
   <si>
     <t>Code</t>
   </si>
@@ -342,9 +342,6 @@
     <t>Zmena_7d_incidencia</t>
   </si>
   <si>
-    <t>Pripady_nad_65r</t>
-  </si>
-  <si>
     <t>Vazena_Incidencia</t>
   </si>
   <si>
@@ -364,6 +361,24 @@
   </si>
   <si>
     <t>Poz</t>
+  </si>
+  <si>
+    <t>Prípady_14d_EPIS</t>
+  </si>
+  <si>
+    <t>Pozit_14d_PCR</t>
+  </si>
+  <si>
+    <t>Pozit_14d_Ag</t>
+  </si>
+  <si>
+    <t>Pozit_Nad65r</t>
+  </si>
+  <si>
+    <t>Pozitivita_PCR</t>
+  </si>
+  <si>
+    <t>Pozitivita_Ag</t>
   </si>
 </sst>
 </file>
@@ -716,15 +731,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q80"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -744,42 +757,57 @@
         <v>98</v>
       </c>
       <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" t="s">
+        <v>114</v>
+      </c>
+      <c r="M1" t="s">
         <v>99</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" t="s">
         <v>100</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>101</v>
       </c>
-      <c r="J1" t="s">
+      <c r="P1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" t="s">
         <v>102</v>
       </c>
-      <c r="K1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
         <v>103</v>
       </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="V1" t="s">
         <v>105</v>
       </c>
-      <c r="O1" t="s">
-        <v>4</v>
-      </c>
-      <c r="P1" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -797,42 +825,57 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>336.25952620481513</v>
+        <v>594</v>
       </c>
       <c r="H2">
-        <v>435.4836486914819</v>
+        <v>272</v>
       </c>
       <c r="I2">
-        <v>0.77215189873417722</v>
+        <v>454</v>
       </c>
       <c r="J2">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="K2">
-        <v>2014.800931604261</v>
+        <v>0.35205183585313177</v>
       </c>
       <c r="L2">
-        <v>2312.4732990642615</v>
+        <v>1.189402480270575E-2</v>
       </c>
       <c r="M2">
-        <v>58</v>
+        <v>432.72742306685223</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>316.96594683240772</v>
       </c>
       <c r="O2">
-        <v>7</v>
+        <v>1.3652173913043477</v>
       </c>
       <c r="P2">
-        <v>7</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2001.0198034811131</v>
+      </c>
+      <c r="Q2">
+        <v>2439.2596777972244</v>
+      </c>
+      <c r="R2">
+        <v>55</v>
+      </c>
+      <c r="S2">
+        <v>6</v>
+      </c>
+      <c r="T2">
+        <v>7</v>
+      </c>
+      <c r="U2">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -850,42 +893,57 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
+        <v>1496</v>
+      </c>
+      <c r="H3">
+        <v>889</v>
+      </c>
+      <c r="I3">
+        <v>727</v>
+      </c>
+      <c r="J3">
+        <v>124</v>
+      </c>
+      <c r="K3">
+        <v>0.24247064828994386</v>
+      </c>
+      <c r="L3">
+        <v>9.0662248607851267E-3</v>
+      </c>
+      <c r="M3">
+        <v>350</v>
+      </c>
+      <c r="N3">
         <v>344</v>
       </c>
-      <c r="H3">
-        <v>369</v>
-      </c>
-      <c r="I3">
-        <v>0.9322493224932249</v>
-      </c>
-      <c r="J3">
-        <v>116</v>
-      </c>
-      <c r="K3">
-        <v>1380</v>
-      </c>
-      <c r="L3">
-        <v>1775</v>
-      </c>
-      <c r="M3">
-        <v>58</v>
-      </c>
-      <c r="N3">
-        <v>6</v>
-      </c>
       <c r="O3">
-        <v>6</v>
+        <v>1.0174418604651163</v>
       </c>
       <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1349.8333010010963</v>
+      </c>
+      <c r="Q3">
+        <v>1685.4870362767699</v>
+      </c>
+      <c r="R3">
+        <v>61</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>6</v>
+      </c>
+      <c r="U3">
+        <v>7</v>
+      </c>
+      <c r="V3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -903,42 +961,57 @@
         <v>16086</v>
       </c>
       <c r="G4">
+        <v>212</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>164</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>0.18018018018018017</v>
+      </c>
+      <c r="L4">
+        <v>1.4062190532778768E-2</v>
+      </c>
+      <c r="M4">
+        <v>99.465373616809643</v>
+      </c>
+      <c r="N4">
         <v>211.36391893572048</v>
       </c>
-      <c r="H4">
-        <v>124.33171702101205</v>
-      </c>
-      <c r="I4">
-        <v>1.7</v>
-      </c>
-      <c r="J4">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>1230.8839985080194</v>
-      </c>
-      <c r="L4">
-        <v>1417.3815740395376</v>
-      </c>
-      <c r="M4">
-        <v>15</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
       <c r="O4">
-        <v>6</v>
+        <v>0.4705882352941177</v>
       </c>
       <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4" t="s">
+        <v>1330.349372124829</v>
+      </c>
+      <c r="Q4">
+        <v>1460.8976749968917</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -956,42 +1029,57 @@
         <v>77771</v>
       </c>
       <c r="G5">
+        <v>769</v>
+      </c>
+      <c r="H5">
+        <v>373</v>
+      </c>
+      <c r="I5">
+        <v>487</v>
+      </c>
+      <c r="J5">
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <v>0.22439024390243903</v>
+      </c>
+      <c r="L5">
+        <v>1.2073958565382044E-2</v>
+      </c>
+      <c r="M5">
+        <v>282.88179398490439</v>
+      </c>
+      <c r="N5">
         <v>196.73142945313805</v>
       </c>
-      <c r="H5">
-        <v>181.30151341759782</v>
-      </c>
-      <c r="I5">
-        <v>1.0851063829787233</v>
-      </c>
-      <c r="J5">
-        <v>48</v>
-      </c>
-      <c r="K5">
-        <v>829.35798691028788</v>
-      </c>
-      <c r="L5">
-        <v>1014.5169793367708</v>
-      </c>
-      <c r="M5">
-        <v>36</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
       <c r="O5">
-        <v>6</v>
+        <v>1.4379084967320261</v>
       </c>
       <c r="P5">
-        <v>7</v>
-      </c>
-      <c r="Q5" t="s">
+        <v>1105.8106492137172</v>
+      </c>
+      <c r="Q5">
+        <v>1279.3972046135448</v>
+      </c>
+      <c r="R5">
+        <v>38</v>
+      </c>
+      <c r="S5">
+        <v>6</v>
+      </c>
+      <c r="T5">
+        <v>6</v>
+      </c>
+      <c r="U5">
+        <v>7</v>
+      </c>
+      <c r="V5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1009,42 +1097,57 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>278.84046721372067</v>
+        <v>2329</v>
       </c>
       <c r="H6">
-        <v>326.66149183115249</v>
+        <v>2377</v>
       </c>
       <c r="I6">
-        <v>0.8536067892503536</v>
+        <v>3095</v>
       </c>
       <c r="J6">
-        <v>458</v>
+        <v>395</v>
       </c>
       <c r="K6">
-        <v>1390.506024987063</v>
+        <v>0.12231371761397872</v>
       </c>
       <c r="L6">
-        <v>1707.9267391143637</v>
+        <v>9.0125414781738484E-3</v>
       </c>
       <c r="M6">
-        <v>352</v>
+        <v>279.53352554150956</v>
       </c>
       <c r="N6">
-        <v>5</v>
+        <v>269.59968950986911</v>
       </c>
       <c r="O6">
-        <v>6</v>
+        <v>1.0368466152527851</v>
       </c>
       <c r="P6">
-        <v>7</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1264.1383898868928</v>
+      </c>
+      <c r="Q6">
+        <v>1537.8964293634951</v>
+      </c>
+      <c r="R6">
+        <v>303</v>
+      </c>
+      <c r="S6">
+        <v>6</v>
+      </c>
+      <c r="T6">
+        <v>6</v>
+      </c>
+      <c r="U6">
+        <v>7</v>
+      </c>
+      <c r="V6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1062,42 +1165,57 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>278.84046721372067</v>
+        <v>2329</v>
       </c>
       <c r="H7">
-        <v>326.66149183115249</v>
+        <v>2377</v>
       </c>
       <c r="I7">
-        <v>0.8536067892503536</v>
+        <v>3095</v>
       </c>
       <c r="J7">
-        <v>458</v>
+        <v>395</v>
       </c>
       <c r="K7">
-        <v>1390.506024987063</v>
+        <v>0.12231371761397872</v>
       </c>
       <c r="L7">
-        <v>1707.9267391143637</v>
+        <v>9.0125414781738484E-3</v>
       </c>
       <c r="M7">
-        <v>352</v>
+        <v>279.53352554150956</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>269.59968950986911</v>
       </c>
       <c r="O7">
-        <v>6</v>
+        <v>1.0368466152527851</v>
       </c>
       <c r="P7">
-        <v>7</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1264.1383898868928</v>
+      </c>
+      <c r="Q7">
+        <v>1537.8964293634951</v>
+      </c>
+      <c r="R7">
+        <v>303</v>
+      </c>
+      <c r="S7">
+        <v>6</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>7</v>
+      </c>
+      <c r="V7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1115,42 +1233,57 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>278.84046721372067</v>
+        <v>2329</v>
       </c>
       <c r="H8">
-        <v>326.66149183115249</v>
+        <v>2377</v>
       </c>
       <c r="I8">
-        <v>0.8536067892503536</v>
+        <v>3095</v>
       </c>
       <c r="J8">
-        <v>458</v>
+        <v>395</v>
       </c>
       <c r="K8">
-        <v>1390.506024987063</v>
+        <v>0.12231371761397872</v>
       </c>
       <c r="L8">
-        <v>1707.9267391143637</v>
+        <v>9.0125414781738484E-3</v>
       </c>
       <c r="M8">
-        <v>352</v>
+        <v>279.53352554150956</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>269.59968950986911</v>
       </c>
       <c r="O8">
-        <v>6</v>
+        <v>1.0368466152527851</v>
       </c>
       <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1264.1383898868928</v>
+      </c>
+      <c r="Q8">
+        <v>1537.8964293634951</v>
+      </c>
+      <c r="R8">
+        <v>303</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1168,42 +1301,57 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>278.84046721372067</v>
+        <v>2329</v>
       </c>
       <c r="H9">
-        <v>326.66149183115249</v>
+        <v>2377</v>
       </c>
       <c r="I9">
-        <v>0.8536067892503536</v>
+        <v>3095</v>
       </c>
       <c r="J9">
-        <v>458</v>
+        <v>395</v>
       </c>
       <c r="K9">
-        <v>1390.506024987063</v>
+        <v>0.12231371761397872</v>
       </c>
       <c r="L9">
-        <v>1707.9267391143637</v>
+        <v>9.0125414781738484E-3</v>
       </c>
       <c r="M9">
-        <v>352</v>
+        <v>279.53352554150956</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>269.59968950986911</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>1.0368466152527851</v>
       </c>
       <c r="P9">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1264.1383898868928</v>
+      </c>
+      <c r="Q9">
+        <v>1537.8964293634951</v>
+      </c>
+      <c r="R9">
+        <v>303</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>6</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1221,42 +1369,57 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>278.84046721372067</v>
+        <v>2329</v>
       </c>
       <c r="H10">
-        <v>326.66149183115249</v>
+        <v>2377</v>
       </c>
       <c r="I10">
-        <v>0.8536067892503536</v>
+        <v>3095</v>
       </c>
       <c r="J10">
-        <v>458</v>
+        <v>395</v>
       </c>
       <c r="K10">
-        <v>1390.506024987063</v>
+        <v>0.12231371761397872</v>
       </c>
       <c r="L10">
-        <v>1707.9267391143637</v>
+        <v>9.0125414781738484E-3</v>
       </c>
       <c r="M10">
-        <v>352</v>
+        <v>279.53352554150956</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>269.59968950986911</v>
       </c>
       <c r="O10">
-        <v>6</v>
+        <v>1.0368466152527851</v>
       </c>
       <c r="P10">
-        <v>7</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1264.1383898868928</v>
+      </c>
+      <c r="Q10">
+        <v>1537.8964293634951</v>
+      </c>
+      <c r="R10">
+        <v>303</v>
+      </c>
+      <c r="S10">
+        <v>6</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1274,42 +1437,57 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
+        <v>758</v>
+      </c>
+      <c r="H11">
+        <v>284</v>
+      </c>
+      <c r="I11">
+        <v>494</v>
+      </c>
+      <c r="J11">
+        <v>39</v>
+      </c>
+      <c r="K11">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="L11">
+        <v>1.7549947945069654E-2</v>
+      </c>
+      <c r="M11">
+        <v>249</v>
+      </c>
+      <c r="N11">
         <v>181</v>
       </c>
-      <c r="H11">
-        <v>120</v>
-      </c>
-      <c r="I11">
-        <v>1.5083333333333333</v>
-      </c>
-      <c r="J11">
-        <v>19</v>
-      </c>
-      <c r="K11">
-        <v>1063</v>
-      </c>
-      <c r="L11">
-        <v>1235.1605790120343</v>
-      </c>
-      <c r="M11">
-        <v>28</v>
-      </c>
-      <c r="N11">
-        <v>6</v>
-      </c>
       <c r="O11">
-        <v>6</v>
+        <v>1.3756906077348066</v>
       </c>
       <c r="P11">
-        <v>7</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1233.5332264705164</v>
+      </c>
+      <c r="Q11">
+        <v>1423.9334738281027</v>
+      </c>
+      <c r="R11">
+        <v>26</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>6</v>
+      </c>
+      <c r="U11">
+        <v>7</v>
+      </c>
+      <c r="V11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1327,42 +1505,57 @@
         <v>30917</v>
       </c>
       <c r="G12">
+        <v>410</v>
+      </c>
+      <c r="H12">
+        <v>170</v>
+      </c>
+      <c r="I12">
+        <v>178</v>
+      </c>
+      <c r="J12">
+        <v>18</v>
+      </c>
+      <c r="K12">
+        <v>0.30379746835443039</v>
+      </c>
+      <c r="L12">
+        <v>1.6553933784264861E-2</v>
+      </c>
+      <c r="M12">
+        <v>278.16411682892908</v>
+      </c>
+      <c r="N12">
         <v>271.69518387941906</v>
       </c>
-      <c r="H12">
-        <v>168.19225668725943</v>
-      </c>
-      <c r="I12">
-        <v>1.6153846153846152</v>
-      </c>
-      <c r="J12">
-        <v>13</v>
-      </c>
-      <c r="K12">
-        <v>1138.5321991137562</v>
-      </c>
-      <c r="L12">
-        <v>1264.6763916292007</v>
-      </c>
-      <c r="M12">
+      <c r="O12">
+        <v>1.0238095238095239</v>
+      </c>
+      <c r="P12">
+        <v>1326.1312546495456</v>
+      </c>
+      <c r="Q12">
+        <v>1500.792444286315</v>
+      </c>
+      <c r="R12">
         <v>26</v>
       </c>
-      <c r="N12">
-        <v>6</v>
-      </c>
-      <c r="O12">
-        <v>6</v>
-      </c>
-      <c r="P12">
-        <v>7</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <v>7</v>
+      </c>
+      <c r="V12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1380,42 +1573,57 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>186.50088809946715</v>
+        <v>1163</v>
       </c>
       <c r="H13">
-        <v>95.47069271758437</v>
+        <v>399</v>
       </c>
       <c r="I13">
-        <v>1.9534883720930234</v>
+        <v>779</v>
       </c>
       <c r="J13">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>964.69804618117234</v>
+        <v>0.33476394849785407</v>
       </c>
       <c r="L13">
-        <v>1031.3055062166961</v>
+        <v>1.4722457030149337E-2</v>
       </c>
       <c r="M13">
-        <v>60</v>
+        <v>257.5488454706927</v>
       </c>
       <c r="N13">
-        <v>6</v>
+        <v>185.39076376554172</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>1.3892215568862276</v>
       </c>
       <c r="P13">
-        <v>7</v>
-      </c>
-      <c r="Q13" t="s">
+        <v>1307.7264653641207</v>
+      </c>
+      <c r="Q13">
+        <v>1417.6287744227354</v>
+      </c>
+      <c r="R13">
+        <v>67</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1433,42 +1641,57 @@
         <v>32051</v>
       </c>
       <c r="G14">
+        <v>375</v>
+      </c>
+      <c r="H14">
+        <v>110</v>
+      </c>
+      <c r="I14">
+        <v>315</v>
+      </c>
+      <c r="J14">
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <v>0.22142857142857142</v>
+      </c>
+      <c r="L14">
+        <v>9.6767099186276673E-3</v>
+      </c>
+      <c r="M14">
         <v>168.48148263704721</v>
       </c>
-      <c r="H14">
-        <v>152.88134535583913</v>
-      </c>
-      <c r="I14">
-        <v>1.1020408163265307</v>
-      </c>
-      <c r="J14">
-        <v>20</v>
-      </c>
-      <c r="K14">
-        <v>1756.5754578640292</v>
-      </c>
-      <c r="L14">
-        <v>1943.7771052385262</v>
-      </c>
-      <c r="M14">
-        <v>29</v>
-      </c>
       <c r="N14">
-        <v>6</v>
+        <v>174.72153754953044</v>
       </c>
       <c r="O14">
-        <v>7</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="P14">
-        <v>7</v>
-      </c>
-      <c r="Q14" t="s">
+        <v>1326.0116689026863</v>
+      </c>
+      <c r="Q14">
+        <v>1531.9334810146329</v>
+      </c>
+      <c r="R14">
+        <v>13</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14">
+        <v>7</v>
+      </c>
+      <c r="U14">
+        <v>7</v>
+      </c>
+      <c r="V14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1486,42 +1709,57 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>177.41056606642758</v>
+        <v>634</v>
       </c>
       <c r="H15">
-        <v>172.34169275024394</v>
+        <v>162</v>
       </c>
       <c r="I15">
-        <v>1.0294117647058822</v>
+        <v>452</v>
       </c>
       <c r="J15">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>1328.0448088401151</v>
+        <v>0.24198250728862974</v>
       </c>
       <c r="L15">
-        <v>1487.7143182998998</v>
+        <v>1.6739963115335509E-2</v>
       </c>
       <c r="M15">
-        <v>28</v>
+        <v>235.70260920253949</v>
       </c>
       <c r="N15">
-        <v>6</v>
+        <v>174.87612940833577</v>
       </c>
       <c r="O15">
-        <v>6</v>
+        <v>1.3478260869565215</v>
       </c>
       <c r="P15">
-        <v>7</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1606.8328412302153</v>
+      </c>
+      <c r="Q15">
+        <v>1804.5189005613777</v>
+      </c>
+      <c r="R15">
+        <v>35</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>7</v>
+      </c>
+      <c r="U15">
+        <v>7</v>
+      </c>
+      <c r="V15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1539,42 +1777,57 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>360.41779041828079</v>
+        <v>1837</v>
       </c>
       <c r="H16">
-        <v>518.15165334510209</v>
+        <v>851</v>
       </c>
       <c r="I16">
-        <v>0.69558359621451105</v>
+        <v>1460</v>
       </c>
       <c r="J16">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="K16">
-        <v>2187.0249595449422</v>
+        <v>0.25260115606936417</v>
       </c>
       <c r="L16">
-        <v>2562.1536801843768</v>
+        <v>8.91680120865611E-3</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>344.07231239477596</v>
       </c>
       <c r="N16">
-        <v>6</v>
+        <v>351.42777750535316</v>
       </c>
       <c r="O16">
-        <v>7</v>
+        <v>0.97906976744186036</v>
       </c>
       <c r="P16">
-        <v>7</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1888.7199856159793</v>
+      </c>
+      <c r="Q16">
+        <v>2168.2276598179114</v>
+      </c>
+      <c r="R16">
+        <v>82</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <v>7</v>
+      </c>
+      <c r="V16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1592,42 +1845,57 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>407.11764955993033</v>
+        <v>1427</v>
       </c>
       <c r="H17">
-        <v>443.25864194906239</v>
+        <v>757</v>
       </c>
       <c r="I17">
-        <v>0.91846522781774609</v>
+        <v>949</v>
       </c>
       <c r="J17">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K17">
-        <v>2004.7621072324503</v>
+        <v>0.30161166538756717</v>
       </c>
       <c r="L17">
-        <v>2323.6532165483227</v>
+        <v>9.9002202928599198E-3</v>
       </c>
       <c r="M17">
-        <v>84</v>
+        <v>401.80279773799907</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>402.86576810238535</v>
       </c>
       <c r="O17">
-        <v>7</v>
+        <v>0.99736147757255933</v>
       </c>
       <c r="P17">
-        <v>7</v>
-      </c>
-      <c r="Q17" t="s">
+        <v>1813.4274416429269</v>
+      </c>
+      <c r="Q17">
+        <v>2116.3739954930056</v>
+      </c>
+      <c r="R17">
+        <v>97</v>
+      </c>
+      <c r="S17">
+        <v>6</v>
+      </c>
+      <c r="T17">
+        <v>7</v>
+      </c>
+      <c r="U17">
+        <v>7</v>
+      </c>
+      <c r="V17" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1645,42 +1913,57 @@
         <v>31868</v>
       </c>
       <c r="G18">
+        <v>442</v>
+      </c>
+      <c r="H18">
+        <v>103</v>
+      </c>
+      <c r="I18">
+        <v>231</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>0.19718309859154928</v>
+      </c>
+      <c r="L18">
+        <v>1.5446363415227439E-2</v>
+      </c>
+      <c r="M18">
+        <v>160.0351449730137</v>
+      </c>
+      <c r="N18">
         <v>163.1730889920924</v>
       </c>
-      <c r="H18">
-        <v>160.0351449730137</v>
-      </c>
-      <c r="I18">
-        <v>1.0196078431372548</v>
-      </c>
-      <c r="J18">
-        <v>13</v>
-      </c>
-      <c r="K18">
-        <v>1129.6598468683319</v>
-      </c>
-      <c r="L18">
-        <v>1252.039663612401</v>
-      </c>
-      <c r="M18">
+      <c r="O18">
+        <v>0.98076923076923073</v>
+      </c>
+      <c r="P18">
+        <v>1386.9712564327854</v>
+      </c>
+      <c r="Q18">
+        <v>1575.2478975775073</v>
+      </c>
+      <c r="R18">
         <v>27</v>
       </c>
-      <c r="N18">
-        <v>6</v>
-      </c>
-      <c r="O18">
-        <v>6</v>
-      </c>
-      <c r="P18">
-        <v>7</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <v>6</v>
+      </c>
+      <c r="U18">
+        <v>7</v>
+      </c>
+      <c r="V18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1698,42 +1981,57 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>339.90558178283811</v>
+        <v>790</v>
       </c>
       <c r="H19">
-        <v>419.88336573174121</v>
+        <v>331</v>
       </c>
       <c r="I19">
-        <v>0.80952380952380953</v>
+        <v>554</v>
       </c>
       <c r="J19">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>2059.4279366842543</v>
+        <v>0.31778929188255611</v>
       </c>
       <c r="L19">
-        <v>2286.031657872813</v>
+        <v>1.0216441097477488E-2</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>397.66731463482364</v>
       </c>
       <c r="N19">
-        <v>6</v>
+        <v>337.68397667314633</v>
       </c>
       <c r="O19">
-        <v>7</v>
+        <v>1.1776315789473684</v>
       </c>
       <c r="P19">
-        <v>7</v>
-      </c>
-      <c r="Q19" t="s">
+        <v>1966.120522077201</v>
+      </c>
+      <c r="Q19">
+        <v>2226.0483199111359</v>
+      </c>
+      <c r="R19">
+        <v>27</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>7</v>
+      </c>
+      <c r="U19">
+        <v>7</v>
+      </c>
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -1751,42 +2049,57 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>230.69911511563188</v>
+        <v>824</v>
       </c>
       <c r="H20">
-        <v>219.40615143864289</v>
+        <v>297</v>
       </c>
       <c r="I20">
-        <v>1.0514705882352942</v>
+        <v>627</v>
       </c>
       <c r="J20">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K20">
-        <v>1295.4642618031637</v>
+        <v>0.32482993197278914</v>
       </c>
       <c r="L20">
-        <v>1581.0149147784562</v>
+        <v>1.3659647125782584E-2</v>
       </c>
       <c r="M20">
-        <v>56</v>
+        <v>300.07017770284983</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>179.07413830653942</v>
       </c>
       <c r="O20">
-        <v>6</v>
+        <v>1.6756756756756757</v>
       </c>
       <c r="P20">
-        <v>7</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1490.6712053625445</v>
+      </c>
+      <c r="Q20">
+        <v>1761.7023336102798</v>
+      </c>
+      <c r="R20">
+        <v>60</v>
+      </c>
+      <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>7</v>
+      </c>
+      <c r="U20">
+        <v>7</v>
+      </c>
+      <c r="V20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -1804,42 +2117,57 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>388.59556494192185</v>
+        <v>1097</v>
       </c>
       <c r="H21">
-        <v>310.87645195353747</v>
+        <v>515</v>
       </c>
       <c r="I21">
-        <v>1.25</v>
+        <v>980</v>
       </c>
       <c r="J21">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>2245.4065469904963</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L21">
-        <v>2483.6325237592396</v>
+        <v>2.4476680999858242E-2</v>
       </c>
       <c r="M21">
-        <v>55</v>
+        <v>486.58922914466734</v>
       </c>
       <c r="N21">
-        <v>6</v>
+        <v>383.52692713833159</v>
       </c>
       <c r="O21">
-        <v>7</v>
+        <v>1.2687224669603523</v>
       </c>
       <c r="P21">
-        <v>7</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2525.8711721224918</v>
+      </c>
+      <c r="Q21">
+        <v>2809.7148891235479</v>
+      </c>
+      <c r="R21">
+        <v>50</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>7</v>
+      </c>
+      <c r="U21">
+        <v>7</v>
+      </c>
+      <c r="V21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1857,42 +2185,57 @@
         <v>75235</v>
       </c>
       <c r="G22">
+        <v>346</v>
+      </c>
+      <c r="H22">
+        <v>124</v>
+      </c>
+      <c r="I22">
+        <v>582</v>
+      </c>
+      <c r="J22">
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <v>0.14426877470355731</v>
+      </c>
+      <c r="L22">
+        <v>1.0759089942589836E-2</v>
+      </c>
+      <c r="M22">
+        <v>97.029308167741078</v>
+      </c>
+      <c r="N22">
         <v>67.787598856914997</v>
       </c>
-      <c r="H22">
-        <v>69.116767461952549</v>
-      </c>
-      <c r="I22">
-        <v>0.98076923076923073</v>
-      </c>
-      <c r="J22">
-        <v>7</v>
-      </c>
-      <c r="K22">
-        <v>600.78420947697214</v>
-      </c>
-      <c r="L22">
-        <v>628.69675018276064</v>
-      </c>
-      <c r="M22">
-        <v>34</v>
-      </c>
-      <c r="N22">
+      <c r="O22">
+        <v>1.4313725490196079</v>
+      </c>
+      <c r="P22">
+        <v>938.39303515650965</v>
+      </c>
+      <c r="Q22">
+        <v>974.28058749252352</v>
+      </c>
+      <c r="R22">
+        <v>18</v>
+      </c>
+      <c r="S22">
         <v>5</v>
       </c>
-      <c r="O22">
+      <c r="T22">
         <v>5</v>
       </c>
-      <c r="P22">
-        <v>7</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U22">
+        <v>7</v>
+      </c>
+      <c r="V22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -1910,42 +2253,57 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>214.33171273651453</v>
+        <v>1756</v>
       </c>
       <c r="H23">
-        <v>171.07210099152996</v>
+        <v>478</v>
       </c>
       <c r="I23">
-        <v>1.2528735632183907</v>
+        <v>1205</v>
       </c>
       <c r="J23">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K23">
-        <v>1928.0022416344268</v>
+        <v>0.20730397422126745</v>
       </c>
       <c r="L23">
-        <v>2078.4277097476688</v>
+        <v>1.72311348781937E-2</v>
       </c>
       <c r="M23">
-        <v>60</v>
+        <v>259.55767046990752</v>
       </c>
       <c r="N23">
-        <v>6</v>
+        <v>210.39902075969778</v>
       </c>
       <c r="O23">
-        <v>6</v>
+        <v>1.233644859813084</v>
       </c>
       <c r="P23">
-        <v>7</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1726.4517778225668</v>
+      </c>
+      <c r="Q23">
+        <v>1879.8267649184213</v>
+      </c>
+      <c r="R23">
+        <v>53</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23">
+        <v>6</v>
+      </c>
+      <c r="U23">
+        <v>7</v>
+      </c>
+      <c r="V23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -1963,42 +2321,57 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>354.13707603355613</v>
+        <v>5118</v>
       </c>
       <c r="H24">
-        <v>382.10955980001029</v>
+        <v>2741</v>
       </c>
       <c r="I24">
-        <v>0.92679459843638956</v>
+        <v>3173</v>
       </c>
       <c r="J24">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K24">
-        <v>1594.4315746878897</v>
+        <v>0.29730651210364817</v>
       </c>
       <c r="L24">
-        <v>1811.1504294998356</v>
+        <v>1.1062882582081247E-2</v>
       </c>
       <c r="M24">
-        <v>180</v>
+        <v>368.25910667293107</v>
       </c>
       <c r="N24">
-        <v>5</v>
+        <v>376.13485452950556</v>
       </c>
       <c r="O24">
-        <v>6</v>
+        <v>0.97906137184115527</v>
       </c>
       <c r="P24">
-        <v>7</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1606.1094077166035</v>
+      </c>
+      <c r="Q24">
+        <v>1825.2724601392108</v>
+      </c>
+      <c r="R24">
+        <v>245</v>
+      </c>
+      <c r="S24">
+        <v>6</v>
+      </c>
+      <c r="T24">
+        <v>7</v>
+      </c>
+      <c r="U24">
+        <v>7</v>
+      </c>
+      <c r="V24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2016,42 +2389,57 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>354.13707603355613</v>
+        <v>5118</v>
       </c>
       <c r="H25">
-        <v>382.10955980001029</v>
+        <v>2741</v>
       </c>
       <c r="I25">
-        <v>0.92679459843638956</v>
+        <v>3173</v>
       </c>
       <c r="J25">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K25">
-        <v>1594.4315746878897</v>
+        <v>0.29730651210364817</v>
       </c>
       <c r="L25">
-        <v>1811.1504294998356</v>
+        <v>1.1062882582081247E-2</v>
       </c>
       <c r="M25">
-        <v>180</v>
+        <v>368.25910667293107</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>376.13485452950556</v>
       </c>
       <c r="O25">
-        <v>6</v>
+        <v>0.97906137184115527</v>
       </c>
       <c r="P25">
-        <v>7</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1606.1094077166035</v>
+      </c>
+      <c r="Q25">
+        <v>1825.2724601392108</v>
+      </c>
+      <c r="R25">
+        <v>245</v>
+      </c>
+      <c r="S25">
+        <v>6</v>
+      </c>
+      <c r="T25">
+        <v>7</v>
+      </c>
+      <c r="U25">
+        <v>7</v>
+      </c>
+      <c r="V25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2069,42 +2457,57 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>354.13707603355613</v>
+        <v>5118</v>
       </c>
       <c r="H26">
-        <v>382.10955980001029</v>
+        <v>2741</v>
       </c>
       <c r="I26">
-        <v>0.92679459843638956</v>
+        <v>3173</v>
       </c>
       <c r="J26">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K26">
-        <v>1594.4315746878897</v>
+        <v>0.29730651210364817</v>
       </c>
       <c r="L26">
-        <v>1811.1504294998356</v>
+        <v>1.1062882582081247E-2</v>
       </c>
       <c r="M26">
-        <v>180</v>
+        <v>368.25910667293107</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>376.13485452950556</v>
       </c>
       <c r="O26">
-        <v>6</v>
+        <v>0.97906137184115527</v>
       </c>
       <c r="P26">
-        <v>7</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1606.1094077166035</v>
+      </c>
+      <c r="Q26">
+        <v>1825.2724601392108</v>
+      </c>
+      <c r="R26">
+        <v>245</v>
+      </c>
+      <c r="S26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>7</v>
+      </c>
+      <c r="U26">
+        <v>7</v>
+      </c>
+      <c r="V26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2122,42 +2525,57 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>354.13707603355613</v>
+        <v>5118</v>
       </c>
       <c r="H27">
-        <v>382.10955980001029</v>
+        <v>2741</v>
       </c>
       <c r="I27">
-        <v>0.92679459843638956</v>
+        <v>3173</v>
       </c>
       <c r="J27">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K27">
-        <v>1594.4315746878897</v>
+        <v>0.29730651210364817</v>
       </c>
       <c r="L27">
-        <v>1811.1504294998356</v>
+        <v>1.1062882582081247E-2</v>
       </c>
       <c r="M27">
-        <v>180</v>
+        <v>368.25910667293107</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>376.13485452950556</v>
       </c>
       <c r="O27">
-        <v>6</v>
+        <v>0.97906137184115527</v>
       </c>
       <c r="P27">
-        <v>7</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1606.1094077166035</v>
+      </c>
+      <c r="Q27">
+        <v>1825.2724601392108</v>
+      </c>
+      <c r="R27">
+        <v>245</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>7</v>
+      </c>
+      <c r="U27">
+        <v>7</v>
+      </c>
+      <c r="V27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2175,42 +2593,57 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>354.13707603355613</v>
+        <v>5118</v>
       </c>
       <c r="H28">
-        <v>382.10955980001029</v>
+        <v>2741</v>
       </c>
       <c r="I28">
-        <v>0.92679459843638956</v>
+        <v>3173</v>
       </c>
       <c r="J28">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K28">
-        <v>1594.4315746878897</v>
+        <v>0.29730651210364817</v>
       </c>
       <c r="L28">
-        <v>1811.1504294998356</v>
+        <v>1.1062882582081247E-2</v>
       </c>
       <c r="M28">
-        <v>180</v>
+        <v>368.25910667293107</v>
       </c>
       <c r="N28">
-        <v>5</v>
+        <v>376.13485452950556</v>
       </c>
       <c r="O28">
-        <v>6</v>
+        <v>0.97906137184115527</v>
       </c>
       <c r="P28">
-        <v>7</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1606.1094077166035</v>
+      </c>
+      <c r="Q28">
+        <v>1825.2724601392108</v>
+      </c>
+      <c r="R28">
+        <v>245</v>
+      </c>
+      <c r="S28">
+        <v>6</v>
+      </c>
+      <c r="T28">
+        <v>7</v>
+      </c>
+      <c r="U28">
+        <v>7</v>
+      </c>
+      <c r="V28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2228,42 +2661,57 @@
         <v>22182</v>
       </c>
       <c r="G29">
+        <v>175</v>
+      </c>
+      <c r="H29">
+        <v>34</v>
+      </c>
+      <c r="I29">
+        <v>140</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>0.1</v>
+      </c>
+      <c r="L29">
+        <v>9.129893484576013E-3</v>
+      </c>
+      <c r="M29">
+        <v>58.60607699936886</v>
+      </c>
+      <c r="N29">
         <v>94.671355152826621</v>
       </c>
-      <c r="H29">
-        <v>85.655035614462179</v>
-      </c>
-      <c r="I29">
-        <v>1.1052631578947369</v>
-      </c>
-      <c r="J29">
+      <c r="O29">
+        <v>0.61904761904761907</v>
+      </c>
+      <c r="P29">
+        <v>788.92795960688841</v>
+      </c>
+      <c r="Q29">
+        <v>883.59931475971496</v>
+      </c>
+      <c r="R29">
+        <v>19</v>
+      </c>
+      <c r="S29">
         <v>5</v>
       </c>
-      <c r="K29">
-        <v>766.38716076097728</v>
-      </c>
-      <c r="L29">
-        <v>834.00955729871066</v>
-      </c>
-      <c r="M29">
-        <v>21</v>
-      </c>
-      <c r="N29">
-        <v>6</v>
-      </c>
-      <c r="O29">
-        <v>6</v>
-      </c>
-      <c r="P29">
-        <v>7</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T29">
+        <v>6</v>
+      </c>
+      <c r="U29">
+        <v>7</v>
+      </c>
+      <c r="V29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2281,42 +2729,57 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>118.49061189767272</v>
+        <v>389</v>
       </c>
       <c r="H30">
-        <v>115.45239107978368</v>
+        <v>102</v>
       </c>
       <c r="I30">
-        <v>1.0263157894736843</v>
+        <v>275</v>
       </c>
       <c r="J30">
         <v>12</v>
       </c>
       <c r="K30">
-        <v>865.89293309837763</v>
+        <v>0.1855072463768116</v>
       </c>
       <c r="L30">
-        <v>975.26888254238327</v>
+        <v>1.5136226034308779E-2</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>191.40791152700979</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>118.49061189767272</v>
       </c>
       <c r="O30">
-        <v>6</v>
+        <v>1.6153846153846154</v>
       </c>
       <c r="P30">
-        <v>7</v>
-      </c>
-      <c r="Q30" t="s">
+        <v>1181.8678981588382</v>
+      </c>
+      <c r="Q30">
+        <v>1291.2438476028437</v>
+      </c>
+      <c r="R30">
+        <v>24</v>
+      </c>
+      <c r="S30">
+        <v>6</v>
+      </c>
+      <c r="T30">
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>7</v>
+      </c>
+      <c r="V30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2334,42 +2797,57 @@
         <v>110824</v>
       </c>
       <c r="G31">
+        <v>665</v>
+      </c>
+      <c r="H31">
+        <v>234</v>
+      </c>
+      <c r="I31">
+        <v>671</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>0.15501519756838905</v>
+      </c>
+      <c r="L31">
+        <v>8.8165835738651267E-3</v>
+      </c>
+      <c r="M31">
+        <v>101.0611419909045</v>
+      </c>
+      <c r="N31">
         <v>110.0844582400924</v>
       </c>
-      <c r="H31">
-        <v>147.08005486176279</v>
-      </c>
-      <c r="I31">
-        <v>0.74846625766871167</v>
-      </c>
-      <c r="J31">
-        <v>67</v>
-      </c>
-      <c r="K31">
-        <v>875.26167617122644</v>
-      </c>
-      <c r="L31">
-        <v>1056.6303327799033</v>
-      </c>
-      <c r="M31">
+      <c r="O31">
+        <v>0.91803278688524592</v>
+      </c>
+      <c r="P31">
+        <v>751.64224355735212</v>
+      </c>
+      <c r="Q31">
+        <v>886.99198729517082</v>
+      </c>
+      <c r="R31">
+        <v>98</v>
+      </c>
+      <c r="S31">
+        <v>6</v>
+      </c>
+      <c r="T31">
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <v>7</v>
+      </c>
+      <c r="V31" t="s">
         <v>107</v>
       </c>
-      <c r="N31">
-        <v>6</v>
-      </c>
-      <c r="O31">
-        <v>6</v>
-      </c>
-      <c r="P31">
-        <v>7</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2387,42 +2865,57 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>139.45759895555159</v>
+        <v>160</v>
       </c>
       <c r="H32">
-        <v>77.14675686902855</v>
+        <v>104</v>
       </c>
       <c r="I32">
-        <v>1.8076923076923075</v>
+        <v>163</v>
       </c>
       <c r="J32">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K32">
-        <v>540.02729808319987</v>
+        <v>0.16797900262467191</v>
       </c>
       <c r="L32">
-        <v>593.43659130021956</v>
+        <v>7.3433256211648725E-3</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>175.06379443356477</v>
       </c>
       <c r="N32">
-        <v>6</v>
+        <v>133.52323304254941</v>
       </c>
       <c r="O32">
-        <v>6</v>
+        <v>1.3111111111111111</v>
       </c>
       <c r="P32">
-        <v>7</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+        <v>792.23784938579308</v>
+      </c>
+      <c r="Q32">
+        <v>899.05643581983259</v>
+      </c>
+      <c r="R32">
+        <v>19</v>
+      </c>
+      <c r="S32">
+        <v>6</v>
+      </c>
+      <c r="T32">
+        <v>6</v>
+      </c>
+      <c r="U32">
+        <v>7</v>
+      </c>
+      <c r="V32" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2440,42 +2933,57 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>339.0510721625231</v>
+        <v>1073</v>
       </c>
       <c r="H33">
-        <v>312.75731554583763</v>
+        <v>512</v>
       </c>
       <c r="I33">
-        <v>1.084070796460177</v>
+        <v>821</v>
       </c>
       <c r="J33">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>1551.3316403844424</v>
+        <v>0.27197518097207857</v>
       </c>
       <c r="L33">
-        <v>1767.217221026702</v>
+        <v>1.6951678402444024E-2</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>365.34482877920857</v>
       </c>
       <c r="N33">
-        <v>6</v>
+        <v>343.20271794410502</v>
       </c>
       <c r="O33">
-        <v>6</v>
+        <v>1.064516129032258</v>
       </c>
       <c r="P33">
-        <v>7</v>
-      </c>
-      <c r="Q33" t="s">
+        <v>1844.7146089495645</v>
+      </c>
+      <c r="Q33">
+        <v>2089.6617100628973</v>
+      </c>
+      <c r="R33">
+        <v>41</v>
+      </c>
+      <c r="S33">
+        <v>6</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>7</v>
+      </c>
+      <c r="V33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2493,42 +3001,57 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>201.45373369994283</v>
+        <v>726</v>
       </c>
       <c r="H34">
-        <v>130.67269212969265</v>
+        <v>295</v>
       </c>
       <c r="I34">
-        <v>1.5416666666666667</v>
+        <v>685</v>
       </c>
       <c r="J34">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K34">
-        <v>1456.4560476955326</v>
+        <v>0.20544554455445543</v>
       </c>
       <c r="L34">
-        <v>1644.2980426319659</v>
+        <v>2.0553244994680336E-2</v>
       </c>
       <c r="M34">
-        <v>36</v>
+        <v>202.81490757629379</v>
       </c>
       <c r="N34">
-        <v>6</v>
+        <v>198.73138594724091</v>
       </c>
       <c r="O34">
-        <v>6</v>
+        <v>1.0205479452054793</v>
       </c>
       <c r="P34">
-        <v>7</v>
-      </c>
-      <c r="Q34" t="s">
+        <v>1333.9503988239458</v>
+      </c>
+      <c r="Q34">
+        <v>1538.1264802765904</v>
+      </c>
+      <c r="R34">
+        <v>35</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>6</v>
+      </c>
+      <c r="U34">
+        <v>7</v>
+      </c>
+      <c r="V34" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -2546,42 +3069,57 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>187.02151420152578</v>
+        <v>326</v>
       </c>
       <c r="H35">
-        <v>226.04039126515343</v>
+        <v>334</v>
       </c>
       <c r="I35">
-        <v>0.82738095238095244</v>
+        <v>456</v>
       </c>
       <c r="J35">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K35">
-        <v>1097.9104718593167</v>
+        <v>0.15290269828291086</v>
       </c>
       <c r="L35">
-        <v>1223.0399741668125</v>
+        <v>1.501779359430605E-2</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>250.25900461499131</v>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>199.13082087644469</v>
       </c>
       <c r="O35">
-        <v>6</v>
+        <v>1.2567567567567568</v>
       </c>
       <c r="P35">
-        <v>7</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1062.9280303539954</v>
+      </c>
+      <c r="Q35">
+        <v>1216.3125815696353</v>
+      </c>
+      <c r="R35">
+        <v>39</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+      <c r="U35">
+        <v>7</v>
+      </c>
+      <c r="V35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -2599,42 +3137,57 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>446.34515975004666</v>
+        <v>1896</v>
       </c>
       <c r="H36">
-        <v>411.05275176981047</v>
+        <v>985</v>
       </c>
       <c r="I36">
-        <v>1.0858585858585856</v>
+        <v>1007</v>
       </c>
       <c r="J36">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K36">
-        <v>1833.1291909734475</v>
+        <v>0.28178178178178176</v>
       </c>
       <c r="L36">
-        <v>2116.5064668147561</v>
+        <v>1.2348734192877825E-2</v>
       </c>
       <c r="M36">
-        <v>70</v>
+        <v>580.2487076750607</v>
       </c>
       <c r="N36">
-        <v>6</v>
+        <v>442.19311175237186</v>
       </c>
       <c r="O36">
-        <v>7</v>
+        <v>1.312206572769953</v>
       </c>
       <c r="P36">
-        <v>7</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2067.7199028420769</v>
+      </c>
+      <c r="Q36">
+        <v>2382.2375386659469</v>
+      </c>
+      <c r="R36">
+        <v>78</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>7</v>
+      </c>
+      <c r="U36">
+        <v>7</v>
+      </c>
+      <c r="V36" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -2652,42 +3205,57 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>16.889752142887303</v>
+        <v>73</v>
       </c>
       <c r="H37">
-        <v>84.448760714436517</v>
+        <v>6</v>
       </c>
       <c r="I37">
-        <v>0.2</v>
+        <v>70</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K37">
-        <v>574.25157285816829</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L37">
-        <v>675.59008571549214</v>
+        <v>1.4041095890410958E-2</v>
       </c>
       <c r="M37">
-        <v>7</v>
+        <v>50.669256428661903</v>
       </c>
       <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>641.81058142971756</v>
+      </c>
+      <c r="Q37">
+        <v>692.47983785837937</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
         <v>5</v>
       </c>
-      <c r="O37">
-        <v>6</v>
-      </c>
-      <c r="P37">
-        <v>7</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T37">
+        <v>5</v>
+      </c>
+      <c r="U37">
+        <v>7</v>
+      </c>
+      <c r="V37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -2705,42 +3273,57 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>193.3065353868389</v>
+        <v>1130</v>
       </c>
       <c r="H38">
-        <v>197.82304322297998</v>
+        <v>470</v>
       </c>
       <c r="I38">
-        <v>0.97716894977168955</v>
+        <v>670</v>
       </c>
       <c r="J38">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K38">
-        <v>958.40296282914062</v>
+        <v>0.25023084025854109</v>
       </c>
       <c r="L38">
-        <v>1110.1576261234814</v>
+        <v>9.8646957143708643E-3</v>
       </c>
       <c r="M38">
-        <v>63</v>
+        <v>235.76170904656522</v>
       </c>
       <c r="N38">
-        <v>5</v>
+        <v>188.7900275506978</v>
       </c>
       <c r="O38">
-        <v>6</v>
+        <v>1.2488038277511964</v>
       </c>
       <c r="P38">
-        <v>7</v>
-      </c>
-      <c r="Q38" t="s">
+        <v>1029.7637866401699</v>
+      </c>
+      <c r="Q38">
+        <v>1170.6788311277719</v>
+      </c>
+      <c r="R38">
+        <v>48</v>
+      </c>
+      <c r="S38">
+        <v>6</v>
+      </c>
+      <c r="T38">
+        <v>6</v>
+      </c>
+      <c r="U38">
+        <v>7</v>
+      </c>
+      <c r="V38" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -2758,42 +3341,57 @@
         <v>26356</v>
       </c>
       <c r="G39">
+        <v>362</v>
+      </c>
+      <c r="H39">
+        <v>163</v>
+      </c>
+      <c r="I39">
+        <v>137</v>
+      </c>
+      <c r="J39">
+        <v>15</v>
+      </c>
+      <c r="K39">
+        <v>0.24866310160427807</v>
+      </c>
+      <c r="L39">
+        <v>9.3495934959349596E-3</v>
+      </c>
+      <c r="M39">
+        <v>364.24343602974653</v>
+      </c>
+      <c r="N39">
         <v>254.21156472909394</v>
       </c>
-      <c r="H39">
-        <v>163.15070572165729</v>
-      </c>
-      <c r="I39">
-        <v>1.558139534883721</v>
-      </c>
-      <c r="J39">
-        <v>10</v>
-      </c>
-      <c r="K39">
-        <v>906.81438761572326</v>
-      </c>
-      <c r="L39">
-        <v>1020.640461375019</v>
-      </c>
-      <c r="M39">
-        <v>22</v>
-      </c>
-      <c r="N39">
-        <v>6</v>
-      </c>
       <c r="O39">
-        <v>6</v>
+        <v>1.4328358208955223</v>
       </c>
       <c r="P39">
-        <v>7</v>
-      </c>
-      <c r="Q39" t="s">
+        <v>1373.5012900288359</v>
+      </c>
+      <c r="Q39">
+        <v>1544.2404006677798</v>
+      </c>
+      <c r="R39">
+        <v>27</v>
+      </c>
+      <c r="S39">
+        <v>6</v>
+      </c>
+      <c r="T39">
+        <v>6</v>
+      </c>
+      <c r="U39">
+        <v>7</v>
+      </c>
+      <c r="V39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -2811,42 +3409,57 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>46.278934307850662</v>
+        <v>402</v>
       </c>
       <c r="H40">
-        <v>38.29980770304882</v>
+        <v>83</v>
       </c>
       <c r="I40">
-        <v>1.2083333333333335</v>
+        <v>245</v>
       </c>
       <c r="J40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K40">
-        <v>493.11002417675365</v>
+        <v>0.1020066889632107</v>
       </c>
       <c r="L40">
-        <v>521.83487995404016</v>
+        <v>8.8834133056672291E-3</v>
       </c>
       <c r="M40">
-        <v>12</v>
+        <v>89.366217973780593</v>
       </c>
       <c r="N40">
-        <v>5</v>
+        <v>43.087283665929931</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>2.074074074074074</v>
       </c>
       <c r="P40">
-        <v>7</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+        <v>641.52177902606786</v>
+      </c>
+      <c r="Q40">
+        <v>665.45915884047338</v>
+      </c>
+      <c r="R40">
+        <v>18</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>6</v>
+      </c>
+      <c r="U40">
+        <v>7</v>
+      </c>
+      <c r="V40" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -2864,42 +3477,57 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>152.88437732111908</v>
+        <v>680</v>
       </c>
       <c r="H41">
-        <v>163.40678385739045</v>
+        <v>432</v>
       </c>
       <c r="I41">
-        <v>0.93560606060606044</v>
+        <v>620</v>
       </c>
       <c r="J41">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>769.37360732854665</v>
+        <v>9.4955489614243327E-2</v>
       </c>
       <c r="L41">
-        <v>895.64248576380294</v>
+        <v>3.7135706789375961E-3</v>
       </c>
       <c r="M41">
-        <v>68</v>
+        <v>115.12750680861599</v>
       </c>
       <c r="N41">
-        <v>6</v>
+        <v>152.26541223075017</v>
       </c>
       <c r="O41">
-        <v>6</v>
+        <v>0.75609756097560976</v>
       </c>
       <c r="P41">
-        <v>7</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+        <v>651.15127506808619</v>
+      </c>
+      <c r="Q41">
+        <v>745.85293389452841</v>
+      </c>
+      <c r="R41">
+        <v>117</v>
+      </c>
+      <c r="S41">
+        <v>6</v>
+      </c>
+      <c r="T41">
+        <v>6</v>
+      </c>
+      <c r="U41">
+        <v>7</v>
+      </c>
+      <c r="V41" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -2917,42 +3545,57 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>410.84831384335013</v>
+        <v>1189</v>
       </c>
       <c r="H42">
-        <v>436.4264189853485</v>
+        <v>551</v>
       </c>
       <c r="I42">
-        <v>0.9413919413919416</v>
+        <v>833</v>
       </c>
       <c r="J42">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="K42">
-        <v>2186.9279896408675</v>
+        <v>0.31013916500994038</v>
       </c>
       <c r="L42">
-        <v>2460.2939883459758</v>
+        <v>1.5757124231700503E-2</v>
       </c>
       <c r="M42">
-        <v>92</v>
+        <v>493.97715555484507</v>
       </c>
       <c r="N42">
-        <v>6</v>
+        <v>386.86884027272657</v>
       </c>
       <c r="O42">
-        <v>7</v>
+        <v>1.2768595041322313</v>
       </c>
       <c r="P42">
-        <v>7</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2212.5060947828656</v>
+      </c>
+      <c r="Q42">
+        <v>2452.3008304891014</v>
+      </c>
+      <c r="R42">
+        <v>77</v>
+      </c>
+      <c r="S42">
+        <v>6</v>
+      </c>
+      <c r="T42">
+        <v>7</v>
+      </c>
+      <c r="U42">
+        <v>7</v>
+      </c>
+      <c r="V42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -2970,42 +3613,57 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>123.73700132010114</v>
+        <v>1264</v>
       </c>
       <c r="H43">
-        <v>151.07424579779791</v>
+        <v>315</v>
       </c>
       <c r="I43">
-        <v>0.81904761904761902</v>
+        <v>1083</v>
       </c>
       <c r="J43">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="K43">
-        <v>1098.5255873011306</v>
+        <v>0.18070953436807094</v>
       </c>
       <c r="L43">
-        <v>1279.8146822584881</v>
+        <v>9.260757763751775E-3</v>
       </c>
       <c r="M43">
-        <v>32</v>
+        <v>108.62957674032135</v>
       </c>
       <c r="N43">
-        <v>6</v>
+        <v>117.98179195637552</v>
       </c>
       <c r="O43">
-        <v>6</v>
+        <v>0.9207317073170731</v>
       </c>
       <c r="P43">
-        <v>7</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1005.7228363110546</v>
+      </c>
+      <c r="Q43">
+        <v>1161.1134891316469</v>
+      </c>
+      <c r="R43">
+        <v>21</v>
+      </c>
+      <c r="S43">
+        <v>5</v>
+      </c>
+      <c r="T43">
+        <v>6</v>
+      </c>
+      <c r="U43">
+        <v>7</v>
+      </c>
+      <c r="V43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3023,42 +3681,57 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>254.40549164957838</v>
+        <v>440</v>
       </c>
       <c r="H44">
-        <v>199.57672189751409</v>
+        <v>178</v>
       </c>
       <c r="I44">
-        <v>1.2747252747252746</v>
+        <v>555</v>
       </c>
       <c r="J44">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K44">
-        <v>1938.7452984329936</v>
+        <v>0.24372759856630824</v>
       </c>
       <c r="L44">
-        <v>2221.6617503536459</v>
+        <v>1.3009111867383906E-2</v>
       </c>
       <c r="M44">
-        <v>76</v>
+        <v>138.16849977520206</v>
       </c>
       <c r="N44">
-        <v>6</v>
+        <v>252.21234085949581</v>
       </c>
       <c r="O44">
-        <v>7</v>
+        <v>0.5478260869565218</v>
       </c>
       <c r="P44">
-        <v>7</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1607.5795291305255</v>
+      </c>
+      <c r="Q44">
+        <v>1857.5987191999386</v>
+      </c>
+      <c r="R44">
+        <v>51</v>
+      </c>
+      <c r="S44">
+        <v>5</v>
+      </c>
+      <c r="T44">
+        <v>7</v>
+      </c>
+      <c r="U44">
+        <v>7</v>
+      </c>
+      <c r="V44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3076,42 +3749,57 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>222.58039757464118</v>
+        <v>333</v>
       </c>
       <c r="H45">
-        <v>305.47240770588689</v>
+        <v>274</v>
       </c>
       <c r="I45">
-        <v>0.72864321608040195</v>
+        <v>511</v>
       </c>
       <c r="J45">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K45">
-        <v>1030.0099777419603</v>
+        <v>0.15450643776824036</v>
       </c>
       <c r="L45">
-        <v>1200.3991096784096</v>
+        <v>2.4228343843345504E-2</v>
       </c>
       <c r="M45">
-        <v>37</v>
+        <v>211.83513700207229</v>
       </c>
       <c r="N45">
+        <v>208.76506255276692</v>
+      </c>
+      <c r="O45">
+        <v>1.0147058823529411</v>
+      </c>
+      <c r="P45">
+        <v>1205.0042213523677</v>
+      </c>
+      <c r="Q45">
+        <v>1352.3677949190267</v>
+      </c>
+      <c r="R45">
+        <v>34</v>
+      </c>
+      <c r="S45">
         <v>5</v>
       </c>
-      <c r="O45">
-        <v>6</v>
-      </c>
-      <c r="P45">
-        <v>7</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T45">
+        <v>6</v>
+      </c>
+      <c r="U45">
+        <v>7</v>
+      </c>
+      <c r="V45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3129,42 +3817,57 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>391.70415190478087</v>
+        <v>961</v>
       </c>
       <c r="H46">
-        <v>399.6656184069106</v>
+        <v>535</v>
       </c>
       <c r="I46">
-        <v>0.98007968127490031</v>
+        <v>533</v>
       </c>
       <c r="J46">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="K46">
-        <v>1592.2933004259385</v>
+        <v>0.30745341614906835</v>
       </c>
       <c r="L46">
-        <v>1926.6748935153853</v>
+        <v>1.2917169280257337E-2</v>
       </c>
       <c r="M46">
-        <v>57</v>
+        <v>461.76505712352213</v>
       </c>
       <c r="N46">
-        <v>6</v>
+        <v>390.11185860435489</v>
       </c>
       <c r="O46">
-        <v>7</v>
+        <v>1.1836734693877551</v>
       </c>
       <c r="P46">
-        <v>7</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1700.5692448549023</v>
+      </c>
+      <c r="Q46">
+        <v>2163.9265952788501</v>
+      </c>
+      <c r="R46">
+        <v>55</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>7</v>
+      </c>
+      <c r="U46">
+        <v>7</v>
+      </c>
+      <c r="V46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3182,42 +3885,57 @@
         <v>21471</v>
       </c>
       <c r="G47">
+        <v>210</v>
+      </c>
+      <c r="H47">
+        <v>102</v>
+      </c>
+      <c r="I47">
+        <v>91</v>
+      </c>
+      <c r="J47">
+        <v>13</v>
+      </c>
+      <c r="K47">
+        <v>0.23618090452261306</v>
+      </c>
+      <c r="L47">
+        <v>1.0032664489034065E-2</v>
+      </c>
+      <c r="M47">
+        <v>214.24246658283263</v>
+      </c>
+      <c r="N47">
         <v>260.81691583997019</v>
       </c>
-      <c r="H47">
-        <v>190.95524195426387</v>
-      </c>
-      <c r="I47">
-        <v>1.3658536585365855</v>
-      </c>
-      <c r="J47">
-        <v>11</v>
-      </c>
-      <c r="K47">
-        <v>898.8868706627544</v>
-      </c>
-      <c r="L47">
-        <v>1052.5825532113083</v>
-      </c>
-      <c r="M47">
-        <v>9</v>
-      </c>
-      <c r="N47">
-        <v>6</v>
-      </c>
       <c r="O47">
-        <v>6</v>
+        <v>0.82142857142857129</v>
       </c>
       <c r="P47">
-        <v>7</v>
-      </c>
-      <c r="Q47" t="s">
+        <v>978.06343439988825</v>
+      </c>
+      <c r="Q47">
+        <v>1159.7037865027246</v>
+      </c>
+      <c r="R47">
+        <v>10</v>
+      </c>
+      <c r="S47">
+        <v>5</v>
+      </c>
+      <c r="T47">
+        <v>6</v>
+      </c>
+      <c r="U47">
+        <v>7</v>
+      </c>
+      <c r="V47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3235,42 +3953,57 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>212.55605808594697</v>
+        <v>767</v>
       </c>
       <c r="H48">
-        <v>168.71041381709693</v>
+        <v>461</v>
       </c>
       <c r="I48">
-        <v>1.2598870056497173</v>
+        <v>846</v>
       </c>
       <c r="J48">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K48">
-        <v>1030.3726403179762</v>
+        <v>0.23664122137404581</v>
       </c>
       <c r="L48">
-        <v>1184.785561438709</v>
+        <v>1.1690939521870551E-2</v>
       </c>
       <c r="M48">
-        <v>45</v>
+        <v>224.94721842279591</v>
       </c>
       <c r="N48">
-        <v>6</v>
+        <v>214.46239044546223</v>
       </c>
       <c r="O48">
-        <v>6</v>
+        <v>1.0488888888888888</v>
       </c>
       <c r="P48">
-        <v>7</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1245.788196943196</v>
+      </c>
+      <c r="Q48">
+        <v>1394.4821209853833</v>
+      </c>
+      <c r="R48">
+        <v>41</v>
+      </c>
+      <c r="S48">
+        <v>6</v>
+      </c>
+      <c r="T48">
+        <v>6</v>
+      </c>
+      <c r="U48">
+        <v>7</v>
+      </c>
+      <c r="V48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -3288,42 +4021,57 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>401.99556363461647</v>
+        <v>1024</v>
       </c>
       <c r="H49">
-        <v>360.35458891549285</v>
+        <v>521</v>
       </c>
       <c r="I49">
-        <v>1.1155555555555556</v>
+        <v>704</v>
       </c>
       <c r="J49">
+        <v>66</v>
+      </c>
+      <c r="K49">
+        <v>0.3539253539253539</v>
+      </c>
+      <c r="L49">
+        <v>1.5588987134895026E-2</v>
+      </c>
+      <c r="M49">
+        <v>434.02708264932693</v>
+      </c>
+      <c r="N49">
+        <v>400.39398768388099</v>
+      </c>
+      <c r="O49">
+        <v>1.0839999999999999</v>
+      </c>
+      <c r="P49">
+        <v>1961.9305396510165</v>
+      </c>
+      <c r="Q49">
+        <v>2279.0425778966501</v>
+      </c>
+      <c r="R49">
         <v>62</v>
       </c>
-      <c r="K49">
-        <v>1673.6468685186226</v>
-      </c>
-      <c r="L49">
-        <v>1971.5399953554297</v>
-      </c>
-      <c r="M49">
-        <v>63</v>
-      </c>
-      <c r="N49">
-        <v>6</v>
-      </c>
-      <c r="O49">
-        <v>7</v>
-      </c>
-      <c r="P49">
-        <v>7</v>
-      </c>
-      <c r="Q49" t="s">
+      <c r="S49">
+        <v>6</v>
+      </c>
+      <c r="T49">
+        <v>7</v>
+      </c>
+      <c r="U49">
+        <v>7</v>
+      </c>
+      <c r="V49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -3341,42 +4089,57 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>251.69481149937789</v>
+        <v>1784</v>
       </c>
       <c r="H50">
-        <v>242.01424182632488</v>
+        <v>1070</v>
       </c>
       <c r="I50">
-        <v>1.04</v>
+        <v>794</v>
       </c>
       <c r="J50">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="K50">
-        <v>890.04296464599008</v>
+        <v>0.25464610517991298</v>
       </c>
       <c r="L50">
-        <v>1084.7932486568211</v>
+        <v>9.5944391413955998E-3</v>
       </c>
       <c r="M50">
-        <v>90</v>
+        <v>358.18107790296079</v>
       </c>
       <c r="N50">
-        <v>5</v>
+        <v>251.12536622449241</v>
       </c>
       <c r="O50">
-        <v>6</v>
+        <v>1.4263038548752833</v>
       </c>
       <c r="P50">
-        <v>7</v>
-      </c>
-      <c r="Q50" t="s">
+        <v>1061.4459923865165</v>
+      </c>
+      <c r="Q50">
+        <v>1281.8213137671937</v>
+      </c>
+      <c r="R50">
+        <v>92</v>
+      </c>
+      <c r="S50">
+        <v>6</v>
+      </c>
+      <c r="T50">
+        <v>6</v>
+      </c>
+      <c r="U50">
+        <v>7</v>
+      </c>
+      <c r="V50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -3394,42 +4157,57 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>265.712291805836</v>
+        <v>1558</v>
       </c>
       <c r="H51">
-        <v>269.44420601659209</v>
+        <v>755</v>
       </c>
       <c r="I51">
-        <v>0.98614958448753476</v>
+        <v>983</v>
       </c>
       <c r="J51">
+        <v>116</v>
+      </c>
+      <c r="K51">
+        <v>0.30961115187087307</v>
+      </c>
+      <c r="L51">
+        <v>2.0491038088125468E-2</v>
+      </c>
+      <c r="M51">
+        <v>299.29951970264108</v>
+      </c>
+      <c r="N51">
+        <v>264.21952612153353</v>
+      </c>
+      <c r="O51">
+        <v>1.1327683615819208</v>
+      </c>
+      <c r="P51">
+        <v>1297.2133796588284</v>
+      </c>
+      <c r="Q51">
+        <v>1556.9546087274546</v>
+      </c>
+      <c r="R51">
         <v>143</v>
       </c>
-      <c r="K51">
-        <v>1144.9512798599785</v>
-      </c>
-      <c r="L51">
-        <v>1465.1495191428539</v>
-      </c>
-      <c r="M51">
-        <v>135</v>
-      </c>
-      <c r="N51">
-        <v>5</v>
-      </c>
-      <c r="O51">
-        <v>6</v>
-      </c>
-      <c r="P51">
-        <v>7</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S51">
+        <v>6</v>
+      </c>
+      <c r="T51">
+        <v>6</v>
+      </c>
+      <c r="U51">
+        <v>7</v>
+      </c>
+      <c r="V51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -3447,42 +4225,57 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>293.39080784030511</v>
+        <v>548</v>
       </c>
       <c r="H52">
-        <v>255.02431758426522</v>
+        <v>303</v>
       </c>
       <c r="I52">
-        <v>1.1504424778761062</v>
+        <v>402</v>
       </c>
       <c r="J52">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="K52">
-        <v>1306.717521073359</v>
+        <v>0.32142857142857145</v>
       </c>
       <c r="L52">
-        <v>1462.4403344655209</v>
+        <v>1.3756682748728648E-2</v>
       </c>
       <c r="M52">
+        <v>392.69231203240838</v>
+      </c>
+      <c r="N52">
+        <v>291.13395547230277</v>
+      </c>
+      <c r="O52">
+        <v>1.3488372093023255</v>
+      </c>
+      <c r="P52">
+        <v>1591.0809194416547</v>
+      </c>
+      <c r="Q52">
+        <v>1800.9681896658728</v>
+      </c>
+      <c r="R52">
         <v>33</v>
       </c>
-      <c r="N52">
-        <v>6</v>
-      </c>
-      <c r="O52">
-        <v>6</v>
-      </c>
-      <c r="P52">
-        <v>7</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S52">
+        <v>6</v>
+      </c>
+      <c r="T52">
+        <v>7</v>
+      </c>
+      <c r="U52">
+        <v>7</v>
+      </c>
+      <c r="V52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -3500,42 +4293,57 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
+        <v>841</v>
+      </c>
+      <c r="H53">
+        <v>396</v>
+      </c>
+      <c r="I53">
+        <v>787</v>
+      </c>
+      <c r="J53">
+        <v>62</v>
+      </c>
+      <c r="K53">
+        <v>0.47680412371134023</v>
+      </c>
+      <c r="L53">
+        <v>2.1996722551367705E-2</v>
+      </c>
+      <c r="M53">
+        <v>491.97078450418172</v>
+      </c>
+      <c r="N53">
         <v>507.10834710431044</v>
       </c>
-      <c r="H53">
-        <v>557.56688910473929</v>
-      </c>
-      <c r="I53">
-        <v>0.90950226244343901</v>
-      </c>
-      <c r="J53">
-        <v>49</v>
-      </c>
-      <c r="K53">
-        <v>3279.8052300278782</v>
-      </c>
-      <c r="L53">
-        <v>3650.6755137310311</v>
-      </c>
-      <c r="M53">
-        <v>81</v>
-      </c>
-      <c r="N53">
-        <v>6</v>
-      </c>
       <c r="O53">
-        <v>7</v>
+        <v>0.9701492537313432</v>
       </c>
       <c r="P53">
-        <v>7</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+        <v>2984.6227593253693</v>
+      </c>
+      <c r="Q53">
+        <v>3453.8871999293578</v>
+      </c>
+      <c r="R53">
+        <v>76</v>
+      </c>
+      <c r="S53">
+        <v>6</v>
+      </c>
+      <c r="T53">
+        <v>7</v>
+      </c>
+      <c r="U53">
+        <v>7</v>
+      </c>
+      <c r="V53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -3553,42 +4361,57 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>306.56257797739988</v>
+        <v>1202</v>
       </c>
       <c r="H54">
-        <v>253.09236088831852</v>
+        <v>573</v>
       </c>
       <c r="I54">
-        <v>1.2112676056338028</v>
+        <v>756</v>
       </c>
       <c r="J54">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K54">
-        <v>1370.0257845269075</v>
+        <v>0.4253554502369668</v>
       </c>
       <c r="L54">
-        <v>1576.7772906046887</v>
+        <v>1.8366405168435625E-2</v>
       </c>
       <c r="M54">
-        <v>45</v>
+        <v>376.66797371641769</v>
       </c>
       <c r="N54">
-        <v>6</v>
+        <v>304.18612388455188</v>
       </c>
       <c r="O54">
-        <v>6</v>
+        <v>1.2382812499999998</v>
       </c>
       <c r="P54">
-        <v>7</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1579.1537446975367</v>
+      </c>
+      <c r="Q54">
+        <v>1753.8231205218694</v>
+      </c>
+      <c r="R54">
+        <v>55</v>
+      </c>
+      <c r="S54">
+        <v>6</v>
+      </c>
+      <c r="T54">
+        <v>7</v>
+      </c>
+      <c r="U54">
+        <v>7</v>
+      </c>
+      <c r="V54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -3606,42 +4429,57 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
+        <v>664</v>
+      </c>
+      <c r="H55">
+        <v>317</v>
+      </c>
+      <c r="I55">
+        <v>693</v>
+      </c>
+      <c r="J55">
+        <v>48</v>
+      </c>
+      <c r="K55">
+        <v>0.28105906313645623</v>
+      </c>
+      <c r="L55">
+        <v>1.2563133992614915E-2</v>
+      </c>
+      <c r="M55">
+        <v>210.58215517172093</v>
+      </c>
+      <c r="N55">
         <v>298.9945103964892</v>
       </c>
-      <c r="H55">
-        <v>308.6394946028276</v>
-      </c>
-      <c r="I55">
-        <v>0.96874999999999989</v>
-      </c>
-      <c r="J55">
-        <v>47</v>
-      </c>
-      <c r="K55">
-        <v>1904.8843807518267</v>
-      </c>
-      <c r="L55">
-        <v>2131.5415096007778</v>
-      </c>
-      <c r="M55">
-        <v>66</v>
-      </c>
-      <c r="N55">
-        <v>7</v>
-      </c>
       <c r="O55">
-        <v>7</v>
+        <v>0.70430107526881736</v>
       </c>
       <c r="P55">
-        <v>7</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1623.572341400291</v>
+      </c>
+      <c r="Q55">
+        <v>1855.0519623524115</v>
+      </c>
+      <c r="R55">
+        <v>88</v>
+      </c>
+      <c r="S55">
+        <v>7</v>
+      </c>
+      <c r="T55">
+        <v>7</v>
+      </c>
+      <c r="U55">
+        <v>7</v>
+      </c>
+      <c r="V55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -3659,42 +4497,57 @@
         <v>56702</v>
       </c>
       <c r="G56">
+        <v>596</v>
+      </c>
+      <c r="H56">
+        <v>275</v>
+      </c>
+      <c r="I56">
+        <v>534</v>
+      </c>
+      <c r="J56">
+        <v>40</v>
+      </c>
+      <c r="K56">
+        <v>0.24088748019017434</v>
+      </c>
+      <c r="L56">
+        <v>1.0837798343886994E-2</v>
+      </c>
+      <c r="M56">
+        <v>266.30453952241544</v>
+      </c>
+      <c r="N56">
         <v>218.68717152834114</v>
       </c>
-      <c r="H56">
-        <v>222.21438397234667</v>
-      </c>
-      <c r="I56">
-        <v>0.98412698412698396</v>
-      </c>
-      <c r="J56">
-        <v>43</v>
-      </c>
-      <c r="K56">
-        <v>1276.8509047299917</v>
-      </c>
-      <c r="L56">
-        <v>1504.3561073683468</v>
-      </c>
-      <c r="M56">
-        <v>51</v>
-      </c>
-      <c r="N56">
-        <v>5</v>
-      </c>
       <c r="O56">
-        <v>6</v>
+        <v>1.217741935483871</v>
       </c>
       <c r="P56">
-        <v>7</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1426.7574336002258</v>
+      </c>
+      <c r="Q56">
+        <v>1638.3901802405558</v>
+      </c>
+      <c r="R56">
+        <v>53</v>
+      </c>
+      <c r="S56">
+        <v>6</v>
+      </c>
+      <c r="T56">
+        <v>7</v>
+      </c>
+      <c r="U56">
+        <v>7</v>
+      </c>
+      <c r="V56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -3712,42 +4565,57 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>132.1909829225774</v>
+        <v>518</v>
       </c>
       <c r="H57">
-        <v>90.881300759271966</v>
+        <v>201</v>
       </c>
       <c r="I57">
-        <v>1.4545454545454546</v>
+        <v>427</v>
       </c>
       <c r="J57">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="K57">
-        <v>786.53634838933544</v>
+        <v>0.18887262079062958</v>
       </c>
       <c r="L57">
-        <v>836.10796698530203</v>
+        <v>1.3976201167489898E-2</v>
       </c>
       <c r="M57">
-        <v>30</v>
+        <v>201.59124895693051</v>
       </c>
       <c r="N57">
-        <v>6</v>
+        <v>130.53859563604519</v>
       </c>
       <c r="O57">
-        <v>6</v>
+        <v>1.5443037974683542</v>
       </c>
       <c r="P57">
-        <v>7</v>
-      </c>
-      <c r="Q57" t="s">
+        <v>1037.6992159422325</v>
+      </c>
+      <c r="Q57">
+        <v>1131.8852912745688</v>
+      </c>
+      <c r="R57">
+        <v>26</v>
+      </c>
+      <c r="S57">
+        <v>6</v>
+      </c>
+      <c r="T57">
+        <v>6</v>
+      </c>
+      <c r="U57">
+        <v>7</v>
+      </c>
+      <c r="V57" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -3765,42 +4633,57 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>288.28480216697301</v>
+        <v>526</v>
       </c>
       <c r="H58">
-        <v>278.61081551707457</v>
+        <v>244</v>
       </c>
       <c r="I58">
-        <v>1.0347222222222223</v>
+        <v>379</v>
       </c>
       <c r="J58">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="K58">
-        <v>1414.3368482151493</v>
+        <v>0.20898876404494382</v>
       </c>
       <c r="L58">
-        <v>1768.4047596014318</v>
+        <v>9.598845919103368E-3</v>
       </c>
       <c r="M58">
-        <v>45</v>
+        <v>181.87094901809036</v>
       </c>
       <c r="N58">
-        <v>7</v>
+        <v>290.2195994969527</v>
       </c>
       <c r="O58">
-        <v>7</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="P58">
-        <v>7</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1205.3787365773435</v>
+      </c>
+      <c r="Q58">
+        <v>1460.7719841346618</v>
+      </c>
+      <c r="R58">
+        <v>43</v>
+      </c>
+      <c r="S58">
+        <v>7</v>
+      </c>
+      <c r="T58">
+        <v>7</v>
+      </c>
+      <c r="U58">
+        <v>7</v>
+      </c>
+      <c r="V58" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -3818,42 +4701,57 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>228.20375812628015</v>
+        <v>423</v>
       </c>
       <c r="H59">
-        <v>277.1840769436281</v>
+        <v>396</v>
       </c>
       <c r="I59">
-        <v>0.82329317269076296</v>
+        <v>502</v>
       </c>
       <c r="J59">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>968.47448570665244</v>
+        <v>0.13374913374913375</v>
       </c>
       <c r="L59">
-        <v>1165.5089500400748</v>
+        <v>8.0981446787937398E-3</v>
       </c>
       <c r="M59">
-        <v>82</v>
+        <v>203.7135987176062</v>
       </c>
       <c r="N59">
+        <v>237.10927063852523</v>
+      </c>
+      <c r="O59">
+        <v>0.85915492957746487</v>
+      </c>
+      <c r="P59">
+        <v>999.64377949951017</v>
+      </c>
+      <c r="Q59">
+        <v>1156.6034375278298</v>
+      </c>
+      <c r="R59">
+        <v>52</v>
+      </c>
+      <c r="S59">
         <v>5</v>
       </c>
-      <c r="O59">
-        <v>6</v>
-      </c>
-      <c r="P59">
-        <v>7</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T59">
+        <v>6</v>
+      </c>
+      <c r="U59">
+        <v>7</v>
+      </c>
+      <c r="V59" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -3871,42 +4769,57 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>175.36313403699171</v>
+        <v>445</v>
       </c>
       <c r="H60">
-        <v>234.92042484200775</v>
+        <v>304</v>
       </c>
       <c r="I60">
-        <v>0.74647887323943662</v>
+        <v>612</v>
       </c>
       <c r="J60">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K60">
-        <v>1300.3341825761838</v>
+        <v>0.29306930693069305</v>
       </c>
       <c r="L60">
-        <v>1419.4487641862158</v>
+        <v>1.2887294054095767E-2</v>
       </c>
       <c r="M60">
-        <v>36</v>
+        <v>314.33014591536249</v>
       </c>
       <c r="N60">
-        <v>5</v>
+        <v>188.5980875492175</v>
       </c>
       <c r="O60">
-        <v>6</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="P60">
-        <v>7</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1515.4021771498528</v>
+      </c>
+      <c r="Q60">
+        <v>1659.3322965953082</v>
+      </c>
+      <c r="R60">
+        <v>30</v>
+      </c>
+      <c r="S60">
+        <v>6</v>
+      </c>
+      <c r="T60">
+        <v>6</v>
+      </c>
+      <c r="U60">
+        <v>7</v>
+      </c>
+      <c r="V60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -3924,42 +4837,57 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
+        <v>288</v>
+      </c>
+      <c r="H61">
+        <v>289</v>
+      </c>
+      <c r="I61">
+        <v>315</v>
+      </c>
+      <c r="J61">
+        <v>36</v>
+      </c>
+      <c r="K61">
+        <v>0.11740890688259109</v>
+      </c>
+      <c r="L61">
+        <v>1.0494660611267951E-2</v>
+      </c>
+      <c r="M61">
+        <v>326.93267097623368</v>
+      </c>
+      <c r="N61">
         <v>286.59682195968537</v>
       </c>
-      <c r="H61">
-        <v>186.8186691292764</v>
-      </c>
-      <c r="I61">
-        <v>1.5340909090909089</v>
-      </c>
-      <c r="J61">
-        <v>27</v>
-      </c>
-      <c r="K61">
-        <v>876.77398125444483</v>
-      </c>
-      <c r="L61">
-        <v>1048.7320744302563</v>
-      </c>
-      <c r="M61">
-        <v>30</v>
-      </c>
-      <c r="N61">
-        <v>6</v>
-      </c>
       <c r="O61">
-        <v>6</v>
+        <v>1.1407407407407408</v>
       </c>
       <c r="P61">
-        <v>7</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1282.2554108418517</v>
+      </c>
+      <c r="Q61">
+        <v>1511.5328684096</v>
+      </c>
+      <c r="R61">
+        <v>31</v>
+      </c>
+      <c r="S61">
+        <v>6</v>
+      </c>
+      <c r="T61">
+        <v>6</v>
+      </c>
+      <c r="U61">
+        <v>7</v>
+      </c>
+      <c r="V61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -3977,42 +4905,57 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
+        <v>373</v>
+      </c>
+      <c r="H62">
+        <v>123</v>
+      </c>
+      <c r="I62">
+        <v>282</v>
+      </c>
+      <c r="J62">
+        <v>12</v>
+      </c>
+      <c r="K62">
+        <v>0.21276595744680851</v>
+      </c>
+      <c r="L62">
+        <v>1.1742358832671386E-2</v>
+      </c>
+      <c r="M62">
+        <v>160.04194202618618</v>
+      </c>
+      <c r="N62">
         <v>179.35734882245004</v>
       </c>
-      <c r="H62">
-        <v>115.89244077758309</v>
-      </c>
-      <c r="I62">
-        <v>1.5476190476190477</v>
-      </c>
-      <c r="J62">
-        <v>11</v>
-      </c>
-      <c r="K62">
-        <v>1081.6627805907756</v>
-      </c>
-      <c r="L62">
-        <v>1172.7211269160193</v>
-      </c>
-      <c r="M62">
+      <c r="O62">
+        <v>0.89230769230769225</v>
+      </c>
+      <c r="P62">
+        <v>1117.5342503552656</v>
+      </c>
+      <c r="Q62">
+        <v>1216.8706281646225</v>
+      </c>
+      <c r="R62">
         <v>53</v>
       </c>
-      <c r="N62">
-        <v>6</v>
-      </c>
-      <c r="O62">
-        <v>6</v>
-      </c>
-      <c r="P62">
-        <v>7</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S62">
+        <v>5</v>
+      </c>
+      <c r="T62">
+        <v>6</v>
+      </c>
+      <c r="U62">
+        <v>7</v>
+      </c>
+      <c r="V62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4030,42 +4973,57 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>346.20272579867657</v>
+        <v>311</v>
       </c>
       <c r="H63">
-        <v>219.1156492396687</v>
+        <v>132</v>
       </c>
       <c r="I63">
-        <v>1.58</v>
+        <v>169</v>
       </c>
       <c r="J63">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K63">
-        <v>1371.6639642403261</v>
+        <v>0.2549800796812749</v>
       </c>
       <c r="L63">
-        <v>1634.6027433279287</v>
+        <v>1.1506121846880071E-2</v>
       </c>
       <c r="M63">
-        <v>12</v>
+        <v>262.93877908760243</v>
       </c>
       <c r="N63">
-        <v>6</v>
+        <v>315.52653490512296</v>
       </c>
       <c r="O63">
-        <v>6</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="P63">
-        <v>7</v>
-      </c>
-      <c r="Q63" t="s">
+        <v>1362.8993382707392</v>
+      </c>
+      <c r="Q63">
+        <v>1612.6911784039614</v>
+      </c>
+      <c r="R63">
+        <v>17</v>
+      </c>
+      <c r="S63">
+        <v>5</v>
+      </c>
+      <c r="T63">
+        <v>6</v>
+      </c>
+      <c r="U63">
+        <v>7</v>
+      </c>
+      <c r="V63" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -4083,42 +5041,57 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>159.37453014584273</v>
+        <v>1045</v>
       </c>
       <c r="H64">
-        <v>201.4734626371974</v>
+        <v>378</v>
       </c>
       <c r="I64">
-        <v>0.79104477611940305</v>
+        <v>710</v>
       </c>
       <c r="J64">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K64">
-        <v>991.32962461785189</v>
+        <v>0.21816479400749064</v>
       </c>
       <c r="L64">
-        <v>1138.6758883375933</v>
+        <v>1.4761958696719145E-2</v>
       </c>
       <c r="M64">
-        <v>63</v>
+        <v>220.51821781185785</v>
       </c>
       <c r="N64">
-        <v>6</v>
+        <v>158.3721746103343</v>
       </c>
       <c r="O64">
-        <v>6</v>
+        <v>1.3924050632911391</v>
       </c>
       <c r="P64">
-        <v>7</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1090.5628226331878</v>
+      </c>
+      <c r="Q64">
+        <v>1243.9232195659802</v>
+      </c>
+      <c r="R64">
+        <v>54</v>
+      </c>
+      <c r="S64">
+        <v>6</v>
+      </c>
+      <c r="T64">
+        <v>6</v>
+      </c>
+      <c r="U64">
+        <v>7</v>
+      </c>
+      <c r="V64" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -4136,42 +5109,57 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>185.34478764120954</v>
+        <v>347</v>
       </c>
       <c r="H65">
-        <v>139.00859073090717</v>
+        <v>197</v>
       </c>
       <c r="I65">
-        <v>1.333333333333333</v>
+        <v>187</v>
       </c>
       <c r="J65">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K65">
-        <v>606.07745558675526</v>
+        <v>0.13119533527696792</v>
       </c>
       <c r="L65">
-        <v>795.12913898078898</v>
+        <v>7.6700187489347196E-3</v>
       </c>
       <c r="M65">
-        <v>31</v>
+        <v>172.37065250632489</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>183.49133976479749</v>
       </c>
       <c r="O65">
-        <v>5</v>
+        <v>0.93939393939393923</v>
       </c>
       <c r="P65">
-        <v>7</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+        <v>711.72398454224469</v>
+      </c>
+      <c r="Q65">
+        <v>884.09463704856967</v>
+      </c>
+      <c r="R65">
+        <v>24</v>
+      </c>
+      <c r="S65">
+        <v>6</v>
+      </c>
+      <c r="T65">
+        <v>6</v>
+      </c>
+      <c r="U65">
+        <v>7</v>
+      </c>
+      <c r="V65" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -4189,42 +5177,57 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>282.4858757062147</v>
+        <v>190</v>
       </c>
       <c r="H66">
+        <v>109</v>
+      </c>
+      <c r="I66">
+        <v>87</v>
+      </c>
+      <c r="J66">
+        <v>18</v>
+      </c>
+      <c r="K66">
+        <v>0.16030534351145037</v>
+      </c>
+      <c r="L66">
+        <v>1.0707756594411073E-2</v>
+      </c>
+      <c r="M66">
         <v>209.42918371322813</v>
       </c>
-      <c r="I66">
-        <v>1.3488372093023258</v>
-      </c>
-      <c r="J66">
-        <v>11</v>
-      </c>
-      <c r="K66">
-        <v>852.32807325150986</v>
-      </c>
-      <c r="L66">
-        <v>1013.0527956360803</v>
-      </c>
-      <c r="M66">
-        <v>8</v>
-      </c>
       <c r="N66">
+        <v>301.96766023767776</v>
+      </c>
+      <c r="O66">
+        <v>0.69354838709677424</v>
+      </c>
+      <c r="P66">
+        <v>954.607442041691</v>
+      </c>
+      <c r="Q66">
+        <v>1217.6115332164425</v>
+      </c>
+      <c r="R66">
+        <v>13</v>
+      </c>
+      <c r="S66">
         <v>5</v>
       </c>
-      <c r="O66">
-        <v>5</v>
-      </c>
-      <c r="P66">
-        <v>7</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T66">
+        <v>6</v>
+      </c>
+      <c r="U66">
+        <v>7</v>
+      </c>
+      <c r="V66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -4242,42 +5245,57 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>116.69328092371944</v>
+        <v>193</v>
       </c>
       <c r="H67">
+        <v>100</v>
+      </c>
+      <c r="I67">
+        <v>134</v>
+      </c>
+      <c r="J67">
+        <v>28</v>
+      </c>
+      <c r="K67">
+        <v>0.17954545454545454</v>
+      </c>
+      <c r="L67">
+        <v>8.7595977073645515E-3</v>
+      </c>
+      <c r="M67">
+        <v>224.1739344060926</v>
+      </c>
+      <c r="N67">
         <v>113.62240510993736</v>
       </c>
-      <c r="I67">
-        <v>1.027027027027027</v>
-      </c>
-      <c r="J67">
-        <v>19</v>
-      </c>
-      <c r="K67">
-        <v>565.0411497359047</v>
-      </c>
-      <c r="L67">
-        <v>740.08107112148389</v>
-      </c>
-      <c r="M67">
-        <v>9</v>
-      </c>
-      <c r="N67">
-        <v>5</v>
-      </c>
       <c r="O67">
-        <v>5</v>
+        <v>1.9729729729729726</v>
       </c>
       <c r="P67">
-        <v>7</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+        <v>718.58494042500922</v>
+      </c>
+      <c r="Q67">
+        <v>976.53850878270475</v>
+      </c>
+      <c r="R67">
+        <v>17</v>
+      </c>
+      <c r="S67">
+        <v>6</v>
+      </c>
+      <c r="T67">
+        <v>6</v>
+      </c>
+      <c r="U67">
+        <v>7</v>
+      </c>
+      <c r="V67" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -4295,42 +5313,57 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
+        <v>615</v>
+      </c>
+      <c r="H68">
+        <v>315</v>
+      </c>
+      <c r="I68">
+        <v>493</v>
+      </c>
+      <c r="J68">
+        <v>43</v>
+      </c>
+      <c r="K68">
+        <v>0.24119718309859156</v>
+      </c>
+      <c r="L68">
+        <v>1.1846802986043492E-2</v>
+      </c>
+      <c r="M68">
+        <v>189.64374068713772</v>
+      </c>
+      <c r="N68">
         <v>259.5124872560832</v>
       </c>
-      <c r="H68">
-        <v>196.7732046227444</v>
-      </c>
-      <c r="I68">
-        <v>1.318840579710145</v>
-      </c>
-      <c r="J68">
-        <v>39</v>
-      </c>
-      <c r="K68">
-        <v>1264.7669021766253</v>
-      </c>
-      <c r="L68">
-        <v>1431.5963582698216</v>
-      </c>
-      <c r="M68">
-        <v>127</v>
-      </c>
-      <c r="N68">
+      <c r="O68">
+        <v>0.73076923076923073</v>
+      </c>
+      <c r="P68">
+        <v>1152.1213719940397</v>
+      </c>
+      <c r="Q68">
+        <v>1336.0615415326922</v>
+      </c>
+      <c r="R68">
+        <v>121</v>
+      </c>
+      <c r="S68">
         <v>5</v>
       </c>
-      <c r="O68">
-        <v>6</v>
-      </c>
-      <c r="P68">
-        <v>7</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T68">
+        <v>6</v>
+      </c>
+      <c r="U68">
+        <v>7</v>
+      </c>
+      <c r="V68" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -4348,42 +5381,57 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>475.54412309094192</v>
+        <v>1989</v>
       </c>
       <c r="H69">
-        <v>334.114832990043</v>
+        <v>934</v>
       </c>
       <c r="I69">
-        <v>1.4232954545454546</v>
+        <v>987</v>
       </c>
       <c r="J69">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K69">
-        <v>1917.3635302269513</v>
+        <v>0.33756534727408516</v>
       </c>
       <c r="L69">
-        <v>2196.4253509629534</v>
+        <v>1.4108935659250858E-2</v>
       </c>
       <c r="M69">
-        <v>44</v>
+        <v>408.15164257306384</v>
       </c>
       <c r="N69">
-        <v>6</v>
+        <v>478.39169269028889</v>
       </c>
       <c r="O69">
-        <v>6</v>
+        <v>0.85317460317460292</v>
       </c>
       <c r="P69">
-        <v>7</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1887.9386443670328</v>
+      </c>
+      <c r="Q69">
+        <v>2181.2383130997691</v>
+      </c>
+      <c r="R69">
+        <v>38</v>
+      </c>
+      <c r="S69">
+        <v>6</v>
+      </c>
+      <c r="T69">
+        <v>6</v>
+      </c>
+      <c r="U69">
+        <v>7</v>
+      </c>
+      <c r="V69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -4401,42 +5449,57 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>382.45592588388359</v>
+        <v>1845</v>
       </c>
       <c r="H70">
-        <v>344.90888293181285</v>
+        <v>996</v>
       </c>
       <c r="I70">
-        <v>1.1088607594936708</v>
+        <v>1176</v>
       </c>
       <c r="J70">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K70">
-        <v>1603.1714153488817</v>
+        <v>0.29334011184544995</v>
       </c>
       <c r="L70">
-        <v>1875.605773512744</v>
+        <v>1.2158322503909606E-2</v>
       </c>
       <c r="M70">
-        <v>90</v>
+        <v>515.18035678422666</v>
       </c>
       <c r="N70">
-        <v>6</v>
+        <v>354.51394043117978</v>
       </c>
       <c r="O70">
-        <v>7</v>
+        <v>1.4532019704433494</v>
       </c>
       <c r="P70">
-        <v>7</v>
-      </c>
-      <c r="Q70" t="s">
+        <v>1896.5622626022721</v>
+      </c>
+      <c r="Q70">
+        <v>2182.0944264470891</v>
+      </c>
+      <c r="R70">
+        <v>109</v>
+      </c>
+      <c r="S70">
+        <v>6</v>
+      </c>
+      <c r="T70">
+        <v>7</v>
+      </c>
+      <c r="U70">
+        <v>7</v>
+      </c>
+      <c r="V70" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -4454,42 +5517,57 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>399.38242943803345</v>
+        <v>1703</v>
       </c>
       <c r="H71">
-        <v>411.46204923200042</v>
+        <v>1118</v>
       </c>
       <c r="I71">
-        <v>0.97064220183486238</v>
+        <v>962</v>
       </c>
       <c r="J71">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="K71">
-        <v>1588.4700029066585</v>
+        <v>0.27468413664014973</v>
       </c>
       <c r="L71">
-        <v>1953.123525437037</v>
+        <v>7.3409750229958253E-3</v>
       </c>
       <c r="M71">
-        <v>125</v>
+        <v>428.07152644870501</v>
       </c>
       <c r="N71">
-        <v>6</v>
+        <v>415.99190665473805</v>
       </c>
       <c r="O71">
-        <v>7</v>
+        <v>1.029038112522686</v>
       </c>
       <c r="P71">
-        <v>7</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+        <v>1570.3505732157082</v>
+      </c>
+      <c r="Q71">
+        <v>1921.4145234778737</v>
+      </c>
+      <c r="R71">
+        <v>99</v>
+      </c>
+      <c r="S71">
+        <v>6</v>
+      </c>
+      <c r="T71">
+        <v>7</v>
+      </c>
+      <c r="U71">
+        <v>7</v>
+      </c>
+      <c r="V71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -4507,42 +5585,57 @@
         <v>15884</v>
       </c>
       <c r="G72">
+        <v>264</v>
+      </c>
+      <c r="H72">
+        <v>131</v>
+      </c>
+      <c r="I72">
+        <v>131</v>
+      </c>
+      <c r="J72">
+        <v>15</v>
+      </c>
+      <c r="K72">
+        <v>0.34361233480176212</v>
+      </c>
+      <c r="L72">
+        <v>1.1985617259288853E-2</v>
+      </c>
+      <c r="M72">
+        <v>484.76454293628808</v>
+      </c>
+      <c r="N72">
         <v>339.96474439687734</v>
       </c>
-      <c r="H72">
-        <v>352.55603122639138</v>
-      </c>
-      <c r="I72">
-        <v>0.96428571428571408</v>
-      </c>
-      <c r="J72">
+      <c r="O72">
+        <v>1.425925925925926</v>
+      </c>
+      <c r="P72">
+        <v>1662.0498614958449</v>
+      </c>
+      <c r="Q72">
+        <v>1945.3538151599093</v>
+      </c>
+      <c r="R72">
         <v>10</v>
       </c>
-      <c r="K72">
-        <v>1529.8413497859481</v>
-      </c>
-      <c r="L72">
-        <v>1718.7106522286579</v>
-      </c>
-      <c r="M72">
-        <v>14</v>
-      </c>
-      <c r="N72">
-        <v>6</v>
-      </c>
-      <c r="O72">
-        <v>7</v>
-      </c>
-      <c r="P72">
-        <v>7</v>
-      </c>
-      <c r="Q72" t="s">
+      <c r="S72">
+        <v>6</v>
+      </c>
+      <c r="T72">
+        <v>7</v>
+      </c>
+      <c r="U72">
+        <v>7</v>
+      </c>
+      <c r="V72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -4560,42 +5653,57 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>44.223327805417362</v>
+        <v>135</v>
       </c>
       <c r="H73">
-        <v>49.751243781094523</v>
+        <v>32</v>
       </c>
       <c r="I73">
-        <v>0.88888888888888906</v>
+        <v>128</v>
       </c>
       <c r="J73">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K73">
-        <v>381.4262023217247</v>
+        <v>7.6555023923444973E-2</v>
       </c>
       <c r="L73">
-        <v>464.34494195688222</v>
+        <v>5.4608019150209457E-3</v>
       </c>
       <c r="M73">
-        <v>15</v>
+        <v>41.459369817578775</v>
       </c>
       <c r="N73">
+        <v>46.987285793255943</v>
+      </c>
+      <c r="O73">
+        <v>0.88235294117647067</v>
+      </c>
+      <c r="P73">
+        <v>442.23327805417358</v>
+      </c>
+      <c r="Q73">
+        <v>508.56826976229962</v>
+      </c>
+      <c r="R73">
+        <v>13</v>
+      </c>
+      <c r="S73">
         <v>4</v>
       </c>
-      <c r="O73">
+      <c r="T73">
         <v>5</v>
       </c>
-      <c r="P73">
-        <v>7</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="U73">
+        <v>7</v>
+      </c>
+      <c r="V73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -4613,42 +5721,57 @@
         <v>43473</v>
       </c>
       <c r="G74">
+        <v>400</v>
+      </c>
+      <c r="H74">
+        <v>192</v>
+      </c>
+      <c r="I74">
+        <v>350</v>
+      </c>
+      <c r="J74">
+        <v>22</v>
+      </c>
+      <c r="K74">
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="L74">
+        <v>1.1805289382905327E-2</v>
+      </c>
+      <c r="M74">
+        <v>236.92866836887262</v>
+      </c>
+      <c r="N74">
         <v>204.72477169737536</v>
       </c>
-      <c r="H74">
-        <v>89.710855013456623</v>
-      </c>
-      <c r="I74">
-        <v>2.2820512820512819</v>
-      </c>
-      <c r="J74">
-        <v>16</v>
-      </c>
-      <c r="K74">
-        <v>878.70632346513935</v>
-      </c>
-      <c r="L74">
-        <v>989.11968348170126</v>
-      </c>
-      <c r="M74">
-        <v>23</v>
-      </c>
-      <c r="N74">
-        <v>6</v>
-      </c>
       <c r="O74">
-        <v>6</v>
+        <v>1.157303370786517</v>
       </c>
       <c r="P74">
-        <v>7</v>
-      </c>
-      <c r="Q74" t="s">
+        <v>1246.7508568536794</v>
+      </c>
+      <c r="Q74">
+        <v>1398.5692268764519</v>
+      </c>
+      <c r="R74">
+        <v>24</v>
+      </c>
+      <c r="S74">
+        <v>5</v>
+      </c>
+      <c r="T74">
+        <v>6</v>
+      </c>
+      <c r="U74">
+        <v>7</v>
+      </c>
+      <c r="V74" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -4666,42 +5789,57 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>455.63445240291458</v>
+        <v>1403</v>
       </c>
       <c r="H75">
-        <v>241.43673428958789</v>
+        <v>738</v>
       </c>
       <c r="I75">
-        <v>1.8871794871794871</v>
+        <v>653</v>
       </c>
       <c r="J75">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="K75">
-        <v>1524.1467687717061</v>
+        <v>0.36261682242990656</v>
       </c>
       <c r="L75">
-        <v>1769.2979143580569</v>
+        <v>1.7224695180956068E-2</v>
       </c>
       <c r="M75">
-        <v>35</v>
+        <v>464.30141209536134</v>
       </c>
       <c r="N75">
-        <v>6</v>
+        <v>449.44376690830973</v>
       </c>
       <c r="O75">
-        <v>6</v>
+        <v>1.0330578512396695</v>
       </c>
       <c r="P75">
-        <v>7</v>
-      </c>
-      <c r="Q75" t="s">
+        <v>1737.1063497861119</v>
+      </c>
+      <c r="Q75">
+        <v>2034.2592535271431</v>
+      </c>
+      <c r="R75">
+        <v>45</v>
+      </c>
+      <c r="S75">
+        <v>6</v>
+      </c>
+      <c r="T75">
+        <v>6</v>
+      </c>
+      <c r="U75">
+        <v>7</v>
+      </c>
+      <c r="V75" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -4719,42 +5857,57 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>260.0133830417742</v>
+        <v>459</v>
       </c>
       <c r="H76">
-        <v>168.2439537329127</v>
+        <v>141</v>
       </c>
       <c r="I76">
-        <v>1.5454545454545456</v>
+        <v>312</v>
       </c>
       <c r="J76">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K76">
-        <v>1537.1379409234298</v>
+        <v>0.25249169435215946</v>
       </c>
       <c r="L76">
-        <v>1800.9750501864066</v>
+        <v>2.0542202347680269E-2</v>
       </c>
       <c r="M76">
-        <v>28</v>
+        <v>286.77946659019216</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>252.36593059936911</v>
       </c>
       <c r="O76">
-        <v>7</v>
+        <v>1.1363636363636362</v>
       </c>
       <c r="P76">
-        <v>7</v>
-      </c>
-      <c r="Q76" t="s">
+        <v>1755.0903355319758</v>
+      </c>
+      <c r="Q76">
+        <v>2099.2256954402064</v>
+      </c>
+      <c r="R76">
+        <v>26</v>
+      </c>
+      <c r="S76">
+        <v>6</v>
+      </c>
+      <c r="T76">
+        <v>7</v>
+      </c>
+      <c r="U76">
+        <v>7</v>
+      </c>
+      <c r="V76" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -4772,42 +5925,57 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
+        <v>736</v>
+      </c>
+      <c r="H77">
+        <v>290</v>
+      </c>
+      <c r="I77">
+        <v>544</v>
+      </c>
+      <c r="J77">
+        <v>49</v>
+      </c>
+      <c r="K77">
+        <v>0.24045801526717558</v>
+      </c>
+      <c r="L77">
+        <v>1.3196635120925341E-2</v>
+      </c>
+      <c r="M77">
+        <v>243.27006177779199</v>
+      </c>
+      <c r="N77">
         <v>375.57483221834553</v>
       </c>
-      <c r="H77">
-        <v>268.87743670177008</v>
-      </c>
-      <c r="I77">
-        <v>1.396825396825397</v>
-      </c>
-      <c r="J77">
-        <v>51</v>
-      </c>
-      <c r="K77">
-        <v>2078.4652646628897</v>
-      </c>
-      <c r="L77">
-        <v>2404.9592949436105</v>
-      </c>
-      <c r="M77">
-        <v>47</v>
-      </c>
-      <c r="N77">
-        <v>6</v>
-      </c>
       <c r="O77">
-        <v>7</v>
+        <v>0.64772727272727271</v>
       </c>
       <c r="P77">
-        <v>7</v>
-      </c>
-      <c r="Q77" t="s">
+        <v>1779.7125572164784</v>
+      </c>
+      <c r="Q77">
+        <v>2093.4029000352102</v>
+      </c>
+      <c r="R77">
+        <v>42</v>
+      </c>
+      <c r="S77">
+        <v>5</v>
+      </c>
+      <c r="T77">
+        <v>7</v>
+      </c>
+      <c r="U77">
+        <v>7</v>
+      </c>
+      <c r="V77" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -4825,42 +5993,57 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>220.82597774023526</v>
+        <v>1322</v>
       </c>
       <c r="H78">
-        <v>187.92353979613142</v>
+        <v>873</v>
       </c>
       <c r="I78">
-        <v>1.1750841750841752</v>
+        <v>939</v>
       </c>
       <c r="J78">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="K78">
-        <v>916.83908809627746</v>
+        <v>0.21229050279329609</v>
       </c>
       <c r="L78">
-        <v>1064.9000588447448</v>
+        <v>8.6854167038219396E-3</v>
       </c>
       <c r="M78">
-        <v>76</v>
+        <v>332.82081458843481</v>
       </c>
       <c r="N78">
+        <v>219.56049935776974</v>
+      </c>
+      <c r="O78">
+        <v>1.515850144092219</v>
+      </c>
+      <c r="P78">
+        <v>1146.5234145137715</v>
+      </c>
+      <c r="Q78">
+        <v>1355.3273476205843</v>
+      </c>
+      <c r="R78">
+        <v>72</v>
+      </c>
+      <c r="S78">
         <v>5</v>
       </c>
-      <c r="O78">
-        <v>6</v>
-      </c>
-      <c r="P78">
-        <v>7</v>
-      </c>
-      <c r="Q78" t="s">
+      <c r="T78">
+        <v>6</v>
+      </c>
+      <c r="U78">
+        <v>7</v>
+      </c>
+      <c r="V78" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -4878,42 +6061,57 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>96.124222071600215</v>
+        <v>148</v>
       </c>
       <c r="H79">
-        <v>54.223920142953972</v>
+        <v>69</v>
       </c>
       <c r="I79">
-        <v>1.7727272727272725</v>
+        <v>116</v>
       </c>
       <c r="J79">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K79">
-        <v>532.38030685809349</v>
+        <v>0.14410480349344978</v>
       </c>
       <c r="L79">
-        <v>621.11035800110915</v>
+        <v>3.5090582666884281E-3</v>
       </c>
       <c r="M79">
-        <v>21</v>
+        <v>78.871156571569415</v>
       </c>
       <c r="N79">
-        <v>6</v>
+        <v>91.194774785877129</v>
       </c>
       <c r="O79">
-        <v>6</v>
+        <v>0.86486486486486491</v>
       </c>
       <c r="P79">
-        <v>7</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+        <v>455.97387392938566</v>
+      </c>
+      <c r="Q79">
+        <v>522.52141228664732</v>
+      </c>
+      <c r="R79">
+        <v>24</v>
+      </c>
+      <c r="S79">
+        <v>6</v>
+      </c>
+      <c r="T79">
+        <v>6</v>
+      </c>
+      <c r="U79">
+        <v>7</v>
+      </c>
+      <c r="V79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44250</v>
+        <v>44258</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -4931,37 +6129,52 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>305.41678483387506</v>
+        <v>1074</v>
       </c>
       <c r="H80">
-        <v>314.14297868627148</v>
+        <v>435</v>
       </c>
       <c r="I80">
-        <v>0.97222222222222221</v>
+        <v>839</v>
       </c>
       <c r="J80">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K80">
-        <v>1807.7764930881274</v>
+        <v>0.218214607754734</v>
       </c>
       <c r="L80">
-        <v>2052.1099209552272</v>
+        <v>1.4529772764969315E-2</v>
       </c>
       <c r="M80">
-        <v>118</v>
+        <v>330.14100074899829</v>
       </c>
       <c r="N80">
-        <v>6</v>
+        <v>302.50805354974295</v>
       </c>
       <c r="O80">
-        <v>7</v>
+        <v>1.0913461538461537</v>
       </c>
       <c r="P80">
-        <v>7</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>108</v>
+        <v>1852.8618279921757</v>
+      </c>
+      <c r="Q80">
+        <v>2110.2845466378703</v>
+      </c>
+      <c r="R80">
+        <v>91</v>
+      </c>
+      <c r="S80">
+        <v>6</v>
+      </c>
+      <c r="T80">
+        <v>7</v>
+      </c>
+      <c r="U80">
+        <v>7</v>
+      </c>
+      <c r="V80" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4970,18 +6183,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5196,18 +6409,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{48427C1C-3920-4FA0-B4D2-689FC1B553FA}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DD55C5B8-5DDC-4B87-A5DD-137C004B26E9}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
+    <workbookView xWindow="900" yWindow="-110" windowWidth="18410" windowHeight="11020" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -327,9 +327,6 @@
     <t>Zlaté Moravce</t>
   </si>
   <si>
-    <t>Datum</t>
-  </si>
-  <si>
     <t>Pocet_Obyvatelov</t>
   </si>
   <si>
@@ -379,6 +376,9 @@
   </si>
   <si>
     <t>Pozitivita_Ag</t>
+  </si>
+  <si>
+    <t>Platne od</t>
   </si>
 </sst>
 </file>
@@ -735,11 +735,11 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -754,60 +754,60 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L1" t="s">
-        <v>114</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>99</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>100</v>
-      </c>
-      <c r="O1" t="s">
-        <v>101</v>
       </c>
       <c r="P1" t="s">
         <v>5</v>
       </c>
       <c r="Q1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R1" t="s">
         <v>6</v>
       </c>
       <c r="S1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="T1" t="s">
         <v>4</v>
       </c>
       <c r="U1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -825,43 +825,43 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>594</v>
+        <v>515</v>
       </c>
       <c r="H2">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="I2">
-        <v>454</v>
+        <v>333</v>
       </c>
       <c r="J2">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K2">
-        <v>0.35205183585313177</v>
+        <v>0.25128205128205128</v>
       </c>
       <c r="L2">
-        <v>1.189402480270575E-2</v>
+        <v>9.5263297168563105E-3</v>
       </c>
       <c r="M2">
-        <v>432.72742306685223</v>
+        <v>261.84143433981507</v>
       </c>
       <c r="N2">
-        <v>316.96594683240772</v>
+        <v>416.1900693190745</v>
       </c>
       <c r="O2">
-        <v>1.3652173913043477</v>
+        <v>0.62913907284768211</v>
       </c>
       <c r="P2">
-        <v>2001.0198034811131</v>
+        <v>1595.8546366605569</v>
       </c>
       <c r="Q2">
-        <v>2439.2596777972244</v>
+        <v>2058.9005415983352</v>
       </c>
       <c r="R2">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T2">
         <v>7</v>
@@ -870,12 +870,12 @@
         <v>7</v>
       </c>
       <c r="V2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -893,43 +893,43 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>1496</v>
+        <v>1412</v>
       </c>
       <c r="H3">
-        <v>889</v>
+        <v>657</v>
       </c>
       <c r="I3">
-        <v>727</v>
+        <v>668</v>
       </c>
       <c r="J3">
-        <v>124</v>
+        <v>193</v>
       </c>
       <c r="K3">
-        <v>0.24247064828994386</v>
+        <v>0.18638392857142858</v>
       </c>
       <c r="L3">
-        <v>9.0662248607851267E-3</v>
+        <v>6.4189716272538841E-3</v>
       </c>
       <c r="M3">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="N3">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="O3">
-        <v>1.0174418604651163</v>
+        <v>0.9</v>
       </c>
       <c r="P3">
-        <v>1349.8333010010963</v>
+        <v>1275</v>
       </c>
       <c r="Q3">
-        <v>1685.4870362767699</v>
+        <v>1798</v>
       </c>
       <c r="R3">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="S3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T3">
         <v>6</v>
@@ -938,12 +938,12 @@
         <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -961,43 +961,43 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>0.18018018018018017</v>
+        <v>0.16153846153846155</v>
       </c>
       <c r="L4">
-        <v>1.4062190532778768E-2</v>
+        <v>1.9892752119010551E-2</v>
       </c>
       <c r="M4">
-        <v>99.465373616809643</v>
+        <v>105.68195946786024</v>
       </c>
       <c r="N4">
-        <v>211.36391893572048</v>
+        <v>105.68195946786024</v>
       </c>
       <c r="O4">
-        <v>0.4705882352941177</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>1330.349372124829</v>
+        <v>1355.2157155290315</v>
       </c>
       <c r="Q4">
-        <v>1460.8976749968917</v>
+        <v>1541.7132910605496</v>
       </c>
       <c r="R4">
         <v>7</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>6</v>
@@ -1006,12 +1006,12 @@
         <v>7</v>
       </c>
       <c r="V4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1029,43 +1029,43 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>769</v>
+        <v>868</v>
       </c>
       <c r="H5">
-        <v>373</v>
+        <v>435</v>
       </c>
       <c r="I5">
-        <v>487</v>
+        <v>574</v>
       </c>
       <c r="J5">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.22439024390243903</v>
+        <v>0.21414728682170542</v>
       </c>
       <c r="L5">
-        <v>1.2073958565382044E-2</v>
+        <v>9.0675579488131708E-3</v>
       </c>
       <c r="M5">
-        <v>282.88179398490439</v>
+        <v>275.16683596713426</v>
       </c>
       <c r="N5">
-        <v>196.73142945313805</v>
+        <v>284.16762032119942</v>
       </c>
       <c r="O5">
-        <v>1.4379084967320261</v>
+        <v>0.96832579185520351</v>
       </c>
       <c r="P5">
-        <v>1105.8106492137172</v>
+        <v>1297.3987733216752</v>
       </c>
       <c r="Q5">
-        <v>1279.3972046135448</v>
+        <v>1486.415244757043</v>
       </c>
       <c r="R5">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -1074,12 +1074,12 @@
         <v>7</v>
       </c>
       <c r="V5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1097,43 +1097,43 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>2329</v>
+        <v>1916</v>
       </c>
       <c r="H6">
-        <v>2377</v>
+        <v>2144</v>
       </c>
       <c r="I6">
-        <v>3095</v>
+        <v>3169</v>
       </c>
       <c r="J6">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="K6">
-        <v>0.12231371761397872</v>
+        <v>0.10221340572144498</v>
       </c>
       <c r="L6">
-        <v>9.0125414781738484E-3</v>
+        <v>6.945098525219978E-3</v>
       </c>
       <c r="M6">
-        <v>279.53352554150956</v>
+        <v>218.7754121386856</v>
       </c>
       <c r="N6">
-        <v>269.59968950986911</v>
+        <v>276.53027278775784</v>
       </c>
       <c r="O6">
-        <v>1.0368466152527851</v>
+        <v>0.79114452798663326</v>
       </c>
       <c r="P6">
-        <v>1264.1383898868928</v>
+        <v>1227.4062985140829</v>
       </c>
       <c r="Q6">
-        <v>1537.8964293634951</v>
+        <v>1453.3433133732535</v>
       </c>
       <c r="R6">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="S6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T6">
         <v>6</v>
@@ -1142,12 +1142,12 @@
         <v>7</v>
       </c>
       <c r="V6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1165,43 +1165,43 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>2329</v>
+        <v>1916</v>
       </c>
       <c r="H7">
-        <v>2377</v>
+        <v>2144</v>
       </c>
       <c r="I7">
-        <v>3095</v>
+        <v>3169</v>
       </c>
       <c r="J7">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="K7">
-        <v>0.12231371761397872</v>
+        <v>0.10221340572144498</v>
       </c>
       <c r="L7">
-        <v>9.0125414781738484E-3</v>
+        <v>6.945098525219978E-3</v>
       </c>
       <c r="M7">
-        <v>279.53352554150956</v>
+        <v>218.7754121386856</v>
       </c>
       <c r="N7">
-        <v>269.59968950986911</v>
+        <v>276.53027278775784</v>
       </c>
       <c r="O7">
-        <v>1.0368466152527851</v>
+        <v>0.79114452798663326</v>
       </c>
       <c r="P7">
-        <v>1264.1383898868928</v>
+        <v>1227.4062985140829</v>
       </c>
       <c r="Q7">
-        <v>1537.8964293634951</v>
+        <v>1453.3433133732535</v>
       </c>
       <c r="R7">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T7">
         <v>6</v>
@@ -1210,12 +1210,12 @@
         <v>7</v>
       </c>
       <c r="V7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1233,43 +1233,43 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>2329</v>
+        <v>1916</v>
       </c>
       <c r="H8">
-        <v>2377</v>
+        <v>2144</v>
       </c>
       <c r="I8">
-        <v>3095</v>
+        <v>3169</v>
       </c>
       <c r="J8">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="K8">
-        <v>0.12231371761397872</v>
+        <v>0.10221340572144498</v>
       </c>
       <c r="L8">
-        <v>9.0125414781738484E-3</v>
+        <v>6.945098525219978E-3</v>
       </c>
       <c r="M8">
-        <v>279.53352554150956</v>
+        <v>218.7754121386856</v>
       </c>
       <c r="N8">
-        <v>269.59968950986911</v>
+        <v>276.53027278775784</v>
       </c>
       <c r="O8">
-        <v>1.0368466152527851</v>
+        <v>0.79114452798663326</v>
       </c>
       <c r="P8">
-        <v>1264.1383898868928</v>
+        <v>1227.4062985140829</v>
       </c>
       <c r="Q8">
-        <v>1537.8964293634951</v>
+        <v>1453.3433133732535</v>
       </c>
       <c r="R8">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="S8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -1278,12 +1278,12 @@
         <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1301,43 +1301,43 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>2329</v>
+        <v>1916</v>
       </c>
       <c r="H9">
-        <v>2377</v>
+        <v>2144</v>
       </c>
       <c r="I9">
-        <v>3095</v>
+        <v>3169</v>
       </c>
       <c r="J9">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="K9">
-        <v>0.12231371761397872</v>
+        <v>0.10221340572144498</v>
       </c>
       <c r="L9">
-        <v>9.0125414781738484E-3</v>
+        <v>6.945098525219978E-3</v>
       </c>
       <c r="M9">
-        <v>279.53352554150956</v>
+        <v>218.7754121386856</v>
       </c>
       <c r="N9">
-        <v>269.59968950986911</v>
+        <v>276.53027278775784</v>
       </c>
       <c r="O9">
-        <v>1.0368466152527851</v>
+        <v>0.79114452798663326</v>
       </c>
       <c r="P9">
-        <v>1264.1383898868928</v>
+        <v>1227.4062985140829</v>
       </c>
       <c r="Q9">
-        <v>1537.8964293634951</v>
+        <v>1453.3433133732535</v>
       </c>
       <c r="R9">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="S9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T9">
         <v>6</v>
@@ -1346,12 +1346,12 @@
         <v>7</v>
       </c>
       <c r="V9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1369,43 +1369,43 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>2329</v>
+        <v>1916</v>
       </c>
       <c r="H10">
-        <v>2377</v>
+        <v>2144</v>
       </c>
       <c r="I10">
-        <v>3095</v>
+        <v>3169</v>
       </c>
       <c r="J10">
-        <v>395</v>
+        <v>326</v>
       </c>
       <c r="K10">
-        <v>0.12231371761397872</v>
+        <v>0.10221340572144498</v>
       </c>
       <c r="L10">
-        <v>9.0125414781738484E-3</v>
+        <v>6.945098525219978E-3</v>
       </c>
       <c r="M10">
-        <v>279.53352554150956</v>
+        <v>218.7754121386856</v>
       </c>
       <c r="N10">
-        <v>269.59968950986911</v>
+        <v>276.53027278775784</v>
       </c>
       <c r="O10">
-        <v>1.0368466152527851</v>
+        <v>0.79114452798663326</v>
       </c>
       <c r="P10">
-        <v>1264.1383898868928</v>
+        <v>1227.4062985140829</v>
       </c>
       <c r="Q10">
-        <v>1537.8964293634951</v>
+        <v>1453.3433133732535</v>
       </c>
       <c r="R10">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="S10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T10">
         <v>6</v>
@@ -1414,12 +1414,12 @@
         <v>7</v>
       </c>
       <c r="V10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1437,43 +1437,43 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>758</v>
+        <v>734</v>
       </c>
       <c r="H11">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="I11">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="J11">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="K11">
-        <v>0.37777777777777777</v>
+        <v>0.17555555555555555</v>
       </c>
       <c r="L11">
-        <v>1.7549947945069654E-2</v>
+        <v>9.063022866703848E-3</v>
       </c>
       <c r="M11">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c r="N11">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="O11">
-        <v>1.3756906077348066</v>
+        <v>0.4</v>
       </c>
       <c r="P11">
-        <v>1233.5332264705164</v>
+        <v>1198</v>
       </c>
       <c r="Q11">
-        <v>1423.9334738281027</v>
+        <v>1521</v>
       </c>
       <c r="R11">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="S11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T11">
         <v>6</v>
@@ -1482,12 +1482,12 @@
         <v>7</v>
       </c>
       <c r="V11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1505,43 +1505,43 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="H12">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="I12">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12">
-        <v>0.30379746835443039</v>
+        <v>0.22635135135135134</v>
       </c>
       <c r="L12">
-        <v>1.6553933784264861E-2</v>
+        <v>1.3974517057131115E-2</v>
       </c>
       <c r="M12">
+        <v>203.77138790956431</v>
+      </c>
+      <c r="N12">
         <v>278.16411682892908</v>
       </c>
-      <c r="N12">
-        <v>271.69518387941906</v>
-      </c>
       <c r="O12">
-        <v>1.0238095238095239</v>
+        <v>0.73255813953488369</v>
       </c>
       <c r="P12">
-        <v>1326.1312546495456</v>
+        <v>1390.8205841446454</v>
       </c>
       <c r="Q12">
-        <v>1500.792444286315</v>
+        <v>1555.7783743571499</v>
       </c>
       <c r="R12">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <v>6</v>
@@ -1550,12 +1550,12 @@
         <v>7</v>
       </c>
       <c r="V12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1573,57 +1573,57 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>1163</v>
+        <v>1342</v>
       </c>
       <c r="H13">
-        <v>399</v>
+        <v>550</v>
       </c>
       <c r="I13">
-        <v>779</v>
+        <v>904</v>
       </c>
       <c r="J13">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.33476394849785407</v>
+        <v>0.35473340587595215</v>
       </c>
       <c r="L13">
-        <v>1.4722457030149337E-2</v>
+        <v>1.2578075754971062E-2</v>
       </c>
       <c r="M13">
-        <v>257.5488454706927</v>
+        <v>354.12966252220252</v>
       </c>
       <c r="N13">
-        <v>185.39076376554172</v>
+        <v>256.43872113676736</v>
       </c>
       <c r="O13">
-        <v>1.3892215568862276</v>
+        <v>1.3809523809523809</v>
       </c>
       <c r="P13">
-        <v>1307.7264653641207</v>
+        <v>1614.1207815275311</v>
       </c>
       <c r="Q13">
-        <v>1417.6287744227354</v>
+        <v>1760.6571936056837</v>
       </c>
       <c r="R13">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="S13">
         <v>6</v>
       </c>
       <c r="T13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U13">
         <v>7</v>
       </c>
       <c r="V13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1641,57 +1641,57 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>375</v>
+        <v>285</v>
       </c>
       <c r="H14">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="I14">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="J14">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K14">
-        <v>0.22142857142857142</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="L14">
-        <v>9.6767099186276673E-3</v>
+        <v>8.2919914953933378E-3</v>
       </c>
       <c r="M14">
-        <v>168.48148263704721</v>
+        <v>90.480796231006835</v>
       </c>
       <c r="N14">
-        <v>174.72153754953044</v>
+        <v>156.00137281208075</v>
       </c>
       <c r="O14">
-        <v>0.9642857142857143</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="P14">
-        <v>1326.0116689026863</v>
+        <v>1032.7290880159744</v>
       </c>
       <c r="Q14">
-        <v>1531.9334810146329</v>
+        <v>1191.8504882842969</v>
       </c>
       <c r="R14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U14">
         <v>7</v>
       </c>
       <c r="V14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1709,40 +1709,40 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="H15">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="I15">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="J15">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="K15">
-        <v>0.24198250728862974</v>
+        <v>0.23389021479713604</v>
       </c>
       <c r="L15">
-        <v>1.6739963115335509E-2</v>
+        <v>1.3628837090816456E-2</v>
       </c>
       <c r="M15">
-        <v>235.70260920253949</v>
+        <v>283.85690570628412</v>
       </c>
       <c r="N15">
-        <v>174.87612940833577</v>
+        <v>253.44366580918225</v>
       </c>
       <c r="O15">
-        <v>1.3478260869565215</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="P15">
-        <v>1606.8328412302153</v>
+        <v>1786.7778439547351</v>
       </c>
       <c r="Q15">
-        <v>1804.5189005613777</v>
+        <v>2030.0837631315499</v>
       </c>
       <c r="R15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S15">
         <v>6</v>
@@ -1757,9 +1757,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1777,43 +1777,43 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>1837</v>
+        <v>1311</v>
       </c>
       <c r="H16">
-        <v>851</v>
+        <v>726</v>
       </c>
       <c r="I16">
-        <v>1460</v>
+        <v>1019</v>
       </c>
       <c r="J16">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K16">
-        <v>0.25260115606936417</v>
+        <v>0.23369175627240144</v>
       </c>
       <c r="L16">
-        <v>8.91680120865611E-3</v>
+        <v>6.0833694483234616E-3</v>
       </c>
       <c r="M16">
-        <v>344.07231239477596</v>
+        <v>255.80673106785011</v>
       </c>
       <c r="N16">
-        <v>351.42777750535316</v>
+        <v>337.53412118537409</v>
       </c>
       <c r="O16">
-        <v>0.97906976744186036</v>
+        <v>0.75786924939467315</v>
       </c>
       <c r="P16">
-        <v>1888.7199856159793</v>
+        <v>1426.1429575507937</v>
       </c>
       <c r="Q16">
-        <v>2168.2276598179114</v>
+        <v>1710.5542751597773</v>
       </c>
       <c r="R16">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T16">
         <v>7</v>
@@ -1825,9 +1825,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1845,43 +1845,43 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>1427</v>
+        <v>1187</v>
       </c>
       <c r="H17">
-        <v>757</v>
+        <v>608</v>
       </c>
       <c r="I17">
-        <v>949</v>
+        <v>644</v>
       </c>
       <c r="J17">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.30161166538756717</v>
+        <v>0.21030405405405406</v>
       </c>
       <c r="L17">
-        <v>9.9002202928599198E-3</v>
+        <v>7.379852402951941E-3</v>
       </c>
       <c r="M17">
-        <v>401.80279773799907</v>
+        <v>248.73506526638039</v>
       </c>
       <c r="N17">
-        <v>402.86576810238535</v>
+        <v>397.55091628045409</v>
       </c>
       <c r="O17">
-        <v>0.99736147757255933</v>
+        <v>0.62566844919786102</v>
       </c>
       <c r="P17">
-        <v>1813.4274416429269</v>
+        <v>1330.8388962115737</v>
       </c>
       <c r="Q17">
-        <v>2116.3739954930056</v>
+        <v>1538.1181172668905</v>
       </c>
       <c r="R17">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="S17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T17">
         <v>7</v>
@@ -1893,9 +1893,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1913,57 +1913,57 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="H18">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="I18">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J18">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.19718309859154928</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="L18">
-        <v>1.5446363415227439E-2</v>
+        <v>1.147156778093006E-2</v>
       </c>
       <c r="M18">
-        <v>160.0351449730137</v>
+        <v>260.44935358353206</v>
       </c>
       <c r="N18">
-        <v>163.1730889920924</v>
+        <v>156.897200953935</v>
       </c>
       <c r="O18">
-        <v>0.98076923076923073</v>
+        <v>1.6599999999999997</v>
       </c>
       <c r="P18">
-        <v>1386.9712564327854</v>
+        <v>1565.8340655202712</v>
       </c>
       <c r="Q18">
-        <v>1575.2478975775073</v>
+        <v>1876.4905234090625</v>
       </c>
       <c r="R18">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S18">
         <v>6</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U18">
         <v>7</v>
       </c>
       <c r="V18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1981,57 +1981,57 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>790</v>
+        <v>592</v>
       </c>
       <c r="H19">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="I19">
-        <v>554</v>
+        <v>358</v>
       </c>
       <c r="J19">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>0.31778929188255611</v>
+        <v>0.29772329246935203</v>
       </c>
       <c r="L19">
-        <v>1.0216441097477488E-2</v>
+        <v>7.5775238983446028E-3</v>
       </c>
       <c r="M19">
-        <v>397.66731463482364</v>
+        <v>359.9000277700639</v>
       </c>
       <c r="N19">
-        <v>337.68397667314633</v>
+        <v>417.66176062204943</v>
       </c>
       <c r="O19">
-        <v>1.1776315789473684</v>
+        <v>0.86170212765957455</v>
       </c>
       <c r="P19">
-        <v>1966.120522077201</v>
+        <v>1572.8964176617608</v>
       </c>
       <c r="Q19">
-        <v>2226.0483199111359</v>
+        <v>1859.4834768119968</v>
       </c>
       <c r="R19">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U19">
         <v>7</v>
       </c>
       <c r="V19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -2049,40 +2049,40 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="H20">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="I20">
-        <v>627</v>
+        <v>568</v>
       </c>
       <c r="J20">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="K20">
-        <v>0.32482993197278914</v>
+        <v>0.32203389830508472</v>
       </c>
       <c r="L20">
-        <v>1.3659647125782584E-2</v>
+        <v>1.0158201498751041E-2</v>
       </c>
       <c r="M20">
-        <v>300.07017770284983</v>
+        <v>275.87096982358776</v>
       </c>
       <c r="N20">
-        <v>179.07413830653942</v>
+        <v>306.52329980398639</v>
       </c>
       <c r="O20">
-        <v>1.6756756756756757</v>
+        <v>0.9</v>
       </c>
       <c r="P20">
-        <v>1490.6712053625445</v>
+        <v>1498.7376079889652</v>
       </c>
       <c r="Q20">
-        <v>1761.7023336102798</v>
+        <v>1823.0069935710771</v>
       </c>
       <c r="R20">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S20">
         <v>6</v>
@@ -2097,9 +2097,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -2117,43 +2117,43 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>1097</v>
+        <v>1062</v>
       </c>
       <c r="H21">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="I21">
-        <v>980</v>
+        <v>1078</v>
       </c>
       <c r="J21">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K21">
-        <v>0.2857142857142857</v>
+        <v>0.28752886836027713</v>
       </c>
       <c r="L21">
-        <v>2.4476680999858242E-2</v>
+        <v>2.1944632005401754E-2</v>
       </c>
       <c r="M21">
-        <v>486.58922914466734</v>
+        <v>417.31784582893351</v>
       </c>
       <c r="N21">
-        <v>383.52692713833159</v>
+        <v>484.89968321013725</v>
       </c>
       <c r="O21">
-        <v>1.2687224669603523</v>
+        <v>0.86062717770034858</v>
       </c>
       <c r="P21">
-        <v>2525.8711721224918</v>
+        <v>2723.5480464625134</v>
       </c>
       <c r="Q21">
-        <v>2809.7148891235479</v>
+        <v>3022.5976768743399</v>
       </c>
       <c r="R21">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T21">
         <v>7</v>
@@ -2165,9 +2165,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2185,40 +2185,40 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>346</v>
+        <v>434</v>
       </c>
       <c r="H22">
-        <v>124</v>
+        <v>172</v>
       </c>
       <c r="I22">
-        <v>582</v>
+        <v>508</v>
       </c>
       <c r="J22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K22">
-        <v>0.14426877470355731</v>
+        <v>0.1648</v>
       </c>
       <c r="L22">
-        <v>1.0759089942589836E-2</v>
+        <v>9.9809060926922405E-3</v>
       </c>
       <c r="M22">
-        <v>97.029308167741078</v>
+        <v>132.91686050375492</v>
       </c>
       <c r="N22">
-        <v>67.787598856914997</v>
+        <v>95.700139562703527</v>
       </c>
       <c r="O22">
-        <v>1.4313725490196079</v>
+        <v>1.3888888888888891</v>
       </c>
       <c r="P22">
-        <v>938.39303515650965</v>
+        <v>903.83465142553337</v>
       </c>
       <c r="Q22">
-        <v>974.28058749252352</v>
+        <v>947.69721539177237</v>
       </c>
       <c r="R22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="S22">
         <v>5</v>
@@ -2230,12 +2230,12 @@
         <v>7</v>
       </c>
       <c r="V22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -2253,40 +2253,40 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>1756</v>
+        <v>1515</v>
       </c>
       <c r="H23">
-        <v>478</v>
+        <v>581</v>
       </c>
       <c r="I23">
-        <v>1205</v>
+        <v>976</v>
       </c>
       <c r="J23">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>0.20730397422126745</v>
+        <v>0.27481840193704599</v>
       </c>
       <c r="L23">
-        <v>1.72311348781937E-2</v>
+        <v>1.3387960513581522E-2</v>
       </c>
       <c r="M23">
-        <v>259.55767046990752</v>
+        <v>302.81728221489197</v>
       </c>
       <c r="N23">
-        <v>210.39902075969778</v>
+        <v>268.4062274177453</v>
       </c>
       <c r="O23">
-        <v>1.233644859813084</v>
+        <v>1.1282051282051275</v>
       </c>
       <c r="P23">
-        <v>1726.4517778225668</v>
+        <v>1530.800351975932</v>
       </c>
       <c r="Q23">
-        <v>1879.8267649184213</v>
+        <v>1669.4277441587235</v>
       </c>
       <c r="R23">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="S23">
         <v>6</v>
@@ -2298,12 +2298,12 @@
         <v>7</v>
       </c>
       <c r="V23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -2321,43 +2321,43 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>5118</v>
+        <v>4339</v>
       </c>
       <c r="H24">
-        <v>2741</v>
+        <v>2554</v>
       </c>
       <c r="I24">
-        <v>3173</v>
+        <v>2503</v>
       </c>
       <c r="J24">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="K24">
-        <v>0.29730651210364817</v>
+        <v>0.27756797583081572</v>
       </c>
       <c r="L24">
-        <v>1.1062882582081247E-2</v>
+        <v>8.4427284427284425E-3</v>
       </c>
       <c r="M24">
-        <v>368.25910667293107</v>
+        <v>298.46368601294341</v>
       </c>
       <c r="N24">
-        <v>376.13485452950556</v>
+        <v>395.14528039020257</v>
       </c>
       <c r="O24">
-        <v>0.97906137184115527</v>
+        <v>0.75532646048109975</v>
       </c>
       <c r="P24">
-        <v>1606.1094077166035</v>
+        <v>1373.3674796792127</v>
       </c>
       <c r="Q24">
-        <v>1825.2724601392108</v>
+        <v>1563.2001607738873</v>
       </c>
       <c r="R24">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T24">
         <v>7</v>
@@ -2366,12 +2366,12 @@
         <v>7</v>
       </c>
       <c r="V24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2389,43 +2389,43 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>5118</v>
+        <v>4339</v>
       </c>
       <c r="H25">
-        <v>2741</v>
+        <v>2554</v>
       </c>
       <c r="I25">
-        <v>3173</v>
+        <v>2503</v>
       </c>
       <c r="J25">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="K25">
-        <v>0.29730651210364817</v>
+        <v>0.27756797583081572</v>
       </c>
       <c r="L25">
-        <v>1.1062882582081247E-2</v>
+        <v>8.4427284427284425E-3</v>
       </c>
       <c r="M25">
-        <v>368.25910667293107</v>
+        <v>298.46368601294341</v>
       </c>
       <c r="N25">
-        <v>376.13485452950556</v>
+        <v>395.14528039020257</v>
       </c>
       <c r="O25">
-        <v>0.97906137184115527</v>
+        <v>0.75532646048109975</v>
       </c>
       <c r="P25">
-        <v>1606.1094077166035</v>
+        <v>1373.3674796792127</v>
       </c>
       <c r="Q25">
-        <v>1825.2724601392108</v>
+        <v>1563.2001607738873</v>
       </c>
       <c r="R25">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="S25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T25">
         <v>7</v>
@@ -2434,12 +2434,12 @@
         <v>7</v>
       </c>
       <c r="V25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2457,43 +2457,43 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>5118</v>
+        <v>4339</v>
       </c>
       <c r="H26">
-        <v>2741</v>
+        <v>2554</v>
       </c>
       <c r="I26">
-        <v>3173</v>
+        <v>2503</v>
       </c>
       <c r="J26">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="K26">
-        <v>0.29730651210364817</v>
+        <v>0.27756797583081572</v>
       </c>
       <c r="L26">
-        <v>1.1062882582081247E-2</v>
+        <v>8.4427284427284425E-3</v>
       </c>
       <c r="M26">
-        <v>368.25910667293107</v>
+        <v>298.46368601294341</v>
       </c>
       <c r="N26">
-        <v>376.13485452950556</v>
+        <v>395.14528039020257</v>
       </c>
       <c r="O26">
-        <v>0.97906137184115527</v>
+        <v>0.75532646048109975</v>
       </c>
       <c r="P26">
-        <v>1606.1094077166035</v>
+        <v>1373.3674796792127</v>
       </c>
       <c r="Q26">
-        <v>1825.2724601392108</v>
+        <v>1563.2001607738873</v>
       </c>
       <c r="R26">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="S26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T26">
         <v>7</v>
@@ -2502,12 +2502,12 @@
         <v>7</v>
       </c>
       <c r="V26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2525,43 +2525,43 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>5118</v>
+        <v>4339</v>
       </c>
       <c r="H27">
-        <v>2741</v>
+        <v>2554</v>
       </c>
       <c r="I27">
-        <v>3173</v>
+        <v>2503</v>
       </c>
       <c r="J27">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="K27">
-        <v>0.29730651210364817</v>
+        <v>0.27756797583081572</v>
       </c>
       <c r="L27">
-        <v>1.1062882582081247E-2</v>
+        <v>8.4427284427284425E-3</v>
       </c>
       <c r="M27">
-        <v>368.25910667293107</v>
+        <v>298.46368601294341</v>
       </c>
       <c r="N27">
-        <v>376.13485452950556</v>
+        <v>395.14528039020257</v>
       </c>
       <c r="O27">
-        <v>0.97906137184115527</v>
+        <v>0.75532646048109975</v>
       </c>
       <c r="P27">
-        <v>1606.1094077166035</v>
+        <v>1373.3674796792127</v>
       </c>
       <c r="Q27">
-        <v>1825.2724601392108</v>
+        <v>1563.2001607738873</v>
       </c>
       <c r="R27">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="S27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T27">
         <v>7</v>
@@ -2570,12 +2570,12 @@
         <v>7</v>
       </c>
       <c r="V27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2593,43 +2593,43 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>5118</v>
+        <v>4339</v>
       </c>
       <c r="H28">
-        <v>2741</v>
+        <v>2554</v>
       </c>
       <c r="I28">
-        <v>3173</v>
+        <v>2503</v>
       </c>
       <c r="J28">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="K28">
-        <v>0.29730651210364817</v>
+        <v>0.27756797583081572</v>
       </c>
       <c r="L28">
-        <v>1.1062882582081247E-2</v>
+        <v>8.4427284427284425E-3</v>
       </c>
       <c r="M28">
-        <v>368.25910667293107</v>
+        <v>298.46368601294341</v>
       </c>
       <c r="N28">
-        <v>376.13485452950556</v>
+        <v>395.14528039020257</v>
       </c>
       <c r="O28">
-        <v>0.97906137184115527</v>
+        <v>0.75532646048109975</v>
       </c>
       <c r="P28">
-        <v>1606.1094077166035</v>
+        <v>1373.3674796792127</v>
       </c>
       <c r="Q28">
-        <v>1825.2724601392108</v>
+        <v>1563.2001607738873</v>
       </c>
       <c r="R28">
-        <v>245</v>
+        <v>76</v>
       </c>
       <c r="S28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T28">
         <v>7</v>
@@ -2638,12 +2638,12 @@
         <v>7</v>
       </c>
       <c r="V28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2661,57 +2661,57 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="H29">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I29">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="J29">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="K29">
-        <v>0.1</v>
+        <v>0.20129870129870131</v>
       </c>
       <c r="L29">
-        <v>9.129893484576013E-3</v>
+        <v>9.0250413118088211E-3</v>
       </c>
       <c r="M29">
+        <v>130.73663330628438</v>
+      </c>
+      <c r="N29">
         <v>58.60607699936886</v>
       </c>
-      <c r="N29">
-        <v>94.671355152826621</v>
-      </c>
       <c r="O29">
-        <v>0.61904761904761907</v>
+        <v>2.2307692307692308</v>
       </c>
       <c r="P29">
-        <v>788.92795960688841</v>
+        <v>901.63195383644404</v>
       </c>
       <c r="Q29">
-        <v>883.59931475971496</v>
+        <v>1063.9257055270039</v>
       </c>
       <c r="R29">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U29">
         <v>7</v>
       </c>
       <c r="V29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2729,57 +2729,57 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>389</v>
+        <v>509</v>
       </c>
       <c r="H30">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="I30">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="J30">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K30">
-        <v>0.1855072463768116</v>
+        <v>0.24378109452736318</v>
       </c>
       <c r="L30">
-        <v>1.5136226034308779E-2</v>
+        <v>1.3912783304660035E-2</v>
       </c>
       <c r="M30">
-        <v>191.40791152700979</v>
+        <v>303.82208178890443</v>
       </c>
       <c r="N30">
-        <v>118.49061189767272</v>
+        <v>194.44613234489881</v>
       </c>
       <c r="O30">
-        <v>1.6153846153846154</v>
+        <v>1.5625000000000002</v>
       </c>
       <c r="P30">
-        <v>1181.8678981588382</v>
+        <v>1601.1423710275262</v>
       </c>
       <c r="Q30">
-        <v>1291.2438476028437</v>
+        <v>1746.9769702862004</v>
       </c>
       <c r="R30">
         <v>24</v>
       </c>
       <c r="S30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U30">
         <v>7</v>
       </c>
       <c r="V30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2797,43 +2797,43 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>665</v>
+        <v>200</v>
       </c>
       <c r="H31">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="I31">
-        <v>671</v>
+        <v>576</v>
       </c>
       <c r="J31">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.15501519756838905</v>
+        <v>0.14130434782608695</v>
       </c>
       <c r="L31">
-        <v>8.8165835738651267E-3</v>
+        <v>6.2434963579604576E-3</v>
       </c>
       <c r="M31">
-        <v>101.0611419909045</v>
+        <v>106.47513174041724</v>
       </c>
       <c r="N31">
-        <v>110.0844582400924</v>
+        <v>100.1588103659857</v>
       </c>
       <c r="O31">
-        <v>0.91803278688524592</v>
+        <v>1.0630630630630631</v>
       </c>
       <c r="P31">
-        <v>751.64224355735212</v>
+        <v>700.20934093698111</v>
       </c>
       <c r="Q31">
-        <v>886.99198729517082</v>
+        <v>816.61012055150513</v>
       </c>
       <c r="R31">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="S31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T31">
         <v>6</v>
@@ -2842,12 +2842,12 @@
         <v>7</v>
       </c>
       <c r="V31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2865,40 +2865,40 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="H32">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="I32">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="J32">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K32">
-        <v>0.16797900262467191</v>
+        <v>0.23423423423423423</v>
       </c>
       <c r="L32">
-        <v>7.3433256211648725E-3</v>
+        <v>1.0933470861268696E-2</v>
       </c>
       <c r="M32">
-        <v>175.06379443356477</v>
+        <v>219.57153878108124</v>
       </c>
       <c r="N32">
-        <v>133.52323304254941</v>
+        <v>169.12942852056256</v>
       </c>
       <c r="O32">
-        <v>1.3111111111111111</v>
+        <v>1.298245614035088</v>
       </c>
       <c r="P32">
-        <v>792.23784938579308</v>
+        <v>771.46756869028547</v>
       </c>
       <c r="Q32">
-        <v>899.05643581983259</v>
+        <v>949.49854608035128</v>
       </c>
       <c r="R32">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S32">
         <v>6</v>
@@ -2910,12 +2910,12 @@
         <v>7</v>
       </c>
       <c r="V32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2933,40 +2933,40 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>1073</v>
+        <v>1248</v>
       </c>
       <c r="H33">
-        <v>512</v>
+        <v>620</v>
       </c>
       <c r="I33">
-        <v>821</v>
+        <v>881</v>
       </c>
       <c r="J33">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.27197518097207857</v>
+        <v>0.25889046941678523</v>
       </c>
       <c r="L33">
-        <v>1.6951678402444024E-2</v>
+        <v>1.2989198102096443E-2</v>
       </c>
       <c r="M33">
-        <v>365.34482877920857</v>
+        <v>494.0458480082479</v>
       </c>
       <c r="N33">
-        <v>343.20271794410502</v>
+        <v>363.96094685201456</v>
       </c>
       <c r="O33">
-        <v>1.064516129032258</v>
+        <v>1.3574144486692015</v>
       </c>
       <c r="P33">
-        <v>1844.7146089495645</v>
+        <v>2077.206772718152</v>
       </c>
       <c r="Q33">
-        <v>2089.6617100628973</v>
+        <v>2347.0637485209759</v>
       </c>
       <c r="R33">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S33">
         <v>6</v>
@@ -2978,12 +2978,12 @@
         <v>7</v>
       </c>
       <c r="V33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3001,40 +3001,40 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>726</v>
+        <v>708</v>
       </c>
       <c r="H34">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="I34">
-        <v>685</v>
+        <v>585</v>
       </c>
       <c r="J34">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="K34">
-        <v>0.20544554455445543</v>
+        <v>0.20734908136482941</v>
       </c>
       <c r="L34">
-        <v>2.0553244994680336E-2</v>
+        <v>1.0331262178756571E-2</v>
       </c>
       <c r="M34">
-        <v>202.81490757629379</v>
+        <v>190.56434268913512</v>
       </c>
       <c r="N34">
-        <v>198.73138594724091</v>
+        <v>200.09255982359184</v>
       </c>
       <c r="O34">
-        <v>1.0205479452054793</v>
+        <v>0.95238095238095255</v>
       </c>
       <c r="P34">
-        <v>1333.9503988239458</v>
+        <v>1186.9436201780416</v>
       </c>
       <c r="Q34">
-        <v>1538.1264802765904</v>
+        <v>1358.4515285982632</v>
       </c>
       <c r="R34">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="S34">
         <v>5</v>
@@ -3046,12 +3046,12 @@
         <v>7</v>
       </c>
       <c r="V34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -3069,43 +3069,43 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H35">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="I35">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="J35">
         <v>38</v>
       </c>
       <c r="K35">
-        <v>0.15290269828291086</v>
+        <v>0.13835125448028673</v>
       </c>
       <c r="L35">
-        <v>1.501779359430605E-2</v>
+        <v>1.3952561291608531E-2</v>
       </c>
       <c r="M35">
-        <v>250.25900461499131</v>
+        <v>258.33187573160393</v>
       </c>
       <c r="N35">
-        <v>199.13082087644469</v>
+        <v>258.33187573160393</v>
       </c>
       <c r="O35">
-        <v>1.2567567567567568</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>1062.9280303539954</v>
+        <v>1196.1304037781035</v>
       </c>
       <c r="Q35">
-        <v>1216.3125815696353</v>
+        <v>1349.5149549937435</v>
       </c>
       <c r="R35">
         <v>39</v>
       </c>
       <c r="S35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T35">
         <v>6</v>
@@ -3114,12 +3114,12 @@
         <v>7</v>
       </c>
       <c r="V35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -3137,40 +3137,40 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>1896</v>
+        <v>1825</v>
       </c>
       <c r="H36">
-        <v>985</v>
+        <v>1076</v>
       </c>
       <c r="I36">
-        <v>1007</v>
+        <v>887</v>
       </c>
       <c r="J36">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="K36">
-        <v>0.28178178178178176</v>
+        <v>0.24074074074074073</v>
       </c>
       <c r="L36">
-        <v>1.2348734192877825E-2</v>
+        <v>9.6325821452297004E-3</v>
       </c>
       <c r="M36">
-        <v>580.2487076750607</v>
+        <v>531.46214370238124</v>
       </c>
       <c r="N36">
-        <v>442.19311175237186</v>
+        <v>585.4387676721542</v>
       </c>
       <c r="O36">
-        <v>1.312206572769953</v>
+        <v>0.90780141843971651</v>
       </c>
       <c r="P36">
-        <v>2067.7199028420769</v>
+        <v>2037.617554858934</v>
       </c>
       <c r="Q36">
-        <v>2382.2375386659469</v>
+        <v>2370.8194066723408</v>
       </c>
       <c r="R36">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="S36">
         <v>6</v>
@@ -3182,12 +3182,12 @@
         <v>7</v>
       </c>
       <c r="V36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -3205,57 +3205,57 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="I37">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K37">
-        <v>0.1111111111111111</v>
+        <v>0.20370370370370369</v>
       </c>
       <c r="L37">
-        <v>1.4041095890410958E-2</v>
+        <v>9.3403385872737887E-3</v>
       </c>
       <c r="M37">
-        <v>50.669256428661903</v>
+        <v>92.893636785880162</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>42.224380357218259</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>2.1999999999999997</v>
       </c>
       <c r="P37">
-        <v>641.81058142971756</v>
+        <v>785.37347464425966</v>
       </c>
       <c r="Q37">
-        <v>692.47983785837937</v>
+        <v>886.71198750158339</v>
       </c>
       <c r="R37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U37">
         <v>7</v>
       </c>
       <c r="V37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -3273,40 +3273,40 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="H38">
-        <v>470</v>
+        <v>540</v>
       </c>
       <c r="I38">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="J38">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K38">
-        <v>0.25023084025854109</v>
+        <v>0.27255813953488373</v>
       </c>
       <c r="L38">
-        <v>9.8646957143708643E-3</v>
+        <v>9.0629323244586241E-3</v>
       </c>
       <c r="M38">
+        <v>252.02113725667314</v>
+      </c>
+      <c r="N38">
         <v>235.76170904656522</v>
       </c>
-      <c r="N38">
-        <v>188.7900275506978</v>
-      </c>
       <c r="O38">
-        <v>1.2488038277511964</v>
+        <v>1.0689655172413792</v>
       </c>
       <c r="P38">
-        <v>1029.7637866401699</v>
+        <v>1102.0279120184273</v>
       </c>
       <c r="Q38">
-        <v>1170.6788311277719</v>
+        <v>1280.8816223296149</v>
       </c>
       <c r="R38">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="S38">
         <v>6</v>
@@ -3318,12 +3318,12 @@
         <v>7</v>
       </c>
       <c r="V38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -3341,57 +3341,57 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="H39">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="I39">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J39">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K39">
-        <v>0.24866310160427807</v>
+        <v>0.24303797468354429</v>
       </c>
       <c r="L39">
-        <v>9.3495934959349596E-3</v>
+        <v>6.9040205766887778E-3</v>
       </c>
       <c r="M39">
+        <v>371.8318409470329</v>
+      </c>
+      <c r="N39">
         <v>364.24343602974653</v>
       </c>
-      <c r="N39">
-        <v>254.21156472909394</v>
-      </c>
       <c r="O39">
-        <v>1.4328358208955223</v>
+        <v>1.0208333333333333</v>
       </c>
       <c r="P39">
-        <v>1373.5012900288359</v>
+        <v>1582.1824252542115</v>
       </c>
       <c r="Q39">
-        <v>1544.2404006677798</v>
+        <v>1809.8345727728033</v>
       </c>
       <c r="R39">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="S39">
         <v>6</v>
       </c>
       <c r="T39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U39">
         <v>7</v>
       </c>
       <c r="V39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -3409,44 +3409,44 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>402</v>
+        <v>479</v>
       </c>
       <c r="H40">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="I40">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="J40">
+        <v>10</v>
+      </c>
+      <c r="K40">
+        <v>0.11285266457680251</v>
+      </c>
+      <c r="L40">
+        <v>7.1264587717620046E-3</v>
+      </c>
+      <c r="M40">
+        <v>108.51612182530501</v>
+      </c>
+      <c r="N40">
+        <v>97.345344578582427</v>
+      </c>
+      <c r="O40">
+        <v>1.1147540983606559</v>
+      </c>
+      <c r="P40">
+        <v>764.40032874001611</v>
+      </c>
+      <c r="Q40">
+        <v>812.27508836882714</v>
+      </c>
+      <c r="R40">
+        <v>25</v>
+      </c>
+      <c r="S40">
         <v>5</v>
       </c>
-      <c r="K40">
-        <v>0.1020066889632107</v>
-      </c>
-      <c r="L40">
-        <v>8.8834133056672291E-3</v>
-      </c>
-      <c r="M40">
-        <v>89.366217973780593</v>
-      </c>
-      <c r="N40">
-        <v>43.087283665929931</v>
-      </c>
-      <c r="O40">
-        <v>2.074074074074074</v>
-      </c>
-      <c r="P40">
-        <v>641.52177902606786</v>
-      </c>
-      <c r="Q40">
-        <v>665.45915884047338</v>
-      </c>
-      <c r="R40">
-        <v>18</v>
-      </c>
-      <c r="S40">
-        <v>6</v>
-      </c>
       <c r="T40">
         <v>6</v>
       </c>
@@ -3454,12 +3454,12 @@
         <v>7</v>
       </c>
       <c r="V40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3477,40 +3477,40 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>680</v>
+        <v>510</v>
       </c>
       <c r="H41">
-        <v>432</v>
+        <v>374</v>
       </c>
       <c r="I41">
-        <v>620</v>
+        <v>507</v>
       </c>
       <c r="J41">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="K41">
-        <v>9.4955489614243327E-2</v>
+        <v>0.10727056019070322</v>
       </c>
       <c r="L41">
-        <v>3.7135706789375961E-3</v>
+        <v>4.1284271699415977E-3</v>
       </c>
       <c r="M41">
-        <v>115.12750680861599</v>
+        <v>115.74647189898489</v>
       </c>
       <c r="N41">
-        <v>152.26541223075017</v>
+        <v>115.74647189898489</v>
       </c>
       <c r="O41">
-        <v>0.75609756097560976</v>
+        <v>1</v>
       </c>
       <c r="P41">
-        <v>651.15127506808619</v>
+        <v>545.30824461500367</v>
       </c>
       <c r="Q41">
-        <v>745.85293389452841</v>
+        <v>627.01163654369896</v>
       </c>
       <c r="R41">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="S41">
         <v>6</v>
@@ -3522,12 +3522,12 @@
         <v>7</v>
       </c>
       <c r="V41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -3545,40 +3545,40 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>1189</v>
+        <v>1086</v>
       </c>
       <c r="H42">
-        <v>551</v>
+        <v>589</v>
       </c>
       <c r="I42">
-        <v>833</v>
+        <v>748</v>
       </c>
       <c r="J42">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="K42">
-        <v>0.31013916500994038</v>
+        <v>0.28638941398865786</v>
       </c>
       <c r="L42">
-        <v>1.5757124231700503E-2</v>
+        <v>1.0973936899862825E-2</v>
       </c>
       <c r="M42">
-        <v>493.97715555484507</v>
+        <v>460.40589255597212</v>
       </c>
       <c r="N42">
-        <v>386.86884027272657</v>
+        <v>481.18810298384585</v>
       </c>
       <c r="O42">
-        <v>1.2768595041322313</v>
+        <v>0.95681063122923593</v>
       </c>
       <c r="P42">
-        <v>2212.5060947828656</v>
+        <v>2137.3704109282453</v>
       </c>
       <c r="Q42">
-        <v>2452.3008304891014</v>
+        <v>2545.0214616288458</v>
       </c>
       <c r="R42">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="S42">
         <v>6</v>
@@ -3590,12 +3590,12 @@
         <v>7</v>
       </c>
       <c r="V42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -3613,57 +3613,57 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>1264</v>
+        <v>1019</v>
       </c>
       <c r="H43">
-        <v>315</v>
+        <v>384</v>
       </c>
       <c r="I43">
-        <v>1083</v>
+        <v>809</v>
       </c>
       <c r="J43">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="K43">
-        <v>0.18070953436807094</v>
+        <v>0.21503330161750714</v>
       </c>
       <c r="L43">
-        <v>9.260757763751775E-3</v>
+        <v>6.4407267938350107E-3</v>
       </c>
       <c r="M43">
-        <v>108.62957674032135</v>
+        <v>146.03843760453799</v>
       </c>
       <c r="N43">
-        <v>117.98179195637552</v>
+        <v>130.2116118542925</v>
       </c>
       <c r="O43">
-        <v>0.9207317073170731</v>
+        <v>1.1215469613259668</v>
       </c>
       <c r="P43">
-        <v>1005.7228363110546</v>
+        <v>858.24559636558524</v>
       </c>
       <c r="Q43">
-        <v>1161.1134891316469</v>
+        <v>1024.427266743163</v>
       </c>
       <c r="R43">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="S43">
         <v>5</v>
       </c>
       <c r="T43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U43">
         <v>7</v>
       </c>
       <c r="V43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3681,57 +3681,57 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="H44">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="I44">
-        <v>555</v>
+        <v>394</v>
       </c>
       <c r="J44">
+        <v>26</v>
+      </c>
+      <c r="K44">
+        <v>0.2289156626506024</v>
+      </c>
+      <c r="L44">
+        <v>8.9753595718586234E-3</v>
+      </c>
+      <c r="M44">
+        <v>151.32740451569748</v>
+      </c>
+      <c r="N44">
+        <v>166.67946004627549</v>
+      </c>
+      <c r="O44">
+        <v>0.9078947368421052</v>
+      </c>
+      <c r="P44">
+        <v>1182.1082758545065</v>
+      </c>
+      <c r="Q44">
+        <v>1353.1740374809469</v>
+      </c>
+      <c r="R44">
         <v>38</v>
-      </c>
-      <c r="K44">
-        <v>0.24372759856630824</v>
-      </c>
-      <c r="L44">
-        <v>1.3009111867383906E-2</v>
-      </c>
-      <c r="M44">
-        <v>138.16849977520206</v>
-      </c>
-      <c r="N44">
-        <v>252.21234085949581</v>
-      </c>
-      <c r="O44">
-        <v>0.5478260869565218</v>
-      </c>
-      <c r="P44">
-        <v>1607.5795291305255</v>
-      </c>
-      <c r="Q44">
-        <v>1857.5987191999386</v>
-      </c>
-      <c r="R44">
-        <v>51</v>
       </c>
       <c r="S44">
         <v>5</v>
       </c>
       <c r="T44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U44">
         <v>7</v>
       </c>
       <c r="V44" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3749,40 +3749,40 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>333</v>
+        <v>243</v>
       </c>
       <c r="H45">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I45">
-        <v>511</v>
+        <v>709</v>
       </c>
       <c r="J45">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>0.15450643776824036</v>
+        <v>0.15273132664437011</v>
       </c>
       <c r="L45">
-        <v>2.4228343843345504E-2</v>
+        <v>1.6581396782346051E-2</v>
       </c>
       <c r="M45">
+        <v>202.6249136541561</v>
+      </c>
+      <c r="N45">
         <v>211.83513700207229</v>
       </c>
-      <c r="N45">
-        <v>208.76506255276692</v>
-      </c>
       <c r="O45">
-        <v>1.0147058823529411</v>
+        <v>0.95652173913043481</v>
       </c>
       <c r="P45">
-        <v>1205.0042213523677</v>
+        <v>1502.8014429349912</v>
       </c>
       <c r="Q45">
-        <v>1352.3677949190267</v>
+        <v>1687.005909893315</v>
       </c>
       <c r="R45">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="S45">
         <v>5</v>
@@ -3794,12 +3794,12 @@
         <v>7</v>
       </c>
       <c r="V45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3817,43 +3817,43 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>961</v>
+        <v>895</v>
       </c>
       <c r="H46">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="I46">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="J46">
         <v>97</v>
       </c>
       <c r="K46">
-        <v>0.30745341614906835</v>
+        <v>0.29702970297029702</v>
       </c>
       <c r="L46">
-        <v>1.2917169280257337E-2</v>
+        <v>8.4251753347299382E-3</v>
       </c>
       <c r="M46">
-        <v>461.76505712352213</v>
+        <v>412.40396481031809</v>
       </c>
       <c r="N46">
-        <v>390.11185860435489</v>
+        <v>469.72652362565185</v>
       </c>
       <c r="O46">
-        <v>1.1836734693877551</v>
+        <v>0.87796610169491529</v>
       </c>
       <c r="P46">
-        <v>1700.5692448549023</v>
+        <v>1609.8085267306237</v>
       </c>
       <c r="Q46">
-        <v>2163.9265952788501</v>
+        <v>2073.1658771545722</v>
       </c>
       <c r="R46">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T46">
         <v>7</v>
@@ -3865,9 +3865,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3885,43 +3885,43 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="H47">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I47">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="J47">
+        <v>16</v>
+      </c>
+      <c r="K47">
+        <v>0.27941176470588236</v>
+      </c>
+      <c r="L47">
+        <v>1.1987263532496722E-2</v>
+      </c>
+      <c r="M47">
+        <v>242.18713613711517</v>
+      </c>
+      <c r="N47">
+        <v>214.24246658283263</v>
+      </c>
+      <c r="O47">
+        <v>1.1304347826086958</v>
+      </c>
+      <c r="P47">
+        <v>1089.8421126170183</v>
+      </c>
+      <c r="Q47">
+        <v>1313.3994690512786</v>
+      </c>
+      <c r="R47">
         <v>13</v>
       </c>
-      <c r="K47">
-        <v>0.23618090452261306</v>
-      </c>
-      <c r="L47">
-        <v>1.0032664489034065E-2</v>
-      </c>
-      <c r="M47">
-        <v>214.24246658283263</v>
-      </c>
-      <c r="N47">
-        <v>260.81691583997019</v>
-      </c>
-      <c r="O47">
-        <v>0.82142857142857129</v>
-      </c>
-      <c r="P47">
-        <v>978.06343439988825</v>
-      </c>
-      <c r="Q47">
-        <v>1159.7037865027246</v>
-      </c>
-      <c r="R47">
-        <v>10</v>
-      </c>
       <c r="S47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T47">
         <v>6</v>
@@ -3930,12 +3930,12 @@
         <v>7</v>
       </c>
       <c r="V47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3953,40 +3953,40 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>767</v>
+        <v>797</v>
       </c>
       <c r="H48">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="I48">
-        <v>846</v>
+        <v>892</v>
       </c>
       <c r="J48">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="K48">
-        <v>0.23664122137404581</v>
+        <v>0.24677716390423574</v>
       </c>
       <c r="L48">
-        <v>1.1690939521870551E-2</v>
+        <v>1.2004163805895772E-2</v>
       </c>
       <c r="M48">
+        <v>248.77637291673616</v>
+      </c>
+      <c r="N48">
         <v>224.94721842279591</v>
       </c>
-      <c r="N48">
-        <v>214.46239044546223</v>
-      </c>
       <c r="O48">
-        <v>1.0488888888888888</v>
+        <v>1.1059322033898304</v>
       </c>
       <c r="P48">
-        <v>1245.788196943196</v>
+        <v>1323.9478236833202</v>
       </c>
       <c r="Q48">
-        <v>1394.4821209853833</v>
+        <v>1449.7657594113246</v>
       </c>
       <c r="R48">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S48">
         <v>6</v>
@@ -3998,12 +3998,12 @@
         <v>7</v>
       </c>
       <c r="V48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -4021,40 +4021,40 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>1024</v>
+        <v>989</v>
       </c>
       <c r="H49">
-        <v>521</v>
+        <v>563</v>
       </c>
       <c r="I49">
-        <v>704</v>
+        <v>659</v>
       </c>
       <c r="J49">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K49">
-        <v>0.3539253539253539</v>
+        <v>0.30040733197556008</v>
       </c>
       <c r="L49">
-        <v>1.5588987134895026E-2</v>
+        <v>1.3304226048274158E-2</v>
       </c>
       <c r="M49">
-        <v>434.02708264932693</v>
+        <v>462.85544976256637</v>
       </c>
       <c r="N49">
-        <v>400.39398768388099</v>
+        <v>438.83181050153354</v>
       </c>
       <c r="O49">
-        <v>1.0839999999999999</v>
+        <v>1.0547445255474452</v>
       </c>
       <c r="P49">
-        <v>1961.9305396510165</v>
+        <v>1957.12581179881</v>
       </c>
       <c r="Q49">
         <v>2279.0425778966501</v>
       </c>
       <c r="R49">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S49">
         <v>6</v>
@@ -4066,12 +4066,12 @@
         <v>7</v>
       </c>
       <c r="V49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -4089,43 +4089,43 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>1784</v>
+        <v>1881</v>
       </c>
       <c r="H50">
-        <v>1070</v>
+        <v>1249</v>
       </c>
       <c r="I50">
-        <v>794</v>
+        <v>829</v>
       </c>
       <c r="J50">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="K50">
-        <v>0.25464610517991298</v>
+        <v>0.21590909090909091</v>
       </c>
       <c r="L50">
-        <v>9.5944391413955998E-3</v>
+        <v>9.2408084612521074E-3</v>
       </c>
       <c r="M50">
-        <v>358.18107790296079</v>
+        <v>350.77828932944971</v>
       </c>
       <c r="N50">
-        <v>251.12536622449241</v>
+        <v>360.45885900250272</v>
       </c>
       <c r="O50">
-        <v>1.4263038548752833</v>
+        <v>0.97314375987361768</v>
       </c>
       <c r="P50">
-        <v>1061.4459923865165</v>
+        <v>1183.3072812120072</v>
       </c>
       <c r="Q50">
-        <v>1281.8213137671937</v>
+        <v>1431.0159757871868</v>
       </c>
       <c r="R50">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="S50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T50">
         <v>6</v>
@@ -4134,12 +4134,12 @@
         <v>7</v>
       </c>
       <c r="V50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -4157,43 +4157,43 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>1558</v>
+        <v>1356</v>
       </c>
       <c r="H51">
         <v>755</v>
       </c>
       <c r="I51">
-        <v>983</v>
+        <v>752</v>
       </c>
       <c r="J51">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K51">
-        <v>0.30961115187087307</v>
+        <v>0.26952526799387444</v>
       </c>
       <c r="L51">
-        <v>2.0491038088125468E-2</v>
+        <v>1.409372545597347E-2</v>
       </c>
       <c r="M51">
-        <v>299.29951970264108</v>
+        <v>255.26293201571883</v>
       </c>
       <c r="N51">
-        <v>264.21952612153353</v>
+        <v>308.25611380845578</v>
       </c>
       <c r="O51">
-        <v>1.1327683615819208</v>
+        <v>0.8280871670702179</v>
       </c>
       <c r="P51">
-        <v>1297.2133796588284</v>
+        <v>1124.7989431218955</v>
       </c>
       <c r="Q51">
-        <v>1556.9546087274546</v>
+        <v>1393.4967662963363</v>
       </c>
       <c r="R51">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="S51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T51">
         <v>6</v>
@@ -4202,12 +4202,12 @@
         <v>7</v>
       </c>
       <c r="V51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -4225,40 +4225,40 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>548</v>
+        <v>635</v>
       </c>
       <c r="H52">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="I52">
-        <v>402</v>
+        <v>460</v>
       </c>
       <c r="J52">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>0.32142857142857145</v>
+        <v>0.30383973288814692</v>
       </c>
       <c r="L52">
-        <v>1.3756682748728648E-2</v>
+        <v>1.2437185929648242E-2</v>
       </c>
       <c r="M52">
+        <v>394.94916440041072</v>
+      </c>
+      <c r="N52">
         <v>392.69231203240838</v>
       </c>
-      <c r="N52">
-        <v>291.13395547230277</v>
-      </c>
       <c r="O52">
-        <v>1.3488372093023255</v>
+        <v>1.0057471264367817</v>
       </c>
       <c r="P52">
-        <v>1591.0809194416547</v>
+        <v>1825.7935657138989</v>
       </c>
       <c r="Q52">
-        <v>1800.9681896658728</v>
+        <v>2116.9275211862014</v>
       </c>
       <c r="R52">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S52">
         <v>6</v>
@@ -4273,9 +4273,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4293,43 +4293,43 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>841</v>
+        <v>667</v>
       </c>
       <c r="H53">
-        <v>396</v>
+        <v>280</v>
       </c>
       <c r="I53">
-        <v>787</v>
+        <v>540</v>
       </c>
       <c r="J53">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K53">
-        <v>0.47680412371134023</v>
+        <v>0.24157303370786518</v>
       </c>
       <c r="L53">
-        <v>2.1996722551367705E-2</v>
+        <v>1.399229781771502E-2</v>
       </c>
       <c r="M53">
+        <v>214.44880350182282</v>
+      </c>
+      <c r="N53">
         <v>491.97078450418172</v>
       </c>
-      <c r="N53">
-        <v>507.10834710431044</v>
-      </c>
       <c r="O53">
-        <v>0.9701492537313432</v>
+        <v>0.43589743589743596</v>
       </c>
       <c r="P53">
-        <v>2984.6227593253693</v>
+        <v>2068.8002220175845</v>
       </c>
       <c r="Q53">
-        <v>3453.8871999293578</v>
+        <v>2507.7895374213163</v>
       </c>
       <c r="R53">
         <v>76</v>
       </c>
       <c r="S53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T53">
         <v>7</v>
@@ -4341,9 +4341,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4361,43 +4361,43 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>1202</v>
+        <v>1115</v>
       </c>
       <c r="H54">
-        <v>573</v>
+        <v>601</v>
       </c>
       <c r="I54">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="J54">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K54">
-        <v>0.4253554502369668</v>
+        <v>0.36107986501687289</v>
       </c>
       <c r="L54">
-        <v>1.8366405168435625E-2</v>
+        <v>1.4661604922110223E-2</v>
       </c>
       <c r="M54">
-        <v>376.66797371641769</v>
+        <v>336.26825413800071</v>
       </c>
       <c r="N54">
-        <v>304.18612388455188</v>
+        <v>377.85620076284175</v>
       </c>
       <c r="O54">
-        <v>1.2382812499999998</v>
+        <v>0.88993710691823913</v>
       </c>
       <c r="P54">
-        <v>1579.1537446975367</v>
+        <v>1593.412469254625</v>
       </c>
       <c r="Q54">
-        <v>1753.8231205218694</v>
+        <v>1796.5992941931345</v>
       </c>
       <c r="R54">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T54">
         <v>7</v>
@@ -4406,12 +4406,12 @@
         <v>7</v>
       </c>
       <c r="V54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -4429,40 +4429,40 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>664</v>
+        <v>482</v>
       </c>
       <c r="H55">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="I55">
-        <v>693</v>
+        <v>551</v>
       </c>
       <c r="J55">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="K55">
-        <v>0.28105906313645623</v>
+        <v>0.33797216699801191</v>
       </c>
       <c r="L55">
-        <v>1.2563133992614915E-2</v>
+        <v>1.1998613878541108E-2</v>
       </c>
       <c r="M55">
+        <v>250.76958936479741</v>
+      </c>
+      <c r="N55">
         <v>210.58215517172093</v>
       </c>
-      <c r="N55">
-        <v>298.9945103964892</v>
-      </c>
       <c r="O55">
-        <v>0.70430107526881736</v>
+        <v>1.1908396946564883</v>
       </c>
       <c r="P55">
-        <v>1623.572341400291</v>
+        <v>1347.0827941519246</v>
       </c>
       <c r="Q55">
-        <v>1855.0519623524115</v>
+        <v>1689.4797334769364</v>
       </c>
       <c r="R55">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="S55">
         <v>7</v>
@@ -4474,12 +4474,12 @@
         <v>7</v>
       </c>
       <c r="V55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4497,40 +4497,40 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>596</v>
+        <v>655</v>
       </c>
       <c r="H56">
-        <v>275</v>
+        <v>365</v>
       </c>
       <c r="I56">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="J56">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K56">
-        <v>0.24088748019017434</v>
+        <v>0.22096608427543679</v>
       </c>
       <c r="L56">
-        <v>1.0837798343886994E-2</v>
+        <v>1.0141402481757843E-2</v>
       </c>
       <c r="M56">
-        <v>266.30453952241544</v>
+        <v>366.83009417657223</v>
       </c>
       <c r="N56">
-        <v>218.68717152834114</v>
+        <v>276.88617685443194</v>
       </c>
       <c r="O56">
-        <v>1.217741935483871</v>
+        <v>1.3248407643312101</v>
       </c>
       <c r="P56">
-        <v>1426.7574336002258</v>
+        <v>1564.3187189164403</v>
       </c>
       <c r="Q56">
-        <v>1638.3901802405558</v>
+        <v>1839.4412895488697</v>
       </c>
       <c r="R56">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="S56">
         <v>6</v>
@@ -4545,9 +4545,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -4565,43 +4565,43 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>518</v>
+        <v>570</v>
       </c>
       <c r="H57">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="I57">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="J57">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K57">
-        <v>0.18887262079062958</v>
+        <v>0.15193370165745856</v>
       </c>
       <c r="L57">
-        <v>1.3976201167489898E-2</v>
+        <v>1.0404013731185635E-2</v>
       </c>
       <c r="M57">
-        <v>201.59124895693051</v>
+        <v>170.19589051281838</v>
       </c>
       <c r="N57">
-        <v>130.53859563604519</v>
+        <v>196.63408709733386</v>
       </c>
       <c r="O57">
-        <v>1.5443037974683542</v>
+        <v>0.86554621848739499</v>
       </c>
       <c r="P57">
-        <v>1037.6992159422325</v>
+        <v>1148.4091641398911</v>
       </c>
       <c r="Q57">
-        <v>1131.8852912745688</v>
+        <v>1277.2953724894041</v>
       </c>
       <c r="R57">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S57">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -4613,9 +4613,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -4633,43 +4633,43 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>526</v>
+        <v>351</v>
       </c>
       <c r="H58">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="I58">
-        <v>379</v>
+        <v>278</v>
       </c>
       <c r="J58">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="K58">
-        <v>0.20898876404494382</v>
+        <v>0.16923076923076924</v>
       </c>
       <c r="L58">
-        <v>9.598845919103368E-3</v>
+        <v>5.7833585161256706E-3</v>
       </c>
       <c r="M58">
-        <v>181.87094901809036</v>
+        <v>129.63142110863888</v>
       </c>
       <c r="N58">
-        <v>290.2195994969527</v>
+        <v>183.80574634807004</v>
       </c>
       <c r="O58">
-        <v>0.62666666666666671</v>
+        <v>0.70526315789473681</v>
       </c>
       <c r="P58">
-        <v>1205.3787365773435</v>
+        <v>851.31082519106121</v>
       </c>
       <c r="Q58">
-        <v>1460.7719841346618</v>
+        <v>949.98548902002528</v>
       </c>
       <c r="R58">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="S58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T58">
         <v>7</v>
@@ -4681,9 +4681,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -4701,43 +4701,43 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>423</v>
+        <v>379</v>
       </c>
       <c r="H59">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="I59">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="J59">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K59">
-        <v>0.13374913374913375</v>
+        <v>0.17031802120141343</v>
       </c>
       <c r="L59">
-        <v>8.0981446787937398E-3</v>
+        <v>6.8098954409859282E-3</v>
       </c>
       <c r="M59">
-        <v>203.7135987176062</v>
+        <v>254.92029566301539</v>
       </c>
       <c r="N59">
-        <v>237.10927063852523</v>
+        <v>210.39273310178999</v>
       </c>
       <c r="O59">
-        <v>0.85915492957746487</v>
+        <v>1.2116402116402116</v>
       </c>
       <c r="P59">
-        <v>999.64377949951017</v>
+        <v>1079.793392109716</v>
       </c>
       <c r="Q59">
-        <v>1156.6034375278298</v>
+        <v>1220.0552141775759</v>
       </c>
       <c r="R59">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T59">
         <v>6</v>
@@ -4746,12 +4746,12 @@
         <v>7</v>
       </c>
       <c r="V59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -4769,57 +4769,57 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>445</v>
+        <v>549</v>
       </c>
       <c r="H60">
-        <v>304</v>
+        <v>442</v>
       </c>
       <c r="I60">
-        <v>612</v>
+        <v>649</v>
       </c>
       <c r="J60">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="K60">
-        <v>0.29306930693069305</v>
+        <v>0.2700534759358289</v>
       </c>
       <c r="L60">
-        <v>1.2887294054095767E-2</v>
+        <v>1.1460647877441235E-2</v>
       </c>
       <c r="M60">
-        <v>314.33014591536249</v>
+        <v>406.974820500943</v>
       </c>
       <c r="N60">
-        <v>188.5980875492175</v>
+        <v>324.25636104953185</v>
       </c>
       <c r="O60">
-        <v>1.6666666666666667</v>
+        <v>1.2551020408163265</v>
       </c>
       <c r="P60">
-        <v>1515.4021771498528</v>
+        <v>1804.9167852297917</v>
       </c>
       <c r="Q60">
-        <v>1659.3322965953082</v>
+        <v>2048.1090560169409</v>
       </c>
       <c r="R60">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="S60">
         <v>6</v>
       </c>
       <c r="T60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U60">
         <v>7</v>
       </c>
       <c r="V60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -4837,57 +4837,57 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>288</v>
+        <v>380</v>
       </c>
       <c r="H61">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="I61">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="J61">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K61">
-        <v>0.11740890688259109</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L61">
-        <v>1.0494660611267951E-2</v>
+        <v>9.781619654231119E-3</v>
       </c>
       <c r="M61">
-        <v>326.93267097623368</v>
+        <v>416.09612669702466</v>
       </c>
       <c r="N61">
-        <v>286.59682195968537</v>
+        <v>329.05561039815728</v>
       </c>
       <c r="O61">
-        <v>1.1407407407407408</v>
+        <v>1.264516129032258</v>
       </c>
       <c r="P61">
-        <v>1282.2554108418517</v>
+        <v>1500.9181712999819</v>
       </c>
       <c r="Q61">
-        <v>1511.5328684096</v>
+        <v>1736.5644471335008</v>
       </c>
       <c r="R61">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S61">
         <v>6</v>
       </c>
       <c r="T61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U61">
         <v>7</v>
       </c>
       <c r="V61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -4905,43 +4905,43 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>373</v>
+        <v>324</v>
       </c>
       <c r="H62">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="I62">
-        <v>282</v>
+        <v>211</v>
       </c>
       <c r="J62">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K62">
-        <v>0.21276595744680851</v>
+        <v>0.25925925925925924</v>
       </c>
       <c r="L62">
-        <v>1.1742358832671386E-2</v>
+        <v>6.4087715234344839E-3</v>
       </c>
       <c r="M62">
+        <v>190.39472413460078</v>
+      </c>
+      <c r="N62">
         <v>160.04194202618618</v>
       </c>
-      <c r="N62">
-        <v>179.35734882245004</v>
-      </c>
       <c r="O62">
-        <v>0.89230769230769225</v>
+        <v>1.1896551724137929</v>
       </c>
       <c r="P62">
-        <v>1117.5342503552656</v>
+        <v>932.65821387673998</v>
       </c>
       <c r="Q62">
-        <v>1216.8706281646225</v>
+        <v>1023.716560201984</v>
       </c>
       <c r="R62">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T62">
         <v>6</v>
@@ -4950,12 +4950,12 @@
         <v>7</v>
       </c>
       <c r="V62" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4973,40 +4973,40 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="H63">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="I63">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="J63">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K63">
-        <v>0.2549800796812749</v>
+        <v>0.31491712707182318</v>
       </c>
       <c r="L63">
-        <v>1.1506121846880071E-2</v>
+        <v>8.9803813208068524E-3</v>
       </c>
       <c r="M63">
-        <v>262.93877908760243</v>
+        <v>219.1156492396687</v>
       </c>
       <c r="N63">
-        <v>315.52653490512296</v>
+        <v>249.79184013322231</v>
       </c>
       <c r="O63">
-        <v>0.83333333333333326</v>
+        <v>0.87719298245614041</v>
       </c>
       <c r="P63">
-        <v>1362.8993382707392</v>
+        <v>1091.1959332135502</v>
       </c>
       <c r="Q63">
-        <v>1612.6911784039614</v>
+        <v>1288.400017529252</v>
       </c>
       <c r="R63">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S63">
         <v>5</v>
@@ -5018,12 +5018,12 @@
         <v>7</v>
       </c>
       <c r="V63" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -5041,40 +5041,40 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>1045</v>
+        <v>1122</v>
       </c>
       <c r="H64">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="I64">
-        <v>710</v>
+        <v>775</v>
       </c>
       <c r="J64">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K64">
-        <v>0.21816479400749064</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="L64">
-        <v>1.4761958696719145E-2</v>
+        <v>1.0924981791697014E-2</v>
       </c>
       <c r="M64">
-        <v>220.51821781185785</v>
+        <v>217.51115120533254</v>
       </c>
       <c r="N64">
-        <v>158.3721746103343</v>
+        <v>218.513506740841</v>
       </c>
       <c r="O64">
-        <v>1.3924050632911391</v>
+        <v>0.99541284403669716</v>
       </c>
       <c r="P64">
-        <v>1090.5628226331878</v>
+        <v>1212.8501979652183</v>
       </c>
       <c r="Q64">
-        <v>1243.9232195659802</v>
+        <v>1360.1964616849598</v>
       </c>
       <c r="R64">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S64">
         <v>6</v>
@@ -5086,12 +5086,12 @@
         <v>7</v>
       </c>
       <c r="V64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -5109,43 +5109,43 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>347</v>
+        <v>365</v>
       </c>
       <c r="H65">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="I65">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="J65">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K65">
-        <v>0.13119533527696792</v>
+        <v>0.1186161449752883</v>
       </c>
       <c r="L65">
-        <v>7.6700187489347196E-3</v>
+        <v>7.6346192824809133E-3</v>
       </c>
       <c r="M65">
-        <v>172.37065250632489</v>
+        <v>131.59479922525878</v>
       </c>
       <c r="N65">
-        <v>183.49133976479749</v>
+        <v>168.66375675350071</v>
       </c>
       <c r="O65">
-        <v>0.93939393939393923</v>
+        <v>0.78021978021978011</v>
       </c>
       <c r="P65">
-        <v>711.72398454224469</v>
+        <v>741.37915056483814</v>
       </c>
       <c r="Q65">
-        <v>884.09463704856967</v>
+        <v>885.9480849249818</v>
       </c>
       <c r="R65">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T65">
         <v>6</v>
@@ -5157,9 +5157,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -5177,40 +5177,40 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="H66">
         <v>109</v>
       </c>
       <c r="I66">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="J66">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K66">
-        <v>0.16030534351145037</v>
+        <v>0.20179372197309417</v>
       </c>
       <c r="L66">
-        <v>1.0707756594411073E-2</v>
+        <v>8.2738481505515906E-3</v>
       </c>
       <c r="M66">
-        <v>209.42918371322813</v>
+        <v>238.65186051042275</v>
       </c>
       <c r="N66">
-        <v>301.96766023767776</v>
+        <v>228.91096824469119</v>
       </c>
       <c r="O66">
-        <v>0.69354838709677424</v>
+        <v>1.0425531914893618</v>
       </c>
       <c r="P66">
-        <v>954.607442041691</v>
+        <v>1139.6843950905902</v>
       </c>
       <c r="Q66">
-        <v>1217.6115332164425</v>
+        <v>1475.7451782583285</v>
       </c>
       <c r="R66">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S66">
         <v>5</v>
@@ -5222,12 +5222,12 @@
         <v>7</v>
       </c>
       <c r="V66" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -5245,40 +5245,40 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>193</v>
+        <v>325</v>
       </c>
       <c r="H67">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="I67">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="J67">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K67">
-        <v>0.17954545454545454</v>
+        <v>0.29591836734693877</v>
       </c>
       <c r="L67">
-        <v>8.7595977073645515E-3</v>
+        <v>8.2850868436813736E-3</v>
       </c>
       <c r="M67">
-        <v>224.1739344060926</v>
+        <v>316.30020881955534</v>
       </c>
       <c r="N67">
-        <v>113.62240510993736</v>
+        <v>233.38656184743888</v>
       </c>
       <c r="O67">
-        <v>1.9729729729729726</v>
+        <v>1.3552631578947369</v>
       </c>
       <c r="P67">
-        <v>718.58494042500922</v>
+        <v>1108.5861687753347</v>
       </c>
       <c r="Q67">
-        <v>976.53850878270475</v>
+        <v>1431.0281292224543</v>
       </c>
       <c r="R67">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S67">
         <v>6</v>
@@ -5293,9 +5293,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -5313,40 +5313,40 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>615</v>
+        <v>532</v>
       </c>
       <c r="H68">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="I68">
-        <v>493</v>
+        <v>362</v>
       </c>
       <c r="J68">
+        <v>46</v>
+      </c>
+      <c r="K68">
+        <v>0.21886792452830189</v>
+      </c>
+      <c r="L68">
+        <v>6.5227766877021792E-3</v>
+      </c>
+      <c r="M68">
+        <v>156.84820658334698</v>
+      </c>
+      <c r="N68">
+        <v>216.73570364244313</v>
+      </c>
+      <c r="O68">
+        <v>0.72368421052631571</v>
+      </c>
+      <c r="P68">
+        <v>889.75709916371397</v>
+      </c>
+      <c r="Q68">
+        <v>1086.5303037864583</v>
+      </c>
+      <c r="R68">
         <v>43</v>
-      </c>
-      <c r="K68">
-        <v>0.24119718309859156</v>
-      </c>
-      <c r="L68">
-        <v>1.1846802986043492E-2</v>
-      </c>
-      <c r="M68">
-        <v>189.64374068713772</v>
-      </c>
-      <c r="N68">
-        <v>259.5124872560832</v>
-      </c>
-      <c r="O68">
-        <v>0.73076923076923073</v>
-      </c>
-      <c r="P68">
-        <v>1152.1213719940397</v>
-      </c>
-      <c r="Q68">
-        <v>1336.0615415326922</v>
-      </c>
-      <c r="R68">
-        <v>121</v>
       </c>
       <c r="S68">
         <v>5</v>
@@ -5358,12 +5358,12 @@
         <v>7</v>
       </c>
       <c r="V68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -5381,57 +5381,57 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>1989</v>
+        <v>1632</v>
       </c>
       <c r="H69">
-        <v>934</v>
+        <v>869</v>
       </c>
       <c r="I69">
-        <v>987</v>
+        <v>682</v>
       </c>
       <c r="J69">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="K69">
-        <v>0.33756534727408516</v>
+        <v>0.32923299565846598</v>
       </c>
       <c r="L69">
-        <v>1.4108935659250858E-2</v>
+        <v>7.9761364373257242E-3</v>
       </c>
       <c r="M69">
-        <v>408.15164257306384</v>
+        <v>414.79597163820677</v>
       </c>
       <c r="N69">
-        <v>478.39169269028889</v>
+        <v>410.05002230596187</v>
       </c>
       <c r="O69">
-        <v>0.85317460317460292</v>
+        <v>1.011574074074074</v>
       </c>
       <c r="P69">
-        <v>1887.9386443670328</v>
+        <v>1549.077862044745</v>
       </c>
       <c r="Q69">
-        <v>2181.2383130997691</v>
+        <v>1782.5785691911951</v>
       </c>
       <c r="R69">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="S69">
         <v>6</v>
       </c>
       <c r="T69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U69">
         <v>7</v>
       </c>
       <c r="V69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -5449,40 +5449,40 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>1845</v>
+        <v>1807</v>
       </c>
       <c r="H70">
-        <v>996</v>
+        <v>1110</v>
       </c>
       <c r="I70">
-        <v>1176</v>
+        <v>1071</v>
       </c>
       <c r="J70">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="K70">
-        <v>0.29334011184544995</v>
+        <v>0.27821522309711288</v>
       </c>
       <c r="L70">
-        <v>1.2158322503909606E-2</v>
+        <v>1.19438042900195E-2</v>
       </c>
       <c r="M70">
-        <v>515.18035678422666</v>
+        <v>481.99924905914099</v>
       </c>
       <c r="N70">
-        <v>354.51394043117978</v>
+        <v>487.2383713315229</v>
       </c>
       <c r="O70">
-        <v>1.4532019704433494</v>
+        <v>0.98924731182795711</v>
       </c>
       <c r="P70">
-        <v>1896.5622626022721</v>
+        <v>1904.420946010845</v>
       </c>
       <c r="Q70">
-        <v>2182.0944264470891</v>
+        <v>2234.4856491709088</v>
       </c>
       <c r="R70">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="S70">
         <v>6</v>
@@ -5494,12 +5494,12 @@
         <v>7</v>
       </c>
       <c r="V70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -5517,43 +5517,43 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>1703</v>
+        <v>1395</v>
       </c>
       <c r="H71">
-        <v>1118</v>
+        <v>997</v>
       </c>
       <c r="I71">
-        <v>962</v>
+        <v>669</v>
       </c>
       <c r="J71">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="K71">
-        <v>0.27468413664014973</v>
+        <v>0.22210414452709884</v>
       </c>
       <c r="L71">
-        <v>7.3409750229958253E-3</v>
+        <v>4.1674848901398619E-3</v>
       </c>
       <c r="M71">
-        <v>428.07152644870501</v>
+        <v>294.44073247794523</v>
       </c>
       <c r="N71">
-        <v>415.99190665473805</v>
+        <v>458.27057593362252</v>
       </c>
       <c r="O71">
-        <v>1.029038112522686</v>
+        <v>0.64250411861614487</v>
       </c>
       <c r="P71">
-        <v>1570.3505732157082</v>
+        <v>1257.7904110468123</v>
       </c>
       <c r="Q71">
-        <v>1921.4145234778737</v>
+        <v>1577.1453593498145</v>
       </c>
       <c r="R71">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="S71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T71">
         <v>7</v>
@@ -5565,9 +5565,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -5585,43 +5585,43 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="H72">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="I72">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="J72">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K72">
-        <v>0.34361233480176212</v>
+        <v>0.256140350877193</v>
       </c>
       <c r="L72">
-        <v>1.1985617259288853E-2</v>
+        <v>8.0800307810696415E-3</v>
       </c>
       <c r="M72">
-        <v>484.76454293628808</v>
+        <v>440.69503903298914</v>
       </c>
       <c r="N72">
-        <v>339.96474439687734</v>
+        <v>491.0601863510451</v>
       </c>
       <c r="O72">
-        <v>1.425925925925926</v>
+        <v>0.89743589743589736</v>
       </c>
       <c r="P72">
-        <v>1662.0498614958449</v>
+        <v>1624.2760010073032</v>
       </c>
       <c r="Q72">
-        <v>1945.3538151599093</v>
+        <v>1983.1276756484513</v>
       </c>
       <c r="R72">
         <v>10</v>
       </c>
       <c r="S72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T72">
         <v>7</v>
@@ -5633,9 +5633,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -5653,43 +5653,43 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="H73">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I73">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="J73">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K73">
-        <v>7.6555023923444973E-2</v>
+        <v>0.11877394636015326</v>
       </c>
       <c r="L73">
-        <v>5.4608019150209457E-3</v>
+        <v>5.0244144080390631E-3</v>
       </c>
       <c r="M73">
-        <v>41.459369817578775</v>
+        <v>80.154781647318956</v>
       </c>
       <c r="N73">
         <v>46.987285793255943</v>
       </c>
       <c r="O73">
-        <v>0.88235294117647067</v>
+        <v>1.7058823529411764</v>
       </c>
       <c r="P73">
-        <v>442.23327805417358</v>
+        <v>527.91597567716963</v>
       </c>
       <c r="Q73">
-        <v>508.56826976229962</v>
+        <v>561.0834715312327</v>
       </c>
       <c r="R73">
         <v>13</v>
       </c>
       <c r="S73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T73">
         <v>5</v>
@@ -5698,12 +5698,12 @@
         <v>7</v>
       </c>
       <c r="V73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -5721,43 +5721,43 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="H74">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="I74">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="J74">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K74">
-        <v>0.25806451612903225</v>
+        <v>0.24248496993987975</v>
       </c>
       <c r="L74">
-        <v>1.1805289382905327E-2</v>
+        <v>1.0738354439754129E-2</v>
       </c>
       <c r="M74">
-        <v>236.92866836887262</v>
+        <v>271.43284337404828</v>
       </c>
       <c r="N74">
-        <v>204.72477169737536</v>
+        <v>241.52922503622938</v>
       </c>
       <c r="O74">
-        <v>1.157303370786517</v>
+        <v>1.1238095238095238</v>
       </c>
       <c r="P74">
-        <v>1246.7508568536794</v>
+        <v>1281.2550318588549</v>
       </c>
       <c r="Q74">
-        <v>1398.5692268764519</v>
+        <v>1453.7759068847329</v>
       </c>
       <c r="R74">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="S74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T74">
         <v>6</v>
@@ -5766,12 +5766,12 @@
         <v>7</v>
       </c>
       <c r="V74" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -5789,43 +5789,43 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>1403</v>
+        <v>1316</v>
       </c>
       <c r="H75">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I75">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="J75">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K75">
-        <v>0.36261682242990656</v>
+        <v>0.33303411131059246</v>
       </c>
       <c r="L75">
-        <v>1.7224695180956068E-2</v>
+        <v>1.3878180416345412E-2</v>
       </c>
       <c r="M75">
-        <v>464.30141209536134</v>
+        <v>445.72935561154691</v>
       </c>
       <c r="N75">
-        <v>449.44376690830973</v>
+        <v>466.77768629320326</v>
       </c>
       <c r="O75">
-        <v>1.0330578512396695</v>
+        <v>0.9549071618037136</v>
       </c>
       <c r="P75">
-        <v>1737.1063497861119</v>
+        <v>1713.5817449066135</v>
       </c>
       <c r="Q75">
-        <v>2034.2592535271431</v>
+        <v>2055.3075842087992</v>
       </c>
       <c r="R75">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T75">
         <v>6</v>
@@ -5834,12 +5834,12 @@
         <v>7</v>
       </c>
       <c r="V75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -5857,43 +5857,43 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="H76">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="I76">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="J76">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K76">
-        <v>0.25249169435215946</v>
+        <v>0.28110599078341014</v>
       </c>
       <c r="L76">
-        <v>2.0542202347680269E-2</v>
+        <v>1.9728535353535352E-2</v>
       </c>
       <c r="M76">
-        <v>286.77946659019216</v>
+        <v>233.24729949335625</v>
       </c>
       <c r="N76">
-        <v>252.36593059936911</v>
+        <v>279.132014147787</v>
       </c>
       <c r="O76">
-        <v>1.1363636363636362</v>
+        <v>0.83561643835616439</v>
       </c>
       <c r="P76">
-        <v>1755.0903355319758</v>
+        <v>1674.7920848867223</v>
       </c>
       <c r="Q76">
-        <v>2099.2256954402064</v>
+        <v>2053.3409807857761</v>
       </c>
       <c r="R76">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="S76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T76">
         <v>7</v>
@@ -5905,9 +5905,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5925,43 +5925,43 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>736</v>
+        <v>618</v>
       </c>
       <c r="H77">
-        <v>290</v>
+        <v>225</v>
       </c>
       <c r="I77">
-        <v>544</v>
+        <v>472</v>
       </c>
       <c r="J77">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>0.24045801526717558</v>
+        <v>0.23540489642184556</v>
       </c>
       <c r="L77">
-        <v>1.3196635120925341E-2</v>
+        <v>1.141304347826087E-2</v>
       </c>
       <c r="M77">
+        <v>236.86821804679747</v>
+      </c>
+      <c r="N77">
         <v>243.27006177779199</v>
       </c>
-      <c r="N77">
-        <v>375.57483221834553</v>
-      </c>
       <c r="O77">
-        <v>0.64772727272727271</v>
+        <v>0.97368421052631582</v>
       </c>
       <c r="P77">
-        <v>1779.7125572164784</v>
+        <v>1487.3616935010616</v>
       </c>
       <c r="Q77">
-        <v>2093.4029000352102</v>
+        <v>1794.6501925887987</v>
       </c>
       <c r="R77">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S77">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T77">
         <v>7</v>
@@ -5970,12 +5970,12 @@
         <v>7</v>
       </c>
       <c r="V77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -5993,43 +5993,43 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>1322</v>
+        <v>1450</v>
       </c>
       <c r="H78">
-        <v>873</v>
+        <v>1119</v>
       </c>
       <c r="I78">
-        <v>939</v>
+        <v>1034</v>
       </c>
       <c r="J78">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K78">
-        <v>0.21229050279329609</v>
+        <v>0.20612668743509865</v>
       </c>
       <c r="L78">
-        <v>8.6854167038219396E-3</v>
+        <v>8.8740893494024774E-3</v>
       </c>
       <c r="M78">
+        <v>375.21434040103009</v>
+      </c>
+      <c r="N78">
         <v>332.82081458843481</v>
       </c>
-      <c r="N78">
-        <v>219.56049935776974</v>
-      </c>
       <c r="O78">
-        <v>1.515850144092219</v>
+        <v>1.1273764258555132</v>
       </c>
       <c r="P78">
-        <v>1146.5234145137715</v>
+        <v>1362.2874787241446</v>
       </c>
       <c r="Q78">
-        <v>1355.3273476205843</v>
+        <v>1593.870022715337</v>
       </c>
       <c r="R78">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T78">
         <v>6</v>
@@ -6038,12 +6038,12 @@
         <v>7</v>
       </c>
       <c r="V78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -6061,40 +6061,40 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="H79">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I79">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="J79">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K79">
-        <v>0.14410480349344978</v>
+        <v>0.13432835820895522</v>
       </c>
       <c r="L79">
-        <v>3.5090582666884281E-3</v>
+        <v>2.6218046755516716E-3</v>
       </c>
       <c r="M79">
-        <v>78.871156571569415</v>
+        <v>71.476985642984786</v>
       </c>
       <c r="N79">
-        <v>91.194774785877129</v>
+        <v>76.406432928707872</v>
       </c>
       <c r="O79">
-        <v>0.86486486486486491</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="P79">
-        <v>455.97387392938566</v>
+        <v>345.06131000061617</v>
       </c>
       <c r="Q79">
-        <v>522.52141228664732</v>
+        <v>382.03216464353932</v>
       </c>
       <c r="R79">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S79">
         <v>6</v>
@@ -6106,12 +6106,12 @@
         <v>7</v>
       </c>
       <c r="V79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44258</v>
+        <v>44270</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -6129,43 +6129,43 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>1074</v>
+        <v>850</v>
       </c>
       <c r="H80">
-        <v>435</v>
+        <v>360</v>
       </c>
       <c r="I80">
-        <v>839</v>
+        <v>684</v>
       </c>
       <c r="J80">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K80">
-        <v>0.218214607754734</v>
+        <v>0.18922018348623854</v>
       </c>
       <c r="L80">
-        <v>1.4529772764969315E-2</v>
+        <v>8.4020586593910838E-3</v>
       </c>
       <c r="M80">
-        <v>330.14100074899829</v>
+        <v>203.61118988925006</v>
       </c>
       <c r="N80">
-        <v>302.50805354974295</v>
+        <v>319.96044125453579</v>
       </c>
       <c r="O80">
-        <v>1.0913461538461537</v>
+        <v>0.63636363636363635</v>
       </c>
       <c r="P80">
-        <v>1852.8618279921757</v>
+        <v>1518.3577303169791</v>
       </c>
       <c r="Q80">
-        <v>2110.2845466378703</v>
+        <v>1762.6911581840789</v>
       </c>
       <c r="R80">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="S80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T80">
         <v>7</v>
@@ -6183,18 +6183,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6409,18 +6409,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{DD55C5B8-5DDC-4B87-A5DD-137C004B26E9}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5CCCDBC2-06B4-4373-9D4F-39B1A35A20BA}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-110" windowWidth="18410" windowHeight="11020" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -733,11 +733,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection sqref="A1:V80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -805,9 +807,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -825,57 +827,57 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>515</v>
+        <v>394</v>
       </c>
       <c r="H2">
-        <v>246</v>
+        <v>181</v>
       </c>
       <c r="I2">
-        <v>333</v>
+        <v>235</v>
       </c>
       <c r="J2">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="K2">
-        <v>0.25128205128205128</v>
+        <v>0.2462686567164179</v>
       </c>
       <c r="L2">
-        <v>9.5263297168563105E-3</v>
+        <v>1.1360147374884864E-2</v>
       </c>
       <c r="M2">
+        <v>237.03540371814839</v>
+      </c>
+      <c r="N2">
         <v>261.84143433981507</v>
       </c>
-      <c r="N2">
-        <v>416.1900693190745</v>
-      </c>
       <c r="O2">
-        <v>0.62913907284768211</v>
+        <v>0.90526315789473688</v>
       </c>
       <c r="P2">
-        <v>1595.8546366605569</v>
+        <v>1146.5898598459271</v>
       </c>
       <c r="Q2">
-        <v>2058.9005415983352</v>
+        <v>1411.1875198103717</v>
       </c>
       <c r="R2">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="S2">
         <v>5</v>
       </c>
       <c r="T2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U2">
         <v>7</v>
       </c>
       <c r="V2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -893,40 +895,40 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>1412</v>
+        <v>1158</v>
       </c>
       <c r="H3">
-        <v>657</v>
+        <v>525</v>
       </c>
       <c r="I3">
-        <v>668</v>
+        <v>554</v>
       </c>
       <c r="J3">
-        <v>193</v>
+        <v>137</v>
       </c>
       <c r="K3">
-        <v>0.18638392857142858</v>
+        <v>0.19211822660098521</v>
       </c>
       <c r="L3">
-        <v>6.4189716272538841E-3</v>
+        <v>7.2220291198393386E-3</v>
       </c>
       <c r="M3">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="N3">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="O3">
-        <v>0.9</v>
+        <v>0.76129032258064511</v>
       </c>
       <c r="P3">
-        <v>1275</v>
+        <v>1044.8575952936294</v>
       </c>
       <c r="Q3">
-        <v>1798</v>
+        <v>1415.7008350740107</v>
       </c>
       <c r="R3">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="S3">
         <v>5</v>
@@ -941,9 +943,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -961,37 +963,37 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="H4">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4">
-        <v>0.16153846153846155</v>
+        <v>0.13131313131313133</v>
       </c>
       <c r="L4">
-        <v>1.9892752119010551E-2</v>
+        <v>1.3448607108549471E-2</v>
       </c>
       <c r="M4">
-        <v>105.68195946786024</v>
+        <v>80.815616063657828</v>
       </c>
       <c r="N4">
-        <v>105.68195946786024</v>
+        <v>111.89854531891085</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="P4">
-        <v>1355.2157155290315</v>
+        <v>1100.3356956359567</v>
       </c>
       <c r="Q4">
-        <v>1541.7132910605496</v>
+        <v>1305.4830287206266</v>
       </c>
       <c r="R4">
         <v>7</v>
@@ -1006,12 +1008,12 @@
         <v>7</v>
       </c>
       <c r="V4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1029,40 +1031,40 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>868</v>
+        <v>893</v>
       </c>
       <c r="H5">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="I5">
-        <v>574</v>
+        <v>362</v>
       </c>
       <c r="J5">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.21414728682170542</v>
+        <v>0.20706260032102727</v>
       </c>
       <c r="L5">
-        <v>9.0675579488131708E-3</v>
+        <v>1.0476428036916938E-2</v>
       </c>
       <c r="M5">
-        <v>275.16683596713426</v>
+        <v>288.02509933008446</v>
       </c>
       <c r="N5">
-        <v>284.16762032119942</v>
+        <v>276.45266230342929</v>
       </c>
       <c r="O5">
-        <v>0.96832579185520351</v>
+        <v>1.0418604651162791</v>
       </c>
       <c r="P5">
-        <v>1297.3987733216752</v>
+        <v>1148.242918311453</v>
       </c>
       <c r="Q5">
-        <v>1486.415244757043</v>
+        <v>1325.6869527201657</v>
       </c>
       <c r="R5">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="S5">
         <v>5</v>
@@ -1077,9 +1079,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1097,40 +1099,40 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>1916</v>
+        <v>2318</v>
       </c>
       <c r="H6">
-        <v>2144</v>
+        <v>1773</v>
       </c>
       <c r="I6">
-        <v>3169</v>
+        <v>2363</v>
       </c>
       <c r="J6">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="K6">
-        <v>0.10221340572144498</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="L6">
-        <v>6.945098525219978E-3</v>
+        <v>5.7994426131691736E-3</v>
       </c>
       <c r="M6">
-        <v>218.7754121386856</v>
+        <v>181.81230132327937</v>
       </c>
       <c r="N6">
-        <v>276.53027278775784</v>
+        <v>227.78517039994088</v>
       </c>
       <c r="O6">
-        <v>0.79114452798663326</v>
+        <v>0.79817444219066935</v>
       </c>
       <c r="P6">
-        <v>1227.4062985140829</v>
+        <v>955.49641457825089</v>
       </c>
       <c r="Q6">
-        <v>1453.3433133732535</v>
+        <v>1125.2957048865233</v>
       </c>
       <c r="R6">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="S6">
         <v>5</v>
@@ -1145,9 +1147,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1165,40 +1167,40 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>1916</v>
+        <v>2318</v>
       </c>
       <c r="H7">
-        <v>2144</v>
+        <v>1773</v>
       </c>
       <c r="I7">
-        <v>3169</v>
+        <v>2363</v>
       </c>
       <c r="J7">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="K7">
-        <v>0.10221340572144498</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="L7">
-        <v>6.945098525219978E-3</v>
+        <v>5.7994426131691736E-3</v>
       </c>
       <c r="M7">
-        <v>218.7754121386856</v>
+        <v>181.81230132327937</v>
       </c>
       <c r="N7">
-        <v>276.53027278775784</v>
+        <v>227.78517039994088</v>
       </c>
       <c r="O7">
-        <v>0.79114452798663326</v>
+        <v>0.79817444219066935</v>
       </c>
       <c r="P7">
-        <v>1227.4062985140829</v>
+        <v>955.49641457825089</v>
       </c>
       <c r="Q7">
-        <v>1453.3433133732535</v>
+        <v>1125.2957048865233</v>
       </c>
       <c r="R7">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="S7">
         <v>5</v>
@@ -1213,9 +1215,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1233,40 +1235,40 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>1916</v>
+        <v>2318</v>
       </c>
       <c r="H8">
-        <v>2144</v>
+        <v>1773</v>
       </c>
       <c r="I8">
-        <v>3169</v>
+        <v>2363</v>
       </c>
       <c r="J8">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="K8">
-        <v>0.10221340572144498</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="L8">
-        <v>6.945098525219978E-3</v>
+        <v>5.7994426131691736E-3</v>
       </c>
       <c r="M8">
-        <v>218.7754121386856</v>
+        <v>181.81230132327937</v>
       </c>
       <c r="N8">
-        <v>276.53027278775784</v>
+        <v>227.78517039994088</v>
       </c>
       <c r="O8">
-        <v>0.79114452798663326</v>
+        <v>0.79817444219066935</v>
       </c>
       <c r="P8">
-        <v>1227.4062985140829</v>
+        <v>955.49641457825089</v>
       </c>
       <c r="Q8">
-        <v>1453.3433133732535</v>
+        <v>1125.2957048865233</v>
       </c>
       <c r="R8">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="S8">
         <v>5</v>
@@ -1281,9 +1283,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1301,40 +1303,40 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>1916</v>
+        <v>2318</v>
       </c>
       <c r="H9">
-        <v>2144</v>
+        <v>1773</v>
       </c>
       <c r="I9">
-        <v>3169</v>
+        <v>2363</v>
       </c>
       <c r="J9">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="K9">
-        <v>0.10221340572144498</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="L9">
-        <v>6.945098525219978E-3</v>
+        <v>5.7994426131691736E-3</v>
       </c>
       <c r="M9">
-        <v>218.7754121386856</v>
+        <v>181.81230132327937</v>
       </c>
       <c r="N9">
-        <v>276.53027278775784</v>
+        <v>227.78517039994088</v>
       </c>
       <c r="O9">
-        <v>0.79114452798663326</v>
+        <v>0.79817444219066935</v>
       </c>
       <c r="P9">
-        <v>1227.4062985140829</v>
+        <v>955.49641457825089</v>
       </c>
       <c r="Q9">
-        <v>1453.3433133732535</v>
+        <v>1125.2957048865233</v>
       </c>
       <c r="R9">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="S9">
         <v>5</v>
@@ -1349,9 +1351,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1369,40 +1371,40 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>1916</v>
+        <v>2318</v>
       </c>
       <c r="H10">
-        <v>2144</v>
+        <v>1773</v>
       </c>
       <c r="I10">
-        <v>3169</v>
+        <v>2363</v>
       </c>
       <c r="J10">
-        <v>326</v>
+        <v>245</v>
       </c>
       <c r="K10">
-        <v>0.10221340572144498</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="L10">
-        <v>6.945098525219978E-3</v>
+        <v>5.7994426131691736E-3</v>
       </c>
       <c r="M10">
-        <v>218.7754121386856</v>
+        <v>181.81230132327937</v>
       </c>
       <c r="N10">
-        <v>276.53027278775784</v>
+        <v>227.78517039994088</v>
       </c>
       <c r="O10">
-        <v>0.79114452798663326</v>
+        <v>0.79817444219066935</v>
       </c>
       <c r="P10">
-        <v>1227.4062985140829</v>
+        <v>955.49641457825089</v>
       </c>
       <c r="Q10">
-        <v>1453.3433133732535</v>
+        <v>1125.2957048865233</v>
       </c>
       <c r="R10">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="S10">
         <v>5</v>
@@ -1417,9 +1419,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1437,40 +1439,40 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>734</v>
+        <v>615</v>
       </c>
       <c r="H11">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I11">
-        <v>514</v>
+        <v>451</v>
       </c>
       <c r="J11">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="K11">
-        <v>0.17555555555555555</v>
+        <v>0.23737373737373738</v>
       </c>
       <c r="L11">
-        <v>9.063022866703848E-3</v>
+        <v>1.460446247464503E-2</v>
       </c>
       <c r="M11">
+        <v>173</v>
+      </c>
+      <c r="N11">
         <v>95</v>
       </c>
-      <c r="N11">
-        <v>264</v>
-      </c>
       <c r="O11">
-        <v>0.4</v>
+        <v>1.8210526315789475</v>
       </c>
       <c r="P11">
-        <v>1198</v>
+        <v>1000.8218130334665</v>
       </c>
       <c r="Q11">
-        <v>1521</v>
+        <v>1274.2170400084622</v>
       </c>
       <c r="R11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S11">
         <v>5</v>
@@ -1485,9 +1487,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1505,43 +1507,43 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="H12">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="I12">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J12">
         <v>17</v>
       </c>
       <c r="K12">
-        <v>0.22635135135135134</v>
+        <v>0.28484848484848485</v>
       </c>
       <c r="L12">
-        <v>1.3974517057131115E-2</v>
+        <v>1.9005847953216373E-2</v>
       </c>
       <c r="M12">
+        <v>190.83352201054436</v>
+      </c>
+      <c r="N12">
         <v>203.77138790956431</v>
       </c>
-      <c r="N12">
-        <v>278.16411682892908</v>
-      </c>
       <c r="O12">
-        <v>0.73255813953488369</v>
+        <v>0.93650793650793651</v>
       </c>
       <c r="P12">
-        <v>1390.8205841446454</v>
+        <v>1316.4278552252806</v>
       </c>
       <c r="Q12">
-        <v>1555.7783743571499</v>
+        <v>1481.3856454377849</v>
       </c>
       <c r="R12">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T12">
         <v>6</v>
@@ -1553,9 +1555,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1573,40 +1575,40 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>1342</v>
+        <v>1518</v>
       </c>
       <c r="H13">
-        <v>550</v>
+        <v>610</v>
       </c>
       <c r="I13">
-        <v>904</v>
+        <v>782</v>
       </c>
       <c r="J13">
         <v>44</v>
       </c>
       <c r="K13">
-        <v>0.35473340587595215</v>
+        <v>0.30186170212765956</v>
       </c>
       <c r="L13">
-        <v>1.2578075754971062E-2</v>
+        <v>1.4182358296200469E-2</v>
       </c>
       <c r="M13">
-        <v>354.12966252220252</v>
+        <v>324.15630550621671</v>
       </c>
       <c r="N13">
-        <v>256.43872113676736</v>
+        <v>353.01953818827707</v>
       </c>
       <c r="O13">
-        <v>1.3809523809523809</v>
+        <v>0.91823899371069195</v>
       </c>
       <c r="P13">
-        <v>1614.1207815275311</v>
+        <v>1685.1687388987566</v>
       </c>
       <c r="Q13">
-        <v>1760.6571936056837</v>
+        <v>1831.7051509769096</v>
       </c>
       <c r="R13">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="S13">
         <v>6</v>
@@ -1618,12 +1620,12 @@
         <v>7</v>
       </c>
       <c r="V13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1641,43 +1643,43 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H14">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="I14">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="J14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14">
-        <v>0.15384615384615385</v>
+        <v>0.1875</v>
       </c>
       <c r="L14">
-        <v>8.2919914953933378E-3</v>
+        <v>1.0728771424833181E-2</v>
       </c>
       <c r="M14">
-        <v>90.480796231006835</v>
+        <v>109.20096096845653</v>
       </c>
       <c r="N14">
-        <v>156.00137281208075</v>
+        <v>84.240741318523604</v>
       </c>
       <c r="O14">
-        <v>0.57999999999999996</v>
+        <v>1.2962962962962963</v>
       </c>
       <c r="P14">
-        <v>1032.7290880159744</v>
+        <v>886.08779757261868</v>
       </c>
       <c r="Q14">
-        <v>1191.8504882842969</v>
+        <v>1035.8491154722162</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T14">
         <v>6</v>
@@ -1686,12 +1688,12 @@
         <v>7</v>
       </c>
       <c r="V14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1709,43 +1711,43 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="H15">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I15">
-        <v>473</v>
+        <v>363</v>
       </c>
       <c r="J15">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.23389021479713604</v>
+        <v>0.19591836734693877</v>
       </c>
       <c r="L15">
-        <v>1.3628837090816456E-2</v>
+        <v>1.5985790408525755E-2</v>
       </c>
       <c r="M15">
-        <v>283.85690570628412</v>
+        <v>225.56486257017221</v>
       </c>
       <c r="N15">
-        <v>253.44366580918225</v>
+        <v>273.71915907391684</v>
       </c>
       <c r="O15">
-        <v>1.1200000000000001</v>
+        <v>0.82407407407407407</v>
       </c>
       <c r="P15">
-        <v>1786.7778439547351</v>
+        <v>1715.8136175281641</v>
       </c>
       <c r="Q15">
-        <v>2030.0837631315499</v>
+        <v>1928.7062968078772</v>
       </c>
       <c r="R15">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="S15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T15">
         <v>7</v>
@@ -1754,12 +1756,12 @@
         <v>7</v>
       </c>
       <c r="V15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1777,57 +1779,57 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>1311</v>
+        <v>1126</v>
       </c>
       <c r="H16">
-        <v>726</v>
+        <v>613</v>
       </c>
       <c r="I16">
-        <v>1019</v>
+        <v>667</v>
       </c>
       <c r="J16">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K16">
-        <v>0.23369175627240144</v>
+        <v>0.26358974358974357</v>
       </c>
       <c r="L16">
-        <v>6.0833694483234616E-3</v>
+        <v>7.2712045073854122E-3</v>
       </c>
       <c r="M16">
-        <v>255.80673106785011</v>
+        <v>241.09580084669577</v>
       </c>
       <c r="N16">
-        <v>337.53412118537409</v>
+        <v>259.89310057372626</v>
       </c>
       <c r="O16">
-        <v>0.75786924939467315</v>
+        <v>0.92767295597484289</v>
       </c>
       <c r="P16">
-        <v>1426.1429575507937</v>
+        <v>1046.1105935043072</v>
       </c>
       <c r="Q16">
-        <v>1710.5542751597773</v>
+        <v>1293.7445855604046</v>
       </c>
       <c r="R16">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="S16">
         <v>5</v>
       </c>
       <c r="T16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U16">
         <v>7</v>
       </c>
       <c r="V16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1845,57 +1847,57 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>1187</v>
+        <v>822</v>
       </c>
       <c r="H17">
-        <v>608</v>
+        <v>413</v>
       </c>
       <c r="I17">
-        <v>644</v>
+        <v>364</v>
       </c>
       <c r="J17">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.21030405405405406</v>
+        <v>0.21012269938650308</v>
       </c>
       <c r="L17">
-        <v>7.379852402951941E-3</v>
+        <v>6.6045524236348629E-3</v>
       </c>
       <c r="M17">
-        <v>248.73506526638039</v>
+        <v>191.33466558952335</v>
       </c>
       <c r="N17">
-        <v>397.55091628045409</v>
+        <v>247.67209490199411</v>
       </c>
       <c r="O17">
-        <v>0.62566844919786102</v>
+        <v>0.77253218884120178</v>
       </c>
       <c r="P17">
-        <v>1330.8388962115737</v>
+        <v>873.76163952549007</v>
       </c>
       <c r="Q17">
-        <v>1538.1181172668905</v>
+        <v>998.12917215868026</v>
       </c>
       <c r="R17">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="S17">
         <v>5</v>
       </c>
       <c r="T17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U17">
         <v>7</v>
       </c>
       <c r="V17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1913,40 +1915,40 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>499</v>
+        <v>434</v>
       </c>
       <c r="H18">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="I18">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="J18">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K18">
-        <v>0.27777777777777779</v>
+        <v>0.3282442748091603</v>
       </c>
       <c r="L18">
-        <v>1.147156778093006E-2</v>
+        <v>1.5903614457831325E-2</v>
       </c>
       <c r="M18">
-        <v>260.44935358353206</v>
+        <v>307.51851386971259</v>
       </c>
       <c r="N18">
-        <v>156.897200953935</v>
+        <v>247.89757750721728</v>
       </c>
       <c r="O18">
-        <v>1.6599999999999997</v>
+        <v>1.2405063291139242</v>
       </c>
       <c r="P18">
-        <v>1565.8340655202712</v>
+        <v>1361.8677042801557</v>
       </c>
       <c r="Q18">
-        <v>1876.4905234090625</v>
+        <v>1710.1794903978912</v>
       </c>
       <c r="R18">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="S18">
         <v>6</v>
@@ -1958,12 +1960,12 @@
         <v>7</v>
       </c>
       <c r="V18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1981,40 +1983,40 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>592</v>
+        <v>466</v>
       </c>
       <c r="H19">
-        <v>350</v>
+        <v>278</v>
       </c>
       <c r="I19">
-        <v>358</v>
+        <v>192</v>
       </c>
       <c r="J19">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>0.29772329246935203</v>
+        <v>0.26108374384236455</v>
       </c>
       <c r="L19">
-        <v>7.5775238983446028E-3</v>
+        <v>7.0154925460391695E-3</v>
       </c>
       <c r="M19">
-        <v>359.9000277700639</v>
+        <v>244.37656206609276</v>
       </c>
       <c r="N19">
-        <v>417.66176062204943</v>
+        <v>373.22965842821441</v>
       </c>
       <c r="O19">
-        <v>0.86170212765957455</v>
+        <v>0.65476190476190477</v>
       </c>
       <c r="P19">
-        <v>1572.8964176617608</v>
+        <v>1044.1544015551235</v>
       </c>
       <c r="Q19">
-        <v>1859.4834768119968</v>
+        <v>1310.7470147181339</v>
       </c>
       <c r="R19">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="S19">
         <v>5</v>
@@ -2029,9 +2031,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -2049,43 +2051,43 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>828</v>
+        <v>794</v>
       </c>
       <c r="H20">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="I20">
-        <v>568</v>
+        <v>417</v>
       </c>
       <c r="J20">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K20">
-        <v>0.32203389830508472</v>
+        <v>0.31971153846153844</v>
       </c>
       <c r="L20">
-        <v>1.0158201498751041E-2</v>
+        <v>1.577126577126577E-2</v>
       </c>
       <c r="M20">
-        <v>275.87096982358776</v>
+        <v>235.53895669148432</v>
       </c>
       <c r="N20">
-        <v>306.52329980398639</v>
+        <v>335.56234925910093</v>
       </c>
       <c r="O20">
-        <v>0.9</v>
+        <v>0.70192307692307698</v>
       </c>
       <c r="P20">
-        <v>1498.7376079889652</v>
+        <v>1280.9447370756066</v>
       </c>
       <c r="Q20">
-        <v>1823.0069935710771</v>
+        <v>1619.7336473852756</v>
       </c>
       <c r="R20">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="S20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T20">
         <v>7</v>
@@ -2094,12 +2096,12 @@
         <v>7</v>
       </c>
       <c r="V20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -2117,57 +2119,57 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>1062</v>
+        <v>1203</v>
       </c>
       <c r="H21">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="I21">
-        <v>1078</v>
+        <v>842</v>
       </c>
       <c r="J21">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K21">
-        <v>0.28752886836027713</v>
+        <v>0.33434190620272314</v>
       </c>
       <c r="L21">
-        <v>2.1944632005401754E-2</v>
+        <v>2.4561940469814064E-2</v>
       </c>
       <c r="M21">
-        <v>417.31784582893351</v>
+        <v>486.58922914466734</v>
       </c>
       <c r="N21">
-        <v>484.89968321013725</v>
+        <v>420.69693769799363</v>
       </c>
       <c r="O21">
-        <v>0.86062717770034858</v>
+        <v>1.1566265060240963</v>
       </c>
       <c r="P21">
-        <v>2723.5480464625134</v>
+        <v>2329.8838437170011</v>
       </c>
       <c r="Q21">
-        <v>3022.5976768743399</v>
+        <v>2623.8648363252378</v>
       </c>
       <c r="R21">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U21">
         <v>7</v>
       </c>
       <c r="V21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2185,40 +2187,40 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>434</v>
+        <v>666</v>
       </c>
       <c r="H22">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="I22">
-        <v>508</v>
+        <v>646</v>
       </c>
       <c r="J22">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K22">
-        <v>0.1648</v>
+        <v>0.16577540106951871</v>
       </c>
       <c r="L22">
-        <v>9.9809060926922405E-3</v>
+        <v>1.2352999308232039E-2</v>
       </c>
       <c r="M22">
-        <v>132.91686050375492</v>
+        <v>124.94184887352961</v>
       </c>
       <c r="N22">
-        <v>95.700139562703527</v>
+        <v>128.92935468864226</v>
       </c>
       <c r="O22">
-        <v>1.3888888888888891</v>
+        <v>0.9690721649484535</v>
       </c>
       <c r="P22">
-        <v>903.83465142553337</v>
+        <v>1112.5141224164286</v>
       </c>
       <c r="Q22">
-        <v>947.69721539177237</v>
+        <v>1192.2642387186816</v>
       </c>
       <c r="R22">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S22">
         <v>5</v>
@@ -2233,9 +2235,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -2253,40 +2255,40 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>1515</v>
+        <v>1243</v>
       </c>
       <c r="H23">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="I23">
-        <v>976</v>
+        <v>699</v>
       </c>
       <c r="J23">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.27481840193704599</v>
+        <v>0.29581993569131831</v>
       </c>
       <c r="L23">
-        <v>1.3387960513581522E-2</v>
+        <v>1.0462439840970915E-2</v>
       </c>
       <c r="M23">
-        <v>302.81728221489197</v>
+        <v>252.67545951047819</v>
       </c>
       <c r="N23">
-        <v>268.4062274177453</v>
+        <v>311.66583916272987</v>
       </c>
       <c r="O23">
-        <v>1.1282051282051275</v>
+        <v>0.81072555205047325</v>
       </c>
       <c r="P23">
-        <v>1530.800351975932</v>
+        <v>1251.5792216219404</v>
       </c>
       <c r="Q23">
-        <v>1669.4277441587235</v>
+        <v>1410.8532466830202</v>
       </c>
       <c r="R23">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="S23">
         <v>6</v>
@@ -2301,9 +2303,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -2321,57 +2323,57 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>4339</v>
+        <v>4089</v>
       </c>
       <c r="H24">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="I24">
-        <v>2503</v>
+        <v>1913</v>
       </c>
       <c r="J24">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="K24">
-        <v>0.27756797583081572</v>
+        <v>0.31099575271354413</v>
       </c>
       <c r="L24">
-        <v>8.4427284427284425E-3</v>
+        <v>8.8903300771486088E-3</v>
       </c>
       <c r="M24">
-        <v>298.46368601294341</v>
+        <v>338.92873534499847</v>
       </c>
       <c r="N24">
-        <v>395.14528039020257</v>
+        <v>352.50761095978208</v>
       </c>
       <c r="O24">
-        <v>0.75532646048109975</v>
+        <v>0.96147919876733434</v>
       </c>
       <c r="P24">
-        <v>1373.3674796792127</v>
+        <v>1210.964127326401</v>
       </c>
       <c r="Q24">
-        <v>1563.2001607738873</v>
+        <v>1374.725367240691</v>
       </c>
       <c r="R24">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="S24">
         <v>5</v>
       </c>
       <c r="T24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U24">
         <v>7</v>
       </c>
       <c r="V24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2389,57 +2391,57 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>4339</v>
+        <v>4089</v>
       </c>
       <c r="H25">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="I25">
-        <v>2503</v>
+        <v>1913</v>
       </c>
       <c r="J25">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="K25">
-        <v>0.27756797583081572</v>
+        <v>0.31099575271354413</v>
       </c>
       <c r="L25">
-        <v>8.4427284427284425E-3</v>
+        <v>8.8903300771486088E-3</v>
       </c>
       <c r="M25">
-        <v>298.46368601294341</v>
+        <v>338.92873534499847</v>
       </c>
       <c r="N25">
-        <v>395.14528039020257</v>
+        <v>352.50761095978208</v>
       </c>
       <c r="O25">
-        <v>0.75532646048109975</v>
+        <v>0.96147919876733434</v>
       </c>
       <c r="P25">
-        <v>1373.3674796792127</v>
+        <v>1210.964127326401</v>
       </c>
       <c r="Q25">
-        <v>1563.2001607738873</v>
+        <v>1374.725367240691</v>
       </c>
       <c r="R25">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="S25">
         <v>5</v>
       </c>
       <c r="T25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U25">
         <v>7</v>
       </c>
       <c r="V25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2457,57 +2459,57 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>4339</v>
+        <v>4089</v>
       </c>
       <c r="H26">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="I26">
-        <v>2503</v>
+        <v>1913</v>
       </c>
       <c r="J26">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="K26">
-        <v>0.27756797583081572</v>
+        <v>0.31099575271354413</v>
       </c>
       <c r="L26">
-        <v>8.4427284427284425E-3</v>
+        <v>8.8903300771486088E-3</v>
       </c>
       <c r="M26">
-        <v>298.46368601294341</v>
+        <v>338.92873534499847</v>
       </c>
       <c r="N26">
-        <v>395.14528039020257</v>
+        <v>352.50761095978208</v>
       </c>
       <c r="O26">
-        <v>0.75532646048109975</v>
+        <v>0.96147919876733434</v>
       </c>
       <c r="P26">
-        <v>1373.3674796792127</v>
+        <v>1210.964127326401</v>
       </c>
       <c r="Q26">
-        <v>1563.2001607738873</v>
+        <v>1374.725367240691</v>
       </c>
       <c r="R26">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="S26">
         <v>5</v>
       </c>
       <c r="T26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U26">
         <v>7</v>
       </c>
       <c r="V26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2525,57 +2527,57 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>4339</v>
+        <v>4089</v>
       </c>
       <c r="H27">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="I27">
-        <v>2503</v>
+        <v>1913</v>
       </c>
       <c r="J27">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="K27">
-        <v>0.27756797583081572</v>
+        <v>0.31099575271354413</v>
       </c>
       <c r="L27">
-        <v>8.4427284427284425E-3</v>
+        <v>8.8903300771486088E-3</v>
       </c>
       <c r="M27">
-        <v>298.46368601294341</v>
+        <v>338.92873534499847</v>
       </c>
       <c r="N27">
-        <v>395.14528039020257</v>
+        <v>352.50761095978208</v>
       </c>
       <c r="O27">
-        <v>0.75532646048109975</v>
+        <v>0.96147919876733434</v>
       </c>
       <c r="P27">
-        <v>1373.3674796792127</v>
+        <v>1210.964127326401</v>
       </c>
       <c r="Q27">
-        <v>1563.2001607738873</v>
+        <v>1374.725367240691</v>
       </c>
       <c r="R27">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="S27">
         <v>5</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U27">
         <v>7</v>
       </c>
       <c r="V27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2593,57 +2595,57 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>4339</v>
+        <v>4089</v>
       </c>
       <c r="H28">
-        <v>2554</v>
+        <v>2546</v>
       </c>
       <c r="I28">
-        <v>2503</v>
+        <v>1913</v>
       </c>
       <c r="J28">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="K28">
-        <v>0.27756797583081572</v>
+        <v>0.31099575271354413</v>
       </c>
       <c r="L28">
-        <v>8.4427284427284425E-3</v>
+        <v>8.8903300771486088E-3</v>
       </c>
       <c r="M28">
-        <v>298.46368601294341</v>
+        <v>338.92873534499847</v>
       </c>
       <c r="N28">
-        <v>395.14528039020257</v>
+        <v>352.50761095978208</v>
       </c>
       <c r="O28">
-        <v>0.75532646048109975</v>
+        <v>0.96147919876733434</v>
       </c>
       <c r="P28">
-        <v>1373.3674796792127</v>
+        <v>1210.964127326401</v>
       </c>
       <c r="Q28">
-        <v>1563.2001607738873</v>
+        <v>1374.725367240691</v>
       </c>
       <c r="R28">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="S28">
         <v>5</v>
       </c>
       <c r="T28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U28">
         <v>7</v>
       </c>
       <c r="V28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2661,43 +2663,43 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="H29">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I29">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="J29">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K29">
-        <v>0.20129870129870131</v>
+        <v>0.15887850467289719</v>
       </c>
       <c r="L29">
-        <v>9.0250413118088211E-3</v>
+        <v>1.5216672179953688E-2</v>
       </c>
       <c r="M29">
+        <v>94.671355152826621</v>
+      </c>
+      <c r="N29">
         <v>130.73663330628438</v>
       </c>
-      <c r="N29">
-        <v>58.60607699936886</v>
-      </c>
       <c r="O29">
-        <v>2.2307692307692308</v>
+        <v>0.72413793103448276</v>
       </c>
       <c r="P29">
-        <v>901.63195383644404</v>
+        <v>1041.3849066810928</v>
       </c>
       <c r="Q29">
-        <v>1063.9257055270039</v>
+        <v>1230.7276169867459</v>
       </c>
       <c r="R29">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T29">
         <v>7</v>
@@ -2706,12 +2708,12 @@
         <v>7</v>
       </c>
       <c r="V29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2729,43 +2731,43 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>509</v>
+        <v>608</v>
       </c>
       <c r="H30">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="I30">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="J30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K30">
-        <v>0.24378109452736318</v>
+        <v>0.14155251141552511</v>
       </c>
       <c r="L30">
-        <v>1.3912783304660035E-2</v>
+        <v>1.9713021322247552E-2</v>
       </c>
       <c r="M30">
-        <v>303.82208178890443</v>
+        <v>136.71993680500699</v>
       </c>
       <c r="N30">
-        <v>194.44613234489881</v>
+        <v>306.86030260679348</v>
       </c>
       <c r="O30">
-        <v>1.5625000000000002</v>
+        <v>0.44554455445544555</v>
       </c>
       <c r="P30">
-        <v>1601.1423710275262</v>
+        <v>1847.2382572765389</v>
       </c>
       <c r="Q30">
-        <v>1746.9769702862004</v>
+        <v>1983.9581940815458</v>
       </c>
       <c r="R30">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T30">
         <v>7</v>
@@ -2774,12 +2776,12 @@
         <v>7</v>
       </c>
       <c r="V30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2797,43 +2799,43 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>200</v>
+        <v>609</v>
       </c>
       <c r="H31">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="I31">
-        <v>576</v>
+        <v>503</v>
       </c>
       <c r="J31">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K31">
-        <v>0.14130434782608695</v>
+        <v>0.15111111111111111</v>
       </c>
       <c r="L31">
-        <v>6.2434963579604576E-3</v>
+        <v>8.5134250163719713E-3</v>
       </c>
       <c r="M31">
-        <v>106.47513174041724</v>
+        <v>82.112177867609901</v>
       </c>
       <c r="N31">
-        <v>100.1588103659857</v>
+        <v>104.67046849057967</v>
       </c>
       <c r="O31">
-        <v>1.0630630630630631</v>
+        <v>0.78448275862068961</v>
       </c>
       <c r="P31">
-        <v>700.20934093698111</v>
+        <v>609.07384682018335</v>
       </c>
       <c r="Q31">
-        <v>816.61012055150513</v>
+        <v>711.93965206092548</v>
       </c>
       <c r="R31">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="S31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31">
         <v>6</v>
@@ -2842,12 +2844,12 @@
         <v>7</v>
       </c>
       <c r="V31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2865,40 +2867,40 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>200</v>
+        <v>326</v>
       </c>
       <c r="H32">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="I32">
-        <v>189</v>
+        <v>273</v>
       </c>
       <c r="J32">
+        <v>22</v>
+      </c>
+      <c r="K32">
+        <v>0.26421404682274247</v>
+      </c>
+      <c r="L32">
+        <v>1.170190925887908E-2</v>
+      </c>
+      <c r="M32">
+        <v>290.7839297371076</v>
+      </c>
+      <c r="N32">
+        <v>213.63717286807903</v>
+      </c>
+      <c r="O32">
+        <v>1.3611111111111112</v>
+      </c>
+      <c r="P32">
+        <v>1314.4620497299863</v>
+      </c>
+      <c r="Q32">
+        <v>1510.2961248590589</v>
+      </c>
+      <c r="R32">
         <v>20</v>
-      </c>
-      <c r="K32">
-        <v>0.23423423423423423</v>
-      </c>
-      <c r="L32">
-        <v>1.0933470861268696E-2</v>
-      </c>
-      <c r="M32">
-        <v>219.57153878108124</v>
-      </c>
-      <c r="N32">
-        <v>169.12942852056256</v>
-      </c>
-      <c r="O32">
-        <v>1.298245614035088</v>
-      </c>
-      <c r="P32">
-        <v>771.46756869028547</v>
-      </c>
-      <c r="Q32">
-        <v>949.49854608035128</v>
-      </c>
-      <c r="R32">
-        <v>21</v>
       </c>
       <c r="S32">
         <v>6</v>
@@ -2913,9 +2915,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2933,43 +2935,43 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>1248</v>
+        <v>1267</v>
       </c>
       <c r="H33">
-        <v>620</v>
+        <v>673</v>
       </c>
       <c r="I33">
-        <v>881</v>
+        <v>614</v>
       </c>
       <c r="J33">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K33">
-        <v>0.25889046941678523</v>
+        <v>0.28798842257597684</v>
       </c>
       <c r="L33">
-        <v>1.2989198102096443E-2</v>
+        <v>1.2054391767732452E-2</v>
       </c>
       <c r="M33">
-        <v>494.0458480082479</v>
+        <v>440.07445284768306</v>
       </c>
       <c r="N33">
-        <v>363.96094685201456</v>
+        <v>491.27808415385994</v>
       </c>
       <c r="O33">
-        <v>1.3574144486692015</v>
+        <v>0.89577464788732408</v>
       </c>
       <c r="P33">
-        <v>2077.206772718152</v>
+        <v>1781.0560402986418</v>
       </c>
       <c r="Q33">
-        <v>2347.0637485209759</v>
+        <v>2088.2778281357037</v>
       </c>
       <c r="R33">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T33">
         <v>6</v>
@@ -2981,9 +2983,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3001,43 +3003,43 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>708</v>
+        <v>750</v>
       </c>
       <c r="H34">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="I34">
-        <v>585</v>
+        <v>507</v>
       </c>
       <c r="J34">
+        <v>47</v>
+      </c>
+      <c r="K34">
+        <v>0.24153166421207659</v>
+      </c>
+      <c r="L34">
+        <v>1.1676662597526671E-2</v>
+      </c>
+      <c r="M34">
+        <v>239.56660223776984</v>
+      </c>
+      <c r="N34">
+        <v>175.59143004927449</v>
+      </c>
+      <c r="O34">
+        <v>1.3643410852713178</v>
+      </c>
+      <c r="P34">
+        <v>1105.2731875969837</v>
+      </c>
+      <c r="Q34">
+        <v>1297.1987041624698</v>
+      </c>
+      <c r="R34">
         <v>42</v>
       </c>
-      <c r="K34">
-        <v>0.20734908136482941</v>
-      </c>
-      <c r="L34">
-        <v>1.0331262178756571E-2</v>
-      </c>
-      <c r="M34">
-        <v>190.56434268913512</v>
-      </c>
-      <c r="N34">
-        <v>200.09255982359184</v>
-      </c>
-      <c r="O34">
-        <v>0.95238095238095255</v>
-      </c>
-      <c r="P34">
-        <v>1186.9436201780416</v>
-      </c>
-      <c r="Q34">
-        <v>1358.4515285982632</v>
-      </c>
-      <c r="R34">
-        <v>38</v>
-      </c>
       <c r="S34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T34">
         <v>6</v>
@@ -3049,9 +3051,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -3069,40 +3071,40 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>322</v>
+        <v>487</v>
       </c>
       <c r="H35">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="I35">
-        <v>505</v>
+        <v>303</v>
       </c>
       <c r="J35">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K35">
-        <v>0.13835125448028673</v>
+        <v>0.14792899408284024</v>
       </c>
       <c r="L35">
-        <v>1.3952561291608531E-2</v>
+        <v>9.5126400833984888E-3</v>
       </c>
       <c r="M35">
-        <v>258.33187573160393</v>
+        <v>222.00395570684714</v>
       </c>
       <c r="N35">
-        <v>258.33187573160393</v>
+        <v>239.49517645950783</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>0.92696629213483139</v>
       </c>
       <c r="P35">
-        <v>1196.1304037781035</v>
+        <v>869.17912355529256</v>
       </c>
       <c r="Q35">
-        <v>1349.5149549937435</v>
+        <v>1038.7094170041576</v>
       </c>
       <c r="R35">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S35">
         <v>5</v>
@@ -3117,9 +3119,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -3137,57 +3139,57 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>1825</v>
+        <v>1622</v>
       </c>
       <c r="H36">
-        <v>1076</v>
+        <v>981</v>
       </c>
       <c r="I36">
-        <v>887</v>
+        <v>661</v>
       </c>
       <c r="J36">
+        <v>146</v>
+      </c>
+      <c r="K36">
+        <v>0.30169491525423731</v>
+      </c>
+      <c r="L36">
+        <v>1.1349651305893615E-2</v>
+      </c>
+      <c r="M36">
+        <v>477.48551973260817</v>
+      </c>
+      <c r="N36">
+        <v>540.80425169714965</v>
+      </c>
+      <c r="O36">
+        <v>0.88291746641074864</v>
+      </c>
+      <c r="P36">
+        <v>1704.4157030455272</v>
+      </c>
+      <c r="Q36">
+        <v>2159.0649587909234</v>
+      </c>
+      <c r="R36">
+        <v>85</v>
+      </c>
+      <c r="S36">
+        <v>5</v>
+      </c>
+      <c r="T36">
+        <v>7</v>
+      </c>
+      <c r="U36">
+        <v>7</v>
+      </c>
+      <c r="V36" t="s">
         <v>107</v>
       </c>
-      <c r="K36">
-        <v>0.24074074074074073</v>
-      </c>
-      <c r="L36">
-        <v>9.6325821452297004E-3</v>
-      </c>
-      <c r="M36">
-        <v>531.46214370238124</v>
-      </c>
-      <c r="N36">
-        <v>585.4387676721542</v>
-      </c>
-      <c r="O36">
-        <v>0.90780141843971651</v>
-      </c>
-      <c r="P36">
-        <v>2037.617554858934</v>
-      </c>
-      <c r="Q36">
-        <v>2370.8194066723408</v>
-      </c>
-      <c r="R36">
-        <v>82</v>
-      </c>
-      <c r="S36">
-        <v>6</v>
-      </c>
-      <c r="T36">
-        <v>7</v>
-      </c>
-      <c r="U36">
-        <v>7</v>
-      </c>
-      <c r="V36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -3205,44 +3207,44 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="H37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I37">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>0.13461538461538461</v>
+      </c>
+      <c r="L37">
+        <v>1.225382932166302E-2</v>
+      </c>
+      <c r="M37">
+        <v>67.559008571549214</v>
+      </c>
+      <c r="N37">
+        <v>101.33851285732381</v>
+      </c>
+      <c r="O37">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="P37">
+        <v>717.81446607271039</v>
+      </c>
+      <c r="Q37">
+        <v>844.48760714436514</v>
+      </c>
+      <c r="R37">
+        <v>2</v>
+      </c>
+      <c r="S37">
         <v>4</v>
       </c>
-      <c r="K37">
-        <v>0.20370370370370369</v>
-      </c>
-      <c r="L37">
-        <v>9.3403385872737887E-3</v>
-      </c>
-      <c r="M37">
-        <v>92.893636785880162</v>
-      </c>
-      <c r="N37">
-        <v>42.224380357218259</v>
-      </c>
-      <c r="O37">
-        <v>2.1999999999999997</v>
-      </c>
-      <c r="P37">
-        <v>785.37347464425966</v>
-      </c>
-      <c r="Q37">
-        <v>886.71198750158339</v>
-      </c>
-      <c r="R37">
-        <v>5</v>
-      </c>
-      <c r="S37">
-        <v>6</v>
-      </c>
       <c r="T37">
         <v>6</v>
       </c>
@@ -3250,12 +3252,12 @@
         <v>7</v>
       </c>
       <c r="V37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -3273,43 +3275,43 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>1138</v>
+        <v>1235</v>
       </c>
       <c r="H38">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="I38">
-        <v>680</v>
+        <v>552</v>
       </c>
       <c r="J38">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K38">
-        <v>0.27255813953488373</v>
+        <v>0.23469387755102042</v>
       </c>
       <c r="L38">
-        <v>9.0629323244586241E-3</v>
+        <v>9.9096323680427194E-3</v>
       </c>
       <c r="M38">
-        <v>252.02113725667314</v>
+        <v>233.95510591210873</v>
       </c>
       <c r="N38">
-        <v>235.76170904656522</v>
+        <v>260.15085136172712</v>
       </c>
       <c r="O38">
-        <v>1.0689655172413792</v>
+        <v>0.89930555555555547</v>
       </c>
       <c r="P38">
-        <v>1102.0279120184273</v>
+        <v>1115.5774355268506</v>
       </c>
       <c r="Q38">
-        <v>1280.8816223296149</v>
+        <v>1313.4004787498307</v>
       </c>
       <c r="R38">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="S38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T38">
         <v>6</v>
@@ -3321,9 +3323,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -3341,40 +3343,40 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="H39">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="I39">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="J39">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K39">
-        <v>0.24303797468354429</v>
+        <v>0.2530612244897959</v>
       </c>
       <c r="L39">
-        <v>6.9040205766887778E-3</v>
+        <v>6.923540036122818E-3</v>
       </c>
       <c r="M39">
+        <v>383.21444832296254</v>
+      </c>
+      <c r="N39">
         <v>371.8318409470329</v>
       </c>
-      <c r="N39">
-        <v>364.24343602974653</v>
-      </c>
       <c r="O39">
-        <v>1.0208333333333333</v>
+        <v>1.0306122448979593</v>
       </c>
       <c r="P39">
-        <v>1582.1824252542115</v>
+        <v>1714.9795113067232</v>
       </c>
       <c r="Q39">
-        <v>1809.8345727728033</v>
+        <v>1976.7794809531038</v>
       </c>
       <c r="R39">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S39">
         <v>6</v>
@@ -3386,12 +3388,12 @@
         <v>7</v>
       </c>
       <c r="V39" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -3409,37 +3411,37 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>479</v>
+        <v>559</v>
       </c>
       <c r="H40">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="I40">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="J40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K40">
-        <v>0.11285266457680251</v>
+        <v>0.1791907514450867</v>
       </c>
       <c r="L40">
-        <v>7.1264587717620046E-3</v>
+        <v>1.8850141376060319E-2</v>
       </c>
       <c r="M40">
-        <v>108.51612182530501</v>
+        <v>126.07020035586905</v>
       </c>
       <c r="N40">
-        <v>97.345344578582427</v>
+        <v>106.92029650434465</v>
       </c>
       <c r="O40">
-        <v>1.1147540983606559</v>
+        <v>1.1791044776119401</v>
       </c>
       <c r="P40">
-        <v>764.40032874001611</v>
+        <v>892.06635441684557</v>
       </c>
       <c r="Q40">
-        <v>812.27508836882714</v>
+        <v>963.87849386006201</v>
       </c>
       <c r="R40">
         <v>25</v>
@@ -3448,18 +3450,18 @@
         <v>5</v>
       </c>
       <c r="T40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U40">
         <v>7</v>
       </c>
       <c r="V40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3477,43 +3479,43 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>510</v>
+        <v>426</v>
       </c>
       <c r="H41">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="I41">
-        <v>507</v>
+        <v>377</v>
       </c>
       <c r="J41">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K41">
-        <v>0.10727056019070322</v>
+        <v>6.3706563706563704E-2</v>
       </c>
       <c r="L41">
-        <v>4.1284271699415977E-3</v>
+        <v>2.5187581196807808E-3</v>
       </c>
       <c r="M41">
-        <v>115.74647189898489</v>
+        <v>54.468927952463481</v>
       </c>
       <c r="N41">
-        <v>115.74647189898489</v>
+        <v>115.12750680861599</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>0.4731182795698925</v>
       </c>
       <c r="P41">
-        <v>545.30824461500367</v>
+        <v>402.94627383015597</v>
       </c>
       <c r="Q41">
-        <v>627.01163654369896</v>
+        <v>469.79450358999753</v>
       </c>
       <c r="R41">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="S41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T41">
         <v>6</v>
@@ -3522,12 +3524,12 @@
         <v>7</v>
       </c>
       <c r="V41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -3545,37 +3547,37 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>1086</v>
+        <v>1057</v>
       </c>
       <c r="H42">
-        <v>589</v>
+        <v>544</v>
       </c>
       <c r="I42">
-        <v>748</v>
+        <v>555</v>
       </c>
       <c r="J42">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="K42">
-        <v>0.28638941398865786</v>
+        <v>0.25962910128388017</v>
       </c>
       <c r="L42">
-        <v>1.0973936899862825E-2</v>
+        <v>1.6141489033055297E-2</v>
       </c>
       <c r="M42">
-        <v>460.40589255597212</v>
+        <v>399.65789284372573</v>
       </c>
       <c r="N42">
-        <v>481.18810298384585</v>
+        <v>469.99768198422146</v>
       </c>
       <c r="O42">
-        <v>0.95681063122923593</v>
+        <v>0.85034013605442182</v>
       </c>
       <c r="P42">
-        <v>2137.3704109282453</v>
+        <v>1756.8960969410186</v>
       </c>
       <c r="Q42">
-        <v>2545.0214616288458</v>
+        <v>2279.6486207806115</v>
       </c>
       <c r="R42">
         <v>73</v>
@@ -3593,9 +3595,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -3613,40 +3615,40 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>1019</v>
+        <v>967</v>
       </c>
       <c r="H43">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="I43">
-        <v>809</v>
+        <v>485</v>
       </c>
       <c r="J43">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K43">
-        <v>0.21503330161750714</v>
+        <v>0.23726541554959785</v>
       </c>
       <c r="L43">
-        <v>6.4407267938350107E-3</v>
+        <v>6.941728588189284E-3</v>
       </c>
       <c r="M43">
-        <v>146.03843760453799</v>
+        <v>153.95185047966072</v>
       </c>
       <c r="N43">
-        <v>130.2116118542925</v>
+        <v>149.63544345686651</v>
       </c>
       <c r="O43">
-        <v>1.1215469613259668</v>
+        <v>1.0288461538461537</v>
       </c>
       <c r="P43">
-        <v>858.24559636558524</v>
+        <v>695.66093184033605</v>
       </c>
       <c r="Q43">
-        <v>1024.427266743163</v>
+        <v>859.68439870651673</v>
       </c>
       <c r="R43">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S43">
         <v>5</v>
@@ -3661,9 +3663,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3681,40 +3683,40 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>371</v>
+        <v>312</v>
       </c>
       <c r="H44">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I44">
-        <v>394</v>
+        <v>240</v>
       </c>
       <c r="J44">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K44">
-        <v>0.2289156626506024</v>
+        <v>0.21800947867298578</v>
       </c>
       <c r="L44">
-        <v>8.9753595718586234E-3</v>
+        <v>8.8712979391292485E-3</v>
       </c>
       <c r="M44">
-        <v>151.32740451569748</v>
+        <v>146.94110293553234</v>
       </c>
       <c r="N44">
-        <v>166.67946004627549</v>
+        <v>182.03151557685348</v>
       </c>
       <c r="O44">
-        <v>0.9078947368421052</v>
+        <v>0.80722891566265065</v>
       </c>
       <c r="P44">
-        <v>1182.1082758545065</v>
+        <v>855.32880813220311</v>
       </c>
       <c r="Q44">
-        <v>1353.1740374809469</v>
+        <v>1006.6562126479006</v>
       </c>
       <c r="R44">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="S44">
         <v>5</v>
@@ -3729,9 +3731,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3749,40 +3751,40 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>243</v>
+        <v>317</v>
       </c>
       <c r="H45">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="I45">
-        <v>709</v>
+        <v>484</v>
       </c>
       <c r="J45">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="K45">
-        <v>0.15273132664437011</v>
+        <v>0.1466275659824047</v>
       </c>
       <c r="L45">
-        <v>1.6581396782346051E-2</v>
+        <v>2.1160069703759023E-2</v>
       </c>
       <c r="M45">
-        <v>202.6249136541561</v>
+        <v>173.45920638575484</v>
       </c>
       <c r="N45">
-        <v>211.83513700207229</v>
+        <v>207.23002532811421</v>
       </c>
       <c r="O45">
-        <v>0.95652173913043481</v>
+        <v>0.83703703703703691</v>
       </c>
       <c r="P45">
-        <v>1502.8014429349912</v>
+        <v>1123.6472484457747</v>
       </c>
       <c r="Q45">
-        <v>1687.005909893315</v>
+        <v>1220.3545935988948</v>
       </c>
       <c r="R45">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="S45">
         <v>5</v>
@@ -3797,9 +3799,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3817,57 +3819,57 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>895</v>
+        <v>712</v>
       </c>
       <c r="H46">
-        <v>554</v>
+        <v>455</v>
       </c>
       <c r="I46">
-        <v>457</v>
+        <v>299</v>
       </c>
       <c r="J46">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="K46">
-        <v>0.29702970297029702</v>
+        <v>0.25</v>
       </c>
       <c r="L46">
-        <v>8.4251753347299382E-3</v>
+        <v>9.4575497336667029E-3</v>
       </c>
       <c r="M46">
-        <v>412.40396481031809</v>
+        <v>302.53572708092832</v>
       </c>
       <c r="N46">
-        <v>469.72652362565185</v>
+        <v>421.95772461287368</v>
       </c>
       <c r="O46">
-        <v>0.87796610169491529</v>
+        <v>0.71698113207547176</v>
       </c>
       <c r="P46">
-        <v>1609.8085267306237</v>
+        <v>1200.5891485211575</v>
       </c>
       <c r="Q46">
-        <v>2073.1658771545722</v>
+        <v>1496.755702400382</v>
       </c>
       <c r="R46">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="S46">
         <v>5</v>
       </c>
       <c r="T46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U46">
         <v>7</v>
       </c>
       <c r="V46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3885,40 +3887,40 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="H47">
+        <v>113</v>
+      </c>
+      <c r="I47">
         <v>98</v>
       </c>
-      <c r="I47">
-        <v>118</v>
-      </c>
       <c r="J47">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K47">
-        <v>0.27941176470588236</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="L47">
-        <v>1.1987263532496722E-2</v>
+        <v>8.211353088182792E-3</v>
       </c>
       <c r="M47">
-        <v>242.18713613711517</v>
+        <v>307.39136509710772</v>
       </c>
       <c r="N47">
-        <v>214.24246658283263</v>
+        <v>218.89991150854641</v>
       </c>
       <c r="O47">
-        <v>1.1304347826086958</v>
+        <v>1.4042553191489362</v>
       </c>
       <c r="P47">
-        <v>1089.8421126170183</v>
+        <v>1243.5377951655721</v>
       </c>
       <c r="Q47">
-        <v>1313.3994690512786</v>
+        <v>1536.9568254855387</v>
       </c>
       <c r="R47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S47">
         <v>6</v>
@@ -3933,9 +3935,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3953,40 +3955,40 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>797</v>
+        <v>1193</v>
       </c>
       <c r="H48">
-        <v>497</v>
+        <v>568</v>
       </c>
       <c r="I48">
-        <v>892</v>
+        <v>956</v>
       </c>
       <c r="J48">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K48">
-        <v>0.24677716390423574</v>
+        <v>0.26485148514851486</v>
       </c>
       <c r="L48">
-        <v>1.2004163805895772E-2</v>
+        <v>1.440909090909091E-2</v>
       </c>
       <c r="M48">
-        <v>248.77637291673616</v>
+        <v>293.57518336534383</v>
       </c>
       <c r="N48">
-        <v>224.94721842279591</v>
+        <v>247.82320673697853</v>
       </c>
       <c r="O48">
-        <v>1.1059322033898304</v>
+        <v>1.1846153846153848</v>
       </c>
       <c r="P48">
-        <v>1323.9478236833202</v>
+        <v>1452.6252579505974</v>
       </c>
       <c r="Q48">
-        <v>1449.7657594113246</v>
+        <v>1612.7571761498759</v>
       </c>
       <c r="R48">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="S48">
         <v>6</v>
@@ -4001,9 +4003,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -4021,43 +4023,43 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>989</v>
+        <v>1091</v>
       </c>
       <c r="H49">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="I49">
-        <v>659</v>
+        <v>516</v>
       </c>
       <c r="J49">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K49">
-        <v>0.30040733197556008</v>
+        <v>0.3365019011406844</v>
       </c>
       <c r="L49">
-        <v>1.3304226048274158E-2</v>
+        <v>1.3742523497579037E-2</v>
       </c>
       <c r="M49">
-        <v>462.85544976256637</v>
+        <v>448.44126620594665</v>
       </c>
       <c r="N49">
-        <v>438.83181050153354</v>
+        <v>469.26175356550851</v>
       </c>
       <c r="O49">
-        <v>1.0547445255474452</v>
+        <v>0.95563139931740604</v>
       </c>
       <c r="P49">
-        <v>1957.12581179881</v>
+        <v>1747.3193622524564</v>
       </c>
       <c r="Q49">
-        <v>2279.0425778966501</v>
+        <v>2102.8692233157426</v>
       </c>
       <c r="R49">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="S49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T49">
         <v>7</v>
@@ -4066,12 +4068,12 @@
         <v>7</v>
       </c>
       <c r="V49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -4089,40 +4091,40 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>1881</v>
+        <v>1844</v>
       </c>
       <c r="H50">
-        <v>1249</v>
+        <v>1233</v>
       </c>
       <c r="I50">
-        <v>829</v>
+        <v>687</v>
       </c>
       <c r="J50">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K50">
-        <v>0.21590909090909091</v>
+        <v>0.24973711882229233</v>
       </c>
       <c r="L50">
-        <v>9.2408084612521074E-3</v>
+        <v>8.9216577450089221E-3</v>
       </c>
       <c r="M50">
-        <v>350.77828932944971</v>
+        <v>349.06995350479332</v>
       </c>
       <c r="N50">
-        <v>360.45885900250272</v>
+        <v>353.05607042899163</v>
       </c>
       <c r="O50">
-        <v>0.97314375987361768</v>
+        <v>0.98870967741935478</v>
       </c>
       <c r="P50">
-        <v>1183.3072812120072</v>
+        <v>1093.334927780103</v>
       </c>
       <c r="Q50">
-        <v>1431.0159757871868</v>
+        <v>1368.3769955497851</v>
       </c>
       <c r="R50">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="S50">
         <v>5</v>
@@ -4137,9 +4139,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -4157,40 +4159,40 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>1356</v>
+        <v>1321</v>
       </c>
       <c r="H51">
-        <v>755</v>
+        <v>683</v>
       </c>
       <c r="I51">
-        <v>752</v>
+        <v>502</v>
       </c>
       <c r="J51">
+        <v>133</v>
+      </c>
+      <c r="K51">
+        <v>0.26192893401015227</v>
+      </c>
+      <c r="L51">
+        <v>1.1995557201036653E-2</v>
+      </c>
+      <c r="M51">
+        <v>244.06718938345043</v>
+      </c>
+      <c r="N51">
+        <v>265.712291805836</v>
+      </c>
+      <c r="O51">
+        <v>0.91853932584269637</v>
+      </c>
+      <c r="P51">
+        <v>985.97173448176761</v>
+      </c>
+      <c r="Q51">
+        <v>1283.7784885001063</v>
+      </c>
+      <c r="R51">
         <v>120</v>
-      </c>
-      <c r="K51">
-        <v>0.26952526799387444</v>
-      </c>
-      <c r="L51">
-        <v>1.409372545597347E-2</v>
-      </c>
-      <c r="M51">
-        <v>255.26293201571883</v>
-      </c>
-      <c r="N51">
-        <v>308.25611380845578</v>
-      </c>
-      <c r="O51">
-        <v>0.8280871670702179</v>
-      </c>
-      <c r="P51">
-        <v>1124.7989431218955</v>
-      </c>
-      <c r="Q51">
-        <v>1393.4967662963363</v>
-      </c>
-      <c r="R51">
-        <v>157</v>
       </c>
       <c r="S51">
         <v>5</v>
@@ -4205,9 +4207,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -4225,43 +4227,43 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="H52">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="I52">
-        <v>460</v>
+        <v>323</v>
       </c>
       <c r="J52">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K52">
-        <v>0.30383973288814692</v>
+        <v>0.34190231362467866</v>
       </c>
       <c r="L52">
-        <v>1.2437185929648242E-2</v>
+        <v>1.1051143664867643E-2</v>
       </c>
       <c r="M52">
-        <v>394.94916440041072</v>
+        <v>453.62732596847178</v>
       </c>
       <c r="N52">
-        <v>392.69231203240838</v>
+        <v>397.20601676841306</v>
       </c>
       <c r="O52">
-        <v>1.0057471264367817</v>
+        <v>1.1420454545454546</v>
       </c>
       <c r="P52">
-        <v>1825.7935657138989</v>
+        <v>1579.7966576016429</v>
       </c>
       <c r="Q52">
-        <v>2116.9275211862014</v>
+        <v>1857.3894988659317</v>
       </c>
       <c r="R52">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="S52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T52">
         <v>7</v>
@@ -4270,12 +4272,12 @@
         <v>7</v>
       </c>
       <c r="V52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4293,57 +4295,57 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>667</v>
+        <v>482</v>
       </c>
       <c r="H53">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="I53">
-        <v>540</v>
+        <v>321</v>
       </c>
       <c r="J53">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="K53">
-        <v>0.24157303370786518</v>
+        <v>0.2864864864864865</v>
       </c>
       <c r="L53">
-        <v>1.399229781771502E-2</v>
+        <v>9.2246613731900989E-3</v>
       </c>
       <c r="M53">
-        <v>214.44880350182282</v>
+        <v>189.21953250160837</v>
       </c>
       <c r="N53">
-        <v>491.97078450418172</v>
+        <v>206.88002220175849</v>
       </c>
       <c r="O53">
-        <v>0.43589743589743596</v>
+        <v>0.91463414634146334</v>
       </c>
       <c r="P53">
-        <v>2068.8002220175845</v>
+        <v>1216.0508622103364</v>
       </c>
       <c r="Q53">
-        <v>2507.7895374213163</v>
+        <v>1473.3894264125238</v>
       </c>
       <c r="R53">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="S53">
         <v>5</v>
       </c>
       <c r="T53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U53">
         <v>7</v>
       </c>
       <c r="V53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4361,57 +4363,57 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>1115</v>
+        <v>993</v>
       </c>
       <c r="H54">
-        <v>601</v>
+        <v>564</v>
       </c>
       <c r="I54">
-        <v>740</v>
+        <v>569</v>
       </c>
       <c r="J54">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="K54">
-        <v>0.36107986501687289</v>
+        <v>0.32445923460898501</v>
       </c>
       <c r="L54">
-        <v>1.4661604922110223E-2</v>
+        <v>1.4037389307969826E-2</v>
       </c>
       <c r="M54">
-        <v>336.26825413800071</v>
+        <v>335.08002709157665</v>
       </c>
       <c r="N54">
-        <v>377.85620076284175</v>
+        <v>335.08002709157665</v>
       </c>
       <c r="O54">
-        <v>0.88993710691823913</v>
+        <v>1</v>
       </c>
       <c r="P54">
-        <v>1593.412469254625</v>
+        <v>1346.2612435984267</v>
       </c>
       <c r="Q54">
-        <v>1796.5992941931345</v>
+        <v>1627.8710536009221</v>
       </c>
       <c r="R54">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="S54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U54">
         <v>7</v>
       </c>
       <c r="V54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -4429,43 +4431,43 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H55">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="I55">
-        <v>551</v>
+        <v>412</v>
       </c>
       <c r="J55">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K55">
-        <v>0.33797216699801191</v>
+        <v>0.21153846153846154</v>
       </c>
       <c r="L55">
-        <v>1.1998613878541108E-2</v>
+        <v>1.3007975693125713E-2</v>
       </c>
       <c r="M55">
-        <v>250.76958936479741</v>
+        <v>163.96473150775216</v>
       </c>
       <c r="N55">
-        <v>210.58215517172093</v>
+        <v>252.37708673252047</v>
       </c>
       <c r="O55">
-        <v>1.1908396946564883</v>
+        <v>0.64968152866242046</v>
       </c>
       <c r="P55">
-        <v>1347.0827941519246</v>
+        <v>1078.6307337421736</v>
       </c>
       <c r="Q55">
-        <v>1689.4797334769364</v>
+        <v>1377.6252441386628</v>
       </c>
       <c r="R55">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="S55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T55">
         <v>7</v>
@@ -4474,12 +4476,12 @@
         <v>7</v>
       </c>
       <c r="V55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4497,40 +4499,40 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>655</v>
+        <v>714</v>
       </c>
       <c r="H56">
-        <v>365</v>
+        <v>427</v>
       </c>
       <c r="I56">
-        <v>522</v>
+        <v>332</v>
       </c>
       <c r="J56">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K56">
-        <v>0.22096608427543679</v>
+        <v>0.28977272727272729</v>
       </c>
       <c r="L56">
-        <v>1.0141402481757843E-2</v>
+        <v>8.2613237109486273E-3</v>
       </c>
       <c r="M56">
-        <v>366.83009417657223</v>
+        <v>373.88451906458329</v>
       </c>
       <c r="N56">
-        <v>276.88617685443194</v>
+        <v>379.17533773059148</v>
       </c>
       <c r="O56">
-        <v>1.3248407643312101</v>
+        <v>0.98604651162790713</v>
       </c>
       <c r="P56">
-        <v>1564.3187189164403</v>
+        <v>1338.5771225000883</v>
       </c>
       <c r="Q56">
-        <v>1839.4412895488697</v>
+        <v>1661.3170611265916</v>
       </c>
       <c r="R56">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="S56">
         <v>6</v>
@@ -4545,9 +4547,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -4565,43 +4567,43 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>570</v>
+        <v>509</v>
       </c>
       <c r="H57">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="I57">
-        <v>473</v>
+        <v>333</v>
       </c>
       <c r="J57">
+        <v>28</v>
+      </c>
+      <c r="K57">
+        <v>0.20302375809935205</v>
+      </c>
+      <c r="L57">
+        <v>1.211212365901488E-2</v>
+      </c>
+      <c r="M57">
+        <v>181.76260151854393</v>
+      </c>
+      <c r="N57">
+        <v>168.54350322628616</v>
+      </c>
+      <c r="O57">
+        <v>1.0784313725490198</v>
+      </c>
+      <c r="P57">
+        <v>900.55107116005854</v>
+      </c>
+      <c r="Q57">
+        <v>1039.3516032287646</v>
+      </c>
+      <c r="R57">
         <v>26</v>
       </c>
-      <c r="K57">
-        <v>0.15193370165745856</v>
-      </c>
-      <c r="L57">
-        <v>1.0404013731185635E-2</v>
-      </c>
-      <c r="M57">
-        <v>170.19589051281838</v>
-      </c>
-      <c r="N57">
-        <v>196.63408709733386</v>
-      </c>
-      <c r="O57">
-        <v>0.86554621848739499</v>
-      </c>
-      <c r="P57">
-        <v>1148.4091641398911</v>
-      </c>
-      <c r="Q57">
-        <v>1277.2953724894041</v>
-      </c>
-      <c r="R57">
-        <v>21</v>
-      </c>
       <c r="S57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -4610,12 +4612,12 @@
         <v>7</v>
       </c>
       <c r="V57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -4633,57 +4635,57 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>351</v>
+        <v>272</v>
       </c>
       <c r="H58">
+        <v>157</v>
+      </c>
+      <c r="I58">
         <v>162</v>
       </c>
-      <c r="I58">
-        <v>278</v>
-      </c>
       <c r="J58">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K58">
-        <v>0.16923076923076924</v>
+        <v>0.20882352941176471</v>
       </c>
       <c r="L58">
-        <v>5.7833585161256706E-3</v>
+        <v>4.04498816101026E-3</v>
       </c>
       <c r="M58">
-        <v>129.63142110863888</v>
+        <v>170.26216503821223</v>
       </c>
       <c r="N58">
-        <v>183.80574634807004</v>
+        <v>133.50101576859822</v>
       </c>
       <c r="O58">
-        <v>0.70526315789473681</v>
+        <v>1.2753623188405798</v>
       </c>
       <c r="P58">
-        <v>851.31082519106121</v>
+        <v>617.20034826351934</v>
       </c>
       <c r="Q58">
-        <v>949.98548902002528</v>
+        <v>744.89697204217862</v>
       </c>
       <c r="R58">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S58">
         <v>6</v>
       </c>
       <c r="T58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U58">
         <v>7</v>
       </c>
       <c r="V58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -4701,43 +4703,43 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>379</v>
+        <v>563</v>
       </c>
       <c r="H59">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I59">
-        <v>552</v>
+        <v>372</v>
       </c>
       <c r="J59">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K59">
-        <v>0.17031802120141343</v>
+        <v>0.14912280701754385</v>
       </c>
       <c r="L59">
-        <v>6.8098954409859282E-3</v>
+        <v>6.5122565583338454E-3</v>
       </c>
       <c r="M59">
-        <v>254.92029566301539</v>
+        <v>198.14765339745301</v>
       </c>
       <c r="N59">
-        <v>210.39273310178999</v>
+        <v>270.50494255944432</v>
       </c>
       <c r="O59">
-        <v>1.2116402116402116</v>
+        <v>0.73251028806584351</v>
       </c>
       <c r="P59">
-        <v>1079.793392109716</v>
+        <v>882.75892777629349</v>
       </c>
       <c r="Q59">
-        <v>1220.0552141775759</v>
+        <v>1029.6998842283374</v>
       </c>
       <c r="R59">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="S59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T59">
         <v>6</v>
@@ -4749,9 +4751,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -4769,43 +4771,43 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>549</v>
+        <v>710</v>
       </c>
       <c r="H60">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="I60">
-        <v>649</v>
+        <v>446</v>
       </c>
       <c r="J60">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="K60">
-        <v>0.2700534759358289</v>
+        <v>0.28602150537634408</v>
       </c>
       <c r="L60">
-        <v>1.1460647877441235E-2</v>
+        <v>1.1007944864554418E-2</v>
       </c>
       <c r="M60">
-        <v>406.974820500943</v>
+        <v>339.14568375078585</v>
       </c>
       <c r="N60">
-        <v>324.25636104953185</v>
+        <v>413.59229725705592</v>
       </c>
       <c r="O60">
-        <v>1.2551020408163265</v>
+        <v>0.82</v>
       </c>
       <c r="P60">
-        <v>1804.9167852297917</v>
+        <v>1490.5866393144292</v>
       </c>
       <c r="Q60">
-        <v>2048.1090560169409</v>
+        <v>1788.3730933395098</v>
       </c>
       <c r="R60">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="S60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T60">
         <v>7</v>
@@ -4814,12 +4816,12 @@
         <v>7</v>
       </c>
       <c r="V60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -4837,43 +4839,43 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>380</v>
+        <v>514</v>
       </c>
       <c r="H61">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="I61">
-        <v>356</v>
+        <v>257</v>
       </c>
       <c r="J61">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K61">
-        <v>0.16666666666666666</v>
+        <v>0.1394422310756972</v>
       </c>
       <c r="L61">
-        <v>9.781619654231119E-3</v>
+        <v>8.6783159376099452E-3</v>
       </c>
       <c r="M61">
-        <v>416.09612669702466</v>
+        <v>390.62085363394158</v>
       </c>
       <c r="N61">
-        <v>329.05561039815728</v>
+        <v>413.97318727510111</v>
       </c>
       <c r="O61">
-        <v>1.264516129032258</v>
+        <v>0.94358974358974368</v>
       </c>
       <c r="P61">
-        <v>1500.9181712999819</v>
+        <v>1350.1894723434066</v>
       </c>
       <c r="Q61">
-        <v>1736.5644471335008</v>
+        <v>1604.9422029742384</v>
       </c>
       <c r="R61">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="S61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T61">
         <v>7</v>
@@ -4882,12 +4884,12 @@
         <v>7</v>
       </c>
       <c r="V61" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -4905,43 +4907,43 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>324</v>
+        <v>278</v>
       </c>
       <c r="H62">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="I62">
-        <v>211</v>
+        <v>139</v>
       </c>
       <c r="J62">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K62">
-        <v>0.25925925925925924</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="L62">
-        <v>6.4087715234344839E-3</v>
+        <v>7.5049561030869445E-3</v>
       </c>
       <c r="M62">
-        <v>190.39472413460078</v>
+        <v>126.92981608973385</v>
       </c>
       <c r="N62">
-        <v>160.04194202618618</v>
+        <v>195.91341179067615</v>
       </c>
       <c r="O62">
-        <v>1.1896551724137929</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="P62">
-        <v>932.65821387673998</v>
+        <v>767.0975841944786</v>
       </c>
       <c r="Q62">
-        <v>1023.716560201984</v>
+        <v>899.54608794028775</v>
       </c>
       <c r="R62">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="S62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T62">
         <v>6</v>
@@ -4953,9 +4955,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4973,40 +4975,40 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="H63">
         <v>107</v>
       </c>
       <c r="I63">
-        <v>142</v>
+        <v>91</v>
       </c>
       <c r="J63">
+        <v>16</v>
+      </c>
+      <c r="K63">
+        <v>0.26174496644295303</v>
+      </c>
+      <c r="L63">
+        <v>1.0462776659959759E-2</v>
+      </c>
+      <c r="M63">
+        <v>214.73333625487533</v>
+      </c>
+      <c r="N63">
+        <v>254.17415311801568</v>
+      </c>
+      <c r="O63">
+        <v>0.84482758620689657</v>
+      </c>
+      <c r="P63">
+        <v>872.08028397388148</v>
+      </c>
+      <c r="Q63">
+        <v>1082.4313072439634</v>
+      </c>
+      <c r="R63">
         <v>15</v>
-      </c>
-      <c r="K63">
-        <v>0.31491712707182318</v>
-      </c>
-      <c r="L63">
-        <v>8.9803813208068524E-3</v>
-      </c>
-      <c r="M63">
-        <v>219.1156492396687</v>
-      </c>
-      <c r="N63">
-        <v>249.79184013322231</v>
-      </c>
-      <c r="O63">
-        <v>0.87719298245614041</v>
-      </c>
-      <c r="P63">
-        <v>1091.1959332135502</v>
-      </c>
-      <c r="Q63">
-        <v>1288.400017529252</v>
-      </c>
-      <c r="R63">
-        <v>20</v>
       </c>
       <c r="S63">
         <v>5</v>
@@ -5021,9 +5023,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -5044,37 +5046,37 @@
         <v>1122</v>
       </c>
       <c r="H64">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="I64">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="J64">
+        <v>50</v>
+      </c>
+      <c r="K64">
+        <v>0.22765196662693682</v>
+      </c>
+      <c r="L64">
+        <v>1.2005693421622625E-2</v>
+      </c>
+      <c r="M64">
+        <v>265.62421690973787</v>
+      </c>
+      <c r="N64">
+        <v>216.50879566982411</v>
+      </c>
+      <c r="O64">
+        <v>1.2268518518518516</v>
+      </c>
+      <c r="P64">
+        <v>1124.642910840475</v>
+      </c>
+      <c r="Q64">
+        <v>1274.9962411667418</v>
+      </c>
+      <c r="R64">
         <v>49</v>
-      </c>
-      <c r="K64">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="L64">
-        <v>1.0924981791697014E-2</v>
-      </c>
-      <c r="M64">
-        <v>217.51115120533254</v>
-      </c>
-      <c r="N64">
-        <v>218.513506740841</v>
-      </c>
-      <c r="O64">
-        <v>0.99541284403669716</v>
-      </c>
-      <c r="P64">
-        <v>1212.8501979652183</v>
-      </c>
-      <c r="Q64">
-        <v>1360.1964616849598</v>
-      </c>
-      <c r="R64">
-        <v>53</v>
       </c>
       <c r="S64">
         <v>6</v>
@@ -5089,9 +5091,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -5109,43 +5111,43 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="H65">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="I65">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="J65">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="K65">
-        <v>0.1186161449752883</v>
+        <v>0.16030534351145037</v>
       </c>
       <c r="L65">
-        <v>7.6346192824809133E-3</v>
+        <v>7.5478027507547805E-3</v>
       </c>
       <c r="M65">
-        <v>131.59479922525878</v>
+        <v>205.7327142817426</v>
       </c>
       <c r="N65">
-        <v>168.66375675350071</v>
+        <v>133.44824710167089</v>
       </c>
       <c r="O65">
-        <v>0.78021978021978011</v>
+        <v>1.5416666666666665</v>
       </c>
       <c r="P65">
-        <v>741.37915056483814</v>
+        <v>759.91362932895913</v>
       </c>
       <c r="Q65">
-        <v>885.9480849249818</v>
+        <v>960.08599998146542</v>
       </c>
       <c r="R65">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="S65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T65">
         <v>6</v>
@@ -5157,9 +5159,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -5177,40 +5179,40 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="H66">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="I66">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="J66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K66">
-        <v>0.20179372197309417</v>
+        <v>0.24293785310734464</v>
       </c>
       <c r="L66">
-        <v>8.2738481505515906E-3</v>
+        <v>4.641350210970464E-3</v>
       </c>
       <c r="M66">
-        <v>238.65186051042275</v>
+        <v>287.35632183908046</v>
       </c>
       <c r="N66">
-        <v>228.91096824469119</v>
+        <v>258.13364504188587</v>
       </c>
       <c r="O66">
-        <v>1.0425531914893618</v>
+        <v>1.1132075471698113</v>
       </c>
       <c r="P66">
-        <v>1139.6843950905902</v>
+        <v>974.08922657315406</v>
       </c>
       <c r="Q66">
-        <v>1475.7451782583285</v>
+        <v>1295.5386713422949</v>
       </c>
       <c r="R66">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S66">
         <v>5</v>
@@ -5222,12 +5224,12 @@
         <v>7</v>
       </c>
       <c r="V66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -5245,37 +5247,37 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>325</v>
+        <v>379</v>
       </c>
       <c r="H67">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="I67">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="J67">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K67">
-        <v>0.29591836734693877</v>
+        <v>0.26706231454005935</v>
       </c>
       <c r="L67">
-        <v>8.2850868436813736E-3</v>
+        <v>1.170597348941298E-2</v>
       </c>
       <c r="M67">
-        <v>316.30020881955534</v>
+        <v>359.29247021250461</v>
       </c>
       <c r="N67">
-        <v>233.38656184743888</v>
+        <v>328.58371207468366</v>
       </c>
       <c r="O67">
-        <v>1.3552631578947369</v>
+        <v>1.0934579439252339</v>
       </c>
       <c r="P67">
-        <v>1108.5861687753347</v>
+        <v>1203.7833190025794</v>
       </c>
       <c r="Q67">
-        <v>1431.0281292224543</v>
+        <v>1517.0126520083527</v>
       </c>
       <c r="R67">
         <v>18</v>
@@ -5293,9 +5295,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -5313,43 +5315,43 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>532</v>
+        <v>414</v>
       </c>
       <c r="H68">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="I68">
-        <v>362</v>
+        <v>208</v>
       </c>
       <c r="J68">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="K68">
-        <v>0.21886792452830189</v>
+        <v>0.27466666666666667</v>
       </c>
       <c r="L68">
-        <v>6.5227766877021792E-3</v>
+        <v>5.962705984388552E-3</v>
       </c>
       <c r="M68">
-        <v>156.84820658334698</v>
+        <v>166.82945609319634</v>
       </c>
       <c r="N68">
-        <v>216.73570364244313</v>
+        <v>182.51427675153104</v>
       </c>
       <c r="O68">
-        <v>0.72368421052631571</v>
+        <v>0.9140625</v>
       </c>
       <c r="P68">
-        <v>889.75709916371397</v>
+        <v>645.92943256596539</v>
       </c>
       <c r="Q68">
-        <v>1086.5303037864583</v>
+        <v>876.92406407962187</v>
       </c>
       <c r="R68">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T68">
         <v>6</v>
@@ -5358,12 +5360,12 @@
         <v>7</v>
       </c>
       <c r="V68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -5381,43 +5383,43 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>1632</v>
+        <v>1292</v>
       </c>
       <c r="H69">
-        <v>869</v>
+        <v>733</v>
       </c>
       <c r="I69">
-        <v>682</v>
+        <v>455</v>
       </c>
       <c r="J69">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K69">
-        <v>0.32923299565846598</v>
+        <v>0.29365962180200222</v>
       </c>
       <c r="L69">
-        <v>7.9761364373257242E-3</v>
+        <v>1.1776015380918048E-2</v>
       </c>
       <c r="M69">
-        <v>414.79597163820677</v>
+        <v>273.36668153730801</v>
       </c>
       <c r="N69">
-        <v>410.05002230596187</v>
+        <v>422.38949056979868</v>
       </c>
       <c r="O69">
-        <v>1.011574074074074</v>
+        <v>0.64719101123595535</v>
       </c>
       <c r="P69">
-        <v>1549.077862044745</v>
+        <v>1226.3533074520897</v>
       </c>
       <c r="Q69">
-        <v>1782.5785691911951</v>
+        <v>1457.0064449991933</v>
       </c>
       <c r="R69">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="S69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T69">
         <v>7</v>
@@ -5426,12 +5428,12 @@
         <v>7</v>
       </c>
       <c r="V69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -5449,40 +5451,40 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>1807</v>
+        <v>1684</v>
       </c>
       <c r="H70">
-        <v>1110</v>
+        <v>1056</v>
       </c>
       <c r="I70">
-        <v>1071</v>
+        <v>803</v>
       </c>
       <c r="J70">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="K70">
-        <v>0.27821522309711288</v>
+        <v>0.23405698778833106</v>
       </c>
       <c r="L70">
-        <v>1.19438042900195E-2</v>
+        <v>1.0964355262043857E-2</v>
       </c>
       <c r="M70">
+        <v>440.08627088008524</v>
+      </c>
+      <c r="N70">
         <v>481.99924905914099</v>
       </c>
-      <c r="N70">
-        <v>487.2383713315229</v>
-      </c>
       <c r="O70">
-        <v>0.98924731182795711</v>
+        <v>0.91304347826086951</v>
       </c>
       <c r="P70">
-        <v>1904.420946010845</v>
+        <v>1623.2547173930127</v>
       </c>
       <c r="Q70">
-        <v>2234.4856491709088</v>
+        <v>1971.6563485064135</v>
       </c>
       <c r="R70">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S70">
         <v>6</v>
@@ -5497,9 +5499,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -5517,57 +5519,57 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>1395</v>
+        <v>1090</v>
       </c>
       <c r="H71">
-        <v>997</v>
+        <v>720</v>
       </c>
       <c r="I71">
-        <v>669</v>
+        <v>475</v>
       </c>
       <c r="J71">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="K71">
-        <v>0.22210414452709884</v>
+        <v>0.21794871794871795</v>
       </c>
       <c r="L71">
-        <v>4.1674848901398619E-3</v>
+        <v>6.5780581211984683E-3</v>
       </c>
       <c r="M71">
-        <v>294.44073247794523</v>
+        <v>220.45306123989747</v>
       </c>
       <c r="N71">
-        <v>458.27057593362252</v>
+        <v>323.12982948861685</v>
       </c>
       <c r="O71">
-        <v>0.64250411861614487</v>
+        <v>0.68224299065420557</v>
       </c>
       <c r="P71">
-        <v>1257.7904110468123</v>
+        <v>902.19660336190907</v>
       </c>
       <c r="Q71">
-        <v>1577.1453593498145</v>
+        <v>1149.0738329011094</v>
       </c>
       <c r="R71">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="S71">
         <v>5</v>
       </c>
       <c r="T71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U71">
         <v>7</v>
       </c>
       <c r="V71" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -5585,43 +5587,43 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="H72">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="I72">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="J72">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K72">
-        <v>0.256140350877193</v>
+        <v>0.27672955974842767</v>
       </c>
       <c r="L72">
-        <v>8.0800307810696415E-3</v>
+        <v>9.5602294455066923E-3</v>
       </c>
       <c r="M72">
-        <v>440.69503903298914</v>
+        <v>402.92117854444723</v>
       </c>
       <c r="N72">
-        <v>491.0601863510451</v>
+        <v>446.99068244774611</v>
       </c>
       <c r="O72">
-        <v>0.89743589743589736</v>
+        <v>0.90140845070422537</v>
       </c>
       <c r="P72">
-        <v>1624.2760010073032</v>
+        <v>1466.8849156383783</v>
       </c>
       <c r="Q72">
-        <v>1983.1276756484513</v>
+        <v>1731.3019390581719</v>
       </c>
       <c r="R72">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T72">
         <v>7</v>
@@ -5630,12 +5632,12 @@
         <v>7</v>
       </c>
       <c r="V72" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -5653,40 +5655,40 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>144</v>
+        <v>213</v>
       </c>
       <c r="H73">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I73">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="J73">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K73">
-        <v>0.11877394636015326</v>
+        <v>0.13235294117647059</v>
       </c>
       <c r="L73">
-        <v>5.0244144080390631E-3</v>
+        <v>8.3114004709793597E-3</v>
       </c>
       <c r="M73">
-        <v>80.154781647318956</v>
+        <v>102.26644555002764</v>
       </c>
       <c r="N73">
-        <v>46.987285793255943</v>
+        <v>85.68269762299613</v>
       </c>
       <c r="O73">
-        <v>1.7058823529411764</v>
+        <v>1.1935483870967742</v>
       </c>
       <c r="P73">
-        <v>527.91597567716963</v>
+        <v>588.72305140961862</v>
       </c>
       <c r="Q73">
-        <v>561.0834715312327</v>
+        <v>663.3499170812604</v>
       </c>
       <c r="R73">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S73">
         <v>5</v>
@@ -5701,9 +5703,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -5721,43 +5723,43 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H74">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="I74">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="J74">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K74">
-        <v>0.24248496993987975</v>
+        <v>0.27184466019417475</v>
       </c>
       <c r="L74">
-        <v>1.0738354439754129E-2</v>
+        <v>1.6350123864574732E-2</v>
       </c>
       <c r="M74">
-        <v>271.43284337404828</v>
+        <v>259.9314517056564</v>
       </c>
       <c r="N74">
-        <v>241.52922503622938</v>
+        <v>276.033400041405</v>
       </c>
       <c r="O74">
-        <v>1.1238095238095238</v>
+        <v>0.94166666666666676</v>
       </c>
       <c r="P74">
-        <v>1281.2550318588549</v>
+        <v>1173.1419501759713</v>
       </c>
       <c r="Q74">
-        <v>1453.7759068847329</v>
+        <v>1393.9686702090953</v>
       </c>
       <c r="R74">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="S74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T74">
         <v>6</v>
@@ -5769,9 +5771,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -5789,40 +5791,40 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>1316</v>
+        <v>1171</v>
       </c>
       <c r="H75">
-        <v>737</v>
+        <v>686</v>
       </c>
       <c r="I75">
-        <v>647</v>
+        <v>413</v>
       </c>
       <c r="J75">
         <v>92</v>
       </c>
       <c r="K75">
-        <v>0.33303411131059246</v>
+        <v>0.28645833333333331</v>
       </c>
       <c r="L75">
-        <v>1.3878180416345412E-2</v>
+        <v>9.6601982882806546E-3</v>
       </c>
       <c r="M75">
-        <v>445.72935561154691</v>
+        <v>392.48946035794546</v>
       </c>
       <c r="N75">
-        <v>466.77768629320326</v>
+        <v>456.87258950183553</v>
       </c>
       <c r="O75">
-        <v>0.9549071618037136</v>
+        <v>0.85907859078590787</v>
       </c>
       <c r="P75">
-        <v>1713.5817449066135</v>
+        <v>1449.8585428364484</v>
       </c>
       <c r="Q75">
-        <v>2055.3075842087992</v>
+        <v>1791.5843821386341</v>
       </c>
       <c r="R75">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="S75">
         <v>5</v>
@@ -5837,9 +5839,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -5857,57 +5859,57 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>438</v>
+        <v>321</v>
       </c>
       <c r="H76">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="I76">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="J76">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K76">
-        <v>0.28110599078341014</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="L76">
-        <v>1.9728535353535352E-2</v>
+        <v>1.917739086550593E-2</v>
       </c>
       <c r="M76">
-        <v>233.24729949335625</v>
+        <v>145.30159640569735</v>
       </c>
       <c r="N76">
-        <v>279.132014147787</v>
+        <v>225.59984705095115</v>
       </c>
       <c r="O76">
-        <v>0.83561643835616439</v>
+        <v>0.64406779661016944</v>
       </c>
       <c r="P76">
-        <v>1674.7920848867223</v>
+        <v>1284.7720103240608</v>
       </c>
       <c r="Q76">
-        <v>2053.3409807857761</v>
+        <v>1548.6091195870376</v>
       </c>
       <c r="R76">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="S76">
         <v>5</v>
       </c>
       <c r="T76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U76">
         <v>7</v>
       </c>
       <c r="V76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5925,40 +5927,40 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="H77">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="I77">
-        <v>472</v>
+        <v>358</v>
       </c>
       <c r="J77">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K77">
-        <v>0.23540489642184556</v>
+        <v>0.26190476190476192</v>
       </c>
       <c r="L77">
-        <v>1.141304347826087E-2</v>
+        <v>1.1491031390134529E-2</v>
       </c>
       <c r="M77">
+        <v>279.54717625342766</v>
+      </c>
+      <c r="N77">
         <v>236.86821804679747</v>
       </c>
-      <c r="N77">
-        <v>243.27006177779199</v>
-      </c>
       <c r="O77">
-        <v>0.97368421052631582</v>
+        <v>1.1801801801801803</v>
       </c>
       <c r="P77">
-        <v>1487.3616935010616</v>
+        <v>1280.3687461989052</v>
       </c>
       <c r="Q77">
-        <v>1794.6501925887987</v>
+        <v>1574.8535578246535</v>
       </c>
       <c r="R77">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S77">
         <v>6</v>
@@ -5970,12 +5972,12 @@
         <v>7</v>
       </c>
       <c r="V77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -5993,57 +5995,57 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>1450</v>
+        <v>1680</v>
       </c>
       <c r="H78">
-        <v>1119</v>
+        <v>1311</v>
       </c>
       <c r="I78">
-        <v>1034</v>
+        <v>886</v>
       </c>
       <c r="J78">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="K78">
-        <v>0.20612668743509865</v>
+        <v>0.21146245059288538</v>
       </c>
       <c r="L78">
-        <v>8.8740893494024774E-3</v>
+        <v>1.0064450582595167E-2</v>
       </c>
       <c r="M78">
-        <v>375.21434040103009</v>
+        <v>453.67400011389299</v>
       </c>
       <c r="N78">
-        <v>332.82081458843481</v>
+        <v>375.84707959226284</v>
       </c>
       <c r="O78">
-        <v>1.1273764258555132</v>
+        <v>1.207070707070707</v>
       </c>
       <c r="P78">
-        <v>1362.2874787241446</v>
+        <v>1390.1280031383865</v>
       </c>
       <c r="Q78">
-        <v>1593.870022715337</v>
+        <v>1661.573116177243</v>
       </c>
       <c r="R78">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T78">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U78">
         <v>7</v>
       </c>
       <c r="V78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -6061,43 +6063,43 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H79">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I79">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="J79">
         <v>5</v>
       </c>
       <c r="K79">
-        <v>0.13432835820895522</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="L79">
-        <v>2.6218046755516716E-3</v>
+        <v>5.7400574005740061E-3</v>
       </c>
       <c r="M79">
-        <v>71.476985642984786</v>
+        <v>41.90030192864625</v>
       </c>
       <c r="N79">
-        <v>76.406432928707872</v>
+        <v>73.941709285846329</v>
       </c>
       <c r="O79">
-        <v>0.93548387096774199</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="P79">
-        <v>345.06131000061617</v>
+        <v>357.38492821492389</v>
       </c>
       <c r="Q79">
-        <v>382.03216464353932</v>
+        <v>394.35578285784709</v>
       </c>
       <c r="R79">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="S79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T79">
         <v>6</v>
@@ -6106,12 +6108,12 @@
         <v>7</v>
       </c>
       <c r="V79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -6129,52 +6131,52 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>850</v>
+        <v>633</v>
       </c>
       <c r="H80">
-        <v>360</v>
+        <v>281</v>
       </c>
       <c r="I80">
-        <v>684</v>
+        <v>395</v>
       </c>
       <c r="J80">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K80">
-        <v>0.18922018348623854</v>
+        <v>0.19093406593406592</v>
       </c>
       <c r="L80">
-        <v>8.4020586593910838E-3</v>
+        <v>7.61551260719314E-3</v>
       </c>
       <c r="M80">
-        <v>203.61118988925006</v>
+        <v>207.97428681544827</v>
       </c>
       <c r="N80">
-        <v>319.96044125453579</v>
+        <v>200.7024586051179</v>
       </c>
       <c r="O80">
-        <v>0.63636363636363635</v>
+        <v>1.0362318840579712</v>
       </c>
       <c r="P80">
-        <v>1518.3577303169791</v>
+        <v>983.15117403666454</v>
       </c>
       <c r="Q80">
-        <v>1762.6911581840789</v>
+        <v>1201.3060203465755</v>
       </c>
       <c r="R80">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="S80">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U80">
         <v>7</v>
       </c>
       <c r="V80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6183,18 +6185,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6409,18 +6411,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5CCCDBC2-06B4-4373-9D4F-39B1A35A20BA}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2069CB02-193B-420D-8132-0C42FEB9157C}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
@@ -733,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:V80"/>
     </sheetView>
   </sheetViews>
@@ -809,7 +809,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -827,43 +827,43 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>394</v>
+        <v>274</v>
       </c>
       <c r="H2">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="I2">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K2">
-        <v>0.2462686567164179</v>
+        <v>0.16101694915254236</v>
       </c>
       <c r="L2">
-        <v>1.1360147374884864E-2</v>
+        <v>5.0779198038872347E-3</v>
       </c>
       <c r="M2">
+        <v>146.07995810537051</v>
+      </c>
+      <c r="N2">
         <v>237.03540371814839</v>
       </c>
-      <c r="N2">
-        <v>261.84143433981507</v>
-      </c>
       <c r="O2">
-        <v>0.90526315789473688</v>
+        <v>0.61627906976744184</v>
       </c>
       <c r="P2">
-        <v>1146.5898598459271</v>
+        <v>906.79823050314906</v>
       </c>
       <c r="Q2">
-        <v>1411.1875198103717</v>
+        <v>1105.2464754764826</v>
       </c>
       <c r="R2">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T2">
         <v>6</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -895,43 +895,43 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>1158</v>
+        <v>1039</v>
       </c>
       <c r="H3">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="I3">
-        <v>554</v>
+        <v>475</v>
       </c>
       <c r="J3">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K3">
-        <v>0.19211822660098521</v>
+        <v>0.227330779054917</v>
       </c>
       <c r="L3">
-        <v>7.2220291198393386E-3</v>
+        <v>4.9167581412367361E-3</v>
       </c>
       <c r="M3">
-        <v>236</v>
+        <v>269</v>
       </c>
       <c r="N3">
-        <v>310</v>
+        <v>240</v>
       </c>
       <c r="O3">
-        <v>0.76129032258064511</v>
+        <v>1.1208333333333333</v>
       </c>
       <c r="P3">
-        <v>1044.8575952936294</v>
+        <v>937.4844918049057</v>
       </c>
       <c r="Q3">
-        <v>1415.7008350740107</v>
+        <v>1294.7933067757842</v>
       </c>
       <c r="R3">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T3">
         <v>6</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -963,37 +963,37 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="H4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I4">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="J4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K4">
-        <v>0.13131313131313133</v>
+        <v>0.15094339622641509</v>
       </c>
       <c r="L4">
-        <v>1.3448607108549471E-2</v>
+        <v>5.4588877516206077E-3</v>
       </c>
       <c r="M4">
+        <v>74.599030212607246</v>
+      </c>
+      <c r="N4">
         <v>80.815616063657828</v>
       </c>
-      <c r="N4">
-        <v>111.89854531891085</v>
-      </c>
       <c r="O4">
-        <v>0.72222222222222221</v>
+        <v>0.92307692307692335</v>
       </c>
       <c r="P4">
-        <v>1100.3356956359567</v>
+        <v>783.28981723237587</v>
       </c>
       <c r="Q4">
-        <v>1305.4830287206266</v>
+        <v>932.48787765759039</v>
       </c>
       <c r="R4">
         <v>7</v>
@@ -1013,7 +1013,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1031,40 +1031,40 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>893</v>
+        <v>802</v>
       </c>
       <c r="H5">
-        <v>439</v>
+        <v>414</v>
       </c>
       <c r="I5">
-        <v>362</v>
+        <v>432</v>
       </c>
       <c r="J5">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="K5">
-        <v>0.20706260032102727</v>
+        <v>0.21086956521739131</v>
       </c>
       <c r="L5">
-        <v>1.0476428036916938E-2</v>
+        <v>7.3462227257775669E-3</v>
       </c>
       <c r="M5">
+        <v>244.30700389605377</v>
+      </c>
+      <c r="N5">
         <v>288.02509933008446</v>
       </c>
-      <c r="N5">
-        <v>276.45266230342929</v>
-      </c>
       <c r="O5">
-        <v>1.0418604651162791</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="P5">
-        <v>1148.242918311453</v>
+        <v>1087.809080505587</v>
       </c>
       <c r="Q5">
-        <v>1325.6869527201657</v>
+        <v>1323.1153000475756</v>
       </c>
       <c r="R5">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="S5">
         <v>5</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1099,40 +1099,40 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>2318</v>
+        <v>2232</v>
       </c>
       <c r="H6">
-        <v>1773</v>
+        <v>1430</v>
       </c>
       <c r="I6">
-        <v>2363</v>
+        <v>2024</v>
       </c>
       <c r="J6">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="K6">
-        <v>0.1044776119402985</v>
+        <v>7.8549477566072529E-2</v>
       </c>
       <c r="L6">
-        <v>5.7994426131691736E-3</v>
+        <v>4.2997391557324099E-3</v>
       </c>
       <c r="M6">
+        <v>148.54550158941376</v>
+      </c>
+      <c r="N6">
         <v>181.81230132327937</v>
       </c>
-      <c r="N6">
-        <v>227.78517039994088</v>
-      </c>
       <c r="O6">
-        <v>0.79817444219066935</v>
+        <v>0.81702668360864039</v>
       </c>
       <c r="P6">
-        <v>955.49641457825089</v>
+        <v>797.94115472758187</v>
       </c>
       <c r="Q6">
-        <v>1125.2957048865233</v>
+        <v>940.71117025208844</v>
       </c>
       <c r="R6">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="S6">
         <v>5</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1167,40 +1167,40 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>2318</v>
+        <v>2232</v>
       </c>
       <c r="H7">
-        <v>1773</v>
+        <v>1430</v>
       </c>
       <c r="I7">
-        <v>2363</v>
+        <v>2024</v>
       </c>
       <c r="J7">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="K7">
-        <v>0.1044776119402985</v>
+        <v>7.8549477566072529E-2</v>
       </c>
       <c r="L7">
-        <v>5.7994426131691736E-3</v>
+        <v>4.2997391557324099E-3</v>
       </c>
       <c r="M7">
+        <v>148.54550158941376</v>
+      </c>
+      <c r="N7">
         <v>181.81230132327937</v>
       </c>
-      <c r="N7">
-        <v>227.78517039994088</v>
-      </c>
       <c r="O7">
-        <v>0.79817444219066935</v>
+        <v>0.81702668360864039</v>
       </c>
       <c r="P7">
-        <v>955.49641457825089</v>
+        <v>797.94115472758187</v>
       </c>
       <c r="Q7">
-        <v>1125.2957048865233</v>
+        <v>940.71117025208844</v>
       </c>
       <c r="R7">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="S7">
         <v>5</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1235,40 +1235,40 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>2318</v>
+        <v>2232</v>
       </c>
       <c r="H8">
-        <v>1773</v>
+        <v>1430</v>
       </c>
       <c r="I8">
-        <v>2363</v>
+        <v>2024</v>
       </c>
       <c r="J8">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="K8">
-        <v>0.1044776119402985</v>
+        <v>7.8549477566072529E-2</v>
       </c>
       <c r="L8">
-        <v>5.7994426131691736E-3</v>
+        <v>4.2997391557324099E-3</v>
       </c>
       <c r="M8">
+        <v>148.54550158941376</v>
+      </c>
+      <c r="N8">
         <v>181.81230132327937</v>
       </c>
-      <c r="N8">
-        <v>227.78517039994088</v>
-      </c>
       <c r="O8">
-        <v>0.79817444219066935</v>
+        <v>0.81702668360864039</v>
       </c>
       <c r="P8">
-        <v>955.49641457825089</v>
+        <v>797.94115472758187</v>
       </c>
       <c r="Q8">
-        <v>1125.2957048865233</v>
+        <v>940.71117025208844</v>
       </c>
       <c r="R8">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="S8">
         <v>5</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1303,40 +1303,40 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>2318</v>
+        <v>2232</v>
       </c>
       <c r="H9">
-        <v>1773</v>
+        <v>1430</v>
       </c>
       <c r="I9">
-        <v>2363</v>
+        <v>2024</v>
       </c>
       <c r="J9">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="K9">
-        <v>0.1044776119402985</v>
+        <v>7.8549477566072529E-2</v>
       </c>
       <c r="L9">
-        <v>5.7994426131691736E-3</v>
+        <v>4.2997391557324099E-3</v>
       </c>
       <c r="M9">
+        <v>148.54550158941376</v>
+      </c>
+      <c r="N9">
         <v>181.81230132327937</v>
       </c>
-      <c r="N9">
-        <v>227.78517039994088</v>
-      </c>
       <c r="O9">
-        <v>0.79817444219066935</v>
+        <v>0.81702668360864039</v>
       </c>
       <c r="P9">
-        <v>955.49641457825089</v>
+        <v>797.94115472758187</v>
       </c>
       <c r="Q9">
-        <v>1125.2957048865233</v>
+        <v>940.71117025208844</v>
       </c>
       <c r="R9">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="S9">
         <v>5</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1371,40 +1371,40 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>2318</v>
+        <v>2232</v>
       </c>
       <c r="H10">
-        <v>1773</v>
+        <v>1430</v>
       </c>
       <c r="I10">
-        <v>2363</v>
+        <v>2024</v>
       </c>
       <c r="J10">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="K10">
-        <v>0.1044776119402985</v>
+        <v>7.8549477566072529E-2</v>
       </c>
       <c r="L10">
-        <v>5.7994426131691736E-3</v>
+        <v>4.2997391557324099E-3</v>
       </c>
       <c r="M10">
+        <v>148.54550158941376</v>
+      </c>
+      <c r="N10">
         <v>181.81230132327937</v>
       </c>
-      <c r="N10">
-        <v>227.78517039994088</v>
-      </c>
       <c r="O10">
-        <v>0.79817444219066935</v>
+        <v>0.81702668360864039</v>
       </c>
       <c r="P10">
-        <v>955.49641457825089</v>
+        <v>797.94115472758187</v>
       </c>
       <c r="Q10">
-        <v>1125.2957048865233</v>
+        <v>940.71117025208844</v>
       </c>
       <c r="R10">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="S10">
         <v>5</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1439,40 +1439,40 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>615</v>
+        <v>522</v>
       </c>
       <c r="H11">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I11">
-        <v>451</v>
+        <v>333</v>
       </c>
       <c r="J11">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.23737373737373738</v>
+        <v>0.21397379912663755</v>
       </c>
       <c r="L11">
-        <v>1.460446247464503E-2</v>
+        <v>8.3611182354449854E-3</v>
       </c>
       <c r="M11">
+        <v>135</v>
+      </c>
+      <c r="N11">
         <v>173</v>
       </c>
-      <c r="N11">
-        <v>95</v>
-      </c>
       <c r="O11">
-        <v>1.8210526315789475</v>
+        <v>0.78034682080924855</v>
       </c>
       <c r="P11">
-        <v>1000.8218130334665</v>
+        <v>849.47802667230815</v>
       </c>
       <c r="Q11">
-        <v>1274.2170400084622</v>
+        <v>1049.6423892790015</v>
       </c>
       <c r="R11">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S11">
         <v>5</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1507,40 +1507,40 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="H12">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="I12">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="J12">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12">
-        <v>0.28484848484848485</v>
+        <v>0.21508379888268156</v>
       </c>
       <c r="L12">
-        <v>1.9005847953216373E-2</v>
+        <v>1.3116623895067009E-2</v>
       </c>
       <c r="M12">
+        <v>236.11605265711418</v>
+      </c>
+      <c r="N12">
         <v>190.83352201054436</v>
       </c>
-      <c r="N12">
-        <v>203.77138790956431</v>
-      </c>
       <c r="O12">
-        <v>0.93650793650793651</v>
+        <v>1.2372881355932202</v>
       </c>
       <c r="P12">
-        <v>1316.4278552252806</v>
+        <v>1284.0831904777308</v>
       </c>
       <c r="Q12">
-        <v>1481.3856454377849</v>
+        <v>1458.7443801145002</v>
       </c>
       <c r="R12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S12">
         <v>6</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1575,43 +1575,43 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>1518</v>
+        <v>1444</v>
       </c>
       <c r="H13">
-        <v>610</v>
+        <v>582</v>
       </c>
       <c r="I13">
-        <v>782</v>
+        <v>908</v>
       </c>
       <c r="J13">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K13">
-        <v>0.30186170212765956</v>
+        <v>0.31546391752577319</v>
       </c>
       <c r="L13">
-        <v>1.4182358296200469E-2</v>
+        <v>1.1371924043110666E-2</v>
       </c>
       <c r="M13">
+        <v>321.93605683836586</v>
+      </c>
+      <c r="N13">
         <v>324.15630550621671</v>
       </c>
-      <c r="N13">
-        <v>353.01953818827707</v>
-      </c>
       <c r="O13">
-        <v>0.91823899371069195</v>
+        <v>0.99315068493150671</v>
       </c>
       <c r="P13">
-        <v>1685.1687388987566</v>
+        <v>1654.0852575488454</v>
       </c>
       <c r="Q13">
-        <v>1831.7051509769096</v>
+        <v>1807.2824156305505</v>
       </c>
       <c r="R13">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T13">
         <v>7</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1643,43 +1643,43 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="H14">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="I14">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="J14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K14">
-        <v>0.1875</v>
+        <v>0.19634703196347031</v>
       </c>
       <c r="L14">
-        <v>1.0728771424833181E-2</v>
+        <v>9.2178578798926877E-3</v>
       </c>
       <c r="M14">
+        <v>102.9609060559733</v>
+      </c>
+      <c r="N14">
         <v>109.20096096845653</v>
       </c>
-      <c r="N14">
-        <v>84.240741318523604</v>
-      </c>
       <c r="O14">
-        <v>1.2962962962962963</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="P14">
-        <v>886.08779757261868</v>
+        <v>1032.7290880159744</v>
       </c>
       <c r="Q14">
-        <v>1035.8491154722162</v>
+        <v>1201.2105706530217</v>
       </c>
       <c r="R14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="S14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T14">
         <v>6</v>
@@ -1688,12 +1688,12 @@
         <v>7</v>
       </c>
       <c r="V14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1711,57 +1711,57 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>677</v>
+        <v>507</v>
       </c>
       <c r="H15">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="I15">
-        <v>363</v>
+        <v>289</v>
       </c>
       <c r="J15">
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.19591836734693877</v>
+        <v>0.16944444444444445</v>
       </c>
       <c r="L15">
-        <v>1.5985790408525755E-2</v>
+        <v>6.6274938507789012E-3</v>
       </c>
       <c r="M15">
+        <v>185.01387604070305</v>
+      </c>
+      <c r="N15">
         <v>225.56486257017221</v>
       </c>
-      <c r="N15">
-        <v>273.71915907391684</v>
-      </c>
       <c r="O15">
-        <v>0.82407407407407407</v>
+        <v>0.8202247191011236</v>
       </c>
       <c r="P15">
-        <v>1715.8136175281641</v>
+        <v>1284.9593856525541</v>
       </c>
       <c r="Q15">
-        <v>1928.7062968078772</v>
+        <v>1497.8520649322672</v>
       </c>
       <c r="R15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="S15">
         <v>5</v>
       </c>
       <c r="T15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U15">
         <v>7</v>
       </c>
       <c r="V15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1779,43 +1779,43 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>1126</v>
+        <v>882</v>
       </c>
       <c r="H16">
-        <v>613</v>
+        <v>518</v>
       </c>
       <c r="I16">
-        <v>667</v>
+        <v>537</v>
       </c>
       <c r="J16">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="K16">
-        <v>0.26358974358974357</v>
+        <v>0.20626631853785901</v>
       </c>
       <c r="L16">
-        <v>7.2712045073854122E-3</v>
+        <v>3.1897685528125899E-3</v>
       </c>
       <c r="M16">
+        <v>182.25207996207848</v>
+      </c>
+      <c r="N16">
         <v>241.09580084669577</v>
       </c>
-      <c r="N16">
-        <v>259.89310057372626</v>
-      </c>
       <c r="O16">
-        <v>0.92767295597484289</v>
+        <v>0.75593220338983047</v>
       </c>
       <c r="P16">
-        <v>1046.1105935043072</v>
+        <v>862.22396573987794</v>
       </c>
       <c r="Q16">
-        <v>1293.7445855604046</v>
+        <v>1041.2069500972557</v>
       </c>
       <c r="R16">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T16">
         <v>6</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1847,40 +1847,40 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>822</v>
+        <v>633</v>
       </c>
       <c r="H17">
-        <v>413</v>
+        <v>316</v>
       </c>
       <c r="I17">
-        <v>364</v>
+        <v>335</v>
       </c>
       <c r="J17">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.21012269938650308</v>
+        <v>0.18274111675126903</v>
       </c>
       <c r="L17">
-        <v>6.6045524236348629E-3</v>
+        <v>3.7374754811005675E-3</v>
       </c>
       <c r="M17">
+        <v>144.56396955652878</v>
+      </c>
+      <c r="N17">
         <v>191.33466558952335</v>
       </c>
-      <c r="N17">
-        <v>247.67209490199411</v>
-      </c>
       <c r="O17">
-        <v>0.77253218884120178</v>
+        <v>0.75555555555555565</v>
       </c>
       <c r="P17">
-        <v>873.76163952549007</v>
+        <v>691.9937072154429</v>
       </c>
       <c r="Q17">
-        <v>998.12917215868026</v>
+        <v>825.92797312810922</v>
       </c>
       <c r="R17">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S17">
         <v>5</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1915,43 +1915,43 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>434</v>
+        <v>369</v>
       </c>
       <c r="H18">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="I18">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J18">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="K18">
-        <v>0.3282442748091603</v>
+        <v>0.2280130293159609</v>
       </c>
       <c r="L18">
-        <v>1.5903614457831325E-2</v>
+        <v>8.0771235018238657E-3</v>
       </c>
       <c r="M18">
+        <v>194.55252918287937</v>
+      </c>
+      <c r="N18">
         <v>307.51851386971259</v>
       </c>
-      <c r="N18">
-        <v>247.89757750721728</v>
-      </c>
       <c r="O18">
-        <v>1.2405063291139242</v>
+        <v>0.63265306122448972</v>
       </c>
       <c r="P18">
-        <v>1361.8677042801557</v>
+        <v>1157.9013430400403</v>
       </c>
       <c r="Q18">
-        <v>1710.1794903978912</v>
+        <v>1393.2471444709427</v>
       </c>
       <c r="R18">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="S18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T18">
         <v>7</v>
@@ -1960,12 +1960,12 @@
         <v>7</v>
       </c>
       <c r="V18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1983,40 +1983,40 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>466</v>
+        <v>289</v>
       </c>
       <c r="H19">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="I19">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="J19">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.26108374384236455</v>
+        <v>0.21100917431192662</v>
       </c>
       <c r="L19">
-        <v>7.0154925460391695E-3</v>
+        <v>3.7448996702252528E-3</v>
       </c>
       <c r="M19">
+        <v>182.1716189947237</v>
+      </c>
+      <c r="N19">
         <v>244.37656206609276</v>
       </c>
-      <c r="N19">
-        <v>373.22965842821441</v>
-      </c>
       <c r="O19">
-        <v>0.65476190476190477</v>
+        <v>0.74545454545454548</v>
       </c>
       <c r="P19">
-        <v>1044.1544015551235</v>
+        <v>797.556234379339</v>
       </c>
       <c r="Q19">
-        <v>1310.7470147181339</v>
+        <v>1017.4951402388225</v>
       </c>
       <c r="R19">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S19">
         <v>5</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -2051,37 +2051,37 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>794</v>
+        <v>659</v>
       </c>
       <c r="H20">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="I20">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="J20">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.31971153846153844</v>
+        <v>0.27052238805970147</v>
       </c>
       <c r="L20">
-        <v>1.577126577126577E-2</v>
+        <v>8.3691472517529973E-3</v>
       </c>
       <c r="M20">
+        <v>216.17959038807464</v>
+      </c>
+      <c r="N20">
         <v>235.53895669148432</v>
       </c>
-      <c r="N20">
-        <v>335.56234925910093</v>
-      </c>
       <c r="O20">
-        <v>0.70192307692307698</v>
+        <v>0.9178082191780822</v>
       </c>
       <c r="P20">
-        <v>1280.9447370756066</v>
+        <v>1153.4955755781596</v>
       </c>
       <c r="Q20">
-        <v>1619.7336473852756</v>
+        <v>1380.9681296432229</v>
       </c>
       <c r="R20">
         <v>49</v>
@@ -2090,18 +2090,18 @@
         <v>5</v>
       </c>
       <c r="T20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U20">
         <v>7</v>
       </c>
       <c r="V20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -2119,57 +2119,57 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>1203</v>
+        <v>1196</v>
       </c>
       <c r="H21">
-        <v>537</v>
+        <v>581</v>
       </c>
       <c r="I21">
-        <v>842</v>
+        <v>795</v>
       </c>
       <c r="J21">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>0.33434190620272314</v>
+        <v>0.25629887054735012</v>
       </c>
       <c r="L21">
-        <v>2.4561940469814064E-2</v>
+        <v>1.5976106949843558E-2</v>
       </c>
       <c r="M21">
+        <v>495.03695881731784</v>
+      </c>
+      <c r="N21">
         <v>486.58922914466734</v>
       </c>
-      <c r="N21">
-        <v>420.69693769799363</v>
-      </c>
       <c r="O21">
-        <v>1.1566265060240963</v>
+        <v>1.0173611111111112</v>
       </c>
       <c r="P21">
-        <v>2329.8838437170011</v>
+        <v>2324.8152059134109</v>
       </c>
       <c r="Q21">
-        <v>2623.8648363252378</v>
+        <v>2664.4139387539599</v>
       </c>
       <c r="R21">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="S21">
         <v>6</v>
       </c>
       <c r="T21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U21">
         <v>7</v>
       </c>
       <c r="V21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2187,40 +2187,40 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>666</v>
+        <v>598</v>
       </c>
       <c r="H22">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="I22">
-        <v>646</v>
+        <v>536</v>
       </c>
       <c r="J22">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K22">
-        <v>0.16577540106951871</v>
+        <v>0.19158878504672897</v>
       </c>
       <c r="L22">
-        <v>1.2352999308232039E-2</v>
+        <v>8.9426393561299663E-3</v>
       </c>
       <c r="M22">
+        <v>184.75443610021932</v>
+      </c>
+      <c r="N22">
         <v>124.94184887352961</v>
       </c>
-      <c r="N22">
-        <v>128.92935468864226</v>
-      </c>
       <c r="O22">
-        <v>0.9690721649484535</v>
+        <v>1.4787234042553192</v>
       </c>
       <c r="P22">
-        <v>1112.5141224164286</v>
+        <v>1022.1306572738752</v>
       </c>
       <c r="Q22">
-        <v>1192.2642387186816</v>
+        <v>1133.7808200970294</v>
       </c>
       <c r="R22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S22">
         <v>5</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -2255,43 +2255,43 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>1243</v>
+        <v>906</v>
       </c>
       <c r="H23">
-        <v>574</v>
+        <v>391</v>
       </c>
       <c r="I23">
-        <v>699</v>
+        <v>548</v>
       </c>
       <c r="J23">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>0.29581993569131831</v>
+        <v>0.15981012658227847</v>
       </c>
       <c r="L23">
-        <v>1.0462439840970915E-2</v>
+        <v>7.6186329995646491E-3</v>
       </c>
       <c r="M23">
+        <v>131.74518122336215</v>
+      </c>
+      <c r="N23">
         <v>252.67545951047819</v>
       </c>
-      <c r="N23">
-        <v>311.66583916272987</v>
-      </c>
       <c r="O23">
-        <v>0.81072555205047325</v>
+        <v>0.52140077821011666</v>
       </c>
       <c r="P23">
-        <v>1251.5792216219404</v>
+        <v>923.19944155773919</v>
       </c>
       <c r="Q23">
-        <v>1410.8532466830202</v>
+        <v>1064.7763527231434</v>
       </c>
       <c r="R23">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="S23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T23">
         <v>6</v>
@@ -2300,12 +2300,12 @@
         <v>7</v>
       </c>
       <c r="V23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -2323,40 +2323,40 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>4089</v>
+        <v>2753</v>
       </c>
       <c r="H24">
-        <v>2546</v>
+        <v>1841</v>
       </c>
       <c r="I24">
-        <v>1913</v>
+        <v>1718</v>
       </c>
       <c r="J24">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K24">
-        <v>0.31099575271354413</v>
+        <v>0.19013360739979446</v>
       </c>
       <c r="L24">
-        <v>8.8903300771486088E-3</v>
+        <v>5.5306427503736917E-3</v>
       </c>
       <c r="M24">
+        <v>161.04546479133342</v>
+      </c>
+      <c r="N24">
         <v>338.92873534499847</v>
       </c>
-      <c r="N24">
-        <v>352.50761095978208</v>
-      </c>
       <c r="O24">
-        <v>0.96147919876733434</v>
+        <v>0.47516025641025644</v>
       </c>
       <c r="P24">
-        <v>1210.964127326401</v>
+        <v>966.5443662602961</v>
       </c>
       <c r="Q24">
-        <v>1374.725367240691</v>
+        <v>1123.7877458794901</v>
       </c>
       <c r="R24">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="S24">
         <v>5</v>
@@ -2368,12 +2368,12 @@
         <v>7</v>
       </c>
       <c r="V24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2391,40 +2391,40 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>4089</v>
+        <v>2753</v>
       </c>
       <c r="H25">
-        <v>2546</v>
+        <v>1841</v>
       </c>
       <c r="I25">
-        <v>1913</v>
+        <v>1718</v>
       </c>
       <c r="J25">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K25">
-        <v>0.31099575271354413</v>
+        <v>0.19013360739979446</v>
       </c>
       <c r="L25">
-        <v>8.8903300771486088E-3</v>
+        <v>5.5306427503736917E-3</v>
       </c>
       <c r="M25">
+        <v>161.04546479133342</v>
+      </c>
+      <c r="N25">
         <v>338.92873534499847</v>
       </c>
-      <c r="N25">
-        <v>352.50761095978208</v>
-      </c>
       <c r="O25">
-        <v>0.96147919876733434</v>
+        <v>0.47516025641025644</v>
       </c>
       <c r="P25">
-        <v>1210.964127326401</v>
+        <v>966.5443662602961</v>
       </c>
       <c r="Q25">
-        <v>1374.725367240691</v>
+        <v>1123.7877458794901</v>
       </c>
       <c r="R25">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="S25">
         <v>5</v>
@@ -2436,12 +2436,12 @@
         <v>7</v>
       </c>
       <c r="V25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2459,40 +2459,40 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>4089</v>
+        <v>2753</v>
       </c>
       <c r="H26">
-        <v>2546</v>
+        <v>1841</v>
       </c>
       <c r="I26">
-        <v>1913</v>
+        <v>1718</v>
       </c>
       <c r="J26">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K26">
-        <v>0.31099575271354413</v>
+        <v>0.19013360739979446</v>
       </c>
       <c r="L26">
-        <v>8.8903300771486088E-3</v>
+        <v>5.5306427503736917E-3</v>
       </c>
       <c r="M26">
+        <v>161.04546479133342</v>
+      </c>
+      <c r="N26">
         <v>338.92873534499847</v>
       </c>
-      <c r="N26">
-        <v>352.50761095978208</v>
-      </c>
       <c r="O26">
-        <v>0.96147919876733434</v>
+        <v>0.47516025641025644</v>
       </c>
       <c r="P26">
-        <v>1210.964127326401</v>
+        <v>966.5443662602961</v>
       </c>
       <c r="Q26">
-        <v>1374.725367240691</v>
+        <v>1123.7877458794901</v>
       </c>
       <c r="R26">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="S26">
         <v>5</v>
@@ -2504,12 +2504,12 @@
         <v>7</v>
       </c>
       <c r="V26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2527,40 +2527,40 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>4089</v>
+        <v>2753</v>
       </c>
       <c r="H27">
-        <v>2546</v>
+        <v>1841</v>
       </c>
       <c r="I27">
-        <v>1913</v>
+        <v>1718</v>
       </c>
       <c r="J27">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K27">
-        <v>0.31099575271354413</v>
+        <v>0.19013360739979446</v>
       </c>
       <c r="L27">
-        <v>8.8903300771486088E-3</v>
+        <v>5.5306427503736917E-3</v>
       </c>
       <c r="M27">
+        <v>161.04546479133342</v>
+      </c>
+      <c r="N27">
         <v>338.92873534499847</v>
       </c>
-      <c r="N27">
-        <v>352.50761095978208</v>
-      </c>
       <c r="O27">
-        <v>0.96147919876733434</v>
+        <v>0.47516025641025644</v>
       </c>
       <c r="P27">
-        <v>1210.964127326401</v>
+        <v>966.5443662602961</v>
       </c>
       <c r="Q27">
-        <v>1374.725367240691</v>
+        <v>1123.7877458794901</v>
       </c>
       <c r="R27">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="S27">
         <v>5</v>
@@ -2572,12 +2572,12 @@
         <v>7</v>
       </c>
       <c r="V27" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2595,40 +2595,40 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>4089</v>
+        <v>2753</v>
       </c>
       <c r="H28">
-        <v>2546</v>
+        <v>1841</v>
       </c>
       <c r="I28">
-        <v>1913</v>
+        <v>1718</v>
       </c>
       <c r="J28">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K28">
-        <v>0.31099575271354413</v>
+        <v>0.19013360739979446</v>
       </c>
       <c r="L28">
-        <v>8.8903300771486088E-3</v>
+        <v>5.5306427503736917E-3</v>
       </c>
       <c r="M28">
+        <v>161.04546479133342</v>
+      </c>
+      <c r="N28">
         <v>338.92873534499847</v>
       </c>
-      <c r="N28">
-        <v>352.50761095978208</v>
-      </c>
       <c r="O28">
-        <v>0.96147919876733434</v>
+        <v>0.47516025641025644</v>
       </c>
       <c r="P28">
-        <v>1210.964127326401</v>
+        <v>966.5443662602961</v>
       </c>
       <c r="Q28">
-        <v>1374.725367240691</v>
+        <v>1123.7877458794901</v>
       </c>
       <c r="R28">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="S28">
         <v>5</v>
@@ -2640,12 +2640,12 @@
         <v>7</v>
       </c>
       <c r="V28" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2663,43 +2663,43 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I29">
-        <v>132</v>
+        <v>252</v>
       </c>
       <c r="J29">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="K29">
-        <v>0.15887850467289719</v>
+        <v>0.15454545454545454</v>
       </c>
       <c r="L29">
-        <v>1.5216672179953688E-2</v>
+        <v>1.6196562362274129E-2</v>
       </c>
       <c r="M29">
+        <v>139.75295284464883</v>
+      </c>
+      <c r="N29">
         <v>94.671355152826621</v>
       </c>
-      <c r="N29">
-        <v>130.73663330628438</v>
-      </c>
       <c r="O29">
-        <v>0.72413793103448276</v>
+        <v>1.4761904761904763</v>
       </c>
       <c r="P29">
-        <v>1041.3849066810928</v>
+        <v>1370.4805698313949</v>
       </c>
       <c r="Q29">
-        <v>1230.7276169867459</v>
+        <v>1681.5435939049678</v>
       </c>
       <c r="R29">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T29">
         <v>7</v>
@@ -2708,12 +2708,12 @@
         <v>7</v>
       </c>
       <c r="V29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2731,43 +2731,43 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>608</v>
+        <v>637</v>
       </c>
       <c r="H30">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="I30">
-        <v>328</v>
+        <v>441</v>
       </c>
       <c r="J30">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K30">
-        <v>0.14155251141552511</v>
+        <v>0.2756598240469208</v>
       </c>
       <c r="L30">
-        <v>1.9713021322247552E-2</v>
+        <v>1.6236218093943513E-2</v>
       </c>
       <c r="M30">
+        <v>276.47809442790299</v>
+      </c>
+      <c r="N30">
         <v>136.71993680500699</v>
       </c>
-      <c r="N30">
-        <v>306.86030260679348</v>
-      </c>
       <c r="O30">
-        <v>0.44554455445544555</v>
+        <v>2.0222222222222217</v>
       </c>
       <c r="P30">
-        <v>1847.2382572765389</v>
+        <v>1935.3466609953214</v>
       </c>
       <c r="Q30">
-        <v>1983.9581940815458</v>
+        <v>2044.7226104393267</v>
       </c>
       <c r="R30">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T30">
         <v>7</v>
@@ -2776,12 +2776,12 @@
         <v>7</v>
       </c>
       <c r="V30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2799,57 +2799,57 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>609</v>
+        <v>475</v>
       </c>
       <c r="H31">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="I31">
-        <v>503</v>
+        <v>379</v>
       </c>
       <c r="J31">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K31">
-        <v>0.15111111111111111</v>
+        <v>0.1134185303514377</v>
       </c>
       <c r="L31">
-        <v>8.5134250163719713E-3</v>
+        <v>4.3000231737775835E-3</v>
       </c>
       <c r="M31">
+        <v>62.26088211939652</v>
+      </c>
+      <c r="N31">
         <v>82.112177867609901</v>
       </c>
-      <c r="N31">
-        <v>104.67046849057967</v>
-      </c>
       <c r="O31">
-        <v>0.78448275862068961</v>
+        <v>0.75824175824175821</v>
       </c>
       <c r="P31">
-        <v>609.07384682018335</v>
+        <v>486.3567458312279</v>
       </c>
       <c r="Q31">
-        <v>711.93965206092548</v>
+        <v>578.39457157294453</v>
       </c>
       <c r="R31">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="S31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U31">
         <v>7</v>
       </c>
       <c r="V31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2867,40 +2867,40 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="H32">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="I32">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="J32">
+        <v>26</v>
+      </c>
+      <c r="K32">
+        <v>0.22739726027397261</v>
+      </c>
+      <c r="L32">
+        <v>1.086658752625331E-2</v>
+      </c>
+      <c r="M32">
+        <v>299.68547860661084</v>
+      </c>
+      <c r="N32">
+        <v>290.7839297371076</v>
+      </c>
+      <c r="O32">
+        <v>1.0306122448979591</v>
+      </c>
+      <c r="P32">
+        <v>1347.1010622514984</v>
+      </c>
+      <c r="Q32">
+        <v>1578.5413328585842</v>
+      </c>
+      <c r="R32">
         <v>22</v>
-      </c>
-      <c r="K32">
-        <v>0.26421404682274247</v>
-      </c>
-      <c r="L32">
-        <v>1.170190925887908E-2</v>
-      </c>
-      <c r="M32">
-        <v>290.7839297371076</v>
-      </c>
-      <c r="N32">
-        <v>213.63717286807903</v>
-      </c>
-      <c r="O32">
-        <v>1.3611111111111112</v>
-      </c>
-      <c r="P32">
-        <v>1314.4620497299863</v>
-      </c>
-      <c r="Q32">
-        <v>1510.2961248590589</v>
-      </c>
-      <c r="R32">
-        <v>20</v>
       </c>
       <c r="S32">
         <v>6</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2935,40 +2935,40 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>1267</v>
+        <v>1046</v>
       </c>
       <c r="H33">
-        <v>673</v>
+        <v>582</v>
       </c>
       <c r="I33">
-        <v>614</v>
+        <v>1023</v>
       </c>
       <c r="J33">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="K33">
-        <v>0.28798842257597684</v>
+        <v>0.27440904419321688</v>
       </c>
       <c r="L33">
-        <v>1.2054391767732452E-2</v>
+        <v>2.2728740233744431E-2</v>
       </c>
       <c r="M33">
+        <v>365.34482877920857</v>
+      </c>
+      <c r="N33">
         <v>440.07445284768306</v>
       </c>
-      <c r="N33">
-        <v>491.27808415385994</v>
-      </c>
       <c r="O33">
-        <v>0.89577464788732408</v>
+        <v>0.83018867924528295</v>
       </c>
       <c r="P33">
-        <v>1781.0560402986418</v>
+        <v>2221.1304931463246</v>
       </c>
       <c r="Q33">
-        <v>2088.2778281357037</v>
+        <v>2457.774302696494</v>
       </c>
       <c r="R33">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="S33">
         <v>5</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3003,57 +3003,57 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>750</v>
+        <v>864</v>
       </c>
       <c r="H34">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="I34">
-        <v>507</v>
+        <v>614</v>
       </c>
       <c r="J34">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.24153166421207659</v>
+        <v>0.2793017456359102</v>
       </c>
       <c r="L34">
-        <v>1.1676662597526671E-2</v>
+        <v>1.1297402317046845E-2</v>
       </c>
       <c r="M34">
+        <v>283.12416628100073</v>
+      </c>
+      <c r="N34">
         <v>239.56660223776984</v>
       </c>
-      <c r="N34">
-        <v>175.59143004927449</v>
-      </c>
       <c r="O34">
-        <v>1.3643410852713178</v>
+        <v>1.1818181818181819</v>
       </c>
       <c r="P34">
-        <v>1105.2731875969837</v>
+        <v>1358.4515285982632</v>
       </c>
       <c r="Q34">
-        <v>1297.1987041624698</v>
+        <v>1607.5463479704899</v>
       </c>
       <c r="R34">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="S34">
         <v>6</v>
       </c>
       <c r="T34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U34">
         <v>7</v>
       </c>
       <c r="V34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -3071,40 +3071,40 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="H35">
-        <v>343</v>
+        <v>290</v>
       </c>
       <c r="I35">
-        <v>303</v>
+        <v>384</v>
       </c>
       <c r="J35">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="K35">
-        <v>0.14792899408284024</v>
+        <v>0.10305958132045089</v>
       </c>
       <c r="L35">
-        <v>9.5126400833984888E-3</v>
+        <v>9.4627105052125099E-3</v>
       </c>
       <c r="M35">
+        <v>168.18481492942965</v>
+      </c>
+      <c r="N35">
         <v>222.00395570684714</v>
       </c>
-      <c r="N35">
-        <v>239.49517645950783</v>
-      </c>
       <c r="O35">
-        <v>0.92696629213483139</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="P35">
-        <v>869.17912355529256</v>
+        <v>906.85252209948464</v>
       </c>
       <c r="Q35">
-        <v>1038.7094170041576</v>
+        <v>1112.7107355731066</v>
       </c>
       <c r="R35">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S35">
         <v>5</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -3139,57 +3139,57 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>1622</v>
+        <v>1470</v>
       </c>
       <c r="H36">
-        <v>981</v>
+        <v>781</v>
       </c>
       <c r="I36">
-        <v>661</v>
+        <v>612</v>
       </c>
       <c r="J36">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="K36">
-        <v>0.30169491525423731</v>
+        <v>0.24498886414253898</v>
       </c>
       <c r="L36">
-        <v>1.1349651305893615E-2</v>
+        <v>7.4754711104189379E-3</v>
       </c>
       <c r="M36">
-        <v>477.48551973260817</v>
+        <v>389</v>
       </c>
       <c r="N36">
-        <v>540.80425169714965</v>
+        <v>394</v>
       </c>
       <c r="O36">
-        <v>0.88291746641074864</v>
+        <v>0.98730964467005078</v>
       </c>
       <c r="P36">
-        <v>1704.4157030455272</v>
+        <v>1525.8776391455085</v>
       </c>
       <c r="Q36">
-        <v>2159.0649587909234</v>
+        <v>1924.4742469222945</v>
       </c>
       <c r="R36">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S36">
         <v>5</v>
       </c>
       <c r="T36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U36">
         <v>7</v>
       </c>
       <c r="V36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -3207,57 +3207,57 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I37">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J37">
         <v>5</v>
       </c>
       <c r="K37">
-        <v>0.13461538461538461</v>
+        <v>0.16901408450704225</v>
       </c>
       <c r="L37">
-        <v>1.225382932166302E-2</v>
+        <v>6.8775790921595595E-3</v>
       </c>
       <c r="M37">
+        <v>76.003884642992858</v>
+      </c>
+      <c r="N37">
         <v>67.559008571549214</v>
       </c>
-      <c r="N37">
-        <v>101.33851285732381</v>
-      </c>
       <c r="O37">
-        <v>0.66666666666666674</v>
+        <v>1.125</v>
       </c>
       <c r="P37">
-        <v>717.81446607271039</v>
+        <v>641.81058142971756</v>
       </c>
       <c r="Q37">
-        <v>844.48760714436514</v>
+        <v>768.48372250137231</v>
       </c>
       <c r="R37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U37">
         <v>7</v>
       </c>
       <c r="V37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -3275,40 +3275,40 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>1235</v>
+        <v>1115</v>
       </c>
       <c r="H38">
-        <v>547</v>
+        <v>497</v>
       </c>
       <c r="I38">
-        <v>552</v>
+        <v>650</v>
       </c>
       <c r="J38">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K38">
-        <v>0.23469387755102042</v>
+        <v>0.26391752577319588</v>
       </c>
       <c r="L38">
-        <v>9.9096323680427194E-3</v>
+        <v>7.7892325315005728E-3</v>
       </c>
       <c r="M38">
+        <v>214.98577300031616</v>
+      </c>
+      <c r="N38">
         <v>233.95510591210873</v>
       </c>
-      <c r="N38">
-        <v>260.15085136172712</v>
-      </c>
       <c r="O38">
-        <v>0.89930555555555547</v>
+        <v>0.91891891891891897</v>
       </c>
       <c r="P38">
-        <v>1115.5774355268506</v>
+        <v>1036.0868976107674</v>
       </c>
       <c r="Q38">
-        <v>1313.4004787498307</v>
+        <v>1212.23070322027</v>
       </c>
       <c r="R38">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S38">
         <v>5</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -3343,43 +3343,43 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>452</v>
+        <v>361</v>
       </c>
       <c r="H39">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="I39">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J39">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K39">
-        <v>0.2530612244897959</v>
+        <v>0.34920634920634919</v>
       </c>
       <c r="L39">
-        <v>6.923540036122818E-3</v>
+        <v>7.8817733990147777E-3</v>
       </c>
       <c r="M39">
+        <v>330.09561390195785</v>
+      </c>
+      <c r="N39">
         <v>383.21444832296254</v>
       </c>
-      <c r="N39">
-        <v>371.8318409470329</v>
-      </c>
       <c r="O39">
-        <v>1.0306122448979593</v>
+        <v>0.86138613861386137</v>
       </c>
       <c r="P39">
-        <v>1714.9795113067232</v>
+        <v>1369.7070875701927</v>
       </c>
       <c r="Q39">
-        <v>1976.7794809531038</v>
+        <v>1608.741842464714</v>
       </c>
       <c r="R39">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T39">
         <v>7</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -3411,57 +3411,57 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="H40">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="I40">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="J40">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K40">
-        <v>0.1791907514450867</v>
+        <v>0.16584564860426929</v>
       </c>
       <c r="L40">
-        <v>1.8850141376060319E-2</v>
+        <v>7.3181029225500771E-3</v>
       </c>
       <c r="M40">
+        <v>153.19923081219528</v>
+      </c>
+      <c r="N40">
         <v>126.07020035586905</v>
       </c>
-      <c r="N40">
-        <v>106.92029650434465</v>
-      </c>
       <c r="O40">
-        <v>1.1791044776119401</v>
+        <v>1.2151898734177213</v>
       </c>
       <c r="P40">
-        <v>892.06635441684557</v>
+        <v>871.32062524436071</v>
       </c>
       <c r="Q40">
-        <v>963.87849386006201</v>
+        <v>933.55781276181506</v>
       </c>
       <c r="R40">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="S40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U40">
         <v>7</v>
       </c>
       <c r="V40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3479,57 +3479,57 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>426</v>
+        <v>301</v>
       </c>
       <c r="H41">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="I41">
-        <v>377</v>
+        <v>229</v>
       </c>
       <c r="J41">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K41">
-        <v>6.3706563706563704E-2</v>
+        <v>5.2971576227390182E-2</v>
       </c>
       <c r="L41">
-        <v>2.5187581196807808E-3</v>
+        <v>1.4064297992641105E-3</v>
       </c>
       <c r="M41">
+        <v>55.087893042832391</v>
+      </c>
+      <c r="N41">
         <v>54.468927952463481</v>
       </c>
-      <c r="N41">
-        <v>115.12750680861599</v>
-      </c>
       <c r="O41">
-        <v>0.4731182795698925</v>
+        <v>1.0113636363636365</v>
       </c>
       <c r="P41">
-        <v>402.94627383015597</v>
+        <v>251.29982668977468</v>
       </c>
       <c r="Q41">
-        <v>469.79450358999753</v>
+        <v>310.72047536518943</v>
       </c>
       <c r="R41">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="S41">
         <v>5</v>
       </c>
       <c r="T41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U41">
         <v>7</v>
       </c>
       <c r="V41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -3547,43 +3547,43 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>1057</v>
+        <v>896</v>
       </c>
       <c r="H42">
-        <v>544</v>
+        <v>426</v>
       </c>
       <c r="I42">
-        <v>555</v>
+        <v>520</v>
       </c>
       <c r="J42">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.25962910128388017</v>
+        <v>0.26415094339622641</v>
       </c>
       <c r="L42">
-        <v>1.6141489033055297E-2</v>
+        <v>6.5291198746408987E-3</v>
       </c>
       <c r="M42">
+        <v>281.35915656198296</v>
+      </c>
+      <c r="N42">
         <v>399.65789284372573</v>
       </c>
-      <c r="N42">
-        <v>469.99768198422146</v>
-      </c>
       <c r="O42">
-        <v>0.85034013605442182</v>
+        <v>0.70400000000000007</v>
       </c>
       <c r="P42">
-        <v>1756.8960969410186</v>
+        <v>1512.3054665206582</v>
       </c>
       <c r="Q42">
-        <v>2279.6486207806115</v>
+        <v>1881.5893595082609</v>
       </c>
       <c r="R42">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="S42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T42">
         <v>7</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -3615,40 +3615,40 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>967</v>
+        <v>823</v>
       </c>
       <c r="H43">
-        <v>422</v>
+        <v>379</v>
       </c>
       <c r="I43">
-        <v>485</v>
+        <v>533</v>
       </c>
       <c r="J43">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K43">
-        <v>0.23726541554959785</v>
+        <v>0.18172790466732869</v>
       </c>
       <c r="L43">
-        <v>6.941728588189284E-3</v>
+        <v>5.2569065634348053E-3</v>
       </c>
       <c r="M43">
+        <v>118.70119312684122</v>
+      </c>
+      <c r="N43">
         <v>153.95185047966072</v>
       </c>
-      <c r="N43">
-        <v>149.63544345686651</v>
-      </c>
       <c r="O43">
-        <v>1.0288461538461537</v>
+        <v>0.7710280373831776</v>
       </c>
       <c r="P43">
-        <v>695.66093184033605</v>
+        <v>656.09386746472239</v>
       </c>
       <c r="Q43">
-        <v>859.68439870651673</v>
+        <v>846.01577646766827</v>
       </c>
       <c r="R43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S43">
         <v>5</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3683,40 +3683,40 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="H44">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="I44">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="J44">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K44">
-        <v>0.21800947867298578</v>
+        <v>0.23735408560311283</v>
       </c>
       <c r="L44">
-        <v>8.8712979391292485E-3</v>
+        <v>4.0223580421041632E-3</v>
       </c>
       <c r="M44">
+        <v>122.81644424462404</v>
+      </c>
+      <c r="N44">
         <v>146.94110293553234</v>
       </c>
-      <c r="N44">
-        <v>182.03151557685348</v>
-      </c>
       <c r="O44">
-        <v>0.80722891566265065</v>
+        <v>0.83582089552238803</v>
       </c>
       <c r="P44">
-        <v>855.32880813220311</v>
+        <v>688.64934808592761</v>
       </c>
       <c r="Q44">
-        <v>1006.6562126479006</v>
+        <v>826.81784786112974</v>
       </c>
       <c r="R44">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S44">
         <v>5</v>
@@ -3733,7 +3733,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3751,40 +3751,40 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="H45">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="I45">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="J45">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K45">
-        <v>0.1466275659824047</v>
+        <v>0.12220916568742655</v>
       </c>
       <c r="L45">
-        <v>2.1160069703759023E-2</v>
+        <v>1.7321398972318911E-2</v>
       </c>
       <c r="M45">
+        <v>158.10883413922789</v>
+      </c>
+      <c r="N45">
         <v>173.45920638575484</v>
       </c>
-      <c r="N45">
-        <v>207.23002532811421</v>
-      </c>
       <c r="O45">
-        <v>0.83703703703703691</v>
+        <v>0.91150442477876126</v>
       </c>
       <c r="P45">
-        <v>1123.6472484457747</v>
+        <v>1089.8764295034155</v>
       </c>
       <c r="Q45">
-        <v>1220.3545935988948</v>
+        <v>1158.953104612787</v>
       </c>
       <c r="R45">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="S45">
         <v>5</v>
@@ -3801,7 +3801,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3819,40 +3819,40 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>712</v>
+        <v>540</v>
       </c>
       <c r="H46">
-        <v>455</v>
+        <v>361</v>
       </c>
       <c r="I46">
-        <v>299</v>
+        <v>241</v>
       </c>
       <c r="J46">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>0.25</v>
+        <v>0.23066298342541436</v>
       </c>
       <c r="L46">
-        <v>9.4575497336667029E-3</v>
+        <v>4.1242659254942396E-3</v>
       </c>
       <c r="M46">
+        <v>272.28215437283546</v>
+      </c>
+      <c r="N46">
         <v>302.53572708092832</v>
       </c>
-      <c r="N46">
-        <v>421.95772461287368</v>
-      </c>
       <c r="O46">
-        <v>0.71698113207547176</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="P46">
-        <v>1200.5891485211575</v>
+        <v>958.56056685641488</v>
       </c>
       <c r="Q46">
-        <v>1496.755702400382</v>
+        <v>1183.0739222164723</v>
       </c>
       <c r="R46">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="S46">
         <v>5</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3887,57 +3887,57 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="H47">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="I47">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="J47">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="K47">
-        <v>0.34782608695652173</v>
+        <v>0.38048780487804879</v>
       </c>
       <c r="L47">
-        <v>8.211353088182792E-3</v>
+        <v>9.8323662153449384E-3</v>
       </c>
       <c r="M47">
+        <v>363.28070420567275</v>
+      </c>
+      <c r="N47">
         <v>307.39136509710772</v>
       </c>
-      <c r="N47">
-        <v>218.89991150854641</v>
-      </c>
       <c r="O47">
-        <v>1.4042553191489362</v>
+        <v>1.1818181818181817</v>
       </c>
       <c r="P47">
-        <v>1243.5377951655721</v>
+        <v>1280.7973545712823</v>
       </c>
       <c r="Q47">
-        <v>1536.9568254855387</v>
+        <v>1699.9673978855201</v>
       </c>
       <c r="R47">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S47">
         <v>6</v>
       </c>
       <c r="T47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U47">
         <v>7</v>
       </c>
       <c r="V47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3955,57 +3955,57 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>1193</v>
+        <v>1223</v>
       </c>
       <c r="H48">
-        <v>568</v>
+        <v>672</v>
       </c>
       <c r="I48">
-        <v>956</v>
+        <v>931</v>
       </c>
       <c r="J48">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="K48">
-        <v>0.26485148514851486</v>
+        <v>0.26798307475317351</v>
       </c>
       <c r="L48">
-        <v>1.440909090909091E-2</v>
+        <v>1.0928586157124201E-2</v>
       </c>
       <c r="M48">
+        <v>346.95248943176995</v>
+      </c>
+      <c r="N48">
         <v>293.57518336534383</v>
       </c>
-      <c r="N48">
-        <v>247.82320673697853</v>
-      </c>
       <c r="O48">
-        <v>1.1846153846153848</v>
+        <v>1.1818181818181817</v>
       </c>
       <c r="P48">
-        <v>1452.6252579505974</v>
+        <v>1527.9253861514487</v>
       </c>
       <c r="Q48">
-        <v>1612.7571761498759</v>
+        <v>1739.5282780576379</v>
       </c>
       <c r="R48">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="S48">
         <v>6</v>
       </c>
       <c r="T48">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U48">
         <v>7</v>
       </c>
       <c r="V48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -4023,57 +4023,57 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>1091</v>
+        <v>921</v>
       </c>
       <c r="H49">
-        <v>573</v>
+        <v>475</v>
       </c>
       <c r="I49">
-        <v>516</v>
+        <v>455</v>
       </c>
       <c r="J49">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K49">
-        <v>0.3365019011406844</v>
+        <v>0.27619047619047621</v>
       </c>
       <c r="L49">
-        <v>1.3742523497579037E-2</v>
+        <v>7.5692130486651032E-3</v>
       </c>
       <c r="M49">
+        <v>312.30731039342714</v>
+      </c>
+      <c r="N49">
         <v>448.44126620594665</v>
       </c>
-      <c r="N49">
-        <v>469.26175356550851</v>
-      </c>
       <c r="O49">
-        <v>0.95563139931740604</v>
+        <v>0.69642857142857151</v>
       </c>
       <c r="P49">
-        <v>1747.3193622524564</v>
+        <v>1489.4656341840371</v>
       </c>
       <c r="Q49">
-        <v>2102.8692233157426</v>
+        <v>1840.2107673951166</v>
       </c>
       <c r="R49">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="S49">
         <v>5</v>
       </c>
       <c r="T49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U49">
         <v>7</v>
       </c>
       <c r="V49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -4091,40 +4091,40 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>1844</v>
+        <v>1718</v>
       </c>
       <c r="H50">
-        <v>1233</v>
+        <v>1138</v>
       </c>
       <c r="I50">
-        <v>687</v>
+        <v>722</v>
       </c>
       <c r="J50">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="K50">
-        <v>0.24973711882229233</v>
+        <v>0.20264650283553876</v>
       </c>
       <c r="L50">
-        <v>8.9216577450089221E-3</v>
+        <v>5.9716200236499799E-3</v>
       </c>
       <c r="M50">
+        <v>298.95876931487192</v>
+      </c>
+      <c r="N50">
         <v>349.06995350479332</v>
       </c>
-      <c r="N50">
-        <v>353.05607042899163</v>
-      </c>
       <c r="O50">
-        <v>0.98870967741935478</v>
+        <v>0.85644371941272424</v>
       </c>
       <c r="P50">
-        <v>1093.334927780103</v>
+        <v>1059.1682112869748</v>
       </c>
       <c r="Q50">
-        <v>1368.3769955497851</v>
+        <v>1317.1269208100928</v>
       </c>
       <c r="R50">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="S50">
         <v>5</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -4159,40 +4159,40 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>1321</v>
+        <v>1100</v>
       </c>
       <c r="H51">
-        <v>683</v>
+        <v>642</v>
       </c>
       <c r="I51">
-        <v>502</v>
+        <v>441</v>
       </c>
       <c r="J51">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="K51">
-        <v>0.26192893401015227</v>
+        <v>0.27334465195246183</v>
       </c>
       <c r="L51">
-        <v>1.1995557201036653E-2</v>
+        <v>7.8736911534339187E-3</v>
       </c>
       <c r="M51">
+        <v>235.11059527763575</v>
+      </c>
+      <c r="N51">
         <v>244.06718938345043</v>
       </c>
-      <c r="N51">
-        <v>265.712291805836</v>
-      </c>
       <c r="O51">
-        <v>0.91853932584269637</v>
+        <v>0.96330275229357809</v>
       </c>
       <c r="P51">
-        <v>985.97173448176761</v>
+        <v>821.02112636634718</v>
       </c>
       <c r="Q51">
-        <v>1283.7784885001063</v>
+        <v>1071.8057613291585</v>
       </c>
       <c r="R51">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="S51">
         <v>5</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -4227,57 +4227,57 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>649</v>
+        <v>582</v>
       </c>
       <c r="H52">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="I52">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="J52">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K52">
-        <v>0.34190231362467866</v>
+        <v>0.29017857142857145</v>
       </c>
       <c r="L52">
-        <v>1.1051143664867643E-2</v>
+        <v>7.1436670824356506E-3</v>
       </c>
       <c r="M52">
+        <v>279.84969363229106</v>
+      </c>
+      <c r="N52">
         <v>453.62732596847178</v>
       </c>
-      <c r="N52">
-        <v>397.20601676841306</v>
-      </c>
       <c r="O52">
-        <v>1.1420454545454546</v>
+        <v>0.61691542288557222</v>
       </c>
       <c r="P52">
-        <v>1579.7966576016429</v>
+        <v>1475.9814486735349</v>
       </c>
       <c r="Q52">
-        <v>1857.3894988659317</v>
+        <v>1692.6392760017602</v>
       </c>
       <c r="R52">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="S52">
         <v>5</v>
       </c>
       <c r="T52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U52">
         <v>7</v>
       </c>
       <c r="V52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4295,40 +4295,40 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>482</v>
+        <v>344</v>
       </c>
       <c r="H53">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="I53">
         <v>321</v>
       </c>
       <c r="J53">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K53">
-        <v>0.2864864864864865</v>
+        <v>0.23902439024390243</v>
       </c>
       <c r="L53">
-        <v>9.2246613731900989E-3</v>
+        <v>9.2171717171717175E-3</v>
       </c>
       <c r="M53">
+        <v>121.10050080102937</v>
+      </c>
+      <c r="N53">
         <v>189.21953250160837</v>
       </c>
-      <c r="N53">
-        <v>206.88002220175849</v>
-      </c>
       <c r="O53">
-        <v>0.91463414634146334</v>
+        <v>0.64</v>
       </c>
       <c r="P53">
-        <v>1216.0508622103364</v>
+        <v>1120.1796324095217</v>
       </c>
       <c r="Q53">
-        <v>1473.3894264125238</v>
+        <v>1301.8303836110654</v>
       </c>
       <c r="R53">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="S53">
         <v>5</v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4363,43 +4363,43 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>993</v>
+        <v>891</v>
       </c>
       <c r="H54">
-        <v>564</v>
+        <v>448</v>
       </c>
       <c r="I54">
-        <v>569</v>
+        <v>506</v>
       </c>
       <c r="J54">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="K54">
-        <v>0.32445923460898501</v>
+        <v>0.19341563786008231</v>
       </c>
       <c r="L54">
-        <v>1.4037389307969826E-2</v>
+        <v>9.5810396268437206E-3</v>
       </c>
       <c r="M54">
-        <v>335.08002709157665</v>
+        <v>197.2456897063891</v>
       </c>
       <c r="N54">
         <v>335.08002709157665</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>0.58865248226950362</v>
       </c>
       <c r="P54">
-        <v>1346.2612435984267</v>
+        <v>1133.5686022885252</v>
       </c>
       <c r="Q54">
-        <v>1627.8710536009221</v>
+        <v>1351.014151784123</v>
       </c>
       <c r="R54">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="S54">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T54">
         <v>6</v>
@@ -4408,12 +4408,12 @@
         <v>7</v>
       </c>
       <c r="V54" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -4431,57 +4431,57 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="H55">
-        <v>259</v>
+        <v>170</v>
       </c>
       <c r="I55">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="J55">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="K55">
-        <v>0.21153846153846154</v>
+        <v>0.24183006535947713</v>
       </c>
       <c r="L55">
-        <v>1.3007975693125713E-2</v>
+        <v>5.8955409781615876E-3</v>
       </c>
       <c r="M55">
+        <v>109.30982100516809</v>
+      </c>
+      <c r="N55">
         <v>163.96473150775216</v>
       </c>
-      <c r="N55">
-        <v>252.37708673252047</v>
-      </c>
       <c r="O55">
-        <v>0.64968152866242046</v>
+        <v>0.66666666666666652</v>
       </c>
       <c r="P55">
-        <v>1078.6307337421736</v>
+        <v>895.37603382174473</v>
       </c>
       <c r="Q55">
-        <v>1377.6252441386628</v>
+        <v>1044.8732890199892</v>
       </c>
       <c r="R55">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="S55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U55">
         <v>7</v>
       </c>
       <c r="V55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4499,43 +4499,43 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>714</v>
+        <v>529</v>
       </c>
       <c r="H56">
-        <v>427</v>
+        <v>366</v>
       </c>
       <c r="I56">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="J56">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="K56">
-        <v>0.28977272727272729</v>
+        <v>0.21585903083700442</v>
       </c>
       <c r="L56">
-        <v>8.2613237109486273E-3</v>
+        <v>6.9081569391550796E-3</v>
       </c>
       <c r="M56">
+        <v>271.59535818842369</v>
+      </c>
+      <c r="N56">
         <v>373.88451906458329</v>
       </c>
-      <c r="N56">
-        <v>379.17533773059148</v>
-      </c>
       <c r="O56">
-        <v>0.98604651162790713</v>
+        <v>0.72641509433962259</v>
       </c>
       <c r="P56">
-        <v>1338.5771225000883</v>
+        <v>1209.8338682938875</v>
       </c>
       <c r="Q56">
-        <v>1661.3170611265916</v>
+        <v>1484.9564389263167</v>
       </c>
       <c r="R56">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="S56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T56">
         <v>7</v>
@@ -4544,12 +4544,12 @@
         <v>7</v>
       </c>
       <c r="V56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -4567,40 +4567,40 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>509</v>
+        <v>430</v>
       </c>
       <c r="H57">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="I57">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="J57">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="K57">
-        <v>0.20302375809935205</v>
+        <v>0.13506139154160982</v>
       </c>
       <c r="L57">
-        <v>1.211212365901488E-2</v>
+        <v>7.5363549517036407E-3</v>
       </c>
       <c r="M57">
+        <v>138.80053206870627</v>
+      </c>
+      <c r="N57">
         <v>181.76260151854393</v>
       </c>
-      <c r="N57">
-        <v>168.54350322628616</v>
-      </c>
       <c r="O57">
-        <v>1.0784313725490198</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="P57">
-        <v>900.55107116005854</v>
+        <v>812.97454497385093</v>
       </c>
       <c r="Q57">
-        <v>1039.3516032287646</v>
+        <v>907.16062030618741</v>
       </c>
       <c r="R57">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S57">
         <v>5</v>
@@ -4612,12 +4612,12 @@
         <v>7</v>
       </c>
       <c r="V57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -4635,40 +4635,40 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="H58">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="I58">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="J58">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K58">
-        <v>0.20882352941176471</v>
+        <v>0.12668463611859837</v>
       </c>
       <c r="L58">
-        <v>4.04498816101026E-3</v>
+        <v>2.5595085743537241E-3</v>
       </c>
       <c r="M58">
+        <v>94.805069169004554</v>
+      </c>
+      <c r="N58">
         <v>170.26216503821223</v>
       </c>
-      <c r="N58">
-        <v>133.50101576859822</v>
-      </c>
       <c r="O58">
-        <v>1.2753623188405798</v>
+        <v>0.55681818181818188</v>
       </c>
       <c r="P58">
-        <v>617.20034826351934</v>
+        <v>468.22095385508362</v>
       </c>
       <c r="Q58">
-        <v>744.89697204217862</v>
+        <v>607.52636161362102</v>
       </c>
       <c r="R58">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S58">
         <v>6</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -4706,37 +4706,37 @@
         <v>563</v>
       </c>
       <c r="H59">
-        <v>421</v>
+        <v>337</v>
       </c>
       <c r="I59">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="J59">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="K59">
-        <v>0.14912280701754385</v>
+        <v>0.12845407020164301</v>
       </c>
       <c r="L59">
-        <v>6.5122565583338454E-3</v>
+        <v>5.3827043653140901E-3</v>
       </c>
       <c r="M59">
+        <v>176.99706118087096</v>
+      </c>
+      <c r="N59">
         <v>198.14765339745301</v>
       </c>
-      <c r="N59">
-        <v>270.50494255944432</v>
-      </c>
       <c r="O59">
-        <v>0.73251028806584351</v>
+        <v>0.89325842696629221</v>
       </c>
       <c r="P59">
         <v>882.75892777629349</v>
       </c>
       <c r="Q59">
-        <v>1029.6998842283374</v>
+        <v>992.96464511532645</v>
       </c>
       <c r="R59">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="S59">
         <v>5</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -4771,57 +4771,57 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>710</v>
+        <v>645</v>
       </c>
       <c r="H60">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="I60">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="J60">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>0.28602150537634408</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="L60">
-        <v>1.1007944864554418E-2</v>
+        <v>8.0636333783340019E-3</v>
       </c>
       <c r="M60">
+        <v>309.36703834827779</v>
+      </c>
+      <c r="N60">
         <v>339.14568375078585</v>
       </c>
-      <c r="N60">
-        <v>413.59229725705592</v>
-      </c>
       <c r="O60">
-        <v>0.82</v>
+        <v>0.91219512195121943</v>
       </c>
       <c r="P60">
-        <v>1490.5866393144292</v>
+        <v>1371.4720577043972</v>
       </c>
       <c r="Q60">
-        <v>1788.3730933395098</v>
+        <v>1599.775005790292</v>
       </c>
       <c r="R60">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S60">
         <v>5</v>
       </c>
       <c r="T60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U60">
         <v>7</v>
       </c>
       <c r="V60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -4839,37 +4839,37 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>514</v>
+        <v>472</v>
       </c>
       <c r="H61">
-        <v>379</v>
+        <v>323</v>
       </c>
       <c r="I61">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="J61">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K61">
-        <v>0.1394422310756972</v>
+        <v>0.13257575757575757</v>
       </c>
       <c r="L61">
-        <v>8.6783159376099452E-3</v>
+        <v>9.1072568014385989E-3</v>
       </c>
       <c r="M61">
+        <v>295.08857964737979</v>
+      </c>
+      <c r="N61">
         <v>390.62085363394158</v>
       </c>
-      <c r="N61">
-        <v>413.97318727510111</v>
-      </c>
       <c r="O61">
-        <v>0.94358974358974368</v>
+        <v>0.75543478260869568</v>
       </c>
       <c r="P61">
-        <v>1350.1894723434066</v>
+        <v>1339.5747752337888</v>
       </c>
       <c r="Q61">
-        <v>1604.9422029742384</v>
+        <v>1568.8522328015372</v>
       </c>
       <c r="R61">
         <v>24</v>
@@ -4878,18 +4878,18 @@
         <v>5</v>
       </c>
       <c r="T61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U61">
         <v>7</v>
       </c>
       <c r="V61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -4907,43 +4907,43 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>278</v>
+        <v>213</v>
       </c>
       <c r="H62">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="I62">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J62">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K62">
-        <v>0.19230769230769232</v>
+        <v>0.11147540983606558</v>
       </c>
       <c r="L62">
-        <v>7.5049561030869445E-3</v>
+        <v>4.8451999671511869E-3</v>
       </c>
       <c r="M62">
+        <v>88.299002497206175</v>
+      </c>
+      <c r="N62">
         <v>126.92981608973385</v>
       </c>
-      <c r="N62">
-        <v>195.91341179067615</v>
-      </c>
       <c r="O62">
-        <v>0.647887323943662</v>
+        <v>0.69565217391304368</v>
       </c>
       <c r="P62">
-        <v>767.0975841944786</v>
+        <v>590.49957920006625</v>
       </c>
       <c r="Q62">
-        <v>899.54608794028775</v>
+        <v>689.83595700942317</v>
       </c>
       <c r="R62">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="S62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T62">
         <v>6</v>
@@ -4952,12 +4952,12 @@
         <v>7</v>
       </c>
       <c r="V62" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4975,40 +4975,40 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>199</v>
+        <v>144</v>
       </c>
       <c r="H63">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="I63">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="J63">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K63">
-        <v>0.26174496644295303</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="L63">
-        <v>1.0462776659959759E-2</v>
+        <v>3.881156316916488E-3</v>
       </c>
       <c r="M63">
+        <v>157.76326745256148</v>
+      </c>
+      <c r="N63">
         <v>214.73333625487533</v>
       </c>
-      <c r="N63">
-        <v>254.17415311801568</v>
-      </c>
       <c r="O63">
-        <v>0.84482758620689657</v>
+        <v>0.73469387755102045</v>
       </c>
       <c r="P63">
-        <v>872.08028397388148</v>
+        <v>652.96463473421272</v>
       </c>
       <c r="Q63">
-        <v>1082.4313072439634</v>
+        <v>810.72790218677426</v>
       </c>
       <c r="R63">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S63">
         <v>5</v>
@@ -5025,7 +5025,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -5043,43 +5043,43 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>1122</v>
+        <v>1033</v>
       </c>
       <c r="H64">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="I64">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="J64">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K64">
-        <v>0.22765196662693682</v>
+        <v>0.23391304347826086</v>
       </c>
       <c r="L64">
-        <v>1.2005693421622625E-2</v>
+        <v>8.1561547293819529E-3</v>
       </c>
       <c r="M64">
+        <v>247.58181727058584</v>
+      </c>
+      <c r="N64">
         <v>265.62421690973787</v>
       </c>
-      <c r="N64">
-        <v>216.50879566982411</v>
-      </c>
       <c r="O64">
-        <v>1.2268518518518516</v>
+        <v>0.93207547169811311</v>
       </c>
       <c r="P64">
-        <v>1124.642910840475</v>
+        <v>1071.5180674585276</v>
       </c>
       <c r="Q64">
-        <v>1274.9962411667418</v>
+        <v>1242.9208640304716</v>
       </c>
       <c r="R64">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="S64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T64">
         <v>6</v>
@@ -5088,12 +5088,12 @@
         <v>7</v>
       </c>
       <c r="V64" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -5111,43 +5111,43 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="H65">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="I65">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="J65">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K65">
-        <v>0.16030534351145037</v>
+        <v>0.19130434782608696</v>
       </c>
       <c r="L65">
-        <v>7.5478027507547805E-3</v>
+        <v>5.6713268266948037E-3</v>
       </c>
       <c r="M65">
+        <v>203.87926640533053</v>
+      </c>
+      <c r="N65">
         <v>205.7327142817426</v>
       </c>
-      <c r="N65">
-        <v>133.44824710167089</v>
-      </c>
       <c r="O65">
-        <v>1.5416666666666665</v>
+        <v>0.99099099099099108</v>
       </c>
       <c r="P65">
-        <v>759.91362932895913</v>
+        <v>787.71534747514056</v>
       </c>
       <c r="Q65">
-        <v>960.08599998146542</v>
+        <v>999.00840538611953</v>
       </c>
       <c r="R65">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T65">
         <v>6</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -5179,43 +5179,43 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="H66">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="I66">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="J66">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K66">
-        <v>0.24293785310734464</v>
+        <v>8.6757990867579904E-2</v>
       </c>
       <c r="L66">
-        <v>4.641350210970464E-3</v>
+        <v>1.8932222642938281E-3</v>
       </c>
       <c r="M66">
+        <v>102.27936879018118</v>
+      </c>
+      <c r="N66">
         <v>287.35632183908046</v>
       </c>
-      <c r="N66">
-        <v>258.13364504188587</v>
-      </c>
       <c r="O66">
-        <v>1.1132075471698113</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="P66">
-        <v>974.08922657315406</v>
+        <v>555.23085914669787</v>
       </c>
       <c r="Q66">
-        <v>1295.5386713422949</v>
+        <v>745.1782583284629</v>
       </c>
       <c r="R66">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T66">
         <v>6</v>
@@ -5224,12 +5224,12 @@
         <v>7</v>
       </c>
       <c r="V66" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -5247,43 +5247,43 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>379</v>
+        <v>306</v>
       </c>
       <c r="H67">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I67">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="J67">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K67">
-        <v>0.26706231454005935</v>
+        <v>0.22170900692840648</v>
       </c>
       <c r="L67">
-        <v>1.170597348941298E-2</v>
+        <v>4.7709923664122139E-3</v>
       </c>
       <c r="M67">
+        <v>285.59145068173444</v>
+      </c>
+      <c r="N67">
         <v>359.29247021250461</v>
       </c>
-      <c r="N67">
-        <v>328.58371207468366</v>
-      </c>
       <c r="O67">
-        <v>1.0934579439252339</v>
+        <v>0.79487179487179493</v>
       </c>
       <c r="P67">
-        <v>1203.7833190025794</v>
+        <v>961.18412971379439</v>
       </c>
       <c r="Q67">
-        <v>1517.0126520083527</v>
+        <v>1209.9250706301436</v>
       </c>
       <c r="R67">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="S67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T67">
         <v>6</v>
@@ -5292,12 +5292,12 @@
         <v>7</v>
       </c>
       <c r="V67" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -5315,57 +5315,57 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>414</v>
+        <v>311</v>
       </c>
       <c r="H68">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="I68">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="J68">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="K68">
-        <v>0.27466666666666667</v>
+        <v>0.16414686825053995</v>
       </c>
       <c r="L68">
-        <v>5.962705984388552E-3</v>
+        <v>3.0327214684756584E-3</v>
       </c>
       <c r="M68">
+        <v>101.23838788561488</v>
+      </c>
+      <c r="N68">
         <v>166.82945609319634</v>
       </c>
-      <c r="N68">
-        <v>182.51427675153104</v>
-      </c>
       <c r="O68">
-        <v>0.9140625</v>
+        <v>0.6068376068376069</v>
       </c>
       <c r="P68">
-        <v>645.92943256596539</v>
+        <v>499.06247549246774</v>
       </c>
       <c r="Q68">
-        <v>876.92406407962187</v>
+        <v>665.891931585664</v>
       </c>
       <c r="R68">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="S68">
         <v>4</v>
       </c>
       <c r="T68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U68">
         <v>7</v>
       </c>
       <c r="V68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -5383,57 +5383,57 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>1292</v>
+        <v>956</v>
       </c>
       <c r="H69">
-        <v>733</v>
+        <v>530</v>
       </c>
       <c r="I69">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="J69">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K69">
-        <v>0.29365962180200222</v>
+        <v>0.28013029315960913</v>
       </c>
       <c r="L69">
-        <v>1.1776015380918048E-2</v>
+        <v>5.8984689766317482E-3</v>
       </c>
       <c r="M69">
-        <v>273.36668153730801</v>
+        <v>229.70394768065455</v>
       </c>
       <c r="N69">
-        <v>422.38949056979868</v>
+        <v>273.3666815373079</v>
       </c>
       <c r="O69">
-        <v>0.64719101123595535</v>
+        <v>0.84027777777777779</v>
       </c>
       <c r="P69">
-        <v>1226.3533074520897</v>
+        <v>907.42551232523044</v>
       </c>
       <c r="Q69">
-        <v>1457.0064449991933</v>
+        <v>1135.2310802729869</v>
       </c>
       <c r="R69">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="S69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U69">
         <v>7</v>
       </c>
       <c r="V69" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -5451,43 +5451,43 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>1684</v>
+        <v>1341</v>
       </c>
       <c r="H70">
-        <v>1056</v>
+        <v>846</v>
       </c>
       <c r="I70">
-        <v>803</v>
+        <v>714</v>
       </c>
       <c r="J70">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K70">
-        <v>0.23405698778833106</v>
+        <v>0.22422680412371135</v>
       </c>
       <c r="L70">
-        <v>1.0964355262043857E-2</v>
+        <v>6.8252644515647632E-3</v>
       </c>
       <c r="M70">
+        <v>298.62996952577214</v>
+      </c>
+      <c r="N70">
         <v>440.08627088008524</v>
       </c>
-      <c r="N70">
-        <v>481.99924905914099</v>
-      </c>
       <c r="O70">
-        <v>0.91304347826086951</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="P70">
-        <v>1623.2547173930127</v>
+        <v>1362.1717908193114</v>
       </c>
       <c r="Q70">
-        <v>1971.6563485064135</v>
+        <v>1645.0843935279374</v>
       </c>
       <c r="R70">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T70">
         <v>7</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -5519,43 +5519,43 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>1090</v>
+        <v>768</v>
       </c>
       <c r="H71">
-        <v>720</v>
+        <v>495</v>
       </c>
       <c r="I71">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="J71">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="K71">
-        <v>0.21794871794871795</v>
+        <v>0.16501901140684411</v>
       </c>
       <c r="L71">
-        <v>6.5780581211984683E-3</v>
+        <v>3.0410728025501046E-3</v>
       </c>
       <c r="M71">
+        <v>153.26017613595613</v>
+      </c>
+      <c r="N71">
         <v>220.45306123989747</v>
       </c>
-      <c r="N71">
-        <v>323.12982948861685</v>
-      </c>
       <c r="O71">
-        <v>0.68224299065420557</v>
+        <v>0.69520547945205491</v>
       </c>
       <c r="P71">
-        <v>902.19660336190907</v>
+        <v>708.92268665843744</v>
       </c>
       <c r="Q71">
-        <v>1149.0738329011094</v>
+        <v>883.32219743383575</v>
       </c>
       <c r="R71">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="S71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T71">
         <v>6</v>
@@ -5564,12 +5564,12 @@
         <v>7</v>
       </c>
       <c r="V71" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -5587,43 +5587,43 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>233</v>
+        <v>195</v>
       </c>
       <c r="H72">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="I72">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="J72">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K72">
-        <v>0.27672955974842767</v>
+        <v>0.27488151658767773</v>
       </c>
       <c r="L72">
-        <v>9.5602294455066923E-3</v>
+        <v>5.0066755674232312E-3</v>
       </c>
       <c r="M72">
-        <v>402.92117854444723</v>
+        <v>55</v>
       </c>
       <c r="N72">
-        <v>446.99068244774611</v>
+        <v>61</v>
       </c>
       <c r="O72">
-        <v>0.90140845070422537</v>
+        <v>0.90163934426229508</v>
       </c>
       <c r="P72">
-        <v>1466.8849156383783</v>
+        <v>1227.6504658776125</v>
       </c>
       <c r="Q72">
-        <v>1731.3019390581719</v>
+        <v>1359.8589775875093</v>
       </c>
       <c r="R72">
         <v>11</v>
       </c>
       <c r="S72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T72">
         <v>7</v>
@@ -5632,12 +5632,12 @@
         <v>7</v>
       </c>
       <c r="V72" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -5655,57 +5655,57 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="H73">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="I73">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="J73">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K73">
-        <v>0.13235294117647059</v>
+        <v>0.12566844919786097</v>
       </c>
       <c r="L73">
-        <v>8.3114004709793597E-3</v>
+        <v>5.0534499514091353E-3</v>
       </c>
       <c r="M73">
+        <v>127.14206744057491</v>
+      </c>
+      <c r="N73">
         <v>102.26644555002764</v>
       </c>
-      <c r="N73">
-        <v>85.68269762299613</v>
-      </c>
       <c r="O73">
-        <v>1.1935483870967742</v>
+        <v>1.2432432432432432</v>
       </c>
       <c r="P73">
-        <v>588.72305140961862</v>
+        <v>710.33720287451627</v>
       </c>
       <c r="Q73">
-        <v>663.3499170812604</v>
+        <v>834.71531232725272</v>
       </c>
       <c r="R73">
         <v>15</v>
       </c>
       <c r="S73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U73">
         <v>7</v>
       </c>
       <c r="V73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -5723,40 +5723,40 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="H74">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="I74">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="J74">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K74">
-        <v>0.27184466019417475</v>
+        <v>0.21333333333333335</v>
       </c>
       <c r="L74">
-        <v>1.6350123864574732E-2</v>
+        <v>9.6870342771982112E-3</v>
       </c>
       <c r="M74">
+        <v>209.32532836473212</v>
+      </c>
+      <c r="N74">
         <v>259.9314517056564</v>
       </c>
-      <c r="N74">
-        <v>276.033400041405</v>
-      </c>
       <c r="O74">
-        <v>0.94166666666666676</v>
+        <v>0.80530973451327426</v>
       </c>
       <c r="P74">
-        <v>1173.1419501759713</v>
+        <v>1221.4477951832171</v>
       </c>
       <c r="Q74">
-        <v>1393.9686702090953</v>
+        <v>1421.5720102132357</v>
       </c>
       <c r="R74">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="S74">
         <v>5</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -5791,43 +5791,43 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>1171</v>
+        <v>955</v>
       </c>
       <c r="H75">
-        <v>686</v>
+        <v>533</v>
       </c>
       <c r="I75">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="J75">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="K75">
-        <v>0.28645833333333331</v>
+        <v>0.24210526315789474</v>
       </c>
       <c r="L75">
-        <v>9.6601982882806546E-3</v>
+        <v>1.0470275066548358E-2</v>
       </c>
       <c r="M75">
+        <v>267.43761336692813</v>
+      </c>
+      <c r="N75">
         <v>392.48946035794546</v>
       </c>
-      <c r="N75">
-        <v>456.87258950183553</v>
-      </c>
       <c r="O75">
-        <v>0.85907859078590787</v>
+        <v>0.68138801261829651</v>
       </c>
       <c r="P75">
-        <v>1449.8585428364484</v>
+        <v>1182.4209294695202</v>
       </c>
       <c r="Q75">
-        <v>1791.5843821386341</v>
+        <v>1427.572075055871</v>
       </c>
       <c r="R75">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="S75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T75">
         <v>6</v>
@@ -5836,12 +5836,12 @@
         <v>7</v>
       </c>
       <c r="V75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -5859,40 +5859,40 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="H76">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="I76">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="J76">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K76">
-        <v>0.19230769230769232</v>
+        <v>0.12182741116751269</v>
       </c>
       <c r="L76">
-        <v>1.917739086550593E-2</v>
+        <v>5.9574468085106386E-3</v>
       </c>
       <c r="M76">
+        <v>99.416881751266601</v>
+      </c>
+      <c r="N76">
         <v>145.30159640569735</v>
       </c>
-      <c r="N76">
-        <v>225.59984705095115</v>
-      </c>
       <c r="O76">
-        <v>0.64406779661016944</v>
+        <v>0.68421052631578938</v>
       </c>
       <c r="P76">
-        <v>1284.7720103240608</v>
+        <v>810.62995889494323</v>
       </c>
       <c r="Q76">
-        <v>1548.6091195870376</v>
+        <v>1017.1111748398815</v>
       </c>
       <c r="R76">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="S76">
         <v>5</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5927,57 +5927,57 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>598</v>
+        <v>446</v>
       </c>
       <c r="H77">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="I77">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="J77">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K77">
-        <v>0.26190476190476192</v>
+        <v>0.17970401691331925</v>
       </c>
       <c r="L77">
-        <v>1.1491031390134529E-2</v>
+        <v>6.1855670103092781E-3</v>
       </c>
       <c r="M77">
+        <v>162.18004118519468</v>
+      </c>
+      <c r="N77">
         <v>279.54717625342766</v>
       </c>
-      <c r="N77">
-        <v>236.86821804679747</v>
-      </c>
       <c r="O77">
-        <v>1.1801801801801803</v>
+        <v>0.58015267175572516</v>
       </c>
       <c r="P77">
-        <v>1280.3687461989052</v>
+        <v>1137.3942362066941</v>
       </c>
       <c r="Q77">
-        <v>1574.8535578246535</v>
+        <v>1361.4587667915027</v>
       </c>
       <c r="R77">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="S77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U77">
         <v>7</v>
       </c>
       <c r="V77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -5995,43 +5995,43 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>1680</v>
+        <v>1623</v>
       </c>
       <c r="H78">
-        <v>1311</v>
+        <v>1327</v>
       </c>
       <c r="I78">
-        <v>886</v>
+        <v>1012</v>
       </c>
       <c r="J78">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="K78">
-        <v>0.21146245059288538</v>
+        <v>0.18123275068997241</v>
       </c>
       <c r="L78">
-        <v>1.0064450582595167E-2</v>
+        <v>8.1556902540352791E-3</v>
       </c>
       <c r="M78">
+        <v>385.97090665198709</v>
+      </c>
+      <c r="N78">
         <v>453.67400011389299</v>
       </c>
-      <c r="N78">
-        <v>375.84707959226284</v>
-      </c>
       <c r="O78">
-        <v>1.207070707070707</v>
+        <v>0.85076708507670862</v>
       </c>
       <c r="P78">
-        <v>1390.1280031383865</v>
+        <v>1479.9769682934391</v>
       </c>
       <c r="Q78">
-        <v>1661.573116177243</v>
+        <v>1772.3024746429769</v>
       </c>
       <c r="R78">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="S78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T78">
         <v>7</v>
@@ -6040,12 +6040,12 @@
         <v>7</v>
       </c>
       <c r="V78" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -6063,57 +6063,57 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="H79">
         <v>47</v>
       </c>
       <c r="I79">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>5.7142857142857141E-2</v>
+        <v>0.12429378531073447</v>
       </c>
       <c r="L79">
-        <v>5.7400574005740061E-3</v>
+        <v>9.7847358121330719E-4</v>
       </c>
       <c r="M79">
+        <v>73.941709285846329</v>
+      </c>
+      <c r="N79">
         <v>41.90030192864625</v>
       </c>
-      <c r="N79">
-        <v>73.941709285846329</v>
-      </c>
       <c r="O79">
-        <v>0.56666666666666665</v>
+        <v>1.7647058823529413</v>
       </c>
       <c r="P79">
-        <v>357.38492821492389</v>
+        <v>330.27296814344692</v>
       </c>
       <c r="Q79">
-        <v>394.35578285784709</v>
+        <v>345.06131000061617</v>
       </c>
       <c r="R79">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="S79">
         <v>5</v>
       </c>
       <c r="T79">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U79">
         <v>7</v>
       </c>
       <c r="V79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -6131,43 +6131,43 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>633</v>
+        <v>484</v>
       </c>
       <c r="H80">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="I80">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="J80">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="K80">
-        <v>0.19093406593406592</v>
+        <v>0.15466666666666667</v>
       </c>
       <c r="L80">
-        <v>7.61551260719314E-3</v>
+        <v>5.2012305350290187E-3</v>
       </c>
       <c r="M80">
+        <v>136.71037035421077</v>
+      </c>
+      <c r="N80">
         <v>207.97428681544827</v>
       </c>
-      <c r="N80">
-        <v>200.7024586051179</v>
-      </c>
       <c r="O80">
-        <v>1.0362318840579712</v>
+        <v>0.6573426573426574</v>
       </c>
       <c r="P80">
-        <v>983.15117403666454</v>
+        <v>837.7146098300575</v>
       </c>
       <c r="Q80">
-        <v>1201.3060203465755</v>
+        <v>1029.6908745827789</v>
       </c>
       <c r="R80">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="S80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T80">
         <v>6</v>
@@ -6191,15 +6191,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -6410,6 +6401,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
   <ds:schemaRefs>
@@ -6420,14 +6420,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A17AE3-A467-46C2-B8E3-63736AD8DD9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6444,4 +6436,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2069CB02-193B-420D-8132-0C42FEB9157C}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8434B60F-9789-49A9-8EBA-6AC44652F17C}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
@@ -733,9 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V80"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -809,7 +807,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -827,40 +825,40 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>274</v>
+        <v>199</v>
       </c>
       <c r="H2">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="I2">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2">
-        <v>0.16101694915254236</v>
+        <v>0.17733990147783252</v>
       </c>
       <c r="L2">
-        <v>5.0779198038872347E-3</v>
+        <v>3.4829047425552909E-3</v>
       </c>
       <c r="M2">
+        <v>154.3486349792594</v>
+      </c>
+      <c r="N2">
         <v>146.07995810537051</v>
       </c>
-      <c r="N2">
-        <v>237.03540371814839</v>
-      </c>
       <c r="O2">
-        <v>0.61627906976744184</v>
+        <v>1.0566037735849056</v>
       </c>
       <c r="P2">
-        <v>906.79823050314906</v>
+        <v>686.30018053277843</v>
       </c>
       <c r="Q2">
-        <v>1105.2464754764826</v>
+        <v>868.21107175833413</v>
       </c>
       <c r="R2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S2">
         <v>6</v>
@@ -877,7 +875,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -895,40 +893,40 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>1039</v>
+        <v>887</v>
       </c>
       <c r="H3">
-        <v>533</v>
+        <v>439</v>
       </c>
       <c r="I3">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="J3">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="K3">
-        <v>0.227330779054917</v>
+        <v>0.1343101343101343</v>
       </c>
       <c r="L3">
-        <v>4.9167581412367361E-3</v>
+        <v>4.9426510582949038E-3</v>
       </c>
       <c r="M3">
+        <v>164</v>
+      </c>
+      <c r="N3">
         <v>269</v>
       </c>
-      <c r="N3">
-        <v>240</v>
-      </c>
       <c r="O3">
-        <v>1.1208333333333333</v>
+        <v>0.60966542750929364</v>
       </c>
       <c r="P3">
-        <v>937.4844918049057</v>
+        <v>800.33565373527574</v>
       </c>
       <c r="Q3">
-        <v>1294.7933067757842</v>
+        <v>1035.8346454206273</v>
       </c>
       <c r="R3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S3">
         <v>6</v>
@@ -945,7 +943,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -963,43 +961,43 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="J4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>0.15094339622641509</v>
+        <v>0.12222222222222222</v>
       </c>
       <c r="L4">
-        <v>5.4588877516206077E-3</v>
+        <v>5.4589567327133033E-3</v>
       </c>
       <c r="M4">
-        <v>74.599030212607246</v>
+        <v>55.949272659455424</v>
       </c>
       <c r="N4">
-        <v>80.815616063657828</v>
+        <v>68.382444361556637</v>
       </c>
       <c r="O4">
-        <v>0.92307692307692335</v>
+        <v>0.81818181818181812</v>
       </c>
       <c r="P4">
-        <v>783.28981723237587</v>
+        <v>491.11028223299763</v>
       </c>
       <c r="Q4">
-        <v>932.48787765759039</v>
+        <v>584.35906999875669</v>
       </c>
       <c r="R4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T4">
         <v>6</v>
@@ -1008,12 +1006,12 @@
         <v>7</v>
       </c>
       <c r="V4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1031,43 +1029,43 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>802</v>
+        <v>571</v>
       </c>
       <c r="H5">
-        <v>414</v>
+        <v>319</v>
       </c>
       <c r="I5">
-        <v>432</v>
+        <v>327</v>
       </c>
       <c r="J5">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K5">
-        <v>0.21086956521739131</v>
+        <v>0.1472457627118644</v>
       </c>
       <c r="L5">
-        <v>7.3462227257775669E-3</v>
+        <v>5.0856011491129316E-3</v>
       </c>
       <c r="M5">
+        <v>165.87159738205759</v>
+      </c>
+      <c r="N5">
         <v>244.30700389605377</v>
       </c>
-      <c r="N5">
-        <v>288.02509933008446</v>
-      </c>
       <c r="O5">
-        <v>0.8482142857142857</v>
+        <v>0.67894736842105274</v>
       </c>
       <c r="P5">
-        <v>1087.809080505587</v>
+        <v>830.64381324658291</v>
       </c>
       <c r="Q5">
-        <v>1323.1153000475756</v>
+        <v>1054.3775957619164</v>
       </c>
       <c r="R5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -1076,12 +1074,12 @@
         <v>7</v>
       </c>
       <c r="V5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1099,43 +1097,43 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>2232</v>
+        <v>2044</v>
       </c>
       <c r="H6">
-        <v>1430</v>
+        <v>1043</v>
       </c>
       <c r="I6">
-        <v>2024</v>
+        <v>1508</v>
       </c>
       <c r="J6">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="K6">
-        <v>7.8549477566072529E-2</v>
+        <v>5.2285146547441631E-2</v>
       </c>
       <c r="L6">
-        <v>4.2997391557324099E-3</v>
+        <v>3.2691361393012526E-3</v>
       </c>
       <c r="M6">
-        <v>148.54550158941376</v>
+        <v>94.486952021882161</v>
       </c>
       <c r="N6">
-        <v>181.81230132327937</v>
+        <v>146.46632660604715</v>
       </c>
       <c r="O6">
-        <v>0.81702668360864039</v>
+        <v>0.64511041009463732</v>
       </c>
       <c r="P6">
-        <v>797.94115472758187</v>
+        <v>589.33059806313304</v>
       </c>
       <c r="Q6">
-        <v>940.71117025208844</v>
+        <v>698.14075552598501</v>
       </c>
       <c r="R6">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6">
         <v>6</v>
@@ -1144,12 +1142,12 @@
         <v>7</v>
       </c>
       <c r="V6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1167,43 +1165,43 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>2232</v>
+        <v>2044</v>
       </c>
       <c r="H7">
-        <v>1430</v>
+        <v>1043</v>
       </c>
       <c r="I7">
-        <v>2024</v>
+        <v>1508</v>
       </c>
       <c r="J7">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="K7">
-        <v>7.8549477566072529E-2</v>
+        <v>5.2285146547441631E-2</v>
       </c>
       <c r="L7">
-        <v>4.2997391557324099E-3</v>
+        <v>3.2691361393012526E-3</v>
       </c>
       <c r="M7">
-        <v>148.54550158941376</v>
+        <v>94.486952021882161</v>
       </c>
       <c r="N7">
-        <v>181.81230132327937</v>
+        <v>146.46632660604715</v>
       </c>
       <c r="O7">
-        <v>0.81702668360864039</v>
+        <v>0.64511041009463732</v>
       </c>
       <c r="P7">
-        <v>797.94115472758187</v>
+        <v>589.33059806313304</v>
       </c>
       <c r="Q7">
-        <v>940.71117025208844</v>
+        <v>698.14075552598501</v>
       </c>
       <c r="R7">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7">
         <v>6</v>
@@ -1212,12 +1210,12 @@
         <v>7</v>
       </c>
       <c r="V7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1235,43 +1233,43 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>2232</v>
+        <v>2044</v>
       </c>
       <c r="H8">
-        <v>1430</v>
+        <v>1043</v>
       </c>
       <c r="I8">
-        <v>2024</v>
+        <v>1508</v>
       </c>
       <c r="J8">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="K8">
-        <v>7.8549477566072529E-2</v>
+        <v>5.2285146547441631E-2</v>
       </c>
       <c r="L8">
-        <v>4.2997391557324099E-3</v>
+        <v>3.2691361393012526E-3</v>
       </c>
       <c r="M8">
-        <v>148.54550158941376</v>
+        <v>94.486952021882161</v>
       </c>
       <c r="N8">
-        <v>181.81230132327937</v>
+        <v>146.46632660604715</v>
       </c>
       <c r="O8">
-        <v>0.81702668360864039</v>
+        <v>0.64511041009463732</v>
       </c>
       <c r="P8">
-        <v>797.94115472758187</v>
+        <v>589.33059806313304</v>
       </c>
       <c r="Q8">
-        <v>940.71117025208844</v>
+        <v>698.14075552598501</v>
       </c>
       <c r="R8">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8">
         <v>6</v>
@@ -1280,12 +1278,12 @@
         <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1303,43 +1301,43 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>2232</v>
+        <v>2044</v>
       </c>
       <c r="H9">
-        <v>1430</v>
+        <v>1043</v>
       </c>
       <c r="I9">
-        <v>2024</v>
+        <v>1508</v>
       </c>
       <c r="J9">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="K9">
-        <v>7.8549477566072529E-2</v>
+        <v>5.2285146547441631E-2</v>
       </c>
       <c r="L9">
-        <v>4.2997391557324099E-3</v>
+        <v>3.2691361393012526E-3</v>
       </c>
       <c r="M9">
-        <v>148.54550158941376</v>
+        <v>94.486952021882161</v>
       </c>
       <c r="N9">
-        <v>181.81230132327937</v>
+        <v>146.46632660604715</v>
       </c>
       <c r="O9">
-        <v>0.81702668360864039</v>
+        <v>0.64511041009463732</v>
       </c>
       <c r="P9">
-        <v>797.94115472758187</v>
+        <v>589.33059806313304</v>
       </c>
       <c r="Q9">
-        <v>940.71117025208844</v>
+        <v>698.14075552598501</v>
       </c>
       <c r="R9">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T9">
         <v>6</v>
@@ -1348,12 +1346,12 @@
         <v>7</v>
       </c>
       <c r="V9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1371,43 +1369,43 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>2232</v>
+        <v>2044</v>
       </c>
       <c r="H10">
-        <v>1430</v>
+        <v>1043</v>
       </c>
       <c r="I10">
-        <v>2024</v>
+        <v>1508</v>
       </c>
       <c r="J10">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="K10">
-        <v>7.8549477566072529E-2</v>
+        <v>5.2285146547441631E-2</v>
       </c>
       <c r="L10">
-        <v>4.2997391557324099E-3</v>
+        <v>3.2691361393012526E-3</v>
       </c>
       <c r="M10">
-        <v>148.54550158941376</v>
+        <v>94.486952021882161</v>
       </c>
       <c r="N10">
-        <v>181.81230132327937</v>
+        <v>146.46632660604715</v>
       </c>
       <c r="O10">
-        <v>0.81702668360864039</v>
+        <v>0.64511041009463732</v>
       </c>
       <c r="P10">
-        <v>797.94115472758187</v>
+        <v>589.33059806313304</v>
       </c>
       <c r="Q10">
-        <v>940.71117025208844</v>
+        <v>698.14075552598501</v>
       </c>
       <c r="R10">
-        <v>283</v>
+        <v>226</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10">
         <v>6</v>
@@ -1416,12 +1414,12 @@
         <v>7</v>
       </c>
       <c r="V10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1439,43 +1437,43 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>522</v>
+        <v>383</v>
       </c>
       <c r="H11">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="I11">
-        <v>333</v>
+        <v>251</v>
       </c>
       <c r="J11">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="K11">
-        <v>0.21397379912663755</v>
+        <v>0.12756264236902051</v>
       </c>
       <c r="L11">
-        <v>8.3611182354449854E-3</v>
+        <v>3.8188468158347677E-3</v>
       </c>
       <c r="M11">
+        <v>80</v>
+      </c>
+      <c r="N11">
         <v>135</v>
       </c>
-      <c r="N11">
-        <v>173</v>
-      </c>
       <c r="O11">
-        <v>0.78034682080924855</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="P11">
-        <v>849.47802667230815</v>
+        <v>623.27602340132955</v>
       </c>
       <c r="Q11">
-        <v>1049.6423892790015</v>
+        <v>789.26598263614846</v>
       </c>
       <c r="R11">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T11">
         <v>6</v>
@@ -1484,12 +1482,12 @@
         <v>7</v>
       </c>
       <c r="V11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1507,43 +1505,43 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="H12">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="I12">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="J12">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K12">
-        <v>0.21508379888268156</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="L12">
-        <v>1.3116623895067009E-2</v>
+        <v>1.1759705298951545E-2</v>
       </c>
       <c r="M12">
-        <v>236.11605265711418</v>
+        <v>223.17818675809423</v>
       </c>
       <c r="N12">
-        <v>190.83352201054436</v>
+        <v>249.05391855613419</v>
       </c>
       <c r="O12">
-        <v>1.2372881355932202</v>
+        <v>0.89610389610389596</v>
       </c>
       <c r="P12">
-        <v>1284.0831904777308</v>
+        <v>1225.8627939321409</v>
       </c>
       <c r="Q12">
-        <v>1458.7443801145002</v>
+        <v>1419.9307824174402</v>
       </c>
       <c r="R12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <v>6</v>
@@ -1557,7 +1555,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1575,43 +1573,43 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>1444</v>
+        <v>1243</v>
       </c>
       <c r="H13">
-        <v>582</v>
+        <v>494</v>
       </c>
       <c r="I13">
-        <v>908</v>
+        <v>728</v>
       </c>
       <c r="J13">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.31546391752577319</v>
+        <v>0.27586206896551724</v>
       </c>
       <c r="L13">
-        <v>1.1371924043110666E-2</v>
+        <v>9.0002012824567969E-3</v>
       </c>
       <c r="M13">
-        <v>321.93605683836586</v>
+        <v>227.57548845470694</v>
       </c>
       <c r="N13">
-        <v>324.15630550621671</v>
+        <v>320.82593250444046</v>
       </c>
       <c r="O13">
-        <v>0.99315068493150671</v>
+        <v>0.70934256055363332</v>
       </c>
       <c r="P13">
-        <v>1654.0852575488454</v>
+        <v>1379.8845470692718</v>
       </c>
       <c r="Q13">
-        <v>1807.2824156305505</v>
+        <v>1506.4387211367673</v>
       </c>
       <c r="R13">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="S13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T13">
         <v>7</v>
@@ -1620,12 +1618,12 @@
         <v>7</v>
       </c>
       <c r="V13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1643,40 +1641,40 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>277</v>
+        <v>221</v>
       </c>
       <c r="H14">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I14">
-        <v>263</v>
+        <v>207</v>
       </c>
       <c r="J14">
         <v>18</v>
       </c>
       <c r="K14">
-        <v>0.19634703196347031</v>
+        <v>0.18326693227091634</v>
       </c>
       <c r="L14">
-        <v>9.2178578798926877E-3</v>
+        <v>7.2865275142314986E-3</v>
       </c>
       <c r="M14">
+        <v>112.32098842469814</v>
+      </c>
+      <c r="N14">
         <v>102.9609060559733</v>
       </c>
-      <c r="N14">
-        <v>109.20096096845653</v>
-      </c>
       <c r="O14">
-        <v>0.94285714285714284</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="P14">
-        <v>1032.7290880159744</v>
+        <v>861.12757792268565</v>
       </c>
       <c r="Q14">
-        <v>1201.2105706530217</v>
+        <v>1029.6090605597331</v>
       </c>
       <c r="R14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S14">
         <v>5</v>
@@ -1693,7 +1691,7 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1711,37 +1709,37 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>507</v>
+        <v>354</v>
       </c>
       <c r="H15">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="I15">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="J15">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K15">
-        <v>0.16944444444444445</v>
+        <v>0.17741935483870969</v>
       </c>
       <c r="L15">
-        <v>6.6274938507789012E-3</v>
+        <v>6.3268892794376098E-3</v>
       </c>
       <c r="M15">
-        <v>185.01387604070305</v>
+        <v>152.06619948550937</v>
       </c>
       <c r="N15">
-        <v>225.56486257017221</v>
+        <v>162.20394611787665</v>
       </c>
       <c r="O15">
-        <v>0.8202247191011236</v>
+        <v>0.9375</v>
       </c>
       <c r="P15">
-        <v>1284.9593856525541</v>
+        <v>897.19057696450511</v>
       </c>
       <c r="Q15">
-        <v>1497.8520649322672</v>
+        <v>1072.0667063728408</v>
       </c>
       <c r="R15">
         <v>26</v>
@@ -1761,7 +1759,7 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1779,43 +1777,43 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>882</v>
+        <v>603</v>
       </c>
       <c r="H16">
-        <v>518</v>
+        <v>336</v>
       </c>
       <c r="I16">
-        <v>537</v>
+        <v>429</v>
       </c>
       <c r="J16">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="K16">
-        <v>0.20626631853785901</v>
+        <v>0.14239482200647249</v>
       </c>
       <c r="L16">
-        <v>3.1897685528125899E-3</v>
+        <v>3.1515483694162785E-3</v>
       </c>
       <c r="M16">
-        <v>182.25207996207848</v>
+        <v>94.803772536327827</v>
       </c>
       <c r="N16">
-        <v>241.09580084669577</v>
+        <v>179.80025825855276</v>
       </c>
       <c r="O16">
-        <v>0.75593220338983047</v>
+        <v>0.52727272727272734</v>
       </c>
       <c r="P16">
-        <v>862.22396573987794</v>
+        <v>625.21453439905849</v>
       </c>
       <c r="Q16">
-        <v>1041.2069500972557</v>
+        <v>757.6129063894474</v>
       </c>
       <c r="R16">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T16">
         <v>6</v>
@@ -1824,12 +1822,12 @@
         <v>7</v>
       </c>
       <c r="V16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1847,43 +1845,43 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>633</v>
+        <v>466</v>
       </c>
       <c r="H17">
-        <v>316</v>
+        <v>249</v>
       </c>
       <c r="I17">
-        <v>335</v>
+        <v>217</v>
       </c>
       <c r="J17">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>0.18274111675126903</v>
+        <v>0.18873668188736681</v>
       </c>
       <c r="L17">
-        <v>3.7374754811005675E-3</v>
+        <v>2.496953122677685E-3</v>
       </c>
       <c r="M17">
+        <v>120.11565117564523</v>
+      </c>
+      <c r="N17">
         <v>144.56396955652878</v>
       </c>
-      <c r="N17">
-        <v>191.33466558952335</v>
-      </c>
       <c r="O17">
-        <v>0.75555555555555565</v>
+        <v>0.83088235294117641</v>
       </c>
       <c r="P17">
-        <v>691.9937072154429</v>
+        <v>495.34418980398823</v>
       </c>
       <c r="Q17">
-        <v>825.92797312810922</v>
+        <v>638.84518899613079</v>
       </c>
       <c r="R17">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="S17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T17">
         <v>6</v>
@@ -1892,12 +1890,12 @@
         <v>7</v>
       </c>
       <c r="V17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1915,57 +1913,57 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="H18">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="I18">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J18">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K18">
-        <v>0.2280130293159609</v>
+        <v>0.20189274447949526</v>
       </c>
       <c r="L18">
-        <v>8.0771235018238657E-3</v>
+        <v>1.0356454720616571E-2</v>
       </c>
       <c r="M18">
+        <v>182.00075310656459</v>
+      </c>
+      <c r="N18">
         <v>194.55252918287937</v>
       </c>
-      <c r="N18">
-        <v>307.51851386971259</v>
-      </c>
       <c r="O18">
-        <v>0.63265306122448972</v>
+        <v>0.93548387096774199</v>
       </c>
       <c r="P18">
-        <v>1157.9013430400403</v>
+        <v>1032.3835822768922</v>
       </c>
       <c r="Q18">
-        <v>1393.2471444709427</v>
+        <v>1135.9357349064892</v>
       </c>
       <c r="R18">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="S18">
         <v>5</v>
       </c>
       <c r="T18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U18">
         <v>7</v>
       </c>
       <c r="V18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1983,43 +1981,43 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="H19">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="I19">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="J19">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K19">
-        <v>0.21100917431192662</v>
+        <v>0.20364741641337386</v>
       </c>
       <c r="L19">
-        <v>3.7448996702252528E-3</v>
+        <v>3.3753661953891223E-3</v>
       </c>
       <c r="M19">
-        <v>182.1716189947237</v>
+        <v>124.40988614273813</v>
       </c>
       <c r="N19">
-        <v>244.37656206609276</v>
+        <v>179.95001388503195</v>
       </c>
       <c r="O19">
-        <v>0.74545454545454548</v>
+        <v>0.69135802469135799</v>
       </c>
       <c r="P19">
-        <v>797.556234379339</v>
+        <v>593.1685642876979</v>
       </c>
       <c r="Q19">
-        <v>1017.4951402388225</v>
+        <v>759.78894751457926</v>
       </c>
       <c r="R19">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T19">
         <v>6</v>
@@ -2028,12 +2026,12 @@
         <v>7</v>
       </c>
       <c r="V19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -2051,40 +2049,40 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>659</v>
+        <v>494</v>
       </c>
       <c r="H20">
-        <v>280</v>
+        <v>219</v>
       </c>
       <c r="I20">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="J20">
+        <v>43</v>
+      </c>
+      <c r="K20">
+        <v>0.24835164835164836</v>
+      </c>
+      <c r="L20">
+        <v>6.6648153290752568E-3</v>
+      </c>
+      <c r="M20">
+        <v>161.32805252841391</v>
+      </c>
+      <c r="N20">
+        <v>191.98038250881254</v>
+      </c>
+      <c r="O20">
+        <v>0.84033613445378152</v>
+      </c>
+      <c r="P20">
+        <v>848.58555629945715</v>
+      </c>
+      <c r="Q20">
+        <v>1056.698744061111</v>
+      </c>
+      <c r="R20">
         <v>47</v>
-      </c>
-      <c r="K20">
-        <v>0.27052238805970147</v>
-      </c>
-      <c r="L20">
-        <v>8.3691472517529973E-3</v>
-      </c>
-      <c r="M20">
-        <v>216.17959038807464</v>
-      </c>
-      <c r="N20">
-        <v>235.53895669148432</v>
-      </c>
-      <c r="O20">
-        <v>0.9178082191780822</v>
-      </c>
-      <c r="P20">
-        <v>1153.4955755781596</v>
-      </c>
-      <c r="Q20">
-        <v>1380.9681296432229</v>
-      </c>
-      <c r="R20">
-        <v>49</v>
       </c>
       <c r="S20">
         <v>5</v>
@@ -2101,7 +2099,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -2119,43 +2117,43 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>1196</v>
+        <v>982</v>
       </c>
       <c r="H21">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="I21">
-        <v>795</v>
+        <v>584</v>
       </c>
       <c r="J21">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K21">
-        <v>0.25629887054735012</v>
+        <v>0.27352572145545795</v>
       </c>
       <c r="L21">
-        <v>1.5976106949843558E-2</v>
+        <v>1.0496139085402506E-2</v>
       </c>
       <c r="M21">
+        <v>358.18373812038016</v>
+      </c>
+      <c r="N21">
         <v>495.03695881731784</v>
       </c>
-      <c r="N21">
-        <v>486.58922914466734</v>
-      </c>
       <c r="O21">
-        <v>1.0173611111111112</v>
+        <v>0.7235494880546075</v>
       </c>
       <c r="P21">
-        <v>2324.8152059134109</v>
+        <v>1839.9155227032734</v>
       </c>
       <c r="Q21">
-        <v>2664.4139387539599</v>
+        <v>2184.5828933474131</v>
       </c>
       <c r="R21">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="S21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T21">
         <v>7</v>
@@ -2164,12 +2162,12 @@
         <v>7</v>
       </c>
       <c r="V21" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2187,40 +2185,40 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>598</v>
+        <v>642</v>
       </c>
       <c r="H22">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="I22">
-        <v>536</v>
+        <v>500</v>
       </c>
       <c r="J22">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K22">
-        <v>0.19158878504672897</v>
+        <v>0.13059033989266547</v>
       </c>
       <c r="L22">
-        <v>8.9426393561299663E-3</v>
+        <v>1.0882956878850103E-2</v>
       </c>
       <c r="M22">
-        <v>184.75443610021932</v>
+        <v>186.08360470525687</v>
       </c>
       <c r="N22">
-        <v>124.94184887352961</v>
+        <v>186.08360470525687</v>
       </c>
       <c r="O22">
-        <v>1.4787234042553192</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>1022.1306572738752</v>
+        <v>1036.7515119292882</v>
       </c>
       <c r="Q22">
-        <v>1133.7808200970294</v>
+        <v>1128.4641456768791</v>
       </c>
       <c r="R22">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="S22">
         <v>5</v>
@@ -2237,7 +2235,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -2255,57 +2253,57 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>906</v>
+        <v>674</v>
       </c>
       <c r="H23">
-        <v>391</v>
+        <v>262</v>
       </c>
       <c r="I23">
-        <v>548</v>
+        <v>452</v>
       </c>
       <c r="J23">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="K23">
-        <v>0.15981012658227847</v>
+        <v>0.20222634508348794</v>
       </c>
       <c r="L23">
-        <v>7.6186329995646491E-3</v>
+        <v>6.8029633850975922E-3</v>
       </c>
       <c r="M23">
-        <v>131.74518122336215</v>
+        <v>124.86297026393278</v>
       </c>
       <c r="N23">
-        <v>252.67545951047819</v>
+        <v>132.72835421756636</v>
       </c>
       <c r="O23">
-        <v>0.52140077821011666</v>
+        <v>0.94074074074074054</v>
       </c>
       <c r="P23">
-        <v>923.19944155773919</v>
+        <v>701.98551786179542</v>
       </c>
       <c r="Q23">
-        <v>1064.7763527231434</v>
+        <v>793.42060632278549</v>
       </c>
       <c r="R23">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
         <v>5</v>
       </c>
-      <c r="T23">
-        <v>6</v>
-      </c>
       <c r="U23">
         <v>7</v>
       </c>
       <c r="V23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -2323,46 +2321,46 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>2753</v>
+        <v>1604</v>
       </c>
       <c r="H24">
-        <v>1841</v>
+        <v>1017</v>
       </c>
       <c r="I24">
-        <v>1718</v>
+        <v>1333</v>
       </c>
       <c r="J24">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="K24">
-        <v>0.19013360739979446</v>
+        <v>0.18280871670702178</v>
       </c>
       <c r="L24">
-        <v>5.5306427503736917E-3</v>
+        <v>4.6700316052643992E-3</v>
       </c>
       <c r="M24">
-        <v>161.04546479133342</v>
+        <v>128.72774082814846</v>
       </c>
       <c r="N24">
-        <v>338.92873534499847</v>
+        <v>147.46658917654983</v>
       </c>
       <c r="O24">
-        <v>0.47516025641025644</v>
+        <v>0.87292817679557999</v>
       </c>
       <c r="P24">
-        <v>966.5443662602961</v>
+        <v>638.20715389482893</v>
       </c>
       <c r="Q24">
-        <v>1123.7877458794901</v>
+        <v>754.71390666967216</v>
       </c>
       <c r="R24">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
         <v>5</v>
-      </c>
-      <c r="T24">
-        <v>6</v>
       </c>
       <c r="U24">
         <v>7</v>
@@ -2373,7 +2371,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2391,46 +2389,46 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>2753</v>
+        <v>1604</v>
       </c>
       <c r="H25">
-        <v>1841</v>
+        <v>1017</v>
       </c>
       <c r="I25">
-        <v>1718</v>
+        <v>1333</v>
       </c>
       <c r="J25">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="K25">
-        <v>0.19013360739979446</v>
+        <v>0.18280871670702178</v>
       </c>
       <c r="L25">
-        <v>5.5306427503736917E-3</v>
+        <v>4.6700316052643992E-3</v>
       </c>
       <c r="M25">
-        <v>161.04546479133342</v>
+        <v>128.72774082814846</v>
       </c>
       <c r="N25">
-        <v>338.92873534499847</v>
+        <v>147.46658917654983</v>
       </c>
       <c r="O25">
-        <v>0.47516025641025644</v>
+        <v>0.87292817679557999</v>
       </c>
       <c r="P25">
-        <v>966.5443662602961</v>
+        <v>638.20715389482893</v>
       </c>
       <c r="Q25">
-        <v>1123.7877458794901</v>
+        <v>754.71390666967216</v>
       </c>
       <c r="R25">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
         <v>5</v>
-      </c>
-      <c r="T25">
-        <v>6</v>
       </c>
       <c r="U25">
         <v>7</v>
@@ -2441,7 +2439,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2459,46 +2457,46 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>2753</v>
+        <v>1604</v>
       </c>
       <c r="H26">
-        <v>1841</v>
+        <v>1017</v>
       </c>
       <c r="I26">
-        <v>1718</v>
+        <v>1333</v>
       </c>
       <c r="J26">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="K26">
-        <v>0.19013360739979446</v>
+        <v>0.18280871670702178</v>
       </c>
       <c r="L26">
-        <v>5.5306427503736917E-3</v>
+        <v>4.6700316052643992E-3</v>
       </c>
       <c r="M26">
-        <v>161.04546479133342</v>
+        <v>128.72774082814846</v>
       </c>
       <c r="N26">
-        <v>338.92873534499847</v>
+        <v>147.46658917654983</v>
       </c>
       <c r="O26">
-        <v>0.47516025641025644</v>
+        <v>0.87292817679557999</v>
       </c>
       <c r="P26">
-        <v>966.5443662602961</v>
+        <v>638.20715389482893</v>
       </c>
       <c r="Q26">
-        <v>1123.7877458794901</v>
+        <v>754.71390666967216</v>
       </c>
       <c r="R26">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
         <v>5</v>
-      </c>
-      <c r="T26">
-        <v>6</v>
       </c>
       <c r="U26">
         <v>7</v>
@@ -2509,7 +2507,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2527,46 +2525,46 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>2753</v>
+        <v>1604</v>
       </c>
       <c r="H27">
-        <v>1841</v>
+        <v>1017</v>
       </c>
       <c r="I27">
-        <v>1718</v>
+        <v>1333</v>
       </c>
       <c r="J27">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="K27">
-        <v>0.19013360739979446</v>
+        <v>0.18280871670702178</v>
       </c>
       <c r="L27">
-        <v>5.5306427503736917E-3</v>
+        <v>4.6700316052643992E-3</v>
       </c>
       <c r="M27">
-        <v>161.04546479133342</v>
+        <v>128.72774082814846</v>
       </c>
       <c r="N27">
-        <v>338.92873534499847</v>
+        <v>147.46658917654983</v>
       </c>
       <c r="O27">
-        <v>0.47516025641025644</v>
+        <v>0.87292817679557999</v>
       </c>
       <c r="P27">
-        <v>966.5443662602961</v>
+        <v>638.20715389482893</v>
       </c>
       <c r="Q27">
-        <v>1123.7877458794901</v>
+        <v>754.71390666967216</v>
       </c>
       <c r="R27">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
         <v>5</v>
-      </c>
-      <c r="T27">
-        <v>6</v>
       </c>
       <c r="U27">
         <v>7</v>
@@ -2577,7 +2575,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2595,46 +2593,46 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>2753</v>
+        <v>1604</v>
       </c>
       <c r="H28">
-        <v>1841</v>
+        <v>1017</v>
       </c>
       <c r="I28">
-        <v>1718</v>
+        <v>1333</v>
       </c>
       <c r="J28">
-        <v>193</v>
+        <v>143</v>
       </c>
       <c r="K28">
-        <v>0.19013360739979446</v>
+        <v>0.18280871670702178</v>
       </c>
       <c r="L28">
-        <v>5.5306427503736917E-3</v>
+        <v>4.6700316052643992E-3</v>
       </c>
       <c r="M28">
-        <v>161.04546479133342</v>
+        <v>128.72774082814846</v>
       </c>
       <c r="N28">
-        <v>338.92873534499847</v>
+        <v>147.46658917654983</v>
       </c>
       <c r="O28">
-        <v>0.47516025641025644</v>
+        <v>0.87292817679557999</v>
       </c>
       <c r="P28">
-        <v>966.5443662602961</v>
+        <v>638.20715389482893</v>
       </c>
       <c r="Q28">
-        <v>1123.7877458794901</v>
+        <v>754.71390666967216</v>
       </c>
       <c r="R28">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
         <v>5</v>
-      </c>
-      <c r="T28">
-        <v>6</v>
       </c>
       <c r="U28">
         <v>7</v>
@@ -2645,7 +2643,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2663,43 +2661,43 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="H29">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I29">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="J29">
+        <v>28</v>
+      </c>
+      <c r="K29">
+        <v>0.19375000000000001</v>
+      </c>
+      <c r="L29">
+        <v>1.1052563937797199E-2</v>
+      </c>
+      <c r="M29">
+        <v>103.68767469119105</v>
+      </c>
+      <c r="N29">
+        <v>139.75295284464883</v>
+      </c>
+      <c r="O29">
+        <v>0.74193548387096764</v>
+      </c>
+      <c r="P29">
+        <v>1230.7276169867459</v>
+      </c>
+      <c r="Q29">
+        <v>1609.4130375980526</v>
+      </c>
+      <c r="R29">
         <v>23</v>
       </c>
-      <c r="K29">
-        <v>0.15454545454545454</v>
-      </c>
-      <c r="L29">
-        <v>1.6196562362274129E-2</v>
-      </c>
-      <c r="M29">
-        <v>139.75295284464883</v>
-      </c>
-      <c r="N29">
-        <v>94.671355152826621</v>
-      </c>
-      <c r="O29">
-        <v>1.4761904761904763</v>
-      </c>
-      <c r="P29">
-        <v>1370.4805698313949</v>
-      </c>
-      <c r="Q29">
-        <v>1681.5435939049678</v>
-      </c>
-      <c r="R29">
-        <v>22</v>
-      </c>
       <c r="S29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T29">
         <v>7</v>
@@ -2708,12 +2706,12 @@
         <v>7</v>
       </c>
       <c r="V29" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2731,43 +2729,43 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="H30">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="I30">
-        <v>441</v>
+        <v>404</v>
       </c>
       <c r="J30">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K30">
-        <v>0.2756598240469208</v>
+        <v>0.18843283582089551</v>
       </c>
       <c r="L30">
-        <v>1.6236218093943513E-2</v>
+        <v>1.4338781575037146E-2</v>
       </c>
       <c r="M30">
-        <v>276.47809442790299</v>
+        <v>309.89852342468248</v>
       </c>
       <c r="N30">
-        <v>136.71993680500699</v>
+        <v>270.40165279212493</v>
       </c>
       <c r="O30">
-        <v>2.0222222222222217</v>
+        <v>1.146067415730337</v>
       </c>
       <c r="P30">
-        <v>1935.3466609953214</v>
+        <v>1892.8115695448746</v>
       </c>
       <c r="Q30">
-        <v>2044.7226104393267</v>
+        <v>2065.9901561645497</v>
       </c>
       <c r="R30">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T30">
         <v>7</v>
@@ -2776,12 +2774,12 @@
         <v>7</v>
       </c>
       <c r="V30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2799,40 +2797,40 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>475</v>
+        <v>406</v>
       </c>
       <c r="H31">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="I31">
-        <v>379</v>
+        <v>281</v>
       </c>
       <c r="J31">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.1134185303514377</v>
+        <v>0.11686143572621036</v>
       </c>
       <c r="L31">
-        <v>4.3000231737775835E-3</v>
+        <v>3.0092895459897947E-3</v>
       </c>
       <c r="M31">
+        <v>75.795856493178377</v>
+      </c>
+      <c r="N31">
         <v>62.26088211939652</v>
       </c>
-      <c r="N31">
-        <v>82.112177867609901</v>
-      </c>
       <c r="O31">
-        <v>0.75824175824175821</v>
+        <v>1.2173913043478262</v>
       </c>
       <c r="P31">
-        <v>486.3567458312279</v>
+        <v>366.34663971702884</v>
       </c>
       <c r="Q31">
-        <v>578.39457157294453</v>
+        <v>480.04042445679636</v>
       </c>
       <c r="R31">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="S31">
         <v>5</v>
@@ -2849,7 +2847,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2867,43 +2865,43 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="H32">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="I32">
         <v>255</v>
       </c>
       <c r="J32">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K32">
-        <v>0.22739726027397261</v>
+        <v>0.15223880597014924</v>
       </c>
       <c r="L32">
-        <v>1.086658752625331E-2</v>
+        <v>8.3093640140620012E-3</v>
       </c>
       <c r="M32">
-        <v>299.68547860661084</v>
+        <v>178.03097739006589</v>
       </c>
       <c r="N32">
-        <v>290.7839297371076</v>
+        <v>308.5870274761142</v>
       </c>
       <c r="O32">
-        <v>1.0306122448979591</v>
+        <v>0.57692307692307687</v>
       </c>
       <c r="P32">
-        <v>1347.1010622514984</v>
+        <v>1243.2496587739599</v>
       </c>
       <c r="Q32">
-        <v>1578.5413328585842</v>
+        <v>1439.0837339030325</v>
       </c>
       <c r="R32">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="S32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T32">
         <v>6</v>
@@ -2917,7 +2915,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2935,43 +2933,43 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>1046</v>
+        <v>798</v>
       </c>
       <c r="H33">
-        <v>582</v>
+        <v>440</v>
       </c>
       <c r="I33">
-        <v>1023</v>
+        <v>523</v>
       </c>
       <c r="J33">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.27440904419321688</v>
+        <v>0.21582733812949639</v>
       </c>
       <c r="L33">
-        <v>2.2728740233744431E-2</v>
+        <v>7.1952259164535376E-3</v>
       </c>
       <c r="M33">
-        <v>365.34482877920857</v>
+        <v>249.09874689491491</v>
       </c>
       <c r="N33">
-        <v>440.07445284768306</v>
+        <v>359.8093010704327</v>
       </c>
       <c r="O33">
-        <v>0.83018867924528295</v>
+        <v>0.69230769230769218</v>
       </c>
       <c r="P33">
-        <v>2221.1304931463246</v>
+        <v>1332.6782958877948</v>
       </c>
       <c r="Q33">
-        <v>2457.774302696494</v>
+        <v>1511.1990644958173</v>
       </c>
       <c r="R33">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T33">
         <v>6</v>
@@ -2980,12 +2978,12 @@
         <v>7</v>
       </c>
       <c r="V33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3003,43 +3001,43 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>864</v>
+        <v>897</v>
       </c>
       <c r="H34">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="I34">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="J34">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.2793017456359102</v>
+        <v>0.23427041499330656</v>
       </c>
       <c r="L34">
-        <v>1.1297402317046845E-2</v>
+        <v>1.2454159253476635E-2</v>
       </c>
       <c r="M34">
-        <v>283.12416628100073</v>
+        <v>201.45373369994283</v>
       </c>
       <c r="N34">
-        <v>239.56660223776984</v>
+        <v>284.48534015735169</v>
       </c>
       <c r="O34">
-        <v>1.1818181818181819</v>
+        <v>0.70813397129186606</v>
       </c>
       <c r="P34">
-        <v>1358.4515285982632</v>
+        <v>1376.1467889908258</v>
       </c>
       <c r="Q34">
-        <v>1607.5463479704899</v>
+        <v>1596.656956959682</v>
       </c>
       <c r="R34">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="S34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T34">
         <v>7</v>
@@ -3048,12 +3046,12 @@
         <v>7</v>
       </c>
       <c r="V34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -3071,43 +3069,43 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="H35">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="I35">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="J35">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K35">
-        <v>0.10305958132045089</v>
+        <v>4.7850770478507706E-2</v>
       </c>
       <c r="L35">
-        <v>9.4627105052125099E-3</v>
+        <v>8.314711843267682E-3</v>
       </c>
       <c r="M35">
-        <v>168.18481492942965</v>
+        <v>84.76514672443254</v>
       </c>
       <c r="N35">
-        <v>222.00395570684714</v>
+        <v>161.45742233225246</v>
       </c>
       <c r="O35">
-        <v>0.75757575757575757</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="P35">
-        <v>906.85252209948464</v>
+        <v>773.65014867537639</v>
       </c>
       <c r="Q35">
-        <v>1112.7107355731066</v>
+        <v>902.81608654117838</v>
       </c>
       <c r="R35">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T35">
         <v>6</v>
@@ -3116,12 +3114,12 @@
         <v>7</v>
       </c>
       <c r="V35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -3139,40 +3137,40 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>1470</v>
+        <v>1352</v>
       </c>
       <c r="H36">
-        <v>781</v>
+        <v>704</v>
       </c>
       <c r="I36">
-        <v>612</v>
+        <v>527</v>
       </c>
       <c r="J36">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="K36">
-        <v>0.24498886414253898</v>
+        <v>0.23643949930458971</v>
       </c>
       <c r="L36">
-        <v>7.4754711104189379E-3</v>
+        <v>6.2927347516957693E-3</v>
       </c>
       <c r="M36">
+        <v>320</v>
+      </c>
+      <c r="N36">
         <v>389</v>
       </c>
-      <c r="N36">
-        <v>394</v>
-      </c>
       <c r="O36">
-        <v>0.98730964467005078</v>
+        <v>0.82262210796915169</v>
       </c>
       <c r="P36">
-        <v>1525.8776391455085</v>
+        <v>1403.3922232141003</v>
       </c>
       <c r="Q36">
-        <v>1924.4742469222945</v>
+        <v>1702.3396790466898</v>
       </c>
       <c r="R36">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="S36">
         <v>5</v>
@@ -3189,7 +3187,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -3207,43 +3205,43 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="H37">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I37">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K37">
-        <v>0.16901408450704225</v>
+        <v>0.125</v>
       </c>
       <c r="L37">
-        <v>6.8775790921595595E-3</v>
+        <v>6.1488673139158574E-3</v>
       </c>
       <c r="M37">
-        <v>76.003884642992858</v>
+        <v>84.448760714436517</v>
       </c>
       <c r="N37">
-        <v>67.559008571549214</v>
+        <v>84.448760714436517</v>
       </c>
       <c r="O37">
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="P37">
-        <v>641.81058142971756</v>
+        <v>557.36182071528106</v>
       </c>
       <c r="Q37">
-        <v>768.48372250137231</v>
+        <v>734.70421821559762</v>
       </c>
       <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
         <v>4</v>
-      </c>
-      <c r="S37">
-        <v>5</v>
       </c>
       <c r="T37">
         <v>5</v>
@@ -3257,7 +3255,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -3275,40 +3273,40 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>1115</v>
+        <v>879</v>
       </c>
       <c r="H38">
-        <v>497</v>
+        <v>436</v>
       </c>
       <c r="I38">
-        <v>650</v>
+        <v>493</v>
       </c>
       <c r="J38">
         <v>65</v>
       </c>
       <c r="K38">
-        <v>0.26391752577319588</v>
+        <v>0.22934782608695653</v>
       </c>
       <c r="L38">
-        <v>7.7892325315005728E-3</v>
+        <v>5.2414317527565042E-3</v>
       </c>
       <c r="M38">
-        <v>214.98577300031616</v>
+        <v>171.62729777336162</v>
       </c>
       <c r="N38">
-        <v>233.95510591210873</v>
+        <v>222.21218553814191</v>
       </c>
       <c r="O38">
-        <v>0.91891891891891897</v>
+        <v>0.77235772357723564</v>
       </c>
       <c r="P38">
-        <v>1036.0868976107674</v>
+        <v>839.16715595501557</v>
       </c>
       <c r="Q38">
-        <v>1212.23070322027</v>
+        <v>1015.3109615645183</v>
       </c>
       <c r="R38">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="S38">
         <v>5</v>
@@ -3325,7 +3323,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -3343,43 +3341,43 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>361</v>
+        <v>299</v>
       </c>
       <c r="H39">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="I39">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="J39">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K39">
-        <v>0.34920634920634919</v>
+        <v>0.27906976744186046</v>
       </c>
       <c r="L39">
-        <v>7.8817733990147777E-3</v>
+        <v>5.1055609217607288E-3</v>
       </c>
       <c r="M39">
+        <v>276.9767794809531</v>
+      </c>
+      <c r="N39">
         <v>330.09561390195785</v>
       </c>
-      <c r="N39">
-        <v>383.21444832296254</v>
-      </c>
       <c r="O39">
-        <v>0.86138613861386137</v>
+        <v>0.83908045977011481</v>
       </c>
       <c r="P39">
-        <v>1369.7070875701927</v>
+        <v>1134.4665351343147</v>
       </c>
       <c r="Q39">
-        <v>1608.741842464714</v>
+        <v>1339.3534679010472</v>
       </c>
       <c r="R39">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T39">
         <v>7</v>
@@ -3388,12 +3386,12 @@
         <v>7</v>
       </c>
       <c r="V39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -3411,43 +3409,43 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>546</v>
+        <v>474</v>
       </c>
       <c r="H40">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I40">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="J40">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K40">
-        <v>0.16584564860426929</v>
+        <v>0.13313609467455623</v>
       </c>
       <c r="L40">
-        <v>7.3181029225500771E-3</v>
+        <v>6.3687333297044258E-3</v>
       </c>
       <c r="M40">
-        <v>153.19923081219528</v>
+        <v>135.64515228163125</v>
       </c>
       <c r="N40">
-        <v>126.07020035586905</v>
+        <v>150.00758017027457</v>
       </c>
       <c r="O40">
-        <v>1.2151898734177213</v>
+        <v>0.9042553191489362</v>
       </c>
       <c r="P40">
-        <v>871.32062524436071</v>
+        <v>756.42120213521434</v>
       </c>
       <c r="Q40">
-        <v>933.55781276181506</v>
+        <v>823.44586561554979</v>
       </c>
       <c r="R40">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T40">
         <v>6</v>
@@ -3456,12 +3454,12 @@
         <v>7</v>
       </c>
       <c r="V40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3479,40 +3477,40 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="H41">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="I41">
-        <v>229</v>
+        <v>181</v>
       </c>
       <c r="J41">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K41">
-        <v>5.2971576227390182E-2</v>
+        <v>5.4091539528432729E-2</v>
       </c>
       <c r="L41">
-        <v>1.4064297992641105E-3</v>
+        <v>1.138935949089563E-3</v>
       </c>
       <c r="M41">
+        <v>64.991334488734836</v>
+      </c>
+      <c r="N41">
         <v>55.087893042832391</v>
       </c>
-      <c r="N41">
-        <v>54.468927952463481</v>
-      </c>
       <c r="O41">
-        <v>1.0113636363636365</v>
+        <v>1.1797752808988762</v>
       </c>
       <c r="P41">
-        <v>251.29982668977468</v>
+        <v>232.11190888833872</v>
       </c>
       <c r="Q41">
-        <v>310.72047536518943</v>
+        <v>285.96187175043326</v>
       </c>
       <c r="R41">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="S41">
         <v>5</v>
@@ -3529,7 +3527,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -3547,43 +3545,43 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>896</v>
+        <v>587</v>
       </c>
       <c r="H42">
-        <v>426</v>
+        <v>330</v>
       </c>
       <c r="I42">
-        <v>520</v>
+        <v>340</v>
       </c>
       <c r="J42">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="K42">
-        <v>0.26415094339622641</v>
+        <v>0.21625766871165644</v>
       </c>
       <c r="L42">
-        <v>6.5291198746408987E-3</v>
+        <v>5.7922877511341541E-3</v>
       </c>
       <c r="M42">
-        <v>281.35915656198296</v>
+        <v>207.82210427873738</v>
       </c>
       <c r="N42">
-        <v>399.65789284372573</v>
+        <v>319.72631427498061</v>
       </c>
       <c r="O42">
-        <v>0.70400000000000007</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="P42">
-        <v>1512.3054665206582</v>
+        <v>1071.0831528211852</v>
       </c>
       <c r="Q42">
-        <v>1881.5893595082609</v>
+        <v>1306.0819938132959</v>
       </c>
       <c r="R42">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="S42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T42">
         <v>7</v>
@@ -3592,12 +3590,12 @@
         <v>7</v>
       </c>
       <c r="V42" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -3615,43 +3613,43 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>823</v>
+        <v>659</v>
       </c>
       <c r="H43">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="I43">
-        <v>533</v>
+        <v>420</v>
       </c>
       <c r="J43">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K43">
-        <v>0.18172790466732869</v>
+        <v>0.21016166281755197</v>
       </c>
       <c r="L43">
-        <v>5.2569065634348053E-3</v>
+        <v>4.009842340289802E-3</v>
       </c>
       <c r="M43">
-        <v>118.70119312684122</v>
+        <v>107.91017556985565</v>
       </c>
       <c r="N43">
-        <v>153.95185047966072</v>
+        <v>135.96682121801814</v>
       </c>
       <c r="O43">
-        <v>0.7710280373831776</v>
+        <v>0.79365079365079361</v>
       </c>
       <c r="P43">
-        <v>656.09386746472239</v>
+        <v>546.02548838346956</v>
       </c>
       <c r="Q43">
-        <v>846.01577646766827</v>
+        <v>755.37122898898951</v>
       </c>
       <c r="R43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43">
         <v>5</v>
@@ -3660,12 +3658,12 @@
         <v>7</v>
       </c>
       <c r="V43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3683,40 +3681,40 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="H44">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="I44">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="J44">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K44">
-        <v>0.23735408560311283</v>
+        <v>0.14925373134328357</v>
       </c>
       <c r="L44">
-        <v>4.0223580421041632E-3</v>
+        <v>5.095470071112604E-3</v>
       </c>
       <c r="M44">
-        <v>122.81644424462404</v>
+        <v>98.691785553715746</v>
       </c>
       <c r="N44">
-        <v>146.94110293553234</v>
+        <v>120.62329345454145</v>
       </c>
       <c r="O44">
-        <v>0.83582089552238803</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="P44">
-        <v>688.64934808592761</v>
+        <v>585.57126095204683</v>
       </c>
       <c r="Q44">
-        <v>826.81784786112974</v>
+        <v>730.31921309749657</v>
       </c>
       <c r="R44">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="S44">
         <v>5</v>
@@ -3733,7 +3731,7 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3751,40 +3749,40 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="H45">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="I45">
-        <v>494</v>
+        <v>403</v>
       </c>
       <c r="J45">
         <v>15</v>
       </c>
       <c r="K45">
-        <v>0.12220916568742655</v>
+        <v>0.10305343511450382</v>
       </c>
       <c r="L45">
-        <v>1.7321398972318911E-2</v>
+        <v>1.0953702351394772E-2</v>
       </c>
       <c r="M45">
-        <v>158.10883413922789</v>
+        <v>118.19786629825772</v>
       </c>
       <c r="N45">
-        <v>173.45920638575484</v>
+        <v>150.43364801596439</v>
       </c>
       <c r="O45">
-        <v>0.91150442477876126</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="P45">
-        <v>1089.8764295034155</v>
+        <v>887.25151584925936</v>
       </c>
       <c r="Q45">
-        <v>1158.953104612787</v>
+        <v>956.32819095863067</v>
       </c>
       <c r="R45">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="S45">
         <v>5</v>
@@ -3801,7 +3799,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3819,43 +3817,43 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>540</v>
+        <v>403</v>
       </c>
       <c r="H46">
-        <v>361</v>
+        <v>274</v>
       </c>
       <c r="I46">
-        <v>241</v>
+        <v>176</v>
       </c>
       <c r="J46">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>0.23066298342541436</v>
+        <v>0.18686868686868688</v>
       </c>
       <c r="L46">
-        <v>4.1242659254942396E-3</v>
+        <v>3.7104072398190047E-3</v>
       </c>
       <c r="M46">
-        <v>272.28215437283546</v>
+        <v>165.5985032442976</v>
       </c>
       <c r="N46">
-        <v>302.53572708092832</v>
+        <v>270.68986107240954</v>
       </c>
       <c r="O46">
-        <v>0.89999999999999991</v>
+        <v>0.61176470588235299</v>
       </c>
       <c r="P46">
-        <v>958.56056685641488</v>
+        <v>716.53198519167233</v>
       </c>
       <c r="Q46">
-        <v>1183.0739222164723</v>
+        <v>931.49158074917398</v>
       </c>
       <c r="R46">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="S46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46">
         <v>6</v>
@@ -3864,12 +3862,12 @@
         <v>7</v>
       </c>
       <c r="V46" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3887,43 +3885,43 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H47">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="I47">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J47">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K47">
-        <v>0.38048780487804879</v>
+        <v>0.26424870466321243</v>
       </c>
       <c r="L47">
-        <v>9.8323662153449384E-3</v>
+        <v>1.5949367088607596E-2</v>
       </c>
       <c r="M47">
+        <v>200.27013180569142</v>
+      </c>
+      <c r="N47">
         <v>363.28070420567275</v>
       </c>
-      <c r="N47">
-        <v>307.39136509710772</v>
-      </c>
       <c r="O47">
-        <v>1.1818181818181817</v>
+        <v>0.55128205128205132</v>
       </c>
       <c r="P47">
-        <v>1280.7973545712823</v>
+        <v>1243.5377951655721</v>
       </c>
       <c r="Q47">
-        <v>1699.9673978855201</v>
+        <v>1592.8461645941038</v>
       </c>
       <c r="R47">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="S47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T47">
         <v>7</v>
@@ -3932,12 +3930,12 @@
         <v>7</v>
       </c>
       <c r="V47" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3955,40 +3953,40 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>1223</v>
+        <v>1297</v>
       </c>
       <c r="H48">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="I48">
-        <v>931</v>
+        <v>864</v>
       </c>
       <c r="J48">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K48">
-        <v>0.26798307475317351</v>
+        <v>0.21260815822002471</v>
       </c>
       <c r="L48">
-        <v>1.0928586157124201E-2</v>
+        <v>9.0999104153896924E-3</v>
       </c>
       <c r="M48">
-        <v>346.95248943176995</v>
+        <v>313.59167314025365</v>
       </c>
       <c r="N48">
-        <v>293.57518336534383</v>
+        <v>345.04615707225474</v>
       </c>
       <c r="O48">
-        <v>1.1818181818181817</v>
+        <v>0.90883977900552493</v>
       </c>
       <c r="P48">
-        <v>1527.9253861514487</v>
+        <v>1482.1734095230834</v>
       </c>
       <c r="Q48">
-        <v>1739.5282780576379</v>
+        <v>1702.3547970470911</v>
       </c>
       <c r="R48">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="S48">
         <v>6</v>
@@ -4000,12 +3998,12 @@
         <v>7</v>
       </c>
       <c r="V48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -4023,40 +4021,40 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>921</v>
+        <v>653</v>
       </c>
       <c r="H49">
-        <v>475</v>
+        <v>397</v>
       </c>
       <c r="I49">
-        <v>455</v>
+        <v>309</v>
       </c>
       <c r="J49">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="K49">
-        <v>0.27619047619047621</v>
+        <v>0.2700135685210312</v>
       </c>
       <c r="L49">
-        <v>7.5692130486651032E-3</v>
+        <v>5.5612933979502658E-3</v>
       </c>
       <c r="M49">
-        <v>312.30731039342714</v>
+        <v>302.69785468901398</v>
       </c>
       <c r="N49">
-        <v>448.44126620594665</v>
+        <v>333.12779775298895</v>
       </c>
       <c r="O49">
-        <v>0.69642857142857151</v>
+        <v>0.90865384615384603</v>
       </c>
       <c r="P49">
-        <v>1489.4656341840371</v>
+        <v>1130.7126212192798</v>
       </c>
       <c r="Q49">
-        <v>1840.2107673951166</v>
+        <v>1394.9726530906412</v>
       </c>
       <c r="R49">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="S49">
         <v>5</v>
@@ -4073,7 +4071,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -4091,40 +4089,40 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>1718</v>
+        <v>1279</v>
       </c>
       <c r="H50">
-        <v>1138</v>
+        <v>906</v>
       </c>
       <c r="I50">
-        <v>722</v>
+        <v>548</v>
       </c>
       <c r="J50">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="K50">
-        <v>0.20264650283553876</v>
+        <v>0.16514522821576763</v>
       </c>
       <c r="L50">
-        <v>5.9716200236499799E-3</v>
+        <v>5.4204512159390563E-3</v>
       </c>
       <c r="M50">
-        <v>298.95876931487192</v>
+        <v>214.11142335693683</v>
       </c>
       <c r="N50">
-        <v>349.06995350479332</v>
+        <v>301.80599568929927</v>
       </c>
       <c r="O50">
-        <v>0.85644371941272424</v>
+        <v>0.7094339622641509</v>
       </c>
       <c r="P50">
-        <v>1059.1682112869748</v>
+        <v>827.9734296834738</v>
       </c>
       <c r="Q50">
-        <v>1317.1269208100928</v>
+        <v>1029.5570569929305</v>
       </c>
       <c r="R50">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="S50">
         <v>5</v>
@@ -4141,7 +4139,7 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -4159,43 +4157,43 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>1100</v>
+        <v>833</v>
       </c>
       <c r="H51">
-        <v>642</v>
+        <v>521</v>
       </c>
       <c r="I51">
-        <v>441</v>
+        <v>359</v>
       </c>
       <c r="J51">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="K51">
-        <v>0.27334465195246183</v>
+        <v>0.21448999046711154</v>
       </c>
       <c r="L51">
-        <v>7.8736911534339187E-3</v>
+        <v>6.5634875617859171E-3</v>
       </c>
       <c r="M51">
-        <v>235.11059527763575</v>
+        <v>154.50124832530349</v>
       </c>
       <c r="N51">
-        <v>244.06718938345043</v>
+        <v>234.36421243548455</v>
       </c>
       <c r="O51">
-        <v>0.96330275229357809</v>
+        <v>0.65923566878980888</v>
       </c>
       <c r="P51">
-        <v>821.02112636634718</v>
+        <v>656.81690109307772</v>
       </c>
       <c r="Q51">
-        <v>1071.8057613291585</v>
+        <v>835.94878320937153</v>
       </c>
       <c r="R51">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="S51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T51">
         <v>6</v>
@@ -4204,12 +4202,12 @@
         <v>7</v>
       </c>
       <c r="V51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -4227,40 +4225,40 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>582</v>
+        <v>392</v>
       </c>
       <c r="H52">
-        <v>325</v>
+        <v>258</v>
       </c>
       <c r="I52">
-        <v>329</v>
+        <v>252</v>
       </c>
       <c r="J52">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K52">
-        <v>0.29017857142857145</v>
+        <v>0.27412280701754388</v>
       </c>
       <c r="L52">
-        <v>7.1436670824356506E-3</v>
+        <v>7.7716906612307303E-3</v>
       </c>
       <c r="M52">
-        <v>279.84969363229106</v>
+        <v>264.05172705627461</v>
       </c>
       <c r="N52">
-        <v>453.62732596847178</v>
+        <v>318.21618388833093</v>
       </c>
       <c r="O52">
-        <v>0.61691542288557222</v>
+        <v>0.82978723404255328</v>
       </c>
       <c r="P52">
-        <v>1475.9814486735349</v>
+        <v>1150.994707681197</v>
       </c>
       <c r="Q52">
-        <v>1692.6392760017602</v>
+        <v>1360.8819779054154</v>
       </c>
       <c r="R52">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S52">
         <v>5</v>
@@ -4277,7 +4275,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4295,40 +4293,40 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>344</v>
+        <v>265</v>
       </c>
       <c r="H53">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="I53">
-        <v>321</v>
+        <v>274</v>
       </c>
       <c r="J53">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K53">
-        <v>0.23902439024390243</v>
+        <v>0.19428571428571428</v>
       </c>
       <c r="L53">
-        <v>9.2171717171717175E-3</v>
+        <v>7.7539250240307592E-3</v>
       </c>
       <c r="M53">
-        <v>121.10050080102937</v>
+        <v>95.871229800814916</v>
       </c>
       <c r="N53">
-        <v>189.21953250160837</v>
+        <v>123.62342790105079</v>
       </c>
       <c r="O53">
-        <v>0.64</v>
+        <v>0.77551020408163285</v>
       </c>
       <c r="P53">
-        <v>1120.1796324095217</v>
+        <v>910.77668310774163</v>
       </c>
       <c r="Q53">
-        <v>1301.8303836110654</v>
+        <v>1031.877183908771</v>
       </c>
       <c r="R53">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="S53">
         <v>5</v>
@@ -4345,7 +4343,7 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4363,43 +4361,43 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>891</v>
+        <v>725</v>
       </c>
       <c r="H54">
-        <v>448</v>
+        <v>301</v>
       </c>
       <c r="I54">
-        <v>506</v>
+        <v>410</v>
       </c>
       <c r="J54">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="K54">
-        <v>0.19341563786008231</v>
+        <v>0.22940226171243941</v>
       </c>
       <c r="L54">
-        <v>9.5810396268437206E-3</v>
+        <v>8.1358644911750325E-3</v>
       </c>
       <c r="M54">
-        <v>197.2456897063891</v>
+        <v>148.52838080300384</v>
       </c>
       <c r="N54">
-        <v>335.08002709157665</v>
+        <v>209.12796017062939</v>
       </c>
       <c r="O54">
-        <v>0.58865248226950362</v>
+        <v>0.71022727272727282</v>
       </c>
       <c r="P54">
-        <v>1133.5686022885252</v>
+        <v>861.46460865742222</v>
       </c>
       <c r="Q54">
-        <v>1351.014151784123</v>
+        <v>993.3578108104897</v>
       </c>
       <c r="R54">
         <v>37</v>
       </c>
       <c r="S54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54">
         <v>6</v>
@@ -4408,12 +4406,12 @@
         <v>7</v>
       </c>
       <c r="V54" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -4431,43 +4429,43 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>465</v>
+        <v>256</v>
       </c>
       <c r="H55">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="I55">
-        <v>387</v>
+        <v>260</v>
       </c>
       <c r="J55">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K55">
-        <v>0.24183006535947713</v>
+        <v>0.21024258760107817</v>
       </c>
       <c r="L55">
-        <v>5.8955409781615876E-3</v>
+        <v>5.1112719377600872E-3</v>
       </c>
       <c r="M55">
-        <v>109.30982100516809</v>
+        <v>118.95480521150645</v>
       </c>
       <c r="N55">
-        <v>163.96473150775216</v>
+        <v>126.99229205012178</v>
       </c>
       <c r="O55">
-        <v>0.66666666666666652</v>
+        <v>0.93670886075949356</v>
       </c>
       <c r="P55">
-        <v>895.37603382174473</v>
+        <v>663.89641286962387</v>
       </c>
       <c r="Q55">
-        <v>1044.8732890199892</v>
+        <v>851.97360489322193</v>
       </c>
       <c r="R55">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T55">
         <v>6</v>
@@ -4476,12 +4474,12 @@
         <v>7</v>
       </c>
       <c r="V55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4499,57 +4497,57 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>529</v>
+        <v>423</v>
       </c>
       <c r="H56">
-        <v>366</v>
+        <v>263</v>
       </c>
       <c r="I56">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="J56">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>0.21585903083700442</v>
+        <v>0.1930835734870317</v>
       </c>
       <c r="L56">
-        <v>6.9081569391550796E-3</v>
+        <v>6.398319247481259E-3</v>
       </c>
       <c r="M56">
-        <v>271.59535818842369</v>
+        <v>216.92356530633839</v>
       </c>
       <c r="N56">
-        <v>373.88451906458329</v>
+        <v>246.90487108038516</v>
       </c>
       <c r="O56">
-        <v>0.72641509433962259</v>
+        <v>0.87857142857142856</v>
       </c>
       <c r="P56">
-        <v>1209.8338682938875</v>
+        <v>966.45620965750754</v>
       </c>
       <c r="Q56">
-        <v>1484.9564389263167</v>
+        <v>1204.5430496278791</v>
       </c>
       <c r="R56">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S56">
         <v>5</v>
       </c>
       <c r="T56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U56">
         <v>7</v>
       </c>
       <c r="V56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -4567,43 +4565,43 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>430</v>
+        <v>325</v>
       </c>
       <c r="H57">
-        <v>194</v>
+        <v>148</v>
       </c>
       <c r="I57">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="J57">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K57">
-        <v>0.13506139154160982</v>
+        <v>9.4133697135061395E-2</v>
       </c>
       <c r="L57">
-        <v>7.5363549517036407E-3</v>
+        <v>5.8908525063910196E-3</v>
       </c>
       <c r="M57">
+        <v>105.75278633806191</v>
+      </c>
+      <c r="N57">
         <v>138.80053206870627</v>
       </c>
-      <c r="N57">
-        <v>181.76260151854393</v>
-      </c>
       <c r="O57">
-        <v>0.76363636363636367</v>
+        <v>0.76190476190476175</v>
       </c>
       <c r="P57">
-        <v>812.97454497385093</v>
+        <v>652.69297818022596</v>
       </c>
       <c r="Q57">
-        <v>907.16062030618741</v>
+        <v>736.96472979336897</v>
       </c>
       <c r="R57">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="S57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57">
         <v>6</v>
@@ -4612,12 +4610,12 @@
         <v>7</v>
       </c>
       <c r="V57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -4635,43 +4633,43 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>219</v>
+        <v>154</v>
       </c>
       <c r="H58">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="I58">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="J58">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K58">
-        <v>0.12668463611859837</v>
+        <v>0.14730878186968838</v>
       </c>
       <c r="L58">
-        <v>2.5595085743537241E-3</v>
+        <v>2.1681895617159672E-3</v>
       </c>
       <c r="M58">
+        <v>96.739866498984227</v>
+      </c>
+      <c r="N58">
         <v>94.805069169004554</v>
       </c>
-      <c r="N58">
-        <v>170.26216503821223</v>
-      </c>
       <c r="O58">
-        <v>0.55681818181818188</v>
+        <v>1.0204081632653059</v>
       </c>
       <c r="P58">
-        <v>468.22095385508362</v>
+        <v>369.54629002611978</v>
       </c>
       <c r="Q58">
-        <v>607.52636161362102</v>
+        <v>479.8297378349618</v>
       </c>
       <c r="R58">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T58">
         <v>6</v>
@@ -4680,12 +4678,12 @@
         <v>7</v>
       </c>
       <c r="V58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -4703,43 +4701,43 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>563</v>
+        <v>617</v>
       </c>
       <c r="H59">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="I59">
-        <v>456</v>
+        <v>396</v>
       </c>
       <c r="J59">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K59">
-        <v>0.12845407020164301</v>
+        <v>0.10147299509001637</v>
       </c>
       <c r="L59">
-        <v>5.3827043653140901E-3</v>
+        <v>4.973245199874095E-3</v>
       </c>
       <c r="M59">
-        <v>176.99706118087096</v>
+        <v>134.69587674770682</v>
       </c>
       <c r="N59">
-        <v>198.14765339745301</v>
+        <v>174.77068305280969</v>
       </c>
       <c r="O59">
-        <v>0.89325842696629221</v>
+        <v>0.7707006369426751</v>
       </c>
       <c r="P59">
-        <v>882.75892777629349</v>
+        <v>750.289429156648</v>
       </c>
       <c r="Q59">
-        <v>992.96464511532645</v>
+        <v>850.47644491940514</v>
       </c>
       <c r="R59">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="S59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T59">
         <v>6</v>
@@ -4748,12 +4746,12 @@
         <v>7</v>
       </c>
       <c r="V59" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -4771,40 +4769,40 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>645</v>
+        <v>532</v>
       </c>
       <c r="H60">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="I60">
-        <v>437</v>
+        <v>346</v>
       </c>
       <c r="J60">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K60">
-        <v>0.2558139534883721</v>
+        <v>0.1895551257253385</v>
       </c>
       <c r="L60">
-        <v>8.0636333783340019E-3</v>
+        <v>5.7055443006573782E-3</v>
       </c>
       <c r="M60">
-        <v>309.36703834827779</v>
+        <v>223.33984051881021</v>
       </c>
       <c r="N60">
-        <v>339.14568375078585</v>
+        <v>314.33014591536249</v>
       </c>
       <c r="O60">
-        <v>0.91219512195121943</v>
+        <v>0.71052631578947367</v>
       </c>
       <c r="P60">
-        <v>1371.4720577043972</v>
+        <v>1110.0817258379379</v>
       </c>
       <c r="Q60">
-        <v>1599.775005790292</v>
+        <v>1293.7167058200707</v>
       </c>
       <c r="R60">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="S60">
         <v>5</v>
@@ -4821,7 +4819,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -4839,40 +4837,40 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>472</v>
+        <v>399</v>
       </c>
       <c r="H61">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="I61">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="J61">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="K61">
-        <v>0.13257575757575757</v>
+        <v>0.13147410358565736</v>
       </c>
       <c r="L61">
-        <v>9.1072568014385989E-3</v>
+        <v>6.8465795629600043E-3</v>
       </c>
       <c r="M61">
+        <v>303.58033733507415</v>
+      </c>
+      <c r="N61">
         <v>295.08857964737979</v>
       </c>
-      <c r="N61">
-        <v>390.62085363394158</v>
-      </c>
       <c r="O61">
-        <v>0.75543478260869568</v>
+        <v>1.028776978417266</v>
       </c>
       <c r="P61">
-        <v>1339.5747752337888</v>
+        <v>1222.813107027991</v>
       </c>
       <c r="Q61">
-        <v>1568.8522328015372</v>
+        <v>1407.5088367353437</v>
       </c>
       <c r="R61">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S61">
         <v>5</v>
@@ -4884,12 +4882,12 @@
         <v>7</v>
       </c>
       <c r="V61" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -4907,43 +4905,43 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="H62">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I62">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J62">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K62">
-        <v>0.11147540983606558</v>
+        <v>0.15723270440251572</v>
       </c>
       <c r="L62">
-        <v>4.8451999671511869E-3</v>
+        <v>5.6080510102174078E-3</v>
       </c>
       <c r="M62">
-        <v>88.299002497206175</v>
+        <v>135.20784757384695</v>
       </c>
       <c r="N62">
-        <v>126.92981608973385</v>
+        <v>85.539658669168475</v>
       </c>
       <c r="O62">
-        <v>0.69565217391304368</v>
+        <v>1.5806451612903227</v>
       </c>
       <c r="P62">
-        <v>590.49957920006625</v>
+        <v>582.22154771595319</v>
       </c>
       <c r="Q62">
-        <v>689.83595700942317</v>
+        <v>648.44579958885777</v>
       </c>
       <c r="R62">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T62">
         <v>6</v>
@@ -4952,12 +4950,12 @@
         <v>7</v>
       </c>
       <c r="V62" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4975,43 +4973,43 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>144</v>
+        <v>85</v>
       </c>
       <c r="H63">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="I63">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J63">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <v>0.22222222222222221</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="L63">
-        <v>3.881156316916488E-3</v>
+        <v>1.6602102933038186E-3</v>
       </c>
       <c r="M63">
-        <v>157.76326745256148</v>
+        <v>74.499320741487352</v>
       </c>
       <c r="N63">
-        <v>214.73333625487533</v>
+        <v>153.38095446776808</v>
       </c>
       <c r="O63">
-        <v>0.73469387755102045</v>
+        <v>0.48571428571428571</v>
       </c>
       <c r="P63">
-        <v>652.96463473421272</v>
+        <v>411.9374205705771</v>
       </c>
       <c r="Q63">
-        <v>810.72790218677426</v>
+        <v>477.67211534247775</v>
       </c>
       <c r="R63">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T63">
         <v>6</v>
@@ -5020,12 +5018,12 @@
         <v>7</v>
       </c>
       <c r="V63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -5043,57 +5041,57 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>1033</v>
+        <v>819</v>
       </c>
       <c r="H64">
-        <v>512</v>
+        <v>454</v>
       </c>
       <c r="I64">
-        <v>557</v>
+        <v>364</v>
       </c>
       <c r="J64">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K64">
-        <v>0.23391304347826086</v>
+        <v>0.18566493955094993</v>
       </c>
       <c r="L64">
-        <v>8.1561547293819529E-3</v>
+        <v>6.8792688319984276E-3</v>
       </c>
       <c r="M64">
-        <v>247.58181727058584</v>
+        <v>206.48524031473963</v>
       </c>
       <c r="N64">
-        <v>265.62421690973787</v>
+        <v>248.5841728060943</v>
       </c>
       <c r="O64">
-        <v>0.93207547169811311</v>
+        <v>0.83064516129032262</v>
       </c>
       <c r="P64">
-        <v>1071.5180674585276</v>
+        <v>820.92918358141628</v>
       </c>
       <c r="Q64">
-        <v>1242.9208640304716</v>
+        <v>977.29664712073384</v>
       </c>
       <c r="R64">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="S64">
+        <v>4</v>
+      </c>
+      <c r="T64">
         <v>5</v>
       </c>
-      <c r="T64">
-        <v>6</v>
-      </c>
       <c r="U64">
         <v>7</v>
       </c>
       <c r="V64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -5111,43 +5109,43 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="H65">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I65">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J65">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K65">
-        <v>0.19130434782608696</v>
+        <v>0.14268585131894485</v>
       </c>
       <c r="L65">
-        <v>5.6713268266948037E-3</v>
+        <v>7.0171119044687928E-3</v>
       </c>
       <c r="M65">
+        <v>207.58616215815471</v>
+      </c>
+      <c r="N65">
         <v>203.87926640533053</v>
       </c>
-      <c r="N65">
-        <v>205.7327142817426</v>
-      </c>
       <c r="O65">
-        <v>0.99099099099099108</v>
+        <v>1.0181818181818181</v>
       </c>
       <c r="P65">
-        <v>787.71534747514056</v>
+        <v>826.63775287979468</v>
       </c>
       <c r="Q65">
         <v>999.00840538611953</v>
       </c>
       <c r="R65">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="S65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T65">
         <v>6</v>
@@ -5161,7 +5159,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -5179,57 +5177,57 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="H66">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I66">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="J66">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K66">
-        <v>8.6757990867579904E-2</v>
+        <v>4.975124378109453E-2</v>
       </c>
       <c r="L66">
-        <v>1.8932222642938281E-3</v>
+        <v>1.4025245441795231E-3</v>
       </c>
       <c r="M66">
-        <v>102.27936879018118</v>
+        <v>53.574907461523473</v>
       </c>
       <c r="N66">
-        <v>287.35632183908046</v>
+        <v>107.14981492304695</v>
       </c>
       <c r="O66">
-        <v>0.3559322033898305</v>
+        <v>0.5</v>
       </c>
       <c r="P66">
-        <v>555.23085914669787</v>
+        <v>267.8745373076174</v>
       </c>
       <c r="Q66">
-        <v>745.1782583284629</v>
+        <v>355.54256769920124</v>
       </c>
       <c r="R66">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S66">
         <v>4</v>
       </c>
       <c r="T66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U66">
         <v>7</v>
       </c>
       <c r="V66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -5247,57 +5245,57 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>306</v>
+        <v>204</v>
       </c>
       <c r="H67">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="I67">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="J67">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K67">
-        <v>0.22170900692840648</v>
+        <v>0.14102564102564102</v>
       </c>
       <c r="L67">
-        <v>4.7709923664122139E-3</v>
+        <v>4.0114613180515755E-3</v>
       </c>
       <c r="M67">
-        <v>285.59145068173444</v>
+        <v>156.61466650288662</v>
       </c>
       <c r="N67">
-        <v>359.29247021250461</v>
+        <v>276.37882324038816</v>
       </c>
       <c r="O67">
-        <v>0.79487179487179493</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="P67">
-        <v>961.18412971379439</v>
+        <v>669.4509274044957</v>
       </c>
       <c r="Q67">
-        <v>1209.9250706301436</v>
+        <v>826.06559390738244</v>
       </c>
       <c r="R67">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S67">
+        <v>4</v>
+      </c>
+      <c r="T67">
         <v>5</v>
       </c>
-      <c r="T67">
-        <v>6</v>
-      </c>
       <c r="U67">
         <v>7</v>
       </c>
       <c r="V67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -5315,40 +5313,40 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>311</v>
+        <v>222</v>
       </c>
       <c r="H68">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="I68">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="J68">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="K68">
-        <v>0.16414686825053995</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="L68">
-        <v>3.0327214684756584E-3</v>
+        <v>3.7787513691128149E-3</v>
       </c>
       <c r="M68">
-        <v>101.23838788561488</v>
+        <v>82.701781653037514</v>
       </c>
       <c r="N68">
-        <v>166.82945609319634</v>
+        <v>99.812495098493557</v>
       </c>
       <c r="O68">
-        <v>0.6068376068376069</v>
+        <v>0.82857142857142851</v>
       </c>
       <c r="P68">
-        <v>499.06247549246774</v>
+        <v>400.67587318109548</v>
       </c>
       <c r="Q68">
-        <v>665.891931585664</v>
+        <v>469.11872696291971</v>
       </c>
       <c r="R68">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="S68">
         <v>4</v>
@@ -5365,7 +5363,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -5383,43 +5381,43 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>956</v>
+        <v>698</v>
       </c>
       <c r="H69">
-        <v>530</v>
+        <v>381</v>
       </c>
       <c r="I69">
-        <v>414</v>
+        <v>281</v>
       </c>
       <c r="J69">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="K69">
-        <v>0.28013029315960913</v>
+        <v>0.23157894736842105</v>
       </c>
       <c r="L69">
-        <v>5.8984689766317482E-3</v>
+        <v>3.6452411209952512E-3</v>
       </c>
       <c r="M69">
-        <v>229.70394768065455</v>
+        <v>136.68334076865395</v>
       </c>
       <c r="N69">
-        <v>273.3666815373079</v>
+        <v>224.95799834840966</v>
       </c>
       <c r="O69">
-        <v>0.84027777777777779</v>
+        <v>0.60759493670886067</v>
       </c>
       <c r="P69">
-        <v>907.42551232523044</v>
+        <v>662.53452678139206</v>
       </c>
       <c r="Q69">
-        <v>1135.2310802729869</v>
+        <v>859.01682913633215</v>
       </c>
       <c r="R69">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="S69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T69">
         <v>6</v>
@@ -5428,12 +5426,12 @@
         <v>7</v>
       </c>
       <c r="V69" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -5451,43 +5449,43 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>1341</v>
+        <v>950</v>
       </c>
       <c r="H70">
-        <v>846</v>
+        <v>581</v>
       </c>
       <c r="I70">
-        <v>714</v>
+        <v>531</v>
       </c>
       <c r="J70">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="K70">
-        <v>0.22422680412371135</v>
+        <v>0.18194740582800284</v>
       </c>
       <c r="L70">
-        <v>6.8252644515647632E-3</v>
+        <v>5.1362752169256658E-3</v>
       </c>
       <c r="M70">
-        <v>298.62996952577214</v>
+        <v>216.55038725845463</v>
       </c>
       <c r="N70">
-        <v>440.08627088008524</v>
+        <v>290.77128611719917</v>
       </c>
       <c r="O70">
-        <v>0.6785714285714286</v>
+        <v>0.74474474474474472</v>
       </c>
       <c r="P70">
-        <v>1362.1717908193114</v>
+        <v>970.9839944814579</v>
       </c>
       <c r="Q70">
-        <v>1645.0843935279374</v>
+        <v>1225.0814246919833</v>
       </c>
       <c r="R70">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S70">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T70">
         <v>7</v>
@@ -5496,12 +5494,12 @@
         <v>7</v>
       </c>
       <c r="V70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -5519,57 +5517,57 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>768</v>
+        <v>586</v>
       </c>
       <c r="H71">
-        <v>495</v>
+        <v>402</v>
       </c>
       <c r="I71">
-        <v>444</v>
+        <v>291</v>
       </c>
       <c r="J71">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="K71">
-        <v>0.16501901140684411</v>
+        <v>0.15973920130399347</v>
       </c>
       <c r="L71">
-        <v>3.0410728025501046E-3</v>
+        <v>2.2938410368161487E-3</v>
       </c>
       <c r="M71">
-        <v>153.26017613595613</v>
+        <v>135.89572268212856</v>
       </c>
       <c r="N71">
-        <v>220.45306123989747</v>
+        <v>167.60472464129191</v>
       </c>
       <c r="O71">
-        <v>0.69520547945205491</v>
+        <v>0.81081081081081074</v>
       </c>
       <c r="P71">
-        <v>708.92268665843744</v>
+        <v>523.19853232619505</v>
       </c>
       <c r="Q71">
-        <v>883.32219743383575</v>
+        <v>672.68382727653648</v>
       </c>
       <c r="R71">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S71">
         <v>4</v>
       </c>
       <c r="T71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U71">
         <v>7</v>
       </c>
       <c r="V71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -5587,57 +5585,57 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H72">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I72">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="J72">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="K72">
-        <v>0.27488151658767773</v>
+        <v>0.33152173913043476</v>
       </c>
       <c r="L72">
-        <v>5.0066755674232312E-3</v>
+        <v>7.5858145268348186E-3</v>
       </c>
       <c r="M72">
+        <v>58</v>
+      </c>
+      <c r="N72">
         <v>55</v>
       </c>
-      <c r="N72">
-        <v>61</v>
-      </c>
       <c r="O72">
-        <v>0.90163934426229508</v>
+        <v>1.0545454545454545</v>
       </c>
       <c r="P72">
-        <v>1227.6504658776125</v>
+        <v>1265.4243263661547</v>
       </c>
       <c r="Q72">
-        <v>1359.8589775875093</v>
+        <v>1643.1629312515738</v>
       </c>
       <c r="R72">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S72">
         <v>5</v>
       </c>
       <c r="T72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U72">
         <v>7</v>
       </c>
       <c r="V72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -5655,43 +5653,43 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="H73">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="I73">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J73">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K73">
-        <v>0.12566844919786097</v>
+        <v>0.15580736543909349</v>
       </c>
       <c r="L73">
-        <v>5.0534499514091353E-3</v>
+        <v>7.2629455279085405E-3</v>
       </c>
       <c r="M73">
+        <v>143.7258153676064</v>
+      </c>
+      <c r="N73">
         <v>127.14206744057491</v>
       </c>
-      <c r="N73">
-        <v>102.26644555002764</v>
-      </c>
       <c r="O73">
-        <v>1.2432432432432432</v>
+        <v>1.1304347826086956</v>
       </c>
       <c r="P73">
-        <v>710.33720287451627</v>
+        <v>771.14427860696514</v>
       </c>
       <c r="Q73">
-        <v>834.71531232725272</v>
+        <v>912.10613598673297</v>
       </c>
       <c r="R73">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T73">
         <v>6</v>
@@ -5700,12 +5698,12 @@
         <v>7</v>
       </c>
       <c r="V73" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -5723,43 +5721,43 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>426</v>
+        <v>330</v>
       </c>
       <c r="H74">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="I74">
-        <v>327</v>
+        <v>241</v>
       </c>
       <c r="J74">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="K74">
-        <v>0.21333333333333335</v>
+        <v>0.14503816793893129</v>
       </c>
       <c r="L74">
-        <v>9.6870342771982112E-3</v>
+        <v>6.782215523737754E-3</v>
       </c>
       <c r="M74">
+        <v>124.21503001863225</v>
+      </c>
+      <c r="N74">
         <v>209.32532836473212</v>
       </c>
-      <c r="N74">
-        <v>259.9314517056564</v>
-      </c>
       <c r="O74">
-        <v>0.80530973451327426</v>
+        <v>0.59340659340659341</v>
       </c>
       <c r="P74">
-        <v>1221.4477951832171</v>
+        <v>887.9074367998528</v>
       </c>
       <c r="Q74">
-        <v>1421.5720102132357</v>
+        <v>984.51912681434442</v>
       </c>
       <c r="R74">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="S74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T74">
         <v>6</v>
@@ -5768,12 +5766,12 @@
         <v>7</v>
       </c>
       <c r="V74" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -5791,43 +5789,43 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>955</v>
+        <v>830</v>
       </c>
       <c r="H75">
-        <v>533</v>
+        <v>461</v>
       </c>
       <c r="I75">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="J75">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K75">
-        <v>0.24210526315789474</v>
+        <v>0.28004179728317657</v>
       </c>
       <c r="L75">
-        <v>1.0470275066548358E-2</v>
+        <v>9.2747851603437442E-3</v>
       </c>
       <c r="M75">
-        <v>267.43761336692813</v>
+        <v>315.72496022484569</v>
       </c>
       <c r="N75">
-        <v>392.48946035794546</v>
+        <v>255.05624237771849</v>
       </c>
       <c r="O75">
-        <v>0.68138801261829651</v>
+        <v>1.2378640776699028</v>
       </c>
       <c r="P75">
-        <v>1182.4209294695202</v>
+        <v>1038.7970259946883</v>
       </c>
       <c r="Q75">
-        <v>1427.572075055871</v>
+        <v>1280.2337602842763</v>
       </c>
       <c r="R75">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="S75">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T75">
         <v>6</v>
@@ -5836,12 +5834,12 @@
         <v>7</v>
       </c>
       <c r="V75" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -5859,43 +5857,43 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="H76">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="I76">
-        <v>148</v>
+        <v>76</v>
       </c>
       <c r="J76">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K76">
-        <v>0.12182741116751269</v>
+        <v>7.3446327683615822E-2</v>
       </c>
       <c r="L76">
-        <v>5.9574468085106386E-3</v>
+        <v>3.0346820809248553E-3</v>
       </c>
       <c r="M76">
+        <v>49.7084408756333</v>
+      </c>
+      <c r="N76">
         <v>99.416881751266601</v>
       </c>
-      <c r="N76">
-        <v>145.30159640569735</v>
-      </c>
       <c r="O76">
-        <v>0.68421052631578938</v>
+        <v>0.5</v>
       </c>
       <c r="P76">
-        <v>810.62995889494323</v>
+        <v>466.4945989867125</v>
       </c>
       <c r="Q76">
-        <v>1017.1111748398815</v>
+        <v>592.67756428639711</v>
       </c>
       <c r="R76">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T76">
         <v>6</v>
@@ -5904,12 +5902,12 @@
         <v>7</v>
       </c>
       <c r="V76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5927,40 +5925,40 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>446</v>
+        <v>297</v>
       </c>
       <c r="H77">
-        <v>207</v>
+        <v>143</v>
       </c>
       <c r="I77">
-        <v>326</v>
+        <v>236</v>
       </c>
       <c r="J77">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K77">
-        <v>0.17970401691331925</v>
+        <v>0.16818181818181818</v>
       </c>
       <c r="L77">
-        <v>6.1855670103092781E-3</v>
+        <v>4.9271092599177122E-3</v>
       </c>
       <c r="M77">
+        <v>142.97450999221107</v>
+      </c>
+      <c r="N77">
         <v>162.18004118519468</v>
       </c>
-      <c r="N77">
-        <v>279.54717625342766</v>
-      </c>
       <c r="O77">
-        <v>0.58015267175572516</v>
+        <v>0.8815789473684208</v>
       </c>
       <c r="P77">
-        <v>1137.3942362066941</v>
+        <v>808.76625801564182</v>
       </c>
       <c r="Q77">
-        <v>1361.4587667915027</v>
+        <v>994.41972621448303</v>
       </c>
       <c r="R77">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S77">
         <v>5</v>
@@ -5977,7 +5975,7 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -5995,57 +5993,57 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>1623</v>
+        <v>1399</v>
       </c>
       <c r="H78">
-        <v>1327</v>
+        <v>1063</v>
       </c>
       <c r="I78">
-        <v>1012</v>
+        <v>898</v>
       </c>
       <c r="J78">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="K78">
-        <v>0.18123275068997241</v>
+        <v>0.150199203187251</v>
       </c>
       <c r="L78">
-        <v>8.1556902540352791E-3</v>
+        <v>6.4037155624362269E-3</v>
       </c>
       <c r="M78">
-        <v>385.97090665198709</v>
+        <v>301.81659421802925</v>
       </c>
       <c r="N78">
-        <v>453.67400011389299</v>
+        <v>370.78516606240072</v>
       </c>
       <c r="O78">
-        <v>0.85076708507670862</v>
+        <v>0.81399317406143346</v>
       </c>
       <c r="P78">
-        <v>1479.9769682934391</v>
+        <v>1240.8015540074537</v>
       </c>
       <c r="Q78">
-        <v>1772.3024746429769</v>
+        <v>1495.1627088830255</v>
       </c>
       <c r="R78">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="S78">
+        <v>5</v>
+      </c>
+      <c r="T78">
         <v>6</v>
       </c>
-      <c r="T78">
-        <v>7</v>
-      </c>
       <c r="U78">
         <v>7</v>
       </c>
       <c r="V78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -6063,40 +6061,40 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="H79">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I79">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="J79">
         <v>2</v>
       </c>
       <c r="K79">
-        <v>0.12429378531073447</v>
+        <v>7.4468085106382975E-2</v>
       </c>
       <c r="L79">
-        <v>9.7847358121330719E-4</v>
+        <v>1.2736419792396358E-3</v>
       </c>
       <c r="M79">
+        <v>34.506131000061622</v>
+      </c>
+      <c r="N79">
         <v>73.941709285846329</v>
       </c>
-      <c r="N79">
-        <v>41.90030192864625</v>
-      </c>
       <c r="O79">
-        <v>1.7647058823529413</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="P79">
-        <v>330.27296814344692</v>
+        <v>197.17789142892354</v>
       </c>
       <c r="Q79">
-        <v>345.06131000061617</v>
+        <v>211.9662332860928</v>
       </c>
       <c r="R79">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S79">
         <v>5</v>
@@ -6108,12 +6106,12 @@
         <v>7</v>
       </c>
       <c r="V79" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -6131,40 +6129,40 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="H80">
-        <v>237</v>
+        <v>168</v>
       </c>
       <c r="I80">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="J80">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K80">
-        <v>0.15466666666666667</v>
+        <v>0.13138686131386862</v>
       </c>
       <c r="L80">
-        <v>5.2012305350290187E-3</v>
+        <v>6.2228169956507189E-3</v>
       </c>
       <c r="M80">
-        <v>136.71037035421077</v>
+        <v>106.16869187082324</v>
       </c>
       <c r="N80">
-        <v>207.97428681544827</v>
+        <v>138.16473599627682</v>
       </c>
       <c r="O80">
-        <v>0.6573426573426574</v>
+        <v>0.76842105263157889</v>
       </c>
       <c r="P80">
-        <v>837.7146098300575</v>
+        <v>775.17688722121625</v>
       </c>
       <c r="Q80">
-        <v>1029.6908745827789</v>
+        <v>923.52218271195568</v>
       </c>
       <c r="R80">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="S80">
         <v>5</v>
@@ -6185,12 +6183,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -6401,6 +6393,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6411,15 +6409,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A17AE3-A467-46C2-B8E3-63736AD8DD9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6438,6 +6427,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
   <ds:schemaRefs>

--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8434B60F-9789-49A9-8EBA-6AC44652F17C}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2F96AD51-81B6-4787-A2E9-D6C9007A1979}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
@@ -733,7 +733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:V80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -807,7 +809,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -825,43 +827,43 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="H2">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="I2">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>0.17733990147783252</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L2">
-        <v>3.4829047425552909E-3</v>
+        <v>2.9494742241600409E-3</v>
       </c>
       <c r="M2">
-        <v>154.3486349792594</v>
+        <v>74.418091865000065</v>
       </c>
       <c r="N2">
-        <v>146.07995810537051</v>
+        <v>157.10486060388902</v>
       </c>
       <c r="O2">
-        <v>1.0566037735849056</v>
+        <v>0.47368421052631582</v>
       </c>
       <c r="P2">
-        <v>686.30018053277843</v>
+        <v>534.70777117814862</v>
       </c>
       <c r="Q2">
-        <v>868.21107175833413</v>
+        <v>683.54395490814886</v>
       </c>
       <c r="R2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T2">
         <v>6</v>
@@ -870,12 +872,12 @@
         <v>7</v>
       </c>
       <c r="V2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -893,43 +895,43 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>887</v>
+        <v>634</v>
       </c>
       <c r="H3">
-        <v>439</v>
+        <v>310</v>
       </c>
       <c r="I3">
-        <v>407</v>
+        <v>306</v>
       </c>
       <c r="J3">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>0.1343101343101343</v>
+        <v>0.14410480349344978</v>
       </c>
       <c r="L3">
-        <v>4.9426510582949038E-3</v>
+        <v>2.6002463391268647E-3</v>
       </c>
       <c r="M3">
+        <v>132</v>
+      </c>
+      <c r="N3">
         <v>164</v>
       </c>
-      <c r="N3">
-        <v>269</v>
-      </c>
       <c r="O3">
-        <v>0.60966542750929364</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="P3">
-        <v>800.33565373527574</v>
+        <v>572.05502194832559</v>
       </c>
       <c r="Q3">
-        <v>1035.8346454206273</v>
+        <v>669.50288057674697</v>
       </c>
       <c r="R3">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="S3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T3">
         <v>6</v>
@@ -938,12 +940,12 @@
         <v>7</v>
       </c>
       <c r="V3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -961,46 +963,46 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="K4">
-        <v>0.12222222222222222</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L4">
-        <v>5.4589567327133033E-3</v>
+        <v>5.1764705882352945E-3</v>
       </c>
       <c r="M4">
         <v>55.949272659455424</v>
       </c>
       <c r="N4">
-        <v>68.382444361556637</v>
+        <v>55.949272659455424</v>
       </c>
       <c r="O4">
-        <v>0.81818181818181812</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>491.11028223299763</v>
+        <v>416.51125202039037</v>
       </c>
       <c r="Q4">
-        <v>584.35906999875669</v>
+        <v>509.76003978614943</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <v>4</v>
       </c>
       <c r="T4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U4">
         <v>7</v>
@@ -1011,7 +1013,7 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1029,57 +1031,57 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>571</v>
+        <v>422</v>
       </c>
       <c r="H5">
-        <v>319</v>
+        <v>221</v>
       </c>
       <c r="I5">
-        <v>327</v>
+        <v>219</v>
       </c>
       <c r="J5">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.1472457627118644</v>
+        <v>0.13200498132004981</v>
       </c>
       <c r="L5">
-        <v>5.0856011491129316E-3</v>
+        <v>3.8907214750909243E-3</v>
       </c>
       <c r="M5">
-        <v>165.87159738205759</v>
+        <v>123.43932828432192</v>
       </c>
       <c r="N5">
-        <v>244.30700389605377</v>
+        <v>160.72829203687749</v>
       </c>
       <c r="O5">
-        <v>0.67894736842105274</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="P5">
-        <v>830.64381324658291</v>
+        <v>565.76358796980878</v>
       </c>
       <c r="Q5">
-        <v>1054.3775957619164</v>
+        <v>700.77535328078591</v>
       </c>
       <c r="R5">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="S5">
         <v>4</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>7</v>
       </c>
       <c r="V5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1097,57 +1099,57 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>2044</v>
+        <v>1534</v>
       </c>
       <c r="H6">
-        <v>1043</v>
+        <v>770</v>
       </c>
       <c r="I6">
-        <v>1508</v>
+        <v>1262</v>
       </c>
       <c r="J6">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="K6">
-        <v>5.2285146547441631E-2</v>
+        <v>5.2247282167775431E-2</v>
       </c>
       <c r="L6">
-        <v>3.2691361393012526E-3</v>
+        <v>2.8100293174433497E-3</v>
       </c>
       <c r="M6">
-        <v>94.486952021882161</v>
+        <v>76.698454941967924</v>
       </c>
       <c r="N6">
-        <v>146.46632660604715</v>
+        <v>101.18651585717454</v>
       </c>
       <c r="O6">
-        <v>0.64511041009463732</v>
+        <v>0.75799086757990874</v>
       </c>
       <c r="P6">
-        <v>589.33059806313304</v>
+        <v>469.43150735565905</v>
       </c>
       <c r="Q6">
-        <v>698.14075552598501</v>
+        <v>536.65816515117911</v>
       </c>
       <c r="R6">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="S6">
         <v>4</v>
       </c>
       <c r="T6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>7</v>
       </c>
       <c r="V6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1165,57 +1167,57 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>2044</v>
+        <v>1534</v>
       </c>
       <c r="H7">
-        <v>1043</v>
+        <v>770</v>
       </c>
       <c r="I7">
-        <v>1508</v>
+        <v>1262</v>
       </c>
       <c r="J7">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="K7">
-        <v>5.2285146547441631E-2</v>
+        <v>5.2247282167775431E-2</v>
       </c>
       <c r="L7">
-        <v>3.2691361393012526E-3</v>
+        <v>2.8100293174433497E-3</v>
       </c>
       <c r="M7">
-        <v>94.486952021882161</v>
+        <v>76.698454941967924</v>
       </c>
       <c r="N7">
-        <v>146.46632660604715</v>
+        <v>101.18651585717454</v>
       </c>
       <c r="O7">
-        <v>0.64511041009463732</v>
+        <v>0.75799086757990874</v>
       </c>
       <c r="P7">
-        <v>589.33059806313304</v>
+        <v>469.43150735565905</v>
       </c>
       <c r="Q7">
-        <v>698.14075552598501</v>
+        <v>536.65816515117911</v>
       </c>
       <c r="R7">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="S7">
         <v>4</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U7">
         <v>7</v>
       </c>
       <c r="V7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1233,57 +1235,57 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>2044</v>
+        <v>1534</v>
       </c>
       <c r="H8">
-        <v>1043</v>
+        <v>770</v>
       </c>
       <c r="I8">
-        <v>1508</v>
+        <v>1262</v>
       </c>
       <c r="J8">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="K8">
-        <v>5.2285146547441631E-2</v>
+        <v>5.2247282167775431E-2</v>
       </c>
       <c r="L8">
-        <v>3.2691361393012526E-3</v>
+        <v>2.8100293174433497E-3</v>
       </c>
       <c r="M8">
-        <v>94.486952021882161</v>
+        <v>76.698454941967924</v>
       </c>
       <c r="N8">
-        <v>146.46632660604715</v>
+        <v>101.18651585717454</v>
       </c>
       <c r="O8">
-        <v>0.64511041009463732</v>
+        <v>0.75799086757990874</v>
       </c>
       <c r="P8">
-        <v>589.33059806313304</v>
+        <v>469.43150735565905</v>
       </c>
       <c r="Q8">
-        <v>698.14075552598501</v>
+        <v>536.65816515117911</v>
       </c>
       <c r="R8">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="S8">
         <v>4</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U8">
         <v>7</v>
       </c>
       <c r="V8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1301,57 +1303,57 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>2044</v>
+        <v>1534</v>
       </c>
       <c r="H9">
-        <v>1043</v>
+        <v>770</v>
       </c>
       <c r="I9">
-        <v>1508</v>
+        <v>1262</v>
       </c>
       <c r="J9">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="K9">
-        <v>5.2285146547441631E-2</v>
+        <v>5.2247282167775431E-2</v>
       </c>
       <c r="L9">
-        <v>3.2691361393012526E-3</v>
+        <v>2.8100293174433497E-3</v>
       </c>
       <c r="M9">
-        <v>94.486952021882161</v>
+        <v>76.698454941967924</v>
       </c>
       <c r="N9">
-        <v>146.46632660604715</v>
+        <v>101.18651585717454</v>
       </c>
       <c r="O9">
-        <v>0.64511041009463732</v>
+        <v>0.75799086757990874</v>
       </c>
       <c r="P9">
-        <v>589.33059806313304</v>
+        <v>469.43150735565905</v>
       </c>
       <c r="Q9">
-        <v>698.14075552598501</v>
+        <v>536.65816515117911</v>
       </c>
       <c r="R9">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="S9">
         <v>4</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U9">
         <v>7</v>
       </c>
       <c r="V9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1369,57 +1371,57 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>2044</v>
+        <v>1534</v>
       </c>
       <c r="H10">
-        <v>1043</v>
+        <v>770</v>
       </c>
       <c r="I10">
-        <v>1508</v>
+        <v>1262</v>
       </c>
       <c r="J10">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="K10">
-        <v>5.2285146547441631E-2</v>
+        <v>5.2247282167775431E-2</v>
       </c>
       <c r="L10">
-        <v>3.2691361393012526E-3</v>
+        <v>2.8100293174433497E-3</v>
       </c>
       <c r="M10">
-        <v>94.486952021882161</v>
+        <v>76.698454941967924</v>
       </c>
       <c r="N10">
-        <v>146.46632660604715</v>
+        <v>101.18651585717454</v>
       </c>
       <c r="O10">
-        <v>0.64511041009463732</v>
+        <v>0.75799086757990874</v>
       </c>
       <c r="P10">
-        <v>589.33059806313304</v>
+        <v>469.43150735565905</v>
       </c>
       <c r="Q10">
-        <v>698.14075552598501</v>
+        <v>536.65816515117911</v>
       </c>
       <c r="R10">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="S10">
         <v>4</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U10">
         <v>7</v>
       </c>
       <c r="V10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1437,57 +1439,57 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>383</v>
+        <v>258</v>
       </c>
       <c r="H11">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="I11">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="J11">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="K11">
-        <v>0.12756264236902051</v>
+        <v>0.12297734627831715</v>
       </c>
       <c r="L11">
-        <v>3.8188468158347677E-3</v>
+        <v>2.8212060655930411E-3</v>
       </c>
       <c r="M11">
+        <v>65</v>
+      </c>
+      <c r="N11">
         <v>80</v>
       </c>
-      <c r="N11">
-        <v>135</v>
-      </c>
       <c r="O11">
-        <v>0.59259259259259256</v>
+        <v>0.8125</v>
       </c>
       <c r="P11">
-        <v>623.27602340132955</v>
+        <v>419.85695571160062</v>
       </c>
       <c r="Q11">
-        <v>789.26598263614846</v>
+        <v>463.79547433258205</v>
       </c>
       <c r="R11">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="S11">
         <v>4</v>
       </c>
       <c r="T11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U11">
         <v>7</v>
       </c>
       <c r="V11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1505,40 +1507,40 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>379</v>
+        <v>251</v>
       </c>
       <c r="H12">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="I12">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="J12">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K12">
-        <v>0.25694444444444442</v>
+        <v>0.2780487804878049</v>
       </c>
       <c r="L12">
-        <v>1.1759705298951545E-2</v>
+        <v>5.052418845522294E-3</v>
       </c>
       <c r="M12">
-        <v>223.17818675809423</v>
+        <v>164.95779021250445</v>
       </c>
       <c r="N12">
-        <v>249.05391855613419</v>
+        <v>210.24032085907427</v>
       </c>
       <c r="O12">
-        <v>0.89610389610389596</v>
+        <v>0.78461538461538471</v>
       </c>
       <c r="P12">
-        <v>1225.8627939321409</v>
+        <v>811.85108516350238</v>
       </c>
       <c r="Q12">
-        <v>1419.9307824174402</v>
+        <v>957.40207652747677</v>
       </c>
       <c r="R12">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S12">
         <v>5</v>
@@ -1555,7 +1557,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1573,57 +1575,57 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>1243</v>
+        <v>987</v>
       </c>
       <c r="H13">
-        <v>494</v>
+        <v>392</v>
       </c>
       <c r="I13">
-        <v>728</v>
+        <v>540</v>
       </c>
       <c r="J13">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.27586206896551724</v>
+        <v>0.26074498567335241</v>
       </c>
       <c r="L13">
-        <v>9.0002012824567969E-3</v>
+        <v>6.2139239015196138E-3</v>
       </c>
       <c r="M13">
-        <v>227.57548845470694</v>
+        <v>203.15275310834815</v>
       </c>
       <c r="N13">
-        <v>320.82593250444046</v>
+        <v>232.01598579040854</v>
       </c>
       <c r="O13">
-        <v>0.70934256055363332</v>
+        <v>0.87559808612440193</v>
       </c>
       <c r="P13">
-        <v>1379.8845470692718</v>
+        <v>1095.6927175843693</v>
       </c>
       <c r="Q13">
-        <v>1506.4387211367673</v>
+        <v>1175.6216696269983</v>
       </c>
       <c r="R13">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="S13">
         <v>5</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U13">
         <v>7</v>
       </c>
       <c r="V13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1641,43 +1643,43 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="H14">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="I14">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="J14">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K14">
-        <v>0.18326693227091634</v>
+        <v>9.2936802973977689E-2</v>
       </c>
       <c r="L14">
-        <v>7.2865275142314986E-3</v>
+        <v>6.0420526866994282E-3</v>
       </c>
       <c r="M14">
-        <v>112.32098842469814</v>
+        <v>53.040466756107449</v>
       </c>
       <c r="N14">
-        <v>102.9609060559733</v>
+        <v>96.720851143490066</v>
       </c>
       <c r="O14">
-        <v>1.0909090909090908</v>
+        <v>0.54838709677419351</v>
       </c>
       <c r="P14">
-        <v>861.12757792268565</v>
+        <v>717.60631493557139</v>
       </c>
       <c r="Q14">
-        <v>1029.6090605597331</v>
+        <v>820.56722099154467</v>
       </c>
       <c r="R14">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14">
         <v>6</v>
@@ -1686,12 +1688,12 @@
         <v>7</v>
       </c>
       <c r="V14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1709,43 +1711,43 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>354</v>
+        <v>257</v>
       </c>
       <c r="H15">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="I15">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="J15">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K15">
-        <v>0.17741935483870969</v>
+        <v>0.13875598086124402</v>
       </c>
       <c r="L15">
-        <v>6.3268892794376098E-3</v>
+        <v>5.2451720575379477E-3</v>
       </c>
       <c r="M15">
+        <v>83.636409717030148</v>
+      </c>
+      <c r="N15">
         <v>152.06619948550937</v>
       </c>
-      <c r="N15">
-        <v>162.20394611787665</v>
-      </c>
       <c r="O15">
-        <v>0.9375</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="P15">
-        <v>897.19057696450511</v>
+        <v>651.35022112959837</v>
       </c>
       <c r="Q15">
-        <v>1072.0667063728408</v>
+        <v>780.60649069228134</v>
       </c>
       <c r="R15">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15">
         <v>6</v>
@@ -1754,12 +1756,12 @@
         <v>7</v>
       </c>
       <c r="V15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1777,57 +1779,57 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>603</v>
+        <v>404</v>
       </c>
       <c r="H16">
-        <v>336</v>
+        <v>207</v>
       </c>
       <c r="I16">
-        <v>429</v>
+        <v>326</v>
       </c>
       <c r="J16">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="K16">
-        <v>0.14239482200647249</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="L16">
-        <v>3.1515483694162785E-3</v>
+        <v>1.5805951548679292E-3</v>
       </c>
       <c r="M16">
-        <v>94.803772536327827</v>
+        <v>81.727390117523981</v>
       </c>
       <c r="N16">
-        <v>179.80025825855276</v>
+        <v>87.448307425750656</v>
       </c>
       <c r="O16">
-        <v>0.52727272727272734</v>
+        <v>0.93457943925233644</v>
       </c>
       <c r="P16">
-        <v>625.21453439905849</v>
+        <v>435.60698932640287</v>
       </c>
       <c r="Q16">
-        <v>757.6129063894474</v>
+        <v>516.51710554275166</v>
       </c>
       <c r="R16">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U16">
         <v>7</v>
       </c>
       <c r="V16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1845,57 +1847,57 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>466</v>
+        <v>326</v>
       </c>
       <c r="H17">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="I17">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="J17">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K17">
-        <v>0.18873668188736681</v>
+        <v>0.14938488576449913</v>
       </c>
       <c r="L17">
-        <v>2.496953122677685E-3</v>
+        <v>1.7301038062283738E-3</v>
       </c>
       <c r="M17">
-        <v>120.11565117564523</v>
+        <v>81.848718057740541</v>
       </c>
       <c r="N17">
-        <v>144.56396955652878</v>
+        <v>122.2415919044177</v>
       </c>
       <c r="O17">
-        <v>0.83088235294117641</v>
+        <v>0.66956521739130426</v>
       </c>
       <c r="P17">
-        <v>495.34418980398823</v>
+        <v>348.65427951868702</v>
       </c>
       <c r="Q17">
-        <v>638.84518899613079</v>
+        <v>460.26616777924232</v>
       </c>
       <c r="R17">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S17">
         <v>4</v>
       </c>
       <c r="T17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U17">
         <v>7</v>
       </c>
       <c r="V17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1913,37 +1915,37 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>329</v>
+        <v>240</v>
       </c>
       <c r="H18">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="I18">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="J18">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K18">
-        <v>0.20189274447949526</v>
+        <v>0.17985611510791366</v>
       </c>
       <c r="L18">
-        <v>1.0356454720616571E-2</v>
+        <v>4.4284528092997507E-3</v>
       </c>
       <c r="M18">
-        <v>182.00075310656459</v>
+        <v>141.20748085854149</v>
       </c>
       <c r="N18">
-        <v>194.55252918287937</v>
+        <v>200.82841722103677</v>
       </c>
       <c r="O18">
-        <v>0.93548387096774199</v>
+        <v>0.703125</v>
       </c>
       <c r="P18">
-        <v>1032.3835822768922</v>
+        <v>753.10656457888786</v>
       </c>
       <c r="Q18">
-        <v>1135.9357349064892</v>
+        <v>837.83105309401287</v>
       </c>
       <c r="R18">
         <v>17</v>
@@ -1963,7 +1965,7 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1981,57 +1983,57 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="H19">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I19">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="J19">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K19">
-        <v>0.20364741641337386</v>
+        <v>0.17812500000000001</v>
       </c>
       <c r="L19">
-        <v>3.3753661953891223E-3</v>
+        <v>1.6398563173512415E-3</v>
       </c>
       <c r="M19">
-        <v>124.40988614273813</v>
+        <v>111.08025548458762</v>
       </c>
       <c r="N19">
-        <v>179.95001388503195</v>
+        <v>128.85309636212165</v>
       </c>
       <c r="O19">
-        <v>0.69135802469135799</v>
+        <v>0.86206896551724133</v>
       </c>
       <c r="P19">
-        <v>593.1685642876979</v>
+        <v>424.32657595112471</v>
       </c>
       <c r="Q19">
-        <v>759.78894751457926</v>
+        <v>564.28769786170506</v>
       </c>
       <c r="R19">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="S19">
         <v>4</v>
       </c>
       <c r="T19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U19">
         <v>7</v>
       </c>
       <c r="V19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -2049,40 +2051,40 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>494</v>
+        <v>350</v>
       </c>
       <c r="H20">
-        <v>219</v>
+        <v>139</v>
       </c>
       <c r="I20">
-        <v>307</v>
+        <v>240</v>
       </c>
       <c r="J20">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K20">
-        <v>0.24835164835164836</v>
+        <v>0.13409090909090909</v>
       </c>
       <c r="L20">
-        <v>6.6648153290752568E-3</v>
+        <v>4.2612992429393896E-3</v>
       </c>
       <c r="M20">
-        <v>161.32805252841391</v>
+        <v>93.570270466480068</v>
       </c>
       <c r="N20">
-        <v>191.98038250881254</v>
+        <v>130.67572254801524</v>
       </c>
       <c r="O20">
-        <v>0.84033613445378152</v>
+        <v>0.71604938271604945</v>
       </c>
       <c r="P20">
-        <v>848.58555629945715</v>
+        <v>611.43331908268874</v>
       </c>
       <c r="Q20">
-        <v>1056.698744061111</v>
+        <v>800.187140540933</v>
       </c>
       <c r="R20">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="S20">
         <v>5</v>
@@ -2099,7 +2101,7 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -2117,57 +2119,57 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>982</v>
+        <v>628</v>
       </c>
       <c r="H21">
-        <v>505</v>
+        <v>321</v>
       </c>
       <c r="I21">
-        <v>584</v>
+        <v>365</v>
       </c>
       <c r="J21">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.27352572145545795</v>
+        <v>0.21478873239436619</v>
       </c>
       <c r="L21">
-        <v>1.0496139085402506E-2</v>
+        <v>7.553436545775968E-3</v>
       </c>
       <c r="M21">
-        <v>358.18373812038016</v>
+        <v>197.6768743400211</v>
       </c>
       <c r="N21">
-        <v>495.03695881731784</v>
+        <v>344.6673706441394</v>
       </c>
       <c r="O21">
-        <v>0.7235494880546075</v>
+        <v>0.57352941176470584</v>
       </c>
       <c r="P21">
-        <v>1839.9155227032734</v>
+        <v>1159.0285110876453</v>
       </c>
       <c r="Q21">
-        <v>2184.5828933474131</v>
+        <v>1376.9799366420275</v>
       </c>
       <c r="R21">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="S21">
         <v>5</v>
       </c>
       <c r="T21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U21">
         <v>7</v>
       </c>
       <c r="V21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2185,40 +2187,40 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>642</v>
+        <v>471</v>
       </c>
       <c r="H22">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="I22">
-        <v>500</v>
+        <v>373</v>
       </c>
       <c r="J22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K22">
-        <v>0.13059033989266547</v>
+        <v>0.16940789473684212</v>
       </c>
       <c r="L22">
-        <v>1.0882956878850103E-2</v>
+        <v>6.0662914321450911E-3</v>
       </c>
       <c r="M22">
-        <v>186.08360470525687</v>
+        <v>204.69196517578257</v>
       </c>
       <c r="N22">
-        <v>186.08360470525687</v>
+        <v>155.51272678939324</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>1.3162393162393162</v>
       </c>
       <c r="P22">
-        <v>1036.7515119292882</v>
+        <v>885.2262909550077</v>
       </c>
       <c r="Q22">
-        <v>1128.4641456768791</v>
+        <v>968.9639130723732</v>
       </c>
       <c r="R22">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S22">
         <v>5</v>
@@ -2235,7 +2237,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -2253,40 +2255,40 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>674</v>
+        <v>529</v>
       </c>
       <c r="H23">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="I23">
-        <v>452</v>
+        <v>330</v>
       </c>
       <c r="J23">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K23">
-        <v>0.20222634508348794</v>
+        <v>0.14967462039045554</v>
       </c>
       <c r="L23">
-        <v>6.8029633850975922E-3</v>
+        <v>4.6520569011918493E-3</v>
       </c>
       <c r="M23">
-        <v>124.86297026393278</v>
+        <v>89.468742472581752</v>
       </c>
       <c r="N23">
-        <v>132.72835421756636</v>
+        <v>120.930278287116</v>
       </c>
       <c r="O23">
-        <v>0.94074074074074054</v>
+        <v>0.73983739837398377</v>
       </c>
       <c r="P23">
-        <v>701.98551786179542</v>
+        <v>534.84610884708218</v>
       </c>
       <c r="Q23">
-        <v>793.42060632278549</v>
+        <v>611.53360239500944</v>
       </c>
       <c r="R23">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="S23">
         <v>4</v>
@@ -2303,7 +2305,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -2321,40 +2323,40 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>1604</v>
+        <v>1301</v>
       </c>
       <c r="H24">
-        <v>1017</v>
+        <v>797</v>
       </c>
       <c r="I24">
-        <v>1333</v>
+        <v>856</v>
       </c>
       <c r="J24">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="K24">
-        <v>0.18280871670702178</v>
+        <v>0.19332763045337895</v>
       </c>
       <c r="L24">
-        <v>4.6700316052643992E-3</v>
+        <v>2.5852318629827112E-3</v>
       </c>
       <c r="M24">
-        <v>128.72774082814846</v>
+        <v>100.75525706169427</v>
       </c>
       <c r="N24">
-        <v>147.46658917654983</v>
+        <v>115.69202023795621</v>
       </c>
       <c r="O24">
-        <v>0.87292817679557999</v>
+        <v>0.87089201877934275</v>
       </c>
       <c r="P24">
-        <v>638.20715389482893</v>
+        <v>448.91762782474564</v>
       </c>
       <c r="Q24">
-        <v>754.71390666967216</v>
+        <v>530.3908815134472</v>
       </c>
       <c r="R24">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="S24">
         <v>4</v>
@@ -2366,12 +2368,12 @@
         <v>7</v>
       </c>
       <c r="V24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2389,40 +2391,40 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>1604</v>
+        <v>1301</v>
       </c>
       <c r="H25">
-        <v>1017</v>
+        <v>797</v>
       </c>
       <c r="I25">
-        <v>1333</v>
+        <v>856</v>
       </c>
       <c r="J25">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="K25">
-        <v>0.18280871670702178</v>
+        <v>0.19332763045337895</v>
       </c>
       <c r="L25">
-        <v>4.6700316052643992E-3</v>
+        <v>2.5852318629827112E-3</v>
       </c>
       <c r="M25">
-        <v>128.72774082814846</v>
+        <v>100.75525706169427</v>
       </c>
       <c r="N25">
-        <v>147.46658917654983</v>
+        <v>115.69202023795621</v>
       </c>
       <c r="O25">
-        <v>0.87292817679557999</v>
+        <v>0.87089201877934275</v>
       </c>
       <c r="P25">
-        <v>638.20715389482893</v>
+        <v>448.91762782474564</v>
       </c>
       <c r="Q25">
-        <v>754.71390666967216</v>
+        <v>530.3908815134472</v>
       </c>
       <c r="R25">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="S25">
         <v>4</v>
@@ -2434,12 +2436,12 @@
         <v>7</v>
       </c>
       <c r="V25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2457,40 +2459,40 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>1604</v>
+        <v>1301</v>
       </c>
       <c r="H26">
-        <v>1017</v>
+        <v>797</v>
       </c>
       <c r="I26">
-        <v>1333</v>
+        <v>856</v>
       </c>
       <c r="J26">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="K26">
-        <v>0.18280871670702178</v>
+        <v>0.19332763045337895</v>
       </c>
       <c r="L26">
-        <v>4.6700316052643992E-3</v>
+        <v>2.5852318629827112E-3</v>
       </c>
       <c r="M26">
-        <v>128.72774082814846</v>
+        <v>100.75525706169427</v>
       </c>
       <c r="N26">
-        <v>147.46658917654983</v>
+        <v>115.69202023795621</v>
       </c>
       <c r="O26">
-        <v>0.87292817679557999</v>
+        <v>0.87089201877934275</v>
       </c>
       <c r="P26">
-        <v>638.20715389482893</v>
+        <v>448.91762782474564</v>
       </c>
       <c r="Q26">
-        <v>754.71390666967216</v>
+        <v>530.3908815134472</v>
       </c>
       <c r="R26">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="S26">
         <v>4</v>
@@ -2502,12 +2504,12 @@
         <v>7</v>
       </c>
       <c r="V26" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2525,40 +2527,40 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>1604</v>
+        <v>1301</v>
       </c>
       <c r="H27">
-        <v>1017</v>
+        <v>797</v>
       </c>
       <c r="I27">
-        <v>1333</v>
+        <v>856</v>
       </c>
       <c r="J27">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="K27">
-        <v>0.18280871670702178</v>
+        <v>0.19332763045337895</v>
       </c>
       <c r="L27">
-        <v>4.6700316052643992E-3</v>
+        <v>2.5852318629827112E-3</v>
       </c>
       <c r="M27">
-        <v>128.72774082814846</v>
+        <v>100.75525706169427</v>
       </c>
       <c r="N27">
-        <v>147.46658917654983</v>
+        <v>115.69202023795621</v>
       </c>
       <c r="O27">
-        <v>0.87292817679557999</v>
+        <v>0.87089201877934275</v>
       </c>
       <c r="P27">
-        <v>638.20715389482893</v>
+        <v>448.91762782474564</v>
       </c>
       <c r="Q27">
-        <v>754.71390666967216</v>
+        <v>530.3908815134472</v>
       </c>
       <c r="R27">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="S27">
         <v>4</v>
@@ -2570,12 +2572,12 @@
         <v>7</v>
       </c>
       <c r="V27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2593,40 +2595,40 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>1604</v>
+        <v>1301</v>
       </c>
       <c r="H28">
-        <v>1017</v>
+        <v>797</v>
       </c>
       <c r="I28">
-        <v>1333</v>
+        <v>856</v>
       </c>
       <c r="J28">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="K28">
-        <v>0.18280871670702178</v>
+        <v>0.19332763045337895</v>
       </c>
       <c r="L28">
-        <v>4.6700316052643992E-3</v>
+        <v>2.5852318629827112E-3</v>
       </c>
       <c r="M28">
-        <v>128.72774082814846</v>
+        <v>100.75525706169427</v>
       </c>
       <c r="N28">
-        <v>147.46658917654983</v>
+        <v>115.69202023795621</v>
       </c>
       <c r="O28">
-        <v>0.87292817679557999</v>
+        <v>0.87089201877934275</v>
       </c>
       <c r="P28">
-        <v>638.20715389482893</v>
+        <v>448.91762782474564</v>
       </c>
       <c r="Q28">
-        <v>754.71390666967216</v>
+        <v>530.3908815134472</v>
       </c>
       <c r="R28">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="S28">
         <v>4</v>
@@ -2638,12 +2640,12 @@
         <v>7</v>
       </c>
       <c r="V28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2661,57 +2663,57 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>261</v>
+        <v>166</v>
       </c>
       <c r="H29">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I29">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="J29">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="K29">
-        <v>0.19375000000000001</v>
+        <v>7.476635514018691E-2</v>
       </c>
       <c r="L29">
-        <v>1.1052563937797199E-2</v>
+        <v>1.0006561679790027E-2</v>
       </c>
       <c r="M29">
-        <v>103.68767469119105</v>
+        <v>63.114236768551073</v>
       </c>
       <c r="N29">
-        <v>139.75295284464883</v>
+        <v>112.70399422955551</v>
       </c>
       <c r="O29">
-        <v>0.74193548387096764</v>
+        <v>0.55999999999999994</v>
       </c>
       <c r="P29">
-        <v>1230.7276169867459</v>
+        <v>779.91164006852398</v>
       </c>
       <c r="Q29">
-        <v>1609.4130375980526</v>
+        <v>1009.8277882968172</v>
       </c>
       <c r="R29">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U29">
         <v>7</v>
       </c>
       <c r="V29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2729,43 +2731,43 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>623</v>
+        <v>518</v>
       </c>
       <c r="H30">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="I30">
-        <v>404</v>
+        <v>309</v>
       </c>
       <c r="J30">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K30">
-        <v>0.18843283582089551</v>
+        <v>0.19390581717451524</v>
       </c>
       <c r="L30">
-        <v>1.4338781575037146E-2</v>
+        <v>9.8493626882966388E-3</v>
       </c>
       <c r="M30">
-        <v>309.89852342468248</v>
+        <v>212.67545725223309</v>
       </c>
       <c r="N30">
-        <v>270.40165279212493</v>
+        <v>300.78386097101537</v>
       </c>
       <c r="O30">
-        <v>1.146067415730337</v>
+        <v>0.70707070707070707</v>
       </c>
       <c r="P30">
-        <v>1892.8115695448746</v>
+        <v>1573.7983836665248</v>
       </c>
       <c r="Q30">
-        <v>2065.9901561645497</v>
+        <v>1710.5183204715318</v>
       </c>
       <c r="R30">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T30">
         <v>7</v>
@@ -2774,12 +2776,12 @@
         <v>7</v>
       </c>
       <c r="V30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2797,43 +2799,43 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>406</v>
+        <v>335</v>
       </c>
       <c r="H31">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="I31">
-        <v>281</v>
+        <v>225</v>
       </c>
       <c r="J31">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.11686143572621036</v>
+        <v>8.4249084249084255E-2</v>
       </c>
       <c r="L31">
-        <v>3.0092895459897947E-3</v>
+        <v>3.89998542061525E-3</v>
       </c>
       <c r="M31">
-        <v>75.795856493178377</v>
+        <v>46.018912870858294</v>
       </c>
       <c r="N31">
-        <v>62.26088211939652</v>
+        <v>78.502851367934738</v>
       </c>
       <c r="O31">
-        <v>1.2173913043478262</v>
+        <v>0.58620689655172409</v>
       </c>
       <c r="P31">
-        <v>366.34663971702884</v>
+        <v>327.54637984552085</v>
       </c>
       <c r="Q31">
-        <v>480.04042445679636</v>
+        <v>446.65415433480115</v>
       </c>
       <c r="R31">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31">
         <v>5</v>
@@ -2847,7 +2849,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2865,43 +2867,43 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>301</v>
+        <v>191</v>
       </c>
       <c r="H32">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="I32">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="J32">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K32">
-        <v>0.15223880597014924</v>
+        <v>0.21993127147766323</v>
       </c>
       <c r="L32">
-        <v>8.3093640140620012E-3</v>
+        <v>7.2902646926873036E-3</v>
       </c>
       <c r="M32">
-        <v>178.03097739006589</v>
+        <v>243.30900243309003</v>
       </c>
       <c r="N32">
-        <v>308.5870274761142</v>
+        <v>183.96534330306807</v>
       </c>
       <c r="O32">
-        <v>0.57692307692307687</v>
+        <v>1.3225806451612903</v>
       </c>
       <c r="P32">
-        <v>1243.2496587739599</v>
+        <v>946.53136312385016</v>
       </c>
       <c r="Q32">
-        <v>1439.0837339030325</v>
+        <v>1097.8576939054062</v>
       </c>
       <c r="R32">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="S32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T32">
         <v>6</v>
@@ -2915,7 +2917,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2933,57 +2935,57 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>798</v>
+        <v>499</v>
       </c>
       <c r="H33">
-        <v>440</v>
+        <v>281</v>
       </c>
       <c r="I33">
-        <v>523</v>
+        <v>351</v>
       </c>
       <c r="J33">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K33">
-        <v>0.21582733812949639</v>
+        <v>0.20318725099601595</v>
       </c>
       <c r="L33">
-        <v>7.1952259164535376E-3</v>
+        <v>5.3375196232339087E-3</v>
       </c>
       <c r="M33">
+        <v>139.77207464659116</v>
+      </c>
+      <c r="N33">
         <v>249.09874689491491</v>
       </c>
-      <c r="N33">
-        <v>359.8093010704327</v>
-      </c>
       <c r="O33">
-        <v>0.69230769230769218</v>
+        <v>0.56111111111111123</v>
       </c>
       <c r="P33">
-        <v>1332.6782958877948</v>
+        <v>874.61337798659019</v>
       </c>
       <c r="Q33">
-        <v>1511.1990644958173</v>
+        <v>1003.3143972156296</v>
       </c>
       <c r="R33">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="S33">
         <v>4</v>
       </c>
       <c r="T33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U33">
         <v>7</v>
       </c>
       <c r="V33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3001,46 +3003,46 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>897</v>
+        <v>767</v>
       </c>
       <c r="H34">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="I34">
-        <v>654</v>
+        <v>561</v>
       </c>
       <c r="J34">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.23427041499330656</v>
+        <v>0.23971377459749552</v>
       </c>
       <c r="L34">
-        <v>1.2454159253476635E-2</v>
+        <v>9.0983531980711498E-3</v>
       </c>
       <c r="M34">
-        <v>201.45373369994283</v>
+        <v>161.97969128576483</v>
       </c>
       <c r="N34">
-        <v>284.48534015735169</v>
+        <v>255.90068875398143</v>
       </c>
       <c r="O34">
-        <v>0.70813397129186606</v>
+        <v>0.63297872340425532</v>
       </c>
       <c r="P34">
-        <v>1376.1467889908258</v>
+        <v>1181.4989246726377</v>
       </c>
       <c r="Q34">
-        <v>1596.656956959682</v>
+        <v>1381.5914844962294</v>
       </c>
       <c r="R34">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="S34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U34">
         <v>7</v>
@@ -3051,7 +3053,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -3069,57 +3071,57 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>516</v>
+        <v>375</v>
       </c>
       <c r="H35">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="I35">
-        <v>392</v>
+        <v>279</v>
       </c>
       <c r="J35">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="K35">
-        <v>4.7850770478507706E-2</v>
+        <v>7.9545454545454544E-2</v>
       </c>
       <c r="L35">
-        <v>8.314711843267682E-3</v>
+        <v>5.4998607630186575E-3</v>
       </c>
       <c r="M35">
-        <v>84.76514672443254</v>
+        <v>74.001318568949046</v>
       </c>
       <c r="N35">
-        <v>161.45742233225246</v>
+        <v>96.874453399351481</v>
       </c>
       <c r="O35">
-        <v>0.52500000000000002</v>
+        <v>0.76388888888888884</v>
       </c>
       <c r="P35">
-        <v>773.65014867537639</v>
+        <v>546.26427889078752</v>
       </c>
       <c r="Q35">
-        <v>902.81608654117838</v>
+        <v>594.70150559046328</v>
       </c>
       <c r="R35">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="S35">
         <v>4</v>
       </c>
       <c r="T35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U35">
         <v>7</v>
       </c>
       <c r="V35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -3137,40 +3139,40 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>1352</v>
+        <v>1060</v>
       </c>
       <c r="H36">
-        <v>704</v>
+        <v>532</v>
       </c>
       <c r="I36">
-        <v>527</v>
+        <v>435</v>
       </c>
       <c r="J36">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="K36">
-        <v>0.23643949930458971</v>
+        <v>0.22739018087855298</v>
       </c>
       <c r="L36">
-        <v>6.2927347516957693E-3</v>
+        <v>5.2220200795094667E-3</v>
       </c>
       <c r="M36">
-        <v>320</v>
+        <v>196.18426789013679</v>
       </c>
       <c r="N36">
-        <v>389</v>
+        <v>317.63167182212624</v>
       </c>
       <c r="O36">
-        <v>0.82262210796915169</v>
+        <v>0.61764705882352944</v>
       </c>
       <c r="P36">
-        <v>1403.3922232141003</v>
+        <v>1100.2927193838361</v>
       </c>
       <c r="Q36">
-        <v>1702.3396790466898</v>
+        <v>1386.7840312234009</v>
       </c>
       <c r="R36">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="S36">
         <v>5</v>
@@ -3187,7 +3189,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -3205,40 +3207,40 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="H37">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I37">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="J37">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K37">
-        <v>0.125</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="L37">
-        <v>6.1488673139158574E-3</v>
+        <v>2.5150905432595573E-3</v>
       </c>
       <c r="M37">
-        <v>84.448760714436517</v>
+        <v>50.669256428661903</v>
       </c>
       <c r="N37">
-        <v>84.448760714436517</v>
+        <v>50.669256428661903</v>
       </c>
       <c r="O37">
         <v>1</v>
       </c>
       <c r="P37">
-        <v>557.36182071528106</v>
+        <v>320.90529071485878</v>
       </c>
       <c r="Q37">
-        <v>734.70421821559762</v>
+        <v>447.57843178651353</v>
       </c>
       <c r="R37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S37">
         <v>4</v>
@@ -3255,7 +3257,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -3273,43 +3275,43 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>879</v>
+        <v>605</v>
       </c>
       <c r="H38">
-        <v>436</v>
+        <v>276</v>
       </c>
       <c r="I38">
-        <v>493</v>
+        <v>386</v>
       </c>
       <c r="J38">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>0.22934782608695653</v>
+        <v>0.16005471956224351</v>
       </c>
       <c r="L38">
-        <v>5.2414317527565042E-3</v>
+        <v>5.0215840014095677E-3</v>
       </c>
       <c r="M38">
-        <v>171.62729777336162</v>
+        <v>97.556569260647663</v>
       </c>
       <c r="N38">
-        <v>222.21218553814191</v>
+        <v>151.75466329434082</v>
       </c>
       <c r="O38">
-        <v>0.77235772357723564</v>
+        <v>0.64285714285714279</v>
       </c>
       <c r="P38">
-        <v>839.16715595501557</v>
+        <v>597.98563750508106</v>
       </c>
       <c r="Q38">
-        <v>1015.3109615645183</v>
+        <v>711.80163497583669</v>
       </c>
       <c r="R38">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="S38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38">
         <v>6</v>
@@ -3318,12 +3320,12 @@
         <v>7</v>
       </c>
       <c r="V38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -3341,57 +3343,57 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="H39">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="I39">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J39">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="K39">
-        <v>0.27906976744186046</v>
+        <v>0.28676470588235292</v>
       </c>
       <c r="L39">
-        <v>5.1055609217607288E-3</v>
+        <v>5.6910569105691061E-3</v>
       </c>
       <c r="M39">
-        <v>276.9767794809531</v>
+        <v>163.15070572165729</v>
       </c>
       <c r="N39">
-        <v>330.09561390195785</v>
+        <v>303.53619669145542</v>
       </c>
       <c r="O39">
-        <v>0.83908045977011481</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="P39">
-        <v>1134.4665351343147</v>
+        <v>929.57960236758242</v>
       </c>
       <c r="Q39">
-        <v>1339.3534679010472</v>
+        <v>1088.9361056305966</v>
       </c>
       <c r="R39">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="S39">
         <v>5</v>
       </c>
       <c r="T39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U39">
         <v>7</v>
       </c>
       <c r="V39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -3409,43 +3411,43 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>474</v>
+        <v>387</v>
       </c>
       <c r="H40">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="I40">
-        <v>274</v>
+        <v>202</v>
       </c>
       <c r="J40">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K40">
-        <v>0.13313609467455623</v>
+        <v>0.11908931698774081</v>
       </c>
       <c r="L40">
-        <v>6.3687333297044258E-3</v>
+        <v>4.6854082998661313E-3</v>
       </c>
       <c r="M40">
+        <v>108.51612182530501</v>
+      </c>
+      <c r="N40">
         <v>135.64515228163125</v>
       </c>
-      <c r="N40">
-        <v>150.00758017027457</v>
-      </c>
       <c r="O40">
-        <v>0.9042553191489362</v>
+        <v>0.8</v>
       </c>
       <c r="P40">
-        <v>756.42120213521434</v>
+        <v>617.58439921166223</v>
       </c>
       <c r="Q40">
-        <v>823.44586561554979</v>
+        <v>694.18401461775989</v>
       </c>
       <c r="R40">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="S40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40">
         <v>6</v>
@@ -3454,12 +3456,12 @@
         <v>7</v>
       </c>
       <c r="V40" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3477,40 +3479,40 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="H41">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="I41">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="J41">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K41">
-        <v>5.4091539528432729E-2</v>
+        <v>7.857142857142857E-2</v>
       </c>
       <c r="L41">
-        <v>1.138935949089563E-3</v>
+        <v>1.4058370353708597E-3</v>
       </c>
       <c r="M41">
-        <v>64.991334488734836</v>
+        <v>43.946521416192127</v>
       </c>
       <c r="N41">
-        <v>55.087893042832391</v>
+        <v>57.563753404307995</v>
       </c>
       <c r="O41">
-        <v>1.1797752808988762</v>
+        <v>0.76344086021505375</v>
       </c>
       <c r="P41">
-        <v>232.11190888833872</v>
+        <v>199.92572418915574</v>
       </c>
       <c r="Q41">
-        <v>285.96187175043326</v>
+        <v>233.34983906907652</v>
       </c>
       <c r="R41">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S41">
         <v>5</v>
@@ -3522,12 +3524,12 @@
         <v>7</v>
       </c>
       <c r="V41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -3545,57 +3547,57 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>587</v>
+        <v>435</v>
       </c>
       <c r="H42">
-        <v>330</v>
+        <v>221</v>
       </c>
       <c r="I42">
-        <v>340</v>
+        <v>227</v>
       </c>
       <c r="J42">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K42">
-        <v>0.21625766871165644</v>
+        <v>0.21917808219178081</v>
       </c>
       <c r="L42">
-        <v>5.7922877511341541E-3</v>
+        <v>3.007461550175118E-3</v>
       </c>
       <c r="M42">
-        <v>207.82210427873738</v>
+        <v>142.27820985236636</v>
       </c>
       <c r="N42">
-        <v>319.72631427498061</v>
+        <v>211.0193674214872</v>
       </c>
       <c r="O42">
-        <v>0.64999999999999991</v>
+        <v>0.6742424242424242</v>
       </c>
       <c r="P42">
-        <v>1071.0831528211852</v>
+        <v>716.18694397595664</v>
       </c>
       <c r="Q42">
-        <v>1306.0819938132959</v>
+        <v>869.65557482794725</v>
       </c>
       <c r="R42">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="S42">
         <v>5</v>
       </c>
       <c r="T42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U42">
         <v>7</v>
       </c>
       <c r="V42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -3613,57 +3615,57 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>659</v>
+        <v>498</v>
       </c>
       <c r="H43">
-        <v>339</v>
+        <v>230</v>
       </c>
       <c r="I43">
-        <v>420</v>
+        <v>306</v>
       </c>
       <c r="J43">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="K43">
-        <v>0.21016166281755197</v>
+        <v>0.13953488372093023</v>
       </c>
       <c r="L43">
-        <v>4.009842340289802E-3</v>
+        <v>3.3113553113553115E-3</v>
       </c>
       <c r="M43">
-        <v>107.91017556985565</v>
+        <v>58.990895978187758</v>
       </c>
       <c r="N43">
-        <v>135.96682121801814</v>
+        <v>106.47137322892424</v>
       </c>
       <c r="O43">
-        <v>0.79365079365079361</v>
+        <v>0.55405405405405406</v>
       </c>
       <c r="P43">
-        <v>546.02548838346956</v>
+        <v>385.59902736961754</v>
       </c>
       <c r="Q43">
-        <v>755.37122898898951</v>
+        <v>528.04045912182698</v>
       </c>
       <c r="R43">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S43">
         <v>4</v>
       </c>
       <c r="T43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U43">
         <v>7</v>
       </c>
       <c r="V43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3681,40 +3683,40 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="H44">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I44">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="J44">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K44">
-        <v>0.14925373134328357</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L44">
-        <v>5.095470071112604E-3</v>
+        <v>3.9816960836750459E-3</v>
       </c>
       <c r="M44">
-        <v>98.691785553715746</v>
+        <v>118.4301426644589</v>
       </c>
       <c r="N44">
-        <v>120.62329345454145</v>
+        <v>96.498634763633177</v>
       </c>
       <c r="O44">
-        <v>0.81818181818181823</v>
+        <v>1.2272727272727273</v>
       </c>
       <c r="P44">
-        <v>585.57126095204683</v>
+        <v>596.53701490245953</v>
       </c>
       <c r="Q44">
-        <v>730.31921309749657</v>
+        <v>721.54660993716618</v>
       </c>
       <c r="R44">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S44">
         <v>5</v>
@@ -3726,12 +3728,12 @@
         <v>7</v>
       </c>
       <c r="V44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3749,43 +3751,43 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>353</v>
+        <v>213</v>
       </c>
       <c r="H45">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="I45">
-        <v>403</v>
+        <v>250</v>
       </c>
       <c r="J45">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K45">
-        <v>0.10305343511450382</v>
+        <v>9.5602294455066919E-2</v>
       </c>
       <c r="L45">
-        <v>1.0953702351394772E-2</v>
+        <v>6.3046281702249605E-3</v>
       </c>
       <c r="M45">
-        <v>118.19786629825772</v>
+        <v>78.286898457287592</v>
       </c>
       <c r="N45">
-        <v>150.43364801596439</v>
+        <v>110.52268017499425</v>
       </c>
       <c r="O45">
-        <v>0.78571428571428559</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="P45">
-        <v>887.25151584925936</v>
+        <v>572.56888479545626</v>
       </c>
       <c r="Q45">
-        <v>956.32819095863067</v>
+        <v>618.6200015350372</v>
       </c>
       <c r="R45">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="S45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T45">
         <v>6</v>
@@ -3794,12 +3796,12 @@
         <v>7</v>
       </c>
       <c r="V45" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3817,57 +3819,57 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>403</v>
+        <v>287</v>
       </c>
       <c r="H46">
-        <v>274</v>
+        <v>172</v>
       </c>
       <c r="I46">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="J46">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K46">
-        <v>0.18686868686868688</v>
+        <v>0.1766304347826087</v>
       </c>
       <c r="L46">
-        <v>3.7104072398190047E-3</v>
+        <v>2.1811241877584403E-3</v>
       </c>
       <c r="M46">
-        <v>165.5985032442976</v>
+        <v>100.31447792683412</v>
       </c>
       <c r="N46">
-        <v>270.68986107240954</v>
+        <v>173.5599697464273</v>
       </c>
       <c r="O46">
-        <v>0.61176470588235299</v>
+        <v>0.57798165137614677</v>
       </c>
       <c r="P46">
-        <v>716.53198519167233</v>
+        <v>492.01862983161493</v>
       </c>
       <c r="Q46">
-        <v>931.49158074917398</v>
+        <v>668.76318617889422</v>
       </c>
       <c r="R46">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="S46">
         <v>4</v>
       </c>
       <c r="T46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U46">
         <v>7</v>
       </c>
       <c r="V46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3885,57 +3887,57 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>267</v>
+        <v>178</v>
       </c>
       <c r="H47">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="I47">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="J47">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="K47">
-        <v>0.26424870466321243</v>
+        <v>0.26896551724137929</v>
       </c>
       <c r="L47">
-        <v>1.5949367088607596E-2</v>
+        <v>6.6187594553706501E-3</v>
       </c>
       <c r="M47">
-        <v>200.27013180569142</v>
+        <v>144.38079269712634</v>
       </c>
       <c r="N47">
-        <v>363.28070420567275</v>
+        <v>223.55735643426016</v>
       </c>
       <c r="O47">
-        <v>0.55128205128205132</v>
+        <v>0.64583333333333326</v>
       </c>
       <c r="P47">
-        <v>1243.5377951655721</v>
+        <v>829.025196777048</v>
       </c>
       <c r="Q47">
-        <v>1592.8461645941038</v>
+        <v>1010.6655488798845</v>
       </c>
       <c r="R47">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="S47">
         <v>5</v>
       </c>
       <c r="T47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U47">
         <v>7</v>
       </c>
       <c r="V47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3953,40 +3955,40 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>1297</v>
+        <v>899</v>
       </c>
       <c r="H48">
-        <v>691</v>
+        <v>650</v>
       </c>
       <c r="I48">
-        <v>864</v>
+        <v>717</v>
       </c>
       <c r="J48">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="K48">
-        <v>0.21260815822002471</v>
+        <v>0.25935596170583114</v>
       </c>
       <c r="L48">
-        <v>9.0999104153896924E-3</v>
+        <v>7.4793921677069339E-3</v>
       </c>
       <c r="M48">
-        <v>313.59167314025365</v>
+        <v>278.32452448922209</v>
       </c>
       <c r="N48">
-        <v>345.04615707225474</v>
+        <v>320.26383639855692</v>
       </c>
       <c r="O48">
-        <v>0.90883977900552493</v>
+        <v>0.86904761904761907</v>
       </c>
       <c r="P48">
-        <v>1482.1734095230834</v>
+        <v>1302.9781677286526</v>
       </c>
       <c r="Q48">
-        <v>1702.3547970470911</v>
+        <v>1451.6720917708396</v>
       </c>
       <c r="R48">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="S48">
         <v>6</v>
@@ -3998,12 +4000,12 @@
         <v>7</v>
       </c>
       <c r="V48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -4021,40 +4023,40 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>653</v>
+        <v>446</v>
       </c>
       <c r="H49">
-        <v>397</v>
+        <v>278</v>
       </c>
       <c r="I49">
-        <v>309</v>
+        <v>222</v>
       </c>
       <c r="J49">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K49">
-        <v>0.2700135685210312</v>
+        <v>0.21846846846846846</v>
       </c>
       <c r="L49">
-        <v>5.5612933979502658E-3</v>
+        <v>4.6320123520329388E-3</v>
       </c>
       <c r="M49">
-        <v>302.69785468901398</v>
+        <v>145.74341151693267</v>
       </c>
       <c r="N49">
-        <v>333.12779775298895</v>
+        <v>299.49470278754296</v>
       </c>
       <c r="O49">
-        <v>0.90865384615384603</v>
+        <v>0.48663101604278075</v>
       </c>
       <c r="P49">
-        <v>1130.7126212192798</v>
+        <v>800.78797536776199</v>
       </c>
       <c r="Q49">
-        <v>1394.9726530906412</v>
+        <v>944.92981093395895</v>
       </c>
       <c r="R49">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="S49">
         <v>5</v>
@@ -4071,7 +4073,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -4089,43 +4091,43 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>1279</v>
+        <v>816</v>
       </c>
       <c r="H50">
-        <v>906</v>
+        <v>601</v>
       </c>
       <c r="I50">
-        <v>548</v>
+        <v>456</v>
       </c>
       <c r="J50">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="K50">
-        <v>0.16514522821576763</v>
+        <v>0.16160118606375093</v>
       </c>
       <c r="L50">
-        <v>5.4204512159390563E-3</v>
+        <v>4.5768169273229069E-3</v>
       </c>
       <c r="M50">
-        <v>214.11142335693683</v>
+        <v>121.29184355060517</v>
       </c>
       <c r="N50">
-        <v>301.80599568929927</v>
+        <v>220.94476665556246</v>
       </c>
       <c r="O50">
-        <v>0.7094339622641509</v>
+        <v>0.5489690721649485</v>
       </c>
       <c r="P50">
-        <v>827.9734296834738</v>
+        <v>601.90365555394214</v>
       </c>
       <c r="Q50">
-        <v>1029.5570569929305</v>
+        <v>735.15384987714219</v>
       </c>
       <c r="R50">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="S50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50">
         <v>6</v>
@@ -4134,12 +4136,12 @@
         <v>7</v>
       </c>
       <c r="V50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -4157,57 +4159,57 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>833</v>
+        <v>562</v>
       </c>
       <c r="H51">
-        <v>521</v>
+        <v>390</v>
       </c>
       <c r="I51">
-        <v>359</v>
+        <v>252</v>
       </c>
       <c r="J51">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K51">
-        <v>0.21448999046711154</v>
+        <v>0.1824742268041237</v>
       </c>
       <c r="L51">
-        <v>6.5634875617859171E-3</v>
+        <v>3.9627420540893866E-3</v>
       </c>
       <c r="M51">
-        <v>154.50124832530349</v>
+        <v>128.37784885001065</v>
       </c>
       <c r="N51">
-        <v>234.36421243548455</v>
+        <v>162.71145958896696</v>
       </c>
       <c r="O51">
-        <v>0.65923566878980888</v>
+        <v>0.78899082568807355</v>
       </c>
       <c r="P51">
-        <v>656.81690109307772</v>
+        <v>479.17778466108621</v>
       </c>
       <c r="Q51">
-        <v>835.94878320937153</v>
+        <v>642.63562709220434</v>
       </c>
       <c r="R51">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="S51">
         <v>4</v>
       </c>
       <c r="T51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U51">
         <v>7</v>
       </c>
       <c r="V51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -4225,43 +4227,43 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>392</v>
+        <v>363</v>
       </c>
       <c r="H52">
-        <v>258</v>
+        <v>198</v>
       </c>
       <c r="I52">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="J52">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K52">
-        <v>0.27412280701754388</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L52">
-        <v>7.7716906612307303E-3</v>
+        <v>5.7233076771265046E-3</v>
       </c>
       <c r="M52">
-        <v>264.05172705627461</v>
+        <v>176.03448470418309</v>
       </c>
       <c r="N52">
-        <v>318.21618388833093</v>
+        <v>270.82228416028164</v>
       </c>
       <c r="O52">
-        <v>0.82978723404255328</v>
+        <v>0.65</v>
       </c>
       <c r="P52">
-        <v>1150.994707681197</v>
+        <v>945.62114219298337</v>
       </c>
       <c r="Q52">
-        <v>1360.8819779054154</v>
+        <v>1108.1145126891524</v>
       </c>
       <c r="R52">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="S52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52">
         <v>6</v>
@@ -4270,12 +4272,12 @@
         <v>7</v>
       </c>
       <c r="V52" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4293,43 +4295,43 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>265</v>
+        <v>192</v>
       </c>
       <c r="H53">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="I53">
-        <v>274</v>
+        <v>211</v>
       </c>
       <c r="J53">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K53">
-        <v>0.19428571428571428</v>
+        <v>0.14503816793893129</v>
       </c>
       <c r="L53">
-        <v>7.7539250240307592E-3</v>
+        <v>6.134062523095115E-3</v>
       </c>
       <c r="M53">
-        <v>95.871229800814916</v>
+        <v>40.366833600343121</v>
       </c>
       <c r="N53">
-        <v>123.62342790105079</v>
+        <v>88.302448500750572</v>
       </c>
       <c r="O53">
-        <v>0.77551020408163285</v>
+        <v>0.45714285714285718</v>
       </c>
       <c r="P53">
-        <v>910.77668310774163</v>
+        <v>661.00690020561854</v>
       </c>
       <c r="Q53">
-        <v>1031.877183908771</v>
+        <v>721.55715060613318</v>
       </c>
       <c r="R53">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="S53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T53">
         <v>6</v>
@@ -4338,12 +4340,12 @@
         <v>7</v>
       </c>
       <c r="V53" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4361,43 +4363,43 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>725</v>
+        <v>437</v>
       </c>
       <c r="H54">
-        <v>301</v>
+        <v>212</v>
       </c>
       <c r="I54">
-        <v>410</v>
+        <v>256</v>
       </c>
       <c r="J54">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K54">
-        <v>0.22940226171243941</v>
+        <v>0.20210526315789473</v>
       </c>
       <c r="L54">
-        <v>8.1358644911750325E-3</v>
+        <v>4.8120622360049194E-3</v>
       </c>
       <c r="M54">
-        <v>148.52838080300384</v>
+        <v>102.18752599246665</v>
       </c>
       <c r="N54">
-        <v>209.12796017062939</v>
+        <v>149.71660784942787</v>
       </c>
       <c r="O54">
-        <v>0.71022727272727282</v>
+        <v>0.68253968253968256</v>
       </c>
       <c r="P54">
-        <v>861.46460865742222</v>
+        <v>556.09025772644645</v>
       </c>
       <c r="Q54">
-        <v>993.3578108104897</v>
+        <v>655.90132962606492</v>
       </c>
       <c r="R54">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54">
         <v>6</v>
@@ -4406,12 +4408,12 @@
         <v>7</v>
       </c>
       <c r="V54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -4429,57 +4431,57 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>256</v>
+        <v>189</v>
       </c>
       <c r="H55">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="I55">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="J55">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K55">
-        <v>0.21024258760107817</v>
+        <v>0.22745098039215686</v>
       </c>
       <c r="L55">
-        <v>5.1112719377600872E-3</v>
+        <v>3.9225941422594141E-3</v>
       </c>
       <c r="M55">
+        <v>80.374868386153025</v>
+      </c>
+      <c r="N55">
         <v>118.95480521150645</v>
       </c>
-      <c r="N55">
-        <v>126.99229205012178</v>
-      </c>
       <c r="O55">
-        <v>0.93670886075949356</v>
+        <v>0.67567567567567577</v>
       </c>
       <c r="P55">
-        <v>663.89641286962387</v>
+        <v>498.32418399414871</v>
       </c>
       <c r="Q55">
-        <v>851.97360489322193</v>
+        <v>657.46642339873165</v>
       </c>
       <c r="R55">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="S55">
         <v>4</v>
       </c>
       <c r="T55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U55">
         <v>7</v>
       </c>
       <c r="V55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4497,40 +4499,40 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>423</v>
+        <v>304</v>
       </c>
       <c r="H56">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="I56">
-        <v>285</v>
+        <v>214</v>
       </c>
       <c r="J56">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K56">
-        <v>0.1930835734870317</v>
+        <v>0.24312896405919662</v>
       </c>
       <c r="L56">
-        <v>6.398319247481259E-3</v>
+        <v>3.9289643250039292E-3</v>
       </c>
       <c r="M56">
-        <v>216.92356530633839</v>
+        <v>208.10553419632464</v>
       </c>
       <c r="N56">
-        <v>246.90487108038516</v>
+        <v>222.21438397234667</v>
       </c>
       <c r="O56">
-        <v>0.87857142857142856</v>
+        <v>0.9365079365079364</v>
       </c>
       <c r="P56">
-        <v>966.45620965750754</v>
+        <v>807.73164967725995</v>
       </c>
       <c r="Q56">
-        <v>1204.5430496278791</v>
+        <v>1014.073577651582</v>
       </c>
       <c r="R56">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="S56">
         <v>5</v>
@@ -4547,7 +4549,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -4565,57 +4567,57 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="H57">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="I57">
-        <v>247</v>
+        <v>192</v>
       </c>
       <c r="J57">
         <v>17</v>
       </c>
       <c r="K57">
-        <v>9.4133697135061395E-2</v>
+        <v>9.2982456140350875E-2</v>
       </c>
       <c r="L57">
-        <v>5.8908525063910196E-3</v>
+        <v>5.4389512586291051E-3</v>
       </c>
       <c r="M57">
-        <v>105.75278633806191</v>
+        <v>84.271751613143081</v>
       </c>
       <c r="N57">
-        <v>138.80053206870627</v>
+        <v>110.70994819765856</v>
       </c>
       <c r="O57">
-        <v>0.76190476190476175</v>
+        <v>0.76119402985074625</v>
       </c>
       <c r="P57">
-        <v>652.69297818022596</v>
+        <v>512.24005882498739</v>
       </c>
       <c r="Q57">
-        <v>736.96472979336897</v>
+        <v>596.51181043813051</v>
       </c>
       <c r="R57">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S57">
         <v>4</v>
       </c>
       <c r="T57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U57">
         <v>7</v>
       </c>
       <c r="V57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -4633,57 +4635,57 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="H58">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="I58">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="J58">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K58">
-        <v>0.14730878186968838</v>
+        <v>0.10989010989010989</v>
       </c>
       <c r="L58">
-        <v>2.1681895617159672E-3</v>
+        <v>1.7055988134964777E-3</v>
       </c>
       <c r="M58">
-        <v>96.739866498984227</v>
+        <v>54.174325239431177</v>
       </c>
       <c r="N58">
-        <v>94.805069169004554</v>
+        <v>79.326690529167067</v>
       </c>
       <c r="O58">
-        <v>1.0204081632653059</v>
+        <v>0.68292682926829285</v>
       </c>
       <c r="P58">
-        <v>369.54629002611978</v>
+        <v>251.523652897359</v>
       </c>
       <c r="Q58">
-        <v>479.8297378349618</v>
+        <v>321.17635677662764</v>
       </c>
       <c r="R58">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S58">
         <v>5</v>
       </c>
       <c r="T58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U58">
         <v>7</v>
       </c>
       <c r="V58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -4701,37 +4703,37 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>617</v>
+        <v>423</v>
       </c>
       <c r="H59">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="I59">
-        <v>396</v>
+        <v>302</v>
       </c>
       <c r="J59">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K59">
-        <v>0.10147299509001637</v>
+        <v>0.10094637223974763</v>
       </c>
       <c r="L59">
-        <v>4.973245199874095E-3</v>
+        <v>3.2277651720942122E-3</v>
       </c>
       <c r="M59">
-        <v>134.69587674770682</v>
+        <v>103.52658295484905</v>
       </c>
       <c r="N59">
-        <v>174.77068305280969</v>
+        <v>145.82776738801317</v>
       </c>
       <c r="O59">
-        <v>0.7707006369426751</v>
+        <v>0.70992366412213737</v>
       </c>
       <c r="P59">
-        <v>750.289429156648</v>
+        <v>585.53744768011404</v>
       </c>
       <c r="Q59">
-        <v>850.47644491940514</v>
+        <v>669.02662748241164</v>
       </c>
       <c r="R59">
         <v>31</v>
@@ -4740,18 +4742,18 @@
         <v>4</v>
       </c>
       <c r="T59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U59">
         <v>7</v>
       </c>
       <c r="V59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -4769,40 +4771,40 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>532</v>
+        <v>403</v>
       </c>
       <c r="H60">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="I60">
-        <v>346</v>
+        <v>244</v>
       </c>
       <c r="J60">
         <v>37</v>
       </c>
       <c r="K60">
-        <v>0.1895551257253385</v>
+        <v>0.16222222222222221</v>
       </c>
       <c r="L60">
-        <v>5.7055443006573782E-3</v>
+        <v>3.4037318023375025E-3</v>
       </c>
       <c r="M60">
-        <v>223.33984051881021</v>
+        <v>191.90682592727393</v>
       </c>
       <c r="N60">
-        <v>314.33014591536249</v>
+        <v>266.353439433544</v>
       </c>
       <c r="O60">
-        <v>0.71052631578947367</v>
+        <v>0.72049689440993792</v>
       </c>
       <c r="P60">
-        <v>1110.0817258379379</v>
+        <v>861.92634748370449</v>
       </c>
       <c r="Q60">
-        <v>1293.7167058200707</v>
+        <v>1045.5613274658374</v>
       </c>
       <c r="R60">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S60">
         <v>5</v>
@@ -4819,7 +4821,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -4837,57 +4839,57 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="H61">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="I61">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="J61">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K61">
-        <v>0.13147410358565736</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L61">
-        <v>6.8465795629600043E-3</v>
+        <v>4.5152722443559095E-3</v>
       </c>
       <c r="M61">
+        <v>318.44091328853932</v>
+      </c>
+      <c r="N61">
         <v>303.58033733507415</v>
       </c>
-      <c r="N61">
-        <v>295.08857964737979</v>
-      </c>
       <c r="O61">
-        <v>1.028776978417266</v>
+        <v>1.048951048951049</v>
       </c>
       <c r="P61">
-        <v>1222.813107027991</v>
+        <v>1046.6091350083325</v>
       </c>
       <c r="Q61">
-        <v>1407.5088367353437</v>
+        <v>1263.1489560445393</v>
       </c>
       <c r="R61">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S61">
         <v>5</v>
       </c>
       <c r="T61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U61">
         <v>7</v>
       </c>
       <c r="V61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -4905,40 +4907,40 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H62">
         <v>80</v>
       </c>
       <c r="I62">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="J62">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K62">
-        <v>0.15723270440251572</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="L62">
-        <v>5.6080510102174078E-3</v>
+        <v>3.2850404312668464E-3</v>
       </c>
       <c r="M62">
-        <v>135.20784757384695</v>
+        <v>80.020971013093089</v>
       </c>
       <c r="N62">
-        <v>85.539658669168475</v>
+        <v>140.72653522992232</v>
       </c>
       <c r="O62">
-        <v>1.5806451612903227</v>
+        <v>0.56862745098039225</v>
       </c>
       <c r="P62">
-        <v>582.22154771595319</v>
+        <v>538.07204646735011</v>
       </c>
       <c r="Q62">
-        <v>648.44579958885777</v>
+        <v>620.85236130848079</v>
       </c>
       <c r="R62">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S62">
         <v>5</v>
@@ -4950,12 +4952,12 @@
         <v>7</v>
       </c>
       <c r="V62" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4973,57 +4975,57 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="H63">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I63">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K63">
-        <v>0.13513513513513514</v>
+        <v>0.10679611650485436</v>
       </c>
       <c r="L63">
-        <v>1.6602102933038186E-3</v>
+        <v>2.1485573971761819E-3</v>
       </c>
       <c r="M63">
+        <v>39.44081686314037</v>
+      </c>
+      <c r="N63">
         <v>74.499320741487352</v>
       </c>
-      <c r="N63">
-        <v>153.38095446776808</v>
-      </c>
       <c r="O63">
-        <v>0.48571428571428571</v>
+        <v>0.52941176470588247</v>
       </c>
       <c r="P63">
-        <v>411.9374205705771</v>
+        <v>214.73333625487533</v>
       </c>
       <c r="Q63">
-        <v>477.67211534247775</v>
+        <v>241.02721416363556</v>
       </c>
       <c r="R63">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S63">
         <v>4</v>
       </c>
       <c r="T63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U63">
         <v>7</v>
       </c>
       <c r="V63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -5041,40 +5043,40 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>819</v>
+        <v>647</v>
       </c>
       <c r="H64">
-        <v>454</v>
+        <v>350</v>
       </c>
       <c r="I64">
-        <v>364</v>
+        <v>437</v>
       </c>
       <c r="J64">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="K64">
-        <v>0.18566493955094993</v>
+        <v>0.16274309109518936</v>
       </c>
       <c r="L64">
-        <v>6.8792688319984276E-3</v>
+        <v>6.7963608903592364E-3</v>
       </c>
       <c r="M64">
-        <v>206.48524031473963</v>
+        <v>152.35804139728361</v>
       </c>
       <c r="N64">
-        <v>248.5841728060943</v>
+        <v>198.46639603067206</v>
       </c>
       <c r="O64">
-        <v>0.83064516129032262</v>
+        <v>0.76767676767676774</v>
       </c>
       <c r="P64">
-        <v>820.92918358141628</v>
+        <v>788.85380644514601</v>
       </c>
       <c r="Q64">
-        <v>977.29664712073384</v>
+        <v>897.10820428005809</v>
       </c>
       <c r="R64">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="S64">
         <v>4</v>
@@ -5091,7 +5093,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -5109,43 +5111,43 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="H65">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I65">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J65">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="K65">
-        <v>0.14268585131894485</v>
+        <v>8.8842975206611566E-2</v>
       </c>
       <c r="L65">
-        <v>7.0171119044687928E-3</v>
+        <v>8.5487906588824023E-3</v>
       </c>
       <c r="M65">
-        <v>207.58616215815471</v>
+        <v>155.68962161861603</v>
       </c>
       <c r="N65">
-        <v>203.87926640533053</v>
+        <v>216.8534015402152</v>
       </c>
       <c r="O65">
-        <v>1.0181818181818181</v>
+        <v>0.71794871794871784</v>
       </c>
       <c r="P65">
-        <v>826.63775287979468</v>
+        <v>859.99981465521239</v>
       </c>
       <c r="Q65">
-        <v>999.00840538611953</v>
+        <v>943.40496909375656</v>
       </c>
       <c r="R65">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="S65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T65">
         <v>6</v>
@@ -5154,12 +5156,12 @@
         <v>7</v>
       </c>
       <c r="V65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -5177,43 +5179,43 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H66">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I66">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K66">
-        <v>4.975124378109453E-2</v>
+        <v>5.6179775280898875E-2</v>
       </c>
       <c r="L66">
-        <v>1.4025245441795231E-3</v>
+        <v>9.3970242756460454E-4</v>
       </c>
       <c r="M66">
-        <v>53.574907461523473</v>
+        <v>34.093122930060396</v>
       </c>
       <c r="N66">
-        <v>107.14981492304695</v>
+        <v>43.834015195791935</v>
       </c>
       <c r="O66">
-        <v>0.5</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="P66">
-        <v>267.8745373076174</v>
+        <v>160.72472238457044</v>
       </c>
       <c r="Q66">
-        <v>355.54256769920124</v>
+        <v>233.78141437755696</v>
       </c>
       <c r="R66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T66">
         <v>5</v>
@@ -5222,12 +5224,12 @@
         <v>7</v>
       </c>
       <c r="V66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -5245,43 +5247,43 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="H67">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="I67">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J67">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K67">
-        <v>0.14102564102564102</v>
+        <v>0.16129032258064516</v>
       </c>
       <c r="L67">
-        <v>4.0114613180515755E-3</v>
+        <v>4.1241365089184452E-3</v>
       </c>
       <c r="M67">
-        <v>156.61466650288662</v>
+        <v>128.97678417884782</v>
       </c>
       <c r="N67">
-        <v>276.37882324038816</v>
+        <v>85.984522785898534</v>
       </c>
       <c r="O67">
-        <v>0.56666666666666665</v>
+        <v>1.5000000000000002</v>
       </c>
       <c r="P67">
-        <v>669.4509274044957</v>
+        <v>506.69450927404495</v>
       </c>
       <c r="Q67">
-        <v>826.06559390738244</v>
+        <v>598.82078368750763</v>
       </c>
       <c r="R67">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T67">
         <v>5</v>
@@ -5295,7 +5297,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -5313,43 +5315,43 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="H68">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="I68">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="J68">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K68">
-        <v>0.1464968152866242</v>
+        <v>9.0410958904109592E-2</v>
       </c>
       <c r="L68">
-        <v>3.7787513691128149E-3</v>
+        <v>3.0266343825665859E-3</v>
       </c>
       <c r="M68">
-        <v>82.701781653037514</v>
+        <v>38.499105252276081</v>
       </c>
       <c r="N68">
-        <v>99.812495098493557</v>
+        <v>92.683031162886863</v>
       </c>
       <c r="O68">
-        <v>0.82857142857142851</v>
+        <v>0.41538461538461535</v>
       </c>
       <c r="P68">
-        <v>400.67587318109548</v>
+        <v>265.21605840456857</v>
       </c>
       <c r="Q68">
-        <v>469.11872696291971</v>
+        <v>337.93659054775674</v>
       </c>
       <c r="R68">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="S68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T68">
         <v>5</v>
@@ -5358,12 +5360,12 @@
         <v>7</v>
       </c>
       <c r="V68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -5381,57 +5383,57 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>698</v>
+        <v>495</v>
       </c>
       <c r="H69">
-        <v>381</v>
+        <v>262</v>
       </c>
       <c r="I69">
-        <v>281</v>
+        <v>207</v>
       </c>
       <c r="J69">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="K69">
-        <v>0.23157894736842105</v>
+        <v>0.29306930693069305</v>
       </c>
       <c r="L69">
-        <v>3.6452411209952512E-3</v>
+        <v>3.0640384026146463E-3</v>
       </c>
       <c r="M69">
-        <v>136.68334076865395</v>
+        <v>130.03901170351105</v>
       </c>
       <c r="N69">
-        <v>224.95799834840966</v>
+        <v>118.64873330612322</v>
       </c>
       <c r="O69">
-        <v>0.60759493670886067</v>
+        <v>1.0960000000000001</v>
       </c>
       <c r="P69">
-        <v>662.53452678139206</v>
+        <v>469.84898389224793</v>
       </c>
       <c r="Q69">
-        <v>859.01682913633215</v>
+        <v>597.989615862861</v>
       </c>
       <c r="R69">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="S69">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U69">
         <v>7</v>
       </c>
       <c r="V69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -5449,57 +5451,57 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>950</v>
+        <v>735</v>
       </c>
       <c r="H70">
-        <v>581</v>
+        <v>423</v>
       </c>
       <c r="I70">
-        <v>531</v>
+        <v>396</v>
       </c>
       <c r="J70">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="K70">
-        <v>0.18194740582800284</v>
+        <v>0.19724284199363734</v>
       </c>
       <c r="L70">
-        <v>5.1362752169256658E-3</v>
+        <v>3.7270243992777443E-3</v>
       </c>
       <c r="M70">
-        <v>216.55038725845463</v>
+        <v>163.28597748923795</v>
       </c>
       <c r="N70">
-        <v>290.77128611719917</v>
+        <v>206.07214271369071</v>
       </c>
       <c r="O70">
-        <v>0.74474474474474472</v>
+        <v>0.79237288135593209</v>
       </c>
       <c r="P70">
-        <v>970.9839944814579</v>
+        <v>715.14019018013857</v>
       </c>
       <c r="Q70">
-        <v>1225.0814246919833</v>
+        <v>916.84639766684427</v>
       </c>
       <c r="R70">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="S70">
         <v>5</v>
       </c>
       <c r="T70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U70">
         <v>7</v>
       </c>
       <c r="V70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -5517,40 +5519,40 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>586</v>
+        <v>425</v>
       </c>
       <c r="H71">
-        <v>402</v>
+        <v>281</v>
       </c>
       <c r="I71">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="J71">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K71">
-        <v>0.15973920130399347</v>
+        <v>0.11318795430944964</v>
       </c>
       <c r="L71">
-        <v>2.2938410368161487E-3</v>
+        <v>1.6554150177181138E-3</v>
       </c>
       <c r="M71">
-        <v>135.89572268212856</v>
+        <v>78.517528660785402</v>
       </c>
       <c r="N71">
-        <v>167.60472464129191</v>
+        <v>133.63079397075975</v>
       </c>
       <c r="O71">
-        <v>0.81081081081081074</v>
+        <v>0.58757062146892658</v>
       </c>
       <c r="P71">
-        <v>523.19853232619505</v>
+        <v>362.38859381900954</v>
       </c>
       <c r="Q71">
-        <v>672.68382727653648</v>
+        <v>480.16488681018762</v>
       </c>
       <c r="R71">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="S71">
         <v>4</v>
@@ -5567,7 +5569,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -5585,40 +5587,40 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="H72">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="I72">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J72">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="K72">
-        <v>0.33152173913043476</v>
+        <v>0.1857707509881423</v>
       </c>
       <c r="L72">
-        <v>7.5858145268348186E-3</v>
+        <v>5.2010402080416079E-3</v>
       </c>
       <c r="M72">
-        <v>58</v>
+        <v>283.30395366406447</v>
       </c>
       <c r="N72">
-        <v>55</v>
+        <v>352.55603122639138</v>
       </c>
       <c r="O72">
-        <v>1.0545454545454545</v>
+        <v>0.80357142857142849</v>
       </c>
       <c r="P72">
-        <v>1265.4243263661547</v>
+        <v>1473.1805590531351</v>
       </c>
       <c r="Q72">
-        <v>1643.1629312515738</v>
+        <v>2115.3361873583481</v>
       </c>
       <c r="R72">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="S72">
         <v>5</v>
@@ -5635,7 +5637,7 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -5653,40 +5655,40 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="H73">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I73">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="J73">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K73">
-        <v>0.15580736543909349</v>
+        <v>0.13740458015267176</v>
       </c>
       <c r="L73">
-        <v>7.2629455279085405E-3</v>
+        <v>1.0085917071348524E-2</v>
       </c>
       <c r="M73">
-        <v>143.7258153676064</v>
+        <v>107.7943615257048</v>
       </c>
       <c r="N73">
-        <v>127.14206744057491</v>
+        <v>160.30956329463791</v>
       </c>
       <c r="O73">
-        <v>1.1304347826086956</v>
+        <v>0.67241379310344829</v>
       </c>
       <c r="P73">
-        <v>771.14427860696514</v>
+        <v>948.03758982863451</v>
       </c>
       <c r="Q73">
-        <v>912.10613598673297</v>
+        <v>1080.7075732448866</v>
       </c>
       <c r="R73">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S73">
         <v>5</v>
@@ -5698,12 +5700,12 @@
         <v>7</v>
       </c>
       <c r="V73" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -5721,57 +5723,57 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>330</v>
+        <v>221</v>
       </c>
       <c r="H74">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="I74">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="J74">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K74">
-        <v>0.14503816793893129</v>
+        <v>0.16254416961130741</v>
       </c>
       <c r="L74">
-        <v>6.782215523737754E-3</v>
+        <v>5.7038935273208231E-3</v>
       </c>
       <c r="M74">
-        <v>124.21503001863225</v>
+        <v>108.11308168288363</v>
       </c>
       <c r="N74">
-        <v>209.32532836473212</v>
+        <v>128.81558668598902</v>
       </c>
       <c r="O74">
-        <v>0.59340659340659341</v>
+        <v>0.83928571428571419</v>
       </c>
       <c r="P74">
-        <v>887.9074367998528</v>
+        <v>618.77487175948283</v>
       </c>
       <c r="Q74">
-        <v>984.51912681434442</v>
+        <v>687.7832217698342</v>
       </c>
       <c r="R74">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S74">
         <v>4</v>
       </c>
       <c r="T74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U74">
         <v>7</v>
       </c>
       <c r="V74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -5789,43 +5791,43 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>830</v>
+        <v>759</v>
       </c>
       <c r="H75">
-        <v>461</v>
+        <v>429</v>
       </c>
       <c r="I75">
-        <v>378</v>
+        <v>302</v>
       </c>
       <c r="J75">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K75">
-        <v>0.28004179728317657</v>
+        <v>0.23882224645583425</v>
       </c>
       <c r="L75">
-        <v>9.2747851603437442E-3</v>
+        <v>6.4931366406561488E-3</v>
       </c>
       <c r="M75">
-        <v>315.72496022484569</v>
+        <v>260.00879077340232</v>
       </c>
       <c r="N75">
-        <v>255.05624237771849</v>
+        <v>271.15202466369101</v>
       </c>
       <c r="O75">
-        <v>1.2378640776699028</v>
+        <v>0.95890410958904104</v>
       </c>
       <c r="P75">
-        <v>1038.7970259946883</v>
+        <v>939.74605808101137</v>
       </c>
       <c r="Q75">
-        <v>1280.2337602842763</v>
+        <v>1173.7539697770733</v>
       </c>
       <c r="R75">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T75">
         <v>6</v>
@@ -5834,12 +5836,12 @@
         <v>7</v>
       </c>
       <c r="V75" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -5857,46 +5859,46 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="H76">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I76">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="J76">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K76">
-        <v>7.3446327683615822E-2</v>
+        <v>5.185185185185185E-2</v>
       </c>
       <c r="L76">
-        <v>3.0346820809248553E-3</v>
+        <v>1.9421665947345706E-3</v>
       </c>
       <c r="M76">
-        <v>49.7084408756333</v>
+        <v>34.413535990823057</v>
       </c>
       <c r="N76">
-        <v>99.416881751266601</v>
+        <v>45.884714654430745</v>
       </c>
       <c r="O76">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P76">
-        <v>466.4945989867125</v>
+        <v>313.54555013861005</v>
       </c>
       <c r="Q76">
-        <v>592.67756428639711</v>
+        <v>370.90144345664851</v>
       </c>
       <c r="R76">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="S76">
         <v>4</v>
       </c>
       <c r="T76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U76">
         <v>7</v>
@@ -5907,7 +5909,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5925,43 +5927,43 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>297</v>
+        <v>164</v>
       </c>
       <c r="H77">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="I77">
-        <v>236</v>
+        <v>121</v>
       </c>
       <c r="J77">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="K77">
-        <v>0.16818181818181818</v>
+        <v>9.2753623188405798E-2</v>
       </c>
       <c r="L77">
-        <v>4.9271092599177122E-3</v>
+        <v>2.2281931974572383E-3</v>
       </c>
       <c r="M77">
-        <v>142.97450999221107</v>
+        <v>55.482645668619227</v>
       </c>
       <c r="N77">
-        <v>162.18004118519468</v>
+        <v>151.51030163353713</v>
       </c>
       <c r="O77">
-        <v>0.8815789473684208</v>
+        <v>0.36619718309859156</v>
       </c>
       <c r="P77">
-        <v>808.76625801564182</v>
+        <v>465.20064445226888</v>
       </c>
       <c r="Q77">
-        <v>994.41972621448303</v>
+        <v>593.23751907215944</v>
       </c>
       <c r="R77">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="S77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T77">
         <v>6</v>
@@ -5970,12 +5972,12 @@
         <v>7</v>
       </c>
       <c r="V77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -5993,40 +5995,40 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>1399</v>
+        <v>1023</v>
       </c>
       <c r="H78">
-        <v>1063</v>
+        <v>816</v>
       </c>
       <c r="I78">
-        <v>898</v>
+        <v>674</v>
       </c>
       <c r="J78">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="K78">
-        <v>0.150199203187251</v>
+        <v>0.20907617504051865</v>
       </c>
       <c r="L78">
-        <v>6.4037155624362269E-3</v>
+        <v>5.0775855065399297E-3</v>
       </c>
       <c r="M78">
-        <v>301.81659421802925</v>
+        <v>189.82175736982973</v>
       </c>
       <c r="N78">
-        <v>370.78516606240072</v>
+        <v>326.49342267610717</v>
       </c>
       <c r="O78">
-        <v>0.81399317406143346</v>
+        <v>0.58139534883720922</v>
       </c>
       <c r="P78">
-        <v>1240.8015540074537</v>
+        <v>942.7813949368209</v>
       </c>
       <c r="Q78">
-        <v>1495.1627088830255</v>
+        <v>1134.5013698803491</v>
       </c>
       <c r="R78">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="S78">
         <v>5</v>
@@ -6043,7 +6045,7 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -6061,57 +6063,57 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H79">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I79">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K79">
-        <v>7.4468085106382975E-2</v>
+        <v>1.282051282051282E-2</v>
       </c>
       <c r="L79">
-        <v>1.2736419792396358E-3</v>
+        <v>8.7591240875912405E-4</v>
       </c>
       <c r="M79">
-        <v>34.506131000061622</v>
+        <v>27.111960071476986</v>
       </c>
       <c r="N79">
-        <v>73.941709285846329</v>
+        <v>27.111960071476986</v>
       </c>
       <c r="O79">
-        <v>0.46666666666666667</v>
+        <v>1</v>
       </c>
       <c r="P79">
-        <v>197.17789142892354</v>
+        <v>125.70090578593876</v>
       </c>
       <c r="Q79">
-        <v>211.9662332860928</v>
+        <v>133.09507671452337</v>
       </c>
       <c r="R79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S79">
         <v>5</v>
       </c>
       <c r="T79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U79">
         <v>7</v>
       </c>
       <c r="V79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -6129,43 +6131,43 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>460</v>
+        <v>362</v>
       </c>
       <c r="H80">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="I80">
-        <v>365</v>
+        <v>260</v>
       </c>
       <c r="J80">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K80">
-        <v>0.13138686131386862</v>
+        <v>8.1656804733727814E-2</v>
       </c>
       <c r="L80">
-        <v>6.2228169956507189E-3</v>
+        <v>3.2524895599100544E-3</v>
       </c>
       <c r="M80">
-        <v>106.16869187082324</v>
+        <v>82.898841597766094</v>
       </c>
       <c r="N80">
-        <v>138.16473599627682</v>
+        <v>109.0774231549554</v>
       </c>
       <c r="O80">
-        <v>0.76842105263157889</v>
+        <v>0.7599999999999999</v>
       </c>
       <c r="P80">
-        <v>775.17688722121625</v>
+        <v>570.11133168990011</v>
       </c>
       <c r="Q80">
-        <v>923.52218271195568</v>
+        <v>674.82565791865727</v>
       </c>
       <c r="R80">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="S80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T80">
         <v>6</v>
@@ -6174,7 +6176,7 @@
         <v>7</v>
       </c>
       <c r="V80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6183,6 +6185,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -6393,22 +6410,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A17AE3-A467-46C2-B8E3-63736AD8DD9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6425,21 +6444,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2F96AD51-81B6-4787-A2E9-D6C9007A1979}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ED5A2E5F-0875-44CB-B5A9-B787A2EB62A5}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V80"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:V80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -809,7 +809,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -827,57 +827,57 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="H2">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="I2">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="J2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K2">
-        <v>0.14285714285714285</v>
+        <v>0.10734463276836158</v>
       </c>
       <c r="L2">
-        <v>2.9494742241600409E-3</v>
+        <v>1.8000232261061433E-3</v>
       </c>
       <c r="M2">
-        <v>74.418091865000065</v>
+        <v>68.905640615740808</v>
       </c>
       <c r="N2">
-        <v>157.10486060388902</v>
+        <v>88.199219988148229</v>
       </c>
       <c r="O2">
-        <v>0.47368421052631582</v>
+        <v>0.78125</v>
       </c>
       <c r="P2">
-        <v>534.70777117814862</v>
+        <v>405.16516682055595</v>
       </c>
       <c r="Q2">
-        <v>683.54395490814886</v>
+        <v>496.1206124333338</v>
       </c>
       <c r="R2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2">
         <v>6</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -895,57 +895,57 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>634</v>
+        <v>337</v>
       </c>
       <c r="H3">
-        <v>310</v>
+        <v>221</v>
       </c>
       <c r="I3">
-        <v>306</v>
+        <v>170</v>
       </c>
       <c r="J3">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>0.14410480349344978</v>
+        <v>9.5676172953081881E-2</v>
       </c>
       <c r="L3">
-        <v>2.6002463391268647E-3</v>
+        <v>2.1049741454262573E-3</v>
       </c>
       <c r="M3">
+        <v>68</v>
+      </c>
+      <c r="N3">
         <v>132</v>
       </c>
-      <c r="N3">
-        <v>164</v>
-      </c>
       <c r="O3">
-        <v>0.80487804878048785</v>
+        <v>0.51515151515151514</v>
       </c>
       <c r="P3">
-        <v>572.05502194832559</v>
+        <v>352.79734003437744</v>
       </c>
       <c r="Q3">
-        <v>669.50288057674697</v>
+        <v>498.96912797700952</v>
       </c>
       <c r="R3">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -963,40 +963,40 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>9.0909090909090912E-2</v>
+        <v>8.6419753086419748E-2</v>
       </c>
       <c r="L4">
-        <v>5.1764705882352945E-3</v>
+        <v>5.745947055202134E-3</v>
       </c>
       <c r="M4">
-        <v>55.949272659455424</v>
+        <v>43.516100957354219</v>
       </c>
       <c r="N4">
-        <v>55.949272659455424</v>
+        <v>43.516100957354219</v>
       </c>
       <c r="O4">
         <v>1</v>
       </c>
       <c r="P4">
-        <v>416.51125202039037</v>
+        <v>404.07808031828915</v>
       </c>
       <c r="Q4">
-        <v>509.76003978614943</v>
+        <v>534.62638319035182</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S4">
         <v>4</v>
@@ -1005,15 +1005,15 @@
         <v>5</v>
       </c>
       <c r="U4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1031,40 +1031,40 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>422</v>
+        <v>315</v>
       </c>
       <c r="H5">
-        <v>221</v>
+        <v>177</v>
       </c>
       <c r="I5">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="J5">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>0.13006993006993006</v>
+      </c>
+      <c r="L5">
+        <v>3.7822235493182046E-3</v>
+      </c>
+      <c r="M5">
+        <v>106.72358591248667</v>
+      </c>
+      <c r="N5">
+        <v>120.86767561173188</v>
+      </c>
+      <c r="O5">
+        <v>0.88297872340425543</v>
+      </c>
+      <c r="P5">
+        <v>502.75809749135277</v>
+      </c>
+      <c r="Q5">
+        <v>622.33994676678969</v>
+      </c>
+      <c r="R5">
         <v>35</v>
-      </c>
-      <c r="K5">
-        <v>0.13200498132004981</v>
-      </c>
-      <c r="L5">
-        <v>3.8907214750909243E-3</v>
-      </c>
-      <c r="M5">
-        <v>123.43932828432192</v>
-      </c>
-      <c r="N5">
-        <v>160.72829203687749</v>
-      </c>
-      <c r="O5">
-        <v>0.76800000000000002</v>
-      </c>
-      <c r="P5">
-        <v>565.76358796980878</v>
-      </c>
-      <c r="Q5">
-        <v>700.77535328078591</v>
-      </c>
-      <c r="R5">
-        <v>33</v>
       </c>
       <c r="S5">
         <v>4</v>
@@ -1073,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="U5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V5" t="s">
         <v>106</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1099,40 +1099,40 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>1534</v>
+        <v>1284</v>
       </c>
       <c r="H6">
-        <v>770</v>
+        <v>675</v>
       </c>
       <c r="I6">
-        <v>1262</v>
+        <v>1109</v>
       </c>
       <c r="J6">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K6">
-        <v>5.2247282167775431E-2</v>
+        <v>3.2735685367264317E-2</v>
       </c>
       <c r="L6">
-        <v>2.8100293174433497E-3</v>
+        <v>2.2328963993942727E-3</v>
       </c>
       <c r="M6">
-        <v>76.698454941967924</v>
+        <v>67.457677238116361</v>
       </c>
       <c r="N6">
-        <v>101.18651585717454</v>
+        <v>88.480446514378656</v>
       </c>
       <c r="O6">
-        <v>0.75799086757990874</v>
+        <v>0.76240208877284588</v>
       </c>
       <c r="P6">
-        <v>469.43150735565905</v>
+        <v>412.13868559177945</v>
       </c>
       <c r="Q6">
-        <v>536.65816515117911</v>
+        <v>471.74170178162194</v>
       </c>
       <c r="R6">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="S6">
         <v>4</v>
@@ -1141,7 +1141,7 @@
         <v>5</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V6" t="s">
         <v>106</v>
@@ -1149,7 +1149,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1167,40 +1167,40 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>1534</v>
+        <v>1284</v>
       </c>
       <c r="H7">
-        <v>770</v>
+        <v>675</v>
       </c>
       <c r="I7">
-        <v>1262</v>
+        <v>1109</v>
       </c>
       <c r="J7">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K7">
-        <v>5.2247282167775431E-2</v>
+        <v>3.2735685367264317E-2</v>
       </c>
       <c r="L7">
-        <v>2.8100293174433497E-3</v>
+        <v>2.2328963993942727E-3</v>
       </c>
       <c r="M7">
-        <v>76.698454941967924</v>
+        <v>67.457677238116361</v>
       </c>
       <c r="N7">
-        <v>101.18651585717454</v>
+        <v>88.480446514378656</v>
       </c>
       <c r="O7">
-        <v>0.75799086757990874</v>
+        <v>0.76240208877284588</v>
       </c>
       <c r="P7">
-        <v>469.43150735565905</v>
+        <v>412.13868559177945</v>
       </c>
       <c r="Q7">
-        <v>536.65816515117911</v>
+        <v>471.74170178162194</v>
       </c>
       <c r="R7">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="S7">
         <v>4</v>
@@ -1209,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="U7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V7" t="s">
         <v>106</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1235,40 +1235,40 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>1534</v>
+        <v>1284</v>
       </c>
       <c r="H8">
-        <v>770</v>
+        <v>675</v>
       </c>
       <c r="I8">
-        <v>1262</v>
+        <v>1109</v>
       </c>
       <c r="J8">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K8">
-        <v>5.2247282167775431E-2</v>
+        <v>3.2735685367264317E-2</v>
       </c>
       <c r="L8">
-        <v>2.8100293174433497E-3</v>
+        <v>2.2328963993942727E-3</v>
       </c>
       <c r="M8">
-        <v>76.698454941967924</v>
+        <v>67.457677238116361</v>
       </c>
       <c r="N8">
-        <v>101.18651585717454</v>
+        <v>88.480446514378656</v>
       </c>
       <c r="O8">
-        <v>0.75799086757990874</v>
+        <v>0.76240208877284588</v>
       </c>
       <c r="P8">
-        <v>469.43150735565905</v>
+        <v>412.13868559177945</v>
       </c>
       <c r="Q8">
-        <v>536.65816515117911</v>
+        <v>471.74170178162194</v>
       </c>
       <c r="R8">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="S8">
         <v>4</v>
@@ -1277,7 +1277,7 @@
         <v>5</v>
       </c>
       <c r="U8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V8" t="s">
         <v>106</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1303,40 +1303,40 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>1534</v>
+        <v>1284</v>
       </c>
       <c r="H9">
-        <v>770</v>
+        <v>675</v>
       </c>
       <c r="I9">
-        <v>1262</v>
+        <v>1109</v>
       </c>
       <c r="J9">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K9">
-        <v>5.2247282167775431E-2</v>
+        <v>3.2735685367264317E-2</v>
       </c>
       <c r="L9">
-        <v>2.8100293174433497E-3</v>
+        <v>2.2328963993942727E-3</v>
       </c>
       <c r="M9">
-        <v>76.698454941967924</v>
+        <v>67.457677238116361</v>
       </c>
       <c r="N9">
-        <v>101.18651585717454</v>
+        <v>88.480446514378656</v>
       </c>
       <c r="O9">
-        <v>0.75799086757990874</v>
+        <v>0.76240208877284588</v>
       </c>
       <c r="P9">
-        <v>469.43150735565905</v>
+        <v>412.13868559177945</v>
       </c>
       <c r="Q9">
-        <v>536.65816515117911</v>
+        <v>471.74170178162194</v>
       </c>
       <c r="R9">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="S9">
         <v>4</v>
@@ -1345,7 +1345,7 @@
         <v>5</v>
       </c>
       <c r="U9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V9" t="s">
         <v>106</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1371,40 +1371,40 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>1534</v>
+        <v>1284</v>
       </c>
       <c r="H10">
-        <v>770</v>
+        <v>675</v>
       </c>
       <c r="I10">
-        <v>1262</v>
+        <v>1109</v>
       </c>
       <c r="J10">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K10">
-        <v>5.2247282167775431E-2</v>
+        <v>3.2735685367264317E-2</v>
       </c>
       <c r="L10">
-        <v>2.8100293174433497E-3</v>
+        <v>2.2328963993942727E-3</v>
       </c>
       <c r="M10">
-        <v>76.698454941967924</v>
+        <v>67.457677238116361</v>
       </c>
       <c r="N10">
-        <v>101.18651585717454</v>
+        <v>88.480446514378656</v>
       </c>
       <c r="O10">
-        <v>0.75799086757990874</v>
+        <v>0.76240208877284588</v>
       </c>
       <c r="P10">
-        <v>469.43150735565905</v>
+        <v>412.13868559177945</v>
       </c>
       <c r="Q10">
-        <v>536.65816515117911</v>
+        <v>471.74170178162194</v>
       </c>
       <c r="R10">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="S10">
         <v>4</v>
@@ -1413,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="U10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V10" t="s">
         <v>106</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1439,40 +1439,40 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>258</v>
+        <v>141</v>
       </c>
       <c r="H11">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I11">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.12297734627831715</v>
+        <v>0.12536443148688048</v>
       </c>
       <c r="L11">
-        <v>2.8212060655930411E-3</v>
+        <v>2.2371364653243847E-3</v>
       </c>
       <c r="M11">
+        <v>52</v>
+      </c>
+      <c r="N11">
         <v>65</v>
       </c>
-      <c r="N11">
-        <v>80</v>
-      </c>
       <c r="O11">
-        <v>0.8125</v>
+        <v>0.8</v>
       </c>
       <c r="P11">
-        <v>419.85695571160062</v>
+        <v>288.04139984865623</v>
       </c>
       <c r="Q11">
-        <v>463.79547433258205</v>
+        <v>390.56460996427961</v>
       </c>
       <c r="R11">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="S11">
         <v>4</v>
@@ -1481,7 +1481,7 @@
         <v>5</v>
       </c>
       <c r="U11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V11" t="s">
         <v>106</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1507,40 +1507,40 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="H12">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="I12">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="J12">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>0.2780487804878049</v>
+        <v>0.17813765182186234</v>
       </c>
       <c r="L12">
-        <v>5.052418845522294E-3</v>
+        <v>8.4400465657741564E-3</v>
       </c>
       <c r="M12">
-        <v>164.95779021250445</v>
+        <v>129.37865899019957</v>
       </c>
       <c r="N12">
-        <v>210.24032085907427</v>
+        <v>177.8956561115244</v>
       </c>
       <c r="O12">
-        <v>0.78461538461538471</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="P12">
-        <v>811.85108516350238</v>
+        <v>782.74088689070743</v>
       </c>
       <c r="Q12">
-        <v>957.40207652747677</v>
+        <v>889.47828055762204</v>
       </c>
       <c r="R12">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S12">
         <v>5</v>
@@ -1549,7 +1549,7 @@
         <v>6</v>
       </c>
       <c r="U12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V12" t="s">
         <v>106</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1575,37 +1575,37 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>987</v>
+        <v>766</v>
       </c>
       <c r="H13">
-        <v>392</v>
+        <v>343</v>
       </c>
       <c r="I13">
-        <v>540</v>
+        <v>449</v>
       </c>
       <c r="J13">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.26074498567335241</v>
+        <v>0.16921397379912664</v>
       </c>
       <c r="L13">
-        <v>6.2139239015196138E-3</v>
+        <v>5.5707171594969471E-3</v>
       </c>
       <c r="M13">
-        <v>203.15275310834815</v>
+        <v>169.84902309058614</v>
       </c>
       <c r="N13">
-        <v>232.01598579040854</v>
+        <v>210.92362344582591</v>
       </c>
       <c r="O13">
-        <v>0.87559808612440193</v>
+        <v>0.8052631578947369</v>
       </c>
       <c r="P13">
-        <v>1095.6927175843693</v>
+        <v>879.21847246891639</v>
       </c>
       <c r="Q13">
-        <v>1175.6216696269983</v>
+        <v>965.80817051509769</v>
       </c>
       <c r="R13">
         <v>65</v>
@@ -1617,7 +1617,7 @@
         <v>6</v>
       </c>
       <c r="U13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V13" t="s">
         <v>106</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1643,57 +1643,57 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="H14">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I14">
-        <v>182</v>
+        <v>136</v>
       </c>
       <c r="J14">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>9.2936802973977689E-2</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="L14">
-        <v>6.0420526866994282E-3</v>
+        <v>3.0585196764765852E-3</v>
       </c>
       <c r="M14">
         <v>53.040466756107449</v>
       </c>
       <c r="N14">
-        <v>96.720851143490066</v>
+        <v>53.040466756107449</v>
       </c>
       <c r="O14">
-        <v>0.54838709677419351</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>717.60631493557139</v>
+        <v>530.40466756107446</v>
       </c>
       <c r="Q14">
-        <v>820.56722099154467</v>
+        <v>577.20507940469884</v>
       </c>
       <c r="R14">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S14">
         <v>4</v>
       </c>
       <c r="T14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1711,57 +1711,57 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>257</v>
+        <v>197</v>
       </c>
       <c r="H15">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I15">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="J15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K15">
-        <v>0.13875598086124402</v>
+        <v>0.11881188118811881</v>
       </c>
       <c r="L15">
-        <v>5.2451720575379477E-3</v>
+        <v>4.0451945878086206E-3</v>
       </c>
       <c r="M15">
-        <v>83.636409717030148</v>
+        <v>114.04964961413202</v>
       </c>
       <c r="N15">
-        <v>152.06619948550937</v>
+        <v>96.30859300748925</v>
       </c>
       <c r="O15">
-        <v>0.54999999999999993</v>
+        <v>1.1842105263157896</v>
       </c>
       <c r="P15">
-        <v>651.35022112959837</v>
+        <v>532.23169819928273</v>
       </c>
       <c r="Q15">
-        <v>780.60649069228134</v>
+        <v>646.28134781341487</v>
       </c>
       <c r="R15">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T15">
         <v>6</v>
       </c>
       <c r="U15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1779,40 +1779,40 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>404</v>
+        <v>292</v>
       </c>
       <c r="H16">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="I16">
-        <v>326</v>
+        <v>191</v>
       </c>
       <c r="J16">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.1388888888888889</v>
+        <v>9.4836670179135926E-2</v>
       </c>
       <c r="L16">
-        <v>1.5805951548679292E-3</v>
+        <v>1.0106037980602441E-3</v>
       </c>
       <c r="M16">
-        <v>81.727390117523981</v>
+        <v>70.285555501070633</v>
       </c>
       <c r="N16">
-        <v>87.448307425750656</v>
+        <v>85.813759623400188</v>
       </c>
       <c r="O16">
-        <v>0.93457943925233644</v>
+        <v>0.81904761904761902</v>
       </c>
       <c r="P16">
-        <v>435.60698932640287</v>
+        <v>312.19863024894158</v>
       </c>
       <c r="Q16">
-        <v>516.51710554275166</v>
+        <v>373.49417283708459</v>
       </c>
       <c r="R16">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="S16">
         <v>4</v>
@@ -1821,7 +1821,7 @@
         <v>5</v>
       </c>
       <c r="U16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V16" t="s">
         <v>106</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1847,40 +1847,40 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="H17">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="I17">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="J17">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="K17">
-        <v>0.14938488576449913</v>
+        <v>0.11021069692058347</v>
       </c>
       <c r="L17">
-        <v>1.7301038062283738E-3</v>
+        <v>1.6510913713964931E-3</v>
       </c>
       <c r="M17">
-        <v>81.848718057740541</v>
+        <v>68.030103320719419</v>
       </c>
       <c r="N17">
-        <v>122.2415919044177</v>
+        <v>93.5413920659892</v>
       </c>
       <c r="O17">
-        <v>0.66956521739130426</v>
+        <v>0.72727272727272729</v>
       </c>
       <c r="P17">
-        <v>348.65427951868702</v>
+        <v>297.63170202814746</v>
       </c>
       <c r="Q17">
-        <v>460.26616777924232</v>
+        <v>370.97665717079803</v>
       </c>
       <c r="R17">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="S17">
         <v>4</v>
@@ -1889,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="U17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V17" t="s">
         <v>106</v>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1915,37 +1915,37 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="H18">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I18">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="J18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K18">
-        <v>0.17985611510791366</v>
+        <v>0.19434628975265017</v>
       </c>
       <c r="L18">
-        <v>4.4284528092997507E-3</v>
+        <v>5.4879503698401335E-3</v>
       </c>
       <c r="M18">
-        <v>141.20748085854149</v>
+        <v>153.7592569348563</v>
       </c>
       <c r="N18">
-        <v>200.82841722103677</v>
+        <v>166.31103301117108</v>
       </c>
       <c r="O18">
-        <v>0.703125</v>
+        <v>0.92452830188679258</v>
       </c>
       <c r="P18">
-        <v>753.10656457888786</v>
+        <v>621.31291577758248</v>
       </c>
       <c r="Q18">
-        <v>837.83105309401287</v>
+        <v>724.86506840717959</v>
       </c>
       <c r="R18">
         <v>17</v>
@@ -1957,15 +1957,15 @@
         <v>6</v>
       </c>
       <c r="U18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1983,40 +1983,40 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="H19">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="I19">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="J19">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K19">
-        <v>0.17812500000000001</v>
+        <v>0.1359773371104816</v>
       </c>
       <c r="L19">
-        <v>1.6398563173512415E-3</v>
+        <v>1.3911891354753229E-3</v>
       </c>
       <c r="M19">
-        <v>111.08025548458762</v>
+        <v>97.750624826437104</v>
       </c>
       <c r="N19">
-        <v>128.85309636212165</v>
+        <v>108.85865037489587</v>
       </c>
       <c r="O19">
-        <v>0.86206896551724133</v>
+        <v>0.89795918367346927</v>
       </c>
       <c r="P19">
-        <v>424.32657595112471</v>
+        <v>351.01360733129684</v>
       </c>
       <c r="Q19">
-        <v>564.28769786170506</v>
+        <v>450.98583726742572</v>
       </c>
       <c r="R19">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="S19">
         <v>4</v>
@@ -2025,7 +2025,7 @@
         <v>5</v>
       </c>
       <c r="U19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V19" t="s">
         <v>106</v>
@@ -2033,7 +2033,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -2051,40 +2051,40 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>350</v>
+        <v>287</v>
       </c>
       <c r="H20">
         <v>139</v>
       </c>
       <c r="I20">
-        <v>240</v>
+        <v>188</v>
       </c>
       <c r="J20">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="K20">
-        <v>0.13409090909090909</v>
+        <v>0.17167381974248927</v>
       </c>
       <c r="L20">
-        <v>4.2612992429393896E-3</v>
+        <v>3.7840003561412099E-3</v>
       </c>
       <c r="M20">
-        <v>93.570270466480068</v>
+        <v>125.83588097216285</v>
       </c>
       <c r="N20">
-        <v>130.67572254801524</v>
+        <v>98.410112042332472</v>
       </c>
       <c r="O20">
-        <v>0.71604938271604945</v>
+        <v>1.2786885245901642</v>
       </c>
       <c r="P20">
-        <v>611.43331908268874</v>
+        <v>527.54273176791344</v>
       </c>
       <c r="Q20">
-        <v>800.187140540933</v>
+        <v>658.21845431592874</v>
       </c>
       <c r="R20">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S20">
         <v>5</v>
@@ -2093,15 +2093,15 @@
         <v>6</v>
       </c>
       <c r="U20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -2119,40 +2119,40 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>628</v>
+        <v>435</v>
       </c>
       <c r="H21">
-        <v>321</v>
+        <v>231</v>
       </c>
       <c r="I21">
-        <v>365</v>
+        <v>262</v>
       </c>
       <c r="J21">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K21">
-        <v>0.21478873239436619</v>
+        <v>0.23423423423423423</v>
       </c>
       <c r="L21">
-        <v>7.553436545775968E-3</v>
+        <v>5.1551453260015711E-3</v>
       </c>
       <c r="M21">
-        <v>197.6768743400211</v>
+        <v>163.88595564941923</v>
       </c>
       <c r="N21">
-        <v>344.6673706441394</v>
+        <v>226.39915522703274</v>
       </c>
       <c r="O21">
-        <v>0.57352941176470584</v>
+        <v>0.72388059701492546</v>
       </c>
       <c r="P21">
-        <v>1159.0285110876453</v>
+        <v>832.94614572333694</v>
       </c>
       <c r="Q21">
-        <v>1376.9799366420275</v>
+        <v>1025.5543822597676</v>
       </c>
       <c r="R21">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="S21">
         <v>5</v>
@@ -2161,7 +2161,7 @@
         <v>6</v>
       </c>
       <c r="U21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V21" t="s">
         <v>106</v>
@@ -2169,7 +2169,7 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2187,40 +2187,40 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="H22">
-        <v>293</v>
+        <v>235</v>
       </c>
       <c r="I22">
-        <v>373</v>
+        <v>300</v>
       </c>
       <c r="J22">
         <v>21</v>
       </c>
       <c r="K22">
-        <v>0.16940789473684212</v>
+        <v>6.9053708439897693E-2</v>
       </c>
       <c r="L22">
-        <v>6.0662914321450911E-3</v>
+        <v>7.0723618492028609E-3</v>
       </c>
       <c r="M22">
-        <v>204.69196517578257</v>
+        <v>110.32099421811657</v>
       </c>
       <c r="N22">
-        <v>155.51272678939324</v>
+        <v>202.03362796570747</v>
       </c>
       <c r="O22">
-        <v>1.3162393162393162</v>
+        <v>0.54605263157894735</v>
       </c>
       <c r="P22">
-        <v>885.2262909550077</v>
+        <v>711.10520369508868</v>
       </c>
       <c r="Q22">
-        <v>968.9639130723732</v>
+        <v>794.84282581245429</v>
       </c>
       <c r="R22">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="S22">
         <v>5</v>
@@ -2229,7 +2229,7 @@
         <v>5</v>
       </c>
       <c r="U22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V22" t="s">
         <v>106</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -2255,40 +2255,40 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>529</v>
+        <v>419</v>
       </c>
       <c r="H23">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="I23">
-        <v>330</v>
+        <v>251</v>
       </c>
       <c r="J23">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="K23">
-        <v>0.14967462039045554</v>
+        <v>0.14822546972860126</v>
       </c>
       <c r="L23">
-        <v>4.6520569011918493E-3</v>
+        <v>4.0501596697562117E-3</v>
       </c>
       <c r="M23">
-        <v>89.468742472581752</v>
+        <v>87.502396484173374</v>
       </c>
       <c r="N23">
-        <v>120.930278287116</v>
+        <v>98.317299420419516</v>
       </c>
       <c r="O23">
-        <v>0.73983739837398377</v>
+        <v>0.89</v>
       </c>
       <c r="P23">
-        <v>534.84610884708218</v>
+        <v>432.59611744984591</v>
       </c>
       <c r="Q23">
-        <v>611.53360239500944</v>
+        <v>488.63697811948498</v>
       </c>
       <c r="R23">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="S23">
         <v>4</v>
@@ -2297,7 +2297,7 @@
         <v>5</v>
       </c>
       <c r="U23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V23" t="s">
         <v>106</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -2323,40 +2323,40 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>1301</v>
+        <v>1047</v>
       </c>
       <c r="H24">
-        <v>797</v>
+        <v>744</v>
       </c>
       <c r="I24">
-        <v>856</v>
+        <v>745</v>
       </c>
       <c r="J24">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K24">
-        <v>0.19332763045337895</v>
+        <v>0.1731669266770671</v>
       </c>
       <c r="L24">
-        <v>2.5852318629827112E-3</v>
+        <v>2.8001454219169393E-3</v>
       </c>
       <c r="M24">
-        <v>100.75525706169427</v>
+        <v>89.620579057571717</v>
       </c>
       <c r="N24">
-        <v>115.69202023795621</v>
+        <v>112.43309009040816</v>
       </c>
       <c r="O24">
-        <v>0.87089201877934275</v>
+        <v>0.79710144927536231</v>
       </c>
       <c r="P24">
-        <v>448.91762782474564</v>
+        <v>404.37891580825539</v>
       </c>
       <c r="Q24">
-        <v>530.3908815134472</v>
+        <v>476.0753790543128</v>
       </c>
       <c r="R24">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="S24">
         <v>4</v>
@@ -2365,15 +2365,15 @@
         <v>5</v>
       </c>
       <c r="U24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2391,40 +2391,40 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>1301</v>
+        <v>1047</v>
       </c>
       <c r="H25">
-        <v>797</v>
+        <v>744</v>
       </c>
       <c r="I25">
-        <v>856</v>
+        <v>745</v>
       </c>
       <c r="J25">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K25">
-        <v>0.19332763045337895</v>
+        <v>0.1731669266770671</v>
       </c>
       <c r="L25">
-        <v>2.5852318629827112E-3</v>
+        <v>2.8001454219169393E-3</v>
       </c>
       <c r="M25">
-        <v>100.75525706169427</v>
+        <v>89.620579057571717</v>
       </c>
       <c r="N25">
-        <v>115.69202023795621</v>
+        <v>112.43309009040816</v>
       </c>
       <c r="O25">
-        <v>0.87089201877934275</v>
+        <v>0.79710144927536231</v>
       </c>
       <c r="P25">
-        <v>448.91762782474564</v>
+        <v>404.37891580825539</v>
       </c>
       <c r="Q25">
-        <v>530.3908815134472</v>
+        <v>476.0753790543128</v>
       </c>
       <c r="R25">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="S25">
         <v>4</v>
@@ -2433,15 +2433,15 @@
         <v>5</v>
       </c>
       <c r="U25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2459,40 +2459,40 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>1301</v>
+        <v>1047</v>
       </c>
       <c r="H26">
-        <v>797</v>
+        <v>744</v>
       </c>
       <c r="I26">
-        <v>856</v>
+        <v>745</v>
       </c>
       <c r="J26">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K26">
-        <v>0.19332763045337895</v>
+        <v>0.1731669266770671</v>
       </c>
       <c r="L26">
-        <v>2.5852318629827112E-3</v>
+        <v>2.8001454219169393E-3</v>
       </c>
       <c r="M26">
-        <v>100.75525706169427</v>
+        <v>89.620579057571717</v>
       </c>
       <c r="N26">
-        <v>115.69202023795621</v>
+        <v>112.43309009040816</v>
       </c>
       <c r="O26">
-        <v>0.87089201877934275</v>
+        <v>0.79710144927536231</v>
       </c>
       <c r="P26">
-        <v>448.91762782474564</v>
+        <v>404.37891580825539</v>
       </c>
       <c r="Q26">
-        <v>530.3908815134472</v>
+        <v>476.0753790543128</v>
       </c>
       <c r="R26">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="S26">
         <v>4</v>
@@ -2501,15 +2501,15 @@
         <v>5</v>
       </c>
       <c r="U26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2527,40 +2527,40 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>1301</v>
+        <v>1047</v>
       </c>
       <c r="H27">
-        <v>797</v>
+        <v>744</v>
       </c>
       <c r="I27">
-        <v>856</v>
+        <v>745</v>
       </c>
       <c r="J27">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K27">
-        <v>0.19332763045337895</v>
+        <v>0.1731669266770671</v>
       </c>
       <c r="L27">
-        <v>2.5852318629827112E-3</v>
+        <v>2.8001454219169393E-3</v>
       </c>
       <c r="M27">
-        <v>100.75525706169427</v>
+        <v>89.620579057571717</v>
       </c>
       <c r="N27">
-        <v>115.69202023795621</v>
+        <v>112.43309009040816</v>
       </c>
       <c r="O27">
-        <v>0.87089201877934275</v>
+        <v>0.79710144927536231</v>
       </c>
       <c r="P27">
-        <v>448.91762782474564</v>
+        <v>404.37891580825539</v>
       </c>
       <c r="Q27">
-        <v>530.3908815134472</v>
+        <v>476.0753790543128</v>
       </c>
       <c r="R27">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="S27">
         <v>4</v>
@@ -2569,15 +2569,15 @@
         <v>5</v>
       </c>
       <c r="U27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2595,40 +2595,40 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>1301</v>
+        <v>1047</v>
       </c>
       <c r="H28">
-        <v>797</v>
+        <v>744</v>
       </c>
       <c r="I28">
-        <v>856</v>
+        <v>745</v>
       </c>
       <c r="J28">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="K28">
-        <v>0.19332763045337895</v>
+        <v>0.1731669266770671</v>
       </c>
       <c r="L28">
-        <v>2.5852318629827112E-3</v>
+        <v>2.8001454219169393E-3</v>
       </c>
       <c r="M28">
-        <v>100.75525706169427</v>
+        <v>89.620579057571717</v>
       </c>
       <c r="N28">
-        <v>115.69202023795621</v>
+        <v>112.43309009040816</v>
       </c>
       <c r="O28">
-        <v>0.87089201877934275</v>
+        <v>0.79710144927536231</v>
       </c>
       <c r="P28">
-        <v>448.91762782474564</v>
+        <v>404.37891580825539</v>
       </c>
       <c r="Q28">
-        <v>530.3908815134472</v>
+        <v>476.0753790543128</v>
       </c>
       <c r="R28">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="S28">
         <v>4</v>
@@ -2637,15 +2637,15 @@
         <v>5</v>
       </c>
       <c r="U28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2663,40 +2663,40 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="H29">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I29">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="J29">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K29">
-        <v>7.476635514018691E-2</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="L29">
-        <v>1.0006561679790027E-2</v>
+        <v>4.5126353790613718E-3</v>
       </c>
       <c r="M29">
-        <v>63.114236768551073</v>
+        <v>67.622396537733295</v>
       </c>
       <c r="N29">
-        <v>112.70399422955551</v>
+        <v>67.622396537733295</v>
       </c>
       <c r="O29">
-        <v>0.55999999999999994</v>
+        <v>1</v>
       </c>
       <c r="P29">
-        <v>779.91164006852398</v>
+        <v>586.06076999368861</v>
       </c>
       <c r="Q29">
-        <v>1009.8277882968172</v>
+        <v>721.30556306915514</v>
       </c>
       <c r="R29">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S29">
         <v>4</v>
@@ -2705,15 +2705,15 @@
         <v>6</v>
       </c>
       <c r="U29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V29" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2731,57 +2731,57 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>518</v>
+        <v>401</v>
       </c>
       <c r="H30">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="I30">
-        <v>309</v>
+        <v>226</v>
       </c>
       <c r="J30">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K30">
-        <v>0.19390581717451524</v>
+        <v>0.15055467511885895</v>
       </c>
       <c r="L30">
-        <v>9.8493626882966388E-3</v>
+        <v>6.9269521410579345E-3</v>
       </c>
       <c r="M30">
-        <v>212.67545725223309</v>
+        <v>288.63097769945921</v>
       </c>
       <c r="N30">
-        <v>300.78386097101537</v>
+        <v>279.51631524579204</v>
       </c>
       <c r="O30">
-        <v>0.70707070707070707</v>
+        <v>1.0326086956521741</v>
       </c>
       <c r="P30">
-        <v>1573.7983836665248</v>
+        <v>1254.7851977881751</v>
       </c>
       <c r="Q30">
-        <v>1710.5183204715318</v>
+        <v>1373.2758096858479</v>
       </c>
       <c r="R30">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="S30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2799,37 +2799,37 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>335</v>
+        <v>273</v>
       </c>
       <c r="H31">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="I31">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="J31">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K31">
-        <v>8.4249084249084255E-2</v>
+        <v>6.9216757741347903E-2</v>
       </c>
       <c r="L31">
-        <v>3.89998542061525E-3</v>
+        <v>3.1258140140661629E-3</v>
       </c>
       <c r="M31">
-        <v>46.018912870858294</v>
+        <v>36.093264996751607</v>
       </c>
       <c r="N31">
-        <v>78.502851367934738</v>
+        <v>50.530570995452251</v>
       </c>
       <c r="O31">
-        <v>0.58620689655172409</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="P31">
-        <v>327.54637984552085</v>
+        <v>252.65285497726126</v>
       </c>
       <c r="Q31">
-        <v>446.65415433480115</v>
+        <v>331.15570634519599</v>
       </c>
       <c r="R31">
         <v>40</v>
@@ -2841,7 +2841,7 @@
         <v>5</v>
       </c>
       <c r="U31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V31" t="s">
         <v>106</v>
@@ -2849,7 +2849,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2867,49 +2867,49 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="H32">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I32">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="J32">
+        <v>16</v>
+      </c>
+      <c r="K32">
+        <v>0.17793594306049823</v>
+      </c>
+      <c r="L32">
+        <v>4.7531992687385744E-3</v>
+      </c>
+      <c r="M32">
+        <v>201.76844104207464</v>
+      </c>
+      <c r="N32">
+        <v>252.2105513025933</v>
+      </c>
+      <c r="O32">
+        <v>0.8</v>
+      </c>
+      <c r="P32">
+        <v>896.08925286333158</v>
+      </c>
+      <c r="Q32">
+        <v>1038.5140347753843</v>
+      </c>
+      <c r="R32">
         <v>17</v>
       </c>
-      <c r="K32">
-        <v>0.21993127147766323</v>
-      </c>
-      <c r="L32">
-        <v>7.2902646926873036E-3</v>
-      </c>
-      <c r="M32">
-        <v>243.30900243309003</v>
-      </c>
-      <c r="N32">
-        <v>183.96534330306807</v>
-      </c>
-      <c r="O32">
-        <v>1.3225806451612903</v>
-      </c>
-      <c r="P32">
-        <v>946.53136312385016</v>
-      </c>
-      <c r="Q32">
-        <v>1097.8576939054062</v>
-      </c>
-      <c r="R32">
-        <v>21</v>
-      </c>
       <c r="S32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T32">
         <v>6</v>
       </c>
       <c r="U32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V32" t="s">
         <v>106</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2935,40 +2935,40 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>499</v>
+        <v>448</v>
       </c>
       <c r="H33">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="I33">
-        <v>351</v>
+        <v>277</v>
       </c>
       <c r="J33">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="K33">
-        <v>0.20318725099601595</v>
+        <v>0.15865384615384615</v>
       </c>
       <c r="L33">
-        <v>5.3375196232339087E-3</v>
+        <v>3.674889557840416E-3</v>
       </c>
       <c r="M33">
-        <v>139.77207464659116</v>
+        <v>141.15595657378512</v>
       </c>
       <c r="N33">
-        <v>249.09874689491491</v>
+        <v>159.14642162730675</v>
       </c>
       <c r="O33">
-        <v>0.56111111111111123</v>
+        <v>0.88695652173913042</v>
       </c>
       <c r="P33">
-        <v>874.61337798659019</v>
+        <v>683.63767203382201</v>
       </c>
       <c r="Q33">
-        <v>1003.3143972156296</v>
+        <v>745.91235875755081</v>
       </c>
       <c r="R33">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S33">
         <v>4</v>
@@ -2977,7 +2977,7 @@
         <v>5</v>
       </c>
       <c r="U33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V33" t="s">
         <v>106</v>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3003,57 +3003,57 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>767</v>
+        <v>692</v>
       </c>
       <c r="H34">
-        <v>307</v>
+        <v>358</v>
       </c>
       <c r="I34">
-        <v>561</v>
+        <v>404</v>
       </c>
       <c r="J34">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.23971377459749552</v>
+        <v>0.25757575757575757</v>
       </c>
       <c r="L34">
-        <v>9.0983531980711498E-3</v>
+        <v>6.1024144335367469E-3</v>
       </c>
       <c r="M34">
-        <v>161.97969128576483</v>
+        <v>249.0948193722266</v>
       </c>
       <c r="N34">
-        <v>255.90068875398143</v>
+        <v>238.20542836141888</v>
       </c>
       <c r="O34">
-        <v>0.63297872340425532</v>
+        <v>1.0457142857142856</v>
       </c>
       <c r="P34">
-        <v>1181.4989246726377</v>
+        <v>1037.2144937794353</v>
       </c>
       <c r="Q34">
-        <v>1381.5914844962294</v>
+        <v>1278.1422698935562</v>
       </c>
       <c r="R34">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="S34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T34">
         <v>6</v>
       </c>
       <c r="U34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -3071,40 +3071,40 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="H35">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I35">
-        <v>279</v>
+        <v>156</v>
       </c>
       <c r="J35">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K35">
-        <v>7.9545454545454544E-2</v>
+        <v>6.5815324165029471E-2</v>
       </c>
       <c r="L35">
-        <v>5.4998607630186575E-3</v>
+        <v>4.411043947067473E-3</v>
       </c>
       <c r="M35">
-        <v>74.001318568949046</v>
+        <v>86.110625243867986</v>
       </c>
       <c r="N35">
-        <v>96.874453399351481</v>
+        <v>78.037754127255354</v>
       </c>
       <c r="O35">
-        <v>0.76388888888888884</v>
+        <v>1.1034482758620692</v>
       </c>
       <c r="P35">
-        <v>546.26427889078752</v>
+        <v>449.389825491436</v>
       </c>
       <c r="Q35">
-        <v>594.70150559046328</v>
+        <v>485.71774551619279</v>
       </c>
       <c r="R35">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="S35">
         <v>4</v>
@@ -3113,7 +3113,7 @@
         <v>5</v>
       </c>
       <c r="U35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V35" t="s">
         <v>106</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -3139,40 +3139,40 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>1060</v>
+        <v>728</v>
       </c>
       <c r="H36">
-        <v>532</v>
+        <v>419</v>
       </c>
       <c r="I36">
-        <v>435</v>
+        <v>312</v>
       </c>
       <c r="J36">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K36">
-        <v>0.22739018087855298</v>
+        <v>0.18550955414012738</v>
       </c>
       <c r="L36">
-        <v>5.2220200795094667E-3</v>
+        <v>4.6266658907059303E-3</v>
       </c>
       <c r="M36">
-        <v>196.18426789013679</v>
+        <v>230.43866387095434</v>
       </c>
       <c r="N36">
-        <v>317.63167182212624</v>
+        <v>257.42697585584091</v>
       </c>
       <c r="O36">
-        <v>0.61764705882352944</v>
+        <v>0.89516129032258063</v>
       </c>
       <c r="P36">
-        <v>1100.2927193838361</v>
+        <v>758.78677157507946</v>
       </c>
       <c r="Q36">
-        <v>1386.7840312234009</v>
+        <v>1054.6201914094127</v>
       </c>
       <c r="R36">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="S36">
         <v>5</v>
@@ -3181,7 +3181,7 @@
         <v>6</v>
       </c>
       <c r="U36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V36" t="s">
         <v>106</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -3207,37 +3207,37 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H37">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I37">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K37">
-        <v>0.1206896551724138</v>
+        <v>3.896103896103896E-2</v>
       </c>
       <c r="L37">
-        <v>2.5150905432595573E-3</v>
+        <v>5.4588877516206077E-3</v>
       </c>
       <c r="M37">
-        <v>50.669256428661903</v>
+        <v>16.889752142887303</v>
       </c>
       <c r="N37">
-        <v>50.669256428661903</v>
+        <v>59.114132500105555</v>
       </c>
       <c r="O37">
-        <v>1</v>
+        <v>0.28571428571428575</v>
       </c>
       <c r="P37">
-        <v>320.90529071485878</v>
+        <v>287.12578642908414</v>
       </c>
       <c r="Q37">
-        <v>447.57843178651353</v>
+        <v>363.12967107207697</v>
       </c>
       <c r="R37">
         <v>3</v>
@@ -3249,7 +3249,7 @@
         <v>5</v>
       </c>
       <c r="U37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V37" t="s">
         <v>106</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -3275,49 +3275,49 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>605</v>
+        <v>462</v>
       </c>
       <c r="H38">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="I38">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="J38">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="K38">
-        <v>0.16005471956224351</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="L38">
-        <v>5.0215840014095677E-3</v>
+        <v>4.1938737590911501E-3</v>
       </c>
       <c r="M38">
         <v>97.556569260647663</v>
       </c>
       <c r="N38">
-        <v>151.75466329434082</v>
+        <v>98.459870827875889</v>
       </c>
       <c r="O38">
-        <v>0.64285714285714279</v>
+        <v>0.99082568807339444</v>
       </c>
       <c r="P38">
-        <v>597.98563750508106</v>
+        <v>504.04227451334629</v>
       </c>
       <c r="Q38">
-        <v>711.80163497583669</v>
+        <v>582.62951086220141</v>
       </c>
       <c r="R38">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="S38">
         <v>4</v>
       </c>
       <c r="T38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V38" t="s">
         <v>107</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -3343,40 +3343,40 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="H39">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="I39">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="J39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K39">
-        <v>0.28676470588235292</v>
+        <v>0.17801047120418848</v>
       </c>
       <c r="L39">
-        <v>5.6910569105691061E-3</v>
+        <v>2.9000790930661744E-3</v>
       </c>
       <c r="M39">
-        <v>163.15070572165729</v>
+        <v>147.97389588708452</v>
       </c>
       <c r="N39">
-        <v>303.53619669145542</v>
+        <v>258.00576718773709</v>
       </c>
       <c r="O39">
-        <v>0.53749999999999998</v>
+        <v>0.57352941176470595</v>
       </c>
       <c r="P39">
-        <v>929.57960236758242</v>
+        <v>724.69266960084985</v>
       </c>
       <c r="Q39">
-        <v>1088.9361056305966</v>
+        <v>872.66656548793446</v>
       </c>
       <c r="R39">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S39">
         <v>5</v>
@@ -3385,7 +3385,7 @@
         <v>6</v>
       </c>
       <c r="U39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V39" t="s">
         <v>106</v>
@@ -3393,7 +3393,7 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -3411,57 +3411,57 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="H40">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="I40">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J40">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K40">
-        <v>0.11908931698774081</v>
+        <v>7.8492935635792779E-2</v>
       </c>
       <c r="L40">
-        <v>4.6854082998661313E-3</v>
+        <v>5.5330136481003319E-3</v>
       </c>
       <c r="M40">
-        <v>108.51612182530501</v>
+        <v>79.791266048018386</v>
       </c>
       <c r="N40">
-        <v>135.64515228163125</v>
+        <v>127.66602567682941</v>
       </c>
       <c r="O40">
-        <v>0.8</v>
+        <v>0.62500000000000011</v>
       </c>
       <c r="P40">
-        <v>617.58439921166223</v>
+        <v>553.75138637324767</v>
       </c>
       <c r="Q40">
-        <v>694.18401461775989</v>
+        <v>611.2010979278208</v>
       </c>
       <c r="R40">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3479,57 +3479,57 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="H41">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="I41">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J41">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K41">
-        <v>7.857142857142857E-2</v>
+        <v>4.8257372654155493E-2</v>
       </c>
       <c r="L41">
-        <v>1.4058370353708597E-3</v>
+        <v>1.20312813314618E-3</v>
       </c>
       <c r="M41">
-        <v>43.946521416192127</v>
+        <v>45.184451596929932</v>
       </c>
       <c r="N41">
-        <v>57.563753404307995</v>
+        <v>47.041346868036641</v>
       </c>
       <c r="O41">
-        <v>0.76344086021505375</v>
+        <v>0.96052631578947367</v>
       </c>
       <c r="P41">
-        <v>199.92572418915574</v>
+        <v>190.0222827432533</v>
       </c>
       <c r="Q41">
-        <v>233.34983906907652</v>
+        <v>229.0170834364942</v>
       </c>
       <c r="R41">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S41">
         <v>5</v>
       </c>
       <c r="T41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -3547,40 +3547,40 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>435</v>
+        <v>290</v>
       </c>
       <c r="H42">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="I42">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="J42">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="K42">
-        <v>0.21917808219178081</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L42">
-        <v>3.007461550175118E-3</v>
+        <v>1.8190897417605936E-3</v>
       </c>
       <c r="M42">
-        <v>142.27820985236636</v>
+        <v>111.90420999624322</v>
       </c>
       <c r="N42">
-        <v>211.0193674214872</v>
+        <v>148.672736137866</v>
       </c>
       <c r="O42">
-        <v>0.6742424242424242</v>
+        <v>0.75268817204301075</v>
       </c>
       <c r="P42">
-        <v>716.18694397595664</v>
+        <v>495.57578712621995</v>
       </c>
       <c r="Q42">
-        <v>869.65557482794725</v>
+        <v>601.08547083696362</v>
       </c>
       <c r="R42">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="S42">
         <v>5</v>
@@ -3589,7 +3589,7 @@
         <v>6</v>
       </c>
       <c r="U42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V42" t="s">
         <v>106</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -3615,40 +3615,40 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>498</v>
+        <v>390</v>
       </c>
       <c r="H43">
-        <v>230</v>
+        <v>170</v>
       </c>
       <c r="I43">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="J43">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.13953488372093023</v>
+        <v>9.4026548672566365E-2</v>
       </c>
       <c r="L43">
-        <v>3.3113553113553115E-3</v>
+        <v>2.0204653587955418E-3</v>
       </c>
       <c r="M43">
-        <v>58.990895978187758</v>
+        <v>56.832692466790647</v>
       </c>
       <c r="N43">
-        <v>106.47137322892424</v>
+        <v>65.465506512379093</v>
       </c>
       <c r="O43">
-        <v>0.55405405405405406</v>
+        <v>0.86813186813186827</v>
       </c>
       <c r="P43">
-        <v>385.59902736961754</v>
+        <v>290.63807286814455</v>
       </c>
       <c r="Q43">
-        <v>528.04045912182698</v>
+        <v>409.33926599498579</v>
       </c>
       <c r="R43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S43">
         <v>4</v>
@@ -3657,7 +3657,7 @@
         <v>4</v>
       </c>
       <c r="U43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V43" t="s">
         <v>106</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3683,57 +3683,57 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="H44">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="I44">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="J44">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K44">
-        <v>0.14285714285714285</v>
+        <v>0.15720524017467249</v>
       </c>
       <c r="L44">
-        <v>3.9816960836750459E-3</v>
+        <v>3.8887705092691244E-3</v>
       </c>
       <c r="M44">
-        <v>118.4301426644589</v>
+        <v>81.146579233055164</v>
       </c>
       <c r="N44">
-        <v>96.498634763633177</v>
+        <v>120.62329345454145</v>
       </c>
       <c r="O44">
-        <v>1.2272727272727273</v>
+        <v>0.67272727272727273</v>
       </c>
       <c r="P44">
-        <v>596.53701490245953</v>
+        <v>528.54934040989986</v>
       </c>
       <c r="Q44">
-        <v>721.54660993716618</v>
+        <v>614.0822212231202</v>
       </c>
       <c r="R44">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="S44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3751,57 +3751,57 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="H45">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="I45">
-        <v>250</v>
+        <v>199</v>
       </c>
       <c r="J45">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K45">
-        <v>9.5602294455066919E-2</v>
+        <v>5.1558752997601917E-2</v>
       </c>
       <c r="L45">
-        <v>6.3046281702249605E-3</v>
+        <v>9.3004769475357706E-3</v>
       </c>
       <c r="M45">
-        <v>78.286898457287592</v>
+        <v>64.471563435413302</v>
       </c>
       <c r="N45">
-        <v>110.52268017499425</v>
+        <v>85.962084580551078</v>
       </c>
       <c r="O45">
-        <v>0.70833333333333337</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="P45">
-        <v>572.56888479545626</v>
+        <v>455.90605572185126</v>
       </c>
       <c r="Q45">
-        <v>618.6200015350372</v>
+        <v>492.746949113516</v>
       </c>
       <c r="R45">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="S45">
         <v>4</v>
       </c>
       <c r="T45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3819,40 +3819,40 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>287</v>
+        <v>230</v>
       </c>
       <c r="H46">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="I46">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="J46">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="K46">
-        <v>0.1766304347826087</v>
+        <v>0.15495867768595042</v>
       </c>
       <c r="L46">
-        <v>2.1811241877584403E-3</v>
+        <v>2.3874949322041533E-3</v>
       </c>
       <c r="M46">
-        <v>100.31447792683412</v>
+        <v>108.27594442896381</v>
       </c>
       <c r="N46">
-        <v>173.5599697464273</v>
+        <v>140.12181043748259</v>
       </c>
       <c r="O46">
-        <v>0.57798165137614677</v>
+        <v>0.7727272727272726</v>
       </c>
       <c r="P46">
-        <v>492.01862983161493</v>
+        <v>431.51148441542932</v>
       </c>
       <c r="Q46">
-        <v>668.76318617889422</v>
+        <v>560.48724174993038</v>
       </c>
       <c r="R46">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="S46">
         <v>4</v>
@@ -3861,7 +3861,7 @@
         <v>5</v>
       </c>
       <c r="U46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V46" t="s">
         <v>106</v>
@@ -3869,7 +3869,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3887,40 +3887,40 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="H47">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I47">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J47">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K47">
-        <v>0.26896551724137929</v>
+        <v>0.22619047619047619</v>
       </c>
       <c r="L47">
-        <v>6.6187594553706501E-3</v>
+        <v>6.3848524878907971E-3</v>
       </c>
       <c r="M47">
-        <v>144.38079269712634</v>
+        <v>158.35312747426761</v>
       </c>
       <c r="N47">
-        <v>223.55735643426016</v>
+        <v>181.64035210283637</v>
       </c>
       <c r="O47">
-        <v>0.64583333333333326</v>
+        <v>0.87179487179487181</v>
       </c>
       <c r="P47">
-        <v>829.025196777048</v>
+        <v>666.01462437706675</v>
       </c>
       <c r="Q47">
-        <v>1010.6655488798845</v>
+        <v>791.76563737133802</v>
       </c>
       <c r="R47">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="S47">
         <v>5</v>
@@ -3929,7 +3929,7 @@
         <v>6</v>
       </c>
       <c r="U47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V47" t="s">
         <v>106</v>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3955,57 +3955,57 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>899</v>
+        <v>970</v>
       </c>
       <c r="H48">
-        <v>650</v>
+        <v>544</v>
       </c>
       <c r="I48">
-        <v>717</v>
+        <v>586</v>
       </c>
       <c r="J48">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K48">
-        <v>0.25935596170583114</v>
+        <v>0.17904903417533433</v>
       </c>
       <c r="L48">
-        <v>7.4793921677069339E-3</v>
+        <v>6.04731679169071E-3</v>
       </c>
       <c r="M48">
-        <v>278.32452448922209</v>
+        <v>217.32188898473504</v>
       </c>
       <c r="N48">
-        <v>320.26383639855692</v>
+        <v>301.20051280340471</v>
       </c>
       <c r="O48">
-        <v>0.86904761904761907</v>
+        <v>0.72151898734177211</v>
       </c>
       <c r="P48">
-        <v>1302.9781677286526</v>
+        <v>1077.0777831260991</v>
       </c>
       <c r="Q48">
-        <v>1451.6720917708396</v>
+        <v>1222.9122086290135</v>
       </c>
       <c r="R48">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S48">
         <v>6</v>
       </c>
       <c r="T48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -4023,57 +4023,57 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>446</v>
+        <v>336</v>
       </c>
       <c r="H49">
-        <v>278</v>
+        <v>176</v>
       </c>
       <c r="I49">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="J49">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K49">
-        <v>0.21846846846846846</v>
+        <v>0.15441176470588236</v>
       </c>
       <c r="L49">
-        <v>4.6320123520329388E-3</v>
+        <v>4.9879600963192291E-3</v>
       </c>
       <c r="M49">
-        <v>145.74341151693267</v>
+        <v>96.09455704413142</v>
       </c>
       <c r="N49">
-        <v>299.49470278754296</v>
+        <v>185.78281028532075</v>
       </c>
       <c r="O49">
-        <v>0.48663101604278075</v>
+        <v>0.51724137931034486</v>
       </c>
       <c r="P49">
-        <v>800.78797536776199</v>
+        <v>647.03668409715158</v>
       </c>
       <c r="Q49">
-        <v>944.92981093395895</v>
+        <v>781.56906395893554</v>
       </c>
       <c r="R49">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="S49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T49">
         <v>6</v>
       </c>
       <c r="U49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V49" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -4091,37 +4091,37 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="H50">
-        <v>601</v>
+        <v>558</v>
       </c>
       <c r="I50">
-        <v>456</v>
+        <v>419</v>
       </c>
       <c r="J50">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.16160118606375093</v>
+        <v>0.14903565166569258</v>
       </c>
       <c r="L50">
-        <v>4.5768169273229069E-3</v>
+        <v>4.3744177568957833E-3</v>
       </c>
       <c r="M50">
-        <v>121.29184355060517</v>
+        <v>135.52797542274192</v>
       </c>
       <c r="N50">
-        <v>220.94476665556246</v>
+        <v>182.22248796335052</v>
       </c>
       <c r="O50">
-        <v>0.5489690721649485</v>
+        <v>0.7437499999999998</v>
       </c>
       <c r="P50">
-        <v>601.90365555394214</v>
+        <v>556.34803356310442</v>
       </c>
       <c r="Q50">
-        <v>735.15384987714219</v>
+        <v>675.93154128905326</v>
       </c>
       <c r="R50">
         <v>78</v>
@@ -4130,18 +4130,18 @@
         <v>4</v>
       </c>
       <c r="T50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -4159,40 +4159,40 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>562</v>
+        <v>507</v>
       </c>
       <c r="H51">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="I51">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="J51">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>0.1824742268041237</v>
+        <v>0.16381909547738693</v>
       </c>
       <c r="L51">
-        <v>3.9627420540893866E-3</v>
+        <v>4.1832104367555308E-3</v>
       </c>
       <c r="M51">
-        <v>128.37784885001065</v>
+        <v>121.66040327064962</v>
       </c>
       <c r="N51">
-        <v>162.71145958896696</v>
+        <v>153.00848264100105</v>
       </c>
       <c r="O51">
-        <v>0.78899082568807355</v>
+        <v>0.79512195121951224</v>
       </c>
       <c r="P51">
-        <v>479.17778466108621</v>
+        <v>448.57608813288596</v>
       </c>
       <c r="Q51">
-        <v>642.63562709220434</v>
+        <v>589.64244529946745</v>
       </c>
       <c r="R51">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="S51">
         <v>4</v>
@@ -4201,7 +4201,7 @@
         <v>5</v>
       </c>
       <c r="U51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V51" t="s">
         <v>106</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -4227,57 +4227,57 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>363</v>
+        <v>296</v>
       </c>
       <c r="H52">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="I52">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="J52">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K52">
-        <v>0.1834862385321101</v>
+        <v>0.20571428571428571</v>
       </c>
       <c r="L52">
-        <v>5.7233076771265046E-3</v>
+        <v>4.2125288762060063E-3</v>
       </c>
       <c r="M52">
-        <v>176.03448470418309</v>
+        <v>160.23651812816664</v>
       </c>
       <c r="N52">
-        <v>270.82228416028164</v>
+        <v>198.60300838420653</v>
       </c>
       <c r="O52">
-        <v>0.65</v>
+        <v>0.80681818181818188</v>
       </c>
       <c r="P52">
-        <v>945.62114219298337</v>
+        <v>747.01813380877684</v>
       </c>
       <c r="Q52">
-        <v>1108.1145126891524</v>
+        <v>902.74094720093888</v>
       </c>
       <c r="R52">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T52">
         <v>6</v>
       </c>
       <c r="U52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4295,57 +4295,57 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="H53">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I53">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="J53">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K53">
-        <v>0.14503816793893129</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="L53">
-        <v>6.134062523095115E-3</v>
+        <v>4.0007743434213074E-3</v>
       </c>
       <c r="M53">
-        <v>40.366833600343121</v>
+        <v>55.504396200471781</v>
       </c>
       <c r="N53">
-        <v>88.302448500750572</v>
+        <v>42.889760700364562</v>
       </c>
       <c r="O53">
-        <v>0.45714285714285718</v>
+        <v>1.2941176470588234</v>
       </c>
       <c r="P53">
-        <v>661.00690020561854</v>
+        <v>504.58542000428901</v>
       </c>
       <c r="Q53">
-        <v>721.55715060613318</v>
+        <v>542.42932650461069</v>
       </c>
       <c r="R53">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S53">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T53">
         <v>6</v>
       </c>
       <c r="U53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4363,57 +4363,57 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>437</v>
+        <v>323</v>
       </c>
       <c r="H54">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="I54">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="J54">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="K54">
-        <v>0.20210526315789473</v>
+        <v>0.2</v>
       </c>
       <c r="L54">
-        <v>4.8120622360049194E-3</v>
+        <v>3.5780669144981412E-3</v>
       </c>
       <c r="M54">
-        <v>102.18752599246665</v>
+        <v>98.62284485319455</v>
       </c>
       <c r="N54">
-        <v>149.71660784942787</v>
+        <v>104.5639800853147</v>
       </c>
       <c r="O54">
-        <v>0.68253968253968256</v>
+        <v>0.94318181818181823</v>
       </c>
       <c r="P54">
-        <v>556.09025772644645</v>
+        <v>420.63237443410685</v>
       </c>
       <c r="Q54">
-        <v>655.90132962606492</v>
+        <v>495.49067835882084</v>
       </c>
       <c r="R54">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="S54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -4431,40 +4431,40 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="H55">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="I55">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="J55">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K55">
-        <v>0.22745098039215686</v>
+        <v>0.14193548387096774</v>
       </c>
       <c r="L55">
-        <v>3.9225941422594141E-3</v>
+        <v>2.5649794801641587E-3</v>
       </c>
       <c r="M55">
+        <v>59.477402605753227</v>
+      </c>
+      <c r="N55">
         <v>80.374868386153025</v>
       </c>
-      <c r="N55">
-        <v>118.95480521150645</v>
-      </c>
       <c r="O55">
-        <v>0.67567567567567577</v>
+        <v>0.73999999999999988</v>
       </c>
       <c r="P55">
-        <v>498.32418399414871</v>
+        <v>379.36937878264223</v>
       </c>
       <c r="Q55">
-        <v>657.46642339873165</v>
+        <v>480.64171294919504</v>
       </c>
       <c r="R55">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S55">
         <v>4</v>
@@ -4473,7 +4473,7 @@
         <v>5</v>
       </c>
       <c r="U55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V55" t="s">
         <v>106</v>
@@ -4481,7 +4481,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4499,57 +4499,57 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="H56">
-        <v>244</v>
+        <v>200</v>
       </c>
       <c r="I56">
-        <v>214</v>
+        <v>137</v>
       </c>
       <c r="J56">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K56">
-        <v>0.24312896405919662</v>
+        <v>0.15714285714285714</v>
       </c>
       <c r="L56">
-        <v>3.9289643250039292E-3</v>
+        <v>2.2649510866946171E-3</v>
       </c>
       <c r="M56">
-        <v>208.10553419632464</v>
+        <v>142.85210398222284</v>
       </c>
       <c r="N56">
-        <v>222.21438397234667</v>
+        <v>209.86914041832739</v>
       </c>
       <c r="O56">
-        <v>0.9365079365079364</v>
+        <v>0.68067226890756305</v>
       </c>
       <c r="P56">
-        <v>807.73164967725995</v>
+        <v>594.33529681492712</v>
       </c>
       <c r="Q56">
-        <v>1014.073577651582</v>
+        <v>790.09558745723257</v>
       </c>
       <c r="R56">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="S56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T56">
         <v>6</v>
       </c>
       <c r="U56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -4567,49 +4567,49 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="H57">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="I57">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="J57">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K57">
-        <v>9.2982456140350875E-2</v>
+        <v>0.1015625</v>
       </c>
       <c r="L57">
-        <v>5.4389512586291051E-3</v>
+        <v>5.8741691142371313E-3</v>
       </c>
       <c r="M57">
-        <v>84.271751613143081</v>
+        <v>118.97188463031965</v>
       </c>
       <c r="N57">
-        <v>110.70994819765856</v>
+        <v>105.75278633806191</v>
       </c>
       <c r="O57">
-        <v>0.76119402985074625</v>
+        <v>1.125</v>
       </c>
       <c r="P57">
-        <v>512.24005882498739</v>
+        <v>576.6831629997439</v>
       </c>
       <c r="Q57">
-        <v>596.51181043813051</v>
+        <v>641.1262671745003</v>
       </c>
       <c r="R57">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T57">
         <v>5</v>
       </c>
       <c r="U57">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V57" t="s">
         <v>106</v>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -4635,40 +4635,40 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="H58">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="I58">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J58">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K58">
-        <v>0.10989010989010989</v>
+        <v>6.5868263473053898E-2</v>
       </c>
       <c r="L58">
-        <v>1.7055988134964777E-3</v>
+        <v>1.1834903101730855E-3</v>
       </c>
       <c r="M58">
-        <v>54.174325239431177</v>
+        <v>38.69594659959369</v>
       </c>
       <c r="N58">
-        <v>79.326690529167067</v>
+        <v>61.913514559349913</v>
       </c>
       <c r="O58">
-        <v>0.68292682926829285</v>
+        <v>0.62499999999999989</v>
       </c>
       <c r="P58">
-        <v>251.523652897359</v>
+        <v>210.89290896778562</v>
       </c>
       <c r="Q58">
-        <v>321.17635677662764</v>
+        <v>263.13243687723713</v>
       </c>
       <c r="R58">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S58">
         <v>5</v>
@@ -4677,7 +4677,7 @@
         <v>5</v>
       </c>
       <c r="U58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V58" t="s">
         <v>106</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -4703,40 +4703,40 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>423</v>
+        <v>342</v>
       </c>
       <c r="H59">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="I59">
-        <v>302</v>
+        <v>191</v>
       </c>
       <c r="J59">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="K59">
-        <v>0.10094637223974763</v>
+        <v>6.6610455311973016E-2</v>
       </c>
       <c r="L59">
-        <v>3.2277651720942122E-3</v>
+        <v>2.1992371396171951E-3</v>
       </c>
       <c r="M59">
-        <v>103.52658295484905</v>
+        <v>84.602368866328248</v>
       </c>
       <c r="N59">
-        <v>145.82776738801317</v>
+        <v>113.54528453112478</v>
       </c>
       <c r="O59">
-        <v>0.70992366412213737</v>
+        <v>0.74509803921568607</v>
       </c>
       <c r="P59">
-        <v>585.53744768011404</v>
+        <v>410.76676462730427</v>
       </c>
       <c r="Q59">
-        <v>669.02662748241164</v>
+        <v>464.19983970077476</v>
       </c>
       <c r="R59">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="S59">
         <v>4</v>
@@ -4745,7 +4745,7 @@
         <v>5</v>
       </c>
       <c r="U59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V59" t="s">
         <v>106</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -4771,40 +4771,40 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="H60">
-        <v>277</v>
+        <v>222</v>
       </c>
       <c r="I60">
-        <v>244</v>
+        <v>182</v>
       </c>
       <c r="J60">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K60">
-        <v>0.16222222222222221</v>
+        <v>0.16625310173697269</v>
       </c>
       <c r="L60">
-        <v>3.4037318023375025E-3</v>
+        <v>3.2525892322177521E-3</v>
       </c>
       <c r="M60">
-        <v>191.90682592727393</v>
+        <v>148.89322701254011</v>
       </c>
       <c r="N60">
-        <v>266.353439433544</v>
+        <v>218.3767329517255</v>
       </c>
       <c r="O60">
-        <v>0.72049689440993792</v>
+        <v>0.68181818181818177</v>
       </c>
       <c r="P60">
-        <v>861.92634748370449</v>
+        <v>668.36515236740229</v>
       </c>
       <c r="Q60">
-        <v>1045.5613274658374</v>
+        <v>807.33216424577313</v>
       </c>
       <c r="R60">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="S60">
         <v>5</v>
@@ -4813,7 +4813,7 @@
         <v>6</v>
       </c>
       <c r="U60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V60" t="s">
         <v>106</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -4839,49 +4839,49 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>349</v>
+        <v>303</v>
       </c>
       <c r="H61">
-        <v>293</v>
+        <v>220</v>
       </c>
       <c r="I61">
-        <v>200</v>
+        <v>129</v>
       </c>
       <c r="J61">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K61">
-        <v>0.1111111111111111</v>
+        <v>7.9365079365079361E-2</v>
       </c>
       <c r="L61">
-        <v>4.5152722443559095E-3</v>
+        <v>2.5770106676255545E-3</v>
       </c>
       <c r="M61">
-        <v>318.44091328853932</v>
+        <v>212.29394219235954</v>
       </c>
       <c r="N61">
-        <v>303.58033733507415</v>
+        <v>254.75273063083145</v>
       </c>
       <c r="O61">
-        <v>1.048951048951049</v>
+        <v>0.83333333333333326</v>
       </c>
       <c r="P61">
-        <v>1046.6091350083325</v>
+        <v>740.90585825133485</v>
       </c>
       <c r="Q61">
-        <v>1263.1489560445393</v>
+        <v>931.97040622445843</v>
       </c>
       <c r="R61">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T61">
         <v>5</v>
       </c>
       <c r="U61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V61" t="s">
         <v>106</v>
@@ -4889,7 +4889,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -4907,40 +4907,40 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="H62">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I62">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="J62">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K62">
-        <v>0.1409090909090909</v>
+        <v>0.13069908814589665</v>
       </c>
       <c r="L62">
-        <v>3.2850404312668464E-3</v>
+        <v>3.6030390851413802E-3</v>
       </c>
       <c r="M62">
-        <v>80.020971013093089</v>
+        <v>107.61440929347</v>
       </c>
       <c r="N62">
-        <v>140.72653522992232</v>
+        <v>91.058346325243861</v>
       </c>
       <c r="O62">
-        <v>0.56862745098039225</v>
+        <v>1.1818181818181817</v>
       </c>
       <c r="P62">
-        <v>538.07204646735011</v>
+        <v>458.05107545425693</v>
       </c>
       <c r="Q62">
-        <v>620.85236130848079</v>
+        <v>524.27532732716168</v>
       </c>
       <c r="R62">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S62">
         <v>5</v>
@@ -4949,7 +4949,7 @@
         <v>6</v>
       </c>
       <c r="U62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V62" t="s">
         <v>106</v>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4975,57 +4975,57 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H63">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I63">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K63">
-        <v>0.10679611650485436</v>
+        <v>8.461538461538462E-2</v>
       </c>
       <c r="L63">
-        <v>2.1485573971761819E-3</v>
+        <v>7.0136063964090333E-4</v>
       </c>
       <c r="M63">
         <v>39.44081686314037</v>
       </c>
       <c r="N63">
-        <v>74.499320741487352</v>
+        <v>43.823129847933743</v>
       </c>
       <c r="O63">
-        <v>0.52941176470588247</v>
+        <v>0.9</v>
       </c>
       <c r="P63">
-        <v>214.73333625487533</v>
+        <v>170.9102064069416</v>
       </c>
       <c r="Q63">
-        <v>241.02721416363556</v>
+        <v>210.35102327008195</v>
       </c>
       <c r="R63">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T63">
         <v>5</v>
       </c>
       <c r="U63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V63" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -5043,49 +5043,49 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="H64">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="I64">
-        <v>437</v>
+        <v>408</v>
       </c>
       <c r="J64">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K64">
-        <v>0.16274309109518936</v>
+        <v>0.17873941674506114</v>
       </c>
       <c r="L64">
-        <v>6.7963608903592364E-3</v>
+        <v>6.6910225360206892E-3</v>
       </c>
       <c r="M64">
-        <v>152.35804139728361</v>
+        <v>180.42399639152006</v>
       </c>
       <c r="N64">
-        <v>198.46639603067206</v>
+        <v>150.35333032626673</v>
       </c>
       <c r="O64">
-        <v>0.76767676767676774</v>
+        <v>1.2</v>
       </c>
       <c r="P64">
-        <v>788.85380644514601</v>
+        <v>739.73838520523236</v>
       </c>
       <c r="Q64">
-        <v>897.10820428005809</v>
+        <v>860.0210494662457</v>
       </c>
       <c r="R64">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="S64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T64">
         <v>5</v>
       </c>
       <c r="U64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V64" t="s">
         <v>106</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -5111,57 +5111,57 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="H65">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="I65">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J65">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K65">
-        <v>8.8842975206611566E-2</v>
+        <v>9.154113557358054E-2</v>
       </c>
       <c r="L65">
-        <v>8.5487906588824023E-3</v>
+        <v>6.3199105145413867E-3</v>
       </c>
       <c r="M65">
-        <v>155.68962161861603</v>
+        <v>148.27583011296767</v>
       </c>
       <c r="N65">
-        <v>216.8534015402152</v>
+        <v>190.90513127044585</v>
       </c>
       <c r="O65">
-        <v>0.71794871794871784</v>
+        <v>0.77669902912621369</v>
       </c>
       <c r="P65">
+        <v>793.27569110437696</v>
+      </c>
+      <c r="Q65">
         <v>859.99981465521239</v>
       </c>
-      <c r="Q65">
-        <v>943.40496909375656</v>
-      </c>
       <c r="R65">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="S65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T65">
         <v>6</v>
       </c>
       <c r="U65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V65" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -5179,57 +5179,57 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H66">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K66">
-        <v>5.6179775280898875E-2</v>
+        <v>6.2146892655367235E-2</v>
       </c>
       <c r="L66">
-        <v>9.3970242756460454E-4</v>
+        <v>6.6017494636078566E-4</v>
       </c>
       <c r="M66">
-        <v>34.093122930060396</v>
+        <v>58.445353594389239</v>
       </c>
       <c r="N66">
-        <v>43.834015195791935</v>
+        <v>38.963569062926162</v>
       </c>
       <c r="O66">
-        <v>0.77777777777777779</v>
+        <v>1.5</v>
       </c>
       <c r="P66">
-        <v>160.72472238457044</v>
+        <v>141.24293785310735</v>
       </c>
       <c r="Q66">
-        <v>233.78141437755696</v>
+        <v>170.46561465030197</v>
       </c>
       <c r="R66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T66">
         <v>5</v>
       </c>
       <c r="U66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -5247,49 +5247,49 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H67">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I67">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="J67">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K67">
-        <v>0.16129032258064516</v>
+        <v>0.13249211356466878</v>
       </c>
       <c r="L67">
-        <v>4.1241365089184452E-3</v>
+        <v>2.488991001340226E-3</v>
       </c>
       <c r="M67">
         <v>128.97678417884782</v>
       </c>
       <c r="N67">
-        <v>85.984522785898534</v>
+        <v>125.90590836506573</v>
       </c>
       <c r="O67">
-        <v>1.5000000000000002</v>
+        <v>1.024390243902439</v>
       </c>
       <c r="P67">
-        <v>506.69450927404495</v>
+        <v>442.20611718462106</v>
       </c>
       <c r="Q67">
-        <v>598.82078368750763</v>
+        <v>561.9702739221226</v>
       </c>
       <c r="R67">
         <v>11</v>
       </c>
       <c r="S67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T67">
         <v>5</v>
       </c>
       <c r="U67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V67" t="s">
         <v>106</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -5315,57 +5315,57 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="H68">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="I68">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="J68">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K68">
-        <v>9.0410958904109592E-2</v>
+        <v>0.11080332409972299</v>
       </c>
       <c r="L68">
-        <v>3.0266343825665859E-3</v>
+        <v>1.1922503725782414E-3</v>
       </c>
       <c r="M68">
-        <v>38.499105252276081</v>
+        <v>51.332140336368106</v>
       </c>
       <c r="N68">
-        <v>92.683031162886863</v>
+        <v>55.609818697732123</v>
       </c>
       <c r="O68">
-        <v>0.41538461538461535</v>
+        <v>0.92307692307692291</v>
       </c>
       <c r="P68">
-        <v>265.21605840456857</v>
+        <v>205.32856134547242</v>
       </c>
       <c r="Q68">
-        <v>337.93659054775674</v>
+        <v>295.1598069341166</v>
       </c>
       <c r="R68">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="S68">
         <v>3</v>
       </c>
       <c r="T68">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U68">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -5383,49 +5383,49 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>495</v>
+        <v>371</v>
       </c>
       <c r="H69">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="I69">
-        <v>207</v>
+        <v>170</v>
       </c>
       <c r="J69">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K69">
-        <v>0.29306930693069305</v>
+        <v>0.14358974358974358</v>
       </c>
       <c r="L69">
-        <v>3.0640384026146463E-3</v>
+        <v>2.1218752072143755E-3</v>
       </c>
       <c r="M69">
-        <v>130.03901170351105</v>
+        <v>71.189239983673929</v>
       </c>
       <c r="N69">
-        <v>118.64873330612322</v>
+        <v>137.63253063510294</v>
       </c>
       <c r="O69">
-        <v>1.0960000000000001</v>
+        <v>0.51724137931034475</v>
       </c>
       <c r="P69">
-        <v>469.84898389224793</v>
+        <v>370.18404791510443</v>
       </c>
       <c r="Q69">
-        <v>597.989615862861</v>
+        <v>464.15384469355405</v>
       </c>
       <c r="R69">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S69">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T69">
         <v>5</v>
       </c>
       <c r="U69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V69" t="s">
         <v>106</v>
@@ -5433,7 +5433,7 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -5451,40 +5451,40 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>735</v>
+        <v>558</v>
       </c>
       <c r="H70">
-        <v>423</v>
+        <v>322</v>
       </c>
       <c r="I70">
-        <v>396</v>
+        <v>349</v>
       </c>
       <c r="J70">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="K70">
-        <v>0.19724284199363734</v>
+        <v>0.13948919449901767</v>
       </c>
       <c r="L70">
-        <v>3.7270243992777443E-3</v>
+        <v>3.6640102592287258E-3</v>
       </c>
       <c r="M70">
-        <v>163.28597748923795</v>
+        <v>111.7679418108153</v>
       </c>
       <c r="N70">
-        <v>206.07214271369071</v>
+        <v>169.39828680701692</v>
       </c>
       <c r="O70">
-        <v>0.79237288135593209</v>
+        <v>0.65979381443298979</v>
       </c>
       <c r="P70">
-        <v>715.14019018013857</v>
+        <v>585.90850746138335</v>
       </c>
       <c r="Q70">
-        <v>916.84639766684427</v>
+        <v>714.26700313474146</v>
       </c>
       <c r="R70">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="S70">
         <v>5</v>
@@ -5493,7 +5493,7 @@
         <v>6</v>
       </c>
       <c r="U70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V70" t="s">
         <v>106</v>
@@ -5501,7 +5501,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -5519,37 +5519,37 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>425</v>
+        <v>287</v>
       </c>
       <c r="H71">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="I71">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="J71">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="K71">
-        <v>0.11318795430944964</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="L71">
-        <v>1.6554150177181138E-3</v>
+        <v>2.1214465769835524E-3</v>
       </c>
       <c r="M71">
-        <v>78.517528660785402</v>
+        <v>79.272504897908334</v>
       </c>
       <c r="N71">
-        <v>133.63079397075975</v>
+        <v>85.312314794891833</v>
       </c>
       <c r="O71">
-        <v>0.58757062146892658</v>
+        <v>0.92920353982300874</v>
       </c>
       <c r="P71">
-        <v>362.38859381900954</v>
+        <v>305.76537603478931</v>
       </c>
       <c r="Q71">
-        <v>480.16488681018762</v>
+        <v>409.95209675775453</v>
       </c>
       <c r="R71">
         <v>44</v>
@@ -5561,7 +5561,7 @@
         <v>5</v>
       </c>
       <c r="U71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V71" t="s">
         <v>106</v>
@@ -5569,7 +5569,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -5587,40 +5587,40 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c r="H72">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="I72">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J72">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K72">
-        <v>0.1857707509881423</v>
+        <v>8.8709677419354843E-2</v>
       </c>
       <c r="L72">
-        <v>5.2010402080416079E-3</v>
+        <v>4.1721979897591504E-3</v>
       </c>
       <c r="M72">
-        <v>283.30395366406447</v>
+        <v>195.16494585746662</v>
       </c>
       <c r="N72">
-        <v>352.55603122639138</v>
+        <v>333.66910098212037</v>
       </c>
       <c r="O72">
-        <v>0.80357142857142849</v>
+        <v>0.58490566037735847</v>
       </c>
       <c r="P72">
-        <v>1473.1805590531351</v>
+        <v>969.52908587257616</v>
       </c>
       <c r="Q72">
-        <v>2115.3361873583481</v>
+        <v>1328.3807605137247</v>
       </c>
       <c r="R72">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S72">
         <v>5</v>
@@ -5629,7 +5629,7 @@
         <v>6</v>
       </c>
       <c r="U72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V72" t="s">
         <v>106</v>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -5655,40 +5655,40 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="H73">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I73">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J73">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K73">
-        <v>0.13740458015267176</v>
+        <v>0.15714285714285714</v>
       </c>
       <c r="L73">
-        <v>1.0085917071348524E-2</v>
+        <v>6.9770391982747681E-3</v>
       </c>
       <c r="M73">
-        <v>107.7943615257048</v>
+        <v>143.7258153676064</v>
       </c>
       <c r="N73">
-        <v>160.30956329463791</v>
+        <v>135.43394140409066</v>
       </c>
       <c r="O73">
-        <v>0.67241379310344829</v>
+        <v>1.0612244897959182</v>
       </c>
       <c r="P73">
         <v>948.03758982863451</v>
       </c>
       <c r="Q73">
-        <v>1080.7075732448866</v>
+        <v>1047.5400773908236</v>
       </c>
       <c r="R73">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="S73">
         <v>5</v>
@@ -5697,15 +5697,15 @@
         <v>6</v>
       </c>
       <c r="U73">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -5723,40 +5723,40 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="H74">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="I74">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="J74">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K74">
-        <v>0.16254416961130741</v>
+        <v>0.15481171548117154</v>
       </c>
       <c r="L74">
-        <v>5.7038935273208231E-3</v>
+        <v>4.1096861050095657E-3</v>
       </c>
       <c r="M74">
-        <v>108.11308168288363</v>
+        <v>87.410576679778245</v>
       </c>
       <c r="N74">
-        <v>128.81558668598902</v>
+        <v>115.01391668391875</v>
       </c>
       <c r="O74">
-        <v>0.83928571428571419</v>
+        <v>0.7599999999999999</v>
       </c>
       <c r="P74">
-        <v>618.77487175948283</v>
+        <v>533.66457341338298</v>
       </c>
       <c r="Q74">
-        <v>687.7832217698342</v>
+        <v>637.17709842890986</v>
       </c>
       <c r="R74">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="S74">
         <v>4</v>
@@ -5765,7 +5765,7 @@
         <v>5</v>
       </c>
       <c r="U74">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V74" t="s">
         <v>106</v>
@@ -5773,7 +5773,7 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -5791,57 +5791,57 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>759</v>
+        <v>549</v>
       </c>
       <c r="H75">
-        <v>429</v>
+        <v>331</v>
       </c>
       <c r="I75">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="J75">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="K75">
-        <v>0.23882224645583425</v>
+        <v>0.1803921568627451</v>
       </c>
       <c r="L75">
-        <v>6.4931366406561488E-3</v>
+        <v>4.911742133537989E-3</v>
       </c>
       <c r="M75">
-        <v>260.00879077340232</v>
+        <v>156.00527446404141</v>
       </c>
       <c r="N75">
-        <v>271.15202466369101</v>
+        <v>253.81810527879753</v>
       </c>
       <c r="O75">
-        <v>0.95890410958904104</v>
+        <v>0.61463414634146341</v>
       </c>
       <c r="P75">
-        <v>939.74605808101137</v>
+        <v>700.7855979892654</v>
       </c>
       <c r="Q75">
-        <v>1173.7539697770733</v>
+        <v>867.93410634359543</v>
       </c>
       <c r="R75">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -5859,37 +5859,37 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H76">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I76">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K76">
-        <v>5.185185185185185E-2</v>
+        <v>7.407407407407407E-2</v>
       </c>
       <c r="L76">
-        <v>1.9421665947345706E-3</v>
+        <v>4.464285714285714E-3</v>
       </c>
       <c r="M76">
+        <v>61.179619539240989</v>
+      </c>
+      <c r="N76">
         <v>34.413535990823057</v>
       </c>
-      <c r="N76">
-        <v>45.884714654430745</v>
-      </c>
       <c r="O76">
-        <v>0.75</v>
+        <v>1.7777777777777777</v>
       </c>
       <c r="P76">
-        <v>313.54555013861005</v>
+        <v>298.2506452537998</v>
       </c>
       <c r="Q76">
-        <v>370.90144345664851</v>
+        <v>344.13535990823055</v>
       </c>
       <c r="R76">
         <v>5</v>
@@ -5901,15 +5901,15 @@
         <v>5</v>
       </c>
       <c r="U76">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V76" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5927,57 +5927,57 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="H77">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="I77">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="J77">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K77">
-        <v>9.2753623188405798E-2</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="L77">
-        <v>2.2281931974572383E-3</v>
+        <v>2.6477951088003083E-3</v>
       </c>
       <c r="M77">
-        <v>55.482645668619227</v>
+        <v>76.822124771934327</v>
       </c>
       <c r="N77">
-        <v>151.51030163353713</v>
+        <v>66.15238522027677</v>
       </c>
       <c r="O77">
-        <v>0.36619718309859156</v>
+        <v>1.1612903225806455</v>
       </c>
       <c r="P77">
-        <v>465.20064445226888</v>
+        <v>352.10140520469895</v>
       </c>
       <c r="Q77">
-        <v>593.23751907215944</v>
+        <v>428.92352997663329</v>
       </c>
       <c r="R77">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S77">
         <v>4</v>
       </c>
       <c r="T77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -5995,57 +5995,57 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>1023</v>
+        <v>1009</v>
       </c>
       <c r="H78">
-        <v>816</v>
+        <v>705</v>
       </c>
       <c r="I78">
-        <v>674</v>
+        <v>592</v>
       </c>
       <c r="J78">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="K78">
-        <v>0.20907617504051865</v>
+        <v>0.14199229499174462</v>
       </c>
       <c r="L78">
-        <v>5.0775855065399297E-3</v>
+        <v>4.7527987672428195E-3</v>
       </c>
       <c r="M78">
-        <v>189.82175736982973</v>
+        <v>168.94136405914847</v>
       </c>
       <c r="N78">
-        <v>326.49342267610717</v>
+        <v>277.13976575995139</v>
       </c>
       <c r="O78">
-        <v>0.58139534883720922</v>
+        <v>0.60958904109589052</v>
       </c>
       <c r="P78">
-        <v>942.7813949368209</v>
+        <v>820.66273102889727</v>
       </c>
       <c r="Q78">
-        <v>1134.5013698803491</v>
+        <v>989.6040950880456</v>
       </c>
       <c r="R78">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T78">
         <v>6</v>
       </c>
       <c r="U78">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V78" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -6063,49 +6063,49 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H79">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I79">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K79">
-        <v>1.282051282051282E-2</v>
+        <v>1.8404907975460124E-2</v>
       </c>
       <c r="L79">
-        <v>8.7591240875912405E-4</v>
+        <v>4.9202221128839525E-4</v>
       </c>
       <c r="M79">
-        <v>27.111960071476986</v>
+        <v>12.323618214307722</v>
       </c>
       <c r="N79">
         <v>27.111960071476986</v>
       </c>
       <c r="O79">
-        <v>1</v>
+        <v>0.45454545454545459</v>
       </c>
       <c r="P79">
-        <v>125.70090578593876</v>
+        <v>83.800603857292501</v>
       </c>
       <c r="Q79">
-        <v>133.09507671452337</v>
+        <v>98.588945714461772</v>
       </c>
       <c r="R79">
+        <v>9</v>
+      </c>
+      <c r="S79">
         <v>4</v>
-      </c>
-      <c r="S79">
-        <v>5</v>
       </c>
       <c r="T79">
         <v>4</v>
       </c>
       <c r="U79">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V79" t="s">
         <v>106</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -6131,52 +6131,52 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>362</v>
+        <v>274</v>
       </c>
       <c r="H80">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="I80">
-        <v>260</v>
+        <v>178</v>
       </c>
       <c r="J80">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K80">
-        <v>8.1656804733727814E-2</v>
+        <v>0.12776831345826234</v>
       </c>
       <c r="L80">
-        <v>3.2524895599100544E-3</v>
+        <v>2.7819242773782062E-3</v>
       </c>
       <c r="M80">
         <v>82.898841597766094</v>
       </c>
       <c r="N80">
-        <v>109.0774231549554</v>
+        <v>98.896863660492897</v>
       </c>
       <c r="O80">
-        <v>0.7599999999999999</v>
+        <v>0.83823529411764697</v>
       </c>
       <c r="P80">
-        <v>570.11133168990011</v>
+        <v>440.67278954601971</v>
       </c>
       <c r="Q80">
-        <v>674.82565791865727</v>
+        <v>558.47640655337159</v>
       </c>
       <c r="R80">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="S80">
         <v>4</v>
       </c>
       <c r="T80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U80">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6185,18 +6185,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6411,18 +6411,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ED5A2E5F-0875-44CB-B5A9-B787A2EB62A5}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F03681AC-2D18-4447-89CE-C04CD900B27A}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
+    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -733,13 +733,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:V80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:V80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -807,9 +807,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -827,43 +827,43 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="H2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I2">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="J2">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K2">
-        <v>0.10734463276836158</v>
+        <v>8.5972850678733032E-2</v>
       </c>
       <c r="L2">
-        <v>1.8000232261061433E-3</v>
+        <v>1.7678255745433118E-3</v>
       </c>
       <c r="M2">
+        <v>52.368286867963008</v>
+      </c>
+      <c r="N2">
         <v>68.905640615740808</v>
       </c>
-      <c r="N2">
-        <v>88.199219988148229</v>
-      </c>
       <c r="O2">
-        <v>0.78125</v>
+        <v>0.7599999999999999</v>
       </c>
       <c r="P2">
-        <v>405.16516682055595</v>
+        <v>297.67236746000026</v>
       </c>
       <c r="Q2">
-        <v>496.1206124333338</v>
+        <v>347.28442870333362</v>
       </c>
       <c r="R2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2">
         <v>6</v>
@@ -872,12 +872,12 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -895,40 +895,40 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="H3">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="I3">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="J3">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="K3">
-        <v>9.5676172953081881E-2</v>
+        <v>4.5886961387800781E-2</v>
       </c>
       <c r="L3">
-        <v>2.1049741454262573E-3</v>
+        <v>1.9911555648167443E-3</v>
       </c>
       <c r="M3">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N3">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="O3">
-        <v>0.51515151515151514</v>
+        <v>0.70422535211267601</v>
       </c>
       <c r="P3">
-        <v>352.79734003437744</v>
+        <v>258.05636636785664</v>
       </c>
       <c r="Q3">
-        <v>498.96912797700952</v>
+        <v>331.14226033917271</v>
       </c>
       <c r="R3">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="S3">
         <v>4</v>
@@ -940,12 +940,12 @@
         <v>6</v>
       </c>
       <c r="V3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -963,40 +963,40 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>8.6419753086419748E-2</v>
+        <v>4.8689138576779027E-2</v>
       </c>
       <c r="L4">
-        <v>5.745947055202134E-3</v>
+        <v>4.5605306799336651E-3</v>
       </c>
       <c r="M4">
-        <v>43.516100957354219</v>
+        <v>80.815616063657828</v>
       </c>
       <c r="N4">
         <v>43.516100957354219</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="P4">
-        <v>404.07808031828915</v>
+        <v>435.16100957354217</v>
       </c>
       <c r="Q4">
-        <v>534.62638319035182</v>
+        <v>621.6585851050603</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S4">
         <v>4</v>
@@ -1008,12 +1008,12 @@
         <v>6</v>
       </c>
       <c r="V4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1031,43 +1031,43 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H5">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="I5">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="J5">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.13006993006993006</v>
+        <v>0.1337386018237082</v>
       </c>
       <c r="L5">
-        <v>3.7822235493182046E-3</v>
+        <v>3.8799336884060526E-3</v>
       </c>
       <c r="M5">
+        <v>109.2952385850767</v>
+      </c>
+      <c r="N5">
         <v>106.72358591248667</v>
       </c>
-      <c r="N5">
-        <v>120.86767561173188</v>
-      </c>
       <c r="O5">
-        <v>0.88297872340425543</v>
+        <v>1.0240963855421685</v>
       </c>
       <c r="P5">
-        <v>502.75809749135277</v>
+        <v>506.61557650023786</v>
       </c>
       <c r="Q5">
-        <v>622.33994676678969</v>
+        <v>649.34229982898512</v>
       </c>
       <c r="R5">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <v>5</v>
@@ -1079,9 +1079,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1099,40 +1099,40 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>1284</v>
+        <v>1030</v>
       </c>
       <c r="H6">
-        <v>675</v>
+        <v>537</v>
       </c>
       <c r="I6">
-        <v>1109</v>
+        <v>865</v>
       </c>
       <c r="J6">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K6">
-        <v>3.2735685367264317E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="L6">
-        <v>2.2328963993942727E-3</v>
+        <v>1.6431957387688034E-3</v>
       </c>
       <c r="M6">
+        <v>56.599763436090782</v>
+      </c>
+      <c r="N6">
         <v>67.457677238116361</v>
       </c>
-      <c r="N6">
-        <v>88.480446514378656</v>
-      </c>
       <c r="O6">
-        <v>0.76240208877284588</v>
+        <v>0.83904109589041098</v>
       </c>
       <c r="P6">
-        <v>412.13868559177945</v>
+        <v>323.88925851999704</v>
       </c>
       <c r="Q6">
-        <v>471.74170178162194</v>
+        <v>373.09639979300658</v>
       </c>
       <c r="R6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S6">
         <v>4</v>
@@ -1147,9 +1147,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1167,40 +1167,40 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>1284</v>
+        <v>1030</v>
       </c>
       <c r="H7">
-        <v>675</v>
+        <v>537</v>
       </c>
       <c r="I7">
-        <v>1109</v>
+        <v>865</v>
       </c>
       <c r="J7">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K7">
-        <v>3.2735685367264317E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="L7">
-        <v>2.2328963993942727E-3</v>
+        <v>1.6431957387688034E-3</v>
       </c>
       <c r="M7">
+        <v>56.599763436090782</v>
+      </c>
+      <c r="N7">
         <v>67.457677238116361</v>
       </c>
-      <c r="N7">
-        <v>88.480446514378656</v>
-      </c>
       <c r="O7">
-        <v>0.76240208877284588</v>
+        <v>0.83904109589041098</v>
       </c>
       <c r="P7">
-        <v>412.13868559177945</v>
+        <v>323.88925851999704</v>
       </c>
       <c r="Q7">
-        <v>471.74170178162194</v>
+        <v>373.09639979300658</v>
       </c>
       <c r="R7">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S7">
         <v>4</v>
@@ -1215,9 +1215,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1235,40 +1235,40 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>1284</v>
+        <v>1030</v>
       </c>
       <c r="H8">
-        <v>675</v>
+        <v>537</v>
       </c>
       <c r="I8">
-        <v>1109</v>
+        <v>865</v>
       </c>
       <c r="J8">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K8">
-        <v>3.2735685367264317E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="L8">
-        <v>2.2328963993942727E-3</v>
+        <v>1.6431957387688034E-3</v>
       </c>
       <c r="M8">
+        <v>56.599763436090782</v>
+      </c>
+      <c r="N8">
         <v>67.457677238116361</v>
       </c>
-      <c r="N8">
-        <v>88.480446514378656</v>
-      </c>
       <c r="O8">
-        <v>0.76240208877284588</v>
+        <v>0.83904109589041098</v>
       </c>
       <c r="P8">
-        <v>412.13868559177945</v>
+        <v>323.88925851999704</v>
       </c>
       <c r="Q8">
-        <v>471.74170178162194</v>
+        <v>373.09639979300658</v>
       </c>
       <c r="R8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S8">
         <v>4</v>
@@ -1283,9 +1283,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1303,40 +1303,40 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>1284</v>
+        <v>1030</v>
       </c>
       <c r="H9">
-        <v>675</v>
+        <v>537</v>
       </c>
       <c r="I9">
-        <v>1109</v>
+        <v>865</v>
       </c>
       <c r="J9">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K9">
-        <v>3.2735685367264317E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="L9">
-        <v>2.2328963993942727E-3</v>
+        <v>1.6431957387688034E-3</v>
       </c>
       <c r="M9">
+        <v>56.599763436090782</v>
+      </c>
+      <c r="N9">
         <v>67.457677238116361</v>
       </c>
-      <c r="N9">
-        <v>88.480446514378656</v>
-      </c>
       <c r="O9">
-        <v>0.76240208877284588</v>
+        <v>0.83904109589041098</v>
       </c>
       <c r="P9">
-        <v>412.13868559177945</v>
+        <v>323.88925851999704</v>
       </c>
       <c r="Q9">
-        <v>471.74170178162194</v>
+        <v>373.09639979300658</v>
       </c>
       <c r="R9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S9">
         <v>4</v>
@@ -1351,9 +1351,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1371,40 +1371,40 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>1284</v>
+        <v>1030</v>
       </c>
       <c r="H10">
-        <v>675</v>
+        <v>537</v>
       </c>
       <c r="I10">
-        <v>1109</v>
+        <v>865</v>
       </c>
       <c r="J10">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>3.2735685367264317E-2</v>
+        <v>2.4330900243309004E-2</v>
       </c>
       <c r="L10">
-        <v>2.2328963993942727E-3</v>
+        <v>1.6431957387688034E-3</v>
       </c>
       <c r="M10">
+        <v>56.599763436090782</v>
+      </c>
+      <c r="N10">
         <v>67.457677238116361</v>
       </c>
-      <c r="N10">
-        <v>88.480446514378656</v>
-      </c>
       <c r="O10">
-        <v>0.76240208877284588</v>
+        <v>0.83904109589041098</v>
       </c>
       <c r="P10">
-        <v>412.13868559177945</v>
+        <v>323.88925851999704</v>
       </c>
       <c r="Q10">
-        <v>471.74170178162194</v>
+        <v>373.09639979300658</v>
       </c>
       <c r="R10">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="S10">
         <v>4</v>
@@ -1419,9 +1419,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1439,40 +1439,40 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H11">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="I11">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>3.5343035343035345E-2</v>
+      </c>
+      <c r="L11">
+        <v>1.2875315445228408E-3</v>
+      </c>
+      <c r="M11">
         <v>21</v>
       </c>
-      <c r="K11">
-        <v>0.12536443148688048</v>
-      </c>
-      <c r="L11">
-        <v>2.2371364653243847E-3</v>
-      </c>
-      <c r="M11">
-        <v>52</v>
-      </c>
       <c r="N11">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="O11">
-        <v>0.8</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="P11">
-        <v>288.04139984865623</v>
+        <v>213.18318293883596</v>
       </c>
       <c r="Q11">
-        <v>390.56460996427961</v>
+        <v>291.2961049316919</v>
       </c>
       <c r="R11">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="S11">
         <v>4</v>
@@ -1487,9 +1487,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1507,43 +1507,43 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>242</v>
+        <v>193</v>
       </c>
       <c r="H12">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I12">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="J12">
         <v>11</v>
       </c>
       <c r="K12">
-        <v>0.17813765182186234</v>
+        <v>0.12777777777777777</v>
       </c>
       <c r="L12">
-        <v>8.4400465657741564E-3</v>
+        <v>4.4468400485109822E-3</v>
       </c>
       <c r="M12">
         <v>129.37865899019957</v>
       </c>
       <c r="N12">
-        <v>177.8956561115244</v>
+        <v>129.37865899019957</v>
       </c>
       <c r="O12">
-        <v>0.72727272727272729</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>782.74088689070743</v>
+        <v>624.25202962771289</v>
       </c>
       <c r="Q12">
-        <v>889.47828055762204</v>
+        <v>730.98942329462761</v>
       </c>
       <c r="R12">
         <v>19</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12">
         <v>6</v>
@@ -1552,12 +1552,12 @@
         <v>6</v>
       </c>
       <c r="V12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1575,43 +1575,43 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>766</v>
+        <v>585</v>
       </c>
       <c r="H13">
-        <v>343</v>
+        <v>258</v>
       </c>
       <c r="I13">
-        <v>449</v>
+        <v>378</v>
       </c>
       <c r="J13">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.16921397379912664</v>
+        <v>0.10856573705179283</v>
       </c>
       <c r="L13">
-        <v>5.5707171594969471E-3</v>
+        <v>4.5200172191132157E-3</v>
       </c>
       <c r="M13">
+        <v>116.56305506216695</v>
+      </c>
+      <c r="N13">
         <v>169.84902309058614</v>
       </c>
-      <c r="N13">
-        <v>210.92362344582591</v>
-      </c>
       <c r="O13">
-        <v>0.8052631578947369</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="P13">
-        <v>879.21847246891639</v>
+        <v>706.03907637655414</v>
       </c>
       <c r="Q13">
-        <v>965.80817051509769</v>
+        <v>785.96802841918293</v>
       </c>
       <c r="R13">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13">
         <v>6</v>
@@ -1620,12 +1620,12 @@
         <v>6</v>
       </c>
       <c r="V13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1643,40 +1643,40 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="H14">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I14">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="J14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>9.8039215686274508E-2</v>
+        <v>7.2649572649572655E-2</v>
       </c>
       <c r="L14">
-        <v>3.0585196764765852E-3</v>
+        <v>2.7126817873558886E-3</v>
       </c>
       <c r="M14">
-        <v>53.040466756107449</v>
+        <v>37.440329474899379</v>
       </c>
       <c r="N14">
         <v>53.040466756107449</v>
       </c>
       <c r="O14">
-        <v>1</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="P14">
-        <v>530.40466756107446</v>
+        <v>343.20302018657765</v>
       </c>
       <c r="Q14">
-        <v>577.20507940469884</v>
+        <v>408.72359676765149</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S14">
         <v>4</v>
@@ -1688,12 +1688,12 @@
         <v>6</v>
       </c>
       <c r="V14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1711,43 +1711,43 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="H15">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I15">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K15">
-        <v>0.11881188118811881</v>
+        <v>9.0614886731391592E-2</v>
       </c>
       <c r="L15">
-        <v>4.0451945878086206E-3</v>
+        <v>3.8051233267649659E-3</v>
       </c>
       <c r="M15">
+        <v>78.567536400846492</v>
+      </c>
+      <c r="N15">
         <v>114.04964961413202</v>
       </c>
-      <c r="N15">
-        <v>96.30859300748925</v>
-      </c>
       <c r="O15">
-        <v>1.1842105263157896</v>
+        <v>0.68888888888888877</v>
       </c>
       <c r="P15">
-        <v>532.23169819928273</v>
+        <v>491.6807116698136</v>
       </c>
       <c r="Q15">
-        <v>646.28134781341487</v>
+        <v>582.9204313611192</v>
       </c>
       <c r="R15">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15">
         <v>6</v>
@@ -1756,12 +1756,12 @@
         <v>6</v>
       </c>
       <c r="V15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1779,40 +1779,40 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="H16">
-        <v>191</v>
+        <v>136</v>
       </c>
       <c r="I16">
-        <v>191</v>
+        <v>125</v>
       </c>
       <c r="J16">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="K16">
-        <v>9.4836670179135926E-2</v>
+        <v>5.9405940594059403E-2</v>
       </c>
       <c r="L16">
-        <v>1.0106037980602441E-3</v>
+        <v>9.78011601241063E-4</v>
       </c>
       <c r="M16">
+        <v>40.863695058761991</v>
+      </c>
+      <c r="N16">
         <v>70.285555501070633</v>
       </c>
-      <c r="N16">
-        <v>85.813759623400188</v>
-      </c>
       <c r="O16">
-        <v>0.81904761904761902</v>
+        <v>0.58139534883720922</v>
       </c>
       <c r="P16">
-        <v>312.19863024894158</v>
+        <v>213.30848820673762</v>
       </c>
       <c r="Q16">
-        <v>373.49417283708459</v>
+        <v>247.6339920560977</v>
       </c>
       <c r="R16">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="S16">
         <v>4</v>
@@ -1824,12 +1824,12 @@
         <v>6</v>
       </c>
       <c r="V16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1847,40 +1847,40 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="H17">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="I17">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>7.7100115074798622E-2</v>
+      </c>
+      <c r="L17">
+        <v>1.2228109830659207E-3</v>
+      </c>
+      <c r="M17">
+        <v>66.967132956333174</v>
+      </c>
+      <c r="N17">
+        <v>68.030103320719419</v>
+      </c>
+      <c r="O17">
+        <v>0.98437499999999989</v>
+      </c>
+      <c r="P17">
+        <v>248.73506526638039</v>
+      </c>
+      <c r="Q17">
+        <v>299.75764275691995</v>
+      </c>
+      <c r="R17">
         <v>23</v>
-      </c>
-      <c r="K17">
-        <v>0.11021069692058347</v>
-      </c>
-      <c r="L17">
-        <v>1.6510913713964931E-3</v>
-      </c>
-      <c r="M17">
-        <v>68.030103320719419</v>
-      </c>
-      <c r="N17">
-        <v>93.5413920659892</v>
-      </c>
-      <c r="O17">
-        <v>0.72727272727272729</v>
-      </c>
-      <c r="P17">
-        <v>297.63170202814746</v>
-      </c>
-      <c r="Q17">
-        <v>370.97665717079803</v>
-      </c>
-      <c r="R17">
-        <v>37</v>
       </c>
       <c r="S17">
         <v>4</v>
@@ -1895,9 +1895,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1915,57 +1915,57 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H18">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="I18">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="J18">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K18">
-        <v>0.19434628975265017</v>
+        <v>0.1875</v>
       </c>
       <c r="L18">
-        <v>5.4879503698401335E-3</v>
+        <v>6.9000125454773556E-3</v>
       </c>
       <c r="M18">
+        <v>141.20748085854149</v>
+      </c>
+      <c r="N18">
         <v>153.7592569348563</v>
       </c>
-      <c r="N18">
-        <v>166.31103301117108</v>
-      </c>
       <c r="O18">
-        <v>0.92452830188679258</v>
+        <v>0.91836734693877542</v>
       </c>
       <c r="P18">
-        <v>621.31291577758248</v>
+        <v>630.72674783481864</v>
       </c>
       <c r="Q18">
-        <v>724.86506840717959</v>
+        <v>762.52039663612402</v>
       </c>
       <c r="R18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S18">
         <v>5</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U18">
         <v>6</v>
       </c>
       <c r="V18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1983,43 +1983,43 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H19">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="I19">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="J19">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K19">
-        <v>0.1359773371104816</v>
+        <v>0.13438735177865613</v>
       </c>
       <c r="L19">
-        <v>1.3911891354753229E-3</v>
+        <v>9.9152695150531828E-4</v>
       </c>
       <c r="M19">
+        <v>135.51791169119687</v>
+      </c>
+      <c r="N19">
         <v>97.750624826437104</v>
       </c>
-      <c r="N19">
-        <v>108.85865037489587</v>
-      </c>
       <c r="O19">
-        <v>0.89795918367346927</v>
+        <v>1.3863636363636362</v>
       </c>
       <c r="P19">
-        <v>351.01360733129684</v>
+        <v>319.91113579561232</v>
       </c>
       <c r="Q19">
-        <v>450.98583726742572</v>
+        <v>453.2074423771175</v>
       </c>
       <c r="R19">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="S19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19">
         <v>5</v>
@@ -2031,9 +2031,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -2051,57 +2051,57 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="H20">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="I20">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J20">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K20">
-        <v>0.17167381974248927</v>
+        <v>8.666666666666667E-2</v>
       </c>
       <c r="L20">
-        <v>3.7840003561412099E-3</v>
+        <v>4.2705210856978605E-3</v>
       </c>
       <c r="M20">
+        <v>54.851537859660723</v>
+      </c>
+      <c r="N20">
         <v>125.83588097216285</v>
       </c>
-      <c r="N20">
-        <v>98.410112042332472</v>
-      </c>
       <c r="O20">
-        <v>1.2786885245901642</v>
+        <v>0.43589743589743585</v>
       </c>
       <c r="P20">
-        <v>527.54273176791344</v>
+        <v>493.66384073694655</v>
       </c>
       <c r="Q20">
-        <v>658.21845431592874</v>
+        <v>571.10130595058524</v>
       </c>
       <c r="R20">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U20">
         <v>6</v>
       </c>
       <c r="V20" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -2119,40 +2119,40 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>435</v>
+        <v>284</v>
       </c>
       <c r="H21">
-        <v>231</v>
+        <v>187</v>
       </c>
       <c r="I21">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="J21">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.23423423423423423</v>
+        <v>0.14756671899529042</v>
       </c>
       <c r="L21">
-        <v>5.1551453260015711E-3</v>
+        <v>3.7180106228874941E-3</v>
       </c>
       <c r="M21">
+        <v>152.05913410770856</v>
+      </c>
+      <c r="N21">
         <v>163.88595564941923</v>
       </c>
-      <c r="N21">
-        <v>226.39915522703274</v>
-      </c>
       <c r="O21">
-        <v>0.72388059701492546</v>
+        <v>0.92783505154639168</v>
       </c>
       <c r="P21">
-        <v>832.94614572333694</v>
+        <v>623.44244984160503</v>
       </c>
       <c r="Q21">
-        <v>1025.5543822597676</v>
+        <v>795.77613516367478</v>
       </c>
       <c r="R21">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S21">
         <v>5</v>
@@ -2167,9 +2167,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2187,40 +2187,40 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="H22">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="I22">
-        <v>300</v>
+        <v>353</v>
       </c>
       <c r="J22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K22">
-        <v>6.9053708439897693E-2</v>
+        <v>6.5079365079365084E-2</v>
       </c>
       <c r="L22">
-        <v>7.0723618492028609E-3</v>
+        <v>5.3942857142857143E-3</v>
       </c>
       <c r="M22">
+        <v>124.94184887352961</v>
+      </c>
+      <c r="N22">
         <v>110.32099421811657</v>
       </c>
-      <c r="N22">
-        <v>202.03362796570747</v>
-      </c>
       <c r="O22">
-        <v>0.54605263157894735</v>
+        <v>1.1325301204819278</v>
       </c>
       <c r="P22">
-        <v>711.10520369508868</v>
+        <v>704.459360669901</v>
       </c>
       <c r="Q22">
-        <v>794.84282581245429</v>
+        <v>772.246959526816</v>
       </c>
       <c r="R22">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="S22">
         <v>5</v>
@@ -2235,9 +2235,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -2255,40 +2255,40 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>419</v>
+        <v>338</v>
       </c>
       <c r="H23">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="I23">
-        <v>251</v>
+        <v>191</v>
       </c>
       <c r="J23">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>0.14822546972860126</v>
+        <v>5.4029304029304032E-2</v>
       </c>
       <c r="L23">
-        <v>4.0501596697562117E-3</v>
+        <v>3.1867688584106494E-3</v>
       </c>
       <c r="M23">
+        <v>65.872590611681076</v>
+      </c>
+      <c r="N23">
         <v>87.502396484173374</v>
       </c>
-      <c r="N23">
-        <v>98.317299420419516</v>
-      </c>
       <c r="O23">
-        <v>0.89</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="P23">
-        <v>432.59611744984591</v>
+        <v>341.16102898885572</v>
       </c>
       <c r="Q23">
-        <v>488.63697811948498</v>
+        <v>397.20188965849485</v>
       </c>
       <c r="R23">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="S23">
         <v>4</v>
@@ -2300,12 +2300,12 @@
         <v>6</v>
       </c>
       <c r="V23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -2323,43 +2323,43 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>1047</v>
+        <v>955</v>
       </c>
       <c r="H24">
-        <v>744</v>
+        <v>646</v>
       </c>
       <c r="I24">
-        <v>745</v>
+        <v>634</v>
       </c>
       <c r="J24">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K24">
-        <v>0.1731669266770671</v>
+        <v>0.1297760210803689</v>
       </c>
       <c r="L24">
-        <v>2.8001454219169393E-3</v>
+        <v>2.3326088108996446E-3</v>
       </c>
       <c r="M24">
+        <v>85.818493885432304</v>
+      </c>
+      <c r="N24">
         <v>89.620579057571717</v>
       </c>
-      <c r="N24">
-        <v>112.43309009040816</v>
-      </c>
       <c r="O24">
-        <v>0.79710144927536231</v>
+        <v>0.95757575757575752</v>
       </c>
       <c r="P24">
-        <v>404.37891580825539</v>
+        <v>347.61921573846001</v>
       </c>
       <c r="Q24">
-        <v>476.0753790543128</v>
+        <v>416.05674883696935</v>
       </c>
       <c r="R24">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T24">
         <v>5</v>
@@ -2371,9 +2371,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2391,43 +2391,43 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>1047</v>
+        <v>955</v>
       </c>
       <c r="H25">
-        <v>744</v>
+        <v>646</v>
       </c>
       <c r="I25">
-        <v>745</v>
+        <v>634</v>
       </c>
       <c r="J25">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K25">
-        <v>0.1731669266770671</v>
+        <v>0.1297760210803689</v>
       </c>
       <c r="L25">
-        <v>2.8001454219169393E-3</v>
+        <v>2.3326088108996446E-3</v>
       </c>
       <c r="M25">
+        <v>85.818493885432304</v>
+      </c>
+      <c r="N25">
         <v>89.620579057571717</v>
       </c>
-      <c r="N25">
-        <v>112.43309009040816</v>
-      </c>
       <c r="O25">
-        <v>0.79710144927536231</v>
+        <v>0.95757575757575752</v>
       </c>
       <c r="P25">
-        <v>404.37891580825539</v>
+        <v>347.61921573846001</v>
       </c>
       <c r="Q25">
-        <v>476.0753790543128</v>
+        <v>416.05674883696935</v>
       </c>
       <c r="R25">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25">
         <v>5</v>
@@ -2439,9 +2439,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2459,43 +2459,43 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>1047</v>
+        <v>955</v>
       </c>
       <c r="H26">
-        <v>744</v>
+        <v>646</v>
       </c>
       <c r="I26">
-        <v>745</v>
+        <v>634</v>
       </c>
       <c r="J26">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K26">
-        <v>0.1731669266770671</v>
+        <v>0.1297760210803689</v>
       </c>
       <c r="L26">
-        <v>2.8001454219169393E-3</v>
+        <v>2.3326088108996446E-3</v>
       </c>
       <c r="M26">
+        <v>85.818493885432304</v>
+      </c>
+      <c r="N26">
         <v>89.620579057571717</v>
       </c>
-      <c r="N26">
-        <v>112.43309009040816</v>
-      </c>
       <c r="O26">
-        <v>0.79710144927536231</v>
+        <v>0.95757575757575752</v>
       </c>
       <c r="P26">
-        <v>404.37891580825539</v>
+        <v>347.61921573846001</v>
       </c>
       <c r="Q26">
-        <v>476.0753790543128</v>
+        <v>416.05674883696935</v>
       </c>
       <c r="R26">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26">
         <v>5</v>
@@ -2507,9 +2507,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2527,43 +2527,43 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>1047</v>
+        <v>955</v>
       </c>
       <c r="H27">
-        <v>744</v>
+        <v>646</v>
       </c>
       <c r="I27">
-        <v>745</v>
+        <v>634</v>
       </c>
       <c r="J27">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K27">
-        <v>0.1731669266770671</v>
+        <v>0.1297760210803689</v>
       </c>
       <c r="L27">
-        <v>2.8001454219169393E-3</v>
+        <v>2.3326088108996446E-3</v>
       </c>
       <c r="M27">
+        <v>85.818493885432304</v>
+      </c>
+      <c r="N27">
         <v>89.620579057571717</v>
       </c>
-      <c r="N27">
-        <v>112.43309009040816</v>
-      </c>
       <c r="O27">
-        <v>0.79710144927536231</v>
+        <v>0.95757575757575752</v>
       </c>
       <c r="P27">
-        <v>404.37891580825539</v>
+        <v>347.61921573846001</v>
       </c>
       <c r="Q27">
-        <v>476.0753790543128</v>
+        <v>416.05674883696935</v>
       </c>
       <c r="R27">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="S27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27">
         <v>5</v>
@@ -2575,9 +2575,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2595,43 +2595,43 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>1047</v>
+        <v>955</v>
       </c>
       <c r="H28">
-        <v>744</v>
+        <v>646</v>
       </c>
       <c r="I28">
-        <v>745</v>
+        <v>634</v>
       </c>
       <c r="J28">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K28">
-        <v>0.1731669266770671</v>
+        <v>0.1297760210803689</v>
       </c>
       <c r="L28">
-        <v>2.8001454219169393E-3</v>
+        <v>2.3326088108996446E-3</v>
       </c>
       <c r="M28">
+        <v>85.818493885432304</v>
+      </c>
+      <c r="N28">
         <v>89.620579057571717</v>
       </c>
-      <c r="N28">
-        <v>112.43309009040816</v>
-      </c>
       <c r="O28">
-        <v>0.79710144927536231</v>
+        <v>0.95757575757575752</v>
       </c>
       <c r="P28">
-        <v>404.37891580825539</v>
+        <v>347.61921573846001</v>
       </c>
       <c r="Q28">
-        <v>476.0753790543128</v>
+        <v>416.05674883696935</v>
       </c>
       <c r="R28">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T28">
         <v>5</v>
@@ -2643,9 +2643,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2663,57 +2663,57 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="H29">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I29">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="J29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>8.6956521739130432E-2</v>
+        <v>4.0247678018575851E-2</v>
       </c>
       <c r="L29">
-        <v>4.5126353790613718E-3</v>
+        <v>4.4825313117996049E-3</v>
       </c>
       <c r="M29">
-        <v>67.622396537733295</v>
+        <v>54.097917230186638</v>
       </c>
       <c r="N29">
         <v>67.622396537733295</v>
       </c>
       <c r="O29">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P29">
-        <v>586.06076999368861</v>
+        <v>455.32413668740418</v>
       </c>
       <c r="Q29">
-        <v>721.30556306915514</v>
+        <v>509.42205391759086</v>
       </c>
       <c r="R29">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S29">
         <v>4</v>
       </c>
       <c r="T29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U29">
         <v>6</v>
       </c>
       <c r="V29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2731,43 +2731,43 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>401</v>
+        <v>307</v>
       </c>
       <c r="H30">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="I30">
-        <v>226</v>
+        <v>164</v>
       </c>
       <c r="J30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K30">
-        <v>0.15055467511885895</v>
+        <v>0.18703241895261846</v>
       </c>
       <c r="L30">
-        <v>6.9269521410579345E-3</v>
+        <v>5.3040490064246229E-3</v>
       </c>
       <c r="M30">
+        <v>215.71367807012211</v>
+      </c>
+      <c r="N30">
         <v>288.63097769945921</v>
       </c>
-      <c r="N30">
-        <v>279.51631524579204</v>
-      </c>
       <c r="O30">
-        <v>1.0326086956521741</v>
+        <v>0.74736842105263146</v>
       </c>
       <c r="P30">
-        <v>1254.7851977881751</v>
+        <v>1002.6128699033845</v>
       </c>
       <c r="Q30">
-        <v>1373.2758096858479</v>
+        <v>1130.2181442547244</v>
       </c>
       <c r="R30">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T30">
         <v>6</v>
@@ -2779,9 +2779,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2799,43 +2799,43 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="H31">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="I31">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="J31">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K31">
-        <v>6.9216757741347903E-2</v>
+        <v>9.5022624434389136E-2</v>
       </c>
       <c r="L31">
-        <v>3.1258140140661629E-3</v>
+        <v>1.8458081429565032E-3</v>
       </c>
       <c r="M31">
+        <v>53.23756587020862</v>
+      </c>
+      <c r="N31">
         <v>36.093264996751607</v>
       </c>
-      <c r="N31">
-        <v>50.530570995452251</v>
-      </c>
       <c r="O31">
-        <v>0.7142857142857143</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="P31">
-        <v>252.65285497726126</v>
+        <v>230.99689597921028</v>
       </c>
       <c r="Q31">
-        <v>331.15570634519599</v>
+        <v>314.91373709665777</v>
       </c>
       <c r="R31">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31">
         <v>5</v>
@@ -2847,9 +2847,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2867,40 +2867,40 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>246</v>
+        <v>188</v>
       </c>
       <c r="H32">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="I32">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="J32">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K32">
-        <v>0.17793594306049823</v>
+        <v>0.1404109589041096</v>
       </c>
       <c r="L32">
-        <v>4.7531992687385744E-3</v>
+        <v>3.995813909237941E-3</v>
       </c>
       <c r="M32">
+        <v>142.42478191205271</v>
+      </c>
+      <c r="N32">
         <v>201.76844104207464</v>
       </c>
-      <c r="N32">
-        <v>252.2105513025933</v>
-      </c>
       <c r="O32">
-        <v>0.8</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="P32">
-        <v>896.08925286333158</v>
+        <v>700.25517773425906</v>
       </c>
       <c r="Q32">
-        <v>1038.5140347753843</v>
+        <v>789.27066642929208</v>
       </c>
       <c r="R32">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S32">
         <v>5</v>
@@ -2912,12 +2912,12 @@
         <v>6</v>
       </c>
       <c r="V32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2935,40 +2935,40 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>448</v>
+        <v>315</v>
       </c>
       <c r="H33">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="I33">
-        <v>277</v>
+        <v>172</v>
       </c>
       <c r="J33">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K33">
-        <v>0.15865384615384615</v>
+        <v>0.16574585635359115</v>
       </c>
       <c r="L33">
-        <v>3.674889557840416E-3</v>
+        <v>2.3903091196369971E-3</v>
       </c>
       <c r="M33">
+        <v>121.78160959306953</v>
+      </c>
+      <c r="N33">
         <v>141.15595657378512</v>
       </c>
-      <c r="N33">
-        <v>159.14642162730675</v>
-      </c>
       <c r="O33">
-        <v>0.88695652173913042</v>
+        <v>0.86274509803921584</v>
       </c>
       <c r="P33">
-        <v>683.63767203382201</v>
+        <v>500.96525764421779</v>
       </c>
       <c r="Q33">
-        <v>745.91235875755081</v>
+        <v>575.69488171269234</v>
       </c>
       <c r="R33">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="S33">
         <v>4</v>
@@ -2983,9 +2983,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3003,43 +3003,43 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>692</v>
+        <v>495</v>
       </c>
       <c r="H34">
-        <v>358</v>
+        <v>298</v>
       </c>
       <c r="I34">
-        <v>404</v>
+        <v>298</v>
       </c>
       <c r="J34">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.25757575757575757</v>
+        <v>0.16363636363636364</v>
       </c>
       <c r="L34">
-        <v>6.1024144335367469E-3</v>
+        <v>4.9277510188958876E-3</v>
       </c>
       <c r="M34">
+        <v>156.53499578036099</v>
+      </c>
+      <c r="N34">
         <v>249.0948193722266</v>
       </c>
-      <c r="N34">
-        <v>238.20542836141888</v>
-      </c>
       <c r="O34">
-        <v>1.0457142857142856</v>
+        <v>0.62841530054644812</v>
       </c>
       <c r="P34">
-        <v>1037.2144937794353</v>
+        <v>811.25963030517516</v>
       </c>
       <c r="Q34">
-        <v>1278.1422698935562</v>
+        <v>1039.9368415321374</v>
       </c>
       <c r="R34">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T34">
         <v>6</v>
@@ -3048,12 +3048,12 @@
         <v>6</v>
       </c>
       <c r="V34" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -3071,40 +3071,40 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>334</v>
+        <v>245</v>
       </c>
       <c r="H35">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I35">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K35">
-        <v>6.5815324165029471E-2</v>
+        <v>3.9378238341968914E-2</v>
       </c>
       <c r="L35">
-        <v>4.411043947067473E-3</v>
+        <v>2.6326566430702626E-3</v>
       </c>
       <c r="M35">
+        <v>48.43722669967574</v>
+      </c>
+      <c r="N35">
         <v>86.110625243867986</v>
       </c>
-      <c r="N35">
-        <v>78.037754127255354</v>
-      </c>
       <c r="O35">
-        <v>1.1034482758620692</v>
+        <v>0.5625</v>
       </c>
       <c r="P35">
-        <v>449.389825491436</v>
+        <v>336.3696298588593</v>
       </c>
       <c r="Q35">
-        <v>485.71774551619279</v>
+        <v>368.66111432530982</v>
       </c>
       <c r="R35">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="S35">
         <v>4</v>
@@ -3119,9 +3119,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -3139,40 +3139,40 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>728</v>
+        <v>673</v>
       </c>
       <c r="H36">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I36">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="J36">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="K36">
-        <v>0.18550955414012738</v>
+        <v>0.13472222222222222</v>
       </c>
       <c r="L36">
-        <v>4.6266658907059303E-3</v>
+        <v>3.6835543465941292E-3</v>
       </c>
       <c r="M36">
+        <v>205.52637588490524</v>
+      </c>
+      <c r="N36">
         <v>230.43866387095434</v>
       </c>
-      <c r="N36">
-        <v>257.42697585584091</v>
-      </c>
       <c r="O36">
-        <v>0.89516129032258063</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="P36">
-        <v>758.78677157507946</v>
+        <v>735.95050758786772</v>
       </c>
       <c r="Q36">
-        <v>1054.6201914094127</v>
+        <v>981.95935145010287</v>
       </c>
       <c r="R36">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="S36">
         <v>5</v>
@@ -3187,9 +3187,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -3207,37 +3207,37 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="H37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I37">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J37">
         <v>3</v>
       </c>
       <c r="K37">
-        <v>3.896103896103896E-2</v>
+        <v>3.0769230769230771E-2</v>
       </c>
       <c r="L37">
-        <v>5.4588877516206077E-3</v>
+        <v>5.208333333333333E-3</v>
       </c>
       <c r="M37">
-        <v>16.889752142887303</v>
+        <v>31.7795042857746</v>
       </c>
       <c r="N37">
-        <v>59.114132500105555</v>
+        <v>21.8897521428873</v>
       </c>
       <c r="O37">
-        <v>0.28571428571428575</v>
+        <v>1.4517982697259917</v>
       </c>
       <c r="P37">
-        <v>287.12578642908414</v>
+        <v>413.7989275007389</v>
       </c>
       <c r="Q37">
-        <v>363.12967107207697</v>
+        <v>489.80281214373178</v>
       </c>
       <c r="R37">
         <v>3</v>
@@ -3255,9 +3255,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -3275,43 +3275,43 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="H38">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="I38">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="J38">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K38">
-        <v>0.15217391304347827</v>
+        <v>0.18315508021390375</v>
       </c>
       <c r="L38">
-        <v>4.1938737590911501E-3</v>
+        <v>3.4922928709055878E-3</v>
       </c>
       <c r="M38">
+        <v>121.04241000858137</v>
+      </c>
+      <c r="N38">
         <v>97.556569260647663</v>
       </c>
-      <c r="N38">
-        <v>98.459870827875889</v>
-      </c>
       <c r="O38">
-        <v>0.99082568807339444</v>
+        <v>1.2407407407407409</v>
       </c>
       <c r="P38">
-        <v>504.04227451334629</v>
+        <v>490.49275100492304</v>
       </c>
       <c r="Q38">
-        <v>582.62951086220141</v>
+        <v>574.49979675714735</v>
       </c>
       <c r="R38">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="S38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T38">
         <v>5</v>
@@ -3320,12 +3320,12 @@
         <v>6</v>
       </c>
       <c r="V38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -3343,40 +3343,40 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="H39">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="I39">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="J39">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K39">
-        <v>0.17801047120418848</v>
+        <v>0.12371134020618557</v>
       </c>
       <c r="L39">
-        <v>2.9000790930661744E-3</v>
+        <v>4.1644976574700676E-3</v>
       </c>
       <c r="M39">
+        <v>151.76809834572771</v>
+      </c>
+      <c r="N39">
         <v>147.97389588708452</v>
       </c>
-      <c r="N39">
-        <v>258.00576718773709</v>
-      </c>
       <c r="O39">
-        <v>0.57352941176470595</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="P39">
-        <v>724.69266960084985</v>
+        <v>588.101381089695</v>
       </c>
       <c r="Q39">
-        <v>872.66656548793446</v>
+        <v>713.31006222492033</v>
       </c>
       <c r="R39">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="S39">
         <v>5</v>
@@ -3391,9 +3391,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -3411,40 +3411,40 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="H40">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="I40">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="J40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K40">
-        <v>7.8492935635792779E-2</v>
+        <v>0.10679611650485436</v>
       </c>
       <c r="L40">
-        <v>5.5330136481003319E-3</v>
+        <v>6.5178965974370309E-3</v>
       </c>
       <c r="M40">
+        <v>106.92029650434465</v>
+      </c>
+      <c r="N40">
         <v>79.791266048018386</v>
       </c>
-      <c r="N40">
-        <v>127.66602567682941</v>
-      </c>
       <c r="O40">
-        <v>0.62500000000000011</v>
+        <v>1.34</v>
       </c>
       <c r="P40">
-        <v>553.75138637324767</v>
+        <v>600.03032068109826</v>
       </c>
       <c r="Q40">
-        <v>611.2010979278208</v>
+        <v>652.6925562727904</v>
       </c>
       <c r="R40">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="S40">
         <v>5</v>
@@ -3459,9 +3459,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3479,40 +3479,40 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H41">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="I41">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J41">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K41">
-        <v>4.8257372654155493E-2</v>
+        <v>4.8426150121065374E-2</v>
       </c>
       <c r="L41">
-        <v>1.20312813314618E-3</v>
+        <v>1.1528275432310328E-3</v>
       </c>
       <c r="M41">
+        <v>37.137905422134189</v>
+      </c>
+      <c r="N41">
         <v>45.184451596929932</v>
       </c>
-      <c r="N41">
-        <v>47.041346868036641</v>
-      </c>
       <c r="O41">
-        <v>0.96052631578947367</v>
+        <v>0.82191780821917804</v>
       </c>
       <c r="P41">
-        <v>190.0222827432533</v>
+        <v>176.40505075513741</v>
       </c>
       <c r="Q41">
-        <v>229.0170834364942</v>
+        <v>211.68606090616493</v>
       </c>
       <c r="R41">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S41">
         <v>5</v>
@@ -3527,9 +3527,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -3547,43 +3547,43 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="H42">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="I42">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="J42">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K42">
-        <v>0.16666666666666666</v>
+        <v>9.8398169336384442E-2</v>
       </c>
       <c r="L42">
-        <v>1.8190897417605936E-3</v>
+        <v>1.5243386064157718E-3</v>
       </c>
       <c r="M42">
+        <v>67.142525997745935</v>
+      </c>
+      <c r="N42">
         <v>111.90420999624322</v>
       </c>
-      <c r="N42">
-        <v>148.672736137866</v>
-      </c>
       <c r="O42">
-        <v>0.75268817204301075</v>
+        <v>0.6</v>
       </c>
       <c r="P42">
-        <v>495.57578712621995</v>
+        <v>332.51536684597983</v>
       </c>
       <c r="Q42">
-        <v>601.08547083696362</v>
+        <v>404.45378755785049</v>
       </c>
       <c r="R42">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="S42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42">
         <v>6</v>
@@ -3592,12 +3592,12 @@
         <v>6</v>
       </c>
       <c r="V42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -3615,40 +3615,40 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>390</v>
+        <v>319</v>
       </c>
       <c r="H43">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I43">
-        <v>234</v>
+        <v>162</v>
       </c>
       <c r="J43">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="K43">
-        <v>9.4026548672566365E-2</v>
+        <v>8.1850533807829182E-2</v>
       </c>
       <c r="L43">
-        <v>2.0204653587955418E-3</v>
+        <v>1.5492789893933978E-3</v>
       </c>
       <c r="M43">
+        <v>66.184907682844795</v>
+      </c>
+      <c r="N43">
         <v>56.832692466790647</v>
       </c>
-      <c r="N43">
-        <v>65.465506512379093</v>
-      </c>
       <c r="O43">
-        <v>0.86813186813186827</v>
+        <v>1.1645569620253162</v>
       </c>
       <c r="P43">
-        <v>290.63807286814455</v>
+        <v>239.56058976507956</v>
       </c>
       <c r="Q43">
-        <v>409.33926599498579</v>
+        <v>371.21100396030346</v>
       </c>
       <c r="R43">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="S43">
         <v>4</v>
@@ -3663,9 +3663,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3683,43 +3683,43 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="H44">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="I44">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="J44">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K44">
-        <v>0.15720524017467249</v>
+        <v>6.236559139784946E-2</v>
       </c>
       <c r="L44">
-        <v>3.8887705092691244E-3</v>
+        <v>2.0222971221156337E-3</v>
       </c>
       <c r="M44">
+        <v>59.215071332229449</v>
+      </c>
+      <c r="N44">
         <v>81.146579233055164</v>
       </c>
-      <c r="N44">
-        <v>120.62329345454145</v>
-      </c>
       <c r="O44">
-        <v>0.67272727272727273</v>
+        <v>0.72972972972972983</v>
       </c>
       <c r="P44">
-        <v>528.54934040989986</v>
+        <v>392.57399142478044</v>
       </c>
       <c r="Q44">
-        <v>614.0822212231202</v>
+        <v>451.78906275700984</v>
       </c>
       <c r="R44">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="S44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44">
         <v>5</v>
@@ -3731,9 +3731,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3751,40 +3751,40 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="H45">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="I45">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="J45">
         <v>8</v>
       </c>
       <c r="K45">
-        <v>5.1558752997601917E-2</v>
+        <v>3.696303696303696E-2</v>
       </c>
       <c r="L45">
-        <v>9.3004769475357706E-3</v>
+        <v>6.1315147344053059E-3</v>
       </c>
       <c r="M45">
+        <v>53.72630286284442</v>
+      </c>
+      <c r="N45">
         <v>64.471563435413302</v>
       </c>
-      <c r="N45">
-        <v>85.962084580551078</v>
-      </c>
       <c r="O45">
-        <v>0.74999999999999989</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P45">
-        <v>455.90605572185126</v>
+        <v>489.67687466421057</v>
       </c>
       <c r="Q45">
-        <v>492.746949113516</v>
+        <v>526.51776805587542</v>
       </c>
       <c r="R45">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="S45">
         <v>4</v>
@@ -3796,12 +3796,12 @@
         <v>6</v>
       </c>
       <c r="V45" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3819,40 +3819,40 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="H46">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="I46">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="J46">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K46">
-        <v>0.15495867768595042</v>
+        <v>8.2728592162554432E-2</v>
       </c>
       <c r="L46">
-        <v>2.3874949322041533E-3</v>
+        <v>1.3080444735120995E-3</v>
       </c>
       <c r="M46">
+        <v>85.983838223000674</v>
+      </c>
+      <c r="N46">
         <v>108.27594442896381</v>
       </c>
-      <c r="N46">
-        <v>140.12181043748259</v>
-      </c>
       <c r="O46">
-        <v>0.7727272727272726</v>
+        <v>0.79411764705882348</v>
       </c>
       <c r="P46">
-        <v>431.51148441542932</v>
+        <v>316.86636678476174</v>
       </c>
       <c r="Q46">
-        <v>560.48724174993038</v>
+        <v>402.85020500776238</v>
       </c>
       <c r="R46">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="S46">
         <v>4</v>
@@ -3867,9 +3867,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3887,40 +3887,40 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="H47">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I47">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="J47">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K47">
-        <v>0.22619047619047619</v>
+        <v>0.19402985074626866</v>
       </c>
       <c r="L47">
-        <v>6.3848524878907971E-3</v>
+        <v>4.5500505561172902E-3</v>
       </c>
       <c r="M47">
+        <v>144.38079269712634</v>
+      </c>
+      <c r="N47">
         <v>158.35312747426761</v>
       </c>
-      <c r="N47">
-        <v>181.64035210283637</v>
-      </c>
       <c r="O47">
-        <v>0.87179487179487181</v>
+        <v>0.91176470588235292</v>
       </c>
       <c r="P47">
-        <v>666.01462437706675</v>
+        <v>544.92105630850915</v>
       </c>
       <c r="Q47">
-        <v>791.76563737133802</v>
+        <v>684.64440407992174</v>
       </c>
       <c r="R47">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S47">
         <v>5</v>
@@ -3935,9 +3935,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3955,43 +3955,43 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>970</v>
+        <v>672</v>
       </c>
       <c r="H48">
-        <v>544</v>
+        <v>380</v>
       </c>
       <c r="I48">
-        <v>586</v>
+        <v>453</v>
       </c>
       <c r="J48">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="K48">
-        <v>0.17904903417533433</v>
+        <v>0.12254160363086233</v>
       </c>
       <c r="L48">
-        <v>6.04731679169071E-3</v>
+        <v>4.1233533713839277E-3</v>
       </c>
       <c r="M48">
+        <v>144.88125932315671</v>
+      </c>
+      <c r="N48">
         <v>217.32188898473504</v>
       </c>
-      <c r="N48">
-        <v>301.20051280340471</v>
-      </c>
       <c r="O48">
-        <v>0.72151898734177211</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="P48">
-        <v>1077.0777831260991</v>
+        <v>793.98742773808908</v>
       </c>
       <c r="Q48">
-        <v>1222.9122086290135</v>
+        <v>916.94586492682072</v>
       </c>
       <c r="R48">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="S48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T48">
         <v>6</v>
@@ -4000,12 +4000,12 @@
         <v>6</v>
       </c>
       <c r="V48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -4023,43 +4023,43 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>336</v>
+        <v>301</v>
       </c>
       <c r="H49">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="I49">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="J49">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K49">
-        <v>0.15441176470588236</v>
+        <v>0.14193548387096774</v>
       </c>
       <c r="L49">
-        <v>4.9879600963192291E-3</v>
+        <v>4.830917874396135E-3</v>
       </c>
       <c r="M49">
+        <v>128.1260760588419</v>
+      </c>
+      <c r="N49">
         <v>96.09455704413142</v>
       </c>
-      <c r="N49">
-        <v>185.78281028532075</v>
-      </c>
       <c r="O49">
-        <v>0.51724137931034486</v>
+        <v>1.3333333333333335</v>
       </c>
       <c r="P49">
-        <v>647.03668409715158</v>
+        <v>610.20043723023457</v>
       </c>
       <c r="Q49">
-        <v>781.56906395893554</v>
+        <v>749.53754494422515</v>
       </c>
       <c r="R49">
         <v>43</v>
       </c>
       <c r="S49">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T49">
         <v>6</v>
@@ -4068,12 +4068,12 @@
         <v>6</v>
       </c>
       <c r="V49" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -4091,40 +4091,40 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>793</v>
+        <v>664</v>
       </c>
       <c r="H50">
-        <v>558</v>
+        <v>422</v>
       </c>
       <c r="I50">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="J50">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K50">
-        <v>0.14903565166569258</v>
+        <v>0.10238726790450928</v>
       </c>
       <c r="L50">
-        <v>4.3744177568957833E-3</v>
+        <v>3.4370972151700971E-3</v>
       </c>
       <c r="M50">
+        <v>104.77793057892654</v>
+      </c>
+      <c r="N50">
         <v>135.52797542274192</v>
       </c>
-      <c r="N50">
-        <v>182.22248796335052</v>
-      </c>
       <c r="O50">
-        <v>0.7437499999999998</v>
+        <v>0.77310924369747913</v>
       </c>
       <c r="P50">
-        <v>556.34803356310442</v>
+        <v>460.11178210745999</v>
       </c>
       <c r="Q50">
-        <v>675.93154128905326</v>
+        <v>559.19525993753189</v>
       </c>
       <c r="R50">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="S50">
         <v>4</v>
@@ -4139,9 +4139,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -4159,43 +4159,43 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>507</v>
+        <v>429</v>
       </c>
       <c r="H51">
-        <v>368</v>
+        <v>308</v>
       </c>
       <c r="I51">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="J51">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K51">
-        <v>0.16381909547738693</v>
+        <v>0.10103806228373702</v>
       </c>
       <c r="L51">
-        <v>4.1832104367555308E-3</v>
+        <v>2.5149218697605794E-3</v>
       </c>
       <c r="M51">
+        <v>108.22551211192757</v>
+      </c>
+      <c r="N51">
         <v>121.66040327064962</v>
       </c>
-      <c r="N51">
-        <v>153.00848264100105</v>
-      </c>
       <c r="O51">
-        <v>0.79512195121951224</v>
+        <v>0.88957055214723924</v>
       </c>
       <c r="P51">
-        <v>448.57608813288596</v>
+        <v>378.41610097067087</v>
       </c>
       <c r="Q51">
-        <v>589.64244529946745</v>
+        <v>492.61267581980826</v>
       </c>
       <c r="R51">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="S51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T51">
         <v>5</v>
@@ -4207,9 +4207,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -4227,40 +4227,40 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>296</v>
+        <v>223</v>
       </c>
       <c r="H52">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I52">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="J52">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K52">
-        <v>0.20571428571428571</v>
+        <v>0.18565400843881857</v>
       </c>
       <c r="L52">
-        <v>4.2125288762060063E-3</v>
+        <v>2.8799019607843139E-3</v>
       </c>
       <c r="M52">
+        <v>194.08930364820185</v>
+      </c>
+      <c r="N52">
         <v>160.23651812816664</v>
       </c>
-      <c r="N52">
-        <v>198.60300838420653</v>
-      </c>
       <c r="O52">
-        <v>0.80681818181818188</v>
+        <v>1.2112676056338028</v>
       </c>
       <c r="P52">
-        <v>747.01813380877684</v>
+        <v>604.83643462462896</v>
       </c>
       <c r="Q52">
-        <v>902.74094720093888</v>
+        <v>787.6414764328191</v>
       </c>
       <c r="R52">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S52">
         <v>5</v>
@@ -4272,12 +4272,12 @@
         <v>6</v>
       </c>
       <c r="V52" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4295,43 +4295,43 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="H53">
         <v>39</v>
       </c>
       <c r="I53">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="J53">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K53">
-        <v>0.18421052631578946</v>
+        <v>8.7962962962962965E-2</v>
       </c>
       <c r="L53">
-        <v>4.0007743434213074E-3</v>
+        <v>3.1814050123360601E-3</v>
       </c>
       <c r="M53">
+        <v>42.889760700364562</v>
+      </c>
+      <c r="N53">
         <v>55.504396200471781</v>
       </c>
-      <c r="N53">
-        <v>42.889760700364562</v>
-      </c>
       <c r="O53">
-        <v>1.2941176470588234</v>
+        <v>0.77272727272727282</v>
       </c>
       <c r="P53">
-        <v>504.58542000428901</v>
+        <v>378.43906500321674</v>
       </c>
       <c r="Q53">
-        <v>542.42932650461069</v>
+        <v>431.42053410366708</v>
       </c>
       <c r="R53">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="S53">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T53">
         <v>6</v>
@@ -4340,12 +4340,12 @@
         <v>6</v>
       </c>
       <c r="V53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4363,43 +4363,43 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H54">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="I54">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="J54">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K54">
-        <v>0.2</v>
+        <v>0.11867704280155641</v>
       </c>
       <c r="L54">
-        <v>3.5780669144981412E-3</v>
+        <v>2.9683953204120831E-3</v>
       </c>
       <c r="M54">
+        <v>70.105395739017808</v>
+      </c>
+      <c r="N54">
         <v>98.62284485319455</v>
       </c>
-      <c r="N54">
-        <v>104.5639800853147</v>
-      </c>
       <c r="O54">
-        <v>0.94318181818181823</v>
+        <v>0.71084337349397586</v>
       </c>
       <c r="P54">
-        <v>420.63237443410685</v>
+        <v>376.66797371641769</v>
       </c>
       <c r="Q54">
-        <v>495.49067835882084</v>
+        <v>437.2675530840433</v>
       </c>
       <c r="R54">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="S54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54">
         <v>5</v>
@@ -4411,9 +4411,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -4431,40 +4431,40 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="H55">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="I55">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="J55">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="K55">
-        <v>0.14193548387096774</v>
+        <v>8.1460674157303375E-2</v>
       </c>
       <c r="L55">
-        <v>2.5649794801641587E-3</v>
+        <v>2.3477130759233639E-3</v>
       </c>
       <c r="M55">
+        <v>40.187434193076513</v>
+      </c>
+      <c r="N55">
         <v>59.477402605753227</v>
       </c>
-      <c r="N55">
-        <v>80.374868386153025</v>
-      </c>
       <c r="O55">
-        <v>0.73999999999999988</v>
+        <v>0.67567567567567577</v>
       </c>
       <c r="P55">
-        <v>379.36937878264223</v>
+        <v>289.34952619015087</v>
       </c>
       <c r="Q55">
-        <v>480.64171294919504</v>
+        <v>361.68690773768856</v>
       </c>
       <c r="R55">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="S55">
         <v>4</v>
@@ -4479,9 +4479,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4499,57 +4499,57 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>258</v>
+        <v>191</v>
       </c>
       <c r="H56">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="I56">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="J56">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K56">
-        <v>0.15714285714285714</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="L56">
-        <v>2.2649510866946171E-3</v>
+        <v>2.7983700721684913E-3</v>
       </c>
       <c r="M56">
+        <v>128.74325420620085</v>
+      </c>
+      <c r="N56">
         <v>142.85210398222284</v>
       </c>
-      <c r="N56">
-        <v>209.86914041832739</v>
-      </c>
       <c r="O56">
-        <v>0.68067226890756305</v>
+        <v>0.90123456790123468</v>
       </c>
       <c r="P56">
-        <v>594.33529681492712</v>
+        <v>455.01040527670983</v>
       </c>
       <c r="Q56">
-        <v>790.09558745723257</v>
+        <v>608.44414659094923</v>
       </c>
       <c r="R56">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="S56">
         <v>4</v>
       </c>
       <c r="T56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U56">
         <v>6</v>
       </c>
       <c r="V56" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -4567,43 +4567,43 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>307</v>
+        <v>268</v>
       </c>
       <c r="H57">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="I57">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="J57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K57">
-        <v>0.1015625</v>
+        <v>6.741573033707865E-2</v>
       </c>
       <c r="L57">
-        <v>5.8741691142371313E-3</v>
+        <v>4.0541927537719388E-3</v>
       </c>
       <c r="M57">
+        <v>69.400266034353137</v>
+      </c>
+      <c r="N57">
         <v>118.97188463031965</v>
       </c>
-      <c r="N57">
-        <v>105.75278633806191</v>
-      </c>
       <c r="O57">
-        <v>1.125</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="P57">
-        <v>576.6831629997439</v>
+        <v>517.19722068458407</v>
       </c>
       <c r="Q57">
-        <v>641.1262671745003</v>
+        <v>561.81167742095397</v>
       </c>
       <c r="R57">
         <v>20</v>
       </c>
       <c r="S57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57">
         <v>5</v>
@@ -4615,9 +4615,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -4635,40 +4635,40 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="H58">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="I58">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="J58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K58">
-        <v>6.5868263473053898E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="L58">
-        <v>1.1834903101730855E-3</v>
+        <v>8.8819806816920171E-4</v>
       </c>
       <c r="M58">
+        <v>34.826351939634321</v>
+      </c>
+      <c r="N58">
         <v>38.69594659959369</v>
       </c>
-      <c r="N58">
-        <v>61.913514559349913</v>
-      </c>
       <c r="O58">
-        <v>0.62499999999999989</v>
+        <v>0.9</v>
       </c>
       <c r="P58">
-        <v>210.89290896778562</v>
+        <v>150.91419173841541</v>
       </c>
       <c r="Q58">
-        <v>263.13243687723713</v>
+        <v>191.54493566798877</v>
       </c>
       <c r="R58">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="S58">
         <v>5</v>
@@ -4683,9 +4683,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -4703,40 +4703,40 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="H59">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="I59">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="J59">
         <v>16</v>
       </c>
       <c r="K59">
-        <v>6.6610455311973016E-2</v>
+        <v>5.4905490549054907E-2</v>
       </c>
       <c r="L59">
-        <v>2.1992371396171951E-3</v>
+        <v>1.472498917280208E-3</v>
       </c>
       <c r="M59">
+        <v>57.885831329593024</v>
+      </c>
+      <c r="N59">
         <v>84.602368866328248</v>
       </c>
-      <c r="N59">
-        <v>113.54528453112478</v>
-      </c>
       <c r="O59">
-        <v>0.74509803921568607</v>
+        <v>0.6842105263157896</v>
       </c>
       <c r="P59">
-        <v>410.76676462730427</v>
+        <v>289.4291566479651</v>
       </c>
       <c r="Q59">
-        <v>464.19983970077476</v>
+        <v>342.86223172143553</v>
       </c>
       <c r="R59">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="S59">
         <v>4</v>
@@ -4751,9 +4751,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -4771,43 +4771,43 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>328</v>
+        <v>204</v>
       </c>
       <c r="H60">
-        <v>222</v>
+        <v>146</v>
       </c>
       <c r="I60">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="J60">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="K60">
-        <v>0.16625310173697269</v>
+        <v>6.2913907284768214E-2</v>
       </c>
       <c r="L60">
-        <v>3.2525892322177521E-3</v>
+        <v>2.7278927028870198E-3</v>
       </c>
       <c r="M60">
+        <v>92.644674585580518</v>
+      </c>
+      <c r="N60">
         <v>148.89322701254011</v>
       </c>
-      <c r="N60">
-        <v>218.3767329517255</v>
-      </c>
       <c r="O60">
-        <v>0.68181818181818177</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="P60">
-        <v>668.36515236740229</v>
+        <v>494.65638751943885</v>
       </c>
       <c r="Q60">
-        <v>807.33216424577313</v>
+        <v>549.25057075737016</v>
       </c>
       <c r="R60">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="S60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T60">
         <v>6</v>
@@ -4816,12 +4816,12 @@
         <v>6</v>
       </c>
       <c r="V60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -4839,43 +4839,43 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>303</v>
+        <v>165</v>
       </c>
       <c r="H61">
-        <v>220</v>
+        <v>165</v>
       </c>
       <c r="I61">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="J61">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K61">
-        <v>7.9365079365079361E-2</v>
+        <v>3.7296037296037296E-2</v>
       </c>
       <c r="L61">
-        <v>2.5770106676255545E-3</v>
+        <v>3.4095311894614491E-3</v>
       </c>
       <c r="M61">
+        <v>137.9910624250337</v>
+      </c>
+      <c r="N61">
         <v>212.29394219235954</v>
       </c>
-      <c r="N61">
-        <v>254.75273063083145</v>
-      </c>
       <c r="O61">
-        <v>0.83333333333333326</v>
+        <v>0.65</v>
       </c>
       <c r="P61">
-        <v>740.90585825133485</v>
+        <v>571.0707044974472</v>
       </c>
       <c r="Q61">
-        <v>931.97040622445843</v>
+        <v>698.44706981286288</v>
       </c>
       <c r="R61">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="S61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T61">
         <v>5</v>
@@ -4884,12 +4884,12 @@
         <v>6</v>
       </c>
       <c r="V61" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -4907,43 +4907,43 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="H62">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I62">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="J62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K62">
-        <v>0.13069908814589665</v>
+        <v>9.9656357388316158E-2</v>
       </c>
       <c r="L62">
-        <v>3.6030390851413802E-3</v>
+        <v>1.9936498560141772E-3</v>
       </c>
       <c r="M62">
+        <v>74.502283357017703</v>
+      </c>
+      <c r="N62">
         <v>107.61440929347</v>
       </c>
-      <c r="N62">
-        <v>91.058346325243861</v>
-      </c>
       <c r="O62">
-        <v>1.1818181818181817</v>
+        <v>0.6923076923076924</v>
       </c>
       <c r="P62">
-        <v>458.05107545425693</v>
+        <v>391.8268235813523</v>
       </c>
       <c r="Q62">
-        <v>524.27532732716168</v>
+        <v>466.32910693836999</v>
       </c>
       <c r="R62">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T62">
         <v>6</v>
@@ -4952,12 +4952,12 @@
         <v>6</v>
       </c>
       <c r="V62" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4975,46 +4975,46 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H63">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I63">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63">
-        <v>8.461538461538462E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="L63">
-        <v>7.0136063964090333E-4</v>
+        <v>1.1937922801432551E-3</v>
       </c>
       <c r="M63">
+        <v>17.529251939173495</v>
+      </c>
+      <c r="N63">
         <v>39.44081686314037</v>
       </c>
-      <c r="N63">
-        <v>43.823129847933743</v>
-      </c>
       <c r="O63">
-        <v>0.9</v>
+        <v>0.44444444444444436</v>
       </c>
       <c r="P63">
-        <v>170.9102064069416</v>
+        <v>118.32245058942109</v>
       </c>
       <c r="Q63">
-        <v>210.35102327008195</v>
+        <v>144.61632849818133</v>
       </c>
       <c r="R63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S63">
         <v>3</v>
       </c>
       <c r="T63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U63">
         <v>6</v>
@@ -5023,9 +5023,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -5043,40 +5043,40 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>651</v>
+        <v>578</v>
       </c>
       <c r="H64">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="I64">
-        <v>408</v>
+        <v>319</v>
       </c>
       <c r="J64">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K64">
-        <v>0.17873941674506114</v>
+        <v>0.11388888888888889</v>
       </c>
       <c r="L64">
-        <v>6.6910225360206892E-3</v>
+        <v>4.8960624040496241E-3</v>
       </c>
       <c r="M64">
+        <v>109.2567533704205</v>
+      </c>
+      <c r="N64">
         <v>180.42399639152006</v>
       </c>
-      <c r="N64">
-        <v>150.35333032626673</v>
-      </c>
       <c r="O64">
-        <v>1.2</v>
+        <v>0.60555555555555562</v>
       </c>
       <c r="P64">
-        <v>739.73838520523236</v>
+        <v>609.43216558913446</v>
       </c>
       <c r="Q64">
-        <v>860.0210494662457</v>
+        <v>708.66536360447049</v>
       </c>
       <c r="R64">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="S64">
         <v>5</v>
@@ -5091,9 +5091,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -5111,43 +5111,43 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>407</v>
+        <v>339</v>
       </c>
       <c r="H65">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="I65">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="J65">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K65">
-        <v>9.154113557358054E-2</v>
+        <v>0.1074964639321075</v>
       </c>
       <c r="L65">
-        <v>6.3199105145413867E-3</v>
+        <v>4.6462388990178207E-3</v>
       </c>
       <c r="M65">
+        <v>137.15514285449507</v>
+      </c>
+      <c r="N65">
         <v>148.27583011296767</v>
       </c>
-      <c r="N65">
-        <v>190.90513127044585</v>
-      </c>
       <c r="O65">
-        <v>0.77669902912621369</v>
+        <v>0.92499999999999982</v>
       </c>
       <c r="P65">
-        <v>793.27569110437696</v>
+        <v>661.68089187911812</v>
       </c>
       <c r="Q65">
-        <v>859.99981465521239</v>
+        <v>739.52570268842624</v>
       </c>
       <c r="R65">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="S65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T65">
         <v>6</v>
@@ -5156,12 +5156,12 @@
         <v>6</v>
       </c>
       <c r="V65" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -5179,43 +5179,43 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H66">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I66">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J66">
         <v>2</v>
       </c>
       <c r="K66">
-        <v>6.2146892655367235E-2</v>
+        <v>8.0459770114942528E-2</v>
       </c>
       <c r="L66">
-        <v>6.6017494636078566E-4</v>
+        <v>2.7476721111280721E-3</v>
       </c>
       <c r="M66">
+        <v>63.315799727255019</v>
+      </c>
+      <c r="N66">
         <v>58.445353594389239</v>
       </c>
-      <c r="N66">
-        <v>38.963569062926162</v>
-      </c>
       <c r="O66">
-        <v>1.5</v>
+        <v>1.0833333333333335</v>
       </c>
       <c r="P66">
-        <v>141.24293785310735</v>
+        <v>194.81784531463083</v>
       </c>
       <c r="Q66">
-        <v>170.46561465030197</v>
+        <v>224.04052211182542</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T66">
         <v>5</v>
@@ -5224,12 +5224,12 @@
         <v>6</v>
       </c>
       <c r="V66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -5247,40 +5247,40 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="H67">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I67">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="J67">
         <v>13</v>
       </c>
       <c r="K67">
-        <v>0.13249211356466878</v>
+        <v>0.10397553516819572</v>
       </c>
       <c r="L67">
-        <v>2.488991001340226E-3</v>
+        <v>3.4969110618953258E-3</v>
       </c>
       <c r="M67">
+        <v>98.2680260410269</v>
+      </c>
+      <c r="N67">
         <v>128.97678417884782</v>
       </c>
-      <c r="N67">
-        <v>125.90590836506573</v>
-      </c>
       <c r="O67">
-        <v>1.024390243902439</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="P67">
-        <v>442.20611718462106</v>
+        <v>374.64684928141509</v>
       </c>
       <c r="Q67">
-        <v>561.9702739221226</v>
+        <v>494.41100601891662</v>
       </c>
       <c r="R67">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="S67">
         <v>4</v>
@@ -5292,12 +5292,12 @@
         <v>6</v>
       </c>
       <c r="V67" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -5315,40 +5315,40 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="H68">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="I68">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="J68">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K68">
-        <v>0.11080332409972299</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="L68">
-        <v>1.1922503725782414E-3</v>
+        <v>8.699143468950749E-4</v>
       </c>
       <c r="M68">
+        <v>45.628569187882761</v>
+      </c>
+      <c r="N68">
         <v>51.332140336368106</v>
       </c>
-      <c r="N68">
-        <v>55.609818697732123</v>
-      </c>
       <c r="O68">
-        <v>0.92307692307692291</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="P68">
-        <v>205.32856134547242</v>
+        <v>159.69999215758966</v>
       </c>
       <c r="Q68">
-        <v>295.1598069341166</v>
+        <v>219.58748921668581</v>
       </c>
       <c r="R68">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="S68">
         <v>3</v>
@@ -5363,9 +5363,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -5383,43 +5383,43 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>371</v>
+        <v>252</v>
       </c>
       <c r="H69">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="I69">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="J69">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K69">
-        <v>0.14358974358974358</v>
+        <v>0.12424242424242424</v>
       </c>
       <c r="L69">
-        <v>2.1218752072143755E-3</v>
+        <v>1.3926606782257503E-3</v>
       </c>
       <c r="M69">
+        <v>75.935189315918862</v>
+      </c>
+      <c r="N69">
         <v>71.189239983673929</v>
       </c>
-      <c r="N69">
-        <v>137.63253063510294</v>
-      </c>
       <c r="O69">
-        <v>0.51724137931034475</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="P69">
-        <v>370.18404791510443</v>
+        <v>249.63693487608327</v>
       </c>
       <c r="Q69">
-        <v>464.15384469355405</v>
+        <v>309.43589646236939</v>
       </c>
       <c r="R69">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="S69">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T69">
         <v>5</v>
@@ -5431,9 +5431,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -5451,40 +5451,40 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>558</v>
+        <v>477</v>
       </c>
       <c r="H70">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="I70">
-        <v>349</v>
+        <v>299</v>
       </c>
       <c r="J70">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K70">
-        <v>0.13948919449901767</v>
+        <v>0.12661498708010335</v>
       </c>
       <c r="L70">
-        <v>3.6640102592287258E-3</v>
+        <v>2.8997249525596468E-3</v>
       </c>
       <c r="M70">
+        <v>124.86574749177022</v>
+      </c>
+      <c r="N70">
         <v>111.7679418108153</v>
       </c>
-      <c r="N70">
-        <v>169.39828680701692</v>
-      </c>
       <c r="O70">
-        <v>0.65979381443298979</v>
+        <v>1.1171875</v>
       </c>
       <c r="P70">
-        <v>585.90850746138335</v>
+        <v>497.71661587628682</v>
       </c>
       <c r="Q70">
-        <v>714.26700313474146</v>
+        <v>599.87950018773518</v>
       </c>
       <c r="R70">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="S70">
         <v>5</v>
@@ -5499,9 +5499,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -5519,40 +5519,40 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="H71">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="I71">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="J71">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K71">
-        <v>0.1005586592178771</v>
+        <v>7.868601986249045E-2</v>
       </c>
       <c r="L71">
-        <v>2.1214465769835524E-3</v>
+        <v>1.7410922288432771E-3</v>
       </c>
       <c r="M71">
+        <v>69.457813815310161</v>
+      </c>
+      <c r="N71">
         <v>79.272504897908334</v>
       </c>
-      <c r="N71">
-        <v>85.312314794891833</v>
-      </c>
       <c r="O71">
-        <v>0.92920353982300874</v>
+        <v>0.87619047619047619</v>
       </c>
       <c r="P71">
-        <v>305.76537603478931</v>
+        <v>266.50661170439656</v>
       </c>
       <c r="Q71">
-        <v>409.95209675775453</v>
+        <v>338.98433046819849</v>
       </c>
       <c r="R71">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="S71">
         <v>4</v>
@@ -5567,9 +5567,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -5587,40 +5587,40 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="H72">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I72">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J72">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="K72">
-        <v>8.8709677419354843E-2</v>
+        <v>7.5235109717868343E-2</v>
       </c>
       <c r="L72">
-        <v>4.1721979897591504E-3</v>
+        <v>3.9862293893821342E-3</v>
       </c>
       <c r="M72">
+        <v>151.09544195416771</v>
+      </c>
+      <c r="N72">
         <v>195.16494585746662</v>
       </c>
-      <c r="N72">
-        <v>333.66910098212037</v>
-      </c>
       <c r="O72">
-        <v>0.58490566037735847</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="P72">
-        <v>969.52908587257616</v>
+        <v>698.81641903802563</v>
       </c>
       <c r="Q72">
-        <v>1328.3807605137247</v>
+        <v>868.79879123646435</v>
       </c>
       <c r="R72">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S72">
         <v>5</v>
@@ -5635,9 +5635,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -5655,43 +5655,43 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>313</v>
+        <v>254</v>
       </c>
       <c r="H73">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="I73">
-        <v>242</v>
+        <v>173</v>
       </c>
       <c r="J73">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K73">
-        <v>0.15714285714285714</v>
+        <v>0.16713091922005571</v>
       </c>
       <c r="L73">
-        <v>6.9770391982747681E-3</v>
+        <v>3.5397203040677771E-3</v>
       </c>
       <c r="M73">
+        <v>157.54560530679933</v>
+      </c>
+      <c r="N73">
         <v>143.7258153676064</v>
       </c>
-      <c r="N73">
-        <v>135.43394140409066</v>
-      </c>
       <c r="O73">
-        <v>1.0612244897959182</v>
+        <v>1.0961538461538463</v>
       </c>
       <c r="P73">
-        <v>948.03758982863451</v>
+        <v>779.43615257048089</v>
       </c>
       <c r="Q73">
-        <v>1047.5400773908236</v>
+        <v>845.77114427860693</v>
       </c>
       <c r="R73">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T73">
         <v>6</v>
@@ -5703,9 +5703,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -5723,40 +5723,40 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="H74">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I74">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="J74">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K74">
-        <v>0.15481171548117154</v>
+        <v>9.6618357487922704E-2</v>
       </c>
       <c r="L74">
-        <v>4.1096861050095657E-3</v>
+        <v>2.377767870411651E-3</v>
       </c>
       <c r="M74">
+        <v>78.209463345064748</v>
+      </c>
+      <c r="N74">
         <v>87.410576679778245</v>
       </c>
-      <c r="N74">
-        <v>115.01391668391875</v>
-      </c>
       <c r="O74">
-        <v>0.7599999999999999</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="P74">
-        <v>533.66457341338298</v>
+        <v>393.34759505900212</v>
       </c>
       <c r="Q74">
-        <v>637.17709842890986</v>
+        <v>503.7609550755642</v>
       </c>
       <c r="R74">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="S74">
         <v>4</v>
@@ -5771,9 +5771,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -5791,43 +5791,43 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>549</v>
+        <v>431</v>
       </c>
       <c r="H75">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="I75">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="J75">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K75">
-        <v>0.1803921568627451</v>
+        <v>0.17219387755102042</v>
       </c>
       <c r="L75">
-        <v>4.911742133537989E-3</v>
+        <v>3.9431358306526929E-3</v>
       </c>
       <c r="M75">
+        <v>163.43409705756719</v>
+      </c>
+      <c r="N75">
         <v>156.00527446404141</v>
       </c>
-      <c r="N75">
-        <v>253.81810527879753</v>
-      </c>
       <c r="O75">
-        <v>0.61463414634146341</v>
+        <v>1.0476190476190477</v>
       </c>
       <c r="P75">
-        <v>700.7855979892654</v>
+        <v>538.58963803061908</v>
       </c>
       <c r="Q75">
-        <v>867.93410634359543</v>
+        <v>668.59403341732025</v>
       </c>
       <c r="R75">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="S75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T75">
         <v>5</v>
@@ -5839,9 +5839,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -5859,37 +5859,37 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H76">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I76">
         <v>53</v>
       </c>
       <c r="J76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K76">
-        <v>7.407407407407407E-2</v>
+        <v>8.2758620689655171E-2</v>
       </c>
       <c r="L76">
-        <v>4.464285714285714E-3</v>
+        <v>2.1273362710834218E-3</v>
       </c>
       <c r="M76">
+        <v>45.884714654430745</v>
+      </c>
+      <c r="N76">
         <v>61.179619539240989</v>
       </c>
-      <c r="N76">
-        <v>34.413535990823057</v>
-      </c>
       <c r="O76">
-        <v>1.7777777777777777</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="P76">
-        <v>298.2506452537998</v>
+        <v>309.72182391740751</v>
       </c>
       <c r="Q76">
-        <v>344.13535990823055</v>
+        <v>332.66418124462285</v>
       </c>
       <c r="R76">
         <v>5</v>
@@ -5904,12 +5904,12 @@
         <v>6</v>
       </c>
       <c r="V76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5927,40 +5927,40 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="H77">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="I77">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J77">
+        <v>13</v>
+      </c>
+      <c r="K77">
+        <v>9.7156398104265407E-2</v>
+      </c>
+      <c r="L77">
+        <v>2.2371364653243847E-3</v>
+      </c>
+      <c r="M77">
+        <v>85.357916413260355</v>
+      </c>
+      <c r="N77">
+        <v>76.822124771934327</v>
+      </c>
+      <c r="O77">
+        <v>1.1111111111111109</v>
+      </c>
+      <c r="P77">
+        <v>377.70878012867706</v>
+      </c>
+      <c r="Q77">
+        <v>460.93274863160593</v>
+      </c>
+      <c r="R77">
         <v>12</v>
-      </c>
-      <c r="K77">
-        <v>0.11538461538461539</v>
-      </c>
-      <c r="L77">
-        <v>2.6477951088003083E-3</v>
-      </c>
-      <c r="M77">
-        <v>76.822124771934327</v>
-      </c>
-      <c r="N77">
-        <v>66.15238522027677</v>
-      </c>
-      <c r="O77">
-        <v>1.1612903225806455</v>
-      </c>
-      <c r="P77">
-        <v>352.10140520469895</v>
-      </c>
-      <c r="Q77">
-        <v>428.92352997663329</v>
-      </c>
-      <c r="R77">
-        <v>22</v>
       </c>
       <c r="S77">
         <v>4</v>
@@ -5975,9 +5975,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -5995,57 +5995,57 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>1009</v>
+        <v>730</v>
       </c>
       <c r="H78">
-        <v>705</v>
+        <v>504</v>
       </c>
       <c r="I78">
-        <v>592</v>
+        <v>493</v>
       </c>
       <c r="J78">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="K78">
-        <v>0.14199229499174462</v>
+        <v>8.1360946745562129E-2</v>
       </c>
       <c r="L78">
-        <v>4.7527987672428195E-3</v>
+        <v>3.9773596450971395E-3</v>
       </c>
       <c r="M78">
+        <v>149.95918832216549</v>
+      </c>
+      <c r="N78">
         <v>168.94136405914847</v>
       </c>
-      <c r="N78">
-        <v>277.13976575995139</v>
-      </c>
       <c r="O78">
-        <v>0.60958904109589052</v>
+        <v>0.88764044943820219</v>
       </c>
       <c r="P78">
-        <v>820.66273102889727</v>
+        <v>630.84097365906746</v>
       </c>
       <c r="Q78">
-        <v>989.6040950880456</v>
+        <v>754.22511594945672</v>
       </c>
       <c r="R78">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="S78">
         <v>4</v>
       </c>
       <c r="T78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U78">
         <v>6</v>
       </c>
       <c r="V78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -6063,43 +6063,43 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H79">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I79">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J79">
         <v>2</v>
       </c>
       <c r="K79">
-        <v>1.8404907975460124E-2</v>
+        <v>1.8518518518518517E-2</v>
       </c>
       <c r="L79">
-        <v>4.9202221128839525E-4</v>
+        <v>5.5768005098789041E-4</v>
       </c>
       <c r="M79">
-        <v>12.323618214307722</v>
+        <v>22.182512785753897</v>
       </c>
       <c r="N79">
-        <v>27.111960071476986</v>
+        <v>20.165920714321722</v>
       </c>
       <c r="O79">
-        <v>0.45454545454545459</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P79">
+        <v>69.012262000123243</v>
+      </c>
+      <c r="Q79">
         <v>83.800603857292501</v>
       </c>
-      <c r="Q79">
-        <v>98.588945714461772</v>
-      </c>
       <c r="R79">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T79">
         <v>4</v>
@@ -6111,9 +6111,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44305</v>
+        <v>44312</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -6131,40 +6131,40 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>274</v>
+        <v>203</v>
       </c>
       <c r="H80">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="I80">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="J80">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="K80">
-        <v>0.12776831345826234</v>
+        <v>6.0160427807486629E-2</v>
       </c>
       <c r="L80">
-        <v>2.7819242773782062E-3</v>
+        <v>2.0601026781334815E-3</v>
       </c>
       <c r="M80">
+        <v>42.176603619916079</v>
+      </c>
+      <c r="N80">
         <v>82.898841597766094</v>
       </c>
-      <c r="N80">
-        <v>98.896863660492897</v>
-      </c>
       <c r="O80">
-        <v>0.83823529411764697</v>
+        <v>0.50877192982456132</v>
       </c>
       <c r="P80">
-        <v>440.67278954601971</v>
+        <v>335.95846331726261</v>
       </c>
       <c r="Q80">
-        <v>558.47640655337159</v>
+        <v>405.76801413643403</v>
       </c>
       <c r="R80">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="S80">
         <v>4</v>
@@ -6185,21 +6185,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -6410,24 +6395,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A17AE3-A467-46C2-B8E3-63736AD8DD9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6444,4 +6427,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F03681AC-2D18-4447-89CE-C04CD900B27A}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0091F853-39DF-4CC6-952B-2382A22F4389}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,12 +734,12 @@
   <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V80"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -807,9 +807,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -827,57 +827,57 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="J2">
         <v>6</v>
       </c>
       <c r="K2">
-        <v>8.5972850678733032E-2</v>
+        <v>7.0469798657718116E-2</v>
       </c>
       <c r="L2">
-        <v>1.7678255745433118E-3</v>
+        <v>2.4188558249423411E-3</v>
       </c>
       <c r="M2">
+        <v>63.393189366481543</v>
+      </c>
+      <c r="N2">
         <v>52.368286867963008</v>
       </c>
-      <c r="N2">
-        <v>68.905640615740808</v>
-      </c>
       <c r="O2">
-        <v>0.7599999999999999</v>
+        <v>1.2105263157894739</v>
       </c>
       <c r="P2">
-        <v>297.67236746000026</v>
+        <v>325.23462370629665</v>
       </c>
       <c r="Q2">
-        <v>347.28442870333362</v>
+        <v>374.84668494963</v>
       </c>
       <c r="R2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -895,57 +895,57 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="H3">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I3">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="J3">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K3">
-        <v>4.5886961387800781E-2</v>
+        <v>3.9483971853010162E-2</v>
       </c>
       <c r="L3">
-        <v>1.9911555648167443E-3</v>
+        <v>2.7104351754253879E-3</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>80.304253869717627</v>
       </c>
       <c r="N3">
-        <v>71</v>
+        <v>58.649174174512872</v>
       </c>
       <c r="O3">
-        <v>0.70422535211267601</v>
+        <v>1.3692307692307693</v>
       </c>
       <c r="P3">
-        <v>258.05636636785664</v>
+        <v>315.80324555506934</v>
       </c>
       <c r="Q3">
-        <v>331.14226033917271</v>
+        <v>375.35471471688237</v>
       </c>
       <c r="R3">
         <v>20</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T3">
         <v>5</v>
       </c>
       <c r="U3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -963,40 +963,40 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K4">
-        <v>4.8689138576779027E-2</v>
+        <v>5.9561128526645767E-2</v>
       </c>
       <c r="L4">
-        <v>4.5605306799336651E-3</v>
+        <v>3.3208800332088003E-3</v>
       </c>
       <c r="M4">
+        <v>74.599030212607246</v>
+      </c>
+      <c r="N4">
         <v>80.815616063657828</v>
       </c>
-      <c r="N4">
-        <v>43.516100957354219</v>
-      </c>
       <c r="O4">
-        <v>1.857142857142857</v>
+        <v>0.92307692307692335</v>
       </c>
       <c r="P4">
-        <v>435.16100957354217</v>
+        <v>391.64490861618793</v>
       </c>
       <c r="Q4">
-        <v>621.6585851050603</v>
+        <v>522.19321148825065</v>
       </c>
       <c r="R4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S4">
         <v>4</v>
@@ -1005,15 +1005,15 @@
         <v>5</v>
       </c>
       <c r="U4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1031,57 +1031,57 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="H5">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="I5">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="J5">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="K5">
-        <v>0.1337386018237082</v>
+        <v>8.6657496561210454E-2</v>
       </c>
       <c r="L5">
-        <v>3.8799336884060526E-3</v>
+        <v>4.5126022673074809E-3</v>
       </c>
       <c r="M5">
+        <v>68.148795823636064</v>
+      </c>
+      <c r="N5">
         <v>109.2952385850767</v>
       </c>
-      <c r="N5">
-        <v>106.72358591248667</v>
-      </c>
       <c r="O5">
-        <v>1.0240963855421685</v>
+        <v>0.62352941176470589</v>
       </c>
       <c r="P5">
-        <v>506.61557650023786</v>
+        <v>480.89904977433753</v>
       </c>
       <c r="Q5">
-        <v>649.34229982898512</v>
+        <v>588.90846202311911</v>
       </c>
       <c r="R5">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T5">
         <v>5</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1099,40 +1099,40 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>1030</v>
+        <v>861</v>
       </c>
       <c r="H6">
-        <v>537</v>
+        <v>439</v>
       </c>
       <c r="I6">
-        <v>865</v>
+        <v>663</v>
       </c>
       <c r="J6">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K6">
-        <v>2.4330900243309004E-2</v>
+        <v>1.3419585713302595E-2</v>
       </c>
       <c r="L6">
-        <v>1.6431957387688034E-3</v>
+        <v>1.355744273366429E-3</v>
       </c>
       <c r="M6">
+        <v>44.817771863680051</v>
+      </c>
+      <c r="N6">
         <v>56.599763436090782</v>
       </c>
-      <c r="N6">
-        <v>67.457677238116361</v>
-      </c>
       <c r="O6">
-        <v>0.83904109589041098</v>
+        <v>0.79183673469387761</v>
       </c>
       <c r="P6">
-        <v>323.88925851999704</v>
+        <v>254.58342574111035</v>
       </c>
       <c r="Q6">
-        <v>373.09639979300658</v>
+        <v>295.47386708065352</v>
       </c>
       <c r="R6">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="S6">
         <v>4</v>
@@ -1141,15 +1141,15 @@
         <v>5</v>
       </c>
       <c r="U6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1167,40 +1167,40 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>1030</v>
+        <v>861</v>
       </c>
       <c r="H7">
-        <v>537</v>
+        <v>439</v>
       </c>
       <c r="I7">
-        <v>865</v>
+        <v>663</v>
       </c>
       <c r="J7">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>2.4330900243309004E-2</v>
+        <v>1.3419585713302595E-2</v>
       </c>
       <c r="L7">
-        <v>1.6431957387688034E-3</v>
+        <v>1.355744273366429E-3</v>
       </c>
       <c r="M7">
+        <v>44.817771863680051</v>
+      </c>
+      <c r="N7">
         <v>56.599763436090782</v>
       </c>
-      <c r="N7">
-        <v>67.457677238116361</v>
-      </c>
       <c r="O7">
-        <v>0.83904109589041098</v>
+        <v>0.79183673469387761</v>
       </c>
       <c r="P7">
-        <v>323.88925851999704</v>
+        <v>254.58342574111035</v>
       </c>
       <c r="Q7">
-        <v>373.09639979300658</v>
+        <v>295.47386708065352</v>
       </c>
       <c r="R7">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="S7">
         <v>4</v>
@@ -1209,15 +1209,15 @@
         <v>5</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1235,40 +1235,40 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>1030</v>
+        <v>861</v>
       </c>
       <c r="H8">
-        <v>537</v>
+        <v>439</v>
       </c>
       <c r="I8">
-        <v>865</v>
+        <v>663</v>
       </c>
       <c r="J8">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>2.4330900243309004E-2</v>
+        <v>1.3419585713302595E-2</v>
       </c>
       <c r="L8">
-        <v>1.6431957387688034E-3</v>
+        <v>1.355744273366429E-3</v>
       </c>
       <c r="M8">
+        <v>44.817771863680051</v>
+      </c>
+      <c r="N8">
         <v>56.599763436090782</v>
       </c>
-      <c r="N8">
-        <v>67.457677238116361</v>
-      </c>
       <c r="O8">
-        <v>0.83904109589041098</v>
+        <v>0.79183673469387761</v>
       </c>
       <c r="P8">
-        <v>323.88925851999704</v>
+        <v>254.58342574111035</v>
       </c>
       <c r="Q8">
-        <v>373.09639979300658</v>
+        <v>295.47386708065352</v>
       </c>
       <c r="R8">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="S8">
         <v>4</v>
@@ -1277,15 +1277,15 @@
         <v>5</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1303,40 +1303,40 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>1030</v>
+        <v>861</v>
       </c>
       <c r="H9">
-        <v>537</v>
+        <v>439</v>
       </c>
       <c r="I9">
-        <v>865</v>
+        <v>663</v>
       </c>
       <c r="J9">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K9">
-        <v>2.4330900243309004E-2</v>
+        <v>1.3419585713302595E-2</v>
       </c>
       <c r="L9">
-        <v>1.6431957387688034E-3</v>
+        <v>1.355744273366429E-3</v>
       </c>
       <c r="M9">
+        <v>44.817771863680051</v>
+      </c>
+      <c r="N9">
         <v>56.599763436090782</v>
       </c>
-      <c r="N9">
-        <v>67.457677238116361</v>
-      </c>
       <c r="O9">
-        <v>0.83904109589041098</v>
+        <v>0.79183673469387761</v>
       </c>
       <c r="P9">
-        <v>323.88925851999704</v>
+        <v>254.58342574111035</v>
       </c>
       <c r="Q9">
-        <v>373.09639979300658</v>
+        <v>295.47386708065352</v>
       </c>
       <c r="R9">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="S9">
         <v>4</v>
@@ -1345,15 +1345,15 @@
         <v>5</v>
       </c>
       <c r="U9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1371,40 +1371,40 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>1030</v>
+        <v>861</v>
       </c>
       <c r="H10">
-        <v>537</v>
+        <v>439</v>
       </c>
       <c r="I10">
-        <v>865</v>
+        <v>663</v>
       </c>
       <c r="J10">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="K10">
-        <v>2.4330900243309004E-2</v>
+        <v>1.3419585713302595E-2</v>
       </c>
       <c r="L10">
-        <v>1.6431957387688034E-3</v>
+        <v>1.355744273366429E-3</v>
       </c>
       <c r="M10">
+        <v>44.817771863680051</v>
+      </c>
+      <c r="N10">
         <v>56.599763436090782</v>
       </c>
-      <c r="N10">
-        <v>67.457677238116361</v>
-      </c>
       <c r="O10">
-        <v>0.83904109589041098</v>
+        <v>0.79183673469387761</v>
       </c>
       <c r="P10">
-        <v>323.88925851999704</v>
+        <v>254.58342574111035</v>
       </c>
       <c r="Q10">
-        <v>373.09639979300658</v>
+        <v>295.47386708065352</v>
       </c>
       <c r="R10">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="S10">
         <v>4</v>
@@ -1413,15 +1413,15 @@
         <v>5</v>
       </c>
       <c r="U10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1439,57 +1439,57 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="H11">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I11">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="J11">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>3.5343035343035345E-2</v>
+        <v>1.9969278033794162E-2</v>
       </c>
       <c r="L11">
-        <v>1.2875315445228408E-3</v>
+        <v>1.4634860237084735E-3</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>14.646172873660486</v>
       </c>
       <c r="N11">
-        <v>54</v>
+        <v>27.664993205803142</v>
       </c>
       <c r="O11">
-        <v>0.3888888888888889</v>
+        <v>0.52941176470588236</v>
       </c>
       <c r="P11">
-        <v>213.18318293883596</v>
+        <v>115.54203044776604</v>
       </c>
       <c r="Q11">
-        <v>291.2961049316919</v>
+        <v>125.30614569687305</v>
       </c>
       <c r="R11">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T11">
         <v>5</v>
       </c>
       <c r="U11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1507,57 +1507,57 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="H12">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="I12">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K12">
-        <v>0.12777777777777777</v>
+        <v>8.5626911314984705E-2</v>
       </c>
       <c r="L12">
-        <v>4.4468400485109822E-3</v>
+        <v>4.7954443278885057E-3</v>
       </c>
       <c r="M12">
-        <v>129.37865899019957</v>
+        <v>87.330594818384711</v>
       </c>
       <c r="N12">
         <v>129.37865899019957</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0.67500000000000004</v>
       </c>
       <c r="P12">
-        <v>624.25202962771289</v>
+        <v>439.88744056667855</v>
       </c>
       <c r="Q12">
-        <v>730.98942329462761</v>
+        <v>556.32823365785816</v>
       </c>
       <c r="R12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="S12">
         <v>4</v>
       </c>
       <c r="T12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1575,57 +1575,57 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>585</v>
+        <v>456</v>
       </c>
       <c r="H13">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="I13">
-        <v>378</v>
+        <v>318</v>
       </c>
       <c r="J13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.10856573705179283</v>
+        <v>9.9128540305010893E-2</v>
       </c>
       <c r="L13">
-        <v>4.5200172191132157E-3</v>
+        <v>3.7574722459436378E-3</v>
       </c>
       <c r="M13">
+        <v>111.01243339253996</v>
+      </c>
+      <c r="N13">
         <v>116.56305506216695</v>
       </c>
-      <c r="N13">
-        <v>169.84902309058614</v>
-      </c>
       <c r="O13">
-        <v>0.68627450980392157</v>
+        <v>0.95238095238095244</v>
       </c>
       <c r="P13">
-        <v>706.03907637655414</v>
+        <v>580.59502664298395</v>
       </c>
       <c r="Q13">
-        <v>785.96802841918293</v>
+        <v>657.19360568383661</v>
       </c>
       <c r="R13">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1643,57 +1643,57 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="H14">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I14">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K14">
-        <v>7.2649572649572655E-2</v>
+        <v>7.5268817204301078E-2</v>
       </c>
       <c r="L14">
-        <v>2.7126817873558886E-3</v>
+        <v>2.0746887966804979E-3</v>
       </c>
       <c r="M14">
+        <v>46.800411843624225</v>
+      </c>
+      <c r="N14">
         <v>37.440329474899379</v>
       </c>
-      <c r="N14">
-        <v>53.040466756107449</v>
-      </c>
       <c r="O14">
-        <v>0.70588235294117652</v>
+        <v>1.25</v>
       </c>
       <c r="P14">
-        <v>343.20302018657765</v>
+        <v>283.92249851798698</v>
       </c>
       <c r="Q14">
-        <v>408.72359676765149</v>
+        <v>377.52332220523544</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T14">
         <v>5</v>
       </c>
       <c r="U14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1711,57 +1711,57 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="H15">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="I15">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="J15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K15">
-        <v>9.0614886731391592E-2</v>
+        <v>7.9617834394904455E-2</v>
       </c>
       <c r="L15">
-        <v>3.8051233267649659E-3</v>
+        <v>2.760143527463428E-3</v>
       </c>
       <c r="M15">
+        <v>68.42978976847921</v>
+      </c>
+      <c r="N15">
         <v>78.567536400846492</v>
       </c>
-      <c r="N15">
-        <v>114.04964961413202</v>
-      </c>
       <c r="O15">
-        <v>0.68888888888888877</v>
+        <v>0.87096774193548399</v>
       </c>
       <c r="P15">
-        <v>491.6807116698136</v>
+        <v>420.71648524324252</v>
       </c>
       <c r="Q15">
-        <v>582.9204313611192</v>
+        <v>496.74958498599722</v>
       </c>
       <c r="R15">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1779,57 +1779,57 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>199</v>
+        <v>148</v>
       </c>
       <c r="H16">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="I16">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="K16">
+        <v>3.62453531598513E-2</v>
+      </c>
+      <c r="L16">
+        <v>7.0430801737293106E-4</v>
+      </c>
+      <c r="M16">
+        <v>31.056408244659117</v>
+      </c>
+      <c r="N16">
+        <v>40.863695058761991</v>
+      </c>
+      <c r="O16">
+        <v>0.76000000000000012</v>
+      </c>
+      <c r="P16">
+        <v>156.09931512447079</v>
+      </c>
+      <c r="Q16">
+        <v>180.61753215972803</v>
+      </c>
+      <c r="R16">
         <v>14</v>
       </c>
-      <c r="K16">
-        <v>5.9405940594059403E-2</v>
-      </c>
-      <c r="L16">
-        <v>9.78011601241063E-4</v>
-      </c>
-      <c r="M16">
-        <v>40.863695058761991</v>
-      </c>
-      <c r="N16">
-        <v>70.285555501070633</v>
-      </c>
-      <c r="O16">
-        <v>0.58139534883720922</v>
-      </c>
-      <c r="P16">
-        <v>213.30848820673762</v>
-      </c>
-      <c r="Q16">
-        <v>247.6339920560977</v>
-      </c>
-      <c r="R16">
-        <v>16</v>
-      </c>
       <c r="S16">
         <v>4</v>
       </c>
       <c r="T16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1847,57 +1847,57 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="H17">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c r="I17">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="J17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K17">
-        <v>7.7100115074798622E-2</v>
+        <v>1.8879415347137638E-2</v>
       </c>
       <c r="L17">
-        <v>1.2228109830659207E-3</v>
+        <v>1.3231013495633766E-3</v>
       </c>
       <c r="M17">
+        <v>30.826140567200987</v>
+      </c>
+      <c r="N17">
         <v>66.967132956333174</v>
       </c>
-      <c r="N17">
-        <v>68.030103320719419</v>
-      </c>
       <c r="O17">
-        <v>0.98437499999999989</v>
+        <v>0.46031746031746035</v>
       </c>
       <c r="P17">
-        <v>248.73506526638039</v>
+        <v>182.83090267443345</v>
       </c>
       <c r="Q17">
-        <v>299.75764275691995</v>
+        <v>227.47565797865556</v>
       </c>
       <c r="R17">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T17">
         <v>5</v>
       </c>
       <c r="U17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1915,40 +1915,40 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="H18">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="I18">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18">
-        <v>0.1875</v>
+        <v>0.13214285714285715</v>
       </c>
       <c r="L18">
-        <v>6.9000125454773556E-3</v>
+        <v>4.6969358085439498E-3</v>
       </c>
       <c r="M18">
+        <v>103.5521526295971</v>
+      </c>
+      <c r="N18">
         <v>141.20748085854149</v>
       </c>
-      <c r="N18">
-        <v>153.7592569348563</v>
-      </c>
       <c r="O18">
-        <v>0.91836734693877542</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="P18">
-        <v>630.72674783481864</v>
+        <v>583.65758754863816</v>
       </c>
       <c r="Q18">
-        <v>762.52039663612402</v>
+        <v>706.03740429270749</v>
       </c>
       <c r="R18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S18">
         <v>5</v>
@@ -1957,15 +1957,15 @@
         <v>5</v>
       </c>
       <c r="U18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V18" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1983,57 +1983,57 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="H19">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="I19">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K19">
-        <v>0.13438735177865613</v>
+        <v>4.361873990306947E-2</v>
       </c>
       <c r="L19">
-        <v>9.9152695150531828E-4</v>
+        <v>6.4220919964678492E-4</v>
       </c>
       <c r="M19">
+        <v>46.653707303526801</v>
+      </c>
+      <c r="N19">
         <v>135.51791169119687</v>
       </c>
-      <c r="N19">
-        <v>97.750624826437104</v>
-      </c>
       <c r="O19">
-        <v>1.3863636363636362</v>
+        <v>0.34426229508196726</v>
       </c>
       <c r="P19">
-        <v>319.91113579561232</v>
+        <v>237.71174673701748</v>
       </c>
       <c r="Q19">
-        <v>453.2074423771175</v>
+        <v>364.3432379894474</v>
       </c>
       <c r="R19">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19">
         <v>5</v>
       </c>
       <c r="U19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -2051,57 +2051,57 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="H20">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="I20">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="J20">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K20">
-        <v>8.666666666666667E-2</v>
+        <v>7.0769230769230765E-2</v>
       </c>
       <c r="L20">
-        <v>4.2705210856978605E-3</v>
+        <v>2.6411657559198545E-3</v>
       </c>
       <c r="M20">
+        <v>67.757782061933838</v>
+      </c>
+      <c r="N20">
         <v>54.851537859660723</v>
       </c>
-      <c r="N20">
-        <v>125.83588097216285</v>
-      </c>
       <c r="O20">
-        <v>0.43589743589743585</v>
+        <v>1.2352941176470589</v>
       </c>
       <c r="P20">
-        <v>493.66384073694655</v>
+        <v>387.18732606819333</v>
       </c>
       <c r="Q20">
-        <v>571.10130595058524</v>
+        <v>440.42558340256994</v>
       </c>
       <c r="R20">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T20">
         <v>5</v>
       </c>
       <c r="U20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V20" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -2119,40 +2119,40 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="H21">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="I21">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="J21">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="K21">
-        <v>0.14756671899529042</v>
+        <v>0.13504823151125403</v>
       </c>
       <c r="L21">
-        <v>3.7180106228874941E-3</v>
+        <v>3.7220211084484779E-3</v>
       </c>
       <c r="M21">
+        <v>140.23231256599789</v>
+      </c>
+      <c r="N21">
         <v>152.05913410770856</v>
       </c>
-      <c r="N21">
-        <v>163.88595564941923</v>
-      </c>
       <c r="O21">
-        <v>0.92783505154639168</v>
+        <v>0.92222222222222217</v>
       </c>
       <c r="P21">
-        <v>623.44244984160503</v>
+        <v>567.6874340021119</v>
       </c>
       <c r="Q21">
-        <v>795.77613516367478</v>
+        <v>699.47201689545932</v>
       </c>
       <c r="R21">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="S21">
         <v>5</v>
@@ -2164,12 +2164,12 @@
         <v>6</v>
       </c>
       <c r="V21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2187,57 +2187,57 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>424</v>
+        <v>348</v>
       </c>
       <c r="H22">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="I22">
-        <v>353</v>
+        <v>283</v>
       </c>
       <c r="J22">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K22">
-        <v>6.5079365079365084E-2</v>
+        <v>2.649656526005888E-2</v>
       </c>
       <c r="L22">
-        <v>5.3942857142857143E-3</v>
+        <v>5.3037816394290891E-3</v>
       </c>
       <c r="M22">
+        <v>67.787598856914997</v>
+      </c>
+      <c r="N22">
         <v>124.94184887352961</v>
       </c>
-      <c r="N22">
-        <v>110.32099421811657</v>
-      </c>
       <c r="O22">
-        <v>1.1325301204819278</v>
+        <v>0.54255319148936165</v>
       </c>
       <c r="P22">
-        <v>704.459360669901</v>
+        <v>568.88416295607101</v>
       </c>
       <c r="Q22">
-        <v>772.246959526816</v>
+        <v>620.72173855253538</v>
       </c>
       <c r="R22">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T22">
         <v>5</v>
       </c>
       <c r="U22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -2255,57 +2255,57 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>338</v>
+        <v>287</v>
       </c>
       <c r="H23">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="I23">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="J23">
         <v>19</v>
       </c>
       <c r="K23">
-        <v>5.4029304029304032E-2</v>
+        <v>2.4154589371980676E-2</v>
       </c>
       <c r="L23">
-        <v>3.1867688584106494E-3</v>
+        <v>3.3065477334768734E-3</v>
       </c>
       <c r="M23">
+        <v>37.36057377975942</v>
+      </c>
+      <c r="N23">
         <v>65.872590611681076</v>
       </c>
-      <c r="N23">
-        <v>87.502396484173374</v>
-      </c>
       <c r="O23">
-        <v>0.7528089887640449</v>
+        <v>0.56716417910447769</v>
       </c>
       <c r="P23">
-        <v>341.16102898885572</v>
+        <v>282.17064933660401</v>
       </c>
       <c r="Q23">
-        <v>397.20188965849485</v>
+        <v>338.21151000624315</v>
       </c>
       <c r="R23">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="S23">
         <v>4</v>
       </c>
       <c r="T23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V23" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -2323,57 +2323,57 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>955</v>
+        <v>779</v>
       </c>
       <c r="H24">
-        <v>646</v>
+        <v>573</v>
       </c>
       <c r="I24">
-        <v>634</v>
+        <v>443</v>
       </c>
       <c r="J24">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K24">
-        <v>0.1297760210803689</v>
+        <v>8.4675563736769446E-2</v>
       </c>
       <c r="L24">
-        <v>2.3326088108996446E-3</v>
+        <v>1.4780115494891573E-3</v>
       </c>
       <c r="M24">
+        <v>69.79542065998767</v>
+      </c>
+      <c r="N24">
         <v>85.818493885432304</v>
       </c>
-      <c r="N24">
-        <v>89.620579057571717</v>
-      </c>
       <c r="O24">
-        <v>0.95757575757575752</v>
+        <v>0.81329113924050644</v>
       </c>
       <c r="P24">
-        <v>347.61921573846001</v>
+        <v>275.92275249240259</v>
       </c>
       <c r="Q24">
-        <v>416.05674883696935</v>
+        <v>336.21296022204177</v>
       </c>
       <c r="R24">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="S24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T24">
         <v>5</v>
       </c>
       <c r="U24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2391,57 +2391,57 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>955</v>
+        <v>779</v>
       </c>
       <c r="H25">
-        <v>646</v>
+        <v>573</v>
       </c>
       <c r="I25">
-        <v>634</v>
+        <v>443</v>
       </c>
       <c r="J25">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K25">
-        <v>0.1297760210803689</v>
+        <v>8.4675563736769446E-2</v>
       </c>
       <c r="L25">
-        <v>2.3326088108996446E-3</v>
+        <v>1.4780115494891573E-3</v>
       </c>
       <c r="M25">
+        <v>69.79542065998767</v>
+      </c>
+      <c r="N25">
         <v>85.818493885432304</v>
       </c>
-      <c r="N25">
-        <v>89.620579057571717</v>
-      </c>
       <c r="O25">
-        <v>0.95757575757575752</v>
+        <v>0.81329113924050644</v>
       </c>
       <c r="P25">
-        <v>347.61921573846001</v>
+        <v>275.92275249240259</v>
       </c>
       <c r="Q25">
-        <v>416.05674883696935</v>
+        <v>336.21296022204177</v>
       </c>
       <c r="R25">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="S25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T25">
         <v>5</v>
       </c>
       <c r="U25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2459,57 +2459,57 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>955</v>
+        <v>779</v>
       </c>
       <c r="H26">
-        <v>646</v>
+        <v>573</v>
       </c>
       <c r="I26">
-        <v>634</v>
+        <v>443</v>
       </c>
       <c r="J26">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.1297760210803689</v>
+        <v>8.4675563736769446E-2</v>
       </c>
       <c r="L26">
-        <v>2.3326088108996446E-3</v>
+        <v>1.4780115494891573E-3</v>
       </c>
       <c r="M26">
+        <v>69.79542065998767</v>
+      </c>
+      <c r="N26">
         <v>85.818493885432304</v>
       </c>
-      <c r="N26">
-        <v>89.620579057571717</v>
-      </c>
       <c r="O26">
-        <v>0.95757575757575752</v>
+        <v>0.81329113924050644</v>
       </c>
       <c r="P26">
-        <v>347.61921573846001</v>
+        <v>275.92275249240259</v>
       </c>
       <c r="Q26">
-        <v>416.05674883696935</v>
+        <v>336.21296022204177</v>
       </c>
       <c r="R26">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T26">
         <v>5</v>
       </c>
       <c r="U26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2527,57 +2527,57 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>955</v>
+        <v>779</v>
       </c>
       <c r="H27">
-        <v>646</v>
+        <v>573</v>
       </c>
       <c r="I27">
-        <v>634</v>
+        <v>443</v>
       </c>
       <c r="J27">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K27">
-        <v>0.1297760210803689</v>
+        <v>8.4675563736769446E-2</v>
       </c>
       <c r="L27">
-        <v>2.3326088108996446E-3</v>
+        <v>1.4780115494891573E-3</v>
       </c>
       <c r="M27">
+        <v>69.79542065998767</v>
+      </c>
+      <c r="N27">
         <v>85.818493885432304</v>
       </c>
-      <c r="N27">
-        <v>89.620579057571717</v>
-      </c>
       <c r="O27">
-        <v>0.95757575757575752</v>
+        <v>0.81329113924050644</v>
       </c>
       <c r="P27">
-        <v>347.61921573846001</v>
+        <v>275.92275249240259</v>
       </c>
       <c r="Q27">
-        <v>416.05674883696935</v>
+        <v>336.21296022204177</v>
       </c>
       <c r="R27">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T27">
         <v>5</v>
       </c>
       <c r="U27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2595,57 +2595,57 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>955</v>
+        <v>779</v>
       </c>
       <c r="H28">
-        <v>646</v>
+        <v>573</v>
       </c>
       <c r="I28">
-        <v>634</v>
+        <v>443</v>
       </c>
       <c r="J28">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="K28">
-        <v>0.1297760210803689</v>
+        <v>8.4675563736769446E-2</v>
       </c>
       <c r="L28">
-        <v>2.3326088108996446E-3</v>
+        <v>1.4780115494891573E-3</v>
       </c>
       <c r="M28">
+        <v>69.79542065998767</v>
+      </c>
+      <c r="N28">
         <v>85.818493885432304</v>
       </c>
-      <c r="N28">
-        <v>89.620579057571717</v>
-      </c>
       <c r="O28">
-        <v>0.95757575757575752</v>
+        <v>0.81329113924050644</v>
       </c>
       <c r="P28">
-        <v>347.61921573846001</v>
+        <v>275.92275249240259</v>
       </c>
       <c r="Q28">
-        <v>416.05674883696935</v>
+        <v>336.21296022204177</v>
       </c>
       <c r="R28">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="S28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T28">
         <v>5</v>
       </c>
       <c r="U28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2663,40 +2663,40 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="H29">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I29">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>4.0247678018575851E-2</v>
+        <v>3.5623409669211195E-2</v>
       </c>
       <c r="L29">
-        <v>4.4825313117996049E-3</v>
+        <v>2.7643400138217E-3</v>
       </c>
       <c r="M29">
+        <v>40.573437922639975</v>
+      </c>
+      <c r="N29">
         <v>54.097917230186638</v>
       </c>
-      <c r="N29">
-        <v>67.622396537733295</v>
-      </c>
       <c r="O29">
-        <v>0.8</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="P29">
-        <v>455.32413668740418</v>
+        <v>387.70174014967091</v>
       </c>
       <c r="Q29">
-        <v>509.42205391759086</v>
+        <v>387.70174014967091</v>
       </c>
       <c r="R29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S29">
         <v>4</v>
@@ -2705,15 +2705,15 @@
         <v>5</v>
       </c>
       <c r="U29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2731,40 +2731,40 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="H30">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="I30">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="J30">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K30">
-        <v>0.18703241895261846</v>
+        <v>0.11228813559322035</v>
       </c>
       <c r="L30">
-        <v>5.3040490064246229E-3</v>
+        <v>5.8972198820556026E-3</v>
       </c>
       <c r="M30">
+        <v>142.79637844078508</v>
+      </c>
+      <c r="N30">
         <v>215.71367807012211</v>
       </c>
-      <c r="N30">
-        <v>288.63097769945921</v>
-      </c>
       <c r="O30">
-        <v>0.74736842105263146</v>
+        <v>0.66197183098591561</v>
       </c>
       <c r="P30">
-        <v>1002.6128699033845</v>
+        <v>789.93741265115159</v>
       </c>
       <c r="Q30">
-        <v>1130.2181442547244</v>
+        <v>881.08403718782279</v>
       </c>
       <c r="R30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S30">
         <v>5</v>
@@ -2776,12 +2776,12 @@
         <v>6</v>
       </c>
       <c r="V30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2799,57 +2799,57 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="H31">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="I31">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="J31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K31">
-        <v>9.5022624434389136E-2</v>
+        <v>5.0955414012738856E-2</v>
       </c>
       <c r="L31">
-        <v>1.8458081429565032E-3</v>
+        <v>1.8228217280349982E-3</v>
       </c>
       <c r="M31">
+        <v>30.679275247238866</v>
+      </c>
+      <c r="N31">
         <v>53.23756587020862</v>
       </c>
-      <c r="N31">
-        <v>36.093264996751607</v>
-      </c>
       <c r="O31">
-        <v>1.4750000000000001</v>
+        <v>0.57627118644067798</v>
       </c>
       <c r="P31">
-        <v>230.99689597921028</v>
+        <v>196.70829423229625</v>
       </c>
       <c r="Q31">
-        <v>314.91373709665777</v>
+        <v>277.91814047498735</v>
       </c>
       <c r="R31">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="S31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31">
         <v>5</v>
       </c>
       <c r="U31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2867,57 +2867,57 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="H32">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="I32">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K32">
-        <v>0.1404109589041096</v>
+        <v>8.0701754385964913E-2</v>
       </c>
       <c r="L32">
-        <v>3.995813909237941E-3</v>
+        <v>2.9501633126119481E-3</v>
       </c>
       <c r="M32">
+        <v>77.14675686902855</v>
+      </c>
+      <c r="N32">
         <v>142.42478191205271</v>
       </c>
-      <c r="N32">
-        <v>201.76844104207464</v>
-      </c>
       <c r="O32">
-        <v>0.70588235294117652</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="P32">
-        <v>700.25517773425906</v>
+        <v>516.28983443119103</v>
       </c>
       <c r="Q32">
-        <v>789.27066642929208</v>
+        <v>596.40377425672068</v>
       </c>
       <c r="R32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V32" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2935,40 +2935,40 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c r="H33">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="I33">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="J33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K33">
-        <v>0.16574585635359115</v>
+        <v>5.1724137931034482E-2</v>
       </c>
       <c r="L33">
-        <v>2.3903091196369971E-3</v>
+        <v>1.9206914489216119E-3</v>
       </c>
       <c r="M33">
+        <v>69.194096359698591</v>
+      </c>
+      <c r="N33">
         <v>121.78160959306953</v>
       </c>
-      <c r="N33">
-        <v>141.15595657378512</v>
-      </c>
       <c r="O33">
-        <v>0.86274509803921584</v>
+        <v>0.56818181818181812</v>
       </c>
       <c r="P33">
-        <v>500.96525764421779</v>
+        <v>351.50600950726886</v>
       </c>
       <c r="Q33">
-        <v>575.69488171269234</v>
+        <v>413.78069623099753</v>
       </c>
       <c r="R33">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="S33">
         <v>4</v>
@@ -2977,15 +2977,15 @@
         <v>5</v>
       </c>
       <c r="U33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3003,40 +3003,40 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>495</v>
+        <v>364</v>
       </c>
       <c r="H34">
-        <v>298</v>
+        <v>195</v>
       </c>
       <c r="I34">
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="J34">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.16363636363636364</v>
+        <v>0.11059371362048893</v>
       </c>
       <c r="L34">
-        <v>4.9277510188958876E-3</v>
+        <v>4.3540800062201145E-3</v>
       </c>
       <c r="M34">
+        <v>108.89391010807722</v>
+      </c>
+      <c r="N34">
         <v>156.53499578036099</v>
       </c>
-      <c r="N34">
-        <v>249.0948193722266</v>
-      </c>
       <c r="O34">
-        <v>0.62841530054644812</v>
+        <v>0.69565217391304357</v>
       </c>
       <c r="P34">
-        <v>811.25963030517516</v>
+        <v>603.00002722347756</v>
       </c>
       <c r="Q34">
-        <v>1039.9368415321374</v>
+        <v>786.75850053085776</v>
       </c>
       <c r="R34">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="S34">
         <v>5</v>
@@ -3048,12 +3048,12 @@
         <v>6</v>
       </c>
       <c r="V34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -3071,40 +3071,40 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="H35">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="I35">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="J35">
         <v>8</v>
       </c>
       <c r="K35">
-        <v>3.9378238341968914E-2</v>
+        <v>3.2653061224489799E-2</v>
       </c>
       <c r="L35">
-        <v>2.6326566430702626E-3</v>
+        <v>2.7926322043969102E-3</v>
       </c>
       <c r="M35">
+        <v>56.510097816288358</v>
+      </c>
+      <c r="N35">
         <v>48.43722669967574</v>
       </c>
-      <c r="N35">
-        <v>86.110625243867986</v>
-      </c>
       <c r="O35">
-        <v>0.5625</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="P35">
-        <v>336.3696298588593</v>
+        <v>247.56804757612045</v>
       </c>
       <c r="Q35">
-        <v>368.66111432530982</v>
+        <v>279.85953204257095</v>
       </c>
       <c r="R35">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="S35">
         <v>4</v>
@@ -3113,15 +3113,15 @@
         <v>5</v>
       </c>
       <c r="U35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -3139,40 +3139,40 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>673</v>
+        <v>519</v>
       </c>
       <c r="H36">
-        <v>420</v>
+        <v>325</v>
       </c>
       <c r="I36">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="J36">
-        <v>79</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.13472222222222222</v>
+        <v>9.5670391061452517E-2</v>
       </c>
       <c r="L36">
-        <v>3.6835543465941292E-3</v>
+        <v>3.1960227272727275E-3</v>
       </c>
       <c r="M36">
+        <v>131.82752392617658</v>
+      </c>
+      <c r="N36">
         <v>205.52637588490524</v>
       </c>
-      <c r="N36">
-        <v>230.43866387095434</v>
-      </c>
       <c r="O36">
-        <v>0.89189189189189189</v>
+        <v>0.64141414141414133</v>
       </c>
       <c r="P36">
-        <v>735.95050758786772</v>
+        <v>585.4387676721542</v>
       </c>
       <c r="Q36">
-        <v>981.95935145010287</v>
+        <v>753.59671157798584</v>
       </c>
       <c r="R36">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="S36">
         <v>5</v>
@@ -3184,12 +3184,12 @@
         <v>6</v>
       </c>
       <c r="V36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -3207,40 +3207,40 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H37">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I37">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K37">
-        <v>3.0769230769230771E-2</v>
+        <v>4.5871559633027525E-2</v>
       </c>
       <c r="L37">
-        <v>5.208333333333333E-3</v>
+        <v>4.246284501061571E-3</v>
       </c>
       <c r="M37">
-        <v>31.7795042857746</v>
+        <v>76.003884642992858</v>
       </c>
       <c r="N37">
-        <v>21.8897521428873</v>
+        <v>33.779504285774607</v>
       </c>
       <c r="O37">
-        <v>1.4517982697259917</v>
+        <v>2.25</v>
       </c>
       <c r="P37">
-        <v>413.7989275007389</v>
+        <v>439.13355571506986</v>
       </c>
       <c r="Q37">
-        <v>489.80281214373178</v>
+        <v>565.80669678672461</v>
       </c>
       <c r="R37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S37">
         <v>4</v>
@@ -3249,15 +3249,15 @@
         <v>5</v>
       </c>
       <c r="U37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V37" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -3275,40 +3275,40 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>428</v>
+        <v>368</v>
       </c>
       <c r="H38">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="I38">
-        <v>301</v>
+        <v>215</v>
       </c>
       <c r="J38">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K38">
-        <v>0.18315508021390375</v>
+        <v>0.11756569847856155</v>
       </c>
       <c r="L38">
-        <v>3.4922928709055878E-3</v>
+        <v>1.7262702257033907E-3</v>
       </c>
       <c r="M38">
+        <v>70.457522243801094</v>
+      </c>
+      <c r="N38">
         <v>121.04241000858137</v>
       </c>
-      <c r="N38">
-        <v>97.556569260647663</v>
-      </c>
       <c r="O38">
-        <v>1.2407407407407409</v>
+        <v>0.58208955223880599</v>
       </c>
       <c r="P38">
-        <v>490.49275100492304</v>
+        <v>385.70976920644961</v>
       </c>
       <c r="Q38">
-        <v>574.49979675714735</v>
+        <v>456.16729145025067</v>
       </c>
       <c r="R38">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S38">
         <v>5</v>
@@ -3317,15 +3317,15 @@
         <v>5</v>
       </c>
       <c r="U38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V38" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -3343,40 +3343,40 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="H39">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I39">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J39">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K39">
-        <v>0.12371134020618557</v>
+        <v>9.2150170648464161E-2</v>
       </c>
       <c r="L39">
-        <v>4.1644976574700676E-3</v>
+        <v>2.0790020790020791E-3</v>
       </c>
       <c r="M39">
+        <v>110.03187130065261</v>
+      </c>
+      <c r="N39">
         <v>151.76809834572771</v>
       </c>
-      <c r="N39">
-        <v>147.97389588708452</v>
-      </c>
       <c r="O39">
-        <v>1.0256410256410255</v>
+        <v>0.7250000000000002</v>
       </c>
       <c r="P39">
-        <v>588.101381089695</v>
+        <v>531.18834421004703</v>
       </c>
       <c r="Q39">
-        <v>713.31006222492033</v>
+        <v>667.77963272120201</v>
       </c>
       <c r="R39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S39">
         <v>5</v>
@@ -3388,12 +3388,12 @@
         <v>6</v>
       </c>
       <c r="V39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -3411,57 +3411,57 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H40">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I40">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="J40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K40">
-        <v>0.10679611650485436</v>
+        <v>5.9238363892806768E-2</v>
       </c>
       <c r="L40">
-        <v>6.5178965974370309E-3</v>
+        <v>7.7478798031619727E-3</v>
       </c>
       <c r="M40">
+        <v>67.024663480335434</v>
+      </c>
+      <c r="N40">
         <v>106.92029650434465</v>
       </c>
-      <c r="N40">
-        <v>79.791266048018386</v>
-      </c>
       <c r="O40">
-        <v>1.34</v>
+        <v>0.62686567164179086</v>
       </c>
       <c r="P40">
-        <v>600.03032068109826</v>
+        <v>615.9885738907019</v>
       </c>
       <c r="Q40">
-        <v>652.6925562727904</v>
+        <v>663.86333351951293</v>
       </c>
       <c r="R40">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="S40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40">
         <v>5</v>
       </c>
       <c r="U40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3479,57 +3479,57 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="H41">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="I41">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J41">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K41">
-        <v>4.8426150121065374E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="L41">
-        <v>1.1528275432310328E-3</v>
+        <v>1.2424033769421908E-3</v>
       </c>
       <c r="M41">
+        <v>47.041346868036641</v>
+      </c>
+      <c r="N41">
         <v>37.137905422134189</v>
       </c>
-      <c r="N41">
-        <v>45.184451596929932</v>
-      </c>
       <c r="O41">
-        <v>0.82191780821917804</v>
+        <v>1.2666666666666666</v>
       </c>
       <c r="P41">
-        <v>176.40505075513741</v>
+        <v>181.97573656845753</v>
       </c>
       <c r="Q41">
-        <v>211.68606090616493</v>
+        <v>202.40158455063136</v>
       </c>
       <c r="R41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T41">
         <v>4</v>
       </c>
       <c r="U41">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -3547,57 +3547,57 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="H42">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="I42">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J42">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K42">
-        <v>9.8398169336384442E-2</v>
+        <v>7.5229357798165142E-2</v>
       </c>
       <c r="L42">
-        <v>1.5243386064157718E-3</v>
+        <v>2.1754064575223264E-3</v>
       </c>
       <c r="M42">
+        <v>63.945262854996123</v>
+      </c>
+      <c r="N42">
         <v>67.142525997745935</v>
       </c>
-      <c r="N42">
-        <v>111.90420999624322</v>
-      </c>
       <c r="O42">
-        <v>0.6</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="P42">
-        <v>332.51536684597983</v>
+        <v>294.14820913298217</v>
       </c>
       <c r="Q42">
-        <v>404.45378755785049</v>
+        <v>351.69894570247868</v>
       </c>
       <c r="R42">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="S42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -3615,40 +3615,40 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="H43">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="I43">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="J43">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>8.1850533807829182E-2</v>
+        <v>3.6207717960933777E-2</v>
       </c>
       <c r="L43">
-        <v>1.5492789893933978E-3</v>
+        <v>1.4668133480014668E-3</v>
       </c>
       <c r="M43">
+        <v>48.199878421202193</v>
+      </c>
+      <c r="N43">
         <v>66.184907682844795</v>
       </c>
-      <c r="N43">
-        <v>56.832692466790647</v>
-      </c>
       <c r="O43">
-        <v>1.1645569620253162</v>
+        <v>0.72826086956521752</v>
       </c>
       <c r="P43">
-        <v>239.56058976507956</v>
+        <v>207.18753709412286</v>
       </c>
       <c r="Q43">
-        <v>371.21100396030346</v>
+        <v>328.0469337323612</v>
       </c>
       <c r="R43">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S43">
         <v>4</v>
@@ -3657,15 +3657,15 @@
         <v>4</v>
       </c>
       <c r="U43">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V43" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3683,57 +3683,57 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="H44">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="I44">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="J44">
         <v>9</v>
       </c>
       <c r="K44">
-        <v>6.236559139784946E-2</v>
+        <v>3.5260930888575459E-2</v>
       </c>
       <c r="L44">
-        <v>2.0222971221156337E-3</v>
+        <v>2.5959577229742259E-3</v>
       </c>
       <c r="M44">
+        <v>54.828769752064311</v>
+      </c>
+      <c r="N44">
         <v>59.215071332229449</v>
       </c>
-      <c r="N44">
-        <v>81.146579233055164</v>
-      </c>
       <c r="O44">
-        <v>0.72972972972972983</v>
+        <v>0.92592592592592604</v>
       </c>
       <c r="P44">
-        <v>392.57399142478044</v>
+        <v>291.68905508098209</v>
       </c>
       <c r="Q44">
-        <v>451.78906275700984</v>
+        <v>350.90412641321154</v>
       </c>
       <c r="R44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44">
         <v>5</v>
       </c>
       <c r="U44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3751,40 +3751,40 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="H45">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="I45">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="J45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K45">
-        <v>3.696303696303696E-2</v>
+        <v>1.3755158184319119E-2</v>
       </c>
       <c r="L45">
-        <v>6.1315147344053059E-3</v>
+        <v>5.7592628143597622E-3</v>
       </c>
       <c r="M45">
+        <v>29.16570726840126</v>
+      </c>
+      <c r="N45">
         <v>53.72630286284442</v>
       </c>
-      <c r="N45">
-        <v>64.471563435413302</v>
-      </c>
       <c r="O45">
-        <v>0.83333333333333337</v>
+        <v>0.54285714285714293</v>
       </c>
       <c r="P45">
-        <v>489.67687466421057</v>
+        <v>399.10967840970142</v>
       </c>
       <c r="Q45">
-        <v>526.51776805587542</v>
+        <v>417.53012510553384</v>
       </c>
       <c r="R45">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="S45">
         <v>4</v>
@@ -3793,15 +3793,15 @@
         <v>5</v>
       </c>
       <c r="U45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3819,57 +3819,57 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="H46">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="I46">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="J46">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K46">
-        <v>8.2728592162554432E-2</v>
+        <v>4.8746518105849582E-2</v>
       </c>
       <c r="L46">
-        <v>1.3080444735120995E-3</v>
+        <v>6.3888342834676629E-4</v>
       </c>
       <c r="M46">
+        <v>54.137972214481906</v>
+      </c>
+      <c r="N46">
         <v>85.983838223000674</v>
       </c>
-      <c r="N46">
-        <v>108.27594442896381</v>
-      </c>
       <c r="O46">
-        <v>0.79411764705882348</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="P46">
-        <v>316.86636678476174</v>
+        <v>199.03666255324231</v>
       </c>
       <c r="Q46">
-        <v>402.85020500776238</v>
+        <v>261.13610126985395</v>
       </c>
       <c r="R46">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T46">
         <v>5</v>
       </c>
       <c r="U46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V46" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3887,43 +3887,43 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H47">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="I47">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J47">
         <v>10</v>
       </c>
       <c r="K47">
-        <v>0.19402985074626866</v>
+        <v>9.569377990430622E-2</v>
       </c>
       <c r="L47">
-        <v>4.5500505561172902E-3</v>
+        <v>6.6365808335545531E-3</v>
       </c>
       <c r="M47">
+        <v>93.148898514275061</v>
+      </c>
+      <c r="N47">
         <v>144.38079269712634</v>
       </c>
-      <c r="N47">
-        <v>158.35312747426761</v>
-      </c>
       <c r="O47">
-        <v>0.91176470588235292</v>
+        <v>0.64516129032258063</v>
       </c>
       <c r="P47">
-        <v>544.92105630850915</v>
+        <v>465.7444925713753</v>
       </c>
       <c r="Q47">
-        <v>684.64440407992174</v>
+        <v>605.46784034278801</v>
       </c>
       <c r="R47">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S47">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T47">
         <v>6</v>
@@ -3932,12 +3932,12 @@
         <v>6</v>
       </c>
       <c r="V47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3955,57 +3955,57 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>672</v>
+        <v>449</v>
       </c>
       <c r="H48">
-        <v>380</v>
+        <v>262</v>
       </c>
       <c r="I48">
-        <v>453</v>
+        <v>306</v>
       </c>
       <c r="J48">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="K48">
-        <v>0.12254160363086233</v>
+        <v>9.9152542372881361E-2</v>
       </c>
       <c r="L48">
-        <v>4.1233533713839277E-3</v>
+        <v>4.1371572820980296E-3</v>
       </c>
       <c r="M48">
+        <v>104.84827977333708</v>
+      </c>
+      <c r="N48">
         <v>144.88125932315671</v>
       </c>
-      <c r="N48">
-        <v>217.32188898473504</v>
-      </c>
       <c r="O48">
-        <v>0.66666666666666674</v>
+        <v>0.72368421052631571</v>
       </c>
       <c r="P48">
-        <v>793.98742773808908</v>
+        <v>541.39839010232242</v>
       </c>
       <c r="Q48">
-        <v>916.94586492682072</v>
+        <v>618.6048506626887</v>
       </c>
       <c r="R48">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="S48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V48" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -4023,40 +4023,40 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="H49">
-        <v>140</v>
+        <v>179</v>
       </c>
       <c r="I49">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="J49">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K49">
-        <v>0.14193548387096774</v>
+        <v>0.13254593175853019</v>
       </c>
       <c r="L49">
-        <v>4.830917874396135E-3</v>
+        <v>3.5832661470930754E-3</v>
       </c>
       <c r="M49">
+        <v>158.55601912281685</v>
+      </c>
+      <c r="N49">
         <v>128.1260760588419</v>
       </c>
-      <c r="N49">
-        <v>96.09455704413142</v>
-      </c>
       <c r="O49">
-        <v>1.3333333333333335</v>
+        <v>1.2375</v>
       </c>
       <c r="P49">
         <v>610.20043723023457</v>
       </c>
       <c r="Q49">
-        <v>749.53754494422515</v>
+        <v>792.78009561408419</v>
       </c>
       <c r="R49">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S49">
         <v>6</v>
@@ -4068,12 +4068,12 @@
         <v>6</v>
       </c>
       <c r="V49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -4091,40 +4091,40 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>664</v>
+        <v>529</v>
       </c>
       <c r="H50">
-        <v>422</v>
+        <v>324</v>
       </c>
       <c r="I50">
-        <v>386</v>
+        <v>279</v>
       </c>
       <c r="J50">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="K50">
-        <v>0.10238726790450928</v>
+        <v>4.9104180491041802E-2</v>
       </c>
       <c r="L50">
-        <v>3.4370972151700971E-3</v>
+        <v>2.9458564486302841E-3</v>
       </c>
       <c r="M50">
+        <v>79.722338483965842</v>
+      </c>
+      <c r="N50">
         <v>104.77793057892654</v>
       </c>
-      <c r="N50">
-        <v>135.52797542274192</v>
-      </c>
       <c r="O50">
-        <v>0.77310924369747913</v>
+        <v>0.76086956521739124</v>
       </c>
       <c r="P50">
-        <v>460.11178210745999</v>
+        <v>343.37550075593862</v>
       </c>
       <c r="Q50">
-        <v>559.19525993753189</v>
+        <v>421.95894869013352</v>
       </c>
       <c r="R50">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="S50">
         <v>4</v>
@@ -4133,15 +4133,15 @@
         <v>5</v>
       </c>
       <c r="U50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -4159,57 +4159,57 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>429</v>
+        <v>327</v>
       </c>
       <c r="H51">
-        <v>308</v>
+        <v>246</v>
       </c>
       <c r="I51">
-        <v>199</v>
+        <v>118</v>
       </c>
       <c r="J51">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K51">
-        <v>0.10103806228373702</v>
+        <v>4.6632124352331605E-2</v>
       </c>
       <c r="L51">
-        <v>2.5149218697605794E-3</v>
+        <v>1.6520733520568314E-3</v>
       </c>
       <c r="M51">
+        <v>75.384667057273688</v>
+      </c>
+      <c r="N51">
         <v>108.22551211192757</v>
       </c>
-      <c r="N51">
-        <v>121.66040327064962</v>
-      </c>
       <c r="O51">
-        <v>0.88957055214723924</v>
+        <v>0.69655172413793109</v>
       </c>
       <c r="P51">
-        <v>378.41610097067087</v>
+        <v>271.68335454304577</v>
       </c>
       <c r="Q51">
-        <v>492.61267581980826</v>
+        <v>374.68418675991478</v>
       </c>
       <c r="R51">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="S51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T51">
         <v>5</v>
       </c>
       <c r="U51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -4227,57 +4227,57 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>223</v>
+        <v>185</v>
       </c>
       <c r="H52">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I52">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="J52">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K52">
-        <v>0.18565400843881857</v>
+        <v>0.11220472440944881</v>
       </c>
       <c r="L52">
-        <v>2.8799019607843139E-3</v>
+        <v>2.4356297842727907E-3</v>
       </c>
       <c r="M52">
+        <v>128.64058497613379</v>
+      </c>
+      <c r="N52">
         <v>194.08930364820185</v>
       </c>
-      <c r="N52">
-        <v>160.23651812816664</v>
-      </c>
       <c r="O52">
-        <v>1.2112676056338028</v>
+        <v>0.66279069767441867</v>
       </c>
       <c r="P52">
-        <v>604.83643462462896</v>
+        <v>512.30548753653284</v>
       </c>
       <c r="Q52">
-        <v>787.6414764328191</v>
+        <v>668.02830092869476</v>
       </c>
       <c r="R52">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U52">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4295,57 +4295,57 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H53">
         <v>39</v>
       </c>
       <c r="I53">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K53">
-        <v>8.7962962962962965E-2</v>
+        <v>8.3032490974729242E-2</v>
       </c>
       <c r="L53">
-        <v>3.1814050123360601E-3</v>
+        <v>3.8843606724401425E-3</v>
       </c>
       <c r="M53">
+        <v>55.504396200471781</v>
+      </c>
+      <c r="N53">
         <v>42.889760700364562</v>
       </c>
-      <c r="N53">
-        <v>55.504396200471781</v>
-      </c>
       <c r="O53">
-        <v>0.77272727272727282</v>
+        <v>1.2941176470588234</v>
       </c>
       <c r="P53">
-        <v>378.43906500321674</v>
+        <v>375.91613790319531</v>
       </c>
       <c r="Q53">
-        <v>431.42053410366708</v>
+        <v>421.32882570358129</v>
       </c>
       <c r="R53">
         <v>11</v>
       </c>
       <c r="S53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V53" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4363,40 +4363,40 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="H54">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="I54">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="J54">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="K54">
-        <v>0.11867704280155641</v>
+        <v>8.5020242914979755E-2</v>
       </c>
       <c r="L54">
-        <v>2.9683953204120831E-3</v>
+        <v>2.2097494144164053E-3</v>
       </c>
       <c r="M54">
+        <v>60.599579367625573</v>
+      </c>
+      <c r="N54">
         <v>70.105395739017808</v>
       </c>
-      <c r="N54">
-        <v>98.62284485319455</v>
-      </c>
       <c r="O54">
-        <v>0.71084337349397586</v>
+        <v>0.86440677966101709</v>
       </c>
       <c r="P54">
-        <v>376.66797371641769</v>
+        <v>278.04512886322323</v>
       </c>
       <c r="Q54">
-        <v>437.2675530840433</v>
+        <v>313.69194025594413</v>
       </c>
       <c r="R54">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="S54">
         <v>4</v>
@@ -4405,15 +4405,15 @@
         <v>5</v>
       </c>
       <c r="U54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -4431,40 +4431,40 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="H55">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="I55">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="J55">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K55">
-        <v>8.1460674157303375E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="L55">
-        <v>2.3477130759233639E-3</v>
+        <v>2.0712730362738331E-3</v>
       </c>
       <c r="M55">
+        <v>38.57993682535345</v>
+      </c>
+      <c r="N55">
         <v>40.187434193076513</v>
       </c>
-      <c r="N55">
-        <v>59.477402605753227</v>
-      </c>
       <c r="O55">
-        <v>0.67567567567567577</v>
+        <v>0.96</v>
       </c>
       <c r="P55">
-        <v>289.34952619015087</v>
+        <v>234.69461568756682</v>
       </c>
       <c r="Q55">
-        <v>361.68690773768856</v>
+        <v>287.74202882242781</v>
       </c>
       <c r="R55">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="S55">
         <v>4</v>
@@ -4473,15 +4473,15 @@
         <v>5</v>
       </c>
       <c r="U55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4499,57 +4499,57 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="H56">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="I56">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="J56">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K56">
-        <v>0.15384615384615385</v>
+        <v>0.11542610571736785</v>
       </c>
       <c r="L56">
-        <v>2.7983700721684913E-3</v>
+        <v>3.6852171479218173E-3</v>
       </c>
       <c r="M56">
+        <v>190.46947197629714</v>
+      </c>
+      <c r="N56">
         <v>128.74325420620085</v>
       </c>
-      <c r="N56">
-        <v>142.85210398222284</v>
-      </c>
       <c r="O56">
-        <v>0.90123456790123468</v>
+        <v>1.4794520547945205</v>
       </c>
       <c r="P56">
-        <v>455.01040527670983</v>
+        <v>562.59038481887774</v>
       </c>
       <c r="Q56">
-        <v>608.44414659094923</v>
+        <v>731.89658213114171</v>
       </c>
       <c r="R56">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="S56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56">
         <v>5</v>
       </c>
       <c r="U56">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V56" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -4567,57 +4567,57 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>268</v>
+        <v>208</v>
       </c>
       <c r="H57">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="I57">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="J57">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K57">
-        <v>6.741573033707865E-2</v>
+        <v>4.0553907022749754E-2</v>
       </c>
       <c r="L57">
-        <v>4.0541927537719388E-3</v>
+        <v>5.5351741005342089E-3</v>
       </c>
       <c r="M57">
+        <v>66.095491461288702</v>
+      </c>
+      <c r="N57">
         <v>69.400266034353137</v>
       </c>
-      <c r="N57">
-        <v>118.97188463031965</v>
-      </c>
       <c r="O57">
-        <v>0.58333333333333337</v>
+        <v>0.95238095238095233</v>
       </c>
       <c r="P57">
-        <v>517.19722068458407</v>
+        <v>409.7920470599899</v>
       </c>
       <c r="Q57">
-        <v>561.81167742095397</v>
+        <v>459.36366565595642</v>
       </c>
       <c r="R57">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T57">
         <v>5</v>
       </c>
       <c r="U57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V57" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -4635,57 +4635,57 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H58">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I58">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K58">
-        <v>4.1666666666666664E-2</v>
+        <v>2.4844720496894408E-2</v>
       </c>
       <c r="L58">
-        <v>8.8819806816920171E-4</v>
+        <v>4.9933422103861519E-4</v>
       </c>
       <c r="M58">
+        <v>27.087162619715588</v>
+      </c>
+      <c r="N58">
         <v>34.826351939634321</v>
       </c>
-      <c r="N58">
-        <v>38.69594659959369</v>
-      </c>
       <c r="O58">
-        <v>0.9</v>
+        <v>0.7777777777777779</v>
       </c>
       <c r="P58">
-        <v>150.91419173841541</v>
+        <v>110.28344780884203</v>
       </c>
       <c r="Q58">
-        <v>191.54493566798877</v>
+        <v>145.10979974847635</v>
       </c>
       <c r="R58">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T58">
         <v>5</v>
       </c>
       <c r="U58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V58" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -4703,40 +4703,40 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>250</v>
+        <v>157</v>
       </c>
       <c r="H59">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="I59">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="J59">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K59">
-        <v>5.4905490549054907E-2</v>
+        <v>3.6458333333333336E-2</v>
       </c>
       <c r="L59">
-        <v>1.472498917280208E-3</v>
+        <v>6.2047569803516027E-4</v>
       </c>
       <c r="M59">
+        <v>48.980318817347943</v>
+      </c>
+      <c r="N59">
         <v>57.885831329593024</v>
       </c>
-      <c r="N59">
-        <v>84.602368866328248</v>
-      </c>
       <c r="O59">
-        <v>0.6842105263157896</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="P59">
-        <v>289.4291566479651</v>
+        <v>189.24214088520793</v>
       </c>
       <c r="Q59">
-        <v>342.86223172143553</v>
+        <v>225.97737999821891</v>
       </c>
       <c r="R59">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="S59">
         <v>4</v>
@@ -4745,15 +4745,15 @@
         <v>5</v>
       </c>
       <c r="U59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -4771,57 +4771,57 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="H60">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="I60">
-        <v>153</v>
+        <v>109</v>
       </c>
       <c r="J60">
+        <v>7</v>
+      </c>
+      <c r="K60">
+        <v>7.9411764705882348E-2</v>
+      </c>
+      <c r="L60">
+        <v>1.5170560443847254E-3</v>
+      </c>
+      <c r="M60">
+        <v>89.335936207524071</v>
+      </c>
+      <c r="N60">
+        <v>92.644674585580518</v>
+      </c>
+      <c r="O60">
+        <v>0.9642857142857143</v>
+      </c>
+      <c r="P60">
+        <v>362.30685239718099</v>
+      </c>
+      <c r="Q60">
+        <v>397.04860536677364</v>
+      </c>
+      <c r="R60">
         <v>11</v>
       </c>
-      <c r="K60">
-        <v>6.2913907284768214E-2</v>
-      </c>
-      <c r="L60">
-        <v>2.7278927028870198E-3</v>
-      </c>
-      <c r="M60">
-        <v>92.644674585580518</v>
-      </c>
-      <c r="N60">
-        <v>148.89322701254011</v>
-      </c>
-      <c r="O60">
-        <v>0.62222222222222223</v>
-      </c>
-      <c r="P60">
-        <v>494.65638751943885</v>
-      </c>
-      <c r="Q60">
-        <v>549.25057075737016</v>
-      </c>
-      <c r="R60">
-        <v>30</v>
-      </c>
       <c r="S60">
         <v>4</v>
       </c>
       <c r="T60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V60" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -4839,57 +4839,57 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="H61">
-        <v>165</v>
+        <v>106</v>
       </c>
       <c r="I61">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="J61">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K61">
-        <v>3.7296037296037296E-2</v>
+        <v>4.0677966101694912E-2</v>
       </c>
       <c r="L61">
-        <v>3.4095311894614491E-3</v>
+        <v>1.7729373773190654E-3</v>
       </c>
       <c r="M61">
+        <v>87.040516298867402</v>
+      </c>
+      <c r="N61">
         <v>137.9910624250337</v>
       </c>
-      <c r="N61">
-        <v>212.29394219235954</v>
-      </c>
       <c r="O61">
-        <v>0.65</v>
+        <v>0.63076923076923064</v>
       </c>
       <c r="P61">
-        <v>571.0707044974472</v>
+        <v>392.74379305586518</v>
       </c>
       <c r="Q61">
-        <v>698.44706981286288</v>
+        <v>481.9072487766561</v>
       </c>
       <c r="R61">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U61">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -4907,57 +4907,57 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="H62">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="I62">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J62">
         <v>9</v>
       </c>
       <c r="K62">
-        <v>9.9656357388316158E-2</v>
+        <v>7.8853046594982074E-2</v>
       </c>
       <c r="L62">
-        <v>1.9936498560141772E-3</v>
+        <v>1.0864504112990843E-3</v>
       </c>
       <c r="M62">
+        <v>49.668188904678466</v>
+      </c>
+      <c r="N62">
         <v>74.502283357017703</v>
       </c>
-      <c r="N62">
-        <v>107.61440929347</v>
-      </c>
       <c r="O62">
-        <v>0.6923076923076924</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P62">
-        <v>391.8268235813523</v>
+        <v>251.10028835143004</v>
       </c>
       <c r="Q62">
-        <v>466.32910693836999</v>
+        <v>325.60257170844773</v>
       </c>
       <c r="R62">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="S62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V62" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4975,40 +4975,40 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H63">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I63">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>4.7619047619047616E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="L63">
-        <v>1.1937922801432551E-3</v>
+        <v>2.8876696505919725E-3</v>
       </c>
       <c r="M63">
+        <v>30.676190893553617</v>
+      </c>
+      <c r="N63">
         <v>17.529251939173495</v>
       </c>
-      <c r="N63">
-        <v>39.44081686314037</v>
-      </c>
       <c r="O63">
-        <v>0.44444444444444436</v>
+        <v>1.75</v>
       </c>
       <c r="P63">
-        <v>118.32245058942109</v>
+        <v>175.29251939173497</v>
       </c>
       <c r="Q63">
-        <v>144.61632849818133</v>
+        <v>188.43945834611509</v>
       </c>
       <c r="R63">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S63">
         <v>3</v>
@@ -5017,15 +5017,15 @@
         <v>4</v>
       </c>
       <c r="U63">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V63" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -5043,57 +5043,57 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>578</v>
+        <v>408</v>
       </c>
       <c r="H64">
-        <v>289</v>
+        <v>204</v>
       </c>
       <c r="I64">
-        <v>319</v>
+        <v>228</v>
       </c>
       <c r="J64">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K64">
-        <v>0.11388888888888889</v>
+        <v>8.9618456078083414E-2</v>
       </c>
       <c r="L64">
-        <v>4.8960624040496241E-3</v>
+        <v>3.9750384681142073E-3</v>
       </c>
       <c r="M64">
+        <v>95.223775873302259</v>
+      </c>
+      <c r="N64">
         <v>109.2567533704205</v>
       </c>
-      <c r="N64">
-        <v>180.42399639152006</v>
-      </c>
       <c r="O64">
-        <v>0.60555555555555562</v>
+        <v>0.87155963302752282</v>
       </c>
       <c r="P64">
-        <v>609.43216558913446</v>
+        <v>433.01759133964822</v>
       </c>
       <c r="Q64">
-        <v>708.66536360447049</v>
+        <v>493.15892347015483</v>
       </c>
       <c r="R64">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T64">
         <v>5</v>
       </c>
       <c r="U64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V64" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -5111,57 +5111,57 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>339</v>
+        <v>302</v>
       </c>
       <c r="H65">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="I65">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="J65">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K65">
-        <v>0.1074964639321075</v>
+        <v>0.11069418386491557</v>
       </c>
       <c r="L65">
-        <v>4.6462388990178207E-3</v>
+        <v>5.9994146912496346E-3</v>
       </c>
       <c r="M65">
+        <v>109.35342470831364</v>
+      </c>
+      <c r="N65">
         <v>137.15514285449507</v>
       </c>
-      <c r="N65">
-        <v>148.27583011296767</v>
-      </c>
       <c r="O65">
-        <v>0.92499999999999982</v>
+        <v>0.79729729729729737</v>
       </c>
       <c r="P65">
-        <v>661.68089187911812</v>
+        <v>583.83608106981012</v>
       </c>
       <c r="Q65">
-        <v>739.52570268842624</v>
+        <v>644.99986099140926</v>
       </c>
       <c r="R65">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S65">
         <v>4</v>
       </c>
       <c r="T65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U65">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V65" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -5179,57 +5179,57 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H66">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I66">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J66">
         <v>2</v>
       </c>
       <c r="K66">
-        <v>8.0459770114942528E-2</v>
+        <v>3.5353535353535352E-2</v>
       </c>
       <c r="L66">
-        <v>2.7476721111280721E-3</v>
+        <v>1.1647254575707154E-3</v>
       </c>
       <c r="M66">
+        <v>58.445353594389239</v>
+      </c>
+      <c r="N66">
         <v>63.315799727255019</v>
       </c>
-      <c r="N66">
-        <v>58.445353594389239</v>
-      </c>
       <c r="O66">
-        <v>1.0833333333333335</v>
+        <v>0.92307692307692291</v>
       </c>
       <c r="P66">
-        <v>194.81784531463083</v>
+        <v>199.6882914474966</v>
       </c>
       <c r="Q66">
-        <v>224.04052211182542</v>
+        <v>228.91096824469119</v>
       </c>
       <c r="R66">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T66">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V66" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -5247,57 +5247,57 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H67">
         <v>75</v>
       </c>
       <c r="I67">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J67">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K67">
-        <v>0.10397553516819572</v>
+        <v>8.4362139917695478E-2</v>
       </c>
       <c r="L67">
-        <v>3.4969110618953258E-3</v>
+        <v>2.2823944392571845E-3</v>
       </c>
       <c r="M67">
+        <v>122.83503255128363</v>
+      </c>
+      <c r="N67">
         <v>98.2680260410269</v>
       </c>
-      <c r="N67">
-        <v>128.97678417884782</v>
-      </c>
       <c r="O67">
-        <v>0.76190476190476186</v>
+        <v>1.25</v>
       </c>
       <c r="P67">
-        <v>374.64684928141509</v>
+        <v>386.93035253654341</v>
       </c>
       <c r="Q67">
-        <v>494.41100601891662</v>
+        <v>479.05662695000615</v>
       </c>
       <c r="R67">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S67">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T67">
         <v>5</v>
       </c>
       <c r="U67">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V67" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -5315,40 +5315,40 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="H68">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="I68">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J68">
+        <v>6</v>
+      </c>
+      <c r="K68">
+        <v>5.8577405857740586E-2</v>
+      </c>
+      <c r="L68">
+        <v>1.5468424238348241E-3</v>
+      </c>
+      <c r="M68">
+        <v>27.091962955305391</v>
+      </c>
+      <c r="N68">
+        <v>45.628569187882761</v>
+      </c>
+      <c r="O68">
+        <v>0.59375</v>
+      </c>
+      <c r="P68">
+        <v>125.47856526667759</v>
+      </c>
+      <c r="Q68">
+        <v>151.14463543486164</v>
+      </c>
+      <c r="R68">
         <v>14</v>
-      </c>
-      <c r="K68">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="L68">
-        <v>8.699143468950749E-4</v>
-      </c>
-      <c r="M68">
-        <v>45.628569187882761</v>
-      </c>
-      <c r="N68">
-        <v>51.332140336368106</v>
-      </c>
-      <c r="O68">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="P68">
-        <v>159.69999215758966</v>
-      </c>
-      <c r="Q68">
-        <v>219.58748921668581</v>
-      </c>
-      <c r="R68">
-        <v>15</v>
       </c>
       <c r="S68">
         <v>3</v>
@@ -5357,15 +5357,15 @@
         <v>4</v>
       </c>
       <c r="U68">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -5383,57 +5383,57 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="H69">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="I69">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J69">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K69">
-        <v>0.12424242424242424</v>
+        <v>5.9471365638766517E-2</v>
       </c>
       <c r="L69">
-        <v>1.3926606782257503E-3</v>
+        <v>1.5430072225869993E-3</v>
       </c>
       <c r="M69">
+        <v>48.40868318889828</v>
+      </c>
+      <c r="N69">
         <v>75.935189315918862</v>
       </c>
-      <c r="N69">
-        <v>71.189239983673929</v>
-      </c>
       <c r="O69">
-        <v>1.0666666666666667</v>
+        <v>0.63750000000000007</v>
       </c>
       <c r="P69">
-        <v>249.63693487608327</v>
+        <v>227.8055679477566</v>
       </c>
       <c r="Q69">
-        <v>309.43589646236939</v>
+        <v>279.06182073600183</v>
       </c>
       <c r="R69">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="S69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T69">
         <v>5</v>
       </c>
       <c r="U69">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -5451,40 +5451,40 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="H70">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="I70">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="J70">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>0.12661498708010335</v>
+        <v>0.125</v>
       </c>
       <c r="L70">
-        <v>2.8997249525596468E-3</v>
+        <v>3.0548107775482396E-3</v>
       </c>
       <c r="M70">
+        <v>136.21717908193114</v>
+      </c>
+      <c r="N70">
         <v>124.86574749177022</v>
       </c>
-      <c r="N70">
-        <v>111.7679418108153</v>
-      </c>
       <c r="O70">
-        <v>1.1171875</v>
+        <v>1.0909090909090908</v>
       </c>
       <c r="P70">
-        <v>497.71661587628682</v>
+        <v>503.82892519406579</v>
       </c>
       <c r="Q70">
-        <v>599.87950018773518</v>
+        <v>626.94829859504205</v>
       </c>
       <c r="R70">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="S70">
         <v>5</v>
@@ -5496,12 +5496,12 @@
         <v>6</v>
       </c>
       <c r="V70" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -5519,57 +5519,57 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H71">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I71">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="J71">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K71">
-        <v>7.868601986249045E-2</v>
+        <v>4.9782503624939585E-2</v>
       </c>
       <c r="L71">
-        <v>1.7410922288432771E-3</v>
+        <v>2.3545240497813654E-3</v>
       </c>
       <c r="M71">
+        <v>77.76255242366247</v>
+      </c>
+      <c r="N71">
         <v>69.457813815310161</v>
       </c>
-      <c r="N71">
-        <v>79.272504897908334</v>
-      </c>
       <c r="O71">
-        <v>0.87619047619047619</v>
+        <v>1.1195652173913044</v>
       </c>
       <c r="P71">
-        <v>266.50661170439656</v>
+        <v>274.81135031274891</v>
       </c>
       <c r="Q71">
-        <v>338.98433046819849</v>
+        <v>326.90471067423152</v>
       </c>
       <c r="R71">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="S71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T71">
         <v>5</v>
       </c>
       <c r="U71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V71" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -5587,40 +5587,40 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="H72">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I72">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="J72">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K72">
-        <v>7.5235109717868343E-2</v>
+        <v>0.14594594594594595</v>
       </c>
       <c r="L72">
-        <v>3.9862293893821342E-3</v>
+        <v>1.6910935738444193E-3</v>
       </c>
       <c r="M72">
         <v>151.09544195416771</v>
       </c>
       <c r="N72">
-        <v>195.16494585746662</v>
+        <v>151.09544195416771</v>
       </c>
       <c r="O72">
-        <v>0.77419354838709675</v>
+        <v>1</v>
       </c>
       <c r="P72">
-        <v>698.81641903802563</v>
+        <v>503.65147318055909</v>
       </c>
       <c r="Q72">
-        <v>868.79879123646435</v>
+        <v>654.74691513472669</v>
       </c>
       <c r="R72">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S72">
         <v>5</v>
@@ -5632,12 +5632,12 @@
         <v>6</v>
       </c>
       <c r="V72" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -5655,43 +5655,43 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>254</v>
+        <v>185</v>
       </c>
       <c r="H73">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="I73">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="J73">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K73">
-        <v>0.16713091922005571</v>
+        <v>0.11144578313253012</v>
       </c>
       <c r="L73">
-        <v>3.5397203040677771E-3</v>
+        <v>3.8786362214576165E-3</v>
       </c>
       <c r="M73">
+        <v>105.03040353786622</v>
+      </c>
+      <c r="N73">
         <v>157.54560530679933</v>
       </c>
-      <c r="N73">
-        <v>143.7258153676064</v>
-      </c>
       <c r="O73">
-        <v>1.0961538461538463</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P73">
-        <v>779.43615257048089</v>
+        <v>608.07075732448868</v>
       </c>
       <c r="Q73">
-        <v>845.77114427860693</v>
+        <v>732.44886677722491</v>
       </c>
       <c r="R73">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="S73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T73">
         <v>6</v>
@@ -5700,12 +5700,12 @@
         <v>6</v>
       </c>
       <c r="V73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -5723,40 +5723,40 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="H74">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I74">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="J74">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="K74">
-        <v>9.6618357487922704E-2</v>
+        <v>7.4487895716946001E-2</v>
       </c>
       <c r="L74">
-        <v>2.377767870411651E-3</v>
+        <v>2.2624434389140274E-3</v>
       </c>
       <c r="M74">
+        <v>71.308628344029628</v>
+      </c>
+      <c r="N74">
         <v>78.209463345064748</v>
       </c>
-      <c r="N74">
-        <v>87.410576679778245</v>
-      </c>
       <c r="O74">
-        <v>0.89473684210526316</v>
+        <v>0.91176470588235303</v>
       </c>
       <c r="P74">
-        <v>393.34759505900212</v>
+        <v>301.33646171186712</v>
       </c>
       <c r="Q74">
-        <v>503.7609550755642</v>
+        <v>370.34481172221842</v>
       </c>
       <c r="R74">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S74">
         <v>4</v>
@@ -5765,15 +5765,15 @@
         <v>5</v>
       </c>
       <c r="U74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V74" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -5791,57 +5791,57 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="H75">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="I75">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J75">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K75">
-        <v>0.17219387755102042</v>
+        <v>0.10341365461847389</v>
       </c>
       <c r="L75">
-        <v>3.9431358306526929E-3</v>
+        <v>5.111318621909864E-3</v>
       </c>
       <c r="M75">
+        <v>113.90861310072864</v>
+      </c>
+      <c r="N75">
         <v>163.43409705756719</v>
       </c>
-      <c r="N75">
-        <v>156.00527446404141</v>
-      </c>
       <c r="O75">
-        <v>1.0476190476190477</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="P75">
-        <v>538.58963803061908</v>
+        <v>506.39807345867405</v>
       </c>
       <c r="Q75">
-        <v>668.59403341732025</v>
+        <v>614.11600106479784</v>
       </c>
       <c r="R75">
         <v>29</v>
       </c>
       <c r="S75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T75">
         <v>5</v>
       </c>
       <c r="U75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -5859,40 +5859,40 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I76">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="J76">
         <v>2</v>
       </c>
       <c r="K76">
-        <v>8.2758620689655171E-2</v>
+        <v>8.5227272727272721E-2</v>
       </c>
       <c r="L76">
-        <v>2.1273362710834218E-3</v>
+        <v>7.4760765550239234E-3</v>
       </c>
       <c r="M76">
+        <v>57.355893318038426</v>
+      </c>
+      <c r="N76">
         <v>45.884714654430745</v>
       </c>
-      <c r="N76">
-        <v>61.179619539240989</v>
-      </c>
       <c r="O76">
-        <v>0.75000000000000011</v>
+        <v>1.2499999999999998</v>
       </c>
       <c r="P76">
-        <v>309.72182391740751</v>
+        <v>252.36593059936911</v>
       </c>
       <c r="Q76">
-        <v>332.66418124462285</v>
+        <v>275.30828792658446</v>
       </c>
       <c r="R76">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S76">
         <v>4</v>
@@ -5901,15 +5901,15 @@
         <v>5</v>
       </c>
       <c r="U76">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5927,57 +5927,57 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="H77">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I77">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="J77">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K77">
-        <v>9.7156398104265407E-2</v>
+        <v>8.0482897384305835E-2</v>
       </c>
       <c r="L77">
-        <v>2.2371364653243847E-3</v>
+        <v>2.0017312270071415E-3</v>
       </c>
       <c r="M77">
+        <v>78.956072682265827</v>
+      </c>
+      <c r="N77">
         <v>85.357916413260355</v>
       </c>
-      <c r="N77">
-        <v>76.822124771934327</v>
-      </c>
       <c r="O77">
-        <v>1.1111111111111109</v>
+        <v>0.92499999999999993</v>
       </c>
       <c r="P77">
-        <v>377.70878012867706</v>
+        <v>341.43166565304142</v>
       </c>
       <c r="Q77">
-        <v>460.93274863160593</v>
+        <v>437.45932161795929</v>
       </c>
       <c r="R77">
         <v>12</v>
       </c>
       <c r="S77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T77">
         <v>5</v>
       </c>
       <c r="U77">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V77" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -5995,40 +5995,40 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>730</v>
+        <v>665</v>
       </c>
       <c r="H78">
-        <v>504</v>
+        <v>442</v>
       </c>
       <c r="I78">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="J78">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="K78">
-        <v>8.1360946745562129E-2</v>
+        <v>3.9776392173726083E-2</v>
       </c>
       <c r="L78">
-        <v>3.9773596450971395E-3</v>
+        <v>4.6372971182510768E-3</v>
       </c>
       <c r="M78">
+        <v>129.71153420271699</v>
+      </c>
+      <c r="N78">
         <v>149.95918832216549</v>
       </c>
-      <c r="N78">
-        <v>168.94136405914847</v>
-      </c>
       <c r="O78">
-        <v>0.88764044943820219</v>
+        <v>0.86497890295358659</v>
       </c>
       <c r="P78">
-        <v>630.84097365906746</v>
+        <v>570.09801130072196</v>
       </c>
       <c r="Q78">
-        <v>754.22511594945672</v>
+        <v>672.60176028043009</v>
       </c>
       <c r="R78">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="S78">
         <v>4</v>
@@ -6037,15 +6037,15 @@
         <v>5</v>
       </c>
       <c r="U78">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -6063,57 +6063,57 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H79">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I79">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K79">
-        <v>1.8518518518518517E-2</v>
+        <v>2.2988505747126436E-2</v>
       </c>
       <c r="L79">
-        <v>5.5768005098789041E-4</v>
+        <v>7.9821200510855688E-4</v>
       </c>
       <c r="M79">
+        <v>19.717789142892354</v>
+      </c>
+      <c r="N79">
         <v>22.182512785753897</v>
       </c>
-      <c r="N79">
-        <v>20.165920714321722</v>
-      </c>
       <c r="O79">
-        <v>1.1000000000000001</v>
+        <v>0.88888888888888895</v>
       </c>
       <c r="P79">
-        <v>69.012262000123243</v>
+        <v>83.800603857292501</v>
       </c>
       <c r="Q79">
-        <v>83.800603857292501</v>
+        <v>91.194774785877129</v>
       </c>
       <c r="R79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T79">
         <v>4</v>
       </c>
       <c r="U79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V79" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44312</v>
+        <v>44319</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -6131,40 +6131,40 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="H80">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I80">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="J80">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K80">
-        <v>6.0160427807486629E-2</v>
+        <v>4.4247787610619468E-2</v>
       </c>
       <c r="L80">
-        <v>2.0601026781334815E-3</v>
+        <v>3.3652790986904674E-3</v>
       </c>
       <c r="M80">
+        <v>47.994066188180369</v>
+      </c>
+      <c r="N80">
         <v>42.176603619916079</v>
       </c>
-      <c r="N80">
-        <v>82.898841597766094</v>
-      </c>
       <c r="O80">
-        <v>0.50877192982456132</v>
+        <v>1.1379310344827587</v>
       </c>
       <c r="P80">
-        <v>335.95846331726261</v>
+        <v>319.96044125453579</v>
       </c>
       <c r="Q80">
-        <v>405.76801413643403</v>
+        <v>381.04379822131079</v>
       </c>
       <c r="R80">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="S80">
         <v>4</v>
@@ -6173,7 +6173,7 @@
         <v>5</v>
       </c>
       <c r="U80">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V80" t="s">
         <v>106</v>

--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0091F853-39DF-4CC6-952B-2382A22F4389}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0145370D-F596-4A88-9B90-4C1CFD44E734}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
+    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -733,13 +733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -807,9 +805,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -827,22 +825,22 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H2">
         <v>42</v>
       </c>
       <c r="I2">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K2">
-        <v>7.0469798657718116E-2</v>
+        <v>7.0967741935483872E-2</v>
       </c>
       <c r="L2">
-        <v>2.4188558249423411E-3</v>
+        <v>1.4442518775274408E-3</v>
       </c>
       <c r="M2">
         <v>63.393189366481543</v>
@@ -854,13 +852,13 @@
         <v>1.2105263157894739</v>
       </c>
       <c r="P2">
-        <v>325.23462370629665</v>
+        <v>311.45349558314842</v>
       </c>
       <c r="Q2">
-        <v>374.84668494963</v>
+        <v>336.25952620481513</v>
       </c>
       <c r="R2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S2">
         <v>5</v>
@@ -875,9 +873,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -895,43 +893,43 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>244</v>
+        <v>157</v>
       </c>
       <c r="H3">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="I3">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>3.7194885703215809E-2</v>
+      </c>
+      <c r="L3">
+        <v>2.9214819411049922E-3</v>
+      </c>
+      <c r="M3">
+        <v>74</v>
+      </c>
+      <c r="N3">
+        <v>68</v>
+      </c>
+      <c r="O3">
+        <v>1.088235294117647</v>
+      </c>
+      <c r="P3">
+        <v>298.65964079636558</v>
+      </c>
+      <c r="Q3">
+        <v>339.26291522487446</v>
+      </c>
+      <c r="R3">
         <v>22</v>
       </c>
-      <c r="K3">
-        <v>3.9483971853010162E-2</v>
-      </c>
-      <c r="L3">
-        <v>2.7104351754253879E-3</v>
-      </c>
-      <c r="M3">
-        <v>80.304253869717627</v>
-      </c>
-      <c r="N3">
-        <v>58.649174174512872</v>
-      </c>
-      <c r="O3">
-        <v>1.3692307692307693</v>
-      </c>
-      <c r="P3">
-        <v>315.80324555506934</v>
-      </c>
-      <c r="Q3">
-        <v>375.35471471688237</v>
-      </c>
-      <c r="R3">
-        <v>20</v>
-      </c>
       <c r="S3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T3">
         <v>5</v>
@@ -940,12 +938,12 @@
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -963,43 +961,43 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
         <v>25</v>
       </c>
-      <c r="I4">
-        <v>38</v>
-      </c>
       <c r="J4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>5.9561128526645767E-2</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="L4">
-        <v>3.3208800332088003E-3</v>
+        <v>2.0134228187919465E-3</v>
       </c>
       <c r="M4">
-        <v>74.599030212607246</v>
+        <v>31.082929255253013</v>
       </c>
       <c r="N4">
         <v>80.815616063657828</v>
       </c>
       <c r="O4">
-        <v>0.92307692307692335</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="P4">
-        <v>391.64490861618793</v>
+        <v>267.31319159517591</v>
       </c>
       <c r="Q4">
-        <v>522.19321148825065</v>
+        <v>360.56197936093497</v>
       </c>
       <c r="R4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T4">
         <v>5</v>
@@ -1008,12 +1006,12 @@
         <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1031,43 +1029,43 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="H5">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="I5">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J5">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K5">
-        <v>8.6657496561210454E-2</v>
+        <v>9.0370370370370365E-2</v>
       </c>
       <c r="L5">
-        <v>4.5126022673074809E-3</v>
+        <v>4.4206346233094818E-3</v>
       </c>
       <c r="M5">
-        <v>68.148795823636064</v>
+        <v>69.434622159931081</v>
       </c>
       <c r="N5">
-        <v>109.2952385850767</v>
+        <v>66.862969487341047</v>
       </c>
       <c r="O5">
-        <v>0.62352941176470589</v>
+        <v>1.0384615384615383</v>
       </c>
       <c r="P5">
-        <v>480.89904977433753</v>
+        <v>441.03843334919191</v>
       </c>
       <c r="Q5">
-        <v>588.90846202311911</v>
+        <v>560.62028262462866</v>
       </c>
       <c r="R5">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T5">
         <v>5</v>
@@ -1076,12 +1074,12 @@
         <v>5</v>
       </c>
       <c r="V5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1099,57 +1097,57 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>861</v>
+        <v>899</v>
       </c>
       <c r="H6">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="I6">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J6">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="K6">
-        <v>1.3419585713302595E-2</v>
+        <v>1.4364207221350079E-2</v>
       </c>
       <c r="L6">
-        <v>1.355744273366429E-3</v>
+        <v>1.6633745711612433E-3</v>
       </c>
       <c r="M6">
-        <v>44.817771863680051</v>
+        <v>41.352480224735714</v>
       </c>
       <c r="N6">
-        <v>56.599763436090782</v>
+        <v>48.28306350262438</v>
       </c>
       <c r="O6">
-        <v>0.79183673469387761</v>
+        <v>0.8564593301435407</v>
       </c>
       <c r="P6">
-        <v>254.58342574111035</v>
+        <v>237.02594810379244</v>
       </c>
       <c r="Q6">
-        <v>295.47386708065352</v>
+        <v>264.05522288755822</v>
       </c>
       <c r="R6">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="S6">
         <v>4</v>
       </c>
       <c r="T6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1167,57 +1165,57 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>861</v>
+        <v>899</v>
       </c>
       <c r="H7">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="I7">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J7">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>1.3419585713302595E-2</v>
+        <v>1.4364207221350079E-2</v>
       </c>
       <c r="L7">
-        <v>1.355744273366429E-3</v>
+        <v>1.6633745711612433E-3</v>
       </c>
       <c r="M7">
-        <v>44.817771863680051</v>
+        <v>41.352480224735714</v>
       </c>
       <c r="N7">
-        <v>56.599763436090782</v>
+        <v>48.28306350262438</v>
       </c>
       <c r="O7">
-        <v>0.79183673469387761</v>
+        <v>0.8564593301435407</v>
       </c>
       <c r="P7">
-        <v>254.58342574111035</v>
+        <v>237.02594810379244</v>
       </c>
       <c r="Q7">
-        <v>295.47386708065352</v>
+        <v>264.05522288755822</v>
       </c>
       <c r="R7">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="S7">
         <v>4</v>
       </c>
       <c r="T7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1235,57 +1233,57 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>861</v>
+        <v>899</v>
       </c>
       <c r="H8">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="I8">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J8">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>1.3419585713302595E-2</v>
+        <v>1.4364207221350079E-2</v>
       </c>
       <c r="L8">
-        <v>1.355744273366429E-3</v>
+        <v>1.6633745711612433E-3</v>
       </c>
       <c r="M8">
-        <v>44.817771863680051</v>
+        <v>41.352480224735714</v>
       </c>
       <c r="N8">
-        <v>56.599763436090782</v>
+        <v>48.28306350262438</v>
       </c>
       <c r="O8">
-        <v>0.79183673469387761</v>
+        <v>0.8564593301435407</v>
       </c>
       <c r="P8">
-        <v>254.58342574111035</v>
+        <v>237.02594810379244</v>
       </c>
       <c r="Q8">
-        <v>295.47386708065352</v>
+        <v>264.05522288755822</v>
       </c>
       <c r="R8">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="S8">
         <v>4</v>
       </c>
       <c r="T8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1303,57 +1301,57 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>861</v>
+        <v>899</v>
       </c>
       <c r="H9">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="I9">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J9">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>1.3419585713302595E-2</v>
+        <v>1.4364207221350079E-2</v>
       </c>
       <c r="L9">
-        <v>1.355744273366429E-3</v>
+        <v>1.6633745711612433E-3</v>
       </c>
       <c r="M9">
-        <v>44.817771863680051</v>
+        <v>41.352480224735714</v>
       </c>
       <c r="N9">
-        <v>56.599763436090782</v>
+        <v>48.28306350262438</v>
       </c>
       <c r="O9">
-        <v>0.79183673469387761</v>
+        <v>0.8564593301435407</v>
       </c>
       <c r="P9">
-        <v>254.58342574111035</v>
+        <v>237.02594810379244</v>
       </c>
       <c r="Q9">
-        <v>295.47386708065352</v>
+        <v>264.05522288755822</v>
       </c>
       <c r="R9">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="S9">
         <v>4</v>
       </c>
       <c r="T9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1371,57 +1369,57 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>861</v>
+        <v>899</v>
       </c>
       <c r="H10">
-        <v>439</v>
+        <v>388</v>
       </c>
       <c r="I10">
-        <v>663</v>
+        <v>638</v>
       </c>
       <c r="J10">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>1.3419585713302595E-2</v>
+        <v>1.4364207221350079E-2</v>
       </c>
       <c r="L10">
-        <v>1.355744273366429E-3</v>
+        <v>1.6633745711612433E-3</v>
       </c>
       <c r="M10">
-        <v>44.817771863680051</v>
+        <v>41.352480224735714</v>
       </c>
       <c r="N10">
-        <v>56.599763436090782</v>
+        <v>48.28306350262438</v>
       </c>
       <c r="O10">
-        <v>0.79183673469387761</v>
+        <v>0.8564593301435407</v>
       </c>
       <c r="P10">
-        <v>254.58342574111035</v>
+        <v>237.02594810379244</v>
       </c>
       <c r="Q10">
-        <v>295.47386708065352</v>
+        <v>264.05522288755822</v>
       </c>
       <c r="R10">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="S10">
         <v>4</v>
       </c>
       <c r="T10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1439,57 +1437,57 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H11">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I11">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K11">
-        <v>1.9969278033794162E-2</v>
+        <v>6.2794348508634227E-3</v>
       </c>
       <c r="L11">
-        <v>1.4634860237084735E-3</v>
+        <v>1.8214936247723133E-3</v>
       </c>
       <c r="M11">
-        <v>14.646172873660486</v>
+        <v>7</v>
       </c>
       <c r="N11">
-        <v>27.664993205803142</v>
+        <v>15</v>
       </c>
       <c r="O11">
-        <v>0.52941176470588236</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="P11">
-        <v>115.54203044776604</v>
+        <v>100.89585757410556</v>
       </c>
       <c r="Q11">
-        <v>125.30614569687305</v>
+        <v>130.18820332142653</v>
       </c>
       <c r="R11">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1507,43 +1505,43 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="H12">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="I12">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="K12">
-        <v>8.5626911314984705E-2</v>
+        <v>7.0739549839228297E-2</v>
       </c>
       <c r="L12">
-        <v>4.7954443278885057E-3</v>
+        <v>4.6523324531623283E-3</v>
       </c>
       <c r="M12">
-        <v>87.330594818384711</v>
+        <v>71.158262444609761</v>
       </c>
       <c r="N12">
-        <v>129.37865899019957</v>
+        <v>84.096128343629715</v>
       </c>
       <c r="O12">
-        <v>0.67500000000000004</v>
+        <v>0.84615384615384615</v>
       </c>
       <c r="P12">
-        <v>439.88744056667855</v>
+        <v>384.90151049584375</v>
       </c>
       <c r="Q12">
-        <v>556.32823365785816</v>
+        <v>472.23210531422836</v>
       </c>
       <c r="R12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12">
         <v>5</v>
@@ -1552,12 +1550,12 @@
         <v>5</v>
       </c>
       <c r="V12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1575,40 +1573,40 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>456</v>
+        <v>424</v>
       </c>
       <c r="H13">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="I13">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="J13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K13">
-        <v>9.9128540305010893E-2</v>
+        <v>7.9004329004329008E-2</v>
       </c>
       <c r="L13">
-        <v>3.7574722459436378E-3</v>
+        <v>3.3645488700723377E-3</v>
       </c>
       <c r="M13">
-        <v>111.01243339253996</v>
+        <v>61.056838365896986</v>
       </c>
       <c r="N13">
-        <v>116.56305506216695</v>
+        <v>132.10479573712257</v>
       </c>
       <c r="O13">
-        <v>0.95238095238095244</v>
+        <v>0.4621848739495798</v>
       </c>
       <c r="P13">
-        <v>580.59502664298395</v>
+        <v>506.21669626998226</v>
       </c>
       <c r="Q13">
-        <v>657.19360568383661</v>
+        <v>566.16341030195383</v>
       </c>
       <c r="R13">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="S13">
         <v>5</v>
@@ -1620,12 +1618,12 @@
         <v>5</v>
       </c>
       <c r="V13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1646,40 +1644,40 @@
         <v>76</v>
       </c>
       <c r="H14">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I14">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J14">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K14">
-        <v>7.5268817204301078E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="L14">
-        <v>2.0746887966804979E-3</v>
+        <v>2.1179537308569567E-3</v>
       </c>
       <c r="M14">
-        <v>46.800411843624225</v>
+        <v>40.560356931140994</v>
       </c>
       <c r="N14">
-        <v>37.440329474899379</v>
+        <v>59.28052166859068</v>
       </c>
       <c r="O14">
-        <v>1.25</v>
+        <v>0.68421052631578949</v>
       </c>
       <c r="P14">
-        <v>283.92249851798698</v>
+        <v>277.68244360550375</v>
       </c>
       <c r="Q14">
-        <v>377.52332220523544</v>
+        <v>408.72359676765149</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14">
         <v>5</v>
@@ -1688,12 +1686,12 @@
         <v>5</v>
       </c>
       <c r="V14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1711,40 +1709,40 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="H15">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>7.2192513368983954E-2</v>
+      </c>
+      <c r="L15">
+        <v>2.6447661469933183E-3</v>
+      </c>
+      <c r="M15">
+        <v>65.89535311038739</v>
+      </c>
+      <c r="N15">
+        <v>58.292043136111928</v>
+      </c>
+      <c r="O15">
+        <v>1.1304347826086956</v>
+      </c>
+      <c r="P15">
+        <v>362.42444210713063</v>
+      </c>
+      <c r="Q15">
+        <v>400.44099197850801</v>
+      </c>
+      <c r="R15">
         <v>10</v>
-      </c>
-      <c r="K15">
-        <v>7.9617834394904455E-2</v>
-      </c>
-      <c r="L15">
-        <v>2.760143527463428E-3</v>
-      </c>
-      <c r="M15">
-        <v>68.42978976847921</v>
-      </c>
-      <c r="N15">
-        <v>78.567536400846492</v>
-      </c>
-      <c r="O15">
-        <v>0.87096774193548399</v>
-      </c>
-      <c r="P15">
-        <v>420.71648524324252</v>
-      </c>
-      <c r="Q15">
-        <v>496.74958498599722</v>
-      </c>
-      <c r="R15">
-        <v>18</v>
       </c>
       <c r="S15">
         <v>5</v>
@@ -1759,9 +1757,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1779,40 +1777,40 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H16">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I16">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="J16">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <v>5.0587172538392053E-2</v>
+      </c>
+      <c r="L16">
+        <v>6.1616146436031924E-4</v>
+      </c>
+      <c r="M16">
+        <v>41.680968959937232</v>
+      </c>
+      <c r="N16">
+        <v>25.335490936432436</v>
+      </c>
+      <c r="O16">
+        <v>1.6451612903225805</v>
+      </c>
+      <c r="P16">
+        <v>141.38838490331651</v>
+      </c>
+      <c r="Q16">
+        <v>175.71388875267658</v>
+      </c>
+      <c r="R16">
         <v>10</v>
-      </c>
-      <c r="K16">
-        <v>3.62453531598513E-2</v>
-      </c>
-      <c r="L16">
-        <v>7.0430801737293106E-4</v>
-      </c>
-      <c r="M16">
-        <v>31.056408244659117</v>
-      </c>
-      <c r="N16">
-        <v>40.863695058761991</v>
-      </c>
-      <c r="O16">
-        <v>0.76000000000000012</v>
-      </c>
-      <c r="P16">
-        <v>156.09931512447079</v>
-      </c>
-      <c r="Q16">
-        <v>180.61753215972803</v>
-      </c>
-      <c r="R16">
-        <v>14</v>
       </c>
       <c r="S16">
         <v>4</v>
@@ -1827,9 +1825,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1847,57 +1845,57 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H17">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="I17">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="J17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K17">
-        <v>1.8879415347137638E-2</v>
+        <v>2.2657685241886098E-2</v>
       </c>
       <c r="L17">
-        <v>1.3231013495633766E-3</v>
+        <v>1.7620610037671648E-3</v>
       </c>
       <c r="M17">
-        <v>30.826140567200987</v>
+        <v>35.078022024745948</v>
       </c>
       <c r="N17">
-        <v>66.967132956333174</v>
+        <v>27.637229474042265</v>
       </c>
       <c r="O17">
-        <v>0.46031746031746035</v>
+        <v>1.2692307692307692</v>
       </c>
       <c r="P17">
-        <v>182.83090267443345</v>
+        <v>165.82337684425357</v>
       </c>
       <c r="Q17">
-        <v>227.47565797865556</v>
+        <v>200.90139886899954</v>
       </c>
       <c r="R17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1915,43 +1913,43 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="H18">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I18">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="J18">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K18">
-        <v>0.13214285714285715</v>
+        <v>9.055118110236221E-2</v>
       </c>
       <c r="L18">
-        <v>4.6969358085439498E-3</v>
+        <v>3.2484407484407486E-3</v>
       </c>
       <c r="M18">
-        <v>103.5521526295971</v>
+        <v>56.482992343416591</v>
       </c>
       <c r="N18">
-        <v>141.20748085854149</v>
+        <v>128.65570478222668</v>
       </c>
       <c r="O18">
-        <v>0.73333333333333339</v>
+        <v>0.43902439024390244</v>
       </c>
       <c r="P18">
-        <v>583.65758754863816</v>
+        <v>379.69122630852269</v>
       </c>
       <c r="Q18">
-        <v>706.03740429270749</v>
+        <v>436.17421865193927</v>
       </c>
       <c r="R18">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T18">
         <v>5</v>
@@ -1960,12 +1958,12 @@
         <v>5</v>
       </c>
       <c r="V18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1983,57 +1981,57 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="H19">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="I19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="J19">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>4.361873990306947E-2</v>
+        <v>2.2807017543859651E-2</v>
       </c>
       <c r="L19">
-        <v>6.4220919964678492E-4</v>
+        <v>4.9521294156487292E-4</v>
       </c>
       <c r="M19">
-        <v>46.653707303526801</v>
+        <v>26.659261316301027</v>
       </c>
       <c r="N19">
+        <v>64.426548181060824</v>
+      </c>
+      <c r="O19">
+        <v>0.4137931034482758</v>
+      </c>
+      <c r="P19">
         <v>135.51791169119687</v>
       </c>
-      <c r="O19">
-        <v>0.34426229508196726</v>
-      </c>
-      <c r="P19">
-        <v>237.71174673701748</v>
-      </c>
       <c r="Q19">
-        <v>364.3432379894474</v>
+        <v>175.50680366564842</v>
       </c>
       <c r="R19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S19">
         <v>3</v>
       </c>
       <c r="T19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -2051,40 +2049,40 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="H20">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I20">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="J20">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K20">
-        <v>7.0769230769230765E-2</v>
+        <v>6.2344139650872821E-2</v>
       </c>
       <c r="L20">
-        <v>2.6411657559198545E-3</v>
+        <v>3.3595577291090791E-3</v>
       </c>
       <c r="M20">
-        <v>67.757782061933838</v>
+        <v>72.597623637786256</v>
       </c>
       <c r="N20">
-        <v>54.851537859660723</v>
+        <v>79.050745738922814</v>
       </c>
       <c r="O20">
-        <v>1.2352941176470589</v>
+        <v>0.91836734693877553</v>
       </c>
       <c r="P20">
-        <v>387.18732606819333</v>
+        <v>379.12092344177267</v>
       </c>
       <c r="Q20">
-        <v>440.42558340256994</v>
+        <v>442.03886392785404</v>
       </c>
       <c r="R20">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S20">
         <v>5</v>
@@ -2099,9 +2097,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -2119,57 +2117,57 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="H21">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="I21">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="J21">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="K21">
-        <v>0.13504823151125403</v>
+        <v>7.3552425665101728E-2</v>
       </c>
       <c r="L21">
-        <v>3.7220211084484779E-3</v>
+        <v>2.7028431831176256E-3</v>
       </c>
       <c r="M21">
+        <v>74.340021119324177</v>
+      </c>
+      <c r="N21">
         <v>140.23231256599789</v>
       </c>
-      <c r="N21">
-        <v>152.05913410770856</v>
-      </c>
       <c r="O21">
-        <v>0.92222222222222217</v>
+        <v>0.53012048192771077</v>
       </c>
       <c r="P21">
-        <v>567.6874340021119</v>
+        <v>456.17740232312565</v>
       </c>
       <c r="Q21">
-        <v>699.47201689545932</v>
+        <v>542.34424498416058</v>
       </c>
       <c r="R21">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="S21">
         <v>5</v>
       </c>
       <c r="T21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2187,43 +2185,43 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H22">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="I22">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="J22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K22">
-        <v>2.649656526005888E-2</v>
+        <v>3.689567430025445E-2</v>
       </c>
       <c r="L22">
-        <v>5.3037816394290891E-3</v>
+        <v>4.8078714919309751E-3</v>
       </c>
       <c r="M22">
-        <v>67.787598856914997</v>
+        <v>82.408453512328038</v>
       </c>
       <c r="N22">
-        <v>124.94184887352961</v>
+        <v>86.395959327440693</v>
       </c>
       <c r="O22">
-        <v>0.54255319148936165</v>
+        <v>0.95384615384615379</v>
       </c>
       <c r="P22">
-        <v>568.88416295607101</v>
+        <v>479.82986641855524</v>
       </c>
       <c r="Q22">
-        <v>620.72173855253538</v>
+        <v>527.67993619990693</v>
       </c>
       <c r="R22">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22">
         <v>5</v>
@@ -2232,12 +2230,12 @@
         <v>5</v>
       </c>
       <c r="V22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -2255,40 +2253,40 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="H23">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="I23">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="J23">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K23">
-        <v>2.4154589371980676E-2</v>
+        <v>1.6979987871437233E-2</v>
       </c>
       <c r="L23">
-        <v>3.3065477334768734E-3</v>
+        <v>2.6230101302460204E-3</v>
       </c>
       <c r="M23">
-        <v>37.36057377975942</v>
+        <v>31.461535814534244</v>
       </c>
       <c r="N23">
-        <v>65.872590611681076</v>
+        <v>39.326919768167805</v>
       </c>
       <c r="O23">
-        <v>0.56716417910447769</v>
+        <v>0.8</v>
       </c>
       <c r="P23">
-        <v>282.17064933660401</v>
+        <v>271.35574640035787</v>
       </c>
       <c r="Q23">
-        <v>338.21151000624315</v>
+        <v>309.69949317432145</v>
       </c>
       <c r="R23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S23">
         <v>4</v>
@@ -2303,9 +2301,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -2323,57 +2321,57 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>779</v>
+        <v>732</v>
       </c>
       <c r="H24">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="I24">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="J24">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>8.4675563736769446E-2</v>
+        <v>6.6104078762306617E-2</v>
       </c>
       <c r="L24">
-        <v>1.4780115494891573E-3</v>
+        <v>1.4185327615471026E-3</v>
       </c>
       <c r="M24">
-        <v>69.79542065998767</v>
+        <v>58.660742655865121</v>
       </c>
       <c r="N24">
-        <v>85.818493885432304</v>
+        <v>82.831141250179925</v>
       </c>
       <c r="O24">
-        <v>0.81329113924050644</v>
+        <v>0.70819672131147537</v>
       </c>
       <c r="P24">
-        <v>275.92275249240259</v>
+        <v>237.90190077100857</v>
       </c>
       <c r="Q24">
-        <v>336.21296022204177</v>
+        <v>277.82379507847236</v>
       </c>
       <c r="R24">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S24">
         <v>4</v>
       </c>
       <c r="T24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2391,57 +2389,57 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>779</v>
+        <v>732</v>
       </c>
       <c r="H25">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="I25">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="J25">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="K25">
-        <v>8.4675563736769446E-2</v>
+        <v>6.6104078762306617E-2</v>
       </c>
       <c r="L25">
-        <v>1.4780115494891573E-3</v>
+        <v>1.4185327615471026E-3</v>
       </c>
       <c r="M25">
-        <v>69.79542065998767</v>
+        <v>58.660742655865121</v>
       </c>
       <c r="N25">
-        <v>85.818493885432304</v>
+        <v>82.831141250179925</v>
       </c>
       <c r="O25">
-        <v>0.81329113924050644</v>
+        <v>0.70819672131147537</v>
       </c>
       <c r="P25">
-        <v>275.92275249240259</v>
+        <v>237.90190077100857</v>
       </c>
       <c r="Q25">
-        <v>336.21296022204177</v>
+        <v>277.82379507847236</v>
       </c>
       <c r="R25">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S25">
         <v>4</v>
       </c>
       <c r="T25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V25" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2459,57 +2457,57 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>779</v>
+        <v>732</v>
       </c>
       <c r="H26">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="I26">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="J26">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="K26">
-        <v>8.4675563736769446E-2</v>
+        <v>6.6104078762306617E-2</v>
       </c>
       <c r="L26">
-        <v>1.4780115494891573E-3</v>
+        <v>1.4185327615471026E-3</v>
       </c>
       <c r="M26">
-        <v>69.79542065998767</v>
+        <v>58.660742655865121</v>
       </c>
       <c r="N26">
-        <v>85.818493885432304</v>
+        <v>82.831141250179925</v>
       </c>
       <c r="O26">
-        <v>0.81329113924050644</v>
+        <v>0.70819672131147537</v>
       </c>
       <c r="P26">
-        <v>275.92275249240259</v>
+        <v>237.90190077100857</v>
       </c>
       <c r="Q26">
-        <v>336.21296022204177</v>
+        <v>277.82379507847236</v>
       </c>
       <c r="R26">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S26">
         <v>4</v>
       </c>
       <c r="T26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2527,57 +2525,57 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>779</v>
+        <v>732</v>
       </c>
       <c r="H27">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="I27">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="J27">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>8.4675563736769446E-2</v>
+        <v>6.6104078762306617E-2</v>
       </c>
       <c r="L27">
-        <v>1.4780115494891573E-3</v>
+        <v>1.4185327615471026E-3</v>
       </c>
       <c r="M27">
-        <v>69.79542065998767</v>
+        <v>58.660742655865121</v>
       </c>
       <c r="N27">
-        <v>85.818493885432304</v>
+        <v>82.831141250179925</v>
       </c>
       <c r="O27">
-        <v>0.81329113924050644</v>
+        <v>0.70819672131147537</v>
       </c>
       <c r="P27">
-        <v>275.92275249240259</v>
+        <v>237.90190077100857</v>
       </c>
       <c r="Q27">
-        <v>336.21296022204177</v>
+        <v>277.82379507847236</v>
       </c>
       <c r="R27">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S27">
         <v>4</v>
       </c>
       <c r="T27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2595,57 +2593,57 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>779</v>
+        <v>732</v>
       </c>
       <c r="H28">
-        <v>573</v>
+        <v>521</v>
       </c>
       <c r="I28">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="J28">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>8.4675563736769446E-2</v>
+        <v>6.6104078762306617E-2</v>
       </c>
       <c r="L28">
-        <v>1.4780115494891573E-3</v>
+        <v>1.4185327615471026E-3</v>
       </c>
       <c r="M28">
-        <v>69.79542065998767</v>
+        <v>58.660742655865121</v>
       </c>
       <c r="N28">
-        <v>85.818493885432304</v>
+        <v>82.831141250179925</v>
       </c>
       <c r="O28">
-        <v>0.81329113924050644</v>
+        <v>0.70819672131147537</v>
       </c>
       <c r="P28">
-        <v>275.92275249240259</v>
+        <v>237.90190077100857</v>
       </c>
       <c r="Q28">
-        <v>336.21296022204177</v>
+        <v>277.82379507847236</v>
       </c>
       <c r="R28">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="S28">
         <v>4</v>
       </c>
       <c r="T28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2663,37 +2661,37 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="I29">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>3.5623409669211195E-2</v>
+        <v>2.4875621890547265E-2</v>
       </c>
       <c r="L29">
-        <v>2.7643400138217E-3</v>
+        <v>2.1742084522353581E-3</v>
       </c>
       <c r="M29">
-        <v>40.573437922639975</v>
+        <v>13.52447930754666</v>
       </c>
       <c r="N29">
-        <v>54.097917230186638</v>
+        <v>45.081597691822196</v>
       </c>
       <c r="O29">
-        <v>0.74999999999999989</v>
+        <v>0.3</v>
       </c>
       <c r="P29">
-        <v>387.70174014967091</v>
+        <v>293.0303849968443</v>
       </c>
       <c r="Q29">
-        <v>387.70174014967091</v>
+        <v>306.55486430439095</v>
       </c>
       <c r="R29">
         <v>10</v>
@@ -2702,18 +2700,18 @@
         <v>4</v>
       </c>
       <c r="T29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2731,57 +2729,57 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H30">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="I30">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K30">
-        <v>0.11228813559322035</v>
+        <v>7.6433121019108277E-2</v>
       </c>
       <c r="L30">
-        <v>5.8972198820556026E-3</v>
+        <v>5.3874187925843763E-3</v>
       </c>
       <c r="M30">
-        <v>142.79637844078508</v>
+        <v>124.56705353345082</v>
       </c>
       <c r="N30">
-        <v>215.71367807012211</v>
+        <v>145.83459925867413</v>
       </c>
       <c r="O30">
-        <v>0.66197183098591561</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="P30">
-        <v>789.93741265115159</v>
+        <v>738.28765874703765</v>
       </c>
       <c r="Q30">
-        <v>881.08403718782279</v>
+        <v>783.86097101537348</v>
       </c>
       <c r="R30">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="S30">
         <v>5</v>
       </c>
       <c r="T30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2799,57 +2797,57 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="H31">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="I31">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="J31">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K31">
-        <v>5.0955414012738856E-2</v>
+        <v>4.4205495818399047E-2</v>
       </c>
       <c r="L31">
-        <v>1.8228217280349982E-3</v>
+        <v>1.7137416693113296E-3</v>
       </c>
       <c r="M31">
-        <v>30.679275247238866</v>
+        <v>28.874611997401285</v>
       </c>
       <c r="N31">
-        <v>53.23756587020862</v>
+        <v>34.288601746914026</v>
       </c>
       <c r="O31">
-        <v>0.57627118644067798</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="P31">
-        <v>196.70829423229625</v>
+        <v>150.68938136143794</v>
       </c>
       <c r="Q31">
-        <v>277.91814047498735</v>
+        <v>218.3642532303472</v>
       </c>
       <c r="R31">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="S31">
         <v>4</v>
       </c>
       <c r="T31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2867,43 +2865,43 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H32">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J32">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K32">
-        <v>8.0701754385964913E-2</v>
+        <v>9.696969696969697E-2</v>
       </c>
       <c r="L32">
-        <v>2.9501633126119481E-3</v>
+        <v>2.911773269921382E-3</v>
       </c>
       <c r="M32">
-        <v>77.14675686902855</v>
+        <v>127.58886712954721</v>
       </c>
       <c r="N32">
-        <v>142.42478191205271</v>
+        <v>97.917037564536244</v>
       </c>
       <c r="O32">
-        <v>0.54166666666666663</v>
+        <v>1.3030303030303028</v>
       </c>
       <c r="P32">
-        <v>516.28983443119103</v>
+        <v>415.4056139101537</v>
       </c>
       <c r="Q32">
-        <v>596.40377425672068</v>
+        <v>531.12574921369651</v>
       </c>
       <c r="R32">
         <v>9</v>
       </c>
       <c r="S32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32">
         <v>5</v>
@@ -2912,12 +2910,12 @@
         <v>5</v>
       </c>
       <c r="V32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2935,57 +2933,57 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>219</v>
+        <v>174</v>
       </c>
       <c r="H33">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="I33">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="J33">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>5.1724137931034482E-2</v>
+        <v>4.250797024442083E-2</v>
       </c>
       <c r="L33">
-        <v>1.9206914489216119E-3</v>
+        <v>1.2347203358439314E-3</v>
       </c>
       <c r="M33">
-        <v>69.194096359698591</v>
+        <v>53.971395160564903</v>
       </c>
       <c r="N33">
-        <v>121.78160959306953</v>
+        <v>76.113505995668447</v>
       </c>
       <c r="O33">
-        <v>0.56818181818181812</v>
+        <v>0.70909090909090911</v>
       </c>
       <c r="P33">
-        <v>351.50600950726886</v>
+        <v>265.70533002124262</v>
       </c>
       <c r="Q33">
-        <v>413.78069623099753</v>
+        <v>298.91849627389792</v>
       </c>
       <c r="R33">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="S33">
         <v>4</v>
       </c>
       <c r="T33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3003,57 +3001,57 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="H34">
-        <v>195</v>
+        <v>126</v>
       </c>
       <c r="I34">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="J34">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="K34">
-        <v>0.11059371362048893</v>
+        <v>7.3291925465838514E-2</v>
       </c>
       <c r="L34">
-        <v>4.3540800062201145E-3</v>
+        <v>4.6108374384236451E-3</v>
       </c>
       <c r="M34">
-        <v>108.89391010807722</v>
+        <v>61.252824435793428</v>
       </c>
       <c r="N34">
-        <v>156.53499578036099</v>
+        <v>110.25508398442817</v>
       </c>
       <c r="O34">
-        <v>0.69565217391304357</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P34">
-        <v>603.00002722347756</v>
+        <v>498.18963874445319</v>
       </c>
       <c r="Q34">
-        <v>786.75850053085776</v>
+        <v>596.1941578417227</v>
       </c>
       <c r="R34">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="S34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -3071,57 +3069,57 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H35">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I35">
+        <v>103</v>
+      </c>
+      <c r="J35">
+        <v>9</v>
+      </c>
+      <c r="K35">
+        <v>3.8793103448275863E-2</v>
+      </c>
+      <c r="L35">
+        <v>2.5511480166074733E-3</v>
+      </c>
+      <c r="M35">
+        <v>41.709834102498554</v>
+      </c>
+      <c r="N35">
+        <v>53.819140777417495</v>
+      </c>
+      <c r="O35">
+        <v>0.77499999999999991</v>
+      </c>
+      <c r="P35">
+        <v>234.11326238176608</v>
+      </c>
+      <c r="Q35">
+        <v>270.44118240652284</v>
+      </c>
+      <c r="R35">
+        <v>15</v>
+      </c>
+      <c r="S35">
+        <v>4</v>
+      </c>
+      <c r="T35">
+        <v>4</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35" t="s">
         <v>106</v>
       </c>
-      <c r="J35">
-        <v>8</v>
-      </c>
-      <c r="K35">
-        <v>3.2653061224489799E-2</v>
-      </c>
-      <c r="L35">
-        <v>2.7926322043969102E-3</v>
-      </c>
-      <c r="M35">
-        <v>56.510097816288358</v>
-      </c>
-      <c r="N35">
-        <v>48.43722669967574</v>
-      </c>
-      <c r="O35">
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="P35">
-        <v>247.56804757612045</v>
-      </c>
-      <c r="Q35">
-        <v>279.85953204257095</v>
-      </c>
-      <c r="R35">
-        <v>13</v>
-      </c>
-      <c r="S35">
-        <v>4</v>
-      </c>
-      <c r="T35">
-        <v>5</v>
-      </c>
-      <c r="U35">
-        <v>5</v>
-      </c>
-      <c r="V35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -3139,57 +3137,57 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>519</v>
+        <v>379</v>
       </c>
       <c r="H36">
-        <v>325</v>
+        <v>203</v>
       </c>
       <c r="I36">
-        <v>239</v>
+        <v>153</v>
       </c>
       <c r="J36">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="K36">
-        <v>9.5670391061452517E-2</v>
+        <v>7.4268567141785452E-2</v>
       </c>
       <c r="L36">
-        <v>3.1960227272727275E-3</v>
+        <v>2.3864157870582838E-3</v>
       </c>
       <c r="M36">
-        <v>131.82752392617658</v>
+        <v>98.611139944777761</v>
       </c>
       <c r="N36">
-        <v>205.52637588490524</v>
+        <v>128.71348792792045</v>
       </c>
       <c r="O36">
-        <v>0.64141414141414133</v>
+        <v>0.7661290322580645</v>
       </c>
       <c r="P36">
-        <v>585.4387676721542</v>
+        <v>393.40654777969229</v>
       </c>
       <c r="Q36">
-        <v>753.59671157798584</v>
+        <v>499.28377172040103</v>
       </c>
       <c r="R36">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="S36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V36" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -3207,37 +3205,37 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H37">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I37">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K37">
-        <v>4.5871559633027525E-2</v>
+        <v>2.5477707006369428E-2</v>
       </c>
       <c r="L37">
-        <v>4.246284501061571E-3</v>
+        <v>5.3304904051172707E-3</v>
       </c>
       <c r="M37">
-        <v>76.003884642992858</v>
+        <v>33.779504285774607</v>
       </c>
       <c r="N37">
-        <v>33.779504285774607</v>
+        <v>92.893636785880162</v>
       </c>
       <c r="O37">
-        <v>2.25</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="P37">
-        <v>439.13355571506986</v>
+        <v>346.23991892918968</v>
       </c>
       <c r="Q37">
-        <v>565.80669678672461</v>
+        <v>447.57843178651353</v>
       </c>
       <c r="R37">
         <v>4</v>
@@ -3252,12 +3250,12 @@
         <v>5</v>
       </c>
       <c r="V37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -3275,57 +3273,57 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="H38">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="I38">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="J38">
         <v>26</v>
       </c>
       <c r="K38">
-        <v>0.11756569847856155</v>
+        <v>9.8554533508541389E-2</v>
       </c>
       <c r="L38">
-        <v>1.7262702257033907E-3</v>
+        <v>1.5491663384534593E-3</v>
       </c>
       <c r="M38">
-        <v>70.457522243801094</v>
+        <v>64.134411273203554</v>
       </c>
       <c r="N38">
-        <v>121.04241000858137</v>
+        <v>99.363172395104101</v>
       </c>
       <c r="O38">
-        <v>0.58208955223880599</v>
+        <v>0.64545454545454539</v>
       </c>
       <c r="P38">
-        <v>385.70976920644961</v>
+        <v>306.21923129036628</v>
       </c>
       <c r="Q38">
-        <v>456.16729145025067</v>
+        <v>376.67675353416735</v>
       </c>
       <c r="R38">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="S38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -3343,43 +3341,43 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H39">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I39">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>12</v>
       </c>
       <c r="K39">
-        <v>9.2150170648464161E-2</v>
+        <v>9.3247588424437297E-2</v>
       </c>
       <c r="L39">
-        <v>2.0790020790020791E-3</v>
+        <v>1.559841179807147E-3</v>
       </c>
       <c r="M39">
-        <v>110.03187130065261</v>
+        <v>117.62027621793898</v>
       </c>
       <c r="N39">
-        <v>151.76809834572771</v>
+        <v>117.62027621793898</v>
       </c>
       <c r="O39">
-        <v>0.7250000000000002</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>531.18834421004703</v>
+        <v>508.42312945818787</v>
       </c>
       <c r="Q39">
-        <v>667.77963272120201</v>
+        <v>645.01441796934284</v>
       </c>
       <c r="R39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="T39">
         <v>6</v>
@@ -3388,12 +3386,12 @@
         <v>6</v>
       </c>
       <c r="V39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -3411,57 +3409,57 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="H40">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="I40">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="J40">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K40">
-        <v>5.9238363892806768E-2</v>
+        <v>5.2297939778129951E-2</v>
       </c>
       <c r="L40">
-        <v>7.7478798031619727E-3</v>
+        <v>6.0773480662983425E-3</v>
       </c>
       <c r="M40">
-        <v>67.024663480335434</v>
+        <v>51.066410270731765</v>
       </c>
       <c r="N40">
-        <v>106.92029650434465</v>
+        <v>75.003790085137283</v>
       </c>
       <c r="O40">
-        <v>0.62686567164179086</v>
+        <v>0.68085106382978722</v>
       </c>
       <c r="P40">
-        <v>615.9885738907019</v>
+        <v>571.30546490381164</v>
       </c>
       <c r="Q40">
-        <v>663.86333351951293</v>
+        <v>585.66789279245495</v>
       </c>
       <c r="R40">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3479,57 +3477,57 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="H41">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="I41">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="J41">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K41">
-        <v>3.125E-2</v>
+        <v>2.7628549501151189E-2</v>
       </c>
       <c r="L41">
-        <v>1.2424033769421908E-3</v>
+        <v>7.599626351704375E-4</v>
       </c>
       <c r="M41">
-        <v>47.041346868036641</v>
+        <v>45.184451596929932</v>
       </c>
       <c r="N41">
-        <v>37.137905422134189</v>
+        <v>46.422381777667745</v>
       </c>
       <c r="O41">
-        <v>1.2666666666666666</v>
+        <v>0.97333333333333316</v>
       </c>
       <c r="P41">
-        <v>181.97573656845753</v>
+        <v>178.88091111661302</v>
       </c>
       <c r="Q41">
-        <v>202.40158455063136</v>
+        <v>201.16365436989355</v>
       </c>
       <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
         <v>3</v>
       </c>
-      <c r="S41">
-        <v>3</v>
-      </c>
-      <c r="T41">
-        <v>4</v>
-      </c>
       <c r="U41">
         <v>4</v>
       </c>
       <c r="V41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -3547,40 +3545,40 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H42">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="I42">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="J42">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K42">
-        <v>7.5229357798165142E-2</v>
+        <v>4.7358834244080147E-2</v>
       </c>
       <c r="L42">
-        <v>2.1754064575223264E-3</v>
+        <v>1.0997587625940115E-3</v>
       </c>
       <c r="M42">
-        <v>63.945262854996123</v>
+        <v>38.367157712997674</v>
       </c>
       <c r="N42">
-        <v>67.142525997745935</v>
+        <v>59.149368140871417</v>
       </c>
       <c r="O42">
-        <v>0.95238095238095233</v>
+        <v>0.64864864864864857</v>
       </c>
       <c r="P42">
-        <v>294.14820913298217</v>
+        <v>242.99199884898525</v>
       </c>
       <c r="Q42">
-        <v>351.69894570247868</v>
+        <v>290.95094599023236</v>
       </c>
       <c r="R42">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="S42">
         <v>5</v>
@@ -3592,12 +3590,12 @@
         <v>5</v>
       </c>
       <c r="V42" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -3615,37 +3613,37 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="H43">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="I43">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="J43">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K43">
-        <v>3.6207717960933777E-2</v>
+        <v>2.2716288061865635E-2</v>
       </c>
       <c r="L43">
-        <v>1.4668133480014668E-3</v>
+        <v>1.8685697561854162E-3</v>
       </c>
       <c r="M43">
+        <v>29.495447989093879</v>
+      </c>
+      <c r="N43">
         <v>48.199878421202193</v>
       </c>
-      <c r="N43">
-        <v>66.184907682844795</v>
-      </c>
       <c r="O43">
-        <v>0.72826086956521752</v>
+        <v>0.61194029850746268</v>
       </c>
       <c r="P43">
-        <v>207.18753709412286</v>
+        <v>185.60550198015173</v>
       </c>
       <c r="Q43">
-        <v>328.0469337323612</v>
+        <v>280.5664564816247</v>
       </c>
       <c r="R43">
         <v>0</v>
@@ -3663,9 +3661,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3683,57 +3681,57 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="H44">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I44">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J44">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K44">
-        <v>3.5260930888575459E-2</v>
+        <v>2.7925531914893616E-2</v>
       </c>
       <c r="L44">
-        <v>2.5959577229742259E-3</v>
+        <v>1.718213058419244E-3</v>
       </c>
       <c r="M44">
-        <v>54.828769752064311</v>
+        <v>46.056166591734019</v>
       </c>
       <c r="N44">
-        <v>59.215071332229449</v>
+        <v>61.408222122312019</v>
       </c>
       <c r="O44">
-        <v>0.92592592592592604</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="P44">
-        <v>291.68905508098209</v>
+        <v>280.72330113056921</v>
       </c>
       <c r="Q44">
-        <v>350.90412641321154</v>
+        <v>346.5178248330464</v>
       </c>
       <c r="R44">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S44">
         <v>4</v>
       </c>
       <c r="T44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3751,57 +3749,57 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="H45">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I45">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="J45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>1.3755158184319119E-2</v>
+        <v>2.1708683473389355E-2</v>
       </c>
       <c r="L45">
-        <v>5.7592628143597622E-3</v>
+        <v>4.3351934695383476E-3</v>
       </c>
       <c r="M45">
-        <v>29.16570726840126</v>
+        <v>47.586153964233631</v>
       </c>
       <c r="N45">
-        <v>53.72630286284442</v>
+        <v>27.630670043748562</v>
       </c>
       <c r="O45">
-        <v>0.54285714285714293</v>
+        <v>1.7222222222222221</v>
       </c>
       <c r="P45">
-        <v>399.10967840970142</v>
+        <v>374.54908281525826</v>
       </c>
       <c r="Q45">
-        <v>417.53012510553384</v>
+        <v>379.15419448921637</v>
       </c>
       <c r="R45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S45">
         <v>4</v>
       </c>
       <c r="T45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3819,57 +3817,57 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="H46">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I46">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="J46">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K46">
-        <v>4.8746518105849582E-2</v>
+        <v>3.4528552456839307E-2</v>
       </c>
       <c r="L46">
-        <v>6.3888342834676629E-4</v>
+        <v>4.2446823562703389E-4</v>
       </c>
       <c r="M46">
+        <v>38.215039210222521</v>
+      </c>
+      <c r="N46">
         <v>54.137972214481906</v>
       </c>
-      <c r="N46">
-        <v>85.983838223000674</v>
-      </c>
       <c r="O46">
-        <v>0.62962962962962965</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="P46">
-        <v>199.03666255324231</v>
+        <v>128.97575733450103</v>
       </c>
       <c r="Q46">
-        <v>261.13610126985395</v>
+        <v>162.41391664344573</v>
       </c>
       <c r="R46">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S46">
         <v>3</v>
       </c>
       <c r="T46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V46" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3887,57 +3885,57 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H47">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="I47">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="J47">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K47">
-        <v>9.569377990430622E-2</v>
+        <v>9.2233009708737865E-2</v>
       </c>
       <c r="L47">
-        <v>6.6365808335545531E-3</v>
+        <v>5.9036374023995431E-3</v>
       </c>
       <c r="M47">
-        <v>93.148898514275061</v>
+        <v>88.491453588561313</v>
       </c>
       <c r="N47">
-        <v>144.38079269712634</v>
+        <v>107.12123329141632</v>
       </c>
       <c r="O47">
-        <v>0.64516129032258063</v>
+        <v>0.82608695652173925</v>
       </c>
       <c r="P47">
-        <v>465.7444925713753</v>
+        <v>475.05938242280286</v>
       </c>
       <c r="Q47">
-        <v>605.46784034278801</v>
+        <v>586.83806063993291</v>
       </c>
       <c r="R47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S47">
         <v>4</v>
       </c>
       <c r="T47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U47">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V47" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3955,57 +3953,57 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>449</v>
+        <v>377</v>
       </c>
       <c r="H48">
-        <v>262</v>
+        <v>183</v>
       </c>
       <c r="I48">
-        <v>306</v>
+        <v>235</v>
       </c>
       <c r="J48">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K48">
-        <v>9.9152542372881361E-2</v>
+        <v>6.6282420749279536E-2</v>
       </c>
       <c r="L48">
-        <v>4.1371572820980296E-3</v>
+        <v>2.4823281874275988E-3</v>
       </c>
       <c r="M48">
-        <v>104.84827977333708</v>
+        <v>58.143136965214197</v>
       </c>
       <c r="N48">
-        <v>144.88125932315671</v>
+        <v>107.70777831260992</v>
       </c>
       <c r="O48">
-        <v>0.72368421052631571</v>
+        <v>0.53982300884955747</v>
       </c>
       <c r="P48">
-        <v>541.39839010232242</v>
+        <v>398.42346313868086</v>
       </c>
       <c r="Q48">
-        <v>618.6048506626887</v>
+        <v>458.47293246341036</v>
       </c>
       <c r="R48">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="S48">
         <v>4</v>
       </c>
       <c r="T48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V48" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -4023,43 +4021,43 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="H49">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I49">
-        <v>202</v>
+        <v>146</v>
       </c>
       <c r="J49">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="K49">
-        <v>0.13254593175853019</v>
+        <v>9.8495212038303692E-2</v>
       </c>
       <c r="L49">
-        <v>3.5832661470930754E-3</v>
+        <v>1.9993045897079278E-3</v>
       </c>
       <c r="M49">
-        <v>158.55601912281685</v>
+        <v>112.11031655148666</v>
       </c>
       <c r="N49">
-        <v>128.1260760588419</v>
+        <v>161.75917102428789</v>
       </c>
       <c r="O49">
-        <v>1.2375</v>
+        <v>0.69306930693069313</v>
       </c>
       <c r="P49">
-        <v>610.20043723023457</v>
+        <v>507.699576383161</v>
       </c>
       <c r="Q49">
-        <v>792.78009561408419</v>
+        <v>642.23195624494497</v>
       </c>
       <c r="R49">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T49">
         <v>6</v>
@@ -4068,12 +4066,12 @@
         <v>6</v>
       </c>
       <c r="V49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -4091,43 +4089,43 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="H50">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="I50">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="J50">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K50">
-        <v>4.9104180491041802E-2</v>
+        <v>4.5776918117343648E-2</v>
       </c>
       <c r="L50">
-        <v>2.9458564486302841E-3</v>
+        <v>2.7567354692241757E-3</v>
       </c>
       <c r="M50">
-        <v>79.722338483965842</v>
+        <v>78.583447934194908</v>
       </c>
       <c r="N50">
-        <v>104.77793057892654</v>
+        <v>80.861229033736791</v>
       </c>
       <c r="O50">
-        <v>0.76086956521739124</v>
+        <v>0.97183098591549288</v>
       </c>
       <c r="P50">
-        <v>343.37550075593862</v>
+        <v>308.06989371303945</v>
       </c>
       <c r="Q50">
-        <v>421.95894869013352</v>
+        <v>359.31996845273176</v>
       </c>
       <c r="R50">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="S50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T50">
         <v>5</v>
@@ -4136,12 +4134,12 @@
         <v>5</v>
       </c>
       <c r="V50" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -4159,57 +4157,57 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="H51">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="I51">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="J51">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="K51">
-        <v>4.6632124352331605E-2</v>
+        <v>3.7155963302752296E-2</v>
       </c>
       <c r="L51">
-        <v>1.6520733520568314E-3</v>
+        <v>1.9996923550223041E-3</v>
       </c>
       <c r="M51">
-        <v>75.384667057273688</v>
+        <v>57.471478845644299</v>
       </c>
       <c r="N51">
-        <v>108.22551211192757</v>
+        <v>83.594878320937156</v>
       </c>
       <c r="O51">
-        <v>0.69655172413793109</v>
+        <v>0.6875</v>
       </c>
       <c r="P51">
-        <v>271.68335454304577</v>
+        <v>232.87144675118208</v>
       </c>
       <c r="Q51">
-        <v>374.68418675991478</v>
+        <v>311.24164517706066</v>
       </c>
       <c r="R51">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="S51">
         <v>4</v>
       </c>
       <c r="T51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V51" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -4227,57 +4225,57 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="H52">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="I52">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J52">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="K52">
-        <v>0.11220472440944881</v>
+        <v>8.4507042253521125E-2</v>
       </c>
       <c r="L52">
-        <v>2.4356297842727907E-3</v>
+        <v>1.869624828617724E-3</v>
       </c>
       <c r="M52">
-        <v>128.64058497613379</v>
+        <v>88.017242352091543</v>
       </c>
       <c r="N52">
-        <v>194.08930364820185</v>
+        <v>130.89743734413614</v>
       </c>
       <c r="O52">
-        <v>0.66279069767441867</v>
+        <v>0.67241379310344829</v>
       </c>
       <c r="P52">
-        <v>512.30548753653284</v>
+        <v>399.46286913641546</v>
       </c>
       <c r="Q52">
-        <v>668.02830092869476</v>
+        <v>480.70955438449994</v>
       </c>
       <c r="R52">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4295,43 +4293,43 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="H53">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I53">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="J53">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K53">
-        <v>8.3032490974729242E-2</v>
+        <v>6.0810810810810814E-2</v>
       </c>
       <c r="L53">
-        <v>3.8843606724401425E-3</v>
+        <v>3.4500062727386778E-3</v>
       </c>
       <c r="M53">
+        <v>37.843906500321673</v>
+      </c>
+      <c r="N53">
         <v>55.504396200471781</v>
       </c>
-      <c r="N53">
-        <v>42.889760700364562</v>
-      </c>
       <c r="O53">
-        <v>1.2941176470588234</v>
+        <v>0.68181818181818188</v>
       </c>
       <c r="P53">
-        <v>375.91613790319531</v>
+        <v>350.68686690298085</v>
       </c>
       <c r="Q53">
-        <v>421.32882570358129</v>
+        <v>365.82442950310951</v>
       </c>
       <c r="R53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T53">
         <v>5</v>
@@ -4340,12 +4338,12 @@
         <v>5</v>
       </c>
       <c r="V53" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4363,57 +4361,57 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H54">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="I54">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="J54">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K54">
-        <v>8.5020242914979755E-2</v>
+        <v>7.5342465753424653E-2</v>
       </c>
       <c r="L54">
-        <v>2.2097494144164053E-3</v>
+        <v>2.0413976452715536E-3</v>
       </c>
       <c r="M54">
-        <v>60.599579367625573</v>
+        <v>61.787806414049598</v>
       </c>
       <c r="N54">
-        <v>70.105395739017808</v>
+        <v>55.846671181929445</v>
       </c>
       <c r="O54">
-        <v>0.86440677966101709</v>
+        <v>1.1063829787234043</v>
       </c>
       <c r="P54">
-        <v>278.04512886322323</v>
+        <v>274.4804477239511</v>
       </c>
       <c r="Q54">
-        <v>313.69194025594413</v>
+        <v>306.56257797739988</v>
       </c>
       <c r="R54">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="S54">
         <v>4</v>
       </c>
       <c r="T54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V54" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -4431,57 +4429,57 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H55">
         <v>49</v>
       </c>
       <c r="I55">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="J55">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K55">
-        <v>6.5000000000000002E-2</v>
+        <v>6.5989847715736044E-2</v>
       </c>
       <c r="L55">
-        <v>2.0712730362738331E-3</v>
+        <v>2.013036809815951E-3</v>
       </c>
       <c r="M55">
-        <v>38.57993682535345</v>
+        <v>35.364942089907331</v>
       </c>
       <c r="N55">
-        <v>40.187434193076513</v>
+        <v>43.402428928522632</v>
       </c>
       <c r="O55">
-        <v>0.96</v>
+        <v>0.81481481481481488</v>
       </c>
       <c r="P55">
-        <v>234.69461568756682</v>
+        <v>217.01214464261315</v>
       </c>
       <c r="Q55">
-        <v>287.74202882242781</v>
+        <v>250.76958936479741</v>
       </c>
       <c r="R55">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S55">
         <v>4</v>
       </c>
       <c r="T55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4499,40 +4497,40 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="H56">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="I56">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="J56">
+        <v>26</v>
+      </c>
+      <c r="K56">
+        <v>8.4393063583815028E-2</v>
+      </c>
+      <c r="L56">
+        <v>3.2963739886125261E-3</v>
+      </c>
+      <c r="M56">
+        <v>118.16161687418433</v>
+      </c>
+      <c r="N56">
+        <v>160.48816620225037</v>
+      </c>
+      <c r="O56">
+        <v>0.7362637362637362</v>
+      </c>
+      <c r="P56">
+        <v>511.44580438079788</v>
+      </c>
+      <c r="Q56">
+        <v>649.00708969701247</v>
+      </c>
+      <c r="R56">
         <v>32</v>
-      </c>
-      <c r="K56">
-        <v>0.11542610571736785</v>
-      </c>
-      <c r="L56">
-        <v>3.6852171479218173E-3</v>
-      </c>
-      <c r="M56">
-        <v>190.46947197629714</v>
-      </c>
-      <c r="N56">
-        <v>128.74325420620085</v>
-      </c>
-      <c r="O56">
-        <v>1.4794520547945205</v>
-      </c>
-      <c r="P56">
-        <v>562.59038481887774</v>
-      </c>
-      <c r="Q56">
-        <v>731.89658213114171</v>
-      </c>
-      <c r="R56">
-        <v>24</v>
       </c>
       <c r="S56">
         <v>5</v>
@@ -4547,9 +4545,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -4567,43 +4565,43 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>208</v>
+        <v>306</v>
       </c>
       <c r="H57">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I57">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="J57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K57">
-        <v>4.0553907022749754E-2</v>
+        <v>3.1598513011152414E-2</v>
       </c>
       <c r="L57">
-        <v>5.5351741005342089E-3</v>
+        <v>7.1136954101200045E-3</v>
       </c>
       <c r="M57">
-        <v>66.095491461288702</v>
+        <v>54.528780455563172</v>
       </c>
       <c r="N57">
-        <v>69.400266034353137</v>
+        <v>71.052653320885355</v>
       </c>
       <c r="O57">
-        <v>0.95238095238095233</v>
+        <v>0.7674418604651162</v>
       </c>
       <c r="P57">
-        <v>409.7920470599899</v>
+        <v>505.63050967885857</v>
       </c>
       <c r="Q57">
-        <v>459.36366565595642</v>
+        <v>560.15929013442167</v>
       </c>
       <c r="R57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57">
         <v>5</v>
@@ -4612,12 +4610,12 @@
         <v>5</v>
       </c>
       <c r="V57" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -4635,31 +4633,31 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="H58">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I58">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J58">
         <v>6</v>
       </c>
       <c r="K58">
-        <v>2.4844720496894408E-2</v>
+        <v>2.0958083832335328E-2</v>
       </c>
       <c r="L58">
-        <v>4.9933422103861519E-4</v>
+        <v>7.8200192492781516E-4</v>
       </c>
       <c r="M58">
-        <v>27.087162619715588</v>
+        <v>25.152365289735897</v>
       </c>
       <c r="N58">
-        <v>34.826351939634321</v>
+        <v>32.891554609654641</v>
       </c>
       <c r="O58">
-        <v>0.7777777777777779</v>
+        <v>0.76470588235294101</v>
       </c>
       <c r="P58">
         <v>110.28344780884203</v>
@@ -4668,24 +4666,24 @@
         <v>145.10979974847635</v>
       </c>
       <c r="R58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S58">
         <v>4</v>
       </c>
       <c r="T58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U58">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -4703,57 +4701,57 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="H59">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="I59">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J59">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K59">
-        <v>3.6458333333333336E-2</v>
+        <v>3.0571992110453649E-2</v>
       </c>
       <c r="L59">
-        <v>6.2047569803516027E-4</v>
+        <v>8.4695736981238608E-4</v>
       </c>
       <c r="M59">
+        <v>28.942915664796512</v>
+      </c>
+      <c r="N59">
         <v>48.980318817347943</v>
       </c>
-      <c r="N59">
-        <v>57.885831329593024</v>
-      </c>
       <c r="O59">
-        <v>0.84615384615384615</v>
+        <v>0.59090909090909094</v>
       </c>
       <c r="P59">
-        <v>189.24214088520793</v>
+        <v>151.39371270816633</v>
       </c>
       <c r="Q59">
-        <v>225.97737999821891</v>
+        <v>161.41241428444206</v>
       </c>
       <c r="R59">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="S59">
         <v>4</v>
       </c>
       <c r="T59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V59" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -4771,57 +4769,57 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H60">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I60">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="J60">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K60">
-        <v>7.9411764705882348E-2</v>
+        <v>7.8726968174204354E-2</v>
       </c>
       <c r="L60">
-        <v>1.5170560443847254E-3</v>
+        <v>1.5580184837647392E-3</v>
       </c>
       <c r="M60">
-        <v>89.335936207524071</v>
+        <v>72.792244317241838</v>
       </c>
       <c r="N60">
-        <v>92.644674585580518</v>
+        <v>110.84273566489098</v>
       </c>
       <c r="O60">
-        <v>0.9642857142857143</v>
+        <v>0.65671641791044777</v>
       </c>
       <c r="P60">
-        <v>362.30685239718099</v>
+        <v>339.14568375078585</v>
       </c>
       <c r="Q60">
-        <v>397.04860536677364</v>
+        <v>393.73986698871715</v>
       </c>
       <c r="R60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S60">
         <v>4</v>
       </c>
       <c r="T60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -4839,40 +4837,40 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H61">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I61">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J61">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K61">
-        <v>4.0677966101694912E-2</v>
+        <v>2.9478458049886622E-2</v>
       </c>
       <c r="L61">
-        <v>1.7729373773190654E-3</v>
+        <v>2.8312206421723185E-3</v>
       </c>
       <c r="M61">
-        <v>87.040516298867402</v>
+        <v>78.548758611173028</v>
       </c>
       <c r="N61">
-        <v>137.9910624250337</v>
+        <v>114.63872878387416</v>
       </c>
       <c r="O61">
-        <v>0.63076923076923064</v>
+        <v>0.68518518518518512</v>
       </c>
       <c r="P61">
-        <v>392.74379305586518</v>
+        <v>371.5143988366292</v>
       </c>
       <c r="Q61">
-        <v>481.9072487766561</v>
+        <v>467.04667282319093</v>
       </c>
       <c r="R61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S61">
         <v>4</v>
@@ -4887,9 +4885,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -4907,57 +4905,57 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H62">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I62">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J62">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K62">
-        <v>7.8853046594982074E-2</v>
+        <v>6.9868995633187769E-2</v>
       </c>
       <c r="L62">
-        <v>1.0864504112990843E-3</v>
+        <v>1.0492393015064079E-3</v>
       </c>
       <c r="M62">
-        <v>49.668188904678466</v>
+        <v>35.871469764490008</v>
       </c>
       <c r="N62">
-        <v>74.502283357017703</v>
+        <v>55.186876560753845</v>
       </c>
       <c r="O62">
-        <v>0.66666666666666663</v>
+        <v>0.65000000000000013</v>
       </c>
       <c r="P62">
-        <v>251.10028835143004</v>
+        <v>201.43209944675158</v>
       </c>
       <c r="Q62">
-        <v>325.60257170844773</v>
+        <v>259.3783198355431</v>
       </c>
       <c r="R62">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="S62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V62" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4975,57 +4973,57 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="H63">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I63">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K63">
-        <v>6.6666666666666666E-2</v>
+        <v>7.9136690647482008E-2</v>
       </c>
       <c r="L63">
-        <v>2.8876696505919725E-3</v>
+        <v>4.4387170675830468E-3</v>
       </c>
       <c r="M63">
-        <v>30.676190893553617</v>
+        <v>52.587755817520488</v>
       </c>
       <c r="N63">
-        <v>17.529251939173495</v>
+        <v>35</v>
       </c>
       <c r="O63">
-        <v>1.75</v>
+        <v>1.502507309072014</v>
       </c>
       <c r="P63">
-        <v>175.29251939173497</v>
+        <v>293.61496998115604</v>
       </c>
       <c r="Q63">
-        <v>188.43945834611509</v>
+        <v>359.34966475305669</v>
       </c>
       <c r="R63">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V63" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -5043,57 +5041,57 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="H64">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="I64">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="J64">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K64">
-        <v>8.9618456078083414E-2</v>
+        <v>7.6631977294228951E-2</v>
       </c>
       <c r="L64">
-        <v>3.9750384681142073E-3</v>
+        <v>3.9269310332737282E-3</v>
       </c>
       <c r="M64">
-        <v>95.223775873302259</v>
+        <v>77.18137623415025</v>
       </c>
       <c r="N64">
-        <v>109.2567533704205</v>
+        <v>99.233198015336029</v>
       </c>
       <c r="O64">
-        <v>0.87155963302752282</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="P64">
-        <v>433.01759133964822</v>
+        <v>392.92336991931035</v>
       </c>
       <c r="Q64">
-        <v>493.15892347015483</v>
+        <v>447.05056883676639</v>
       </c>
       <c r="R64">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="S64">
         <v>4</v>
       </c>
       <c r="T64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U64">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V64" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -5111,43 +5109,43 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H65">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I65">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="J65">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K65">
-        <v>0.11069418386491557</v>
+        <v>0.13175675675675674</v>
       </c>
       <c r="L65">
-        <v>5.9994146912496346E-3</v>
+        <v>4.7974068071312808E-3</v>
       </c>
       <c r="M65">
-        <v>109.35342470831364</v>
+        <v>140.86203860731928</v>
       </c>
       <c r="N65">
-        <v>137.15514285449507</v>
+        <v>107.49997683190155</v>
       </c>
       <c r="O65">
-        <v>0.79729729729729737</v>
+        <v>1.3103448275862069</v>
       </c>
       <c r="P65">
-        <v>583.83608106981012</v>
+        <v>574.56884168774968</v>
       </c>
       <c r="Q65">
-        <v>644.99986099140926</v>
+        <v>607.93090346316728</v>
       </c>
       <c r="R65">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T65">
         <v>5</v>
@@ -5156,12 +5154,12 @@
         <v>5</v>
       </c>
       <c r="V65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -5179,22 +5177,22 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I66">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66">
-        <v>3.5353535353535352E-2</v>
+        <v>5.0387596899224806E-2</v>
       </c>
       <c r="L66">
-        <v>1.1647254575707154E-3</v>
+        <v>1.7689722271360339E-3</v>
       </c>
       <c r="M66">
         <v>58.445353594389239</v>
@@ -5206,17 +5204,17 @@
         <v>0.92307692307692291</v>
       </c>
       <c r="P66">
-        <v>199.6882914474966</v>
+        <v>180.2065069160335</v>
       </c>
       <c r="Q66">
-        <v>228.91096824469119</v>
+        <v>224.04052211182542</v>
       </c>
       <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
         <v>3</v>
       </c>
-      <c r="S66">
-        <v>4</v>
-      </c>
       <c r="T66">
         <v>4</v>
       </c>
@@ -5224,12 +5222,12 @@
         <v>4</v>
       </c>
       <c r="V66" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -5247,43 +5245,43 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="H67">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I67">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J67">
         <v>10</v>
       </c>
       <c r="K67">
-        <v>8.4362139917695478E-2</v>
+        <v>0.11959287531806616</v>
       </c>
       <c r="L67">
-        <v>2.2823944392571845E-3</v>
+        <v>2.4274650329441684E-3</v>
       </c>
       <c r="M67">
-        <v>122.83503255128363</v>
+        <v>141.26028743397617</v>
       </c>
       <c r="N67">
-        <v>98.2680260410269</v>
+        <v>128.97678417884782</v>
       </c>
       <c r="O67">
-        <v>1.25</v>
+        <v>1.0952380952380951</v>
       </c>
       <c r="P67">
-        <v>386.93035253654341</v>
+        <v>426.85173811571065</v>
       </c>
       <c r="Q67">
-        <v>479.05662695000615</v>
+        <v>518.97801252917338</v>
       </c>
       <c r="R67">
         <v>4</v>
       </c>
       <c r="S67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T67">
         <v>5</v>
@@ -5292,12 +5290,12 @@
         <v>5</v>
       </c>
       <c r="V67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -5315,57 +5313,57 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H68">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I68">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="J68">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K68">
-        <v>5.8577405857740586E-2</v>
+        <v>2.8340080971659919E-2</v>
       </c>
       <c r="L68">
-        <v>1.5468424238348241E-3</v>
+        <v>1.1188463451019394E-3</v>
       </c>
       <c r="M68">
-        <v>27.091962955305391</v>
+        <v>17.110713445456039</v>
       </c>
       <c r="N68">
-        <v>45.628569187882761</v>
+        <v>24.240177381062718</v>
       </c>
       <c r="O68">
-        <v>0.59375</v>
+        <v>0.70588235294117652</v>
       </c>
       <c r="P68">
-        <v>125.47856526667759</v>
+        <v>102.66428067273621</v>
       </c>
       <c r="Q68">
-        <v>151.14463543486164</v>
+        <v>111.21963739546425</v>
       </c>
       <c r="R68">
         <v>14</v>
       </c>
       <c r="S68">
+        <v>2</v>
+      </c>
+      <c r="T68">
         <v>3</v>
       </c>
-      <c r="T68">
-        <v>4</v>
-      </c>
       <c r="U68">
         <v>4</v>
       </c>
       <c r="V68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -5383,57 +5381,57 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="H69">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="I69">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="J69">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="K69">
-        <v>5.9471365638766517E-2</v>
+        <v>6.5430752453653221E-2</v>
       </c>
       <c r="L69">
-        <v>1.5430072225869993E-3</v>
+        <v>1.6101173921953219E-3</v>
       </c>
       <c r="M69">
-        <v>48.40868318889828</v>
+        <v>53.154632521143206</v>
       </c>
       <c r="N69">
-        <v>75.935189315918862</v>
+        <v>59.798961586286111</v>
       </c>
       <c r="O69">
-        <v>0.63750000000000007</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="P69">
-        <v>227.8055679477566</v>
+        <v>232.55151728000155</v>
       </c>
       <c r="Q69">
-        <v>279.06182073600183</v>
+        <v>269.56992207151194</v>
       </c>
       <c r="R69">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S69">
         <v>4</v>
       </c>
       <c r="T69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -5451,37 +5449,37 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>440</v>
+        <v>480</v>
       </c>
       <c r="H70">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="I70">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="J70">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="K70">
-        <v>0.125</v>
+        <v>8.7187263078089466E-2</v>
       </c>
       <c r="L70">
-        <v>3.0548107775482396E-3</v>
+        <v>3.2597734574705095E-3</v>
       </c>
       <c r="M70">
-        <v>136.21717908193114</v>
+        <v>96.923762039066389</v>
       </c>
       <c r="N70">
-        <v>124.86574749177022</v>
+        <v>129.2316827187552</v>
       </c>
       <c r="O70">
-        <v>1.0909090909090908</v>
+        <v>0.75</v>
       </c>
       <c r="P70">
-        <v>503.82892519406579</v>
+        <v>474.14056565056802</v>
       </c>
       <c r="Q70">
-        <v>626.94829859504205</v>
+        <v>560.58608314487049</v>
       </c>
       <c r="R70">
         <v>47</v>
@@ -5490,18 +5488,18 @@
         <v>5</v>
       </c>
       <c r="T70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -5519,43 +5517,43 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H71">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="I71">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J71">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="K71">
-        <v>4.9782503624939585E-2</v>
+        <v>3.519061583577713E-2</v>
       </c>
       <c r="L71">
-        <v>2.3545240497813654E-3</v>
+        <v>1.1920326078597248E-3</v>
       </c>
       <c r="M71">
-        <v>77.76255242366247</v>
+        <v>51.338384124359685</v>
       </c>
       <c r="N71">
-        <v>69.457813815310161</v>
+        <v>73.987671238047781</v>
       </c>
       <c r="O71">
-        <v>1.1195652173913044</v>
+        <v>0.69387755102040816</v>
       </c>
       <c r="P71">
-        <v>274.81135031274891</v>
+        <v>246.12225330207733</v>
       </c>
       <c r="Q71">
-        <v>326.90471067423152</v>
+        <v>284.62604139534704</v>
       </c>
       <c r="R71">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="S71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T71">
         <v>5</v>
@@ -5564,12 +5562,12 @@
         <v>5</v>
       </c>
       <c r="V71" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -5587,57 +5585,57 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H72">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I72">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K72">
-        <v>0.14594594594594595</v>
+        <v>5.8510638297872342E-2</v>
       </c>
       <c r="L72">
-        <v>1.6910935738444193E-3</v>
+        <v>1.5267175572519084E-3</v>
       </c>
       <c r="M72">
-        <v>151.09544195416771</v>
+        <v>62.956434147569887</v>
       </c>
       <c r="N72">
         <v>151.09544195416771</v>
       </c>
       <c r="O72">
-        <v>1</v>
+        <v>0.41666666666666674</v>
       </c>
       <c r="P72">
-        <v>503.65147318055909</v>
+        <v>314.78217073784941</v>
       </c>
       <c r="Q72">
-        <v>654.74691513472669</v>
+        <v>409.21682195920425</v>
       </c>
       <c r="R72">
         <v>10</v>
       </c>
       <c r="S72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -5655,57 +5653,57 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="H73">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I73">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="J73">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K73">
-        <v>0.11144578313253012</v>
+        <v>0.11567164179104478</v>
       </c>
       <c r="L73">
-        <v>3.8786362214576165E-3</v>
+        <v>2.2219479076657201E-3</v>
       </c>
       <c r="M73">
-        <v>105.03040353786622</v>
+        <v>85.68269762299613</v>
       </c>
       <c r="N73">
-        <v>157.54560530679933</v>
+        <v>102.26644555002764</v>
       </c>
       <c r="O73">
-        <v>0.66666666666666663</v>
+        <v>0.83783783783783783</v>
       </c>
       <c r="P73">
-        <v>608.07075732448868</v>
+        <v>475.4007739082366</v>
       </c>
       <c r="Q73">
-        <v>732.44886677722491</v>
+        <v>566.61138750690986</v>
       </c>
       <c r="R73">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S73">
         <v>5</v>
       </c>
       <c r="T73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U73">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V73" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -5723,40 +5721,40 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="H74">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="I74">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="J74">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K74">
-        <v>7.4487895716946001E-2</v>
+        <v>5.9322033898305086E-2</v>
       </c>
       <c r="L74">
-        <v>2.2624434389140274E-3</v>
+        <v>1.4557155991418939E-3</v>
       </c>
       <c r="M74">
-        <v>71.308628344029628</v>
+        <v>59.807236675637746</v>
       </c>
       <c r="N74">
-        <v>78.209463345064748</v>
+        <v>73.608906677708006</v>
       </c>
       <c r="O74">
-        <v>0.91176470588235303</v>
+        <v>0.81249999999999989</v>
       </c>
       <c r="P74">
-        <v>301.33646171186712</v>
+        <v>255.33089503829964</v>
       </c>
       <c r="Q74">
-        <v>370.34481172221842</v>
+        <v>276.033400041405</v>
       </c>
       <c r="R74">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S74">
         <v>4</v>
@@ -5768,12 +5766,12 @@
         <v>5</v>
       </c>
       <c r="V74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -5791,43 +5789,43 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="H75">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="I75">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="J75">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K75">
-        <v>0.10341365461847389</v>
+        <v>9.274873524451939E-2</v>
       </c>
       <c r="L75">
-        <v>5.111318621909864E-3</v>
+        <v>4.75349150260811E-3</v>
       </c>
       <c r="M75">
-        <v>113.90861310072864</v>
+        <v>127.52812118885925</v>
       </c>
       <c r="N75">
-        <v>163.43409705756719</v>
+        <v>128.7662582877802</v>
       </c>
       <c r="O75">
-        <v>0.69696969696969702</v>
+        <v>0.99038461538461542</v>
       </c>
       <c r="P75">
-        <v>506.39807345867405</v>
+        <v>522.49385574464657</v>
       </c>
       <c r="Q75">
-        <v>614.11600106479784</v>
+        <v>652.49825113134784</v>
       </c>
       <c r="R75">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="S75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T75">
         <v>5</v>
@@ -5836,12 +5834,12 @@
         <v>5</v>
       </c>
       <c r="V75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -5859,44 +5857,44 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H76">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I76">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K76">
-        <v>8.5227272727272721E-2</v>
+        <v>5.9880239520958084E-2</v>
       </c>
       <c r="L76">
-        <v>7.4760765550239234E-3</v>
+        <v>2.9416854127011596E-3</v>
       </c>
       <c r="M76">
-        <v>57.355893318038426</v>
+        <v>34.413535990823057</v>
       </c>
       <c r="N76">
-        <v>45.884714654430745</v>
+        <v>61.179619539240989</v>
       </c>
       <c r="O76">
-        <v>1.2499999999999998</v>
+        <v>0.5625</v>
       </c>
       <c r="P76">
-        <v>252.36593059936911</v>
+        <v>267.6608354841793</v>
       </c>
       <c r="Q76">
-        <v>275.30828792658446</v>
+        <v>313.54555013861005</v>
       </c>
       <c r="R76">
+        <v>1</v>
+      </c>
+      <c r="S76">
         <v>3</v>
       </c>
-      <c r="S76">
-        <v>4</v>
-      </c>
       <c r="T76">
         <v>5</v>
       </c>
@@ -5904,12 +5902,12 @@
         <v>5</v>
       </c>
       <c r="V76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5927,43 +5925,43 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="H77">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="I77">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="J77">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K77">
-        <v>8.0482897384305835E-2</v>
+        <v>4.6116504854368932E-2</v>
       </c>
       <c r="L77">
-        <v>2.0017312270071415E-3</v>
+        <v>1.542294459603749E-3</v>
       </c>
       <c r="M77">
-        <v>78.956072682265827</v>
+        <v>32.009218654972628</v>
       </c>
       <c r="N77">
-        <v>85.357916413260355</v>
+        <v>91.759760144254884</v>
       </c>
       <c r="O77">
-        <v>0.92499999999999993</v>
+        <v>0.34883720930232553</v>
       </c>
       <c r="P77">
-        <v>341.43166565304142</v>
+        <v>253.93980132944952</v>
       </c>
       <c r="Q77">
-        <v>437.45932161795929</v>
+        <v>330.76192610138384</v>
       </c>
       <c r="R77">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="S77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T77">
         <v>5</v>
@@ -5972,12 +5970,12 @@
         <v>5</v>
       </c>
       <c r="V77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -5995,57 +5993,57 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="H78">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="I78">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="J78">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>3.9776392173726083E-2</v>
+        <v>3.1208499335989376E-2</v>
       </c>
       <c r="L78">
-        <v>4.6372971182510768E-3</v>
+        <v>3.2391544496245951E-3</v>
       </c>
       <c r="M78">
-        <v>129.71153420271699</v>
+        <v>101.87100978847529</v>
       </c>
       <c r="N78">
-        <v>149.95918832216549</v>
+        <v>124.01688148162208</v>
       </c>
       <c r="O78">
-        <v>0.86497890295358659</v>
+        <v>0.82142857142857151</v>
       </c>
       <c r="P78">
+        <v>490.37287320539343</v>
+      </c>
+      <c r="Q78">
         <v>570.09801130072196</v>
       </c>
-      <c r="Q78">
-        <v>672.60176028043009</v>
-      </c>
       <c r="R78">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="S78">
         <v>4</v>
       </c>
       <c r="T78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U78">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -6063,43 +6061,43 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H79">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I79">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79">
-        <v>2.2988505747126436E-2</v>
+        <v>1.5957446808510637E-2</v>
       </c>
       <c r="L79">
-        <v>7.9821200510855688E-4</v>
+        <v>2.3913909924272618E-4</v>
       </c>
       <c r="M79">
-        <v>19.717789142892354</v>
+        <v>17.253065500030811</v>
       </c>
       <c r="N79">
-        <v>22.182512785753897</v>
+        <v>14.788341857169266</v>
       </c>
       <c r="O79">
-        <v>0.88888888888888895</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="P79">
-        <v>83.800603857292501</v>
+        <v>69.012262000123243</v>
       </c>
       <c r="Q79">
-        <v>91.194774785877129</v>
+        <v>76.406432928707872</v>
       </c>
       <c r="R79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T79">
         <v>4</v>
@@ -6108,12 +6106,12 @@
         <v>4</v>
       </c>
       <c r="V79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44319</v>
+        <v>44326</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -6131,40 +6129,40 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="H80">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I80">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="J80">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K80">
-        <v>4.4247787610619468E-2</v>
+        <v>3.6383682469680267E-2</v>
       </c>
       <c r="L80">
-        <v>3.3652790986904674E-3</v>
+        <v>3.6785837452580758E-3</v>
       </c>
       <c r="M80">
+        <v>37.813506693717869</v>
+      </c>
+      <c r="N80">
         <v>47.994066188180369</v>
       </c>
-      <c r="N80">
-        <v>42.176603619916079</v>
-      </c>
       <c r="O80">
-        <v>1.1379310344827587</v>
+        <v>0.78787878787878796</v>
       </c>
       <c r="P80">
-        <v>319.96044125453579</v>
+        <v>362.13704487445193</v>
       </c>
       <c r="Q80">
-        <v>381.04379822131079</v>
+        <v>431.94659569362329</v>
       </c>
       <c r="R80">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S80">
         <v>4</v>
@@ -6176,7 +6174,7 @@
         <v>5</v>
       </c>
       <c r="V80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6185,6 +6183,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100107BBE2DE9A5E74E814FF3E5463BF0D6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8ce27d18028a899c07be606bb87b8454">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="edc73f9c-70d1-469b-b150-495011438330" xmlns:ns3="a0f9ce57-fc3a-405c-8e87-f3d63b00eeb1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f304a02d10cecf9dc6ccac8f618df4e" ns2:_="" ns3:_="">
     <xsd:import namespace="edc73f9c-70d1-469b-b150-495011438330"/>
@@ -6395,22 +6408,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68A17AE3-A467-46C2-B8E3-63736AD8DD9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6427,21 +6442,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0145370D-F596-4A88-9B90-4C1CFD44E734}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C190CE-98B3-4744-852E-22D296615E2B}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
@@ -733,7 +733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -807,7 +809,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -825,37 +827,37 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H2">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2">
-        <v>7.0967741935483872E-2</v>
+        <v>8.0246913580246909E-2</v>
       </c>
       <c r="L2">
-        <v>1.4442518775274408E-3</v>
+        <v>3.1133250311332502E-3</v>
       </c>
       <c r="M2">
-        <v>63.393189366481543</v>
+        <v>33.074707495555586</v>
       </c>
       <c r="N2">
-        <v>52.368286867963008</v>
+        <v>49.612061243333379</v>
       </c>
       <c r="O2">
-        <v>1.2105263157894739</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P2">
-        <v>311.45349558314842</v>
+        <v>192.93579372407424</v>
       </c>
       <c r="Q2">
-        <v>336.25952620481513</v>
+        <v>226.01050121962984</v>
       </c>
       <c r="R2">
         <v>9</v>
@@ -870,12 +872,12 @@
         <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -893,40 +895,40 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>157</v>
+        <v>269</v>
       </c>
       <c r="H3">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="I3">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K3">
-        <v>3.7194885703215809E-2</v>
+        <v>6.5395095367847406E-2</v>
       </c>
       <c r="L3">
-        <v>2.9214819411049922E-3</v>
+        <v>4.5102659037361157E-3</v>
       </c>
       <c r="M3">
-        <v>74</v>
+        <v>47.821634326910498</v>
       </c>
       <c r="N3">
-        <v>68</v>
+        <v>87.522613768119214</v>
       </c>
       <c r="O3">
-        <v>1.088235294117647</v>
+        <v>0.54639175257731953</v>
       </c>
       <c r="P3">
-        <v>298.65964079636558</v>
+        <v>283.32062601226215</v>
       </c>
       <c r="Q3">
-        <v>339.26291522487446</v>
+        <v>334.75144028837349</v>
       </c>
       <c r="R3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S3">
         <v>4</v>
@@ -938,12 +940,12 @@
         <v>5</v>
       </c>
       <c r="V3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -961,31 +963,31 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H4">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
       <c r="K4">
-        <v>3.0303030303030304E-2</v>
+        <v>4.6511627906976744E-2</v>
       </c>
       <c r="L4">
-        <v>2.0134228187919465E-3</v>
+        <v>5.9952038369304557E-3</v>
       </c>
       <c r="M4">
+        <v>55.949272659455424</v>
+      </c>
+      <c r="N4">
         <v>31.082929255253013</v>
       </c>
-      <c r="N4">
-        <v>80.815616063657828</v>
-      </c>
       <c r="O4">
-        <v>0.38461538461538464</v>
+        <v>1.8</v>
       </c>
       <c r="P4">
         <v>267.31319159517591</v>
@@ -997,7 +999,7 @@
         <v>6</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>5</v>
@@ -1006,12 +1008,12 @@
         <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1029,57 +1031,57 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="H5">
+        <v>122</v>
+      </c>
+      <c r="I5">
+        <v>194</v>
+      </c>
+      <c r="J5">
+        <v>34</v>
+      </c>
+      <c r="K5">
+        <v>0.1123076923076923</v>
+      </c>
+      <c r="L5">
+        <v>6.1021404431092757E-3</v>
+      </c>
+      <c r="M5">
+        <v>87.43619086806136</v>
+      </c>
+      <c r="N5">
+        <v>69.434622159931081</v>
+      </c>
+      <c r="O5">
+        <v>1.2592592592592593</v>
+      </c>
+      <c r="P5">
+        <v>406.32112226922629</v>
+      </c>
+      <c r="Q5">
+        <v>537.47540857131833</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5" t="s">
         <v>106</v>
-      </c>
-      <c r="I5">
-        <v>237</v>
-      </c>
-      <c r="J5">
-        <v>31</v>
-      </c>
-      <c r="K5">
-        <v>9.0370370370370365E-2</v>
-      </c>
-      <c r="L5">
-        <v>4.4206346233094818E-3</v>
-      </c>
-      <c r="M5">
-        <v>69.434622159931081</v>
-      </c>
-      <c r="N5">
-        <v>66.862969487341047</v>
-      </c>
-      <c r="O5">
-        <v>1.0384615384615383</v>
-      </c>
-      <c r="P5">
-        <v>441.03843334919191</v>
-      </c>
-      <c r="Q5">
-        <v>560.62028262462866</v>
-      </c>
-      <c r="R5">
-        <v>20</v>
-      </c>
-      <c r="S5">
-        <v>5</v>
-      </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-      <c r="U5">
-        <v>5</v>
-      </c>
-      <c r="V5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1097,43 +1099,43 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>899</v>
+        <v>710</v>
       </c>
       <c r="H6">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="I6">
-        <v>638</v>
+        <v>463</v>
       </c>
       <c r="J6">
+        <v>26</v>
+      </c>
+      <c r="K6">
+        <v>7.0012986279713169E-3</v>
+      </c>
+      <c r="L6">
+        <v>2.057797262234947E-3</v>
+      </c>
+      <c r="M6">
+        <v>29.570488652324983</v>
+      </c>
+      <c r="N6">
+        <v>40.197383011754269</v>
+      </c>
+      <c r="O6">
+        <v>0.73563218390804608</v>
+      </c>
+      <c r="P6">
+        <v>176.72987358616101</v>
+      </c>
+      <c r="Q6">
+        <v>194.74939010867155</v>
+      </c>
+      <c r="R6">
         <v>39</v>
       </c>
-      <c r="K6">
-        <v>1.4364207221350079E-2</v>
-      </c>
-      <c r="L6">
-        <v>1.6633745711612433E-3</v>
-      </c>
-      <c r="M6">
-        <v>41.352480224735714</v>
-      </c>
-      <c r="N6">
-        <v>48.28306350262438</v>
-      </c>
-      <c r="O6">
-        <v>0.8564593301435407</v>
-      </c>
-      <c r="P6">
-        <v>237.02594810379244</v>
-      </c>
-      <c r="Q6">
-        <v>264.05522288755822</v>
-      </c>
-      <c r="R6">
-        <v>69</v>
-      </c>
       <c r="S6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T6">
         <v>4</v>
@@ -1142,12 +1144,12 @@
         <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1165,43 +1167,43 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>899</v>
+        <v>710</v>
       </c>
       <c r="H7">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="I7">
-        <v>638</v>
+        <v>463</v>
       </c>
       <c r="J7">
+        <v>26</v>
+      </c>
+      <c r="K7">
+        <v>7.0012986279713169E-3</v>
+      </c>
+      <c r="L7">
+        <v>2.057797262234947E-3</v>
+      </c>
+      <c r="M7">
+        <v>29.570488652324983</v>
+      </c>
+      <c r="N7">
+        <v>40.197383011754269</v>
+      </c>
+      <c r="O7">
+        <v>0.73563218390804608</v>
+      </c>
+      <c r="P7">
+        <v>176.72987358616101</v>
+      </c>
+      <c r="Q7">
+        <v>194.74939010867155</v>
+      </c>
+      <c r="R7">
         <v>39</v>
       </c>
-      <c r="K7">
-        <v>1.4364207221350079E-2</v>
-      </c>
-      <c r="L7">
-        <v>1.6633745711612433E-3</v>
-      </c>
-      <c r="M7">
-        <v>41.352480224735714</v>
-      </c>
-      <c r="N7">
-        <v>48.28306350262438</v>
-      </c>
-      <c r="O7">
-        <v>0.8564593301435407</v>
-      </c>
-      <c r="P7">
-        <v>237.02594810379244</v>
-      </c>
-      <c r="Q7">
-        <v>264.05522288755822</v>
-      </c>
-      <c r="R7">
-        <v>69</v>
-      </c>
       <c r="S7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T7">
         <v>4</v>
@@ -1210,12 +1212,12 @@
         <v>4</v>
       </c>
       <c r="V7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1233,43 +1235,43 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>899</v>
+        <v>710</v>
       </c>
       <c r="H8">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="I8">
-        <v>638</v>
+        <v>463</v>
       </c>
       <c r="J8">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>7.0012986279713169E-3</v>
+      </c>
+      <c r="L8">
+        <v>2.057797262234947E-3</v>
+      </c>
+      <c r="M8">
+        <v>29.570488652324983</v>
+      </c>
+      <c r="N8">
+        <v>40.197383011754269</v>
+      </c>
+      <c r="O8">
+        <v>0.73563218390804608</v>
+      </c>
+      <c r="P8">
+        <v>176.72987358616101</v>
+      </c>
+      <c r="Q8">
+        <v>194.74939010867155</v>
+      </c>
+      <c r="R8">
         <v>39</v>
       </c>
-      <c r="K8">
-        <v>1.4364207221350079E-2</v>
-      </c>
-      <c r="L8">
-        <v>1.6633745711612433E-3</v>
-      </c>
-      <c r="M8">
-        <v>41.352480224735714</v>
-      </c>
-      <c r="N8">
-        <v>48.28306350262438</v>
-      </c>
-      <c r="O8">
-        <v>0.8564593301435407</v>
-      </c>
-      <c r="P8">
-        <v>237.02594810379244</v>
-      </c>
-      <c r="Q8">
-        <v>264.05522288755822</v>
-      </c>
-      <c r="R8">
-        <v>69</v>
-      </c>
       <c r="S8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T8">
         <v>4</v>
@@ -1278,12 +1280,12 @@
         <v>4</v>
       </c>
       <c r="V8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1301,43 +1303,43 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>899</v>
+        <v>710</v>
       </c>
       <c r="H9">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="I9">
-        <v>638</v>
+        <v>463</v>
       </c>
       <c r="J9">
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>7.0012986279713169E-3</v>
+      </c>
+      <c r="L9">
+        <v>2.057797262234947E-3</v>
+      </c>
+      <c r="M9">
+        <v>29.570488652324983</v>
+      </c>
+      <c r="N9">
+        <v>40.197383011754269</v>
+      </c>
+      <c r="O9">
+        <v>0.73563218390804608</v>
+      </c>
+      <c r="P9">
+        <v>176.72987358616101</v>
+      </c>
+      <c r="Q9">
+        <v>194.74939010867155</v>
+      </c>
+      <c r="R9">
         <v>39</v>
       </c>
-      <c r="K9">
-        <v>1.4364207221350079E-2</v>
-      </c>
-      <c r="L9">
-        <v>1.6633745711612433E-3</v>
-      </c>
-      <c r="M9">
-        <v>41.352480224735714</v>
-      </c>
-      <c r="N9">
-        <v>48.28306350262438</v>
-      </c>
-      <c r="O9">
-        <v>0.8564593301435407</v>
-      </c>
-      <c r="P9">
-        <v>237.02594810379244</v>
-      </c>
-      <c r="Q9">
-        <v>264.05522288755822</v>
-      </c>
-      <c r="R9">
-        <v>69</v>
-      </c>
       <c r="S9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T9">
         <v>4</v>
@@ -1346,12 +1348,12 @@
         <v>4</v>
       </c>
       <c r="V9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1369,43 +1371,43 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>899</v>
+        <v>710</v>
       </c>
       <c r="H10">
-        <v>388</v>
+        <v>302</v>
       </c>
       <c r="I10">
-        <v>638</v>
+        <v>463</v>
       </c>
       <c r="J10">
+        <v>26</v>
+      </c>
+      <c r="K10">
+        <v>7.0012986279713169E-3</v>
+      </c>
+      <c r="L10">
+        <v>2.057797262234947E-3</v>
+      </c>
+      <c r="M10">
+        <v>29.570488652324983</v>
+      </c>
+      <c r="N10">
+        <v>40.197383011754269</v>
+      </c>
+      <c r="O10">
+        <v>0.73563218390804608</v>
+      </c>
+      <c r="P10">
+        <v>176.72987358616101</v>
+      </c>
+      <c r="Q10">
+        <v>194.74939010867155</v>
+      </c>
+      <c r="R10">
         <v>39</v>
       </c>
-      <c r="K10">
-        <v>1.4364207221350079E-2</v>
-      </c>
-      <c r="L10">
-        <v>1.6633745711612433E-3</v>
-      </c>
-      <c r="M10">
-        <v>41.352480224735714</v>
-      </c>
-      <c r="N10">
-        <v>48.28306350262438</v>
-      </c>
-      <c r="O10">
-        <v>0.8564593301435407</v>
-      </c>
-      <c r="P10">
-        <v>237.02594810379244</v>
-      </c>
-      <c r="Q10">
-        <v>264.05522288755822</v>
-      </c>
-      <c r="R10">
-        <v>69</v>
-      </c>
       <c r="S10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T10">
         <v>4</v>
@@ -1414,12 +1416,12 @@
         <v>4</v>
       </c>
       <c r="V10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1437,49 +1439,49 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>6.2794348508634227E-3</v>
+        <v>6.0483870967741937E-2</v>
       </c>
       <c r="L11">
-        <v>1.8214936247723133E-3</v>
+        <v>2.5875796178343948E-3</v>
       </c>
       <c r="M11">
+        <v>17.900877956696149</v>
+      </c>
+      <c r="N11">
+        <v>6.5094101660713264</v>
+      </c>
+      <c r="O11">
+        <v>2.7500000000000004</v>
+      </c>
+      <c r="P11">
+        <v>81.36762707589159</v>
+      </c>
+      <c r="Q11">
+        <v>96.01379994955208</v>
+      </c>
+      <c r="R11">
         <v>7</v>
       </c>
-      <c r="N11">
-        <v>15</v>
-      </c>
-      <c r="O11">
-        <v>0.46666666666666667</v>
-      </c>
-      <c r="P11">
-        <v>100.89585757410556</v>
-      </c>
-      <c r="Q11">
-        <v>130.18820332142653</v>
-      </c>
-      <c r="R11">
-        <v>13</v>
-      </c>
       <c r="S11">
         <v>4</v>
       </c>
       <c r="T11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11" t="s">
         <v>105</v>
@@ -1487,7 +1489,7 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1505,43 +1507,43 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="H12">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I12">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>7.0739549839228297E-2</v>
+        <v>0.12878787878787878</v>
       </c>
       <c r="L12">
-        <v>4.6523324531623283E-3</v>
+        <v>1.2110726643598616E-2</v>
       </c>
       <c r="M12">
-        <v>71.158262444609761</v>
+        <v>48.516997121324835</v>
       </c>
       <c r="N12">
-        <v>84.096128343629715</v>
+        <v>54.985930070834819</v>
       </c>
       <c r="O12">
-        <v>0.84615384615384615</v>
+        <v>0.88235294117647045</v>
       </c>
       <c r="P12">
-        <v>384.90151049584375</v>
+        <v>359.02577869780379</v>
       </c>
       <c r="Q12">
-        <v>472.23210531422836</v>
+        <v>397.83937639486362</v>
       </c>
       <c r="R12">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T12">
         <v>5</v>
@@ -1550,12 +1552,12 @@
         <v>5</v>
       </c>
       <c r="V12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1573,57 +1575,57 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>424</v>
+        <v>303</v>
       </c>
       <c r="H13">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="I13">
-        <v>282</v>
+        <v>187</v>
       </c>
       <c r="J13">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="K13">
-        <v>7.9004329004329008E-2</v>
+        <v>0.10655737704918032</v>
       </c>
       <c r="L13">
-        <v>3.3645488700723377E-3</v>
+        <v>3.6621781508817397E-3</v>
       </c>
       <c r="M13">
-        <v>61.056838365896986</v>
+        <v>37.744227353463586</v>
       </c>
       <c r="N13">
-        <v>132.10479573712257</v>
+        <v>63.277087033747783</v>
       </c>
       <c r="O13">
-        <v>0.4621848739495798</v>
+        <v>0.59649122807017541</v>
       </c>
       <c r="P13">
-        <v>506.21669626998226</v>
+        <v>336.36767317939609</v>
       </c>
       <c r="Q13">
-        <v>566.16341030195383</v>
+        <v>359.68028419182946</v>
       </c>
       <c r="R13">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1641,57 +1643,57 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="H14">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I14">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="J14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>5.2631578947368418E-2</v>
+        <v>6.9306930693069313E-2</v>
       </c>
       <c r="L14">
-        <v>2.1179537308569567E-3</v>
+        <v>3.3484812245874193E-3</v>
       </c>
       <c r="M14">
-        <v>40.560356931140994</v>
+        <v>18.720164737449689</v>
       </c>
       <c r="N14">
-        <v>59.28052166859068</v>
+        <v>53.040466756107449</v>
       </c>
       <c r="O14">
-        <v>0.68421052631578949</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="P14">
+        <v>193.44170228698013</v>
+      </c>
+      <c r="Q14">
         <v>277.68244360550375</v>
       </c>
-      <c r="Q14">
-        <v>408.72359676765149</v>
-      </c>
       <c r="R14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S14">
         <v>4</v>
       </c>
       <c r="T14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1709,43 +1711,43 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I15">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K15">
-        <v>7.2192513368983954E-2</v>
+        <v>8.0745341614906832E-2</v>
       </c>
       <c r="L15">
-        <v>2.6447661469933183E-3</v>
+        <v>3.0840400925212026E-3</v>
       </c>
       <c r="M15">
-        <v>65.89535311038739</v>
+        <v>30.413239897101871</v>
       </c>
       <c r="N15">
-        <v>58.292043136111928</v>
+        <v>70.964226426571031</v>
       </c>
       <c r="O15">
-        <v>1.1304347826086956</v>
+        <v>0.4285714285714286</v>
       </c>
       <c r="P15">
-        <v>362.42444210713063</v>
+        <v>261.04697578345775</v>
       </c>
       <c r="Q15">
-        <v>400.44099197850801</v>
+        <v>276.25359573200865</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T15">
         <v>5</v>
@@ -1754,12 +1756,12 @@
         <v>5</v>
       </c>
       <c r="V15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1777,43 +1779,43 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="H16">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="I16">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="J16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K16">
-        <v>5.0587172538392053E-2</v>
+        <v>3.5820895522388062E-2</v>
       </c>
       <c r="L16">
-        <v>6.1616146436031924E-4</v>
+        <v>7.2542618788538264E-4</v>
       </c>
       <c r="M16">
-        <v>41.680968959937232</v>
+        <v>15.528204122329559</v>
       </c>
       <c r="N16">
-        <v>25.335490936432436</v>
+        <v>38.411873355236274</v>
       </c>
       <c r="O16">
-        <v>1.6451612903225805</v>
+        <v>0.4042553191489362</v>
       </c>
       <c r="P16">
-        <v>141.38838490331651</v>
+        <v>95.621046437503054</v>
       </c>
       <c r="Q16">
-        <v>175.71388875267658</v>
+        <v>120.13926347276026</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T16">
         <v>4</v>
@@ -1822,12 +1824,12 @@
         <v>4</v>
       </c>
       <c r="V16" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1845,40 +1847,40 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H17">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="J17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>2.2657685241886098E-2</v>
+        <v>5.0381679389312976E-2</v>
       </c>
       <c r="L17">
-        <v>1.7620610037671648E-3</v>
+        <v>2.9096680333289249E-3</v>
       </c>
       <c r="M17">
-        <v>35.078022024745948</v>
+        <v>29.763170202814745</v>
       </c>
       <c r="N17">
-        <v>27.637229474042265</v>
+        <v>34.01505166035971</v>
       </c>
       <c r="O17">
-        <v>1.2692307692307692</v>
+        <v>0.875</v>
       </c>
       <c r="P17">
-        <v>165.82337684425357</v>
+        <v>161.57149538670862</v>
       </c>
       <c r="Q17">
-        <v>200.90139886899954</v>
+        <v>193.46060631829585</v>
       </c>
       <c r="R17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S17">
         <v>4</v>
@@ -1890,12 +1892,12 @@
         <v>4</v>
       </c>
       <c r="V17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1913,57 +1915,57 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="H18">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I18">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="J18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>9.055118110236221E-2</v>
+        <v>0.10948905109489052</v>
       </c>
       <c r="L18">
-        <v>3.2484407484407486E-3</v>
+        <v>2.7855153203342618E-3</v>
       </c>
       <c r="M18">
-        <v>56.482992343416591</v>
+        <v>34.517384209865696</v>
       </c>
       <c r="N18">
-        <v>128.65570478222668</v>
+        <v>62.758880381573988</v>
       </c>
       <c r="O18">
-        <v>0.43902439024390244</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P18">
-        <v>379.69122630852269</v>
+        <v>191.41458516380067</v>
       </c>
       <c r="Q18">
-        <v>436.17421865193927</v>
+        <v>219.65608133550896</v>
       </c>
       <c r="R18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S18">
         <v>4</v>
       </c>
       <c r="T18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1981,49 +1983,49 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="H19">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I19">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>2.2807017543859651E-2</v>
+        <v>1.5228426395939087E-2</v>
       </c>
       <c r="L19">
-        <v>4.9521294156487292E-4</v>
+        <v>5.9400059400059396E-4</v>
       </c>
       <c r="M19">
+        <v>2.221605109691752</v>
+      </c>
+      <c r="N19">
         <v>26.659261316301027</v>
       </c>
-      <c r="N19">
+      <c r="O19">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="P19">
+        <v>51.096917522910303</v>
+      </c>
+      <c r="Q19">
         <v>64.426548181060824</v>
       </c>
-      <c r="O19">
-        <v>0.4137931034482758</v>
-      </c>
-      <c r="P19">
-        <v>135.51791169119687</v>
-      </c>
-      <c r="Q19">
-        <v>175.50680366564842</v>
-      </c>
       <c r="R19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
         <v>3</v>
       </c>
-      <c r="T19">
-        <v>4</v>
-      </c>
       <c r="U19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V19" t="s">
         <v>107</v>
@@ -2031,7 +2033,7 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -2049,43 +2051,43 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="H20">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I20">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="J20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K20">
-        <v>6.2344139650872821E-2</v>
+        <v>0.11873350923482849</v>
       </c>
       <c r="L20">
-        <v>3.3595577291090791E-3</v>
+        <v>7.1595330739299612E-3</v>
       </c>
       <c r="M20">
-        <v>72.597623637786256</v>
+        <v>67.757782061933838</v>
       </c>
       <c r="N20">
-        <v>79.050745738922814</v>
+        <v>77.437465213638674</v>
       </c>
       <c r="O20">
-        <v>0.91836734693877553</v>
+        <v>0.875</v>
       </c>
       <c r="P20">
-        <v>379.12092344177267</v>
+        <v>327.49594663268022</v>
       </c>
       <c r="Q20">
-        <v>442.03886392785404</v>
+        <v>380.73420396705683</v>
       </c>
       <c r="R20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T20">
         <v>5</v>
@@ -2094,12 +2096,12 @@
         <v>5</v>
       </c>
       <c r="V20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -2117,40 +2119,40 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>243</v>
+        <v>126</v>
       </c>
       <c r="H21">
-        <v>127</v>
+        <v>61</v>
       </c>
       <c r="I21">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="J21">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="K21">
-        <v>7.3552425665101728E-2</v>
+        <v>7.8688524590163941E-2</v>
       </c>
       <c r="L21">
-        <v>2.7028431831176256E-3</v>
+        <v>2.3135976443369437E-3</v>
       </c>
       <c r="M21">
-        <v>74.340021119324177</v>
+        <v>33.790918690601899</v>
       </c>
       <c r="N21">
-        <v>140.23231256599789</v>
+        <v>69.2713833157339</v>
       </c>
       <c r="O21">
-        <v>0.53012048192771077</v>
+        <v>0.48780487804878042</v>
       </c>
       <c r="P21">
-        <v>456.17740232312565</v>
+        <v>228.08870116156282</v>
       </c>
       <c r="Q21">
-        <v>542.34424498416058</v>
+        <v>268.6378035902851</v>
       </c>
       <c r="R21">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="S21">
         <v>5</v>
@@ -2162,12 +2164,12 @@
         <v>5</v>
       </c>
       <c r="V21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2185,43 +2187,43 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>356</v>
+        <v>276</v>
       </c>
       <c r="H22">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="I22">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="J22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K22">
-        <v>3.689567430025445E-2</v>
+        <v>0.13090909090909092</v>
       </c>
       <c r="L22">
-        <v>4.8078714919309751E-3</v>
+        <v>5.8372439052306281E-3</v>
       </c>
       <c r="M22">
-        <v>82.408453512328038</v>
+        <v>94.370970957665989</v>
       </c>
       <c r="N22">
-        <v>86.395959327440693</v>
+        <v>90.383465142553334</v>
       </c>
       <c r="O22">
-        <v>0.95384615384615379</v>
+        <v>1.0441176470588236</v>
       </c>
       <c r="P22">
-        <v>479.82986641855524</v>
+        <v>431.97979663720349</v>
       </c>
       <c r="Q22">
-        <v>527.67993619990693</v>
+        <v>487.80487804878049</v>
       </c>
       <c r="R22">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T22">
         <v>5</v>
@@ -2230,12 +2232,12 @@
         <v>5</v>
       </c>
       <c r="V22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -2253,43 +2255,43 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="H23">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I23">
-        <v>179</v>
+        <v>113</v>
       </c>
       <c r="J23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>1.6979987871437233E-2</v>
+        <v>8.8105726872246701E-2</v>
       </c>
       <c r="L23">
-        <v>2.6230101302460204E-3</v>
+        <v>2.8203062046736503E-3</v>
       </c>
       <c r="M23">
-        <v>31.461535814534244</v>
+        <v>44.242784739188785</v>
       </c>
       <c r="N23">
-        <v>39.326919768167805</v>
+        <v>35.394227791351028</v>
       </c>
       <c r="O23">
-        <v>0.8</v>
+        <v>1.25</v>
       </c>
       <c r="P23">
-        <v>271.35574640035787</v>
+        <v>190.73556087561388</v>
       </c>
       <c r="Q23">
-        <v>309.69949317432145</v>
+        <v>220.23075070173974</v>
       </c>
       <c r="R23">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T23">
         <v>4</v>
@@ -2303,7 +2305,7 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -2321,40 +2323,40 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>732</v>
+        <v>559</v>
       </c>
       <c r="H24">
-        <v>521</v>
+        <v>383</v>
       </c>
       <c r="I24">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="J24">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K24">
-        <v>6.6104078762306617E-2</v>
+        <v>8.3591331269349839E-2</v>
       </c>
       <c r="L24">
-        <v>1.4185327615471026E-3</v>
+        <v>2.7124980055161724E-3</v>
       </c>
       <c r="M24">
-        <v>58.660742655865121</v>
+        <v>48.069219676333923</v>
       </c>
       <c r="N24">
-        <v>82.831141250179925</v>
+        <v>55.944967532908407</v>
       </c>
       <c r="O24">
-        <v>0.70819672131147537</v>
+        <v>0.85922330097087374</v>
       </c>
       <c r="P24">
-        <v>237.90190077100857</v>
+        <v>183.31482079957851</v>
       </c>
       <c r="Q24">
-        <v>277.82379507847236</v>
+        <v>208.57152944307597</v>
       </c>
       <c r="R24">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="S24">
         <v>4</v>
@@ -2371,7 +2373,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2389,40 +2391,40 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>732</v>
+        <v>559</v>
       </c>
       <c r="H25">
-        <v>521</v>
+        <v>383</v>
       </c>
       <c r="I25">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="J25">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K25">
-        <v>6.6104078762306617E-2</v>
+        <v>8.3591331269349839E-2</v>
       </c>
       <c r="L25">
-        <v>1.4185327615471026E-3</v>
+        <v>2.7124980055161724E-3</v>
       </c>
       <c r="M25">
-        <v>58.660742655865121</v>
+        <v>48.069219676333923</v>
       </c>
       <c r="N25">
-        <v>82.831141250179925</v>
+        <v>55.944967532908407</v>
       </c>
       <c r="O25">
-        <v>0.70819672131147537</v>
+        <v>0.85922330097087374</v>
       </c>
       <c r="P25">
-        <v>237.90190077100857</v>
+        <v>183.31482079957851</v>
       </c>
       <c r="Q25">
-        <v>277.82379507847236</v>
+        <v>208.57152944307597</v>
       </c>
       <c r="R25">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="S25">
         <v>4</v>
@@ -2439,7 +2441,7 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2457,40 +2459,40 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>732</v>
+        <v>559</v>
       </c>
       <c r="H26">
-        <v>521</v>
+        <v>383</v>
       </c>
       <c r="I26">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="J26">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K26">
-        <v>6.6104078762306617E-2</v>
+        <v>8.3591331269349839E-2</v>
       </c>
       <c r="L26">
-        <v>1.4185327615471026E-3</v>
+        <v>2.7124980055161724E-3</v>
       </c>
       <c r="M26">
-        <v>58.660742655865121</v>
+        <v>48.069219676333923</v>
       </c>
       <c r="N26">
-        <v>82.831141250179925</v>
+        <v>55.944967532908407</v>
       </c>
       <c r="O26">
-        <v>0.70819672131147537</v>
+        <v>0.85922330097087374</v>
       </c>
       <c r="P26">
-        <v>237.90190077100857</v>
+        <v>183.31482079957851</v>
       </c>
       <c r="Q26">
-        <v>277.82379507847236</v>
+        <v>208.57152944307597</v>
       </c>
       <c r="R26">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="S26">
         <v>4</v>
@@ -2507,7 +2509,7 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2525,40 +2527,40 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>732</v>
+        <v>559</v>
       </c>
       <c r="H27">
-        <v>521</v>
+        <v>383</v>
       </c>
       <c r="I27">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="J27">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K27">
-        <v>6.6104078762306617E-2</v>
+        <v>8.3591331269349839E-2</v>
       </c>
       <c r="L27">
-        <v>1.4185327615471026E-3</v>
+        <v>2.7124980055161724E-3</v>
       </c>
       <c r="M27">
-        <v>58.660742655865121</v>
+        <v>48.069219676333923</v>
       </c>
       <c r="N27">
-        <v>82.831141250179925</v>
+        <v>55.944967532908407</v>
       </c>
       <c r="O27">
-        <v>0.70819672131147537</v>
+        <v>0.85922330097087374</v>
       </c>
       <c r="P27">
-        <v>237.90190077100857</v>
+        <v>183.31482079957851</v>
       </c>
       <c r="Q27">
-        <v>277.82379507847236</v>
+        <v>208.57152944307597</v>
       </c>
       <c r="R27">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="S27">
         <v>4</v>
@@ -2575,7 +2577,7 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2593,40 +2595,40 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>732</v>
+        <v>559</v>
       </c>
       <c r="H28">
-        <v>521</v>
+        <v>383</v>
       </c>
       <c r="I28">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="J28">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="K28">
-        <v>6.6104078762306617E-2</v>
+        <v>8.3591331269349839E-2</v>
       </c>
       <c r="L28">
-        <v>1.4185327615471026E-3</v>
+        <v>2.7124980055161724E-3</v>
       </c>
       <c r="M28">
-        <v>58.660742655865121</v>
+        <v>48.069219676333923</v>
       </c>
       <c r="N28">
-        <v>82.831141250179925</v>
+        <v>55.944967532908407</v>
       </c>
       <c r="O28">
-        <v>0.70819672131147537</v>
+        <v>0.85922330097087374</v>
       </c>
       <c r="P28">
-        <v>237.90190077100857</v>
+        <v>183.31482079957851</v>
       </c>
       <c r="Q28">
-        <v>277.82379507847236</v>
+        <v>208.57152944307597</v>
       </c>
       <c r="R28">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="S28">
         <v>4</v>
@@ -2643,7 +2645,7 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2661,57 +2663,57 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="H29">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="J29">
         <v>1</v>
       </c>
       <c r="K29">
-        <v>2.4875621890547265E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="L29">
-        <v>2.1742084522353581E-3</v>
+        <v>2.384358607534573E-3</v>
       </c>
       <c r="M29">
         <v>13.52447930754666</v>
       </c>
       <c r="N29">
-        <v>45.081597691822196</v>
+        <v>9.0163195383644403</v>
       </c>
       <c r="O29">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="P29">
-        <v>293.0303849968443</v>
+        <v>144.26111261383105</v>
       </c>
       <c r="Q29">
-        <v>306.55486430439095</v>
+        <v>157.78559192137769</v>
       </c>
       <c r="R29">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S29">
         <v>4</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2729,40 +2731,40 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="H30">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="I30">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="J30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>7.6433121019108277E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="L30">
-        <v>5.3874187925843763E-3</v>
+        <v>7.4096943501080577E-3</v>
       </c>
       <c r="M30">
-        <v>124.56705353345082</v>
+        <v>48.611533086224703</v>
       </c>
       <c r="N30">
-        <v>145.83459925867413</v>
+        <v>112.41417026189463</v>
       </c>
       <c r="O30">
-        <v>0.85416666666666663</v>
+        <v>0.43243243243243246</v>
       </c>
       <c r="P30">
-        <v>738.28765874703765</v>
+        <v>613.72060521358696</v>
       </c>
       <c r="Q30">
-        <v>783.86097101537348</v>
+        <v>631.94993012092118</v>
       </c>
       <c r="R30">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S30">
         <v>5</v>
@@ -2774,12 +2776,12 @@
         <v>5</v>
       </c>
       <c r="V30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2797,40 +2799,40 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="H31">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I31">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="J31">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K31">
-        <v>4.4205495818399047E-2</v>
+        <v>5.8394160583941604E-2</v>
       </c>
       <c r="L31">
-        <v>1.7137416693113296E-3</v>
+        <v>2.3962668684575608E-3</v>
       </c>
       <c r="M31">
-        <v>28.874611997401285</v>
+        <v>23.460622247888544</v>
       </c>
       <c r="N31">
-        <v>34.288601746914026</v>
+        <v>26.167617122644916</v>
       </c>
       <c r="O31">
-        <v>0.84210526315789469</v>
+        <v>0.89655172413793094</v>
       </c>
       <c r="P31">
-        <v>150.68938136143794</v>
+        <v>111.88912148992999</v>
       </c>
       <c r="Q31">
-        <v>218.3642532303472</v>
+        <v>168.73601385981377</v>
       </c>
       <c r="R31">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="S31">
         <v>4</v>
@@ -2847,7 +2849,7 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2865,43 +2867,43 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="H32">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I32">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="J32">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K32">
-        <v>9.696969696969697E-2</v>
+        <v>8.1081081081081086E-2</v>
       </c>
       <c r="L32">
-        <v>2.911773269921382E-3</v>
+        <v>2.985884907709012E-3</v>
       </c>
       <c r="M32">
-        <v>127.58886712954721</v>
+        <v>59.343659130021955</v>
       </c>
       <c r="N32">
-        <v>97.917037564536244</v>
+        <v>139.45759895555159</v>
       </c>
       <c r="O32">
-        <v>1.3030303030303028</v>
+        <v>0.42553191489361702</v>
       </c>
       <c r="P32">
-        <v>415.4056139101537</v>
+        <v>299.68547860661084</v>
       </c>
       <c r="Q32">
-        <v>531.12574921369651</v>
+        <v>397.6025161711471</v>
       </c>
       <c r="R32">
         <v>9</v>
       </c>
       <c r="S32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32">
         <v>5</v>
@@ -2910,12 +2912,12 @@
         <v>5</v>
       </c>
       <c r="V32" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2933,43 +2935,43 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="H33">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="I33">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="J33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K33">
-        <v>4.250797024442083E-2</v>
+        <v>7.586206896551724E-2</v>
       </c>
       <c r="L33">
-        <v>1.2347203358439314E-3</v>
+        <v>2.472799208704253E-3</v>
       </c>
       <c r="M33">
-        <v>53.971395160564903</v>
+        <v>29.061520471073408</v>
       </c>
       <c r="N33">
-        <v>76.113505995668447</v>
+        <v>55.355277087758878</v>
       </c>
       <c r="O33">
-        <v>0.70909090909090911</v>
+        <v>0.52499999999999991</v>
       </c>
       <c r="P33">
-        <v>265.70533002124262</v>
+        <v>156.37865777291881</v>
       </c>
       <c r="Q33">
-        <v>298.91849627389792</v>
+        <v>177.13688668082838</v>
       </c>
       <c r="R33">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T33">
         <v>4</v>
@@ -2978,12 +2980,12 @@
         <v>4</v>
       </c>
       <c r="V33" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3001,40 +3003,40 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>304</v>
+        <v>239</v>
       </c>
       <c r="H34">
-        <v>126</v>
+        <v>84</v>
       </c>
       <c r="I34">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="J34">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K34">
-        <v>7.3291925465838514E-2</v>
+        <v>7.9629629629629634E-2</v>
       </c>
       <c r="L34">
-        <v>4.6108374384236451E-3</v>
+        <v>4.4196324726680624E-3</v>
       </c>
       <c r="M34">
-        <v>61.252824435793428</v>
+        <v>51.724607301336668</v>
       </c>
       <c r="N34">
-        <v>110.25508398442817</v>
+        <v>62.613998312144389</v>
       </c>
       <c r="O34">
-        <v>0.55555555555555558</v>
+        <v>0.82608695652173914</v>
       </c>
       <c r="P34">
-        <v>498.18963874445319</v>
+        <v>374.32281599651537</v>
       </c>
       <c r="Q34">
-        <v>596.1941578417227</v>
+        <v>431.49211880325595</v>
       </c>
       <c r="R34">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="S34">
         <v>4</v>
@@ -3051,7 +3053,7 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -3069,40 +3071,40 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="H35">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I35">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="J35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K35">
-        <v>3.8793103448275863E-2</v>
+        <v>2.0172910662824207E-2</v>
       </c>
       <c r="L35">
-        <v>2.5511480166074733E-3</v>
+        <v>2.8386050283860501E-3</v>
       </c>
       <c r="M35">
-        <v>41.709834102498554</v>
+        <v>48.43722669967574</v>
       </c>
       <c r="N35">
-        <v>53.819140777417495</v>
+        <v>39.018877063627677</v>
       </c>
       <c r="O35">
-        <v>0.77499999999999991</v>
+        <v>1.2413793103448276</v>
       </c>
       <c r="P35">
-        <v>234.11326238176608</v>
+        <v>164.14837937112335</v>
       </c>
       <c r="Q35">
-        <v>270.44118240652284</v>
+        <v>188.36699272096121</v>
       </c>
       <c r="R35">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="S35">
         <v>4</v>
@@ -3119,7 +3121,7 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -3137,57 +3139,57 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>379</v>
+        <v>267</v>
       </c>
       <c r="H36">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="I36">
-        <v>153</v>
+        <v>94</v>
       </c>
       <c r="J36">
         <v>34</v>
       </c>
       <c r="K36">
-        <v>7.4268567141785452E-2</v>
+        <v>0.1095360824742268</v>
       </c>
       <c r="L36">
-        <v>2.3864157870582838E-3</v>
+        <v>1.4253948343691202E-3</v>
       </c>
       <c r="M36">
-        <v>98.611139944777761</v>
+        <v>73</v>
       </c>
       <c r="N36">
-        <v>128.71348792792045</v>
+        <v>90</v>
       </c>
       <c r="O36">
-        <v>0.7661290322580645</v>
+        <v>0.81111111111111112</v>
       </c>
       <c r="P36">
-        <v>393.40654777969229</v>
+        <v>277.14920384479643</v>
       </c>
       <c r="Q36">
-        <v>499.28377172040103</v>
+        <v>383.02642778550518</v>
       </c>
       <c r="R36">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="S36">
         <v>4</v>
       </c>
       <c r="T36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -3205,57 +3207,57 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I37">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>2.5477707006369428E-2</v>
+        <v>3.3613445378151259E-2</v>
       </c>
       <c r="L37">
-        <v>5.3304904051172707E-3</v>
+        <v>1.4553014553014554E-2</v>
       </c>
       <c r="M37">
+        <v>25.334628214330952</v>
+      </c>
+      <c r="N37">
         <v>33.779504285774607</v>
       </c>
-      <c r="N37">
-        <v>92.893636785880162</v>
-      </c>
       <c r="O37">
-        <v>0.36363636363636365</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="P37">
-        <v>346.23991892918968</v>
+        <v>304.01553857197143</v>
       </c>
       <c r="Q37">
-        <v>447.57843178651353</v>
+        <v>329.35016678630245</v>
       </c>
       <c r="R37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S37">
         <v>4</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -3273,40 +3275,40 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>330</v>
+        <v>201</v>
       </c>
       <c r="H38">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="I38">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="J38">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K38">
-        <v>9.8554533508541389E-2</v>
+        <v>7.441860465116279E-2</v>
       </c>
       <c r="L38">
-        <v>1.5491663384534593E-3</v>
+        <v>1.3913043478260871E-3</v>
       </c>
       <c r="M38">
+        <v>40.648570525269861</v>
+      </c>
+      <c r="N38">
         <v>64.134411273203554</v>
       </c>
-      <c r="N38">
-        <v>99.363172395104101</v>
-      </c>
       <c r="O38">
-        <v>0.64545454545454539</v>
+        <v>0.63380281690140849</v>
       </c>
       <c r="P38">
-        <v>306.21923129036628</v>
+        <v>181.56361501287205</v>
       </c>
       <c r="Q38">
-        <v>376.67675353416735</v>
+        <v>238.47161374824987</v>
       </c>
       <c r="R38">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S38">
         <v>4</v>
@@ -3323,7 +3325,7 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -3341,40 +3343,40 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="H39">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="I39">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J39">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K39">
-        <v>9.3247588424437297E-2</v>
+        <v>0.14859437751004015</v>
       </c>
       <c r="L39">
-        <v>1.559841179807147E-3</v>
+        <v>4.2372881355932203E-3</v>
       </c>
       <c r="M39">
-        <v>117.62027621793898</v>
+        <v>151.76809834572771</v>
       </c>
       <c r="N39">
         <v>117.62027621793898</v>
       </c>
       <c r="O39">
-        <v>1</v>
+        <v>1.2903225806451613</v>
       </c>
       <c r="P39">
-        <v>508.42312945818787</v>
+        <v>474.27530733039913</v>
       </c>
       <c r="Q39">
-        <v>645.01441796934284</v>
+        <v>588.101381089695</v>
       </c>
       <c r="R39">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="S39">
         <v>6</v>
@@ -3386,12 +3388,12 @@
         <v>6</v>
       </c>
       <c r="V39" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -3409,43 +3411,43 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>358</v>
+        <v>208</v>
       </c>
       <c r="H40">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="I40">
-        <v>241</v>
+        <v>146</v>
       </c>
       <c r="J40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K40">
-        <v>5.2297939778129951E-2</v>
+        <v>5.8375634517766499E-2</v>
       </c>
       <c r="L40">
-        <v>6.0773480662983425E-3</v>
+        <v>1.9522776572668113E-2</v>
       </c>
       <c r="M40">
-        <v>51.066410270731765</v>
+        <v>36.703982382088455</v>
       </c>
       <c r="N40">
-        <v>75.003790085137283</v>
+        <v>52.662235591692131</v>
       </c>
       <c r="O40">
-        <v>0.68085106382978722</v>
+        <v>0.69696969696969702</v>
       </c>
       <c r="P40">
-        <v>571.30546490381164</v>
+        <v>331.93166675975647</v>
       </c>
       <c r="Q40">
-        <v>585.66789279245495</v>
+        <v>351.08157061128088</v>
       </c>
       <c r="R40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40">
         <v>4</v>
@@ -3459,7 +3461,7 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3477,49 +3479,49 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="H41">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="I41">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="J41">
         <v>12</v>
       </c>
       <c r="K41">
-        <v>2.7628549501151189E-2</v>
+        <v>2.514792899408284E-2</v>
       </c>
       <c r="L41">
-        <v>7.599626351704375E-4</v>
+        <v>1.1396293727083541E-3</v>
       </c>
       <c r="M41">
-        <v>45.184451596929932</v>
+        <v>20.425847982173806</v>
       </c>
       <c r="N41">
-        <v>46.422381777667745</v>
+        <v>44.56548650656103</v>
       </c>
       <c r="O41">
-        <v>0.97333333333333316</v>
+        <v>0.45833333333333337</v>
       </c>
       <c r="P41">
-        <v>178.88091111661302</v>
+        <v>103.98613518197574</v>
       </c>
       <c r="Q41">
-        <v>201.16365436989355</v>
+        <v>126.26887843525625</v>
       </c>
       <c r="R41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T41">
         <v>3</v>
       </c>
       <c r="U41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V41" t="s">
         <v>106</v>
@@ -3527,7 +3529,7 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -3545,49 +3547,49 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="H42">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="I42">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="J42">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K42">
-        <v>4.7358834244080147E-2</v>
+        <v>3.7356321839080463E-2</v>
       </c>
       <c r="L42">
-        <v>1.0997587625940115E-3</v>
+        <v>2.9178148808558925E-3</v>
       </c>
       <c r="M42">
-        <v>38.367157712997674</v>
+        <v>15.986315713749031</v>
       </c>
       <c r="N42">
-        <v>59.149368140871417</v>
+        <v>36.768526141622772</v>
       </c>
       <c r="O42">
-        <v>0.64864864864864857</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="P42">
-        <v>242.99199884898525</v>
+        <v>124.69326256724243</v>
       </c>
       <c r="Q42">
-        <v>290.95094599023236</v>
+        <v>153.4686308519907</v>
       </c>
       <c r="R42">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="S42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V42" t="s">
         <v>107</v>
@@ -3595,7 +3597,7 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -3613,43 +3615,43 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="H43">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="I43">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="J43">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="K43">
-        <v>2.2716288061865635E-2</v>
+        <v>4.5307443365695796E-2</v>
       </c>
       <c r="L43">
-        <v>1.8685697561854162E-3</v>
+        <v>2.930952218662668E-3</v>
       </c>
       <c r="M43">
-        <v>29.495447989093879</v>
+        <v>26.617843307231059</v>
       </c>
       <c r="N43">
-        <v>48.199878421202193</v>
+        <v>31.653651500490987</v>
       </c>
       <c r="O43">
-        <v>0.61194029850746268</v>
+        <v>0.84090909090909094</v>
       </c>
       <c r="P43">
-        <v>185.60550198015173</v>
+        <v>157.54885633198927</v>
       </c>
       <c r="Q43">
-        <v>280.5664564816247</v>
+        <v>220.13675816250554</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T43">
         <v>4</v>
@@ -3658,12 +3660,12 @@
         <v>4</v>
       </c>
       <c r="V43" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3681,43 +3683,43 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H44">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="I44">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="J44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K44">
-        <v>2.7925531914893616E-2</v>
+        <v>5.0420168067226892E-2</v>
       </c>
       <c r="L44">
-        <v>1.718213058419244E-3</v>
+        <v>2.0715630885122412E-3</v>
       </c>
       <c r="M44">
-        <v>46.056166591734019</v>
+        <v>21.931507900825721</v>
       </c>
       <c r="N44">
-        <v>61.408222122312019</v>
+        <v>48.249317381816589</v>
       </c>
       <c r="O44">
-        <v>0.75000000000000011</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="P44">
-        <v>280.72330113056921</v>
+        <v>149.13425372561488</v>
       </c>
       <c r="Q44">
-        <v>346.5178248330464</v>
+        <v>188.61096794710119</v>
       </c>
       <c r="R44">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T44">
         <v>4</v>
@@ -3726,12 +3728,12 @@
         <v>4</v>
       </c>
       <c r="V44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3749,40 +3751,40 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H45">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I45">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K45">
-        <v>2.1708683473389355E-2</v>
+        <v>2.0348837209302327E-2</v>
       </c>
       <c r="L45">
-        <v>4.3351934695383476E-3</v>
+        <v>8.9589125733704044E-3</v>
       </c>
       <c r="M45">
-        <v>47.586153964233631</v>
+        <v>42.981042290275539</v>
       </c>
       <c r="N45">
-        <v>27.630670043748562</v>
+        <v>44.516079514928236</v>
       </c>
       <c r="O45">
-        <v>1.7222222222222221</v>
+        <v>0.96551724137931039</v>
       </c>
       <c r="P45">
-        <v>374.54908281525826</v>
+        <v>313.14759382915037</v>
       </c>
       <c r="Q45">
-        <v>379.15419448921637</v>
+        <v>331.56804052498273</v>
       </c>
       <c r="R45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S45">
         <v>4</v>
@@ -3799,7 +3801,7 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3817,43 +3819,43 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="H46">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="I46">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J46">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K46">
-        <v>3.4528552456839307E-2</v>
+        <v>6.0790273556231005E-2</v>
       </c>
       <c r="L46">
-        <v>4.2446823562703389E-4</v>
+        <v>2.472799208704253E-3</v>
       </c>
       <c r="M46">
+        <v>30.253572708092832</v>
+      </c>
+      <c r="N46">
         <v>38.215039210222521</v>
       </c>
-      <c r="N46">
-        <v>54.137972214481906</v>
-      </c>
       <c r="O46">
-        <v>0.70588235294117652</v>
+        <v>0.79166666666666674</v>
       </c>
       <c r="P46">
-        <v>128.97575733450103</v>
+        <v>101.90677122726005</v>
       </c>
       <c r="Q46">
-        <v>162.41391664344573</v>
+        <v>116.23741093109352</v>
       </c>
       <c r="R46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>4</v>
@@ -3867,7 +3869,7 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3885,40 +3887,40 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="H47">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I47">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="J47">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K47">
-        <v>9.2233009708737865E-2</v>
+        <v>9.90990990990991E-2</v>
       </c>
       <c r="L47">
-        <v>5.9036374023995431E-3</v>
+        <v>1.8529956763434219E-3</v>
       </c>
       <c r="M47">
-        <v>88.491453588561313</v>
+        <v>41.917004331423776</v>
       </c>
       <c r="N47">
-        <v>107.12123329141632</v>
+        <v>83.834008662847552</v>
       </c>
       <c r="O47">
-        <v>0.82608695652173925</v>
+        <v>0.5</v>
       </c>
       <c r="P47">
-        <v>475.05938242280286</v>
+        <v>298.07647524568023</v>
       </c>
       <c r="Q47">
-        <v>586.83806063993291</v>
+        <v>339.99347957710398</v>
       </c>
       <c r="R47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S47">
         <v>4</v>
@@ -3935,7 +3937,7 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3953,40 +3955,40 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>377</v>
+        <v>223</v>
       </c>
       <c r="H48">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="I48">
-        <v>235</v>
+        <v>133</v>
       </c>
       <c r="J48">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K48">
-        <v>6.6282420749279536E-2</v>
+        <v>6.1617458279845959E-2</v>
       </c>
       <c r="L48">
-        <v>2.4823281874275988E-3</v>
+        <v>1.8131101813110182E-3</v>
       </c>
       <c r="M48">
-        <v>58.143136965214197</v>
+        <v>43.845644268850052</v>
       </c>
       <c r="N48">
-        <v>107.70777831260992</v>
+        <v>68.627964942547919</v>
       </c>
       <c r="O48">
-        <v>0.53982300884955747</v>
+        <v>0.63888888888888873</v>
       </c>
       <c r="P48">
-        <v>398.42346313868086</v>
+        <v>239.24471111916009</v>
       </c>
       <c r="Q48">
-        <v>458.47293246341036</v>
+        <v>273.55869359043402</v>
       </c>
       <c r="R48">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="S48">
         <v>4</v>
@@ -4003,7 +4005,7 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -4021,49 +4023,49 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>285</v>
+        <v>169</v>
       </c>
       <c r="H49">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="I49">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="J49">
+        <v>16</v>
+      </c>
+      <c r="K49">
+        <v>8.6567164179104483E-2</v>
+      </c>
+      <c r="L49">
+        <v>2.9756369722893808E-3</v>
+      </c>
+      <c r="M49">
+        <v>36.836246866917051</v>
+      </c>
+      <c r="N49">
+        <v>110.50874060075112</v>
+      </c>
+      <c r="O49">
+        <v>0.33333333333333343</v>
+      </c>
+      <c r="P49">
+        <v>273.86948757577454</v>
+      </c>
+      <c r="Q49">
+        <v>350.74513321107969</v>
+      </c>
+      <c r="R49">
         <v>28</v>
       </c>
-      <c r="K49">
-        <v>9.8495212038303692E-2</v>
-      </c>
-      <c r="L49">
-        <v>1.9993045897079278E-3</v>
-      </c>
-      <c r="M49">
-        <v>112.11031655148666</v>
-      </c>
-      <c r="N49">
-        <v>161.75917102428789</v>
-      </c>
-      <c r="O49">
-        <v>0.69306930693069313</v>
-      </c>
-      <c r="P49">
-        <v>507.699576383161</v>
-      </c>
-      <c r="Q49">
-        <v>642.23195624494497</v>
-      </c>
-      <c r="R49">
-        <v>40</v>
-      </c>
       <c r="S49">
         <v>5</v>
       </c>
       <c r="T49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V49" t="s">
         <v>107</v>
@@ -4071,7 +4073,7 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -4089,40 +4091,40 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>541</v>
+        <v>411</v>
       </c>
       <c r="H50">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="I50">
-        <v>259</v>
+        <v>190</v>
       </c>
       <c r="J50">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K50">
-        <v>4.5776918117343648E-2</v>
+        <v>6.9794050343249425E-2</v>
       </c>
       <c r="L50">
-        <v>2.7567354692241757E-3</v>
+        <v>4.1334012796557388E-3</v>
       </c>
       <c r="M50">
-        <v>78.583447934194908</v>
+        <v>66.055651886714557</v>
       </c>
       <c r="N50">
-        <v>80.861229033736791</v>
+        <v>72.888995185340207</v>
       </c>
       <c r="O50">
-        <v>0.97183098591549288</v>
+        <v>0.90624999999999989</v>
       </c>
       <c r="P50">
-        <v>308.06989371303945</v>
+        <v>247.13924930029413</v>
       </c>
       <c r="Q50">
-        <v>359.31996845273176</v>
+        <v>289.84764491670438</v>
       </c>
       <c r="R50">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S50">
         <v>5</v>
@@ -4134,12 +4136,12 @@
         <v>5</v>
       </c>
       <c r="V50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -4157,43 +4159,43 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="H51">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="I51">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="J51">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K51">
-        <v>3.7155963302752296E-2</v>
+        <v>5.4827175208581644E-2</v>
       </c>
       <c r="L51">
-        <v>1.9996923550223041E-3</v>
+        <v>2.870390814749393E-3</v>
       </c>
       <c r="M51">
-        <v>57.471478845644299</v>
+        <v>29.10893084389776</v>
       </c>
       <c r="N51">
-        <v>83.594878320937156</v>
+        <v>60.457010214249195</v>
       </c>
       <c r="O51">
-        <v>0.6875</v>
+        <v>0.48148148148148145</v>
       </c>
       <c r="P51">
-        <v>232.87144675118208</v>
+        <v>147.78380274594247</v>
       </c>
       <c r="Q51">
-        <v>311.24164517706066</v>
+        <v>190.3276247485623</v>
       </c>
       <c r="R51">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="S51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T51">
         <v>4</v>
@@ -4202,12 +4204,12 @@
         <v>4</v>
       </c>
       <c r="V51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -4225,40 +4227,40 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="H52">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="I52">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="J52">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K52">
-        <v>8.4507042253521125E-2</v>
+        <v>8.0291970802919707E-2</v>
       </c>
       <c r="L52">
-        <v>1.869624828617724E-3</v>
+        <v>2.3482658959537574E-3</v>
       </c>
       <c r="M52">
-        <v>88.017242352091543</v>
+        <v>24.825376048025817</v>
       </c>
       <c r="N52">
-        <v>130.89743734413614</v>
+        <v>81.246685248084503</v>
       </c>
       <c r="O52">
-        <v>0.67241379310344829</v>
+        <v>0.30555555555555552</v>
       </c>
       <c r="P52">
-        <v>399.46286913641546</v>
+        <v>203.11671312021124</v>
       </c>
       <c r="Q52">
-        <v>480.70955438449994</v>
+        <v>250.51061284826051</v>
       </c>
       <c r="R52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S52">
         <v>5</v>
@@ -4275,7 +4277,7 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4293,43 +4295,43 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="H53">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I53">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="J53">
         <v>2</v>
       </c>
       <c r="K53">
-        <v>6.0810810810810814E-2</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="L53">
-        <v>3.4500062727386778E-3</v>
+        <v>2.6655443322109989E-3</v>
       </c>
       <c r="M53">
+        <v>40.366833600343121</v>
+      </c>
+      <c r="N53">
         <v>37.843906500321673</v>
       </c>
-      <c r="N53">
-        <v>55.504396200471781</v>
-      </c>
       <c r="O53">
-        <v>0.68181818181818188</v>
+        <v>1.0666666666666667</v>
       </c>
       <c r="P53">
-        <v>350.68686690298085</v>
+        <v>262.38441840223027</v>
       </c>
       <c r="Q53">
-        <v>365.82442950310951</v>
+        <v>277.52198100235893</v>
       </c>
       <c r="R53">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T53">
         <v>5</v>
@@ -4338,12 +4340,12 @@
         <v>5</v>
       </c>
       <c r="V53" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4361,40 +4363,40 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="H54">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I54">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="J54">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K54">
-        <v>7.5342465753424653E-2</v>
+        <v>9.7744360902255634E-2</v>
       </c>
       <c r="L54">
-        <v>2.0413976452715536E-3</v>
+        <v>2.7634838955593673E-3</v>
       </c>
       <c r="M54">
-        <v>61.787806414049598</v>
+        <v>43.964400717689138</v>
       </c>
       <c r="N54">
-        <v>55.846671181929445</v>
+        <v>57.03489822835347</v>
       </c>
       <c r="O54">
-        <v>1.1063829787234043</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="P54">
-        <v>274.4804477239511</v>
+        <v>245.96299860977436</v>
       </c>
       <c r="Q54">
-        <v>306.56257797739988</v>
+        <v>288.73917228103943</v>
       </c>
       <c r="R54">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S54">
         <v>4</v>
@@ -4411,7 +4413,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -4429,43 +4431,43 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="H55">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="I55">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="J55">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K55">
-        <v>6.5989847715736044E-2</v>
+        <v>4.7826086956521741E-2</v>
       </c>
       <c r="L55">
-        <v>2.013036809815951E-3</v>
+        <v>3.3637000700770846E-3</v>
       </c>
       <c r="M55">
-        <v>35.364942089907331</v>
+        <v>14.467476309507543</v>
       </c>
       <c r="N55">
         <v>43.402428928522632</v>
       </c>
       <c r="O55">
-        <v>0.81481481481481488</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P55">
-        <v>217.01214464261315</v>
+        <v>167.17972624319827</v>
       </c>
       <c r="Q55">
-        <v>250.76958936479741</v>
+        <v>176.82471044953664</v>
       </c>
       <c r="R55">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T55">
         <v>4</v>
@@ -4474,12 +4476,12 @@
         <v>4</v>
       </c>
       <c r="V55" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4497,40 +4499,40 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c r="H56">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="I56">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="J56">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K56">
-        <v>8.4393063583815028E-2</v>
+        <v>0.11160714285714286</v>
       </c>
       <c r="L56">
-        <v>3.2963739886125261E-3</v>
+        <v>5.2015604681404422E-3</v>
       </c>
       <c r="M56">
-        <v>118.16161687418433</v>
+        <v>98.761948432154071</v>
       </c>
       <c r="N56">
-        <v>160.48816620225037</v>
+        <v>105.81637332016507</v>
       </c>
       <c r="O56">
-        <v>0.7362637362637362</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="P56">
-        <v>511.44580438079788</v>
+        <v>347.43042573454198</v>
       </c>
       <c r="Q56">
-        <v>649.00708969701247</v>
+        <v>432.08352439067409</v>
       </c>
       <c r="R56">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S56">
         <v>5</v>
@@ -4547,7 +4549,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -4565,43 +4567,43 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="H57">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="I57">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="J57">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="K57">
-        <v>3.1598513011152414E-2</v>
+        <v>6.8085106382978725E-2</v>
       </c>
       <c r="L57">
-        <v>7.1136954101200045E-3</v>
+        <v>3.1813361611876989E-3</v>
       </c>
       <c r="M57">
         <v>54.528780455563172</v>
       </c>
       <c r="N57">
-        <v>71.052653320885355</v>
+        <v>56.18116774209539</v>
       </c>
       <c r="O57">
-        <v>0.7674418604651162</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="P57">
-        <v>505.63050967885857</v>
+        <v>315.60597172765353</v>
       </c>
       <c r="Q57">
-        <v>560.15929013442167</v>
+        <v>355.26326660442675</v>
       </c>
       <c r="R57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T57">
         <v>5</v>
@@ -4610,12 +4612,12 @@
         <v>5</v>
       </c>
       <c r="V57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -4633,43 +4635,43 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="H58">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I58">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J58">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K58">
-        <v>2.0958083832335328E-2</v>
+        <v>4.1860465116279069E-2</v>
       </c>
       <c r="L58">
-        <v>7.8200192492781516E-4</v>
+        <v>1.5494267121165168E-3</v>
       </c>
       <c r="M58">
+        <v>13.543581309857794</v>
+      </c>
+      <c r="N58">
         <v>25.152365289735897</v>
       </c>
-      <c r="N58">
-        <v>32.891554609654641</v>
-      </c>
       <c r="O58">
-        <v>0.76470588235294101</v>
+        <v>0.53846153846153855</v>
       </c>
       <c r="P58">
-        <v>110.28344780884203</v>
+        <v>79.326690529167067</v>
       </c>
       <c r="Q58">
-        <v>145.10979974847635</v>
+        <v>90.935474509045179</v>
       </c>
       <c r="R58">
         <v>6</v>
       </c>
       <c r="S58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T58">
         <v>4</v>
@@ -4678,12 +4680,12 @@
         <v>4</v>
       </c>
       <c r="V58" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -4701,57 +4703,57 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="H59">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I59">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1.8826135105204873E-2</v>
+      </c>
+      <c r="L59">
+        <v>6.8875793984847326E-4</v>
+      </c>
+      <c r="M59">
+        <v>15.584646896428888</v>
+      </c>
+      <c r="N59">
+        <v>20.037403152551427</v>
+      </c>
+      <c r="O59">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="P59">
+        <v>86.828746994389519</v>
+      </c>
+      <c r="Q59">
+        <v>90.168314186481425</v>
+      </c>
+      <c r="R59">
+        <v>9</v>
+      </c>
+      <c r="S59">
         <v>3</v>
       </c>
-      <c r="K59">
-        <v>3.0571992110453649E-2</v>
-      </c>
-      <c r="L59">
-        <v>8.4695736981238608E-4</v>
-      </c>
-      <c r="M59">
-        <v>28.942915664796512</v>
-      </c>
-      <c r="N59">
-        <v>48.980318817347943</v>
-      </c>
-      <c r="O59">
-        <v>0.59090909090909094</v>
-      </c>
-      <c r="P59">
-        <v>151.39371270816633</v>
-      </c>
-      <c r="Q59">
-        <v>161.41241428444206</v>
-      </c>
-      <c r="R59">
-        <v>17</v>
-      </c>
-      <c r="S59">
-        <v>4</v>
-      </c>
       <c r="T59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -4769,43 +4771,43 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>185</v>
+        <v>122</v>
       </c>
       <c r="H60">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="I60">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="J60">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K60">
-        <v>7.8726968174204354E-2</v>
+        <v>8.4967320261437912E-2</v>
       </c>
       <c r="L60">
-        <v>1.5580184837647392E-3</v>
+        <v>1.735879289624783E-3</v>
       </c>
       <c r="M60">
-        <v>72.792244317241838</v>
+        <v>44.667968103762036</v>
       </c>
       <c r="N60">
-        <v>110.84273566489098</v>
+        <v>67.829136750157161</v>
       </c>
       <c r="O60">
-        <v>0.65671641791044777</v>
+        <v>0.65853658536585369</v>
       </c>
       <c r="P60">
-        <v>339.14568375078585</v>
+        <v>213.41362538464082</v>
       </c>
       <c r="Q60">
-        <v>393.73986698871715</v>
+        <v>243.19227078714883</v>
       </c>
       <c r="R60">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T60">
         <v>4</v>
@@ -4819,7 +4821,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -4837,40 +4839,40 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H61">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="I61">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="J61">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K61">
-        <v>2.9478458049886622E-2</v>
+        <v>6.8235294117647061E-2</v>
       </c>
       <c r="L61">
-        <v>2.8312206421723185E-3</v>
+        <v>3.0637254901960784E-3</v>
       </c>
       <c r="M61">
+        <v>67.93406150155505</v>
+      </c>
+      <c r="N61">
         <v>78.548758611173028</v>
       </c>
-      <c r="N61">
-        <v>114.63872878387416</v>
-      </c>
       <c r="O61">
-        <v>0.68518518518518512</v>
+        <v>0.8648648648648648</v>
       </c>
       <c r="P61">
+        <v>301.45739791315054</v>
+      </c>
+      <c r="Q61">
         <v>371.5143988366292</v>
       </c>
-      <c r="Q61">
-        <v>467.04667282319093</v>
-      </c>
       <c r="R61">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S61">
         <v>4</v>
@@ -4887,7 +4889,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -4905,40 +4907,40 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H62">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I62">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J62">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K62">
-        <v>6.9868995633187769E-2</v>
+        <v>4.954954954954955E-2</v>
       </c>
       <c r="L62">
-        <v>1.0492393015064079E-3</v>
+        <v>1.9749835418038184E-3</v>
       </c>
       <c r="M62">
+        <v>27.593438280376922</v>
+      </c>
+      <c r="N62">
         <v>35.871469764490008</v>
       </c>
-      <c r="N62">
-        <v>55.186876560753845</v>
-      </c>
       <c r="O62">
-        <v>0.65000000000000013</v>
+        <v>0.76923076923076905</v>
       </c>
       <c r="P62">
-        <v>201.43209944675158</v>
+        <v>162.80128585422386</v>
       </c>
       <c r="Q62">
-        <v>259.3783198355431</v>
+        <v>195.91341179067615</v>
       </c>
       <c r="R62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S62">
         <v>4</v>
@@ -4955,7 +4957,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4973,49 +4975,49 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="H63">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I63">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="J63">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K63">
-        <v>7.9136690647482008E-2</v>
+        <v>0.19018404907975461</v>
       </c>
       <c r="L63">
-        <v>4.4387170675830468E-3</v>
+        <v>5.8064516129032262E-3</v>
       </c>
       <c r="M63">
-        <v>52.587755817520488</v>
+        <v>127.08707655900784</v>
       </c>
       <c r="N63">
-        <v>35</v>
+        <v>65.734694771900607</v>
       </c>
       <c r="O63">
-        <v>1.502507309072014</v>
+        <v>1.9333333333333333</v>
       </c>
       <c r="P63">
-        <v>293.61496998115604</v>
+        <v>407.55510758578373</v>
       </c>
       <c r="Q63">
-        <v>359.34966475305669</v>
+        <v>512.73061922082479</v>
       </c>
       <c r="R63">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S63">
         <v>5</v>
       </c>
       <c r="T63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U63">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V63" t="s">
         <v>105</v>
@@ -5023,7 +5025,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -5041,37 +5043,37 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>374</v>
+        <v>271</v>
       </c>
       <c r="H64">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="I64">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="J64">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K64">
-        <v>7.6631977294228951E-2</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="L64">
-        <v>3.9269310332737282E-3</v>
+        <v>3.7127503663898389E-3</v>
       </c>
       <c r="M64">
-        <v>77.18137623415025</v>
+        <v>52.122487846439135</v>
       </c>
       <c r="N64">
-        <v>99.233198015336029</v>
+        <v>71.16724302109958</v>
       </c>
       <c r="O64">
-        <v>0.77777777777777779</v>
+        <v>0.73239436619718323</v>
       </c>
       <c r="P64">
-        <v>392.92336991931035</v>
+        <v>271.63835012278855</v>
       </c>
       <c r="Q64">
-        <v>447.05056883676639</v>
+        <v>331.77968225329522</v>
       </c>
       <c r="R64">
         <v>16</v>
@@ -5091,7 +5093,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -5109,43 +5111,43 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>310</v>
+        <v>219</v>
       </c>
       <c r="H65">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="I65">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="J65">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K65">
-        <v>0.13175675675675674</v>
+        <v>8.7044534412955468E-2</v>
       </c>
       <c r="L65">
-        <v>4.7974068071312808E-3</v>
+        <v>8.0018289894833103E-3</v>
       </c>
       <c r="M65">
-        <v>140.86203860731928</v>
+        <v>75.99136293289591</v>
       </c>
       <c r="N65">
-        <v>107.49997683190155</v>
+        <v>133.44824710167089</v>
       </c>
       <c r="O65">
-        <v>1.3103448275862069</v>
+        <v>0.56944444444444431</v>
       </c>
       <c r="P65">
-        <v>574.56884168774968</v>
+        <v>405.90508493424892</v>
       </c>
       <c r="Q65">
-        <v>607.93090346316728</v>
+        <v>428.14645945119412</v>
       </c>
       <c r="R65">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="S65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T65">
         <v>5</v>
@@ -5154,12 +5156,12 @@
         <v>5</v>
       </c>
       <c r="V65" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -5177,43 +5179,43 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="H66">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I66">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K66">
-        <v>5.0387596899224806E-2</v>
+        <v>3.8095238095238099E-2</v>
       </c>
       <c r="L66">
-        <v>1.7689722271360339E-3</v>
+        <v>1.0845986984815619E-3</v>
       </c>
       <c r="M66">
-        <v>58.445353594389239</v>
+        <v>43.834015195791935</v>
       </c>
       <c r="N66">
-        <v>63.315799727255019</v>
+        <v>53.574907461523473</v>
       </c>
       <c r="O66">
-        <v>0.92307692307692291</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="P66">
-        <v>180.2065069160335</v>
+        <v>165.59516851743621</v>
       </c>
       <c r="Q66">
-        <v>224.04052211182542</v>
+        <v>194.81784531463083</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T66">
         <v>4</v>
@@ -5222,12 +5224,12 @@
         <v>4</v>
       </c>
       <c r="V66" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -5245,57 +5247,57 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="H67">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I67">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="J67">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K67">
-        <v>0.11959287531806616</v>
+        <v>0.12012987012987013</v>
       </c>
       <c r="L67">
-        <v>2.4274650329441684E-3</v>
+        <v>5.4054054054054057E-3</v>
       </c>
       <c r="M67">
-        <v>141.26028743397617</v>
+        <v>113.62240510993736</v>
       </c>
       <c r="N67">
-        <v>128.97678417884782</v>
+        <v>135.11853580641201</v>
       </c>
       <c r="O67">
-        <v>1.0952380952380951</v>
+        <v>0.84090909090909083</v>
       </c>
       <c r="P67">
-        <v>426.85173811571065</v>
+        <v>350.07984277115833</v>
       </c>
       <c r="Q67">
-        <v>518.97801252917338</v>
+        <v>405.35560741923598</v>
       </c>
       <c r="R67">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S67">
         <v>4</v>
       </c>
       <c r="T67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -5313,40 +5315,40 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H68">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I68">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="J68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>2.8340080971659919E-2</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="L68">
-        <v>1.1188463451019394E-3</v>
+        <v>3.1957390146471372E-3</v>
       </c>
       <c r="M68">
-        <v>17.110713445456039</v>
+        <v>8.5553567227280194</v>
       </c>
       <c r="N68">
-        <v>24.240177381062718</v>
+        <v>14.258927871213363</v>
       </c>
       <c r="O68">
-        <v>0.70588235294117652</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="P68">
-        <v>102.66428067273621</v>
+        <v>68.442853781824155</v>
       </c>
       <c r="Q68">
-        <v>111.21963739546425</v>
+        <v>68.442853781824155</v>
       </c>
       <c r="R68">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S68">
         <v>2</v>
@@ -5355,15 +5357,15 @@
         <v>3</v>
       </c>
       <c r="U68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V68" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -5381,40 +5383,40 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>245</v>
+        <v>138</v>
       </c>
       <c r="H69">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="I69">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="J69">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K69">
-        <v>6.5430752453653221E-2</v>
+        <v>8.1790123456790126E-2</v>
       </c>
       <c r="L69">
-        <v>1.6101173921953219E-3</v>
+        <v>1.0651896037494673E-3</v>
       </c>
       <c r="M69">
-        <v>53.154632521143206</v>
+        <v>46.510303456000308</v>
       </c>
       <c r="N69">
-        <v>59.798961586286111</v>
+        <v>45.561113589551319</v>
       </c>
       <c r="O69">
-        <v>0.88888888888888884</v>
+        <v>1.0208333333333335</v>
       </c>
       <c r="P69">
-        <v>232.55151728000155</v>
+        <v>137.63253063510294</v>
       </c>
       <c r="Q69">
-        <v>269.56992207151194</v>
+        <v>168.95579622791948</v>
       </c>
       <c r="R69">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S69">
         <v>4</v>
@@ -5431,7 +5433,7 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -5449,40 +5451,40 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="H70">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c r="I70">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="J70">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="K70">
-        <v>8.7187263078089466E-2</v>
+        <v>0.1180637544273908</v>
       </c>
       <c r="L70">
-        <v>3.2597734574705095E-3</v>
+        <v>4.2105263157894736E-3</v>
       </c>
       <c r="M70">
-        <v>96.923762039066389</v>
+        <v>84.699143403508458</v>
       </c>
       <c r="N70">
-        <v>129.2316827187552</v>
+        <v>99.54332317525737</v>
       </c>
       <c r="O70">
-        <v>0.75</v>
+        <v>0.85087719298245612</v>
       </c>
       <c r="P70">
-        <v>474.14056565056802</v>
+        <v>368.48493315753166</v>
       </c>
       <c r="Q70">
-        <v>560.58608314487049</v>
+        <v>420.87615588135139</v>
       </c>
       <c r="R70">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="S70">
         <v>5</v>
@@ -5494,12 +5496,12 @@
         <v>5</v>
       </c>
       <c r="V70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -5517,49 +5519,49 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>257</v>
+        <v>152</v>
       </c>
       <c r="H71">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="I71">
-        <v>160</v>
+        <v>69</v>
       </c>
       <c r="J71">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K71">
-        <v>3.519061583577713E-2</v>
+        <v>5.4961832061068701E-2</v>
       </c>
       <c r="L71">
-        <v>1.1920326078597248E-3</v>
+        <v>2.6159334126040429E-3</v>
       </c>
       <c r="M71">
-        <v>51.338384124359685</v>
+        <v>23.404263350811036</v>
       </c>
       <c r="N71">
-        <v>73.987671238047781</v>
+        <v>45.298574227376193</v>
       </c>
       <c r="O71">
-        <v>0.69387755102040816</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="P71">
-        <v>246.12225330207733</v>
+        <v>120.79619793966985</v>
       </c>
       <c r="Q71">
-        <v>284.62604139534704</v>
+        <v>147.97534247609556</v>
       </c>
       <c r="R71">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V71" t="s">
         <v>107</v>
@@ -5567,7 +5569,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -5585,40 +5587,40 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H72">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I72">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K72">
-        <v>5.8510638297872342E-2</v>
+        <v>0.19</v>
       </c>
       <c r="L72">
-        <v>1.5267175572519084E-3</v>
+        <v>2.5848142164781908E-3</v>
       </c>
       <c r="M72">
-        <v>62.956434147569887</v>
+        <v>88</v>
       </c>
       <c r="N72">
-        <v>151.09544195416771</v>
+        <v>50</v>
       </c>
       <c r="O72">
-        <v>0.41666666666666674</v>
+        <v>1.76</v>
       </c>
       <c r="P72">
-        <v>314.78217073784941</v>
+        <v>283.30395366406447</v>
       </c>
       <c r="Q72">
-        <v>409.21682195920425</v>
+        <v>396.62553512969021</v>
       </c>
       <c r="R72">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S72">
         <v>4</v>
@@ -5630,12 +5632,12 @@
         <v>5</v>
       </c>
       <c r="V72" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -5653,43 +5655,43 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="H73">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="I73">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="J73">
+        <v>6</v>
+      </c>
+      <c r="K73">
+        <v>6.7961165048543687E-2</v>
+      </c>
+      <c r="L73">
+        <v>2.8776978417266188E-3</v>
+      </c>
+      <c r="M73">
+        <v>44.223327805417362</v>
+      </c>
+      <c r="N73">
+        <v>85.682697622996102</v>
+      </c>
+      <c r="O73">
+        <v>0.51612903225806472</v>
+      </c>
+      <c r="P73">
+        <v>281.92371475953564</v>
+      </c>
+      <c r="Q73">
+        <v>331.6749585406302</v>
+      </c>
+      <c r="R73">
         <v>11</v>
       </c>
-      <c r="K73">
-        <v>0.11567164179104478</v>
-      </c>
-      <c r="L73">
-        <v>2.2219479076657201E-3</v>
-      </c>
-      <c r="M73">
-        <v>85.68269762299613</v>
-      </c>
-      <c r="N73">
-        <v>102.26644555002764</v>
-      </c>
-      <c r="O73">
-        <v>0.83783783783783783</v>
-      </c>
-      <c r="P73">
-        <v>475.4007739082366</v>
-      </c>
-      <c r="Q73">
-        <v>566.61138750690986</v>
-      </c>
-      <c r="R73">
-        <v>17</v>
-      </c>
       <c r="S73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T73">
         <v>5</v>
@@ -5698,12 +5700,12 @@
         <v>5</v>
       </c>
       <c r="V73" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -5721,57 +5723,57 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="H74">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I74">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K74">
-        <v>5.9322033898305086E-2</v>
+        <v>4.1580041580041582E-2</v>
       </c>
       <c r="L74">
-        <v>1.4557155991418939E-3</v>
+        <v>5.0137879167711202E-4</v>
       </c>
       <c r="M74">
+        <v>41.405010006210752</v>
+      </c>
+      <c r="N74">
         <v>59.807236675637746</v>
       </c>
-      <c r="N74">
-        <v>73.608906677708006</v>
-      </c>
       <c r="O74">
-        <v>0.81249999999999989</v>
+        <v>0.6923076923076924</v>
       </c>
       <c r="P74">
-        <v>255.33089503829964</v>
+        <v>181.72198836059161</v>
       </c>
       <c r="Q74">
-        <v>276.033400041405</v>
+        <v>223.12699836680238</v>
       </c>
       <c r="R74">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S74">
         <v>4</v>
       </c>
       <c r="T74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U74">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -5789,43 +5791,43 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>422</v>
+        <v>317</v>
       </c>
       <c r="H75">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="I75">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="J75">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>9.274873524451939E-2</v>
+        <v>0.1681260945709282</v>
       </c>
       <c r="L75">
-        <v>4.75349150260811E-3</v>
+        <v>5.4200542005420054E-3</v>
       </c>
       <c r="M75">
-        <v>127.52812118885925</v>
+        <v>112.67047600180767</v>
       </c>
       <c r="N75">
         <v>128.7662582877802</v>
       </c>
       <c r="O75">
-        <v>0.99038461538461542</v>
+        <v>0.875</v>
       </c>
       <c r="P75">
-        <v>522.49385574464657</v>
+        <v>404.87083134715505</v>
       </c>
       <c r="Q75">
-        <v>652.49825113134784</v>
+        <v>557.16169451443363</v>
       </c>
       <c r="R75">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="S75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T75">
         <v>5</v>
@@ -5834,12 +5836,12 @@
         <v>5</v>
       </c>
       <c r="V75" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -5857,49 +5859,49 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I76">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J76">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K76">
-        <v>5.9880239520958084E-2</v>
+        <v>1.4814814814814815E-2</v>
       </c>
       <c r="L76">
-        <v>2.9416854127011596E-3</v>
+        <v>5.422153369481022E-3</v>
       </c>
       <c r="M76">
+        <v>11.471178663607686</v>
+      </c>
+      <c r="N76">
         <v>34.413535990823057</v>
       </c>
-      <c r="N76">
-        <v>61.179619539240989</v>
-      </c>
       <c r="O76">
-        <v>0.5625</v>
+        <v>0.33333333333333337</v>
       </c>
       <c r="P76">
-        <v>267.6608354841793</v>
+        <v>137.65414396329223</v>
       </c>
       <c r="Q76">
-        <v>313.54555013861005</v>
+        <v>160.5965012905076</v>
       </c>
       <c r="R76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V76" t="s">
         <v>107</v>
@@ -5907,7 +5909,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5925,49 +5927,49 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="H77">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="I77">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="J77">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K77">
-        <v>4.6116504854368932E-2</v>
+        <v>5.6818181818181816E-2</v>
       </c>
       <c r="L77">
-        <v>1.542294459603749E-3</v>
+        <v>1.8932222642938281E-3</v>
       </c>
       <c r="M77">
-        <v>32.009218654972628</v>
+        <v>25.607374923978107</v>
       </c>
       <c r="N77">
-        <v>91.759760144254884</v>
+        <v>34.143166565304142</v>
       </c>
       <c r="O77">
-        <v>0.34883720930232553</v>
+        <v>0.75</v>
       </c>
       <c r="P77">
-        <v>253.93980132944952</v>
+        <v>134.43871835088504</v>
       </c>
       <c r="Q77">
-        <v>330.76192610138384</v>
+        <v>166.44793700585768</v>
       </c>
       <c r="R77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V77" t="s">
         <v>107</v>
@@ -5975,7 +5977,7 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -5993,40 +5995,40 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>687</v>
+        <v>453</v>
       </c>
       <c r="H78">
-        <v>357</v>
+        <v>249</v>
       </c>
       <c r="I78">
-        <v>418</v>
+        <v>245</v>
       </c>
       <c r="J78">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K78">
-        <v>3.1208499335989376E-2</v>
+        <v>5.8788947677836566E-2</v>
       </c>
       <c r="L78">
-        <v>3.2391544496245951E-3</v>
+        <v>5.6714745833916815E-3</v>
       </c>
       <c r="M78">
-        <v>101.87100978847529</v>
+        <v>65.172136696974874</v>
       </c>
       <c r="N78">
-        <v>124.01688148162208</v>
+        <v>92.379921919983801</v>
       </c>
       <c r="O78">
-        <v>0.82142857142857151</v>
+        <v>0.70547945205479456</v>
       </c>
       <c r="P78">
-        <v>490.37287320539343</v>
+        <v>312.57316046898632</v>
       </c>
       <c r="Q78">
-        <v>570.09801130072196</v>
+        <v>354.33394709034883</v>
       </c>
       <c r="R78">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="S78">
         <v>4</v>
@@ -6043,7 +6045,7 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -6061,43 +6063,43 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H79">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I79">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J79">
         <v>1</v>
       </c>
       <c r="K79">
-        <v>1.5957446808510637E-2</v>
+        <v>5.46875E-2</v>
       </c>
       <c r="L79">
-        <v>2.3913909924272618E-4</v>
+        <v>3.4385745545482964E-3</v>
       </c>
       <c r="M79">
-        <v>17.253065500030811</v>
+        <v>22.182512785753897</v>
       </c>
       <c r="N79">
         <v>14.788341857169266</v>
       </c>
       <c r="O79">
-        <v>1.1666666666666667</v>
+        <v>1.4999999999999998</v>
       </c>
       <c r="P79">
-        <v>69.012262000123243</v>
+        <v>81.335880214430958</v>
       </c>
       <c r="Q79">
-        <v>76.406432928707872</v>
+        <v>88.730051143015586</v>
       </c>
       <c r="R79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T79">
         <v>4</v>
@@ -6106,12 +6108,12 @@
         <v>4</v>
       </c>
       <c r="V79" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>44326</v>
+        <v>44333</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -6129,52 +6131,52 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="H80">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I80">
-        <v>190</v>
+        <v>135</v>
       </c>
       <c r="J80">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K80">
-        <v>3.6383682469680267E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
       <c r="L80">
-        <v>3.6785837452580758E-3</v>
+        <v>3.5046728971962616E-3</v>
       </c>
       <c r="M80">
         <v>37.813506693717869</v>
       </c>
       <c r="N80">
-        <v>47.994066188180369</v>
+        <v>40.722237977850007</v>
       </c>
       <c r="O80">
-        <v>0.78787878787878796</v>
+        <v>0.92857142857142871</v>
       </c>
       <c r="P80">
-        <v>362.13704487445193</v>
+        <v>283.60130020288403</v>
       </c>
       <c r="Q80">
-        <v>431.94659569362329</v>
+        <v>314.14297868627148</v>
       </c>
       <c r="R80">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="S80">
         <v>4</v>
       </c>
       <c r="T80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U80">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -6183,18 +6185,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6409,18 +6411,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F8C190CE-98B3-4744-852E-22D296615E2B}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D6305570-E2DC-4C51-ABA3-F8DC15C45C73}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="-110" windowWidth="18350" windowHeight="11020" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -733,13 +733,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -807,9 +805,9 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -827,57 +825,57 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I2">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.0246913580246909E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="L2">
-        <v>3.1133250311332502E-3</v>
+        <v>1.6173177407315252E-3</v>
       </c>
       <c r="M2">
-        <v>33.074707495555586</v>
+        <v>35.830933120185222</v>
       </c>
       <c r="N2">
-        <v>49.612061243333379</v>
+        <v>38.58715874481485</v>
       </c>
       <c r="O2">
-        <v>0.66666666666666663</v>
+        <v>0.92857142857142871</v>
       </c>
       <c r="P2">
-        <v>192.93579372407424</v>
+        <v>71.661866240370443</v>
       </c>
       <c r="Q2">
-        <v>226.01050121962984</v>
+        <v>71.661866240370443</v>
       </c>
       <c r="R2">
         <v>9</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -895,57 +893,57 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>150</v>
+        <v>47</v>
       </c>
       <c r="I3">
-        <v>164</v>
+        <v>38</v>
       </c>
       <c r="J3">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="K3">
-        <v>6.5395095367847406E-2</v>
+        <v>6.5351418002466091E-2</v>
       </c>
       <c r="L3">
-        <v>4.5102659037361157E-3</v>
+        <v>2.4506642589965173E-3</v>
       </c>
       <c r="M3">
-        <v>47.821634326910498</v>
+        <v>42.407864403109308</v>
       </c>
       <c r="N3">
-        <v>87.522613768119214</v>
+        <v>56.844584199912482</v>
       </c>
       <c r="O3">
-        <v>0.54639175257731953</v>
+        <v>0.74603174603174593</v>
       </c>
       <c r="P3">
-        <v>283.32062601226215</v>
+        <v>76.695073920516833</v>
       </c>
       <c r="Q3">
-        <v>334.75144028837349</v>
+        <v>76.695073920516833</v>
       </c>
       <c r="R3">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B4">
         <v>31</v>
@@ -963,37 +961,37 @@
         <v>16086</v>
       </c>
       <c r="G4">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>4.6511627906976744E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="L4">
-        <v>5.9952038369304557E-3</v>
+        <v>1.098901098901099E-2</v>
       </c>
       <c r="M4">
+        <v>37.299515106303623</v>
+      </c>
+      <c r="N4">
         <v>55.949272659455424</v>
       </c>
-      <c r="N4">
-        <v>31.082929255253013</v>
-      </c>
       <c r="O4">
-        <v>1.8</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="P4">
-        <v>267.31319159517591</v>
+        <v>192.7141613825687</v>
       </c>
       <c r="Q4">
-        <v>360.56197936093497</v>
+        <v>192.7141613825687</v>
       </c>
       <c r="R4">
         <v>6</v>
@@ -1008,12 +1006,12 @@
         <v>5</v>
       </c>
       <c r="V4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1031,37 +1029,37 @@
         <v>77771</v>
       </c>
       <c r="G5">
-        <v>291</v>
+        <v>74</v>
       </c>
       <c r="H5">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="I5">
-        <v>194</v>
+        <v>88</v>
       </c>
       <c r="J5">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>0.1123076923076923</v>
+        <v>6.9466882067851371E-2</v>
       </c>
       <c r="L5">
-        <v>6.1021404431092757E-3</v>
+        <v>5.1700840138652251E-3</v>
       </c>
       <c r="M5">
-        <v>87.43619086806136</v>
+        <v>45.003921770325704</v>
       </c>
       <c r="N5">
-        <v>69.434622159931081</v>
+        <v>90.007843540651407</v>
       </c>
       <c r="O5">
-        <v>1.2592592592592593</v>
+        <v>0.5</v>
       </c>
       <c r="P5">
-        <v>406.32112226922629</v>
+        <v>158.15663936428746</v>
       </c>
       <c r="Q5">
-        <v>537.47540857131833</v>
+        <v>158.15663936428746</v>
       </c>
       <c r="R5">
         <v>18</v>
@@ -1079,9 +1077,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B6">
         <v>64</v>
@@ -1099,57 +1097,57 @@
         <v>41095</v>
       </c>
       <c r="G6">
-        <v>710</v>
+        <v>115</v>
       </c>
       <c r="H6">
-        <v>302</v>
+        <v>67</v>
       </c>
       <c r="I6">
-        <v>463</v>
+        <v>135</v>
       </c>
       <c r="J6">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="K6">
-        <v>7.0012986279713169E-3</v>
+        <v>1.2274645186037591E-2</v>
       </c>
       <c r="L6">
-        <v>2.057797262234947E-3</v>
+        <v>1.5631332136860996E-3</v>
       </c>
       <c r="M6">
-        <v>29.570488652324983</v>
+        <v>15.478302653951356</v>
       </c>
       <c r="N6">
-        <v>40.197383011754269</v>
+        <v>23.563983144821471</v>
       </c>
       <c r="O6">
-        <v>0.73563218390804608</v>
+        <v>0.6568627450980391</v>
       </c>
       <c r="P6">
-        <v>176.72987358616101</v>
+        <v>46.665927404450358</v>
       </c>
       <c r="Q6">
-        <v>194.74939010867155</v>
+        <v>46.665927404450358</v>
       </c>
       <c r="R6">
         <v>39</v>
       </c>
       <c r="S6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B7">
         <v>68</v>
@@ -1167,57 +1165,57 @@
         <v>115653</v>
       </c>
       <c r="G7">
-        <v>710</v>
+        <v>115</v>
       </c>
       <c r="H7">
-        <v>302</v>
+        <v>67</v>
       </c>
       <c r="I7">
-        <v>463</v>
+        <v>135</v>
       </c>
       <c r="J7">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="K7">
-        <v>7.0012986279713169E-3</v>
+        <v>1.2274645186037591E-2</v>
       </c>
       <c r="L7">
-        <v>2.057797262234947E-3</v>
+        <v>1.5631332136860996E-3</v>
       </c>
       <c r="M7">
-        <v>29.570488652324983</v>
+        <v>15.478302653951356</v>
       </c>
       <c r="N7">
-        <v>40.197383011754269</v>
+        <v>23.563983144821471</v>
       </c>
       <c r="O7">
-        <v>0.73563218390804608</v>
+        <v>0.6568627450980391</v>
       </c>
       <c r="P7">
-        <v>176.72987358616101</v>
+        <v>46.665927404450358</v>
       </c>
       <c r="Q7">
-        <v>194.74939010867155</v>
+        <v>46.665927404450358</v>
       </c>
       <c r="R7">
         <v>39</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B8">
         <v>67</v>
@@ -1235,57 +1233,57 @@
         <v>67913</v>
       </c>
       <c r="G8">
-        <v>710</v>
+        <v>115</v>
       </c>
       <c r="H8">
-        <v>302</v>
+        <v>67</v>
       </c>
       <c r="I8">
-        <v>463</v>
+        <v>135</v>
       </c>
       <c r="J8">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="K8">
-        <v>7.0012986279713169E-3</v>
+        <v>1.2274645186037591E-2</v>
       </c>
       <c r="L8">
-        <v>2.057797262234947E-3</v>
+        <v>1.5631332136860996E-3</v>
       </c>
       <c r="M8">
-        <v>29.570488652324983</v>
+        <v>15.478302653951356</v>
       </c>
       <c r="N8">
-        <v>40.197383011754269</v>
+        <v>23.563983144821471</v>
       </c>
       <c r="O8">
-        <v>0.73563218390804608</v>
+        <v>0.6568627450980391</v>
       </c>
       <c r="P8">
-        <v>176.72987358616101</v>
+        <v>46.665927404450358</v>
       </c>
       <c r="Q8">
-        <v>194.74939010867155</v>
+        <v>46.665927404450358</v>
       </c>
       <c r="R8">
         <v>39</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B9">
         <v>66</v>
@@ -1303,57 +1301,57 @@
         <v>97261</v>
       </c>
       <c r="G9">
-        <v>710</v>
+        <v>115</v>
       </c>
       <c r="H9">
-        <v>302</v>
+        <v>67</v>
       </c>
       <c r="I9">
-        <v>463</v>
+        <v>135</v>
       </c>
       <c r="J9">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>7.0012986279713169E-3</v>
+        <v>1.2274645186037591E-2</v>
       </c>
       <c r="L9">
-        <v>2.057797262234947E-3</v>
+        <v>1.5631332136860996E-3</v>
       </c>
       <c r="M9">
-        <v>29.570488652324983</v>
+        <v>15.478302653951356</v>
       </c>
       <c r="N9">
-        <v>40.197383011754269</v>
+        <v>23.563983144821471</v>
       </c>
       <c r="O9">
-        <v>0.73563218390804608</v>
+        <v>0.6568627450980391</v>
       </c>
       <c r="P9">
-        <v>176.72987358616101</v>
+        <v>46.665927404450358</v>
       </c>
       <c r="Q9">
-        <v>194.74939010867155</v>
+        <v>46.665927404450358</v>
       </c>
       <c r="R9">
         <v>39</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -1371,57 +1369,57 @@
         <v>110942</v>
       </c>
       <c r="G10">
-        <v>710</v>
+        <v>115</v>
       </c>
       <c r="H10">
-        <v>302</v>
+        <v>67</v>
       </c>
       <c r="I10">
-        <v>463</v>
+        <v>135</v>
       </c>
       <c r="J10">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="K10">
-        <v>7.0012986279713169E-3</v>
+        <v>1.2274645186037591E-2</v>
       </c>
       <c r="L10">
-        <v>2.057797262234947E-3</v>
+        <v>1.5631332136860996E-3</v>
       </c>
       <c r="M10">
-        <v>29.570488652324983</v>
+        <v>15.478302653951356</v>
       </c>
       <c r="N10">
-        <v>40.197383011754269</v>
+        <v>23.563983144821471</v>
       </c>
       <c r="O10">
-        <v>0.73563218390804608</v>
+        <v>0.6568627450980391</v>
       </c>
       <c r="P10">
-        <v>176.72987358616101</v>
+        <v>46.665927404450358</v>
       </c>
       <c r="Q10">
-        <v>194.74939010867155</v>
+        <v>46.665927404450358</v>
       </c>
       <c r="R10">
         <v>39</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B11">
         <v>28</v>
@@ -1439,43 +1437,43 @@
         <v>61449.5</v>
       </c>
       <c r="G11">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
         <v>15</v>
       </c>
-      <c r="I11">
-        <v>35</v>
-      </c>
       <c r="J11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>6.0483870967741937E-2</v>
+        <v>2.681992337164751E-2</v>
       </c>
       <c r="L11">
-        <v>2.5875796178343948E-3</v>
+        <v>2.8582317073170731E-3</v>
       </c>
       <c r="M11">
+        <v>8.136762707589158</v>
+      </c>
+      <c r="N11">
         <v>17.900877956696149</v>
       </c>
-      <c r="N11">
-        <v>6.5094101660713264</v>
-      </c>
       <c r="O11">
-        <v>2.7500000000000004</v>
+        <v>0.45454545454545447</v>
       </c>
       <c r="P11">
-        <v>81.36762707589159</v>
+        <v>32.547050830356632</v>
       </c>
       <c r="Q11">
-        <v>96.01379994955208</v>
+        <v>32.547050830356632</v>
       </c>
       <c r="R11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T11">
         <v>5</v>
@@ -1484,12 +1482,12 @@
         <v>5</v>
       </c>
       <c r="V11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B12">
         <v>25</v>
@@ -1507,37 +1505,37 @@
         <v>30917</v>
       </c>
       <c r="G12">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="H12">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I12">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K12">
-        <v>0.12878787878787878</v>
+        <v>0.11731843575418995</v>
       </c>
       <c r="L12">
-        <v>1.2110726643598616E-2</v>
+        <v>7.3126142595978062E-3</v>
       </c>
       <c r="M12">
-        <v>48.516997121324835</v>
+        <v>67.923795969854766</v>
       </c>
       <c r="N12">
-        <v>54.985930070834819</v>
+        <v>58.220396545589807</v>
       </c>
       <c r="O12">
-        <v>0.88235294117647045</v>
+        <v>1.1666666666666665</v>
       </c>
       <c r="P12">
-        <v>359.02577869780379</v>
+        <v>148.78545783872949</v>
       </c>
       <c r="Q12">
-        <v>397.83937639486362</v>
+        <v>148.78545783872949</v>
       </c>
       <c r="R12">
         <v>6</v>
@@ -1546,18 +1544,18 @@
         <v>4</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B13">
         <v>59</v>
@@ -1575,37 +1573,37 @@
         <v>90080</v>
       </c>
       <c r="G13">
-        <v>303</v>
+        <v>107</v>
       </c>
       <c r="H13">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="I13">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K13">
-        <v>0.10655737704918032</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="L13">
-        <v>3.6621781508817397E-3</v>
+        <v>3.0517648413658088E-3</v>
       </c>
       <c r="M13">
-        <v>37.744227353463586</v>
+        <v>47.735346358792185</v>
       </c>
       <c r="N13">
-        <v>63.277087033747783</v>
+        <v>46.625222024866787</v>
       </c>
       <c r="O13">
-        <v>0.59649122807017541</v>
+        <v>1.0238095238095237</v>
       </c>
       <c r="P13">
-        <v>336.36767317939609</v>
+        <v>118.78330373001776</v>
       </c>
       <c r="Q13">
-        <v>359.68028419182946</v>
+        <v>118.78330373001776</v>
       </c>
       <c r="R13">
         <v>34</v>
@@ -1623,9 +1621,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B14">
         <v>69</v>
@@ -1643,43 +1641,43 @@
         <v>32051</v>
       </c>
       <c r="G14">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>6.9306930693069313E-2</v>
+        <v>5.7142857142857141E-2</v>
       </c>
       <c r="L14">
-        <v>3.3484812245874193E-3</v>
+        <v>3.5721790292078167E-3</v>
       </c>
       <c r="M14">
         <v>18.720164737449689</v>
       </c>
       <c r="N14">
-        <v>53.040466756107449</v>
+        <v>24.96021964993292</v>
       </c>
       <c r="O14">
-        <v>0.35294117647058826</v>
+        <v>0.75</v>
       </c>
       <c r="P14">
-        <v>193.44170228698013</v>
+        <v>71.760631493557142</v>
       </c>
       <c r="Q14">
-        <v>277.68244360550375</v>
+        <v>71.760631493557142</v>
       </c>
       <c r="R14">
         <v>7</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T14">
         <v>4</v>
@@ -1688,12 +1686,12 @@
         <v>4</v>
       </c>
       <c r="V14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B15">
         <v>55</v>
@@ -1711,57 +1709,57 @@
         <v>39456.5</v>
       </c>
       <c r="G15">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="I15">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>8.0745341614906832E-2</v>
+        <v>5.5248618784530384E-2</v>
       </c>
       <c r="L15">
-        <v>3.0840400925212026E-3</v>
+        <v>2.1002520302436292E-3</v>
       </c>
       <c r="M15">
-        <v>30.413239897101871</v>
+        <v>20.275493264734582</v>
       </c>
       <c r="N15">
-        <v>70.964226426571031</v>
+        <v>35.482113213285515</v>
       </c>
       <c r="O15">
-        <v>0.4285714285714286</v>
+        <v>0.57142857142857151</v>
       </c>
       <c r="P15">
-        <v>261.04697578345775</v>
+        <v>58.292043136111928</v>
       </c>
       <c r="Q15">
-        <v>276.25359573200865</v>
+        <v>58.292043136111928</v>
       </c>
       <c r="R15">
         <v>5</v>
       </c>
       <c r="S15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1779,57 +1777,57 @@
         <v>122358</v>
       </c>
       <c r="G16">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="H16">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I16">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>3.5820895522388062E-2</v>
+        <v>3.3628318584070796E-2</v>
       </c>
       <c r="L16">
-        <v>7.2542618788538264E-4</v>
+        <v>4.5512470416894229E-4</v>
       </c>
       <c r="M16">
-        <v>15.528204122329559</v>
+        <v>13.076382418803837</v>
       </c>
       <c r="N16">
-        <v>38.411873355236274</v>
+        <v>23.700943134081957</v>
       </c>
       <c r="O16">
-        <v>0.4042553191489362</v>
+        <v>0.55172413793103436</v>
       </c>
       <c r="P16">
-        <v>95.621046437503054</v>
+        <v>21.249121430556237</v>
       </c>
       <c r="Q16">
-        <v>120.13926347276026</v>
+        <v>21.249121430556237</v>
       </c>
       <c r="R16">
         <v>6</v>
       </c>
       <c r="S16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -1847,43 +1845,43 @@
         <v>94076</v>
       </c>
       <c r="G17">
-        <v>152</v>
+        <v>56</v>
       </c>
       <c r="H17">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I17">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="J17">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>5.0381679389312976E-2</v>
+        <v>8.0378250591016553E-2</v>
       </c>
       <c r="L17">
-        <v>2.9096680333289249E-3</v>
+        <v>2.554278416347382E-3</v>
       </c>
       <c r="M17">
-        <v>29.763170202814745</v>
+        <v>31.889110931587229</v>
       </c>
       <c r="N17">
-        <v>34.01505166035971</v>
+        <v>30.826140567200987</v>
       </c>
       <c r="O17">
-        <v>0.875</v>
+        <v>1.0344827586206897</v>
       </c>
       <c r="P17">
-        <v>161.57149538670862</v>
+        <v>59.52634040562949</v>
       </c>
       <c r="Q17">
-        <v>193.46060631829585</v>
+        <v>59.52634040562949</v>
       </c>
       <c r="R17">
         <v>13</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T17">
         <v>4</v>
@@ -1892,12 +1890,12 @@
         <v>4</v>
       </c>
       <c r="V17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B18">
         <v>74</v>
@@ -1915,43 +1913,43 @@
         <v>31868</v>
       </c>
       <c r="G18">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I18">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K18">
-        <v>0.10948905109489052</v>
+        <v>4.0404040404040407E-2</v>
       </c>
       <c r="L18">
-        <v>2.7855153203342618E-3</v>
+        <v>3.4078000757288905E-3</v>
       </c>
       <c r="M18">
+        <v>15.689720095393497</v>
+      </c>
+      <c r="N18">
         <v>34.517384209865696</v>
       </c>
-      <c r="N18">
-        <v>62.758880381573988</v>
-      </c>
       <c r="O18">
-        <v>0.55000000000000004</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="P18">
-        <v>191.41458516380067</v>
+        <v>43.931216267101796</v>
       </c>
       <c r="Q18">
-        <v>219.65608133550896</v>
+        <v>43.931216267101796</v>
       </c>
       <c r="R18">
         <v>10</v>
       </c>
       <c r="S18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>4</v>
@@ -1960,12 +1958,12 @@
         <v>4</v>
       </c>
       <c r="V18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B19">
         <v>61</v>
@@ -1983,37 +1981,37 @@
         <v>45012.5</v>
       </c>
       <c r="G19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>2</v>
       </c>
       <c r="K19">
-        <v>1.5228426395939087E-2</v>
+        <v>2.6178010471204188E-2</v>
       </c>
       <c r="L19">
-        <v>5.9400059400059396E-4</v>
+        <v>3.6456434560699962E-4</v>
       </c>
       <c r="M19">
+        <v>8.8864204387670078</v>
+      </c>
+      <c r="N19">
         <v>2.221605109691752</v>
       </c>
-      <c r="N19">
-        <v>26.659261316301027</v>
-      </c>
       <c r="O19">
-        <v>8.3333333333333329E-2</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>51.096917522910303</v>
+        <v>11.108025548458761</v>
       </c>
       <c r="Q19">
-        <v>64.426548181060824</v>
+        <v>11.108025548458761</v>
       </c>
       <c r="R19">
         <v>3</v>
@@ -2022,18 +2020,18 @@
         <v>2</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B20">
         <v>9</v>
@@ -2051,57 +2049,57 @@
         <v>61985.5</v>
       </c>
       <c r="G20">
-        <v>194</v>
+        <v>36</v>
       </c>
       <c r="H20">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="I20">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="J20">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>0.11873350923482849</v>
+        <v>5.2147239263803678E-2</v>
       </c>
       <c r="L20">
-        <v>7.1595330739299612E-3</v>
+        <v>5.2774018944519623E-3</v>
       </c>
       <c r="M20">
-        <v>67.757782061933838</v>
+        <v>20.972646828693808</v>
       </c>
       <c r="N20">
-        <v>77.437465213638674</v>
+        <v>53.238257334376591</v>
       </c>
       <c r="O20">
-        <v>0.875</v>
+        <v>0.39393939393939392</v>
       </c>
       <c r="P20">
-        <v>327.49594663268022</v>
+        <v>83.890587314775232</v>
       </c>
       <c r="Q20">
-        <v>380.73420396705683</v>
+        <v>83.890587314775232</v>
       </c>
       <c r="R20">
         <v>12</v>
       </c>
       <c r="S20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -2119,57 +2117,57 @@
         <v>59187.5</v>
       </c>
       <c r="G21">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="I21">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="J21">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K21">
-        <v>7.8688524590163941E-2</v>
+        <v>5.1671732522796353E-2</v>
       </c>
       <c r="L21">
-        <v>2.3135976443369437E-3</v>
+        <v>3.7490627343164211E-3</v>
       </c>
       <c r="M21">
         <v>33.790918690601899</v>
       </c>
       <c r="N21">
-        <v>69.2713833157339</v>
+        <v>40.549102428722279</v>
       </c>
       <c r="O21">
-        <v>0.48780487804878042</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P21">
-        <v>228.08870116156282</v>
+        <v>84.477296726504747</v>
       </c>
       <c r="Q21">
-        <v>268.6378035902851</v>
+        <v>84.477296726504747</v>
       </c>
       <c r="R21">
         <v>25</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -2187,37 +2185,37 @@
         <v>75235</v>
       </c>
       <c r="G22">
-        <v>276</v>
+        <v>60</v>
       </c>
       <c r="H22">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="I22">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="J22">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>0.13090909090909092</v>
+        <v>9.45945945945946E-2</v>
       </c>
       <c r="L22">
-        <v>5.8372439052306281E-3</v>
+        <v>5.107624954396206E-3</v>
       </c>
       <c r="M22">
-        <v>94.370970957665989</v>
+        <v>58.483418621652156</v>
       </c>
       <c r="N22">
-        <v>90.383465142553334</v>
+        <v>95.700139562703527</v>
       </c>
       <c r="O22">
-        <v>1.0441176470588236</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="P22">
-        <v>431.97979663720349</v>
+        <v>123.61268026849207</v>
       </c>
       <c r="Q22">
-        <v>487.80487804878049</v>
+        <v>123.61268026849207</v>
       </c>
       <c r="R22">
         <v>13</v>
@@ -2226,18 +2224,18 @@
         <v>4</v>
       </c>
       <c r="T22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B23">
         <v>14</v>
@@ -2255,43 +2253,43 @@
         <v>101711.5</v>
       </c>
       <c r="G23">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="H23">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="I23">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="J23">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>8.8105726872246701E-2</v>
+        <v>2.7624309392265192E-2</v>
       </c>
       <c r="L23">
-        <v>2.8203062046736503E-3</v>
+        <v>2.0931449502878076E-3</v>
       </c>
       <c r="M23">
-        <v>44.242784739188785</v>
+        <v>9.8317299420419513</v>
       </c>
       <c r="N23">
-        <v>35.394227791351028</v>
+        <v>42.276438750780393</v>
       </c>
       <c r="O23">
-        <v>1.25</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="P23">
-        <v>190.73556087561388</v>
+        <v>37.36057377975942</v>
       </c>
       <c r="Q23">
-        <v>220.23075070173974</v>
+        <v>37.36057377975942</v>
       </c>
       <c r="R23">
         <v>6</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>4</v>
@@ -2300,12 +2298,12 @@
         <v>4</v>
       </c>
       <c r="V23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B24">
         <v>76</v>
@@ -2323,43 +2321,43 @@
         <v>67513</v>
       </c>
       <c r="G24">
-        <v>559</v>
+        <v>161</v>
       </c>
       <c r="H24">
-        <v>383</v>
+        <v>150</v>
       </c>
       <c r="I24">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="J24">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K24">
-        <v>8.3591331269349839E-2</v>
+        <v>7.1599045346062054E-2</v>
       </c>
       <c r="L24">
-        <v>2.7124980055161724E-3</v>
+        <v>1.6048466368432668E-3</v>
       </c>
       <c r="M24">
-        <v>48.069219676333923</v>
+        <v>40.736626844350781</v>
       </c>
       <c r="N24">
-        <v>55.944967532908407</v>
+        <v>53.772347434543029</v>
       </c>
       <c r="O24">
-        <v>0.85922330097087374</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="P24">
-        <v>183.31482079957851</v>
+        <v>62.462827828004528</v>
       </c>
       <c r="Q24">
-        <v>208.57152944307597</v>
+        <v>62.462827828004528</v>
       </c>
       <c r="R24">
         <v>98</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T24">
         <v>4</v>
@@ -2368,12 +2366,12 @@
         <v>4</v>
       </c>
       <c r="V24" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B25">
         <v>79</v>
@@ -2391,43 +2389,43 @@
         <v>82287.5</v>
       </c>
       <c r="G25">
-        <v>559</v>
+        <v>161</v>
       </c>
       <c r="H25">
-        <v>383</v>
+        <v>150</v>
       </c>
       <c r="I25">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="J25">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K25">
-        <v>8.3591331269349839E-2</v>
+        <v>7.1599045346062054E-2</v>
       </c>
       <c r="L25">
-        <v>2.7124980055161724E-3</v>
+        <v>1.6048466368432668E-3</v>
       </c>
       <c r="M25">
-        <v>48.069219676333923</v>
+        <v>40.736626844350781</v>
       </c>
       <c r="N25">
-        <v>55.944967532908407</v>
+        <v>53.772347434543029</v>
       </c>
       <c r="O25">
-        <v>0.85922330097087374</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="P25">
-        <v>183.31482079957851</v>
+        <v>62.462827828004528</v>
       </c>
       <c r="Q25">
-        <v>208.57152944307597</v>
+        <v>62.462827828004528</v>
       </c>
       <c r="R25">
         <v>98</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T25">
         <v>4</v>
@@ -2436,12 +2434,12 @@
         <v>4</v>
       </c>
       <c r="V25" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B26">
         <v>78</v>
@@ -2459,43 +2457,43 @@
         <v>28748.5</v>
       </c>
       <c r="G26">
-        <v>559</v>
+        <v>161</v>
       </c>
       <c r="H26">
-        <v>383</v>
+        <v>150</v>
       </c>
       <c r="I26">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="J26">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K26">
-        <v>8.3591331269349839E-2</v>
+        <v>7.1599045346062054E-2</v>
       </c>
       <c r="L26">
-        <v>2.7124980055161724E-3</v>
+        <v>1.6048466368432668E-3</v>
       </c>
       <c r="M26">
-        <v>48.069219676333923</v>
+        <v>40.736626844350781</v>
       </c>
       <c r="N26">
-        <v>55.944967532908407</v>
+        <v>53.772347434543029</v>
       </c>
       <c r="O26">
-        <v>0.85922330097087374</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="P26">
-        <v>183.31482079957851</v>
+        <v>62.462827828004528</v>
       </c>
       <c r="Q26">
-        <v>208.57152944307597</v>
+        <v>62.462827828004528</v>
       </c>
       <c r="R26">
         <v>98</v>
       </c>
       <c r="S26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T26">
         <v>4</v>
@@ -2504,12 +2502,12 @@
         <v>4</v>
       </c>
       <c r="V26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B27">
         <v>77</v>
@@ -2527,43 +2525,43 @@
         <v>60126</v>
       </c>
       <c r="G27">
-        <v>559</v>
+        <v>161</v>
       </c>
       <c r="H27">
-        <v>383</v>
+        <v>150</v>
       </c>
       <c r="I27">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="J27">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K27">
-        <v>8.3591331269349839E-2</v>
+        <v>7.1599045346062054E-2</v>
       </c>
       <c r="L27">
-        <v>2.7124980055161724E-3</v>
+        <v>1.6048466368432668E-3</v>
       </c>
       <c r="M27">
-        <v>48.069219676333923</v>
+        <v>40.736626844350781</v>
       </c>
       <c r="N27">
-        <v>55.944967532908407</v>
+        <v>53.772347434543029</v>
       </c>
       <c r="O27">
-        <v>0.85922330097087374</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="P27">
-        <v>183.31482079957851</v>
+        <v>62.462827828004528</v>
       </c>
       <c r="Q27">
-        <v>208.57152944307597</v>
+        <v>62.462827828004528</v>
       </c>
       <c r="R27">
         <v>98</v>
       </c>
       <c r="S27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T27">
         <v>4</v>
@@ -2572,12 +2570,12 @@
         <v>4</v>
       </c>
       <c r="V27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -2595,43 +2593,43 @@
         <v>129543.5</v>
       </c>
       <c r="G28">
-        <v>559</v>
+        <v>161</v>
       </c>
       <c r="H28">
-        <v>383</v>
+        <v>150</v>
       </c>
       <c r="I28">
-        <v>292</v>
+        <v>80</v>
       </c>
       <c r="J28">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="K28">
-        <v>8.3591331269349839E-2</v>
+        <v>7.1599045346062054E-2</v>
       </c>
       <c r="L28">
-        <v>2.7124980055161724E-3</v>
+        <v>1.6048466368432668E-3</v>
       </c>
       <c r="M28">
-        <v>48.069219676333923</v>
+        <v>40.736626844350781</v>
       </c>
       <c r="N28">
-        <v>55.944967532908407</v>
+        <v>53.772347434543029</v>
       </c>
       <c r="O28">
-        <v>0.85922330097087374</v>
+        <v>0.75757575757575757</v>
       </c>
       <c r="P28">
-        <v>183.31482079957851</v>
+        <v>62.462827828004528</v>
       </c>
       <c r="Q28">
-        <v>208.57152944307597</v>
+        <v>62.462827828004528</v>
       </c>
       <c r="R28">
         <v>98</v>
       </c>
       <c r="S28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T28">
         <v>4</v>
@@ -2640,12 +2638,12 @@
         <v>4</v>
       </c>
       <c r="V28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B29">
         <v>30</v>
@@ -2663,43 +2661,43 @@
         <v>22182</v>
       </c>
       <c r="G29">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>5.8823529411764705E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="L29">
-        <v>2.384358607534573E-3</v>
+        <v>1.7834394904458599E-3</v>
       </c>
       <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
         <v>13.52447930754666</v>
       </c>
-      <c r="N29">
-        <v>9.0163195383644403</v>
-      </c>
       <c r="O29">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>144.26111261383105</v>
+        <v>31.557118384275537</v>
       </c>
       <c r="Q29">
-        <v>157.78559192137769</v>
+        <v>31.557118384275537</v>
       </c>
       <c r="R29">
         <v>4</v>
       </c>
       <c r="S29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T29">
         <v>5</v>
@@ -2708,12 +2706,12 @@
         <v>5</v>
       </c>
       <c r="V29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B30">
         <v>73</v>
@@ -2731,37 +2729,37 @@
         <v>32914</v>
       </c>
       <c r="G30">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="H30">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="I30">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30">
-        <v>6.6666666666666666E-2</v>
+        <v>0.08</v>
       </c>
       <c r="L30">
-        <v>7.4096943501080577E-3</v>
+        <v>8.9912280701754388E-3</v>
       </c>
       <c r="M30">
-        <v>48.611533086224703</v>
+        <v>82.031962083004188</v>
       </c>
       <c r="N30">
-        <v>112.41417026189463</v>
+        <v>57.72619553989184</v>
       </c>
       <c r="O30">
-        <v>0.43243243243243246</v>
+        <v>1.4210526315789473</v>
       </c>
       <c r="P30">
-        <v>613.72060521358696</v>
+        <v>218.75189888801117</v>
       </c>
       <c r="Q30">
-        <v>631.94993012092118</v>
+        <v>218.75189888801117</v>
       </c>
       <c r="R30">
         <v>18</v>
@@ -2776,12 +2774,12 @@
         <v>5</v>
       </c>
       <c r="V30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B31">
         <v>20</v>
@@ -2799,43 +2797,43 @@
         <v>110824</v>
       </c>
       <c r="G31">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="H31">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="I31">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="J31">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>5.8394160583941604E-2</v>
+        <v>3.7254901960784313E-2</v>
       </c>
       <c r="L31">
-        <v>2.3962668684575608E-3</v>
+        <v>1.3947001394700139E-3</v>
       </c>
       <c r="M31">
-        <v>23.460622247888544</v>
+        <v>11.730311123944272</v>
       </c>
       <c r="N31">
         <v>26.167617122644916</v>
       </c>
       <c r="O31">
-        <v>0.89655172413793094</v>
+        <v>0.44827586206896547</v>
       </c>
       <c r="P31">
-        <v>111.88912148992999</v>
+        <v>27.972280372482498</v>
       </c>
       <c r="Q31">
-        <v>168.73601385981377</v>
+        <v>27.972280372482498</v>
       </c>
       <c r="R31">
         <v>12</v>
       </c>
       <c r="S31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T31">
         <v>4</v>
@@ -2844,12 +2842,12 @@
         <v>4</v>
       </c>
       <c r="V31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B32">
         <v>36</v>
@@ -2867,37 +2865,37 @@
         <v>33702</v>
       </c>
       <c r="G32">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="H32">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="I32">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="J32">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K32">
-        <v>8.1081081081081086E-2</v>
+        <v>9.2920353982300891E-2</v>
       </c>
       <c r="L32">
-        <v>2.985884907709012E-3</v>
+        <v>2.3218017181332712E-3</v>
       </c>
       <c r="M32">
-        <v>59.343659130021955</v>
+        <v>71.212390956026354</v>
       </c>
       <c r="N32">
-        <v>139.45759895555159</v>
+        <v>62.310842086523053</v>
       </c>
       <c r="O32">
-        <v>0.42553191489361702</v>
+        <v>1.142857142857143</v>
       </c>
       <c r="P32">
-        <v>299.68547860661084</v>
+        <v>100.88422052103732</v>
       </c>
       <c r="Q32">
-        <v>397.6025161711471</v>
+        <v>100.88422052103732</v>
       </c>
       <c r="R32">
         <v>9</v>
@@ -2906,18 +2904,18 @@
         <v>4</v>
       </c>
       <c r="T32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V32" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B33">
         <v>15</v>
@@ -2935,57 +2933,57 @@
         <v>72260.5</v>
       </c>
       <c r="G33">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="H33">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="I33">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>7.586206896551724E-2</v>
+        <v>4.6153846153846156E-2</v>
       </c>
       <c r="L33">
-        <v>2.472799208704253E-3</v>
+        <v>5.6053811659192824E-4</v>
       </c>
       <c r="M33">
-        <v>29.061520471073408</v>
+        <v>20.758228907909579</v>
       </c>
       <c r="N33">
-        <v>55.355277087758878</v>
+        <v>37.364812034237239</v>
       </c>
       <c r="O33">
-        <v>0.52499999999999991</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P33">
-        <v>156.37865777291881</v>
+        <v>27.677638543879439</v>
       </c>
       <c r="Q33">
-        <v>177.13688668082838</v>
+        <v>27.677638543879439</v>
       </c>
       <c r="R33">
         <v>7</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V33" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3003,43 +3001,43 @@
         <v>73466</v>
       </c>
       <c r="G34">
-        <v>239</v>
+        <v>67</v>
       </c>
       <c r="H34">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="I34">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="J34">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K34">
-        <v>7.9629629629629634E-2</v>
+        <v>7.5785582255083181E-2</v>
       </c>
       <c r="L34">
-        <v>4.4196324726680624E-3</v>
+        <v>2.5718608169440242E-3</v>
       </c>
       <c r="M34">
+        <v>53.085781177687636</v>
+      </c>
+      <c r="N34">
         <v>51.724607301336668</v>
       </c>
-      <c r="N34">
-        <v>62.613998312144389</v>
-      </c>
       <c r="O34">
-        <v>0.82608695652173914</v>
+        <v>1.0263157894736843</v>
       </c>
       <c r="P34">
-        <v>374.32281599651537</v>
+        <v>99.365692973620455</v>
       </c>
       <c r="Q34">
-        <v>431.49211880325595</v>
+        <v>99.365692973620455</v>
       </c>
       <c r="R34">
         <v>14</v>
       </c>
       <c r="S34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T34">
         <v>4</v>
@@ -3048,12 +3046,12 @@
         <v>4</v>
       </c>
       <c r="V34" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B35">
         <v>62</v>
@@ -3071,43 +3069,43 @@
         <v>74323</v>
       </c>
       <c r="G35">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="H35">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I35">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="J35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>2.0172910662824207E-2</v>
+        <v>2.3622047244094488E-2</v>
       </c>
       <c r="L35">
-        <v>2.8386050283860501E-3</v>
+        <v>1.7239092958493568E-3</v>
       </c>
       <c r="M35">
-        <v>48.43722669967574</v>
+        <v>20.182177791531558</v>
       </c>
       <c r="N35">
-        <v>39.018877063627677</v>
+        <v>45.746269660804863</v>
       </c>
       <c r="O35">
-        <v>1.2413793103448276</v>
+        <v>0.44117647058823528</v>
       </c>
       <c r="P35">
-        <v>164.14837937112335</v>
+        <v>37.673398544192246</v>
       </c>
       <c r="Q35">
-        <v>188.36699272096121</v>
+        <v>37.673398544192246</v>
       </c>
       <c r="R35">
         <v>7</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T35">
         <v>4</v>
@@ -3116,12 +3114,12 @@
         <v>4</v>
       </c>
       <c r="V35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B36">
         <v>49</v>
@@ -3139,43 +3137,43 @@
         <v>96338</v>
       </c>
       <c r="G36">
-        <v>267</v>
+        <v>56</v>
       </c>
       <c r="H36">
-        <v>153</v>
+        <v>45</v>
       </c>
       <c r="I36">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="J36">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="K36">
-        <v>0.1095360824742268</v>
+        <v>8.6705202312138727E-2</v>
       </c>
       <c r="L36">
-        <v>1.4253948343691202E-3</v>
+        <v>1.217841376160755E-3</v>
       </c>
       <c r="M36">
-        <v>73</v>
+        <v>46.710539973842096</v>
       </c>
       <c r="N36">
-        <v>90</v>
+        <v>79.926923955240923</v>
       </c>
       <c r="O36">
-        <v>0.81111111111111112</v>
+        <v>0.58441558441558439</v>
       </c>
       <c r="P36">
-        <v>277.14920384479643</v>
+        <v>63.318731964541506</v>
       </c>
       <c r="Q36">
-        <v>383.02642778550518</v>
+        <v>63.318731964541506</v>
       </c>
       <c r="R36">
         <v>25</v>
       </c>
       <c r="S36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T36">
         <v>4</v>
@@ -3184,12 +3182,12 @@
         <v>4</v>
       </c>
       <c r="V36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B37">
         <v>63</v>
@@ -3207,43 +3205,43 @@
         <v>11841.5</v>
       </c>
       <c r="G37">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>7</v>
       </c>
-      <c r="I37">
-        <v>29</v>
-      </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>3.3613445378151259E-2</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1.4553014553014554E-2</v>
+        <v>7.2164948453608251E-3</v>
       </c>
       <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
         <v>25.334628214330952</v>
       </c>
-      <c r="N37">
-        <v>33.779504285774607</v>
-      </c>
       <c r="O37">
-        <v>0.74999999999999989</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>304.01553857197143</v>
+        <v>59.114132500105555</v>
       </c>
       <c r="Q37">
-        <v>329.35016678630245</v>
+        <v>59.114132500105555</v>
       </c>
       <c r="R37">
         <v>3</v>
       </c>
       <c r="S37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T37">
         <v>4</v>
@@ -3252,12 +3250,12 @@
         <v>4</v>
       </c>
       <c r="V37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B38">
         <v>34</v>
@@ -3275,43 +3273,43 @@
         <v>110705</v>
       </c>
       <c r="G38">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="H38">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="I38">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="J38">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K38">
-        <v>7.441860465116279E-2</v>
+        <v>8.9810017271157172E-2</v>
       </c>
       <c r="L38">
-        <v>1.3913043478260871E-3</v>
+        <v>2.1359467269757505E-3</v>
       </c>
       <c r="M38">
-        <v>40.648570525269861</v>
+        <v>37.035364256356985</v>
       </c>
       <c r="N38">
-        <v>64.134411273203554</v>
+        <v>36.132062689128766</v>
       </c>
       <c r="O38">
-        <v>0.63380281690140849</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="P38">
-        <v>181.56361501287205</v>
+        <v>67.74761754211643</v>
       </c>
       <c r="Q38">
-        <v>238.47161374824987</v>
+        <v>67.74761754211643</v>
       </c>
       <c r="R38">
         <v>29</v>
       </c>
       <c r="S38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T38">
         <v>4</v>
@@ -3320,12 +3318,12 @@
         <v>4</v>
       </c>
       <c r="V38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B39">
         <v>27</v>
@@ -3343,37 +3341,37 @@
         <v>26356</v>
       </c>
       <c r="G39">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="H39">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="I39">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J39">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K39">
-        <v>0.14859437751004015</v>
+        <v>0.20444444444444446</v>
       </c>
       <c r="L39">
-        <v>4.2372881355932203E-3</v>
+        <v>5.2640814177925951E-3</v>
       </c>
       <c r="M39">
+        <v>178.32751555623008</v>
+      </c>
+      <c r="N39">
         <v>151.76809834572771</v>
       </c>
-      <c r="N39">
-        <v>117.62027621793898</v>
-      </c>
       <c r="O39">
-        <v>1.2903225806451613</v>
+        <v>1.1750000000000003</v>
       </c>
       <c r="P39">
-        <v>474.27530733039913</v>
+        <v>326.30141144331458</v>
       </c>
       <c r="Q39">
-        <v>588.101381089695</v>
+        <v>326.30141144331458</v>
       </c>
       <c r="R39">
         <v>10</v>
@@ -3388,12 +3386,12 @@
         <v>6</v>
       </c>
       <c r="V39" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B40">
         <v>23</v>
@@ -3411,43 +3409,43 @@
         <v>62663.5</v>
       </c>
       <c r="G40">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="H40">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="I40">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="J40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K40">
-        <v>5.8375634517766499E-2</v>
+        <v>4.0106951871657755E-2</v>
       </c>
       <c r="L40">
-        <v>1.9522776572668113E-2</v>
+        <v>3.6275695284159614E-3</v>
       </c>
       <c r="M40">
-        <v>36.703982382088455</v>
+        <v>23.937379814405517</v>
       </c>
       <c r="N40">
-        <v>52.662235591692131</v>
+        <v>43.087283665929931</v>
       </c>
       <c r="O40">
-        <v>0.69696969696969702</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="P40">
-        <v>331.93166675975647</v>
+        <v>62.237187517454345</v>
       </c>
       <c r="Q40">
-        <v>351.08157061128088</v>
+        <v>62.237187517454345</v>
       </c>
       <c r="R40">
         <v>8</v>
       </c>
       <c r="S40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T40">
         <v>4</v>
@@ -3456,12 +3454,12 @@
         <v>4</v>
       </c>
       <c r="V40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B41">
         <v>11</v>
@@ -3479,37 +3477,37 @@
         <v>161560</v>
       </c>
       <c r="G41">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="H41">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="I41">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="J41">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="K41">
-        <v>2.514792899408284E-2</v>
+        <v>8.5034013605442185E-3</v>
       </c>
       <c r="L41">
-        <v>1.1396293727083541E-3</v>
+        <v>9.8444575703878715E-4</v>
       </c>
       <c r="M41">
+        <v>8.0465461747957416</v>
+      </c>
+      <c r="N41">
+        <v>22.282743253280515</v>
+      </c>
+      <c r="O41">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="P41">
         <v>20.425847982173806</v>
       </c>
-      <c r="N41">
-        <v>44.56548650656103</v>
-      </c>
-      <c r="O41">
-        <v>0.45833333333333337</v>
-      </c>
-      <c r="P41">
-        <v>103.98613518197574</v>
-      </c>
       <c r="Q41">
-        <v>126.26887843525625</v>
+        <v>20.425847982173806</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -3524,12 +3522,12 @@
         <v>3</v>
       </c>
       <c r="V41" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B42">
         <v>47</v>
@@ -3547,37 +3545,37 @@
         <v>62553.5</v>
       </c>
       <c r="G42">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="H42">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I42">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K42">
-        <v>3.7356321839080463E-2</v>
+        <v>6.7129629629629636E-2</v>
       </c>
       <c r="L42">
-        <v>2.9178148808558925E-3</v>
+        <v>1.7043033659991478E-3</v>
       </c>
       <c r="M42">
-        <v>15.986315713749031</v>
+        <v>46.360315569872192</v>
       </c>
       <c r="N42">
-        <v>36.768526141622772</v>
+        <v>19.183578856498837</v>
       </c>
       <c r="O42">
-        <v>0.43478260869565216</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="P42">
-        <v>124.69326256724243</v>
+        <v>84.727473282869866</v>
       </c>
       <c r="Q42">
-        <v>153.4686308519907</v>
+        <v>84.727473282869866</v>
       </c>
       <c r="R42">
         <v>11</v>
@@ -3592,12 +3590,12 @@
         <v>4</v>
       </c>
       <c r="V42" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B43">
         <v>16</v>
@@ -3615,37 +3613,37 @@
         <v>139004.5</v>
       </c>
       <c r="G43">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="H43">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="I43">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="J43">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="K43">
-        <v>4.5307443365695796E-2</v>
+        <v>6.6390041493775934E-2</v>
       </c>
       <c r="L43">
-        <v>2.930952218662668E-3</v>
+        <v>3.0948188463795954E-3</v>
       </c>
       <c r="M43">
+        <v>36.689459693750926</v>
+      </c>
+      <c r="N43">
         <v>26.617843307231059</v>
       </c>
-      <c r="N43">
-        <v>31.653651500490987</v>
-      </c>
       <c r="O43">
-        <v>0.84090909090909094</v>
+        <v>1.3783783783783787</v>
       </c>
       <c r="P43">
-        <v>157.54885633198927</v>
+        <v>78.414727580761777</v>
       </c>
       <c r="Q43">
-        <v>220.13675816250554</v>
+        <v>78.414727580761777</v>
       </c>
       <c r="R43">
         <v>1</v>
@@ -3654,18 +3652,18 @@
         <v>3</v>
       </c>
       <c r="T43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V43" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B44">
         <v>45</v>
@@ -3683,57 +3681,57 @@
         <v>45596.5</v>
       </c>
       <c r="G44">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="H44">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J44">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>5.0420168067226892E-2</v>
+        <v>3.0120481927710843E-2</v>
       </c>
       <c r="L44">
-        <v>2.0715630885122412E-3</v>
+        <v>2.337228714524207E-3</v>
       </c>
       <c r="M44">
+        <v>8.7726031603302879</v>
+      </c>
+      <c r="N44">
         <v>21.931507900825721</v>
       </c>
-      <c r="N44">
-        <v>48.249317381816589</v>
-      </c>
       <c r="O44">
-        <v>0.45454545454545453</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="P44">
-        <v>149.13425372561488</v>
+        <v>39.476714221486297</v>
       </c>
       <c r="Q44">
-        <v>188.61096794710119</v>
+        <v>39.476714221486297</v>
       </c>
       <c r="R44">
         <v>8</v>
       </c>
       <c r="S44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V44" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B45">
         <v>33</v>
@@ -3751,43 +3749,43 @@
         <v>65145</v>
       </c>
       <c r="G45">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="H45">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="I45">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="J45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K45">
-        <v>2.0348837209302327E-2</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="L45">
-        <v>8.9589125733704044E-3</v>
+        <v>6.273204455255409E-3</v>
       </c>
       <c r="M45">
+        <v>15.350372246526977</v>
+      </c>
+      <c r="N45">
         <v>42.981042290275539</v>
       </c>
-      <c r="N45">
-        <v>44.516079514928236</v>
-      </c>
       <c r="O45">
-        <v>0.96551724137931039</v>
+        <v>0.3571428571428571</v>
       </c>
       <c r="P45">
-        <v>313.14759382915037</v>
+        <v>90.56719625450917</v>
       </c>
       <c r="Q45">
-        <v>331.56804052498273</v>
+        <v>90.56719625450917</v>
       </c>
       <c r="R45">
         <v>6</v>
       </c>
       <c r="S45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T45">
         <v>4</v>
@@ -3796,12 +3794,12 @@
         <v>4</v>
       </c>
       <c r="V45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B46">
         <v>39</v>
@@ -3819,43 +3817,43 @@
         <v>62802.5</v>
       </c>
       <c r="G46">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="H46">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I46">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K46">
-        <v>6.0790273556231005E-2</v>
+        <v>5.5118110236220472E-2</v>
       </c>
       <c r="L46">
-        <v>2.472799208704253E-3</v>
+        <v>1.1624527753560012E-3</v>
       </c>
       <c r="M46">
+        <v>39.807332510648465</v>
+      </c>
+      <c r="N46">
         <v>30.253572708092832</v>
       </c>
-      <c r="N46">
-        <v>38.215039210222521</v>
-      </c>
       <c r="O46">
-        <v>0.79166666666666674</v>
+        <v>1.3157894736842106</v>
       </c>
       <c r="P46">
-        <v>101.90677122726005</v>
+        <v>52.545678914055962</v>
       </c>
       <c r="Q46">
-        <v>116.23741093109352</v>
+        <v>52.545678914055962</v>
       </c>
       <c r="R46">
         <v>3</v>
       </c>
       <c r="S46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T46">
         <v>4</v>
@@ -3867,9 +3865,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B47">
         <v>70</v>
@@ -3887,43 +3885,43 @@
         <v>21471</v>
       </c>
       <c r="G47">
-        <v>64</v>
+        <v>8</v>
       </c>
       <c r="H47">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I47">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>9.90990990990991E-2</v>
+        <v>6.9230769230769235E-2</v>
       </c>
       <c r="L47">
-        <v>1.8529956763434219E-3</v>
+        <v>0</v>
       </c>
       <c r="M47">
+        <v>27.94466955428252</v>
+      </c>
+      <c r="N47">
         <v>41.917004331423776</v>
       </c>
-      <c r="N47">
-        <v>83.834008662847552</v>
-      </c>
       <c r="O47">
-        <v>0.5</v>
+        <v>0.66666666666666674</v>
       </c>
       <c r="P47">
-        <v>298.07647524568023</v>
+        <v>37.259559405710029</v>
       </c>
       <c r="Q47">
-        <v>339.99347957710398</v>
+        <v>37.259559405710029</v>
       </c>
       <c r="R47">
         <v>6</v>
       </c>
       <c r="S47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>4</v>
@@ -3932,12 +3930,12 @@
         <v>4</v>
       </c>
       <c r="V47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -3955,43 +3953,43 @@
         <v>104913.5</v>
       </c>
       <c r="G48">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="H48">
-        <v>118</v>
+        <v>20</v>
       </c>
       <c r="I48">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="J48">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>6.1617458279845959E-2</v>
+        <v>3.7974683544303799E-2</v>
       </c>
       <c r="L48">
-        <v>1.8131101813110182E-3</v>
+        <v>3.2410533423362594E-3</v>
       </c>
       <c r="M48">
-        <v>43.845644268850052</v>
+        <v>19.063323595152198</v>
       </c>
       <c r="N48">
-        <v>68.627964942547919</v>
+        <v>52.424139886668542</v>
       </c>
       <c r="O48">
-        <v>0.63888888888888873</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="P48">
-        <v>239.24471111916009</v>
+        <v>64.815300223517468</v>
       </c>
       <c r="Q48">
-        <v>273.55869359043402</v>
+        <v>64.815300223517468</v>
       </c>
       <c r="R48">
         <v>14</v>
       </c>
       <c r="S48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T48">
         <v>4</v>
@@ -4000,12 +3998,12 @@
         <v>4</v>
       </c>
       <c r="V48" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B49">
         <v>52</v>
@@ -4023,57 +4021,57 @@
         <v>62438.5</v>
       </c>
       <c r="G49">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="I49">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="J49">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="K49">
-        <v>8.6567164179104483E-2</v>
+        <v>6.8396226415094338E-2</v>
       </c>
       <c r="L49">
-        <v>2.9756369722893808E-3</v>
+        <v>1.7968806152519226E-3</v>
       </c>
       <c r="M49">
-        <v>36.836246866917051</v>
+        <v>40.039398768388097</v>
       </c>
       <c r="N49">
-        <v>110.50874060075112</v>
+        <v>49.64885447280124</v>
       </c>
       <c r="O49">
-        <v>0.33333333333333343</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="P49">
-        <v>273.86948757577454</v>
+        <v>80.078797536776193</v>
       </c>
       <c r="Q49">
-        <v>350.74513321107969</v>
+        <v>80.078797536776193</v>
       </c>
       <c r="R49">
         <v>28</v>
       </c>
       <c r="S49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B50">
         <v>7</v>
@@ -4091,43 +4089,43 @@
         <v>175609.5</v>
       </c>
       <c r="G50">
-        <v>411</v>
+        <v>99</v>
       </c>
       <c r="H50">
-        <v>244</v>
+        <v>85</v>
       </c>
       <c r="I50">
-        <v>190</v>
+        <v>68</v>
       </c>
       <c r="J50">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K50">
-        <v>6.9794050343249425E-2</v>
+        <v>7.2831423895253683E-2</v>
       </c>
       <c r="L50">
-        <v>4.1334012796557388E-3</v>
+        <v>3.1875498054657102E-3</v>
       </c>
       <c r="M50">
-        <v>66.055651886714557</v>
+        <v>48.40284836526498</v>
       </c>
       <c r="N50">
-        <v>72.888995185340207</v>
+        <v>73.458440460225674</v>
       </c>
       <c r="O50">
-        <v>0.90624999999999989</v>
+        <v>0.6589147286821706</v>
       </c>
       <c r="P50">
-        <v>247.13924930029413</v>
+        <v>87.125127057476959</v>
       </c>
       <c r="Q50">
-        <v>289.84764491670438</v>
+        <v>87.125127057476959</v>
       </c>
       <c r="R50">
         <v>40</v>
       </c>
       <c r="S50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50">
         <v>5</v>
@@ -4136,12 +4134,12 @@
         <v>5</v>
       </c>
       <c r="V50" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B51">
         <v>40</v>
@@ -4159,57 +4157,57 @@
         <v>133979.5</v>
       </c>
       <c r="G51">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="H51">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="I51">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J51">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="K51">
-        <v>5.4827175208581644E-2</v>
+        <v>3.2998565279770443E-2</v>
       </c>
       <c r="L51">
-        <v>2.870390814749393E-3</v>
+        <v>1.779517750689563E-3</v>
       </c>
       <c r="M51">
-        <v>29.10893084389776</v>
+        <v>17.166805369478169</v>
       </c>
       <c r="N51">
-        <v>60.457010214249195</v>
+        <v>30.601696528200211</v>
       </c>
       <c r="O51">
-        <v>0.48148148148148145</v>
+        <v>0.56097560975609762</v>
       </c>
       <c r="P51">
-        <v>147.78380274594247</v>
+        <v>32.094462212502663</v>
       </c>
       <c r="Q51">
-        <v>190.3276247485623</v>
+        <v>32.094462212502663</v>
       </c>
       <c r="R51">
         <v>25</v>
       </c>
       <c r="S51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V51" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B52">
         <v>54</v>
@@ -4227,43 +4225,43 @@
         <v>44309.5</v>
       </c>
       <c r="G52">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="H52">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I52">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J52">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K52">
-        <v>8.0291970802919707E-2</v>
+        <v>9.8039215686274508E-2</v>
       </c>
       <c r="L52">
-        <v>2.3482658959537574E-3</v>
+        <v>3.0003000300030001E-3</v>
       </c>
       <c r="M52">
-        <v>24.825376048025817</v>
+        <v>49.650752096051633</v>
       </c>
       <c r="N52">
-        <v>81.246685248084503</v>
+        <v>38.366490256039903</v>
       </c>
       <c r="O52">
-        <v>0.30555555555555552</v>
+        <v>1.2941176470588234</v>
       </c>
       <c r="P52">
-        <v>203.11671312021124</v>
+        <v>72.219275776075108</v>
       </c>
       <c r="Q52">
-        <v>250.51061284826051</v>
+        <v>72.219275776075108</v>
       </c>
       <c r="R52">
         <v>20</v>
       </c>
       <c r="S52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T52">
         <v>4</v>
@@ -4272,12 +4270,12 @@
         <v>4</v>
       </c>
       <c r="V52" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B53">
         <v>48</v>
@@ -4295,43 +4293,43 @@
         <v>39636.5</v>
       </c>
       <c r="G53">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="H53">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I53">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="J53">
         <v>2</v>
       </c>
       <c r="K53">
-        <v>0.1069182389937107</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="L53">
-        <v>2.6655443322109989E-3</v>
+        <v>3.4659973706226842E-3</v>
       </c>
       <c r="M53">
+        <v>27.752198100235891</v>
+      </c>
+      <c r="N53">
         <v>40.366833600343121</v>
       </c>
-      <c r="N53">
-        <v>37.843906500321673</v>
-      </c>
       <c r="O53">
-        <v>1.0666666666666667</v>
+        <v>0.68749999999999989</v>
       </c>
       <c r="P53">
-        <v>262.38441840223027</v>
+        <v>100.91708400085778</v>
       </c>
       <c r="Q53">
-        <v>277.52198100235893</v>
+        <v>100.91708400085778</v>
       </c>
       <c r="R53">
         <v>8</v>
       </c>
       <c r="S53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T53">
         <v>5</v>
@@ -4340,12 +4338,12 @@
         <v>5</v>
       </c>
       <c r="V53" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B54">
         <v>2</v>
@@ -4363,43 +4361,43 @@
         <v>84159</v>
       </c>
       <c r="G54">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="H54">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="I54">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="J54">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="K54">
-        <v>9.7744360902255634E-2</v>
+        <v>8.0838323353293412E-2</v>
       </c>
       <c r="L54">
-        <v>2.7634838955593673E-3</v>
+        <v>3.7680360261005421E-3</v>
       </c>
       <c r="M54">
+        <v>29.705676160600767</v>
+      </c>
+      <c r="N54">
         <v>43.964400717689138</v>
       </c>
-      <c r="N54">
-        <v>57.03489822835347</v>
-      </c>
       <c r="O54">
-        <v>0.77083333333333337</v>
+        <v>0.67567567567567566</v>
       </c>
       <c r="P54">
-        <v>245.96299860977436</v>
+        <v>78.422985063986033</v>
       </c>
       <c r="Q54">
-        <v>288.73917228103943</v>
+        <v>78.422985063986033</v>
       </c>
       <c r="R54">
         <v>11</v>
       </c>
       <c r="S54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T54">
         <v>4</v>
@@ -4408,12 +4406,12 @@
         <v>4</v>
       </c>
       <c r="V54" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B55">
         <v>19</v>
@@ -4431,37 +4429,37 @@
         <v>62208.5</v>
       </c>
       <c r="G55">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="H55">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="I55">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="J55">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K55">
-        <v>4.7826086956521741E-2</v>
+        <v>7.1672354948805458E-2</v>
       </c>
       <c r="L55">
-        <v>3.3637000700770846E-3</v>
+        <v>2.5632262474367738E-3</v>
       </c>
       <c r="M55">
+        <v>30.542449986738148</v>
+      </c>
+      <c r="N55">
         <v>14.467476309507543</v>
       </c>
-      <c r="N55">
-        <v>43.402428928522632</v>
-      </c>
       <c r="O55">
-        <v>0.33333333333333331</v>
+        <v>2.1111111111111112</v>
       </c>
       <c r="P55">
-        <v>167.17972624319827</v>
+        <v>78.767371018429969</v>
       </c>
       <c r="Q55">
-        <v>176.82471044953664</v>
+        <v>78.767371018429969</v>
       </c>
       <c r="R55">
         <v>7</v>
@@ -4470,18 +4468,18 @@
         <v>3</v>
       </c>
       <c r="T55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B56">
         <v>56</v>
@@ -4499,43 +4497,43 @@
         <v>56702</v>
       </c>
       <c r="G56">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="H56">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="I56">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="J56">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="K56">
-        <v>0.11160714285714286</v>
+        <v>0.10182767624020887</v>
       </c>
       <c r="L56">
-        <v>5.2015604681404422E-3</v>
+        <v>3.5816618911174787E-3</v>
       </c>
       <c r="M56">
-        <v>98.761948432154071</v>
+        <v>81.125886212126559</v>
       </c>
       <c r="N56">
-        <v>105.81637332016507</v>
+        <v>114.63440443017882</v>
       </c>
       <c r="O56">
-        <v>0.93333333333333335</v>
+        <v>0.70769230769230773</v>
       </c>
       <c r="P56">
-        <v>347.43042573454198</v>
+        <v>142.85210398222284</v>
       </c>
       <c r="Q56">
-        <v>432.08352439067409</v>
+        <v>142.85210398222284</v>
       </c>
       <c r="R56">
         <v>31</v>
       </c>
       <c r="S56">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T56">
         <v>5</v>
@@ -4544,12 +4542,12 @@
         <v>5</v>
       </c>
       <c r="V56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B57">
         <v>35</v>
@@ -4567,43 +4565,43 @@
         <v>60518.5</v>
       </c>
       <c r="G57">
-        <v>191</v>
+        <v>25</v>
       </c>
       <c r="H57">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I57">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="J57">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K57">
-        <v>6.8085106382978725E-2</v>
+        <v>4.3715846994535519E-2</v>
       </c>
       <c r="L57">
-        <v>3.1813361611876989E-3</v>
+        <v>2.0790020790020791E-3</v>
       </c>
       <c r="M57">
-        <v>54.528780455563172</v>
+        <v>26.438196584515477</v>
       </c>
       <c r="N57">
-        <v>56.18116774209539</v>
+        <v>61.138329601692043</v>
       </c>
       <c r="O57">
-        <v>0.97058823529411764</v>
+        <v>0.4324324324324324</v>
       </c>
       <c r="P57">
-        <v>315.60597172765353</v>
+        <v>47.919231309434309</v>
       </c>
       <c r="Q57">
-        <v>355.26326660442675</v>
+        <v>47.919231309434309</v>
       </c>
       <c r="R57">
         <v>17</v>
       </c>
       <c r="S57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T57">
         <v>5</v>
@@ -4612,12 +4610,12 @@
         <v>5</v>
       </c>
       <c r="V57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B58">
         <v>75</v>
@@ -4635,57 +4633,57 @@
         <v>51685</v>
       </c>
       <c r="G58">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H58">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I58">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>4.1860465116279069E-2</v>
+        <v>2.0080321285140562E-2</v>
       </c>
       <c r="L58">
-        <v>1.5494267121165168E-3</v>
+        <v>8.0038418440851614E-4</v>
       </c>
       <c r="M58">
+        <v>7.7391893199187392</v>
+      </c>
+      <c r="N58">
         <v>13.543581309857794</v>
       </c>
-      <c r="N58">
-        <v>25.152365289735897</v>
-      </c>
       <c r="O58">
-        <v>0.53846153846153855</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="P58">
-        <v>79.326690529167067</v>
+        <v>17.413175969817161</v>
       </c>
       <c r="Q58">
-        <v>90.935474509045179</v>
+        <v>17.413175969817161</v>
       </c>
       <c r="R58">
         <v>6</v>
       </c>
       <c r="S58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V58" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B59">
         <v>12</v>
@@ -4703,43 +4701,43 @@
         <v>89832</v>
       </c>
       <c r="G59">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H59">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I59">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="J59">
         <v>1</v>
       </c>
       <c r="K59">
-        <v>1.8826135105204873E-2</v>
+        <v>1.509433962264151E-2</v>
       </c>
       <c r="L59">
-        <v>6.8875793984847326E-4</v>
+        <v>1.1651131824234355E-3</v>
       </c>
       <c r="M59">
-        <v>15.584646896428888</v>
+        <v>13.358268768367621</v>
       </c>
       <c r="N59">
-        <v>20.037403152551427</v>
+        <v>14.471457832398256</v>
       </c>
       <c r="O59">
-        <v>0.77777777777777779</v>
+        <v>0.92307692307692302</v>
       </c>
       <c r="P59">
-        <v>86.828746994389519</v>
+        <v>28.942915664796512</v>
       </c>
       <c r="Q59">
-        <v>90.168314186481425</v>
+        <v>28.942915664796512</v>
       </c>
       <c r="R59">
         <v>9</v>
       </c>
       <c r="S59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T59">
         <v>3</v>
@@ -4748,12 +4746,12 @@
         <v>3</v>
       </c>
       <c r="V59" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -4771,37 +4769,37 @@
         <v>60446</v>
       </c>
       <c r="G60">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="H60">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="I60">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J60">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K60">
-        <v>8.4967320261437912E-2</v>
+        <v>8.5409252669039148E-2</v>
       </c>
       <c r="L60">
-        <v>1.735879289624783E-3</v>
+        <v>1.7551557700745941E-3</v>
       </c>
       <c r="M60">
+        <v>41.359229725705589</v>
+      </c>
+      <c r="N60">
         <v>44.667968103762036</v>
       </c>
-      <c r="N60">
-        <v>67.829136750157161</v>
-      </c>
       <c r="O60">
-        <v>0.65853658536585369</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="P60">
-        <v>213.41362538464082</v>
+        <v>54.594183237931375</v>
       </c>
       <c r="Q60">
-        <v>243.19227078714883</v>
+        <v>54.594183237931375</v>
       </c>
       <c r="R60">
         <v>5</v>
@@ -4816,12 +4814,12 @@
         <v>4</v>
       </c>
       <c r="V60" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B61">
         <v>72</v>
@@ -4839,57 +4837,57 @@
         <v>47104.5</v>
       </c>
       <c r="G61">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="H61">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="I61">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="J61">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K61">
-        <v>6.8235294117647061E-2</v>
+        <v>0.10299003322259136</v>
       </c>
       <c r="L61">
-        <v>3.0637254901960784E-3</v>
+        <v>5.4671364354270443E-3</v>
       </c>
       <c r="M61">
+        <v>74.302879767325834</v>
+      </c>
+      <c r="N61">
         <v>67.93406150155505</v>
       </c>
-      <c r="N61">
-        <v>78.548758611173028</v>
-      </c>
       <c r="O61">
-        <v>0.8648648648648648</v>
+        <v>1.09375</v>
       </c>
       <c r="P61">
-        <v>301.45739791315054</v>
+        <v>169.83515375388762</v>
       </c>
       <c r="Q61">
-        <v>371.5143988366292</v>
+        <v>169.83515375388762</v>
       </c>
       <c r="R61">
         <v>7</v>
       </c>
       <c r="S61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V61" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B62">
         <v>50</v>
@@ -4907,43 +4905,43 @@
         <v>36240.5</v>
       </c>
       <c r="G62">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="H62">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K62">
-        <v>4.954954954954955E-2</v>
+        <v>2.7210884353741496E-2</v>
       </c>
       <c r="L62">
-        <v>1.9749835418038184E-3</v>
+        <v>4.3070686597415763E-3</v>
       </c>
       <c r="M62">
+        <v>8.2780314841130771</v>
+      </c>
+      <c r="N62">
         <v>27.593438280376922</v>
       </c>
-      <c r="N62">
-        <v>35.871469764490008</v>
-      </c>
       <c r="O62">
-        <v>0.76923076923076905</v>
+        <v>0.3</v>
       </c>
       <c r="P62">
-        <v>162.80128585422386</v>
+        <v>55.186876560753845</v>
       </c>
       <c r="Q62">
-        <v>195.91341179067615</v>
+        <v>55.186876560753845</v>
       </c>
       <c r="R62">
         <v>10</v>
       </c>
       <c r="S62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T62">
         <v>4</v>
@@ -4952,12 +4950,12 @@
         <v>4</v>
       </c>
       <c r="V62" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B63">
         <v>44</v>
@@ -4975,43 +4973,43 @@
         <v>22819</v>
       </c>
       <c r="G63">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="H63">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="I63">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J63">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K63">
-        <v>0.19018404907975461</v>
+        <v>0.18584070796460178</v>
       </c>
       <c r="L63">
-        <v>5.8064516129032262E-3</v>
+        <v>2.1687269572760789E-3</v>
       </c>
       <c r="M63">
-        <v>127.08707655900784</v>
+        <v>56.970068802313861</v>
       </c>
       <c r="N63">
-        <v>65.734694771900607</v>
+        <v>113.94013760462772</v>
       </c>
       <c r="O63">
-        <v>1.9333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="P63">
-        <v>407.55510758578373</v>
+        <v>100.79319865024759</v>
       </c>
       <c r="Q63">
-        <v>512.73061922082479</v>
+        <v>100.79319865024759</v>
       </c>
       <c r="R63">
         <v>11</v>
       </c>
       <c r="S63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T63">
         <v>6</v>
@@ -5020,12 +5018,12 @@
         <v>6</v>
       </c>
       <c r="V63" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -5043,37 +5041,37 @@
         <v>99765</v>
       </c>
       <c r="G64">
-        <v>271</v>
+        <v>82</v>
       </c>
       <c r="H64">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="I64">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="J64">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K64">
-        <v>9.0909090909090912E-2</v>
+        <v>8.3028083028083025E-2</v>
       </c>
       <c r="L64">
-        <v>3.7127503663898389E-3</v>
+        <v>4.7804878048780487E-3</v>
       </c>
       <c r="M64">
-        <v>52.122487846439135</v>
+        <v>65.15310980804891</v>
       </c>
       <c r="N64">
-        <v>71.16724302109958</v>
+        <v>78.183731769658692</v>
       </c>
       <c r="O64">
-        <v>0.73239436619718323</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="P64">
-        <v>271.63835012278855</v>
+        <v>114.26853104796271</v>
       </c>
       <c r="Q64">
-        <v>331.77968225329522</v>
+        <v>114.26853104796271</v>
       </c>
       <c r="R64">
         <v>16</v>
@@ -5091,9 +5089,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B65">
         <v>17</v>
@@ -5111,37 +5109,37 @@
         <v>53953.5</v>
       </c>
       <c r="G65">
-        <v>219</v>
+        <v>61</v>
       </c>
       <c r="H65">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="I65">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="J65">
         <v>4</v>
       </c>
       <c r="K65">
-        <v>8.7044534412955468E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L65">
-        <v>8.0018289894833103E-3</v>
+        <v>6.785072839752544E-3</v>
       </c>
       <c r="M65">
-        <v>75.99136293289591</v>
+        <v>35.215509651829819</v>
       </c>
       <c r="N65">
-        <v>133.44824710167089</v>
+        <v>74.137915056483834</v>
       </c>
       <c r="O65">
-        <v>0.56944444444444431</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="P65">
-        <v>405.90508493424892</v>
+        <v>131.59479922525878</v>
       </c>
       <c r="Q65">
-        <v>428.14645945119412</v>
+        <v>131.59479922525878</v>
       </c>
       <c r="R65">
         <v>13</v>
@@ -5150,18 +5148,18 @@
         <v>4</v>
       </c>
       <c r="T65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V65" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B66">
         <v>38</v>
@@ -5179,43 +5177,43 @@
         <v>20532</v>
       </c>
       <c r="G66">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="H66">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>3.8095238095238099E-2</v>
+        <v>1.7441860465116279E-2</v>
       </c>
       <c r="L66">
-        <v>1.0845986984815619E-3</v>
+        <v>2.3866348448687352E-3</v>
       </c>
       <c r="M66">
-        <v>43.834015195791935</v>
+        <v>14.61133839859731</v>
       </c>
       <c r="N66">
-        <v>53.574907461523473</v>
+        <v>73.056691992986558</v>
       </c>
       <c r="O66">
-        <v>0.81818181818181823</v>
+        <v>0.19999999999999998</v>
       </c>
       <c r="P66">
-        <v>165.59516851743621</v>
+        <v>24.352230664328854</v>
       </c>
       <c r="Q66">
-        <v>194.81784531463083</v>
+        <v>24.352230664328854</v>
       </c>
       <c r="R66">
         <v>5</v>
       </c>
       <c r="S66">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T66">
         <v>4</v>
@@ -5224,12 +5222,12 @@
         <v>4</v>
       </c>
       <c r="V66" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B67">
         <v>53</v>
@@ -5247,37 +5245,37 @@
         <v>32564</v>
       </c>
       <c r="G67">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="H67">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="I67">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="J67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K67">
-        <v>0.12012987012987013</v>
+        <v>0.12052117263843648</v>
       </c>
       <c r="L67">
-        <v>5.4054054054054057E-3</v>
+        <v>4.1459369817578775E-3</v>
       </c>
       <c r="M67">
-        <v>113.62240510993736</v>
+        <v>107.48065348237317</v>
       </c>
       <c r="N67">
-        <v>135.11853580641201</v>
+        <v>119.76415673750154</v>
       </c>
       <c r="O67">
-        <v>0.84090909090909083</v>
+        <v>0.89743589743589736</v>
       </c>
       <c r="P67">
-        <v>350.07984277115833</v>
+        <v>144.33116324775824</v>
       </c>
       <c r="Q67">
-        <v>405.35560741923598</v>
+        <v>144.33116324775824</v>
       </c>
       <c r="R67">
         <v>7</v>
@@ -5295,9 +5293,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B68">
         <v>18</v>
@@ -5315,37 +5313,37 @@
         <v>70131.5</v>
       </c>
       <c r="G68">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H68">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I68">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K68">
-        <v>2.5000000000000001E-2</v>
+        <v>3.2663316582914576E-2</v>
       </c>
       <c r="L68">
-        <v>3.1957390146471372E-3</v>
+        <v>2.0257826887661143E-3</v>
       </c>
       <c r="M68">
+        <v>18.536606232577373</v>
+      </c>
+      <c r="N68">
         <v>8.5553567227280194</v>
       </c>
-      <c r="N68">
-        <v>14.258927871213363</v>
-      </c>
       <c r="O68">
-        <v>0.60000000000000009</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="P68">
-        <v>68.442853781824155</v>
+        <v>34.221426890912078</v>
       </c>
       <c r="Q68">
-        <v>68.442853781824155</v>
+        <v>34.221426890912078</v>
       </c>
       <c r="R68">
         <v>7</v>
@@ -5354,18 +5352,18 @@
         <v>2</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V68" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B69">
         <v>10</v>
@@ -5383,43 +5381,43 @@
         <v>105353</v>
       </c>
       <c r="G69">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="H69">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="I69">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K69">
-        <v>8.1790123456790126E-2</v>
+        <v>4.0572792362768499E-2</v>
       </c>
       <c r="L69">
-        <v>1.0651896037494673E-3</v>
+        <v>1.5316281206922958E-4</v>
       </c>
       <c r="M69">
+        <v>14.237847996734788</v>
+      </c>
+      <c r="N69">
         <v>46.510303456000308</v>
       </c>
-      <c r="N69">
-        <v>45.561113589551319</v>
-      </c>
       <c r="O69">
-        <v>1.0208333333333335</v>
+        <v>0.30612244897959184</v>
       </c>
       <c r="P69">
-        <v>137.63253063510294</v>
+        <v>17.085417596081744</v>
       </c>
       <c r="Q69">
-        <v>168.95579622791948</v>
+        <v>17.085417596081744</v>
       </c>
       <c r="R69">
         <v>10</v>
       </c>
       <c r="S69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T69">
         <v>4</v>
@@ -5428,12 +5426,12 @@
         <v>4</v>
       </c>
       <c r="V69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B70">
         <v>8</v>
@@ -5451,57 +5449,57 @@
         <v>114523</v>
       </c>
       <c r="G70">
-        <v>406</v>
+        <v>126</v>
       </c>
       <c r="H70">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="I70">
-        <v>211</v>
+        <v>72</v>
       </c>
       <c r="J70">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K70">
-        <v>0.1180637544273908</v>
+        <v>8.6910994764397911E-2</v>
       </c>
       <c r="L70">
-        <v>4.2105263157894736E-3</v>
+        <v>3.4515819750719078E-3</v>
       </c>
       <c r="M70">
-        <v>84.699143403508458</v>
+        <v>71.601337722553552</v>
       </c>
       <c r="N70">
-        <v>99.54332317525737</v>
+        <v>109.14838067462431</v>
       </c>
       <c r="O70">
-        <v>0.85087719298245612</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="P70">
-        <v>368.48493315753166</v>
+        <v>134.47080499113716</v>
       </c>
       <c r="Q70">
-        <v>420.87615588135139</v>
+        <v>134.47080499113716</v>
       </c>
       <c r="R70">
         <v>43</v>
       </c>
       <c r="S70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -5519,37 +5517,37 @@
         <v>132454.5</v>
       </c>
       <c r="G71">
-        <v>152</v>
+        <v>68</v>
       </c>
       <c r="H71">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I71">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="J71">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K71">
-        <v>5.4961832061068701E-2</v>
+        <v>7.1800208116545264E-2</v>
       </c>
       <c r="L71">
-        <v>2.6159334126040429E-3</v>
+        <v>1.7670966601873123E-3</v>
       </c>
       <c r="M71">
-        <v>23.404263350811036</v>
+        <v>52.848336598605556</v>
       </c>
       <c r="N71">
-        <v>45.298574227376193</v>
+        <v>30.954025722040402</v>
       </c>
       <c r="O71">
-        <v>0.51666666666666672</v>
+        <v>1.7073170731707314</v>
       </c>
       <c r="P71">
-        <v>120.79619793966985</v>
+        <v>67.947861341064282</v>
       </c>
       <c r="Q71">
-        <v>147.97534247609556</v>
+        <v>67.947861341064282</v>
       </c>
       <c r="R71">
         <v>16</v>
@@ -5567,9 +5565,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -5587,43 +5585,43 @@
         <v>15884</v>
       </c>
       <c r="G72">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="H72">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I72">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J72">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K72">
-        <v>0.19</v>
+        <v>7.5949367088607597E-2</v>
       </c>
       <c r="L72">
-        <v>2.5848142164781908E-3</v>
+        <v>8.5034013605442174E-4</v>
       </c>
       <c r="M72">
-        <v>88</v>
+        <v>37.773860488541928</v>
       </c>
       <c r="N72">
-        <v>50</v>
+        <v>100.73029463611181</v>
       </c>
       <c r="O72">
-        <v>1.76</v>
+        <v>0.375</v>
       </c>
       <c r="P72">
-        <v>283.30395366406447</v>
+        <v>81.843364391840836</v>
       </c>
       <c r="Q72">
-        <v>396.62553512969021</v>
+        <v>81.843364391840836</v>
       </c>
       <c r="R72">
         <v>5</v>
       </c>
       <c r="S72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T72">
         <v>5</v>
@@ -5632,12 +5630,12 @@
         <v>5</v>
       </c>
       <c r="V72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -5655,57 +5653,57 @@
         <v>36180</v>
       </c>
       <c r="G73">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="H73">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="I73">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="J73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K73">
-        <v>6.7961165048543687E-2</v>
+        <v>6.097560975609756E-2</v>
       </c>
       <c r="L73">
-        <v>2.8776978417266188E-3</v>
+        <v>2.3376623376623377E-3</v>
       </c>
       <c r="M73">
+        <v>41.459369817578775</v>
+      </c>
+      <c r="N73">
         <v>44.223327805417362</v>
       </c>
-      <c r="N73">
-        <v>85.682697622996102</v>
-      </c>
       <c r="O73">
-        <v>0.51612903225806472</v>
+        <v>0.9375</v>
       </c>
       <c r="P73">
-        <v>281.92371475953564</v>
+        <v>91.210613598673305</v>
       </c>
       <c r="Q73">
-        <v>331.6749585406302</v>
+        <v>91.210613598673305</v>
       </c>
       <c r="R73">
         <v>11</v>
       </c>
       <c r="S73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V73" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B74">
         <v>37</v>
@@ -5723,43 +5721,43 @@
         <v>43473</v>
       </c>
       <c r="G74">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I74">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J74">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K74">
-        <v>4.1580041580041582E-2</v>
+        <v>0.10328638497652583</v>
       </c>
       <c r="L74">
-        <v>5.0137879167711202E-4</v>
+        <v>2.3594725884802221E-3</v>
       </c>
       <c r="M74">
         <v>41.405010006210752</v>
       </c>
       <c r="N74">
-        <v>59.807236675637746</v>
+        <v>41.405010006210752</v>
       </c>
       <c r="O74">
-        <v>0.6923076923076924</v>
+        <v>1</v>
       </c>
       <c r="P74">
-        <v>181.72198836059161</v>
+        <v>80.509741678743126</v>
       </c>
       <c r="Q74">
-        <v>223.12699836680238</v>
+        <v>80.509741678743126</v>
       </c>
       <c r="R74">
         <v>13</v>
       </c>
       <c r="S74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T74">
         <v>4</v>
@@ -5768,12 +5766,12 @@
         <v>4</v>
       </c>
       <c r="V74" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B75">
         <v>22</v>
@@ -5791,57 +5789,57 @@
         <v>80766.5</v>
       </c>
       <c r="G75">
-        <v>317</v>
+        <v>65</v>
       </c>
       <c r="H75">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="I75">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="J75">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="K75">
-        <v>0.1681260945709282</v>
+        <v>0.11587982832618025</v>
       </c>
       <c r="L75">
-        <v>5.4200542005420054E-3</v>
+        <v>4.1832669322709164E-3</v>
       </c>
       <c r="M75">
-        <v>112.67047600180767</v>
+        <v>55.716169451443363</v>
       </c>
       <c r="N75">
-        <v>128.7662582877802</v>
+        <v>108.9560647050448</v>
       </c>
       <c r="O75">
-        <v>0.875</v>
+        <v>0.51136363636363635</v>
       </c>
       <c r="P75">
-        <v>404.87083134715505</v>
+        <v>81.717048528783593</v>
       </c>
       <c r="Q75">
-        <v>557.16169451443363</v>
+        <v>81.717048528783593</v>
       </c>
       <c r="R75">
         <v>26</v>
       </c>
       <c r="S75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V75" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B76">
         <v>42</v>
@@ -5859,37 +5857,37 @@
         <v>26152.5</v>
       </c>
       <c r="G76">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="H76">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>1.4814814814814815E-2</v>
+        <v>2.7397260273972601E-2</v>
       </c>
       <c r="L76">
-        <v>5.422153369481022E-3</v>
+        <v>7.1479628305932811E-4</v>
       </c>
       <c r="M76">
         <v>11.471178663607686</v>
       </c>
       <c r="N76">
-        <v>34.413535990823057</v>
+        <v>15.294904884810247</v>
       </c>
       <c r="O76">
-        <v>0.33333333333333337</v>
+        <v>0.75000000000000011</v>
       </c>
       <c r="P76">
-        <v>137.65414396329223</v>
+        <v>22.942357327215372</v>
       </c>
       <c r="Q76">
-        <v>160.5965012905076</v>
+        <v>22.942357327215372</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -5898,18 +5896,18 @@
         <v>2</v>
       </c>
       <c r="T76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V76" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B77">
         <v>43</v>
@@ -5927,57 +5925,57 @@
         <v>46861.5</v>
       </c>
       <c r="G77">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="H77">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I77">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="J77">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K77">
-        <v>5.6818181818181816E-2</v>
+        <v>3.1690140845070422E-2</v>
       </c>
       <c r="L77">
-        <v>1.8932222642938281E-3</v>
+        <v>1.4988758431176618E-3</v>
       </c>
       <c r="M77">
+        <v>17.071583282652071</v>
+      </c>
+      <c r="N77">
         <v>25.607374923978107</v>
       </c>
-      <c r="N77">
-        <v>34.143166565304142</v>
-      </c>
       <c r="O77">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="P77">
-        <v>134.43871835088504</v>
+        <v>42.678958206630178</v>
       </c>
       <c r="Q77">
-        <v>166.44793700585768</v>
+        <v>42.678958206630178</v>
       </c>
       <c r="R77">
         <v>8</v>
       </c>
       <c r="S77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V77" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B78">
         <v>26</v>
@@ -5995,37 +5993,37 @@
         <v>158043</v>
       </c>
       <c r="G78">
-        <v>453</v>
+        <v>131</v>
       </c>
       <c r="H78">
-        <v>249</v>
+        <v>96</v>
       </c>
       <c r="I78">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="J78">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K78">
-        <v>5.8788947677836566E-2</v>
+        <v>7.0781893004115221E-2</v>
       </c>
       <c r="L78">
-        <v>5.6714745833916815E-3</v>
+        <v>7.3490505026750546E-3</v>
       </c>
       <c r="M78">
-        <v>65.172136696974874</v>
+        <v>60.742962358345508</v>
       </c>
       <c r="N78">
-        <v>92.379921919983801</v>
+        <v>74.663224565466365</v>
       </c>
       <c r="O78">
-        <v>0.70547945205479456</v>
+        <v>0.81355932203389814</v>
       </c>
       <c r="P78">
-        <v>312.57316046898632</v>
+        <v>139.83536126244124</v>
       </c>
       <c r="Q78">
-        <v>354.33394709034883</v>
+        <v>139.83536126244124</v>
       </c>
       <c r="R78">
         <v>26</v>
@@ -6043,9 +6041,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B79">
         <v>51</v>
@@ -6063,57 +6061,57 @@
         <v>40572.5</v>
       </c>
       <c r="G79">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="H79">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I79">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>5.46875E-2</v>
+        <v>1.3513513513513514E-2</v>
       </c>
       <c r="L79">
-        <v>3.4385745545482964E-3</v>
+        <v>7.3385518590998039E-4</v>
       </c>
       <c r="M79">
         <v>22.182512785753897</v>
       </c>
       <c r="N79">
-        <v>14.788341857169266</v>
+        <v>22.182512785753897</v>
       </c>
       <c r="O79">
-        <v>1.4999999999999998</v>
+        <v>1</v>
       </c>
       <c r="P79">
-        <v>81.335880214430958</v>
+        <v>29.576683714338532</v>
       </c>
       <c r="Q79">
-        <v>88.730051143015586</v>
+        <v>29.576683714338532</v>
       </c>
       <c r="R79">
         <v>2</v>
       </c>
       <c r="S79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V79" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <v>44333</v>
+        <v>44340</v>
       </c>
       <c r="B80">
         <v>24</v>
@@ -6131,43 +6129,43 @@
         <v>68758.5</v>
       </c>
       <c r="G80">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="H80">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="I80">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="J80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K80">
-        <v>7.6388888888888895E-2</v>
+        <v>7.550644567219153E-2</v>
       </c>
       <c r="L80">
-        <v>3.5046728971962616E-3</v>
+        <v>4.5086351826379338E-3</v>
       </c>
       <c r="M80">
-        <v>37.813506693717869</v>
+        <v>36.359141051651797</v>
       </c>
       <c r="N80">
-        <v>40.722237977850007</v>
+        <v>46.539700546114297</v>
       </c>
       <c r="O80">
-        <v>0.92857142857142871</v>
+        <v>0.78125</v>
       </c>
       <c r="P80">
-        <v>283.60130020288403</v>
+        <v>122.16671393355003</v>
       </c>
       <c r="Q80">
-        <v>314.14297868627148</v>
+        <v>122.16671393355003</v>
       </c>
       <c r="R80">
         <v>5</v>
       </c>
       <c r="S80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T80">
         <v>4</v>
@@ -6176,7 +6174,7 @@
         <v>4</v>
       </c>
       <c r="V80" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6185,18 +6183,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6411,18 +6409,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FC38AA4-138F-4E67-937F-5832D2341BC4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{470286F4-F2D3-4219-827A-2229BAD1E2B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/OpenData_Slovakia_CovidAutomat.xlsx
+++ b/OpenData_Slovakia_CovidAutomat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://healthgovsk.sharepoint.com/sites/IZA585/Shared Documents/Projects/Covid/Data covid/OpenData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D6305570-E2DC-4C51-ABA3-F8DC15C45C73}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{81BDF093-9F4F-4863-9A47-85369C2980B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2AFBEA45-3865-4092-A26A-9105F879395B}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{89A4D9EC-44BA-4D1B-AA8D-6DEEF183EF00}"/>
   </bookViews>
@@ -733,7 +733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{789F216F-3896-4E49-82F5-622525A6A359}">
   <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection sqref="A1:V80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -807,7 +809,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>44340</v>
+        <v>44347</v>
       </c>
       <c r="B2">
         <v>41</v>
@@ -825,43 +827,37 @@
         <v>36281.5</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>8.3333333333333329E-2</v>
+        <v>0.05</v>
       </c>
       <c r="L2">
-        <v>1.6173177407315252E-3</v>
+        <v>2.1834061135371178E-3</v>
       </c>
       <c r="M2">
+        <v>22.049804997037057</v>
+      </c>
+      <c r="N2">
         <v>35.830933120185222</v>
       </c>
-      <c r="N2">
-        <v>38.58715874481485</v>
-      </c>
       <c r="O2">
-        <v>0.92857142857142871</v>
+        <v>0.61538461538461531</v>
       </c>
       <c r="P2">
-        <v>71.661866240370443</v>
-      </c>
-      <c r="Q2">
-        <v>71.661866240370443</v>
-      </c>
-      <c r="R2">
-        <v>9</v>
+        <v>55.124512492592636</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T2">
         <v>4</v>
@@ -870,12 +866,12 @@
         <v>4</v>
       </c>
       <c r="V2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>44340</v>
+        <v>44347</v>
       </c>
       <c r="B3">
         <v>32</v>
@@ -893,57 +889,51 @@
         <v>110828.5</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H3">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I3">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K3">
-        <v>6.5351418002466091E-2</v>
+       